--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-11-16.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-11-16.xlsx
@@ -802,22 +802,22 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>3.65</v>
+        <v>3.8</v>
       </c>
       <c r="G3" t="n">
-        <v>5.5</v>
+        <v>5.8</v>
       </c>
       <c r="H3" t="n">
         <v>1.71</v>
       </c>
       <c r="I3" t="n">
-        <v>2.18</v>
+        <v>2.12</v>
       </c>
       <c r="J3" t="n">
-        <v>3.05</v>
+        <v>3.35</v>
       </c>
       <c r="K3" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="L3" t="n">
         <v>1.28</v>
@@ -826,16 +826,16 @@
         <v>1.01</v>
       </c>
       <c r="N3" t="n">
-        <v>1.87</v>
+        <v>2.06</v>
       </c>
       <c r="O3" t="n">
         <v>1.28</v>
       </c>
       <c r="P3" t="n">
-        <v>1.87</v>
+        <v>2.06</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.66</v>
+        <v>1.75</v>
       </c>
       <c r="R3" t="n">
         <v>1.33</v>
@@ -850,10 +850,10 @@
         <v>1.78</v>
       </c>
       <c r="V3" t="n">
-        <v>1.84</v>
+        <v>1.89</v>
       </c>
       <c r="W3" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="X3" t="n">
         <v>1000</v>
@@ -937,22 +937,22 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="G4" t="n">
-        <v>2.6</v>
+        <v>2.74</v>
       </c>
       <c r="H4" t="n">
-        <v>2.94</v>
+        <v>2.74</v>
       </c>
       <c r="I4" t="n">
-        <v>4.2</v>
+        <v>3.9</v>
       </c>
       <c r="J4" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="K4" t="n">
-        <v>4.6</v>
+        <v>7</v>
       </c>
       <c r="L4" t="n">
         <v>1.29</v>
@@ -961,40 +961,40 @@
         <v>1.01</v>
       </c>
       <c r="N4" t="n">
-        <v>1.98</v>
+        <v>1.94</v>
       </c>
       <c r="O4" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="P4" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="R4" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="S4" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="T4" t="n">
         <v>1.01</v>
       </c>
-      <c r="P4" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="R4" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="S4" t="n">
-        <v>2.48</v>
-      </c>
-      <c r="T4" t="n">
-        <v>1.48</v>
-      </c>
       <c r="U4" t="n">
-        <v>1.82</v>
+        <v>1.01</v>
       </c>
       <c r="V4" t="n">
-        <v>1.31</v>
+        <v>1.35</v>
       </c>
       <c r="W4" t="n">
-        <v>1.71</v>
+        <v>1.57</v>
       </c>
       <c r="X4" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="Y4" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="Z4" t="n">
         <v>1000</v>
@@ -1003,25 +1003,25 @@
         <v>1000</v>
       </c>
       <c r="AB4" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AC4" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AD4" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AE4" t="n">
         <v>1000</v>
       </c>
       <c r="AF4" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AG4" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AH4" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AI4" t="n">
         <v>1000</v>
@@ -1096,13 +1096,13 @@
         <v>1.01</v>
       </c>
       <c r="N5" t="n">
-        <v>1.25</v>
+        <v>1.3</v>
       </c>
       <c r="O5" t="n">
         <v>1.01</v>
       </c>
       <c r="P5" t="n">
-        <v>1.24</v>
+        <v>1.3</v>
       </c>
       <c r="Q5" t="n">
         <v>1.02</v>
@@ -1111,7 +1111,7 @@
         <v>1.18</v>
       </c>
       <c r="S5" t="n">
-        <v>1.41</v>
+        <v>1.42</v>
       </c>
       <c r="T5" t="n">
         <v>1.01</v>
@@ -1207,22 +1207,22 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>2.14</v>
+        <v>2.26</v>
       </c>
       <c r="G6" t="n">
         <v>2.34</v>
       </c>
       <c r="H6" t="n">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="I6" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="J6" t="n">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="K6" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="L6" t="n">
         <v>1.28</v>
@@ -1231,31 +1231,31 @@
         <v>1.06</v>
       </c>
       <c r="N6" t="n">
-        <v>3.35</v>
+        <v>3.5</v>
       </c>
       <c r="O6" t="n">
-        <v>1.28</v>
+        <v>1.31</v>
       </c>
       <c r="P6" t="n">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="R6" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="S6" t="n">
-        <v>2.82</v>
+        <v>3.1</v>
       </c>
       <c r="T6" t="n">
-        <v>1.67</v>
+        <v>1.61</v>
       </c>
       <c r="U6" t="n">
-        <v>2.12</v>
+        <v>1.97</v>
       </c>
       <c r="V6" t="n">
-        <v>1.35</v>
+        <v>1.38</v>
       </c>
       <c r="W6" t="n">
         <v>1.74</v>
@@ -1342,58 +1342,58 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>2.32</v>
+        <v>2.38</v>
       </c>
       <c r="G7" t="n">
-        <v>2.92</v>
+        <v>3.05</v>
       </c>
       <c r="H7" t="n">
-        <v>2.76</v>
+        <v>2.58</v>
       </c>
       <c r="I7" t="n">
         <v>3.35</v>
       </c>
       <c r="J7" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="K7" t="n">
-        <v>4</v>
+        <v>4.7</v>
       </c>
       <c r="L7" t="n">
-        <v>1.28</v>
+        <v>1.01</v>
       </c>
       <c r="M7" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="N7" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="O7" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="P7" t="n">
         <v>2.14</v>
       </c>
-      <c r="O7" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="P7" t="n">
-        <v>2.04</v>
-      </c>
       <c r="Q7" t="n">
-        <v>1.79</v>
+        <v>1.72</v>
       </c>
       <c r="R7" t="n">
-        <v>1.31</v>
+        <v>1.45</v>
       </c>
       <c r="S7" t="n">
-        <v>2.44</v>
+        <v>2.54</v>
       </c>
       <c r="T7" t="n">
-        <v>1.46</v>
+        <v>1.51</v>
       </c>
       <c r="U7" t="n">
-        <v>1.87</v>
+        <v>2.14</v>
       </c>
       <c r="V7" t="n">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="W7" t="n">
-        <v>1.55</v>
+        <v>1.51</v>
       </c>
       <c r="X7" t="n">
         <v>1000</v>
@@ -1477,13 +1477,13 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="G8" t="n">
         <v>3.8</v>
       </c>
       <c r="H8" t="n">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="I8" t="n">
         <v>2.46</v>
@@ -1495,28 +1495,28 @@
         <v>3.7</v>
       </c>
       <c r="L8" t="n">
-        <v>1.37</v>
+        <v>1.36</v>
       </c>
       <c r="M8" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N8" t="n">
-        <v>2.84</v>
+        <v>3.15</v>
       </c>
       <c r="O8" t="n">
         <v>1.37</v>
       </c>
       <c r="P8" t="n">
-        <v>1.64</v>
+        <v>1.74</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.93</v>
+        <v>2.08</v>
       </c>
       <c r="R8" t="n">
         <v>1.28</v>
       </c>
       <c r="S8" t="n">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="T8" t="n">
         <v>1.83</v>
@@ -1531,58 +1531,58 @@
         <v>1.35</v>
       </c>
       <c r="X8" t="n">
-        <v>12.5</v>
+        <v>15</v>
       </c>
       <c r="Y8" t="n">
-        <v>9.4</v>
+        <v>11</v>
       </c>
       <c r="Z8" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>40</v>
+      </c>
+      <c r="AB8" t="n">
         <v>15</v>
       </c>
-      <c r="AA8" t="n">
-        <v>980</v>
-      </c>
-      <c r="AB8" t="n">
-        <v>13</v>
-      </c>
       <c r="AC8" t="n">
-        <v>8</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD8" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AE8" t="n">
-        <v>980</v>
+        <v>34</v>
       </c>
       <c r="AF8" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AG8" t="n">
-        <v>16</v>
+        <v>18.5</v>
       </c>
       <c r="AH8" t="n">
-        <v>19.5</v>
+        <v>23</v>
       </c>
       <c r="AI8" t="n">
-        <v>980</v>
+        <v>55</v>
       </c>
       <c r="AJ8" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AK8" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AL8" t="n">
+        <v>70</v>
+      </c>
+      <c r="AM8" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN8" t="n">
         <v>65</v>
       </c>
-      <c r="AM8" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN8" t="n">
-        <v>60</v>
-      </c>
       <c r="AO8" t="n">
-        <v>24</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9">
@@ -1882,7 +1882,7 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>2.4</v>
+        <v>2.42</v>
       </c>
       <c r="G11" t="n">
         <v>2.66</v>
@@ -1891,13 +1891,13 @@
         <v>3.25</v>
       </c>
       <c r="I11" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="J11" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="K11" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -2572,7 +2572,7 @@
         <v>3.1</v>
       </c>
       <c r="K16" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -2692,22 +2692,22 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>1.72</v>
+        <v>1.7</v>
       </c>
       <c r="G17" t="n">
         <v>1.8</v>
       </c>
       <c r="H17" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="I17" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="J17" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="K17" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
@@ -2725,7 +2725,7 @@
         <v>1.97</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.87</v>
+        <v>1.74</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -3100,10 +3100,10 @@
         <v>3.35</v>
       </c>
       <c r="G20" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="H20" t="n">
-        <v>2.6</v>
+        <v>2.58</v>
       </c>
       <c r="I20" t="n">
         <v>2.68</v>
@@ -3232,7 +3232,7 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>2.34</v>
+        <v>2.38</v>
       </c>
       <c r="G21" t="n">
         <v>2.58</v>
@@ -3262,10 +3262,10 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>1.96</v>
+        <v>1.95</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.87</v>
+        <v>1.79</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -3637,7 +3637,7 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>4.1</v>
+        <v>3.25</v>
       </c>
       <c r="G24" t="n">
         <v>5.5</v>
@@ -3646,10 +3646,10 @@
         <v>1.73</v>
       </c>
       <c r="I24" t="n">
-        <v>2.24</v>
+        <v>2.2</v>
       </c>
       <c r="J24" t="n">
-        <v>2.7</v>
+        <v>2.76</v>
       </c>
       <c r="K24" t="n">
         <v>4.2</v>
@@ -3910,19 +3910,19 @@
         <v>3.3</v>
       </c>
       <c r="G26" t="n">
-        <v>4.6</v>
+        <v>4.2</v>
       </c>
       <c r="H26" t="n">
-        <v>2.2</v>
+        <v>2.24</v>
       </c>
       <c r="I26" t="n">
         <v>2.46</v>
       </c>
       <c r="J26" t="n">
-        <v>2.96</v>
+        <v>3</v>
       </c>
       <c r="K26" t="n">
-        <v>3.65</v>
+        <v>3.4</v>
       </c>
       <c r="L26" t="n">
         <v>0</v>
@@ -3937,10 +3937,10 @@
         <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>1.48</v>
+        <v>1.47</v>
       </c>
       <c r="Q26" t="n">
-        <v>2.48</v>
+        <v>2.46</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -4042,16 +4042,16 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="G27" t="n">
-        <v>4.1</v>
+        <v>3.65</v>
       </c>
       <c r="H27" t="n">
-        <v>2.28</v>
+        <v>2.44</v>
       </c>
       <c r="I27" t="n">
-        <v>2.6</v>
+        <v>2.66</v>
       </c>
       <c r="J27" t="n">
         <v>3</v>
@@ -4072,10 +4072,10 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>1.51</v>
+        <v>1.52</v>
       </c>
       <c r="Q27" t="n">
-        <v>2.32</v>
+        <v>2.34</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -4177,22 +4177,22 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>2.3</v>
+        <v>2.34</v>
       </c>
       <c r="G28" t="n">
-        <v>2.5</v>
+        <v>2.48</v>
       </c>
       <c r="H28" t="n">
-        <v>3.55</v>
+        <v>3.45</v>
       </c>
       <c r="I28" t="n">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="J28" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="K28" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="L28" t="n">
         <v>0</v>
@@ -4207,7 +4207,7 @@
         <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>1.52</v>
+        <v>1.51</v>
       </c>
       <c r="Q28" t="n">
         <v>2.68</v>
@@ -4315,7 +4315,7 @@
         <v>2.14</v>
       </c>
       <c r="G29" t="n">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="H29" t="n">
         <v>3.8</v>
@@ -4345,7 +4345,7 @@
         <v>1.66</v>
       </c>
       <c r="Q29" t="n">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -4354,10 +4354,10 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>1.93</v>
+        <v>1.94</v>
       </c>
       <c r="U29" t="n">
-        <v>1.87</v>
+        <v>1.89</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -4366,13 +4366,13 @@
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="Y29" t="n">
         <v>13</v>
       </c>
       <c r="Z29" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AA29" t="n">
         <v>95</v>
@@ -4381,16 +4381,16 @@
         <v>8.4</v>
       </c>
       <c r="AC29" t="n">
-        <v>7.8</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD29" t="n">
-        <v>17.5</v>
+        <v>21</v>
       </c>
       <c r="AE29" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="AF29" t="n">
-        <v>13.5</v>
+        <v>16</v>
       </c>
       <c r="AG29" t="n">
         <v>12</v>
@@ -4399,25 +4399,25 @@
         <v>24</v>
       </c>
       <c r="AI29" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="AJ29" t="n">
-        <v>32</v>
+        <v>980</v>
       </c>
       <c r="AK29" t="n">
         <v>29</v>
       </c>
       <c r="AL29" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="AM29" t="n">
         <v>170</v>
       </c>
       <c r="AN29" t="n">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="AO29" t="n">
-        <v>80</v>
+        <v>95</v>
       </c>
     </row>
     <row r="30">
@@ -4447,16 +4447,16 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>1.73</v>
+        <v>1.77</v>
       </c>
       <c r="G30" t="n">
         <v>1.9</v>
       </c>
       <c r="H30" t="n">
-        <v>5.1</v>
+        <v>5.9</v>
       </c>
       <c r="I30" t="n">
-        <v>7.6</v>
+        <v>7.4</v>
       </c>
       <c r="J30" t="n">
         <v>3.2</v>
@@ -4477,10 +4477,10 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>1.47</v>
+        <v>1.51</v>
       </c>
       <c r="Q30" t="n">
-        <v>2.44</v>
+        <v>2.68</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -4585,19 +4585,19 @@
         <v>4.3</v>
       </c>
       <c r="G31" t="n">
-        <v>5.2</v>
+        <v>4.8</v>
       </c>
       <c r="H31" t="n">
         <v>2</v>
       </c>
       <c r="I31" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="J31" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="K31" t="n">
-        <v>3.75</v>
+        <v>3.55</v>
       </c>
       <c r="L31" t="n">
         <v>0</v>
@@ -4612,7 +4612,7 @@
         <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>1.65</v>
+        <v>1.66</v>
       </c>
       <c r="Q31" t="n">
         <v>2.06</v>
@@ -4717,22 +4717,22 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>2.46</v>
+        <v>2.36</v>
       </c>
       <c r="G32" t="n">
-        <v>2.8</v>
+        <v>2.64</v>
       </c>
       <c r="H32" t="n">
-        <v>3.15</v>
+        <v>3.25</v>
       </c>
       <c r="I32" t="n">
-        <v>3.65</v>
+        <v>3.85</v>
       </c>
       <c r="J32" t="n">
-        <v>2.98</v>
+        <v>3</v>
       </c>
       <c r="K32" t="n">
-        <v>3.3</v>
+        <v>3.45</v>
       </c>
       <c r="L32" t="n">
         <v>0</v>
@@ -4747,10 +4747,10 @@
         <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>1.25</v>
+        <v>1.5</v>
       </c>
       <c r="Q32" t="n">
-        <v>1.01</v>
+        <v>2.42</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -4852,19 +4852,19 @@
         </is>
       </c>
       <c r="F33" t="n">
-        <v>2.64</v>
+        <v>2.6</v>
       </c>
       <c r="G33" t="n">
-        <v>3.05</v>
+        <v>2.66</v>
       </c>
       <c r="H33" t="n">
-        <v>2.94</v>
+        <v>3.15</v>
       </c>
       <c r="I33" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="J33" t="n">
-        <v>2.82</v>
+        <v>3</v>
       </c>
       <c r="K33" t="n">
         <v>3.25</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-11-16.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-11-16.xlsx
@@ -691,7 +691,7 @@
         <v>1.01</v>
       </c>
       <c r="N2" t="n">
-        <v>1.69</v>
+        <v>2.44</v>
       </c>
       <c r="O2" t="n">
         <v>1.01</v>
@@ -703,16 +703,16 @@
         <v>1.86</v>
       </c>
       <c r="R2" t="n">
-        <v>1.18</v>
+        <v>1.22</v>
       </c>
       <c r="S2" t="n">
-        <v>1.86</v>
+        <v>2.48</v>
       </c>
       <c r="T2" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="U2" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="V2" t="n">
         <v>1.3</v>
@@ -805,7 +805,7 @@
         <v>3.8</v>
       </c>
       <c r="G3" t="n">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="H3" t="n">
         <v>1.71</v>
@@ -835,7 +835,7 @@
         <v>2.06</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.75</v>
+        <v>1.76</v>
       </c>
       <c r="R3" t="n">
         <v>1.33</v>
@@ -937,22 +937,22 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>2.04</v>
+        <v>2.2</v>
       </c>
       <c r="G4" t="n">
-        <v>2.74</v>
+        <v>3.15</v>
       </c>
       <c r="H4" t="n">
-        <v>2.74</v>
+        <v>2.46</v>
       </c>
       <c r="I4" t="n">
-        <v>3.9</v>
+        <v>3.5</v>
       </c>
       <c r="J4" t="n">
         <v>3.15</v>
       </c>
       <c r="K4" t="n">
-        <v>7</v>
+        <v>1000</v>
       </c>
       <c r="L4" t="n">
         <v>1.29</v>
@@ -961,7 +961,7 @@
         <v>1.01</v>
       </c>
       <c r="N4" t="n">
-        <v>1.94</v>
+        <v>2.78</v>
       </c>
       <c r="O4" t="n">
         <v>1.25</v>
@@ -970,25 +970,25 @@
         <v>1.94</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.7</v>
+        <v>1.72</v>
       </c>
       <c r="R4" t="n">
-        <v>1.18</v>
+        <v>1.23</v>
       </c>
       <c r="S4" t="n">
-        <v>1.7</v>
+        <v>2.18</v>
       </c>
       <c r="T4" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="U4" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="V4" t="n">
-        <v>1.35</v>
+        <v>1.4</v>
       </c>
       <c r="W4" t="n">
-        <v>1.57</v>
+        <v>1.46</v>
       </c>
       <c r="X4" t="n">
         <v>1000</v>
@@ -1072,58 +1072,58 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1.02</v>
+        <v>3</v>
       </c>
       <c r="G5" t="n">
-        <v>1000</v>
+        <v>4.5</v>
       </c>
       <c r="H5" t="n">
-        <v>1.02</v>
+        <v>2.04</v>
       </c>
       <c r="I5" t="n">
-        <v>1000</v>
+        <v>2.8</v>
       </c>
       <c r="J5" t="n">
-        <v>1.02</v>
+        <v>2.72</v>
       </c>
       <c r="K5" t="n">
-        <v>1000</v>
+        <v>3.95</v>
       </c>
       <c r="L5" t="n">
-        <v>1.01</v>
+        <v>1.42</v>
       </c>
       <c r="M5" t="n">
-        <v>1.01</v>
+        <v>1.08</v>
       </c>
       <c r="N5" t="n">
-        <v>1.3</v>
+        <v>2.56</v>
       </c>
       <c r="O5" t="n">
-        <v>1.01</v>
+        <v>1.43</v>
       </c>
       <c r="P5" t="n">
-        <v>1.3</v>
+        <v>1.62</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.02</v>
+        <v>2.1</v>
       </c>
       <c r="R5" t="n">
-        <v>1.18</v>
+        <v>1.23</v>
       </c>
       <c r="S5" t="n">
-        <v>1.42</v>
+        <v>3.45</v>
       </c>
       <c r="T5" t="n">
-        <v>1.01</v>
+        <v>1.93</v>
       </c>
       <c r="U5" t="n">
-        <v>1.01</v>
+        <v>1.86</v>
       </c>
       <c r="V5" t="n">
-        <v>1.01</v>
+        <v>1.55</v>
       </c>
       <c r="W5" t="n">
-        <v>1.01</v>
+        <v>1.28</v>
       </c>
       <c r="X5" t="n">
         <v>1000</v>
@@ -1207,40 +1207,40 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>2.26</v>
+        <v>2.24</v>
       </c>
       <c r="G6" t="n">
         <v>2.34</v>
       </c>
       <c r="H6" t="n">
-        <v>2.88</v>
+        <v>3.05</v>
       </c>
       <c r="I6" t="n">
-        <v>3.8</v>
+        <v>3.65</v>
       </c>
       <c r="J6" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="K6" t="n">
-        <v>4.5</v>
+        <v>4.3</v>
       </c>
       <c r="L6" t="n">
-        <v>1.28</v>
+        <v>1.3</v>
       </c>
       <c r="M6" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N6" t="n">
-        <v>3.5</v>
+        <v>3.15</v>
       </c>
       <c r="O6" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="P6" t="n">
-        <v>1.9</v>
+        <v>1.86</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="R6" t="n">
         <v>1.33</v>
@@ -1249,10 +1249,10 @@
         <v>3.1</v>
       </c>
       <c r="T6" t="n">
-        <v>1.61</v>
+        <v>1.74</v>
       </c>
       <c r="U6" t="n">
-        <v>1.97</v>
+        <v>1.92</v>
       </c>
       <c r="V6" t="n">
         <v>1.38</v>
@@ -1342,13 +1342,13 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>2.38</v>
+        <v>2.36</v>
       </c>
       <c r="G7" t="n">
         <v>3.05</v>
       </c>
       <c r="H7" t="n">
-        <v>2.58</v>
+        <v>2.56</v>
       </c>
       <c r="I7" t="n">
         <v>3.35</v>
@@ -1366,19 +1366,19 @@
         <v>1.04</v>
       </c>
       <c r="N7" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="O7" t="n">
         <v>1.24</v>
       </c>
       <c r="P7" t="n">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="Q7" t="n">
         <v>1.72</v>
       </c>
       <c r="R7" t="n">
-        <v>1.45</v>
+        <v>1.46</v>
       </c>
       <c r="S7" t="n">
         <v>2.54</v>
@@ -1507,7 +1507,7 @@
         <v>1.37</v>
       </c>
       <c r="P8" t="n">
-        <v>1.74</v>
+        <v>1.75</v>
       </c>
       <c r="Q8" t="n">
         <v>2.08</v>
@@ -1612,112 +1612,112 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>1.44</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>1.59</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>7.2</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>5.5</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>1.06</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>3.25</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="P9" t="n">
-        <v>1.24</v>
+        <v>1.78</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.01</v>
+        <v>1.9</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>3.35</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>2.02</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>1.57</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>1.09</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>2.7</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>970</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="Z9" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AA9" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB9" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AC9" t="n">
-        <v>0</v>
+        <v>970</v>
       </c>
       <c r="AD9" t="n">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="AE9" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF9" t="n">
-        <v>0</v>
+        <v>9.4</v>
       </c>
       <c r="AG9" t="n">
-        <v>0</v>
+        <v>970</v>
       </c>
       <c r="AH9" t="n">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="AI9" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ9" t="n">
-        <v>0</v>
+        <v>970</v>
       </c>
       <c r="AK9" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="AL9" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="AM9" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN9" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AO9" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="10">
@@ -1747,112 +1747,112 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>5.5</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>1.48</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>3.35</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>1.42</v>
       </c>
       <c r="M10" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N10" t="n">
-        <v>0</v>
+        <v>2.04</v>
       </c>
       <c r="O10" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="P10" t="n">
-        <v>1.24</v>
+        <v>1.56</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.01</v>
+        <v>2.16</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>3.25</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>2.24</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>1.02</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z10" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA10" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB10" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC10" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD10" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE10" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF10" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG10" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH10" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI10" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ10" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK10" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL10" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM10" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN10" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO10" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="11">
@@ -1882,22 +1882,22 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>2.42</v>
+        <v>2.52</v>
       </c>
       <c r="G11" t="n">
-        <v>2.66</v>
+        <v>2.72</v>
       </c>
       <c r="H11" t="n">
-        <v>3.25</v>
+        <v>3.05</v>
       </c>
       <c r="I11" t="n">
-        <v>3.55</v>
+        <v>3.4</v>
       </c>
       <c r="J11" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="K11" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -2017,112 +2017,112 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>2.26</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>3.05</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>2.66</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>2.74</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>5.6</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>1.61</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="P12" t="n">
-        <v>1.24</v>
+        <v>1.6</v>
       </c>
       <c r="Q12" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="R12" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="S12" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="T12" t="n">
         <v>1.01</v>
       </c>
-      <c r="R12" t="n">
-        <v>0</v>
-      </c>
-      <c r="S12" t="n">
-        <v>0</v>
-      </c>
-      <c r="T12" t="n">
-        <v>0</v>
-      </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="W12" t="n">
-        <v>0</v>
+        <v>1.48</v>
       </c>
       <c r="X12" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y12" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z12" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA12" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB12" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC12" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD12" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE12" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF12" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG12" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH12" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI12" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ12" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK12" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL12" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM12" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN12" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO12" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="13">
@@ -2152,112 +2152,112 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>1.91</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>3.2</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>7.6</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>2.9</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M13" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N13" t="n">
-        <v>0</v>
+        <v>3.2</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="P13" t="n">
-        <v>1.24</v>
+        <v>1.64</v>
       </c>
       <c r="Q13" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="R13" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="S13" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="T13" t="n">
         <v>1.01</v>
       </c>
-      <c r="R13" t="n">
-        <v>0</v>
-      </c>
-      <c r="S13" t="n">
-        <v>0</v>
-      </c>
-      <c r="T13" t="n">
-        <v>0</v>
-      </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>1.15</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>1.66</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z13" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA13" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB13" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC13" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD13" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE13" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF13" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG13" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH13" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI13" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ13" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK13" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL13" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM13" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN13" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO13" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="14">
@@ -2287,34 +2287,34 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="P14" t="n">
         <v>1.24</v>
@@ -2323,76 +2323,76 @@
         <v>1.01</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z14" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA14" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB14" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC14" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD14" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE14" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF14" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG14" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH14" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI14" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ14" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK14" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL14" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM14" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN14" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO14" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="15">
@@ -2422,112 +2422,112 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>2.34</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>3.35</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>2.78</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>4.2</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>2.48</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>4.7</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>1.58</v>
       </c>
       <c r="P15" t="n">
-        <v>1.24</v>
+        <v>1.33</v>
       </c>
       <c r="Q15" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="R15" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="S15" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="T15" t="n">
         <v>1.01</v>
       </c>
-      <c r="R15" t="n">
-        <v>0</v>
-      </c>
-      <c r="S15" t="n">
-        <v>0</v>
-      </c>
-      <c r="T15" t="n">
-        <v>0</v>
-      </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>1.31</v>
       </c>
       <c r="W15" t="n">
-        <v>0</v>
+        <v>1.42</v>
       </c>
       <c r="X15" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y15" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z15" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA15" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB15" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC15" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD15" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE15" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF15" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG15" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH15" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI15" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ15" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK15" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL15" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM15" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN15" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO15" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="16">
@@ -2557,7 +2557,7 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>2.26</v>
+        <v>2.3</v>
       </c>
       <c r="G16" t="n">
         <v>2.46</v>
@@ -2692,22 +2692,22 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>1.7</v>
+        <v>1.64</v>
       </c>
       <c r="G17" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="H17" t="n">
-        <v>5.3</v>
+        <v>5.7</v>
       </c>
       <c r="I17" t="n">
-        <v>6</v>
+        <v>6.4</v>
       </c>
       <c r="J17" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="K17" t="n">
-        <v>4.2</v>
+        <v>4.4</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
@@ -2722,10 +2722,10 @@
         <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>1.97</v>
+        <v>1.99</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.74</v>
+        <v>1.89</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -3100,7 +3100,7 @@
         <v>3.35</v>
       </c>
       <c r="G20" t="n">
-        <v>3.7</v>
+        <v>3.5</v>
       </c>
       <c r="H20" t="n">
         <v>2.58</v>
@@ -3232,7 +3232,7 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>2.38</v>
+        <v>2.36</v>
       </c>
       <c r="G21" t="n">
         <v>2.58</v>
@@ -3247,7 +3247,7 @@
         <v>3.35</v>
       </c>
       <c r="K21" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -3262,10 +3262,10 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>1.95</v>
+        <v>1.97</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.79</v>
+        <v>1.89</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -3637,19 +3637,19 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>3.25</v>
+        <v>4.1</v>
       </c>
       <c r="G24" t="n">
-        <v>5.5</v>
+        <v>5.3</v>
       </c>
       <c r="H24" t="n">
-        <v>1.73</v>
+        <v>1.74</v>
       </c>
       <c r="I24" t="n">
         <v>2.2</v>
       </c>
       <c r="J24" t="n">
-        <v>2.76</v>
+        <v>2.8</v>
       </c>
       <c r="K24" t="n">
         <v>4.2</v>
@@ -3910,7 +3910,7 @@
         <v>3.3</v>
       </c>
       <c r="G26" t="n">
-        <v>4.2</v>
+        <v>4.6</v>
       </c>
       <c r="H26" t="n">
         <v>2.24</v>
@@ -3937,7 +3937,7 @@
         <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>1.47</v>
+        <v>1.48</v>
       </c>
       <c r="Q26" t="n">
         <v>2.46</v>
@@ -4042,10 +4042,10 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="G27" t="n">
-        <v>3.65</v>
+        <v>3.55</v>
       </c>
       <c r="H27" t="n">
         <v>2.44</v>
@@ -4054,7 +4054,7 @@
         <v>2.66</v>
       </c>
       <c r="J27" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="K27" t="n">
         <v>3.3</v>
@@ -4072,10 +4072,10 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>1.52</v>
+        <v>1.49</v>
       </c>
       <c r="Q27" t="n">
-        <v>2.34</v>
+        <v>2.68</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -4177,16 +4177,16 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>2.34</v>
+        <v>2.32</v>
       </c>
       <c r="G28" t="n">
-        <v>2.48</v>
+        <v>2.52</v>
       </c>
       <c r="H28" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="I28" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="J28" t="n">
         <v>3.1</v>
@@ -4315,10 +4315,10 @@
         <v>2.14</v>
       </c>
       <c r="G29" t="n">
-        <v>2.3</v>
+        <v>2.24</v>
       </c>
       <c r="H29" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="I29" t="n">
         <v>4.2</v>
@@ -4342,7 +4342,7 @@
         <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>1.66</v>
+        <v>1.64</v>
       </c>
       <c r="Q29" t="n">
         <v>2.3</v>
@@ -4369,10 +4369,10 @@
         <v>13</v>
       </c>
       <c r="Y29" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="Z29" t="n">
-        <v>30</v>
+        <v>980</v>
       </c>
       <c r="AA29" t="n">
         <v>95</v>
@@ -4390,16 +4390,16 @@
         <v>70</v>
       </c>
       <c r="AF29" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AG29" t="n">
         <v>12</v>
       </c>
       <c r="AH29" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AI29" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AJ29" t="n">
         <v>980</v>
@@ -4414,7 +4414,7 @@
         <v>170</v>
       </c>
       <c r="AN29" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AO29" t="n">
         <v>95</v>
@@ -4447,19 +4447,19 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>1.77</v>
+        <v>1.75</v>
       </c>
       <c r="G30" t="n">
-        <v>1.9</v>
+        <v>1.87</v>
       </c>
       <c r="H30" t="n">
-        <v>5.9</v>
+        <v>6.2</v>
       </c>
       <c r="I30" t="n">
-        <v>7.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="J30" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="K30" t="n">
         <v>3.6</v>
@@ -4582,19 +4582,19 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="G31" t="n">
-        <v>4.8</v>
+        <v>5.1</v>
       </c>
       <c r="H31" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="I31" t="n">
-        <v>2.12</v>
+        <v>2.18</v>
       </c>
       <c r="J31" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="K31" t="n">
         <v>3.55</v>
@@ -4717,22 +4717,22 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>2.36</v>
+        <v>2.52</v>
       </c>
       <c r="G32" t="n">
-        <v>2.64</v>
+        <v>2.76</v>
       </c>
       <c r="H32" t="n">
-        <v>3.25</v>
+        <v>3.05</v>
       </c>
       <c r="I32" t="n">
-        <v>3.85</v>
+        <v>3.45</v>
       </c>
       <c r="J32" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="K32" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="L32" t="n">
         <v>0</v>
@@ -4747,10 +4747,10 @@
         <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="Q32" t="n">
-        <v>2.42</v>
+        <v>2.6</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -4852,7 +4852,7 @@
         </is>
       </c>
       <c r="F33" t="n">
-        <v>2.6</v>
+        <v>2.62</v>
       </c>
       <c r="G33" t="n">
         <v>2.66</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-11-16.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-11-16.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO33"/>
+  <dimension ref="A1:AO34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -667,46 +667,46 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>2.06</v>
+        <v>1.81</v>
       </c>
       <c r="G2" t="n">
-        <v>2.62</v>
+        <v>2.36</v>
       </c>
       <c r="H2" t="n">
-        <v>2.8</v>
+        <v>3.4</v>
       </c>
       <c r="I2" t="n">
-        <v>4.3</v>
+        <v>9.6</v>
       </c>
       <c r="J2" t="n">
-        <v>2.92</v>
+        <v>2.94</v>
       </c>
       <c r="K2" t="n">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="L2" t="n">
-        <v>1.01</v>
+        <v>1.32</v>
       </c>
       <c r="M2" t="n">
         <v>1.01</v>
       </c>
       <c r="N2" t="n">
-        <v>2.44</v>
+        <v>2.4</v>
       </c>
       <c r="O2" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="P2" t="n">
-        <v>1.69</v>
+        <v>1.7</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.86</v>
+        <v>1.83</v>
       </c>
       <c r="R2" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="S2" t="n">
-        <v>2.48</v>
+        <v>2.42</v>
       </c>
       <c r="T2" t="n">
         <v>1.04</v>
@@ -715,10 +715,10 @@
         <v>1.04</v>
       </c>
       <c r="V2" t="n">
-        <v>1.3</v>
+        <v>1.12</v>
       </c>
       <c r="W2" t="n">
-        <v>1.61</v>
+        <v>1.73</v>
       </c>
       <c r="X2" t="n">
         <v>1000</v>
@@ -802,31 +802,31 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="G3" t="n">
         <v>5.9</v>
       </c>
       <c r="H3" t="n">
-        <v>1.71</v>
+        <v>1.75</v>
       </c>
       <c r="I3" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="J3" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="K3" t="n">
         <v>5</v>
       </c>
       <c r="L3" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="M3" t="n">
         <v>1.01</v>
       </c>
       <c r="N3" t="n">
-        <v>2.06</v>
+        <v>3</v>
       </c>
       <c r="O3" t="n">
         <v>1.28</v>
@@ -838,19 +838,19 @@
         <v>1.76</v>
       </c>
       <c r="R3" t="n">
-        <v>1.33</v>
+        <v>1.37</v>
       </c>
       <c r="S3" t="n">
-        <v>2.6</v>
+        <v>2.58</v>
       </c>
       <c r="T3" t="n">
-        <v>1.5</v>
+        <v>1.51</v>
       </c>
       <c r="U3" t="n">
-        <v>1.78</v>
+        <v>1.79</v>
       </c>
       <c r="V3" t="n">
-        <v>1.89</v>
+        <v>1.9</v>
       </c>
       <c r="W3" t="n">
         <v>1.2</v>
@@ -937,22 +937,22 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>2.2</v>
+        <v>2.26</v>
       </c>
       <c r="G4" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="H4" t="n">
-        <v>2.46</v>
+        <v>2.36</v>
       </c>
       <c r="I4" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="J4" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="K4" t="n">
-        <v>1000</v>
+        <v>7.4</v>
       </c>
       <c r="L4" t="n">
         <v>1.29</v>
@@ -961,10 +961,10 @@
         <v>1.01</v>
       </c>
       <c r="N4" t="n">
-        <v>2.78</v>
+        <v>2.74</v>
       </c>
       <c r="O4" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="P4" t="n">
         <v>1.94</v>
@@ -973,10 +973,10 @@
         <v>1.72</v>
       </c>
       <c r="R4" t="n">
-        <v>1.23</v>
+        <v>1.27</v>
       </c>
       <c r="S4" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="T4" t="n">
         <v>1.04</v>
@@ -988,7 +988,7 @@
         <v>1.4</v>
       </c>
       <c r="W4" t="n">
-        <v>1.46</v>
+        <v>1.45</v>
       </c>
       <c r="X4" t="n">
         <v>1000</v>
@@ -1117,7 +1117,7 @@
         <v>1.93</v>
       </c>
       <c r="U5" t="n">
-        <v>1.86</v>
+        <v>1.74</v>
       </c>
       <c r="V5" t="n">
         <v>1.55</v>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>2.24</v>
+        <v>2.3</v>
       </c>
       <c r="G6" t="n">
         <v>2.34</v>
@@ -1216,43 +1216,43 @@
         <v>3.05</v>
       </c>
       <c r="I6" t="n">
-        <v>3.65</v>
+        <v>3.85</v>
       </c>
       <c r="J6" t="n">
         <v>3.35</v>
       </c>
       <c r="K6" t="n">
-        <v>4.3</v>
+        <v>4.1</v>
       </c>
       <c r="L6" t="n">
         <v>1.3</v>
       </c>
       <c r="M6" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N6" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="O6" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="P6" t="n">
-        <v>1.86</v>
+        <v>1.79</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="R6" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="S6" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="T6" t="n">
-        <v>1.74</v>
+        <v>1.69</v>
       </c>
       <c r="U6" t="n">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="V6" t="n">
         <v>1.38</v>
@@ -1291,7 +1291,7 @@
         <v>1000</v>
       </c>
       <c r="AH6" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="AI6" t="n">
         <v>1000</v>
@@ -1345,13 +1345,13 @@
         <v>2.36</v>
       </c>
       <c r="G7" t="n">
-        <v>3.05</v>
+        <v>2.86</v>
       </c>
       <c r="H7" t="n">
         <v>2.56</v>
       </c>
       <c r="I7" t="n">
-        <v>3.35</v>
+        <v>3.15</v>
       </c>
       <c r="J7" t="n">
         <v>3.2</v>
@@ -1366,7 +1366,7 @@
         <v>1.04</v>
       </c>
       <c r="N7" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="O7" t="n">
         <v>1.24</v>
@@ -1375,25 +1375,25 @@
         <v>2.16</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.72</v>
+        <v>1.68</v>
       </c>
       <c r="R7" t="n">
         <v>1.46</v>
       </c>
       <c r="S7" t="n">
-        <v>2.54</v>
+        <v>2.72</v>
       </c>
       <c r="T7" t="n">
-        <v>1.51</v>
+        <v>1.52</v>
       </c>
       <c r="U7" t="n">
-        <v>2.14</v>
+        <v>1.96</v>
       </c>
       <c r="V7" t="n">
-        <v>1.44</v>
+        <v>1.49</v>
       </c>
       <c r="W7" t="n">
-        <v>1.51</v>
+        <v>1.56</v>
       </c>
       <c r="X7" t="n">
         <v>1000</v>
@@ -1477,7 +1477,7 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="G8" t="n">
         <v>3.8</v>
@@ -1486,16 +1486,16 @@
         <v>2.2</v>
       </c>
       <c r="I8" t="n">
-        <v>2.46</v>
+        <v>2.44</v>
       </c>
       <c r="J8" t="n">
-        <v>3.35</v>
+        <v>3.25</v>
       </c>
       <c r="K8" t="n">
         <v>3.7</v>
       </c>
       <c r="L8" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="M8" t="n">
         <v>1.07</v>
@@ -1507,7 +1507,7 @@
         <v>1.37</v>
       </c>
       <c r="P8" t="n">
-        <v>1.75</v>
+        <v>1.74</v>
       </c>
       <c r="Q8" t="n">
         <v>2.08</v>
@@ -1525,7 +1525,7 @@
         <v>1.98</v>
       </c>
       <c r="V8" t="n">
-        <v>1.68</v>
+        <v>1.69</v>
       </c>
       <c r="W8" t="n">
         <v>1.35</v>
@@ -1603,118 +1603,118 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Benevento</t>
+          <t>AC Ospitaletto</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Monopoli</t>
+          <t>Union Brescia</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>1.44</v>
+        <v>5.5</v>
       </c>
       <c r="G9" t="n">
-        <v>1.59</v>
+        <v>600</v>
       </c>
       <c r="H9" t="n">
-        <v>7.2</v>
+        <v>1.48</v>
       </c>
       <c r="I9" t="n">
-        <v>12</v>
+        <v>1.8</v>
       </c>
       <c r="J9" t="n">
-        <v>4</v>
+        <v>3.35</v>
       </c>
       <c r="K9" t="n">
-        <v>5.5</v>
+        <v>500</v>
       </c>
       <c r="L9" t="n">
-        <v>1.36</v>
+        <v>1.42</v>
       </c>
       <c r="M9" t="n">
-        <v>1.06</v>
+        <v>1.01</v>
       </c>
       <c r="N9" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="O9" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="P9" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="R9" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="S9" t="n">
         <v>3.25</v>
       </c>
-      <c r="O9" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="P9" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="R9" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="S9" t="n">
-        <v>3.35</v>
-      </c>
       <c r="T9" t="n">
-        <v>2.02</v>
+        <v>1.04</v>
       </c>
       <c r="U9" t="n">
-        <v>1.57</v>
+        <v>1.04</v>
       </c>
       <c r="V9" t="n">
-        <v>1.09</v>
+        <v>2.24</v>
       </c>
       <c r="W9" t="n">
-        <v>2.7</v>
+        <v>1.02</v>
       </c>
       <c r="X9" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="Y9" t="n">
-        <v>29</v>
+        <v>1000</v>
       </c>
       <c r="Z9" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AA9" t="n">
         <v>1000</v>
       </c>
       <c r="AB9" t="n">
-        <v>8</v>
+        <v>1000</v>
       </c>
       <c r="AC9" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AD9" t="n">
-        <v>44</v>
+        <v>1000</v>
       </c>
       <c r="AE9" t="n">
         <v>1000</v>
       </c>
       <c r="AF9" t="n">
-        <v>9.4</v>
+        <v>1000</v>
       </c>
       <c r="AG9" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AH9" t="n">
-        <v>38</v>
+        <v>1000</v>
       </c>
       <c r="AI9" t="n">
         <v>1000</v>
       </c>
       <c r="AJ9" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AK9" t="n">
-        <v>22</v>
+        <v>1000</v>
       </c>
       <c r="AL9" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AM9" t="n">
         <v>1000</v>
       </c>
       <c r="AN9" t="n">
-        <v>12</v>
+        <v>1000</v>
       </c>
       <c r="AO9" t="n">
         <v>1000</v>
@@ -1738,118 +1738,118 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>AC Ospitaletto</t>
+          <t>Benevento</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Union Brescia</t>
+          <t>Monopoli</t>
         </is>
       </c>
       <c r="F10" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="G10" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="H10" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="I10" t="n">
+        <v>12</v>
+      </c>
+      <c r="J10" t="n">
+        <v>4</v>
+      </c>
+      <c r="K10" t="n">
         <v>5.5</v>
       </c>
-      <c r="G10" t="n">
-        <v>600</v>
-      </c>
-      <c r="H10" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="I10" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="J10" t="n">
+      <c r="L10" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="M10" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N10" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="O10" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="P10" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="R10" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="S10" t="n">
         <v>3.35</v>
       </c>
-      <c r="K10" t="n">
-        <v>500</v>
-      </c>
-      <c r="L10" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="M10" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="N10" t="n">
-        <v>2.04</v>
-      </c>
-      <c r="O10" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="P10" t="n">
-        <v>1.56</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>2.16</v>
-      </c>
-      <c r="R10" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="S10" t="n">
-        <v>3.25</v>
-      </c>
       <c r="T10" t="n">
-        <v>1.04</v>
+        <v>2.02</v>
       </c>
       <c r="U10" t="n">
-        <v>1.04</v>
+        <v>1.57</v>
       </c>
       <c r="V10" t="n">
-        <v>2.24</v>
+        <v>1.09</v>
       </c>
       <c r="W10" t="n">
-        <v>1.02</v>
+        <v>2.7</v>
       </c>
       <c r="X10" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="Y10" t="n">
-        <v>1000</v>
+        <v>29</v>
       </c>
       <c r="Z10" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="AA10" t="n">
         <v>1000</v>
       </c>
       <c r="AB10" t="n">
-        <v>1000</v>
+        <v>8</v>
       </c>
       <c r="AC10" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AD10" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="AE10" t="n">
         <v>1000</v>
       </c>
       <c r="AF10" t="n">
-        <v>1000</v>
+        <v>9.4</v>
       </c>
       <c r="AG10" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AH10" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AI10" t="n">
         <v>1000</v>
       </c>
       <c r="AJ10" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AK10" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AL10" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AM10" t="n">
         <v>1000</v>
       </c>
       <c r="AN10" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="AO10" t="n">
         <v>1000</v>
@@ -1882,22 +1882,22 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>2.52</v>
+        <v>2.58</v>
       </c>
       <c r="G11" t="n">
-        <v>2.72</v>
+        <v>2.76</v>
       </c>
       <c r="H11" t="n">
         <v>3.05</v>
       </c>
       <c r="I11" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="J11" t="n">
         <v>3.05</v>
       </c>
       <c r="K11" t="n">
-        <v>3.45</v>
+        <v>3.2</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -2041,22 +2041,22 @@
         <v>1.01</v>
       </c>
       <c r="N12" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="O12" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="P12" t="n">
         <v>1.61</v>
-      </c>
-      <c r="O12" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="P12" t="n">
-        <v>1.6</v>
       </c>
       <c r="Q12" t="n">
         <v>1.95</v>
       </c>
       <c r="R12" t="n">
-        <v>1.2</v>
+        <v>1.21</v>
       </c>
       <c r="S12" t="n">
-        <v>1.95</v>
+        <v>2.7</v>
       </c>
       <c r="T12" t="n">
         <v>1.01</v>
@@ -2170,7 +2170,7 @@
         <v>110</v>
       </c>
       <c r="L13" t="n">
-        <v>1.01</v>
+        <v>1.35</v>
       </c>
       <c r="M13" t="n">
         <v>1.01</v>
@@ -2179,16 +2179,16 @@
         <v>3.2</v>
       </c>
       <c r="O13" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="P13" t="n">
-        <v>1.64</v>
+        <v>1.65</v>
       </c>
       <c r="Q13" t="n">
         <v>1.89</v>
       </c>
       <c r="R13" t="n">
-        <v>1.2</v>
+        <v>1.21</v>
       </c>
       <c r="S13" t="n">
         <v>1.89</v>
@@ -2293,13 +2293,13 @@
         <v>1000</v>
       </c>
       <c r="H14" t="n">
-        <v>1.04</v>
+        <v>1.09</v>
       </c>
       <c r="I14" t="n">
         <v>1000</v>
       </c>
       <c r="J14" t="n">
-        <v>1.01</v>
+        <v>1.09</v>
       </c>
       <c r="K14" t="n">
         <v>1000</v>
@@ -2314,7 +2314,7 @@
         <v>1.01</v>
       </c>
       <c r="O14" t="n">
-        <v>1.01</v>
+        <v>1.31</v>
       </c>
       <c r="P14" t="n">
         <v>1.24</v>
@@ -2440,7 +2440,7 @@
         <v>4.7</v>
       </c>
       <c r="L15" t="n">
-        <v>1.01</v>
+        <v>1.54</v>
       </c>
       <c r="M15" t="n">
         <v>1.01</v>
@@ -2557,10 +2557,10 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>2.3</v>
+        <v>2.34</v>
       </c>
       <c r="G16" t="n">
-        <v>2.46</v>
+        <v>2.52</v>
       </c>
       <c r="H16" t="n">
         <v>3.55</v>
@@ -2569,100 +2569,100 @@
         <v>3.9</v>
       </c>
       <c r="J16" t="n">
-        <v>3.1</v>
+        <v>2.98</v>
       </c>
       <c r="K16" t="n">
-        <v>3.4</v>
+        <v>3.15</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>1.52</v>
       </c>
       <c r="M16" t="n">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="N16" t="n">
-        <v>0</v>
+        <v>2.84</v>
       </c>
       <c r="O16" t="n">
-        <v>0</v>
+        <v>1.47</v>
       </c>
       <c r="P16" t="n">
         <v>1.7</v>
       </c>
       <c r="Q16" t="n">
-        <v>2.36</v>
+        <v>2.38</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>1.96</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>1.87</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>1.34</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>1.66</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="Z16" t="n">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="AA16" t="n">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="AB16" t="n">
-        <v>0</v>
+        <v>9.4</v>
       </c>
       <c r="AC16" t="n">
-        <v>0</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD16" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="AE16" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="AF16" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AG16" t="n">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="AH16" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="AI16" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="AJ16" t="n">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="AK16" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="AL16" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="AM16" t="n">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="AN16" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="AO16" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
     </row>
     <row r="17">
@@ -2692,7 +2692,7 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>1.64</v>
+        <v>1.68</v>
       </c>
       <c r="G17" t="n">
         <v>1.73</v>
@@ -2710,94 +2710,94 @@
         <v>4.4</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>1.39</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>1.06</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>3.85</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="P17" t="n">
-        <v>1.99</v>
+        <v>1.98</v>
       </c>
       <c r="Q17" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="R17" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="S17" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="T17" t="n">
         <v>1.89</v>
       </c>
-      <c r="R17" t="n">
-        <v>0</v>
-      </c>
-      <c r="S17" t="n">
-        <v>0</v>
-      </c>
-      <c r="T17" t="n">
-        <v>0</v>
-      </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>1.97</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>2.36</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>17.5</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="Z17" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="AA17" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="AB17" t="n">
-        <v>0</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AC17" t="n">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="AD17" t="n">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="AE17" t="n">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="AF17" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AG17" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AH17" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="AI17" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AJ17" t="n">
-        <v>0</v>
+        <v>19.5</v>
       </c>
       <c r="AK17" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="AL17" t="n">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="AM17" t="n">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="AN17" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AO17" t="n">
-        <v>0</v>
+        <v>130</v>
       </c>
     </row>
     <row r="18">
@@ -2818,121 +2818,121 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Lecco</t>
+          <t>Gubbio</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Aurora Pro Patria 1919</t>
+          <t>Juventus B</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>1.02</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>1.02</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>1.02</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="P18" t="n">
-        <v>1.24</v>
+        <v>1.28</v>
       </c>
       <c r="Q18" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="R18" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="S18" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="T18" t="n">
         <v>1.01</v>
       </c>
-      <c r="R18" t="n">
-        <v>0</v>
-      </c>
-      <c r="S18" t="n">
-        <v>0</v>
-      </c>
-      <c r="T18" t="n">
-        <v>0</v>
-      </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="W18" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="X18" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y18" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z18" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA18" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB18" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC18" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD18" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE18" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF18" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG18" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH18" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI18" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ18" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK18" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL18" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM18" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN18" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO18" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="19">
@@ -2953,121 +2953,121 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Gubbio</t>
+          <t>Lecco</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Juventus B</t>
+          <t>Aurora Pro Patria 1919</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>1.61</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>2.08</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>4.7</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>2.76</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>1.43</v>
       </c>
       <c r="M19" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N19" t="n">
-        <v>0</v>
+        <v>1.47</v>
       </c>
       <c r="O19" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="P19" t="n">
-        <v>1.24</v>
+        <v>1.46</v>
       </c>
       <c r="Q19" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="R19" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="S19" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="T19" t="n">
         <v>1.01</v>
       </c>
-      <c r="R19" t="n">
-        <v>0</v>
-      </c>
-      <c r="S19" t="n">
-        <v>0</v>
-      </c>
-      <c r="T19" t="n">
-        <v>0</v>
-      </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>1.13</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>1.92</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z19" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA19" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB19" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC19" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD19" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE19" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF19" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG19" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH19" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI19" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ19" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK19" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL19" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM19" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN19" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO19" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="20">
@@ -3100,109 +3100,109 @@
         <v>3.35</v>
       </c>
       <c r="G20" t="n">
-        <v>3.5</v>
+        <v>3.65</v>
       </c>
       <c r="H20" t="n">
         <v>2.58</v>
       </c>
       <c r="I20" t="n">
-        <v>2.68</v>
+        <v>2.66</v>
       </c>
       <c r="J20" t="n">
-        <v>2.94</v>
+        <v>2.96</v>
       </c>
       <c r="K20" t="n">
-        <v>3.2</v>
+        <v>3.05</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>1.12</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>2.38</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>1.62</v>
       </c>
       <c r="P20" t="n">
-        <v>1.45</v>
+        <v>1.47</v>
       </c>
       <c r="Q20" t="n">
-        <v>2.9</v>
+        <v>2.88</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>1.16</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>6.2</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>2.06</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>1.37</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>7.8</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>7.2</v>
       </c>
       <c r="Z20" t="n">
-        <v>0</v>
+        <v>14.5</v>
       </c>
       <c r="AA20" t="n">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="AB20" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="AC20" t="n">
-        <v>0</v>
+        <v>7.2</v>
       </c>
       <c r="AD20" t="n">
-        <v>0</v>
+        <v>13.5</v>
       </c>
       <c r="AE20" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="AF20" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="AG20" t="n">
-        <v>0</v>
+        <v>16.5</v>
       </c>
       <c r="AH20" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="AI20" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="AJ20" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="AK20" t="n">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="AL20" t="n">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="AM20" t="n">
-        <v>0</v>
+        <v>240</v>
       </c>
       <c r="AN20" t="n">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="AO20" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="21">
@@ -3235,115 +3235,115 @@
         <v>2.36</v>
       </c>
       <c r="G21" t="n">
-        <v>2.58</v>
+        <v>2.5</v>
       </c>
       <c r="H21" t="n">
         <v>3.1</v>
       </c>
       <c r="I21" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="J21" t="n">
-        <v>3.35</v>
+        <v>3.5</v>
       </c>
       <c r="K21" t="n">
-        <v>3.65</v>
+        <v>3.95</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>3.85</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="P21" t="n">
-        <v>1.97</v>
+        <v>2.24</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.89</v>
+        <v>1.76</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>1.39</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>2.82</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>1.57</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>2.04</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>1.43</v>
       </c>
       <c r="W21" t="n">
-        <v>0</v>
+        <v>1.66</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>18.5</v>
       </c>
       <c r="Z21" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AA21" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="AB21" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AC21" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AD21" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="AE21" t="n">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="AF21" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="AG21" t="n">
-        <v>0</v>
+        <v>15.5</v>
       </c>
       <c r="AH21" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="AI21" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="AJ21" t="n">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="AK21" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="AL21" t="n">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="AM21" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="AN21" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO21" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Brazilian Serie B</t>
+          <t>Portuguese Segunda Liga</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -3353,126 +3353,126 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>16:30:00</t>
+          <t>15:00:00</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>America MG</t>
+          <t>Leixoes</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Cuiaba</t>
+          <t>Chaves</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>2.9</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>4.3</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>2.16</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>2.8</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>2.82</v>
       </c>
       <c r="K22" t="n">
-        <v>0</v>
+        <v>3.75</v>
       </c>
       <c r="L22" t="n">
-        <v>0</v>
+        <v>1.38</v>
       </c>
       <c r="M22" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N22" t="n">
-        <v>0</v>
+        <v>1.54</v>
       </c>
       <c r="O22" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="P22" t="n">
-        <v>1.25</v>
+        <v>1.54</v>
       </c>
       <c r="Q22" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="R22" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="S22" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="T22" t="n">
         <v>1.01</v>
       </c>
-      <c r="R22" t="n">
-        <v>0</v>
-      </c>
-      <c r="S22" t="n">
-        <v>0</v>
-      </c>
-      <c r="T22" t="n">
-        <v>0</v>
-      </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>1.56</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z22" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA22" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB22" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC22" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD22" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE22" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF22" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG22" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH22" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI22" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ22" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK22" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL22" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM22" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN22" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO22" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="23">
@@ -3643,16 +3643,16 @@
         <v>5.3</v>
       </c>
       <c r="H24" t="n">
-        <v>1.74</v>
+        <v>1.71</v>
       </c>
       <c r="I24" t="n">
-        <v>2.2</v>
+        <v>2.18</v>
       </c>
       <c r="J24" t="n">
-        <v>2.8</v>
+        <v>2.82</v>
       </c>
       <c r="K24" t="n">
-        <v>4.2</v>
+        <v>4.4</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -3883,7 +3883,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Argentinian Primera Division</t>
+          <t>Brazilian Serie B</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -3893,36 +3893,36 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>17:00:00</t>
+          <t>16:30:00</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Velez Sarsfield</t>
+          <t>America MG</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>River Plate</t>
+          <t>Cuiaba</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>4.6</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>2.24</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>2.46</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>3.4</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
         <v>0</v>
@@ -3937,10 +3937,10 @@
         <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>1.48</v>
+        <v>1.25</v>
       </c>
       <c r="Q26" t="n">
-        <v>2.46</v>
+        <v>1.01</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -4033,31 +4033,31 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Instituto</t>
+          <t>Velez Sarsfield</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Talleres</t>
+          <t>River Plate</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>3.2</v>
+        <v>3.7</v>
       </c>
       <c r="G27" t="n">
-        <v>3.55</v>
+        <v>4.3</v>
       </c>
       <c r="H27" t="n">
-        <v>2.44</v>
+        <v>2.22</v>
       </c>
       <c r="I27" t="n">
-        <v>2.66</v>
+        <v>2.5</v>
       </c>
       <c r="J27" t="n">
         <v>3.05</v>
       </c>
       <c r="K27" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -4072,10 +4072,10 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>1.49</v>
+        <v>1.47</v>
       </c>
       <c r="Q27" t="n">
-        <v>2.68</v>
+        <v>2.46</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -4153,7 +4153,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Spanish Segunda Division</t>
+          <t>Argentinian Primera Division</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -4168,31 +4168,31 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Zaragoza</t>
+          <t>Instituto</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Huesca</t>
+          <t>Talleres</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>2.32</v>
+        <v>3.1</v>
       </c>
       <c r="G28" t="n">
-        <v>2.52</v>
+        <v>3.5</v>
       </c>
       <c r="H28" t="n">
-        <v>3.5</v>
+        <v>2.44</v>
       </c>
       <c r="I28" t="n">
-        <v>3.9</v>
+        <v>2.68</v>
       </c>
       <c r="J28" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="K28" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="L28" t="n">
         <v>0</v>
@@ -4210,7 +4210,7 @@
         <v>1.51</v>
       </c>
       <c r="Q28" t="n">
-        <v>2.68</v>
+        <v>2.72</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -4288,7 +4288,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Brazilian Serie A</t>
+          <t>Spanish Segunda Division</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -4298,42 +4298,42 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>19:00:00</t>
+          <t>17:00:00</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Red Bull Bragantino</t>
+          <t>Zaragoza</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Atletico MG</t>
+          <t>Huesca</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>2.14</v>
+        <v>2.3</v>
       </c>
       <c r="G29" t="n">
-        <v>2.24</v>
+        <v>2.36</v>
       </c>
       <c r="H29" t="n">
-        <v>3.75</v>
+        <v>3.65</v>
       </c>
       <c r="I29" t="n">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="J29" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="K29" t="n">
-        <v>3.5</v>
+        <v>3.35</v>
       </c>
       <c r="L29" t="n">
         <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>1.1</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
         <v>0</v>
@@ -4342,10 +4342,10 @@
         <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>1.64</v>
+        <v>1.52</v>
       </c>
       <c r="Q29" t="n">
-        <v>2.3</v>
+        <v>2.66</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -4354,10 +4354,10 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>1.94</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>1.89</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -4366,64 +4366,64 @@
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="Z29" t="n">
-        <v>980</v>
+        <v>0</v>
       </c>
       <c r="AA29" t="n">
-        <v>95</v>
+        <v>0</v>
       </c>
       <c r="AB29" t="n">
-        <v>8.4</v>
+        <v>0</v>
       </c>
       <c r="AC29" t="n">
-        <v>8.800000000000001</v>
+        <v>0</v>
       </c>
       <c r="AD29" t="n">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="AE29" t="n">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="AF29" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="AG29" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="AH29" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="AI29" t="n">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="AJ29" t="n">
-        <v>980</v>
+        <v>0</v>
       </c>
       <c r="AK29" t="n">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="AL29" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="AM29" t="n">
-        <v>170</v>
+        <v>0</v>
       </c>
       <c r="AN29" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="AO29" t="n">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Argentinian Primera Division</t>
+          <t>Brazilian Serie A</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -4433,42 +4433,42 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>20:15:00</t>
+          <t>19:00:00</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Boca Juniors</t>
+          <t>Red Bull Bragantino</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Tigre</t>
+          <t>Atletico MG</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>1.75</v>
+        <v>2.14</v>
       </c>
       <c r="G30" t="n">
-        <v>1.87</v>
+        <v>2.26</v>
       </c>
       <c r="H30" t="n">
-        <v>6.2</v>
+        <v>3.75</v>
       </c>
       <c r="I30" t="n">
-        <v>8.199999999999999</v>
+        <v>4.2</v>
       </c>
       <c r="J30" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="K30" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
@@ -4477,10 +4477,10 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>1.51</v>
+        <v>1.66</v>
       </c>
       <c r="Q30" t="n">
-        <v>2.68</v>
+        <v>2.3</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -4489,10 +4489,10 @@
         <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>1.92</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>1.89</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -4501,58 +4501,58 @@
         <v>0</v>
       </c>
       <c r="X30" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="Y30" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="Z30" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AA30" t="n">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="AB30" t="n">
-        <v>0</v>
+        <v>8.4</v>
       </c>
       <c r="AC30" t="n">
-        <v>0</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD30" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="AE30" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="AF30" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="AG30" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AH30" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="AI30" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="AJ30" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="AK30" t="n">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="AL30" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="AM30" t="n">
-        <v>0</v>
+        <v>170</v>
       </c>
       <c r="AN30" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AO30" t="n">
-        <v>0</v>
+        <v>95</v>
       </c>
     </row>
     <row r="31">
@@ -4573,31 +4573,31 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Newells</t>
+          <t>Central Cordoba (SdE)</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Racing Club</t>
+          <t>Banfield</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>4.2</v>
+        <v>2.38</v>
       </c>
       <c r="G31" t="n">
-        <v>5.1</v>
+        <v>2.6</v>
       </c>
       <c r="H31" t="n">
-        <v>2.02</v>
+        <v>3.35</v>
       </c>
       <c r="I31" t="n">
-        <v>2.18</v>
+        <v>3.65</v>
       </c>
       <c r="J31" t="n">
-        <v>3.2</v>
+        <v>3.05</v>
       </c>
       <c r="K31" t="n">
-        <v>3.55</v>
+        <v>3.4</v>
       </c>
       <c r="L31" t="n">
         <v>0</v>
@@ -4612,10 +4612,10 @@
         <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>1.66</v>
+        <v>1.52</v>
       </c>
       <c r="Q31" t="n">
-        <v>2.06</v>
+        <v>2.38</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -4708,31 +4708,31 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Central Cordoba (SdE)</t>
+          <t>Boca Juniors</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Banfield</t>
+          <t>Tigre</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>2.52</v>
+        <v>1.72</v>
       </c>
       <c r="G32" t="n">
-        <v>2.76</v>
+        <v>1.8</v>
       </c>
       <c r="H32" t="n">
-        <v>3.05</v>
+        <v>6.2</v>
       </c>
       <c r="I32" t="n">
-        <v>3.45</v>
+        <v>8</v>
       </c>
       <c r="J32" t="n">
-        <v>3.05</v>
+        <v>3.3</v>
       </c>
       <c r="K32" t="n">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="L32" t="n">
         <v>0</v>
@@ -4843,120 +4843,255 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
+          <t>Newells</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>Racing Club</t>
+        </is>
+      </c>
+      <c r="F33" t="n">
+        <v>4</v>
+      </c>
+      <c r="G33" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="H33" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="I33" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="J33" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="K33" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="L33" t="n">
+        <v>0</v>
+      </c>
+      <c r="M33" t="n">
+        <v>0</v>
+      </c>
+      <c r="N33" t="n">
+        <v>0</v>
+      </c>
+      <c r="O33" t="n">
+        <v>0</v>
+      </c>
+      <c r="P33" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="R33" t="n">
+        <v>0</v>
+      </c>
+      <c r="S33" t="n">
+        <v>0</v>
+      </c>
+      <c r="T33" t="n">
+        <v>0</v>
+      </c>
+      <c r="U33" t="n">
+        <v>0</v>
+      </c>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="n">
+        <v>0</v>
+      </c>
+      <c r="X33" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y33" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO33" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Argentinian Primera Division</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>2025-11-16</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>20:15:00</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
           <t>Estudiantes</t>
         </is>
       </c>
-      <c r="E33" t="inlineStr">
+      <c r="E34" t="inlineStr">
         <is>
           <t>Argentinos Juniors</t>
         </is>
       </c>
-      <c r="F33" t="n">
-        <v>2.62</v>
-      </c>
-      <c r="G33" t="n">
+      <c r="F34" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="G34" t="n">
         <v>2.66</v>
       </c>
-      <c r="H33" t="n">
+      <c r="H34" t="n">
         <v>3.15</v>
       </c>
-      <c r="I33" t="n">
+      <c r="I34" t="n">
         <v>3.4</v>
       </c>
-      <c r="J33" t="n">
-        <v>3</v>
-      </c>
-      <c r="K33" t="n">
+      <c r="J34" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="K34" t="n">
         <v>3.25</v>
       </c>
-      <c r="L33" t="n">
-        <v>0</v>
-      </c>
-      <c r="M33" t="n">
-        <v>0</v>
-      </c>
-      <c r="N33" t="n">
-        <v>0</v>
-      </c>
-      <c r="O33" t="n">
-        <v>0</v>
-      </c>
-      <c r="P33" t="n">
-        <v>1.49</v>
-      </c>
-      <c r="Q33" t="n">
-        <v>2.66</v>
-      </c>
-      <c r="R33" t="n">
-        <v>0</v>
-      </c>
-      <c r="S33" t="n">
-        <v>0</v>
-      </c>
-      <c r="T33" t="n">
-        <v>0</v>
-      </c>
-      <c r="U33" t="n">
-        <v>0</v>
-      </c>
-      <c r="V33" t="n">
-        <v>0</v>
-      </c>
-      <c r="W33" t="n">
-        <v>0</v>
-      </c>
-      <c r="X33" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y33" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z33" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA33" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB33" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC33" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD33" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE33" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF33" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG33" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH33" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI33" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ33" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK33" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL33" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM33" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN33" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO33" t="n">
+      <c r="L34" t="n">
+        <v>0</v>
+      </c>
+      <c r="M34" t="n">
+        <v>0</v>
+      </c>
+      <c r="N34" t="n">
+        <v>0</v>
+      </c>
+      <c r="O34" t="n">
+        <v>0</v>
+      </c>
+      <c r="P34" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="R34" t="n">
+        <v>0</v>
+      </c>
+      <c r="S34" t="n">
+        <v>0</v>
+      </c>
+      <c r="T34" t="n">
+        <v>0</v>
+      </c>
+      <c r="U34" t="n">
+        <v>0</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="n">
+        <v>0</v>
+      </c>
+      <c r="X34" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y34" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO34" t="n">
         <v>0</v>
       </c>
     </row>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-11-16.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-11-16.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO34"/>
+  <dimension ref="A1:AO35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -673,7 +673,7 @@
         <v>2.36</v>
       </c>
       <c r="H2" t="n">
-        <v>3.4</v>
+        <v>1.05</v>
       </c>
       <c r="I2" t="n">
         <v>9.6</v>
@@ -682,7 +682,7 @@
         <v>2.94</v>
       </c>
       <c r="K2" t="n">
-        <v>6.6</v>
+        <v>1000</v>
       </c>
       <c r="L2" t="n">
         <v>1.32</v>
@@ -703,7 +703,7 @@
         <v>1.83</v>
       </c>
       <c r="R2" t="n">
-        <v>1.2</v>
+        <v>1.23</v>
       </c>
       <c r="S2" t="n">
         <v>2.42</v>
@@ -937,7 +937,7 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>2.26</v>
+        <v>2.32</v>
       </c>
       <c r="G4" t="n">
         <v>3.2</v>
@@ -946,13 +946,13 @@
         <v>2.36</v>
       </c>
       <c r="I4" t="n">
-        <v>3.45</v>
+        <v>3.35</v>
       </c>
       <c r="J4" t="n">
         <v>3.1</v>
       </c>
       <c r="K4" t="n">
-        <v>7.4</v>
+        <v>7</v>
       </c>
       <c r="L4" t="n">
         <v>1.29</v>
@@ -985,7 +985,7 @@
         <v>1.04</v>
       </c>
       <c r="V4" t="n">
-        <v>1.4</v>
+        <v>1.43</v>
       </c>
       <c r="W4" t="n">
         <v>1.45</v>
@@ -1093,7 +1093,7 @@
         <v>1.42</v>
       </c>
       <c r="M5" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N5" t="n">
         <v>2.56</v>
@@ -1105,16 +1105,16 @@
         <v>1.62</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="R5" t="n">
-        <v>1.23</v>
+        <v>1.18</v>
       </c>
       <c r="S5" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="T5" t="n">
-        <v>1.93</v>
+        <v>1.92</v>
       </c>
       <c r="U5" t="n">
         <v>1.74</v>
@@ -1477,10 +1477,10 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="G8" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="H8" t="n">
         <v>2.2</v>
@@ -1507,7 +1507,7 @@
         <v>1.37</v>
       </c>
       <c r="P8" t="n">
-        <v>1.74</v>
+        <v>1.75</v>
       </c>
       <c r="Q8" t="n">
         <v>2.08</v>
@@ -1540,7 +1540,7 @@
         <v>17.5</v>
       </c>
       <c r="AA8" t="n">
-        <v>40</v>
+        <v>980</v>
       </c>
       <c r="AB8" t="n">
         <v>15</v>
@@ -1549,7 +1549,7 @@
         <v>9.199999999999999</v>
       </c>
       <c r="AD8" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AE8" t="n">
         <v>34</v>
@@ -1747,7 +1747,7 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="G10" t="n">
         <v>1.59</v>
@@ -1801,10 +1801,10 @@
         <v>2.7</v>
       </c>
       <c r="X10" t="n">
-        <v>970</v>
+        <v>980</v>
       </c>
       <c r="Y10" t="n">
-        <v>29</v>
+        <v>980</v>
       </c>
       <c r="Z10" t="n">
         <v>100</v>
@@ -1816,10 +1816,10 @@
         <v>8</v>
       </c>
       <c r="AC10" t="n">
-        <v>970</v>
+        <v>980</v>
       </c>
       <c r="AD10" t="n">
-        <v>44</v>
+        <v>980</v>
       </c>
       <c r="AE10" t="n">
         <v>1000</v>
@@ -1828,19 +1828,19 @@
         <v>9.4</v>
       </c>
       <c r="AG10" t="n">
-        <v>970</v>
+        <v>980</v>
       </c>
       <c r="AH10" t="n">
-        <v>38</v>
+        <v>980</v>
       </c>
       <c r="AI10" t="n">
         <v>1000</v>
       </c>
       <c r="AJ10" t="n">
-        <v>970</v>
+        <v>980</v>
       </c>
       <c r="AK10" t="n">
-        <v>22</v>
+        <v>980</v>
       </c>
       <c r="AL10" t="n">
         <v>60</v>
@@ -1882,22 +1882,22 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>2.58</v>
+        <v>2.66</v>
       </c>
       <c r="G11" t="n">
-        <v>2.76</v>
+        <v>2.9</v>
       </c>
       <c r="H11" t="n">
         <v>3.05</v>
       </c>
       <c r="I11" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="J11" t="n">
-        <v>3.05</v>
+        <v>2.96</v>
       </c>
       <c r="K11" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -2557,28 +2557,28 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>2.34</v>
+        <v>2.36</v>
       </c>
       <c r="G16" t="n">
-        <v>2.52</v>
+        <v>2.54</v>
       </c>
       <c r="H16" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="I16" t="n">
         <v>3.9</v>
       </c>
       <c r="J16" t="n">
-        <v>2.98</v>
+        <v>2.96</v>
       </c>
       <c r="K16" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="L16" t="n">
         <v>1.52</v>
       </c>
       <c r="M16" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="N16" t="n">
         <v>2.84</v>
@@ -2596,7 +2596,7 @@
         <v>1.22</v>
       </c>
       <c r="S16" t="n">
-        <v>4.5</v>
+        <v>4.7</v>
       </c>
       <c r="T16" t="n">
         <v>1.96</v>
@@ -2608,10 +2608,10 @@
         <v>1.34</v>
       </c>
       <c r="W16" t="n">
-        <v>1.66</v>
+        <v>1.64</v>
       </c>
       <c r="X16" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="Y16" t="n">
         <v>12</v>
@@ -2626,7 +2626,7 @@
         <v>9.4</v>
       </c>
       <c r="AC16" t="n">
-        <v>8.199999999999999</v>
+        <v>7.4</v>
       </c>
       <c r="AD16" t="n">
         <v>17</v>
@@ -2704,7 +2704,7 @@
         <v>6.4</v>
       </c>
       <c r="J17" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="K17" t="n">
         <v>4.4</v>
@@ -2725,7 +2725,7 @@
         <v>1.98</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.87</v>
+        <v>1.88</v>
       </c>
       <c r="R17" t="n">
         <v>1.38</v>
@@ -2851,13 +2851,13 @@
         <v>1.01</v>
       </c>
       <c r="N18" t="n">
-        <v>1.28</v>
+        <v>1.36</v>
       </c>
       <c r="O18" t="n">
         <v>1.01</v>
       </c>
       <c r="P18" t="n">
-        <v>1.28</v>
+        <v>1.36</v>
       </c>
       <c r="Q18" t="n">
         <v>1.02</v>
@@ -2866,7 +2866,7 @@
         <v>1.18</v>
       </c>
       <c r="S18" t="n">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="T18" t="n">
         <v>1.01</v>
@@ -2962,7 +2962,7 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>1.61</v>
+        <v>1.64</v>
       </c>
       <c r="G19" t="n">
         <v>2.08</v>
@@ -2971,13 +2971,13 @@
         <v>4.7</v>
       </c>
       <c r="I19" t="n">
-        <v>8.800000000000001</v>
+        <v>7.8</v>
       </c>
       <c r="J19" t="n">
-        <v>2.76</v>
+        <v>2.82</v>
       </c>
       <c r="K19" t="n">
-        <v>110</v>
+        <v>4.1</v>
       </c>
       <c r="L19" t="n">
         <v>1.43</v>
@@ -3010,7 +3010,7 @@
         <v>1.01</v>
       </c>
       <c r="V19" t="n">
-        <v>1.13</v>
+        <v>1.15</v>
       </c>
       <c r="W19" t="n">
         <v>1.92</v>
@@ -3097,22 +3097,22 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>3.35</v>
+        <v>3.45</v>
       </c>
       <c r="G20" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="H20" t="n">
         <v>2.58</v>
       </c>
       <c r="I20" t="n">
-        <v>2.66</v>
+        <v>2.64</v>
       </c>
       <c r="J20" t="n">
-        <v>2.96</v>
+        <v>2.98</v>
       </c>
       <c r="K20" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="L20" t="n">
         <v>1.01</v>
@@ -3121,67 +3121,67 @@
         <v>1.12</v>
       </c>
       <c r="N20" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="O20" t="n">
-        <v>1.62</v>
+        <v>1.58</v>
       </c>
       <c r="P20" t="n">
-        <v>1.47</v>
+        <v>1.51</v>
       </c>
       <c r="Q20" t="n">
-        <v>2.88</v>
+        <v>2.7</v>
       </c>
       <c r="R20" t="n">
-        <v>1.16</v>
+        <v>1.17</v>
       </c>
       <c r="S20" t="n">
-        <v>6.2</v>
+        <v>6</v>
       </c>
       <c r="T20" t="n">
-        <v>2.06</v>
+        <v>2.16</v>
       </c>
       <c r="U20" t="n">
-        <v>1.01</v>
+        <v>1.73</v>
       </c>
       <c r="V20" t="n">
         <v>1.6</v>
       </c>
       <c r="W20" t="n">
-        <v>1.37</v>
+        <v>1.39</v>
       </c>
       <c r="X20" t="n">
-        <v>7.8</v>
+        <v>8.4</v>
       </c>
       <c r="Y20" t="n">
-        <v>7.2</v>
+        <v>7.6</v>
       </c>
       <c r="Z20" t="n">
         <v>14.5</v>
       </c>
       <c r="AA20" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AB20" t="n">
-        <v>9</v>
+        <v>9.4</v>
       </c>
       <c r="AC20" t="n">
         <v>7.2</v>
       </c>
       <c r="AD20" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AE20" t="n">
-        <v>40</v>
+        <v>980</v>
       </c>
       <c r="AF20" t="n">
         <v>22</v>
       </c>
       <c r="AG20" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AH20" t="n">
-        <v>26</v>
+        <v>980</v>
       </c>
       <c r="AI20" t="n">
         <v>75</v>
@@ -3190,19 +3190,19 @@
         <v>80</v>
       </c>
       <c r="AK20" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AL20" t="n">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="AM20" t="n">
-        <v>240</v>
+        <v>210</v>
       </c>
       <c r="AN20" t="n">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="AO20" t="n">
-        <v>50</v>
+        <v>980</v>
       </c>
     </row>
     <row r="21">
@@ -3232,106 +3232,106 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>2.36</v>
+        <v>2.44</v>
       </c>
       <c r="G21" t="n">
-        <v>2.5</v>
+        <v>2.62</v>
       </c>
       <c r="H21" t="n">
-        <v>3.1</v>
+        <v>2.98</v>
       </c>
       <c r="I21" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="J21" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="K21" t="n">
-        <v>3.95</v>
+        <v>3.85</v>
       </c>
       <c r="L21" t="n">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="M21" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N21" t="n">
-        <v>3.85</v>
+        <v>4.1</v>
       </c>
       <c r="O21" t="n">
-        <v>1.25</v>
+        <v>1.27</v>
       </c>
       <c r="P21" t="n">
-        <v>2.24</v>
+        <v>2.08</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.76</v>
+        <v>1.84</v>
       </c>
       <c r="R21" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="S21" t="n">
-        <v>2.82</v>
+        <v>3.2</v>
       </c>
       <c r="T21" t="n">
-        <v>1.57</v>
+        <v>1.65</v>
       </c>
       <c r="U21" t="n">
-        <v>2.04</v>
+        <v>2.3</v>
       </c>
       <c r="V21" t="n">
-        <v>1.43</v>
+        <v>1.45</v>
       </c>
       <c r="W21" t="n">
-        <v>1.66</v>
+        <v>1.61</v>
       </c>
       <c r="X21" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="Y21" t="n">
-        <v>18.5</v>
+        <v>980</v>
       </c>
       <c r="Z21" t="n">
-        <v>30</v>
+        <v>980</v>
       </c>
       <c r="AA21" t="n">
-        <v>70</v>
+        <v>980</v>
       </c>
       <c r="AB21" t="n">
-        <v>15</v>
+        <v>12.5</v>
       </c>
       <c r="AC21" t="n">
-        <v>11</v>
+        <v>8.4</v>
       </c>
       <c r="AD21" t="n">
-        <v>19</v>
+        <v>12.5</v>
       </c>
       <c r="AE21" t="n">
-        <v>46</v>
+        <v>980</v>
       </c>
       <c r="AF21" t="n">
-        <v>23</v>
+        <v>980</v>
       </c>
       <c r="AG21" t="n">
-        <v>15.5</v>
+        <v>12</v>
       </c>
       <c r="AH21" t="n">
-        <v>21</v>
+        <v>980</v>
       </c>
       <c r="AI21" t="n">
-        <v>55</v>
+        <v>980</v>
       </c>
       <c r="AJ21" t="n">
-        <v>46</v>
+        <v>980</v>
       </c>
       <c r="AK21" t="n">
-        <v>34</v>
+        <v>980</v>
       </c>
       <c r="AL21" t="n">
-        <v>42</v>
+        <v>980</v>
       </c>
       <c r="AM21" t="n">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="AN21" t="n">
         <v>1000</v>
@@ -3367,19 +3367,19 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>2.9</v>
+        <v>2.92</v>
       </c>
       <c r="G22" t="n">
         <v>4.3</v>
       </c>
       <c r="H22" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="I22" t="n">
         <v>2.8</v>
       </c>
       <c r="J22" t="n">
-        <v>2.82</v>
+        <v>2.84</v>
       </c>
       <c r="K22" t="n">
         <v>3.75</v>
@@ -3388,19 +3388,19 @@
         <v>1.38</v>
       </c>
       <c r="M22" t="n">
-        <v>1.01</v>
+        <v>1.08</v>
       </c>
       <c r="N22" t="n">
-        <v>1.54</v>
+        <v>1.55</v>
       </c>
       <c r="O22" t="n">
-        <v>1.01</v>
+        <v>1.08</v>
       </c>
       <c r="P22" t="n">
-        <v>1.54</v>
+        <v>1.55</v>
       </c>
       <c r="Q22" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="R22" t="n">
         <v>1.2</v>
@@ -3502,112 +3502,112 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>2.12</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>2.32</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>3.85</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>3.1</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>3.55</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>1.53</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>2.84</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>1.45</v>
       </c>
       <c r="P23" t="n">
-        <v>1.25</v>
+        <v>1.63</v>
       </c>
       <c r="Q23" t="n">
-        <v>1.01</v>
+        <v>2.3</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>1.98</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>1.85</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>1.75</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="Z23" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AA23" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="AB23" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AC23" t="n">
-        <v>0</v>
+        <v>7.8</v>
       </c>
       <c r="AD23" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="AE23" t="n">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="AF23" t="n">
-        <v>0</v>
+        <v>13.5</v>
       </c>
       <c r="AG23" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AH23" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="AI23" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="AJ23" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="AK23" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AL23" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="AM23" t="n">
-        <v>0</v>
+        <v>190</v>
       </c>
       <c r="AN23" t="n">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="AO23" t="n">
-        <v>0</v>
+        <v>110</v>
       </c>
     </row>
     <row r="24">
@@ -3643,7 +3643,7 @@
         <v>5.3</v>
       </c>
       <c r="H24" t="n">
-        <v>1.71</v>
+        <v>1.82</v>
       </c>
       <c r="I24" t="n">
         <v>2.18</v>
@@ -3652,97 +3652,97 @@
         <v>2.82</v>
       </c>
       <c r="K24" t="n">
-        <v>4.4</v>
+        <v>980</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>1.48</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>1.09</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>1.42</v>
       </c>
       <c r="P24" t="n">
         <v>1.25</v>
       </c>
       <c r="Q24" t="n">
-        <v>1.01</v>
+        <v>1.42</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>1.23</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>1.84</v>
       </c>
       <c r="W24" t="n">
-        <v>0</v>
+        <v>1.23</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z24" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA24" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB24" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC24" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD24" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE24" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF24" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG24" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH24" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI24" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ24" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK24" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL24" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM24" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN24" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO24" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="25">
@@ -3772,112 +3772,112 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>1.45</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>1.82</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>1.09</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>1.09</v>
       </c>
       <c r="K25" t="n">
-        <v>0</v>
+        <v>5.3</v>
       </c>
       <c r="L25" t="n">
-        <v>0</v>
+        <v>1.45</v>
       </c>
       <c r="M25" t="n">
-        <v>0</v>
+        <v>1.08</v>
       </c>
       <c r="N25" t="n">
-        <v>0</v>
+        <v>1.02</v>
       </c>
       <c r="O25" t="n">
-        <v>0</v>
+        <v>1.39</v>
       </c>
       <c r="P25" t="n">
         <v>1.25</v>
       </c>
       <c r="Q25" t="n">
-        <v>1.01</v>
+        <v>1.39</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>1.23</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>3.35</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>1.13</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>2.2</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z25" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA25" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB25" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC25" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD25" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE25" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF25" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG25" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH25" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI25" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ25" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK25" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL25" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM25" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN25" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO25" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="26">
@@ -3907,112 +3907,112 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>1.87</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>4.2</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>3.05</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>3.8</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>2.88</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>1.45</v>
       </c>
       <c r="P26" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="R26" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="S26" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="T26" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="U26" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="V26" t="n">
         <v>1.25</v>
       </c>
-      <c r="Q26" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="R26" t="n">
-        <v>0</v>
-      </c>
-      <c r="S26" t="n">
-        <v>0</v>
-      </c>
-      <c r="T26" t="n">
-        <v>0</v>
-      </c>
-      <c r="U26" t="n">
-        <v>0</v>
-      </c>
-      <c r="V26" t="n">
-        <v>0</v>
-      </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>1.91</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="Z26" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AA26" t="n">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="AB26" t="n">
-        <v>0</v>
+        <v>8.6</v>
       </c>
       <c r="AC26" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AD26" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AE26" t="n">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="AF26" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AG26" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AH26" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AI26" t="n">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="AJ26" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AK26" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AL26" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="AM26" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN26" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AO26" t="n">
-        <v>0</v>
+        <v>130</v>
       </c>
     </row>
     <row r="27">
@@ -4042,34 +4042,34 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="G27" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="H27" t="n">
-        <v>2.22</v>
+        <v>2.26</v>
       </c>
       <c r="I27" t="n">
-        <v>2.5</v>
+        <v>2.56</v>
       </c>
       <c r="J27" t="n">
-        <v>3.05</v>
+        <v>2.98</v>
       </c>
       <c r="K27" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>1.47</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>1.02</v>
       </c>
       <c r="P27" t="n">
         <v>1.47</v>
@@ -4078,76 +4078,76 @@
         <v>2.46</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>1.12</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>4.8</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>1.83</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>1.47</v>
       </c>
       <c r="V27" t="n">
-        <v>0</v>
+        <v>1.64</v>
       </c>
       <c r="W27" t="n">
-        <v>0</v>
+        <v>1.31</v>
       </c>
       <c r="X27" t="n">
-        <v>0</v>
+        <v>11.5</v>
       </c>
       <c r="Y27" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="Z27" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AA27" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB27" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AC27" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AD27" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AE27" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF27" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AG27" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AH27" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AI27" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ27" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK27" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL27" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM27" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN27" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO27" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="28">
@@ -4183,106 +4183,106 @@
         <v>3.5</v>
       </c>
       <c r="H28" t="n">
-        <v>2.44</v>
+        <v>2.42</v>
       </c>
       <c r="I28" t="n">
         <v>2.68</v>
       </c>
       <c r="J28" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="K28" t="n">
         <v>3.3</v>
       </c>
       <c r="L28" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M28" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N28" t="n">
-        <v>0</v>
+        <v>1.51</v>
       </c>
       <c r="O28" t="n">
-        <v>0</v>
+        <v>1.51</v>
       </c>
       <c r="P28" t="n">
-        <v>1.51</v>
+        <v>1.5</v>
       </c>
       <c r="Q28" t="n">
         <v>2.72</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>1.15</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>5.1</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>2.06</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>1.61</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>1.59</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>8.4</v>
       </c>
       <c r="Z28" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="AA28" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AB28" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AC28" t="n">
-        <v>0</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD28" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AE28" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AF28" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AG28" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AH28" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AI28" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="AJ28" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="AK28" t="n">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="AL28" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM28" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN28" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO28" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="29">
@@ -4312,118 +4312,118 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="G29" t="n">
         <v>2.36</v>
       </c>
       <c r="H29" t="n">
-        <v>3.65</v>
+        <v>3.85</v>
       </c>
       <c r="I29" t="n">
         <v>4</v>
       </c>
       <c r="J29" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="K29" t="n">
-        <v>3.35</v>
+        <v>3.15</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>1.12</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>2.52</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>1.57</v>
       </c>
       <c r="P29" t="n">
         <v>1.52</v>
       </c>
       <c r="Q29" t="n">
-        <v>2.66</v>
+        <v>2.68</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>5.7</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>1.81</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>1.63</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>1.73</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>8.6</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="Z29" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="AA29" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="AB29" t="n">
-        <v>0</v>
+        <v>7.2</v>
       </c>
       <c r="AC29" t="n">
-        <v>0</v>
+        <v>7.2</v>
       </c>
       <c r="AD29" t="n">
-        <v>0</v>
+        <v>17.5</v>
       </c>
       <c r="AE29" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="AF29" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AG29" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AH29" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AI29" t="n">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="AJ29" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="AK29" t="n">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="AL29" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="AM29" t="n">
-        <v>0</v>
+        <v>210</v>
       </c>
       <c r="AN29" t="n">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="AO29" t="n">
-        <v>0</v>
+        <v>110</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Brazilian Serie A</t>
+          <t>Uruguayan Primera Division</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -4433,132 +4433,132 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>19:00:00</t>
+          <t>18:00:00</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Red Bull Bragantino</t>
+          <t>Liverpool Montevideo</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Atletico MG</t>
+          <t>Penarol</t>
         </is>
       </c>
       <c r="F30" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="G30" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="H30" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="I30" t="n">
         <v>2.14</v>
       </c>
-      <c r="G30" t="n">
-        <v>2.26</v>
-      </c>
-      <c r="H30" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="I30" t="n">
-        <v>4.2</v>
-      </c>
       <c r="J30" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="K30" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="L30" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="M30" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N30" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="O30" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="P30" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="R30" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="S30" t="n">
         <v>3.2</v>
       </c>
-      <c r="K30" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="L30" t="n">
-        <v>0</v>
-      </c>
-      <c r="M30" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="N30" t="n">
-        <v>0</v>
-      </c>
-      <c r="O30" t="n">
-        <v>0</v>
-      </c>
-      <c r="P30" t="n">
-        <v>1.66</v>
-      </c>
-      <c r="Q30" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="R30" t="n">
-        <v>0</v>
-      </c>
-      <c r="S30" t="n">
-        <v>0</v>
-      </c>
       <c r="T30" t="n">
-        <v>1.92</v>
+        <v>1.01</v>
       </c>
       <c r="U30" t="n">
-        <v>1.89</v>
+        <v>1.01</v>
       </c>
       <c r="V30" t="n">
-        <v>0</v>
+        <v>1.87</v>
       </c>
       <c r="W30" t="n">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="X30" t="n">
-        <v>13</v>
+        <v>1000</v>
       </c>
       <c r="Y30" t="n">
-        <v>14</v>
+        <v>1000</v>
       </c>
       <c r="Z30" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AA30" t="n">
-        <v>95</v>
+        <v>1000</v>
       </c>
       <c r="AB30" t="n">
-        <v>8.4</v>
+        <v>1000</v>
       </c>
       <c r="AC30" t="n">
-        <v>8.800000000000001</v>
+        <v>1000</v>
       </c>
       <c r="AD30" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="AE30" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="AF30" t="n">
-        <v>14</v>
+        <v>1000</v>
       </c>
       <c r="AG30" t="n">
-        <v>12</v>
+        <v>1000</v>
       </c>
       <c r="AH30" t="n">
-        <v>22</v>
+        <v>1000</v>
       </c>
       <c r="AI30" t="n">
-        <v>90</v>
+        <v>1000</v>
       </c>
       <c r="AJ30" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AK30" t="n">
-        <v>29</v>
+        <v>1000</v>
       </c>
       <c r="AL30" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AM30" t="n">
-        <v>170</v>
+        <v>1000</v>
       </c>
       <c r="AN30" t="n">
-        <v>30</v>
+        <v>1000</v>
       </c>
       <c r="AO30" t="n">
-        <v>95</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Argentinian Primera Division</t>
+          <t>Brazilian Serie A</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -4568,126 +4568,126 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>20:15:00</t>
+          <t>19:00:00</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Central Cordoba (SdE)</t>
+          <t>Red Bull Bragantino</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Banfield</t>
+          <t>Atletico MG</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>2.38</v>
+        <v>2.14</v>
       </c>
       <c r="G31" t="n">
-        <v>2.6</v>
+        <v>2.26</v>
       </c>
       <c r="H31" t="n">
-        <v>3.35</v>
+        <v>3.75</v>
       </c>
       <c r="I31" t="n">
-        <v>3.65</v>
+        <v>4.2</v>
       </c>
       <c r="J31" t="n">
-        <v>3.05</v>
+        <v>3.2</v>
       </c>
       <c r="K31" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="L31" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="M31" t="n">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="N31" t="n">
-        <v>0</v>
+        <v>2.96</v>
       </c>
       <c r="O31" t="n">
-        <v>0</v>
+        <v>1.42</v>
       </c>
       <c r="P31" t="n">
-        <v>1.52</v>
+        <v>1.64</v>
       </c>
       <c r="Q31" t="n">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>1.24</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>4.3</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>1.92</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>1.89</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>1.31</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>1.79</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="Z31" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AA31" t="n">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="AB31" t="n">
-        <v>0</v>
+        <v>8.4</v>
       </c>
       <c r="AC31" t="n">
-        <v>0</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD31" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="AE31" t="n">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="AF31" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="AG31" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AH31" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="AI31" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="AJ31" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AK31" t="n">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="AL31" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="AM31" t="n">
-        <v>0</v>
+        <v>170</v>
       </c>
       <c r="AN31" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AO31" t="n">
-        <v>0</v>
+        <v>95</v>
       </c>
     </row>
     <row r="32">
@@ -4708,121 +4708,121 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Boca Juniors</t>
+          <t>Central Cordoba (SdE)</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Tigre</t>
+          <t>Banfield</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>1.72</v>
+        <v>2.4</v>
       </c>
       <c r="G32" t="n">
-        <v>1.8</v>
+        <v>2.6</v>
       </c>
       <c r="H32" t="n">
-        <v>6.2</v>
+        <v>3.25</v>
       </c>
       <c r="I32" t="n">
-        <v>8</v>
+        <v>3.65</v>
       </c>
       <c r="J32" t="n">
-        <v>3.3</v>
+        <v>3.05</v>
       </c>
       <c r="K32" t="n">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>2.52</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>1.55</v>
       </c>
       <c r="P32" t="n">
-        <v>1.53</v>
+        <v>1.52</v>
       </c>
       <c r="Q32" t="n">
-        <v>2.6</v>
+        <v>2.38</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>5.5</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>1.95</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>1.62</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>1.37</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>1.65</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="Z32" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AA32" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="AB32" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AC32" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AD32" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AE32" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="AF32" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AG32" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AH32" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AI32" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AJ32" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AK32" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AL32" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="AM32" t="n">
-        <v>0</v>
+        <v>260</v>
       </c>
       <c r="AN32" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AO32" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="33">
@@ -4843,121 +4843,121 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Newells</t>
+          <t>Boca Juniors</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Racing Club</t>
+          <t>Tigre</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>4</v>
+        <v>1.71</v>
       </c>
       <c r="G33" t="n">
-        <v>4.5</v>
+        <v>1.8</v>
       </c>
       <c r="H33" t="n">
-        <v>2.06</v>
+        <v>6.2</v>
       </c>
       <c r="I33" t="n">
-        <v>2.14</v>
+        <v>8</v>
       </c>
       <c r="J33" t="n">
         <v>3.3</v>
       </c>
       <c r="K33" t="n">
-        <v>3.5</v>
+        <v>3.65</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>1.53</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>1.02</v>
       </c>
       <c r="P33" t="n">
-        <v>1.66</v>
+        <v>1.53</v>
       </c>
       <c r="Q33" t="n">
-        <v>2.06</v>
+        <v>2.6</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>1.17</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>2.16</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>1.54</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>1.14</v>
       </c>
       <c r="W33" t="n">
-        <v>0</v>
+        <v>2.24</v>
       </c>
       <c r="X33" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="Y33" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="Z33" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="AA33" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB33" t="n">
-        <v>0</v>
+        <v>6.6</v>
       </c>
       <c r="AC33" t="n">
-        <v>0</v>
+        <v>11.5</v>
       </c>
       <c r="AD33" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="AE33" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF33" t="n">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="AG33" t="n">
-        <v>0</v>
+        <v>15.5</v>
       </c>
       <c r="AH33" t="n">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="AI33" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ33" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="AK33" t="n">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="AL33" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="AM33" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN33" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO33" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="34">
@@ -4978,121 +4978,256 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
+          <t>Newells</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>Racing Club</t>
+        </is>
+      </c>
+      <c r="F34" t="n">
+        <v>4</v>
+      </c>
+      <c r="G34" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="H34" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="I34" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="J34" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="K34" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="L34" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M34" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N34" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="O34" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="P34" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="R34" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="S34" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="T34" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="U34" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="V34" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="W34" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="X34" t="n">
+        <v>15</v>
+      </c>
+      <c r="Y34" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="Z34" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AA34" t="n">
+        <v>40</v>
+      </c>
+      <c r="AB34" t="n">
+        <v>18</v>
+      </c>
+      <c r="AC34" t="n">
+        <v>10</v>
+      </c>
+      <c r="AD34" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AE34" t="n">
+        <v>38</v>
+      </c>
+      <c r="AF34" t="n">
+        <v>980</v>
+      </c>
+      <c r="AG34" t="n">
+        <v>25</v>
+      </c>
+      <c r="AH34" t="n">
+        <v>30</v>
+      </c>
+      <c r="AI34" t="n">
+        <v>70</v>
+      </c>
+      <c r="AJ34" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK34" t="n">
+        <v>90</v>
+      </c>
+      <c r="AL34" t="n">
+        <v>100</v>
+      </c>
+      <c r="AM34" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN34" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO34" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Argentinian Primera Division</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>2025-11-16</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>20:15:00</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
           <t>Estudiantes</t>
         </is>
       </c>
-      <c r="E34" t="inlineStr">
+      <c r="E35" t="inlineStr">
         <is>
           <t>Argentinos Juniors</t>
         </is>
       </c>
-      <c r="F34" t="n">
+      <c r="F35" t="n">
         <v>2.64</v>
       </c>
-      <c r="G34" t="n">
+      <c r="G35" t="n">
         <v>2.66</v>
       </c>
-      <c r="H34" t="n">
+      <c r="H35" t="n">
         <v>3.15</v>
       </c>
-      <c r="I34" t="n">
+      <c r="I35" t="n">
         <v>3.4</v>
       </c>
-      <c r="J34" t="n">
+      <c r="J35" t="n">
         <v>3.05</v>
       </c>
-      <c r="K34" t="n">
+      <c r="K35" t="n">
         <v>3.25</v>
       </c>
-      <c r="L34" t="n">
-        <v>0</v>
-      </c>
-      <c r="M34" t="n">
-        <v>0</v>
-      </c>
-      <c r="N34" t="n">
-        <v>0</v>
-      </c>
-      <c r="O34" t="n">
-        <v>0</v>
-      </c>
-      <c r="P34" t="n">
+      <c r="L35" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M35" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N35" t="n">
         <v>1.5</v>
       </c>
-      <c r="Q34" t="n">
+      <c r="O35" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="P35" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="Q35" t="n">
         <v>2.42</v>
       </c>
-      <c r="R34" t="n">
-        <v>0</v>
-      </c>
-      <c r="S34" t="n">
-        <v>0</v>
-      </c>
-      <c r="T34" t="n">
-        <v>0</v>
-      </c>
-      <c r="U34" t="n">
-        <v>0</v>
-      </c>
-      <c r="V34" t="n">
-        <v>0</v>
-      </c>
-      <c r="W34" t="n">
-        <v>0</v>
-      </c>
-      <c r="X34" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y34" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z34" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA34" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB34" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC34" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD34" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE34" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF34" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG34" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH34" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI34" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ34" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK34" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL34" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM34" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN34" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO34" t="n">
-        <v>0</v>
+      <c r="R35" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="S35" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="T35" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="U35" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="V35" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="W35" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="X35" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="Y35" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="Z35" t="n">
+        <v>24</v>
+      </c>
+      <c r="AA35" t="n">
+        <v>80</v>
+      </c>
+      <c r="AB35" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="AC35" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AD35" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AE35" t="n">
+        <v>60</v>
+      </c>
+      <c r="AF35" t="n">
+        <v>20</v>
+      </c>
+      <c r="AG35" t="n">
+        <v>16</v>
+      </c>
+      <c r="AH35" t="n">
+        <v>30</v>
+      </c>
+      <c r="AI35" t="n">
+        <v>100</v>
+      </c>
+      <c r="AJ35" t="n">
+        <v>60</v>
+      </c>
+      <c r="AK35" t="n">
+        <v>50</v>
+      </c>
+      <c r="AL35" t="n">
+        <v>85</v>
+      </c>
+      <c r="AM35" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN35" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO35" t="n">
+        <v>1000</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-11-16.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-11-16.xlsx
@@ -676,7 +676,7 @@
         <v>1.05</v>
       </c>
       <c r="I2" t="n">
-        <v>9.6</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="J2" t="n">
         <v>2.94</v>
@@ -802,22 +802,22 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>3.85</v>
+        <v>3.35</v>
       </c>
       <c r="G3" t="n">
-        <v>5.9</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="H3" t="n">
-        <v>1.75</v>
+        <v>1.78</v>
       </c>
       <c r="I3" t="n">
-        <v>2.1</v>
+        <v>2.3</v>
       </c>
       <c r="J3" t="n">
-        <v>3.3</v>
+        <v>3.15</v>
       </c>
       <c r="K3" t="n">
-        <v>5</v>
+        <v>7.2</v>
       </c>
       <c r="L3" t="n">
         <v>1.29</v>
@@ -826,34 +826,34 @@
         <v>1.01</v>
       </c>
       <c r="N3" t="n">
-        <v>3</v>
+        <v>1.86</v>
       </c>
       <c r="O3" t="n">
         <v>1.28</v>
       </c>
       <c r="P3" t="n">
-        <v>2.06</v>
+        <v>1.86</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.76</v>
+        <v>1.69</v>
       </c>
       <c r="R3" t="n">
-        <v>1.37</v>
+        <v>1.25</v>
       </c>
       <c r="S3" t="n">
-        <v>2.58</v>
+        <v>2.12</v>
       </c>
       <c r="T3" t="n">
-        <v>1.51</v>
+        <v>1.04</v>
       </c>
       <c r="U3" t="n">
-        <v>1.79</v>
+        <v>1.04</v>
       </c>
       <c r="V3" t="n">
-        <v>1.9</v>
+        <v>1.78</v>
       </c>
       <c r="W3" t="n">
-        <v>1.2</v>
+        <v>1.14</v>
       </c>
       <c r="X3" t="n">
         <v>1000</v>
@@ -937,58 +937,58 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>2.32</v>
+        <v>2.46</v>
       </c>
       <c r="G4" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="H4" t="n">
-        <v>2.36</v>
+        <v>2.46</v>
       </c>
       <c r="I4" t="n">
-        <v>3.35</v>
+        <v>2.96</v>
       </c>
       <c r="J4" t="n">
         <v>3.1</v>
       </c>
       <c r="K4" t="n">
-        <v>7</v>
+        <v>4.6</v>
       </c>
       <c r="L4" t="n">
         <v>1.29</v>
       </c>
       <c r="M4" t="n">
-        <v>1.01</v>
+        <v>1.05</v>
       </c>
       <c r="N4" t="n">
-        <v>2.74</v>
+        <v>3.55</v>
       </c>
       <c r="O4" t="n">
         <v>1.26</v>
       </c>
       <c r="P4" t="n">
-        <v>1.94</v>
+        <v>2.04</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.72</v>
+        <v>1.67</v>
       </c>
       <c r="R4" t="n">
-        <v>1.27</v>
+        <v>1.4</v>
       </c>
       <c r="S4" t="n">
-        <v>2.2</v>
+        <v>2.68</v>
       </c>
       <c r="T4" t="n">
-        <v>1.04</v>
+        <v>1.55</v>
       </c>
       <c r="U4" t="n">
-        <v>1.04</v>
+        <v>2.06</v>
       </c>
       <c r="V4" t="n">
-        <v>1.43</v>
+        <v>1.52</v>
       </c>
       <c r="W4" t="n">
-        <v>1.45</v>
+        <v>1.48</v>
       </c>
       <c r="X4" t="n">
         <v>1000</v>
@@ -1072,58 +1072,58 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>3</v>
+        <v>1.02</v>
       </c>
       <c r="G5" t="n">
-        <v>4.5</v>
+        <v>1000</v>
       </c>
       <c r="H5" t="n">
-        <v>2.04</v>
+        <v>1.02</v>
       </c>
       <c r="I5" t="n">
-        <v>2.8</v>
+        <v>1000</v>
       </c>
       <c r="J5" t="n">
-        <v>2.72</v>
+        <v>1.01</v>
       </c>
       <c r="K5" t="n">
-        <v>3.95</v>
+        <v>1000</v>
       </c>
       <c r="L5" t="n">
-        <v>1.42</v>
+        <v>1.01</v>
       </c>
       <c r="M5" t="n">
-        <v>1.07</v>
+        <v>1.03</v>
       </c>
       <c r="N5" t="n">
-        <v>2.56</v>
+        <v>1.3</v>
       </c>
       <c r="O5" t="n">
-        <v>1.43</v>
+        <v>1.03</v>
       </c>
       <c r="P5" t="n">
-        <v>1.62</v>
+        <v>1.3</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.08</v>
+        <v>1.03</v>
       </c>
       <c r="R5" t="n">
         <v>1.18</v>
       </c>
       <c r="S5" t="n">
-        <v>3.4</v>
+        <v>1.45</v>
       </c>
       <c r="T5" t="n">
-        <v>1.92</v>
+        <v>1.04</v>
       </c>
       <c r="U5" t="n">
-        <v>1.74</v>
+        <v>1.04</v>
       </c>
       <c r="V5" t="n">
-        <v>1.55</v>
+        <v>1.01</v>
       </c>
       <c r="W5" t="n">
-        <v>1.28</v>
+        <v>1.01</v>
       </c>
       <c r="X5" t="n">
         <v>1000</v>
@@ -1207,55 +1207,55 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="G6" t="n">
         <v>2.34</v>
       </c>
       <c r="H6" t="n">
+        <v>3</v>
+      </c>
+      <c r="I6" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="J6" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="K6" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="L6" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M6" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N6" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="O6" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="P6" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="R6" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="S6" t="n">
         <v>3.05</v>
       </c>
-      <c r="I6" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="J6" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="K6" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="L6" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="M6" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="N6" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="O6" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="P6" t="n">
-        <v>1.79</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="R6" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="S6" t="n">
-        <v>3.2</v>
-      </c>
       <c r="T6" t="n">
-        <v>1.69</v>
+        <v>1.74</v>
       </c>
       <c r="U6" t="n">
-        <v>2</v>
+        <v>1.93</v>
       </c>
       <c r="V6" t="n">
-        <v>1.38</v>
+        <v>1.37</v>
       </c>
       <c r="W6" t="n">
         <v>1.74</v>
@@ -1291,7 +1291,7 @@
         <v>1000</v>
       </c>
       <c r="AH6" t="n">
-        <v>25</v>
+        <v>1000</v>
       </c>
       <c r="AI6" t="n">
         <v>1000</v>
@@ -1342,16 +1342,16 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>2.36</v>
+        <v>2.28</v>
       </c>
       <c r="G7" t="n">
-        <v>2.86</v>
+        <v>3</v>
       </c>
       <c r="H7" t="n">
-        <v>2.56</v>
+        <v>2.46</v>
       </c>
       <c r="I7" t="n">
-        <v>3.15</v>
+        <v>3.35</v>
       </c>
       <c r="J7" t="n">
         <v>3.2</v>
@@ -1363,10 +1363,10 @@
         <v>1.01</v>
       </c>
       <c r="M7" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N7" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="O7" t="n">
         <v>1.24</v>
@@ -1378,16 +1378,16 @@
         <v>1.68</v>
       </c>
       <c r="R7" t="n">
-        <v>1.46</v>
+        <v>1.39</v>
       </c>
       <c r="S7" t="n">
-        <v>2.72</v>
+        <v>2.48</v>
       </c>
       <c r="T7" t="n">
-        <v>1.52</v>
+        <v>1.04</v>
       </c>
       <c r="U7" t="n">
-        <v>1.96</v>
+        <v>1.04</v>
       </c>
       <c r="V7" t="n">
         <v>1.49</v>
@@ -1477,19 +1477,19 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="G8" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="H8" t="n">
-        <v>2.2</v>
+        <v>2.18</v>
       </c>
       <c r="I8" t="n">
-        <v>2.44</v>
+        <v>2.42</v>
       </c>
       <c r="J8" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="K8" t="n">
         <v>3.7</v>
@@ -1498,10 +1498,10 @@
         <v>1.37</v>
       </c>
       <c r="M8" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N8" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="O8" t="n">
         <v>1.37</v>
@@ -1516,73 +1516,73 @@
         <v>1.28</v>
       </c>
       <c r="S8" t="n">
-        <v>3.75</v>
+        <v>3.85</v>
       </c>
       <c r="T8" t="n">
         <v>1.83</v>
       </c>
       <c r="U8" t="n">
-        <v>1.98</v>
+        <v>1.99</v>
       </c>
       <c r="V8" t="n">
-        <v>1.69</v>
+        <v>1.7</v>
       </c>
       <c r="W8" t="n">
-        <v>1.35</v>
+        <v>1.34</v>
       </c>
       <c r="X8" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="Z8" t="n">
         <v>15</v>
       </c>
-      <c r="Y8" t="n">
-        <v>11</v>
-      </c>
-      <c r="Z8" t="n">
-        <v>17.5</v>
-      </c>
       <c r="AA8" t="n">
-        <v>980</v>
+        <v>34</v>
       </c>
       <c r="AB8" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AC8" t="n">
-        <v>9.199999999999999</v>
+        <v>8</v>
       </c>
       <c r="AD8" t="n">
-        <v>13.5</v>
+        <v>12</v>
       </c>
       <c r="AE8" t="n">
-        <v>34</v>
+        <v>980</v>
       </c>
       <c r="AF8" t="n">
-        <v>30</v>
+        <v>980</v>
       </c>
       <c r="AG8" t="n">
-        <v>18.5</v>
+        <v>16</v>
       </c>
       <c r="AH8" t="n">
-        <v>23</v>
+        <v>19.5</v>
       </c>
       <c r="AI8" t="n">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="AJ8" t="n">
         <v>75</v>
       </c>
       <c r="AK8" t="n">
+        <v>50</v>
+      </c>
+      <c r="AL8" t="n">
         <v>60</v>
       </c>
-      <c r="AL8" t="n">
-        <v>70</v>
-      </c>
       <c r="AM8" t="n">
         <v>1000</v>
       </c>
       <c r="AN8" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AO8" t="n">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9">
@@ -1612,46 +1612,46 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>5.5</v>
+        <v>5.1</v>
       </c>
       <c r="G9" t="n">
-        <v>600</v>
+        <v>27</v>
       </c>
       <c r="H9" t="n">
-        <v>1.48</v>
+        <v>1.55</v>
       </c>
       <c r="I9" t="n">
-        <v>1.8</v>
+        <v>1.87</v>
       </c>
       <c r="J9" t="n">
-        <v>3.35</v>
+        <v>3.2</v>
       </c>
       <c r="K9" t="n">
-        <v>500</v>
+        <v>980</v>
       </c>
       <c r="L9" t="n">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
       <c r="M9" t="n">
         <v>1.01</v>
       </c>
       <c r="N9" t="n">
-        <v>2.04</v>
+        <v>1.54</v>
       </c>
       <c r="O9" t="n">
         <v>1.01</v>
       </c>
       <c r="P9" t="n">
-        <v>1.56</v>
+        <v>1.53</v>
       </c>
       <c r="Q9" t="n">
-        <v>2.16</v>
+        <v>2.08</v>
       </c>
       <c r="R9" t="n">
         <v>1.18</v>
       </c>
       <c r="S9" t="n">
-        <v>3.25</v>
+        <v>3.05</v>
       </c>
       <c r="T9" t="n">
         <v>1.04</v>
@@ -1660,10 +1660,10 @@
         <v>1.04</v>
       </c>
       <c r="V9" t="n">
-        <v>2.24</v>
+        <v>2.14</v>
       </c>
       <c r="W9" t="n">
-        <v>1.02</v>
+        <v>1.04</v>
       </c>
       <c r="X9" t="n">
         <v>1000</v>
@@ -1747,109 +1747,109 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>1.45</v>
+        <v>1.39</v>
       </c>
       <c r="G10" t="n">
-        <v>1.59</v>
+        <v>1.66</v>
       </c>
       <c r="H10" t="n">
-        <v>7.2</v>
+        <v>6.4</v>
       </c>
       <c r="I10" t="n">
-        <v>12</v>
+        <v>980</v>
       </c>
       <c r="J10" t="n">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="K10" t="n">
-        <v>5.5</v>
+        <v>8</v>
       </c>
       <c r="L10" t="n">
-        <v>1.36</v>
+        <v>1.34</v>
       </c>
       <c r="M10" t="n">
-        <v>1.06</v>
+        <v>1.02</v>
       </c>
       <c r="N10" t="n">
-        <v>3.25</v>
+        <v>2.36</v>
       </c>
       <c r="O10" t="n">
-        <v>1.35</v>
+        <v>1.02</v>
       </c>
       <c r="P10" t="n">
-        <v>1.78</v>
+        <v>1.64</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="R10" t="n">
-        <v>1.29</v>
+        <v>1.18</v>
       </c>
       <c r="S10" t="n">
-        <v>3.35</v>
+        <v>2.6</v>
       </c>
       <c r="T10" t="n">
-        <v>2.02</v>
+        <v>1.04</v>
       </c>
       <c r="U10" t="n">
-        <v>1.57</v>
+        <v>1.04</v>
       </c>
       <c r="V10" t="n">
-        <v>1.09</v>
+        <v>1.01</v>
       </c>
       <c r="W10" t="n">
-        <v>2.7</v>
+        <v>2.5</v>
       </c>
       <c r="X10" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="Y10" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="Z10" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AA10" t="n">
         <v>1000</v>
       </c>
       <c r="AB10" t="n">
-        <v>8</v>
+        <v>1000</v>
       </c>
       <c r="AC10" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AD10" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AE10" t="n">
         <v>1000</v>
       </c>
       <c r="AF10" t="n">
-        <v>9.4</v>
+        <v>1000</v>
       </c>
       <c r="AG10" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AH10" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AI10" t="n">
         <v>1000</v>
       </c>
       <c r="AJ10" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AK10" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AL10" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AM10" t="n">
         <v>1000</v>
       </c>
       <c r="AN10" t="n">
-        <v>12</v>
+        <v>1000</v>
       </c>
       <c r="AO10" t="n">
         <v>1000</v>
@@ -1882,22 +1882,22 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>2.66</v>
+        <v>2.62</v>
       </c>
       <c r="G11" t="n">
-        <v>2.9</v>
+        <v>2.82</v>
       </c>
       <c r="H11" t="n">
         <v>3.05</v>
       </c>
       <c r="I11" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="J11" t="n">
-        <v>2.96</v>
+        <v>3</v>
       </c>
       <c r="K11" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -2017,58 +2017,58 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>2.26</v>
+        <v>2.44</v>
       </c>
       <c r="G12" t="n">
         <v>3.05</v>
       </c>
       <c r="H12" t="n">
-        <v>2.66</v>
+        <v>2.92</v>
       </c>
       <c r="I12" t="n">
-        <v>4</v>
+        <v>3.7</v>
       </c>
       <c r="J12" t="n">
-        <v>2.74</v>
+        <v>2.84</v>
       </c>
       <c r="K12" t="n">
-        <v>5.6</v>
+        <v>4.1</v>
       </c>
       <c r="L12" t="n">
-        <v>1.36</v>
+        <v>1.01</v>
       </c>
       <c r="M12" t="n">
-        <v>1.01</v>
+        <v>1.07</v>
       </c>
       <c r="N12" t="n">
-        <v>2.32</v>
+        <v>3.15</v>
       </c>
       <c r="O12" t="n">
-        <v>1.02</v>
+        <v>1.37</v>
       </c>
       <c r="P12" t="n">
-        <v>1.61</v>
+        <v>1.73</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.95</v>
+        <v>2.08</v>
       </c>
       <c r="R12" t="n">
-        <v>1.21</v>
+        <v>1.28</v>
       </c>
       <c r="S12" t="n">
-        <v>2.7</v>
+        <v>3.45</v>
       </c>
       <c r="T12" t="n">
-        <v>1.01</v>
+        <v>1.69</v>
       </c>
       <c r="U12" t="n">
-        <v>1.01</v>
+        <v>1.85</v>
       </c>
       <c r="V12" t="n">
-        <v>1.33</v>
+        <v>1.38</v>
       </c>
       <c r="W12" t="n">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="X12" t="n">
         <v>1000</v>
@@ -2086,7 +2086,7 @@
         <v>1000</v>
       </c>
       <c r="AC12" t="n">
-        <v>1000</v>
+        <v>9</v>
       </c>
       <c r="AD12" t="n">
         <v>1000</v>
@@ -2152,25 +2152,25 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="G13" t="n">
-        <v>2.5</v>
+        <v>2.46</v>
       </c>
       <c r="H13" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="I13" t="n">
-        <v>7.6</v>
+        <v>7.8</v>
       </c>
       <c r="J13" t="n">
         <v>2.9</v>
       </c>
       <c r="K13" t="n">
-        <v>110</v>
+        <v>980</v>
       </c>
       <c r="L13" t="n">
-        <v>1.35</v>
+        <v>1.34</v>
       </c>
       <c r="M13" t="n">
         <v>1.01</v>
@@ -2185,13 +2185,13 @@
         <v>1.65</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.89</v>
+        <v>1.9</v>
       </c>
       <c r="R13" t="n">
         <v>1.21</v>
       </c>
       <c r="S13" t="n">
-        <v>1.89</v>
+        <v>1.92</v>
       </c>
       <c r="T13" t="n">
         <v>1.01</v>
@@ -2203,7 +2203,7 @@
         <v>1.15</v>
       </c>
       <c r="W13" t="n">
-        <v>1.66</v>
+        <v>1.68</v>
       </c>
       <c r="X13" t="n">
         <v>1000</v>
@@ -2434,10 +2434,10 @@
         <v>4.2</v>
       </c>
       <c r="J15" t="n">
-        <v>2.48</v>
+        <v>2.5</v>
       </c>
       <c r="K15" t="n">
-        <v>4.7</v>
+        <v>980</v>
       </c>
       <c r="L15" t="n">
         <v>1.54</v>
@@ -2446,22 +2446,22 @@
         <v>1.01</v>
       </c>
       <c r="N15" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="O15" t="n">
         <v>1.58</v>
       </c>
       <c r="P15" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="Q15" t="n">
-        <v>2.62</v>
+        <v>2.66</v>
       </c>
       <c r="R15" t="n">
         <v>1.18</v>
       </c>
       <c r="S15" t="n">
-        <v>2.62</v>
+        <v>2.66</v>
       </c>
       <c r="T15" t="n">
         <v>1.01</v>
@@ -2557,7 +2557,7 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>2.36</v>
+        <v>2.34</v>
       </c>
       <c r="G16" t="n">
         <v>2.54</v>
@@ -2566,13 +2566,13 @@
         <v>3.6</v>
       </c>
       <c r="I16" t="n">
-        <v>3.9</v>
+        <v>4.1</v>
       </c>
       <c r="J16" t="n">
-        <v>2.96</v>
+        <v>2.94</v>
       </c>
       <c r="K16" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="L16" t="n">
         <v>1.52</v>
@@ -2602,10 +2602,10 @@
         <v>1.96</v>
       </c>
       <c r="U16" t="n">
-        <v>1.87</v>
+        <v>1.86</v>
       </c>
       <c r="V16" t="n">
-        <v>1.34</v>
+        <v>1.32</v>
       </c>
       <c r="W16" t="n">
         <v>1.64</v>
@@ -2623,7 +2623,7 @@
         <v>85</v>
       </c>
       <c r="AB16" t="n">
-        <v>9.4</v>
+        <v>8.6</v>
       </c>
       <c r="AC16" t="n">
         <v>7.4</v>
@@ -2647,7 +2647,7 @@
         <v>80</v>
       </c>
       <c r="AJ16" t="n">
-        <v>42</v>
+        <v>980</v>
       </c>
       <c r="AK16" t="n">
         <v>34</v>
@@ -2659,7 +2659,7 @@
         <v>180</v>
       </c>
       <c r="AN16" t="n">
-        <v>32</v>
+        <v>980</v>
       </c>
       <c r="AO16" t="n">
         <v>75</v>
@@ -2695,22 +2695,22 @@
         <v>1.68</v>
       </c>
       <c r="G17" t="n">
-        <v>1.73</v>
+        <v>1.74</v>
       </c>
       <c r="H17" t="n">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
       <c r="I17" t="n">
         <v>6.4</v>
       </c>
       <c r="J17" t="n">
-        <v>3.95</v>
+        <v>3.9</v>
       </c>
       <c r="K17" t="n">
         <v>4.4</v>
       </c>
       <c r="L17" t="n">
-        <v>1.39</v>
+        <v>1.38</v>
       </c>
       <c r="M17" t="n">
         <v>1.06</v>
@@ -2725,76 +2725,76 @@
         <v>1.98</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.88</v>
+        <v>1.87</v>
       </c>
       <c r="R17" t="n">
         <v>1.38</v>
       </c>
       <c r="S17" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="T17" t="n">
-        <v>1.89</v>
+        <v>1.9</v>
       </c>
       <c r="U17" t="n">
-        <v>1.97</v>
+        <v>1.96</v>
       </c>
       <c r="V17" t="n">
         <v>1.18</v>
       </c>
       <c r="W17" t="n">
-        <v>2.36</v>
+        <v>2.34</v>
       </c>
       <c r="X17" t="n">
-        <v>17.5</v>
+        <v>16</v>
       </c>
       <c r="Y17" t="n">
-        <v>23</v>
+        <v>980</v>
       </c>
       <c r="Z17" t="n">
-        <v>60</v>
+        <v>980</v>
       </c>
       <c r="AA17" t="n">
         <v>200</v>
       </c>
       <c r="AB17" t="n">
-        <v>9.800000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="AC17" t="n">
-        <v>10.5</v>
+        <v>9.4</v>
       </c>
       <c r="AD17" t="n">
-        <v>27</v>
+        <v>980</v>
       </c>
       <c r="AE17" t="n">
         <v>110</v>
       </c>
       <c r="AF17" t="n">
-        <v>12</v>
+        <v>10.5</v>
       </c>
       <c r="AG17" t="n">
-        <v>12</v>
+        <v>10.5</v>
       </c>
       <c r="AH17" t="n">
-        <v>25</v>
+        <v>980</v>
       </c>
       <c r="AI17" t="n">
         <v>100</v>
       </c>
       <c r="AJ17" t="n">
-        <v>19.5</v>
+        <v>17</v>
       </c>
       <c r="AK17" t="n">
-        <v>21</v>
+        <v>980</v>
       </c>
       <c r="AL17" t="n">
-        <v>44</v>
+        <v>980</v>
       </c>
       <c r="AM17" t="n">
         <v>150</v>
       </c>
       <c r="AN17" t="n">
-        <v>12</v>
+        <v>10.5</v>
       </c>
       <c r="AO17" t="n">
         <v>130</v>
@@ -2962,7 +2962,7 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>1.64</v>
+        <v>1.65</v>
       </c>
       <c r="G19" t="n">
         <v>2.08</v>
@@ -2974,10 +2974,10 @@
         <v>7.8</v>
       </c>
       <c r="J19" t="n">
-        <v>2.82</v>
+        <v>2.84</v>
       </c>
       <c r="K19" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="L19" t="n">
         <v>1.43</v>
@@ -2986,22 +2986,22 @@
         <v>1.01</v>
       </c>
       <c r="N19" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="O19" t="n">
         <v>1.01</v>
       </c>
       <c r="P19" t="n">
-        <v>1.46</v>
+        <v>1.5</v>
       </c>
       <c r="Q19" t="n">
-        <v>2.22</v>
+        <v>2.28</v>
       </c>
       <c r="R19" t="n">
         <v>1.18</v>
       </c>
       <c r="S19" t="n">
-        <v>2.22</v>
+        <v>2.28</v>
       </c>
       <c r="T19" t="n">
         <v>1.01</v>
@@ -3109,25 +3109,25 @@
         <v>2.64</v>
       </c>
       <c r="J20" t="n">
-        <v>2.98</v>
+        <v>3</v>
       </c>
       <c r="K20" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="L20" t="n">
         <v>1.01</v>
       </c>
       <c r="M20" t="n">
-        <v>1.12</v>
+        <v>1.13</v>
       </c>
       <c r="N20" t="n">
-        <v>2.5</v>
+        <v>2.48</v>
       </c>
       <c r="O20" t="n">
         <v>1.58</v>
       </c>
       <c r="P20" t="n">
-        <v>1.51</v>
+        <v>1.5</v>
       </c>
       <c r="Q20" t="n">
         <v>2.7</v>
@@ -3151,7 +3151,7 @@
         <v>1.39</v>
       </c>
       <c r="X20" t="n">
-        <v>8.4</v>
+        <v>8</v>
       </c>
       <c r="Y20" t="n">
         <v>7.6</v>
@@ -3181,7 +3181,7 @@
         <v>16</v>
       </c>
       <c r="AH20" t="n">
-        <v>980</v>
+        <v>26</v>
       </c>
       <c r="AI20" t="n">
         <v>75</v>
@@ -3196,13 +3196,13 @@
         <v>90</v>
       </c>
       <c r="AM20" t="n">
-        <v>210</v>
+        <v>980</v>
       </c>
       <c r="AN20" t="n">
         <v>85</v>
       </c>
       <c r="AO20" t="n">
-        <v>980</v>
+        <v>55</v>
       </c>
     </row>
     <row r="21">
@@ -3232,7 +3232,7 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>2.44</v>
+        <v>2.4</v>
       </c>
       <c r="G21" t="n">
         <v>2.62</v>
@@ -3244,13 +3244,13 @@
         <v>3.25</v>
       </c>
       <c r="J21" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="K21" t="n">
-        <v>3.85</v>
+        <v>3.75</v>
       </c>
       <c r="L21" t="n">
-        <v>1.35</v>
+        <v>1.34</v>
       </c>
       <c r="M21" t="n">
         <v>1.06</v>
@@ -3271,13 +3271,13 @@
         <v>1.4</v>
       </c>
       <c r="S21" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="T21" t="n">
-        <v>1.65</v>
+        <v>1.66</v>
       </c>
       <c r="U21" t="n">
-        <v>2.3</v>
+        <v>2.28</v>
       </c>
       <c r="V21" t="n">
         <v>1.45</v>
@@ -3286,7 +3286,7 @@
         <v>1.61</v>
       </c>
       <c r="X21" t="n">
-        <v>16</v>
+        <v>17.5</v>
       </c>
       <c r="Y21" t="n">
         <v>980</v>
@@ -3295,7 +3295,7 @@
         <v>980</v>
       </c>
       <c r="AA21" t="n">
-        <v>980</v>
+        <v>55</v>
       </c>
       <c r="AB21" t="n">
         <v>12.5</v>
@@ -3304,7 +3304,7 @@
         <v>8.4</v>
       </c>
       <c r="AD21" t="n">
-        <v>12.5</v>
+        <v>13.5</v>
       </c>
       <c r="AE21" t="n">
         <v>980</v>
@@ -3313,7 +3313,7 @@
         <v>980</v>
       </c>
       <c r="AG21" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AH21" t="n">
         <v>980</v>
@@ -3322,7 +3322,7 @@
         <v>980</v>
       </c>
       <c r="AJ21" t="n">
-        <v>980</v>
+        <v>40</v>
       </c>
       <c r="AK21" t="n">
         <v>980</v>
@@ -3331,7 +3331,7 @@
         <v>980</v>
       </c>
       <c r="AM21" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="AN21" t="n">
         <v>1000</v>
@@ -3367,22 +3367,22 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>2.92</v>
+        <v>2.96</v>
       </c>
       <c r="G22" t="n">
         <v>4.3</v>
       </c>
       <c r="H22" t="n">
-        <v>2.18</v>
+        <v>2.14</v>
       </c>
       <c r="I22" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="J22" t="n">
         <v>2.8</v>
       </c>
-      <c r="J22" t="n">
-        <v>2.84</v>
-      </c>
       <c r="K22" t="n">
-        <v>3.75</v>
+        <v>5.1</v>
       </c>
       <c r="L22" t="n">
         <v>1.38</v>
@@ -3406,7 +3406,7 @@
         <v>1.2</v>
       </c>
       <c r="S22" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="T22" t="n">
         <v>1.01</v>
@@ -3415,7 +3415,7 @@
         <v>1.01</v>
       </c>
       <c r="V22" t="n">
-        <v>1.56</v>
+        <v>1.52</v>
       </c>
       <c r="W22" t="n">
         <v>1.3</v>
@@ -3514,7 +3514,7 @@
         <v>4.5</v>
       </c>
       <c r="J23" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="K23" t="n">
         <v>3.55</v>
@@ -3544,7 +3544,7 @@
         <v>4.5</v>
       </c>
       <c r="T23" t="n">
-        <v>1.98</v>
+        <v>1.99</v>
       </c>
       <c r="U23" t="n">
         <v>1.85</v>
@@ -3574,7 +3574,7 @@
         <v>7.8</v>
       </c>
       <c r="AD23" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="AE23" t="n">
         <v>65</v>
@@ -3640,16 +3640,16 @@
         <v>4.1</v>
       </c>
       <c r="G24" t="n">
-        <v>5.3</v>
+        <v>980</v>
       </c>
       <c r="H24" t="n">
-        <v>1.82</v>
+        <v>1.81</v>
       </c>
       <c r="I24" t="n">
-        <v>2.18</v>
+        <v>2.26</v>
       </c>
       <c r="J24" t="n">
-        <v>2.82</v>
+        <v>2.64</v>
       </c>
       <c r="K24" t="n">
         <v>980</v>
@@ -3685,10 +3685,10 @@
         <v>1.01</v>
       </c>
       <c r="V24" t="n">
-        <v>1.84</v>
+        <v>1.79</v>
       </c>
       <c r="W24" t="n">
-        <v>1.23</v>
+        <v>1.22</v>
       </c>
       <c r="X24" t="n">
         <v>1000</v>
@@ -3775,19 +3775,19 @@
         <v>1.45</v>
       </c>
       <c r="G25" t="n">
-        <v>1.82</v>
+        <v>1.83</v>
       </c>
       <c r="H25" t="n">
-        <v>1.09</v>
+        <v>4</v>
       </c>
       <c r="I25" t="n">
-        <v>110</v>
+        <v>980</v>
       </c>
       <c r="J25" t="n">
         <v>1.09</v>
       </c>
       <c r="K25" t="n">
-        <v>5.3</v>
+        <v>4.8</v>
       </c>
       <c r="L25" t="n">
         <v>1.45</v>
@@ -3808,7 +3808,7 @@
         <v>1.39</v>
       </c>
       <c r="R25" t="n">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="S25" t="n">
         <v>3.35</v>
@@ -3907,22 +3907,22 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>1.87</v>
+        <v>1.93</v>
       </c>
       <c r="G26" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="H26" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="I26" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="J26" t="n">
-        <v>3.05</v>
+        <v>3.35</v>
       </c>
       <c r="K26" t="n">
-        <v>3.8</v>
+        <v>4.1</v>
       </c>
       <c r="L26" t="n">
         <v>1.5</v>
@@ -3946,25 +3946,25 @@
         <v>1.23</v>
       </c>
       <c r="S26" t="n">
-        <v>4.4</v>
+        <v>3.95</v>
       </c>
       <c r="T26" t="n">
-        <v>1.87</v>
+        <v>2.04</v>
       </c>
       <c r="U26" t="n">
-        <v>1.81</v>
+        <v>1.79</v>
       </c>
       <c r="V26" t="n">
         <v>1.25</v>
       </c>
       <c r="W26" t="n">
-        <v>1.91</v>
+        <v>1.92</v>
       </c>
       <c r="X26" t="n">
-        <v>980</v>
+        <v>13.5</v>
       </c>
       <c r="Y26" t="n">
-        <v>980</v>
+        <v>15.5</v>
       </c>
       <c r="Z26" t="n">
         <v>980</v>
@@ -3973,16 +3973,16 @@
         <v>150</v>
       </c>
       <c r="AB26" t="n">
-        <v>8.6</v>
+        <v>7.6</v>
       </c>
       <c r="AC26" t="n">
         <v>980</v>
       </c>
       <c r="AD26" t="n">
-        <v>980</v>
+        <v>23</v>
       </c>
       <c r="AE26" t="n">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="AF26" t="n">
         <v>980</v>
@@ -4042,61 +4042,61 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="G27" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="H27" t="n">
         <v>2.26</v>
       </c>
       <c r="I27" t="n">
-        <v>2.56</v>
+        <v>2.58</v>
       </c>
       <c r="J27" t="n">
         <v>2.98</v>
       </c>
       <c r="K27" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="L27" t="n">
         <v>1.01</v>
       </c>
       <c r="M27" t="n">
-        <v>1.01</v>
+        <v>1.13</v>
       </c>
       <c r="N27" t="n">
-        <v>1.47</v>
+        <v>2.48</v>
       </c>
       <c r="O27" t="n">
-        <v>1.02</v>
+        <v>1.57</v>
       </c>
       <c r="P27" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="Q27" t="n">
-        <v>2.46</v>
+        <v>2.42</v>
       </c>
       <c r="R27" t="n">
-        <v>1.12</v>
+        <v>1.17</v>
       </c>
       <c r="S27" t="n">
-        <v>4.8</v>
+        <v>5</v>
       </c>
       <c r="T27" t="n">
-        <v>1.83</v>
+        <v>2.12</v>
       </c>
       <c r="U27" t="n">
-        <v>1.47</v>
+        <v>1.7</v>
       </c>
       <c r="V27" t="n">
-        <v>1.64</v>
+        <v>1.63</v>
       </c>
       <c r="W27" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="X27" t="n">
-        <v>11.5</v>
+        <v>980</v>
       </c>
       <c r="Y27" t="n">
         <v>980</v>
@@ -4105,7 +4105,7 @@
         <v>980</v>
       </c>
       <c r="AA27" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AB27" t="n">
         <v>980</v>
@@ -4117,7 +4117,7 @@
         <v>980</v>
       </c>
       <c r="AE27" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AF27" t="n">
         <v>980</v>
@@ -4129,25 +4129,25 @@
         <v>980</v>
       </c>
       <c r="AI27" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
       <c r="AJ27" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AK27" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
       <c r="AL27" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AM27" t="n">
         <v>1000</v>
       </c>
       <c r="AN27" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="AO27" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
     </row>
     <row r="28">
@@ -4177,13 +4177,13 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="G28" t="n">
         <v>3.5</v>
       </c>
       <c r="H28" t="n">
-        <v>2.42</v>
+        <v>2.44</v>
       </c>
       <c r="I28" t="n">
         <v>2.68</v>
@@ -4198,31 +4198,31 @@
         <v>1.01</v>
       </c>
       <c r="M28" t="n">
-        <v>1.01</v>
+        <v>1.12</v>
       </c>
       <c r="N28" t="n">
-        <v>1.51</v>
+        <v>2.44</v>
       </c>
       <c r="O28" t="n">
-        <v>1.51</v>
+        <v>1.59</v>
       </c>
       <c r="P28" t="n">
-        <v>1.5</v>
+        <v>1.49</v>
       </c>
       <c r="Q28" t="n">
-        <v>2.72</v>
+        <v>2.68</v>
       </c>
       <c r="R28" t="n">
-        <v>1.15</v>
+        <v>1.17</v>
       </c>
       <c r="S28" t="n">
-        <v>5.1</v>
+        <v>5.9</v>
       </c>
       <c r="T28" t="n">
-        <v>2.06</v>
+        <v>2.18</v>
       </c>
       <c r="U28" t="n">
-        <v>1.61</v>
+        <v>1.71</v>
       </c>
       <c r="V28" t="n">
         <v>1.59</v>
@@ -4231,58 +4231,58 @@
         <v>1.4</v>
       </c>
       <c r="X28" t="n">
-        <v>9.800000000000001</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="Y28" t="n">
-        <v>8.4</v>
+        <v>7.4</v>
       </c>
       <c r="Z28" t="n">
-        <v>18</v>
+        <v>15.5</v>
       </c>
       <c r="AA28" t="n">
         <v>980</v>
       </c>
       <c r="AB28" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AC28" t="n">
-        <v>8.800000000000001</v>
+        <v>7.8</v>
       </c>
       <c r="AD28" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AE28" t="n">
         <v>980</v>
       </c>
       <c r="AF28" t="n">
-        <v>980</v>
+        <v>22</v>
       </c>
       <c r="AG28" t="n">
-        <v>980</v>
+        <v>15.5</v>
       </c>
       <c r="AH28" t="n">
         <v>980</v>
       </c>
       <c r="AI28" t="n">
+        <v>70</v>
+      </c>
+      <c r="AJ28" t="n">
+        <v>75</v>
+      </c>
+      <c r="AK28" t="n">
+        <v>60</v>
+      </c>
+      <c r="AL28" t="n">
+        <v>100</v>
+      </c>
+      <c r="AM28" t="n">
+        <v>280</v>
+      </c>
+      <c r="AN28" t="n">
         <v>80</v>
       </c>
-      <c r="AJ28" t="n">
-        <v>80</v>
-      </c>
-      <c r="AK28" t="n">
-        <v>65</v>
-      </c>
-      <c r="AL28" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AM28" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN28" t="n">
-        <v>1000</v>
-      </c>
       <c r="AO28" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
     </row>
     <row r="29">
@@ -4312,37 +4312,37 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>2.32</v>
+        <v>2.28</v>
       </c>
       <c r="G29" t="n">
         <v>2.36</v>
       </c>
       <c r="H29" t="n">
-        <v>3.85</v>
+        <v>3.75</v>
       </c>
       <c r="I29" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="J29" t="n">
         <v>3.05</v>
       </c>
       <c r="K29" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="L29" t="n">
         <v>1.01</v>
       </c>
       <c r="M29" t="n">
-        <v>1.12</v>
+        <v>1.13</v>
       </c>
       <c r="N29" t="n">
         <v>2.52</v>
       </c>
       <c r="O29" t="n">
-        <v>1.57</v>
+        <v>1.56</v>
       </c>
       <c r="P29" t="n">
-        <v>1.52</v>
+        <v>1.51</v>
       </c>
       <c r="Q29" t="n">
         <v>2.68</v>
@@ -4351,43 +4351,43 @@
         <v>1.18</v>
       </c>
       <c r="S29" t="n">
-        <v>5.7</v>
+        <v>4.9</v>
       </c>
       <c r="T29" t="n">
-        <v>1.81</v>
+        <v>2.16</v>
       </c>
       <c r="U29" t="n">
-        <v>1.63</v>
+        <v>1.74</v>
       </c>
       <c r="V29" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="W29" t="n">
         <v>1.73</v>
       </c>
       <c r="X29" t="n">
-        <v>8.6</v>
+        <v>8.4</v>
       </c>
       <c r="Y29" t="n">
         <v>10.5</v>
       </c>
       <c r="Z29" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AA29" t="n">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="AB29" t="n">
         <v>7.2</v>
       </c>
       <c r="AC29" t="n">
-        <v>7.2</v>
+        <v>7.4</v>
       </c>
       <c r="AD29" t="n">
         <v>17.5</v>
       </c>
       <c r="AE29" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AF29" t="n">
         <v>13</v>
@@ -4411,13 +4411,13 @@
         <v>80</v>
       </c>
       <c r="AM29" t="n">
-        <v>210</v>
+        <v>220</v>
       </c>
       <c r="AN29" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="AO29" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
     </row>
     <row r="30">
@@ -4447,22 +4447,22 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>3.9</v>
+        <v>3.65</v>
       </c>
       <c r="G30" t="n">
-        <v>5.5</v>
+        <v>5.8</v>
       </c>
       <c r="H30" t="n">
-        <v>1.77</v>
+        <v>1.78</v>
       </c>
       <c r="I30" t="n">
-        <v>2.14</v>
+        <v>2.24</v>
       </c>
       <c r="J30" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="K30" t="n">
-        <v>5.6</v>
+        <v>980</v>
       </c>
       <c r="L30" t="n">
         <v>1.33</v>
@@ -4471,19 +4471,19 @@
         <v>1.01</v>
       </c>
       <c r="N30" t="n">
-        <v>1.74</v>
+        <v>1.76</v>
       </c>
       <c r="O30" t="n">
         <v>1.01</v>
       </c>
       <c r="P30" t="n">
-        <v>1.74</v>
+        <v>1.76</v>
       </c>
       <c r="Q30" t="n">
-        <v>1.95</v>
+        <v>1.88</v>
       </c>
       <c r="R30" t="n">
-        <v>1.25</v>
+        <v>1.27</v>
       </c>
       <c r="S30" t="n">
         <v>3.2</v>
@@ -4495,10 +4495,10 @@
         <v>1.01</v>
       </c>
       <c r="V30" t="n">
-        <v>1.87</v>
+        <v>1.8</v>
       </c>
       <c r="W30" t="n">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="X30" t="n">
         <v>1000</v>
@@ -4582,16 +4582,16 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>2.14</v>
+        <v>2.1</v>
       </c>
       <c r="G31" t="n">
-        <v>2.26</v>
+        <v>2.24</v>
       </c>
       <c r="H31" t="n">
         <v>3.75</v>
       </c>
       <c r="I31" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="J31" t="n">
         <v>3.2</v>
@@ -4609,13 +4609,13 @@
         <v>2.96</v>
       </c>
       <c r="O31" t="n">
-        <v>1.42</v>
+        <v>1.44</v>
       </c>
       <c r="P31" t="n">
         <v>1.64</v>
       </c>
       <c r="Q31" t="n">
-        <v>2.3</v>
+        <v>2.28</v>
       </c>
       <c r="R31" t="n">
         <v>1.24</v>
@@ -4624,22 +4624,22 @@
         <v>4.3</v>
       </c>
       <c r="T31" t="n">
-        <v>1.92</v>
+        <v>1.95</v>
       </c>
       <c r="U31" t="n">
         <v>1.89</v>
       </c>
       <c r="V31" t="n">
-        <v>1.31</v>
+        <v>1.3</v>
       </c>
       <c r="W31" t="n">
-        <v>1.79</v>
+        <v>1.8</v>
       </c>
       <c r="X31" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="Y31" t="n">
-        <v>14</v>
+        <v>12.5</v>
       </c>
       <c r="Z31" t="n">
         <v>980</v>
@@ -4651,10 +4651,10 @@
         <v>8.4</v>
       </c>
       <c r="AC31" t="n">
-        <v>8.800000000000001</v>
+        <v>7.8</v>
       </c>
       <c r="AD31" t="n">
-        <v>21</v>
+        <v>17.5</v>
       </c>
       <c r="AE31" t="n">
         <v>65</v>
@@ -4666,28 +4666,28 @@
         <v>12</v>
       </c>
       <c r="AH31" t="n">
-        <v>22</v>
+        <v>980</v>
       </c>
       <c r="AI31" t="n">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="AJ31" t="n">
-        <v>980</v>
+        <v>32</v>
       </c>
       <c r="AK31" t="n">
-        <v>29</v>
+        <v>980</v>
       </c>
       <c r="AL31" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AM31" t="n">
         <v>170</v>
       </c>
       <c r="AN31" t="n">
-        <v>30</v>
+        <v>980</v>
       </c>
       <c r="AO31" t="n">
-        <v>95</v>
+        <v>80</v>
       </c>
     </row>
     <row r="32">
@@ -4717,13 +4717,13 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="G32" t="n">
         <v>2.6</v>
       </c>
       <c r="H32" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="I32" t="n">
         <v>3.65</v>
@@ -4738,7 +4738,7 @@
         <v>1.01</v>
       </c>
       <c r="M32" t="n">
-        <v>1.1</v>
+        <v>1.12</v>
       </c>
       <c r="N32" t="n">
         <v>2.52</v>
@@ -4759,10 +4759,10 @@
         <v>5.5</v>
       </c>
       <c r="T32" t="n">
-        <v>1.95</v>
+        <v>2.14</v>
       </c>
       <c r="U32" t="n">
-        <v>1.62</v>
+        <v>1.74</v>
       </c>
       <c r="V32" t="n">
         <v>1.37</v>
@@ -4771,7 +4771,7 @@
         <v>1.65</v>
       </c>
       <c r="X32" t="n">
-        <v>10.5</v>
+        <v>980</v>
       </c>
       <c r="Y32" t="n">
         <v>980</v>
@@ -4783,10 +4783,10 @@
         <v>80</v>
       </c>
       <c r="AB32" t="n">
-        <v>980</v>
+        <v>7.6</v>
       </c>
       <c r="AC32" t="n">
-        <v>980</v>
+        <v>7.6</v>
       </c>
       <c r="AD32" t="n">
         <v>980</v>
@@ -4858,10 +4858,10 @@
         <v>1.8</v>
       </c>
       <c r="H33" t="n">
-        <v>6.2</v>
+        <v>6.6</v>
       </c>
       <c r="I33" t="n">
-        <v>8</v>
+        <v>7.4</v>
       </c>
       <c r="J33" t="n">
         <v>3.3</v>
@@ -4873,13 +4873,13 @@
         <v>1.01</v>
       </c>
       <c r="M33" t="n">
-        <v>1.01</v>
+        <v>1.12</v>
       </c>
       <c r="N33" t="n">
-        <v>1.53</v>
+        <v>2.58</v>
       </c>
       <c r="O33" t="n">
-        <v>1.02</v>
+        <v>1.55</v>
       </c>
       <c r="P33" t="n">
         <v>1.53</v>
@@ -4888,76 +4888,76 @@
         <v>2.6</v>
       </c>
       <c r="R33" t="n">
-        <v>1.17</v>
+        <v>1.19</v>
       </c>
       <c r="S33" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="T33" t="n">
-        <v>2.16</v>
+        <v>2.36</v>
       </c>
       <c r="U33" t="n">
-        <v>1.54</v>
+        <v>1.63</v>
       </c>
       <c r="V33" t="n">
-        <v>1.14</v>
+        <v>1.15</v>
       </c>
       <c r="W33" t="n">
         <v>2.24</v>
       </c>
       <c r="X33" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="Y33" t="n">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="Z33" t="n">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="AA33" t="n">
-        <v>1000</v>
+        <v>320</v>
       </c>
       <c r="AB33" t="n">
-        <v>6.6</v>
+        <v>5.9</v>
       </c>
       <c r="AC33" t="n">
-        <v>11.5</v>
+        <v>8.4</v>
       </c>
       <c r="AD33" t="n">
-        <v>40</v>
+        <v>980</v>
       </c>
       <c r="AE33" t="n">
-        <v>1000</v>
+        <v>190</v>
       </c>
       <c r="AF33" t="n">
-        <v>12.5</v>
+        <v>9</v>
       </c>
       <c r="AG33" t="n">
-        <v>15.5</v>
+        <v>11</v>
       </c>
       <c r="AH33" t="n">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="AI33" t="n">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="AJ33" t="n">
-        <v>26</v>
+        <v>980</v>
       </c>
       <c r="AK33" t="n">
-        <v>36</v>
+        <v>980</v>
       </c>
       <c r="AL33" t="n">
-        <v>90</v>
+        <v>65</v>
       </c>
       <c r="AM33" t="n">
-        <v>1000</v>
+        <v>340</v>
       </c>
       <c r="AN33" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AO33" t="n">
-        <v>1000</v>
+        <v>370</v>
       </c>
     </row>
     <row r="34">
@@ -4987,16 +4987,16 @@
         </is>
       </c>
       <c r="F34" t="n">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="G34" t="n">
-        <v>4.5</v>
+        <v>4.8</v>
       </c>
       <c r="H34" t="n">
-        <v>2.06</v>
+        <v>2.02</v>
       </c>
       <c r="I34" t="n">
-        <v>2.22</v>
+        <v>2.16</v>
       </c>
       <c r="J34" t="n">
         <v>3.2</v>
@@ -5005,13 +5005,13 @@
         <v>3.55</v>
       </c>
       <c r="L34" t="n">
-        <v>1.01</v>
+        <v>1.5</v>
       </c>
       <c r="M34" t="n">
-        <v>1.01</v>
+        <v>1.1</v>
       </c>
       <c r="N34" t="n">
-        <v>1.67</v>
+        <v>2.96</v>
       </c>
       <c r="O34" t="n">
         <v>1.44</v>
@@ -5020,79 +5020,79 @@
         <v>1.66</v>
       </c>
       <c r="Q34" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="R34" t="n">
-        <v>1.22</v>
+        <v>1.24</v>
       </c>
       <c r="S34" t="n">
-        <v>3.9</v>
+        <v>4.4</v>
       </c>
       <c r="T34" t="n">
-        <v>1.68</v>
+        <v>1.97</v>
       </c>
       <c r="U34" t="n">
-        <v>1.62</v>
+        <v>1.87</v>
       </c>
       <c r="V34" t="n">
-        <v>1.82</v>
+        <v>1.86</v>
       </c>
       <c r="W34" t="n">
         <v>1.28</v>
       </c>
       <c r="X34" t="n">
-        <v>15</v>
+        <v>980</v>
       </c>
       <c r="Y34" t="n">
-        <v>10.5</v>
+        <v>980</v>
       </c>
       <c r="Z34" t="n">
-        <v>17.5</v>
+        <v>980</v>
       </c>
       <c r="AA34" t="n">
-        <v>40</v>
+        <v>980</v>
       </c>
       <c r="AB34" t="n">
-        <v>18</v>
+        <v>980</v>
       </c>
       <c r="AC34" t="n">
-        <v>10</v>
+        <v>980</v>
       </c>
       <c r="AD34" t="n">
-        <v>15.5</v>
+        <v>980</v>
       </c>
       <c r="AE34" t="n">
-        <v>38</v>
+        <v>980</v>
       </c>
       <c r="AF34" t="n">
         <v>980</v>
       </c>
       <c r="AG34" t="n">
-        <v>25</v>
+        <v>980</v>
       </c>
       <c r="AH34" t="n">
-        <v>30</v>
+        <v>980</v>
       </c>
       <c r="AI34" t="n">
-        <v>70</v>
+        <v>980</v>
       </c>
       <c r="AJ34" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AK34" t="n">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="AL34" t="n">
         <v>100</v>
       </c>
       <c r="AM34" t="n">
-        <v>1000</v>
+        <v>180</v>
       </c>
       <c r="AN34" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AO34" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
     </row>
     <row r="35">
@@ -5143,31 +5143,31 @@
         <v>1.01</v>
       </c>
       <c r="M35" t="n">
-        <v>1.01</v>
+        <v>1.13</v>
       </c>
       <c r="N35" t="n">
-        <v>1.5</v>
+        <v>2.36</v>
       </c>
       <c r="O35" t="n">
-        <v>1.02</v>
+        <v>1.62</v>
       </c>
       <c r="P35" t="n">
-        <v>1.5</v>
+        <v>1.46</v>
       </c>
       <c r="Q35" t="n">
-        <v>2.42</v>
+        <v>2.8</v>
       </c>
       <c r="R35" t="n">
-        <v>1.15</v>
+        <v>1.16</v>
       </c>
       <c r="S35" t="n">
-        <v>4.8</v>
+        <v>6</v>
       </c>
       <c r="T35" t="n">
-        <v>1.97</v>
+        <v>2.18</v>
       </c>
       <c r="U35" t="n">
-        <v>1.62</v>
+        <v>1.7</v>
       </c>
       <c r="V35" t="n">
         <v>1.41</v>
@@ -5176,58 +5176,58 @@
         <v>1.6</v>
       </c>
       <c r="X35" t="n">
-        <v>9.800000000000001</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="Y35" t="n">
-        <v>10.5</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="Z35" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="AA35" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="AB35" t="n">
-        <v>9.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AC35" t="n">
-        <v>8.800000000000001</v>
+        <v>7.4</v>
       </c>
       <c r="AD35" t="n">
-        <v>18.5</v>
+        <v>16</v>
       </c>
       <c r="AE35" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AF35" t="n">
-        <v>20</v>
+        <v>17.5</v>
       </c>
       <c r="AG35" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AH35" t="n">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="AI35" t="n">
+        <v>90</v>
+      </c>
+      <c r="AJ35" t="n">
+        <v>55</v>
+      </c>
+      <c r="AK35" t="n">
+        <v>46</v>
+      </c>
+      <c r="AL35" t="n">
+        <v>75</v>
+      </c>
+      <c r="AM35" t="n">
+        <v>250</v>
+      </c>
+      <c r="AN35" t="n">
+        <v>65</v>
+      </c>
+      <c r="AO35" t="n">
         <v>100</v>
-      </c>
-      <c r="AJ35" t="n">
-        <v>60</v>
-      </c>
-      <c r="AK35" t="n">
-        <v>50</v>
-      </c>
-      <c r="AL35" t="n">
-        <v>85</v>
-      </c>
-      <c r="AM35" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN35" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AO35" t="n">
-        <v>1000</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-11-16.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-11-16.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO35"/>
+  <dimension ref="A1:AO36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -667,58 +667,58 @@
         </is>
       </c>
       <c r="F2" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="G2" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="H2" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="I2" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="J2" t="n">
+        <v>3</v>
+      </c>
+      <c r="K2" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="L2" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="M2" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N2" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="O2" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="P2" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="R2" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="S2" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="T2" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="U2" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="V2" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="W2" t="n">
         <v>1.81</v>
-      </c>
-      <c r="G2" t="n">
-        <v>2.36</v>
-      </c>
-      <c r="H2" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="I2" t="n">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="J2" t="n">
-        <v>2.94</v>
-      </c>
-      <c r="K2" t="n">
-        <v>1000</v>
-      </c>
-      <c r="L2" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="M2" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="N2" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="O2" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="P2" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="R2" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="S2" t="n">
-        <v>2.42</v>
-      </c>
-      <c r="T2" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="U2" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="V2" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="W2" t="n">
-        <v>1.73</v>
       </c>
       <c r="X2" t="n">
         <v>1000</v>
@@ -802,58 +802,58 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>3.35</v>
+        <v>3.55</v>
       </c>
       <c r="G3" t="n">
-        <v>8.199999999999999</v>
+        <v>5.1</v>
       </c>
       <c r="H3" t="n">
-        <v>1.78</v>
+        <v>1.89</v>
       </c>
       <c r="I3" t="n">
-        <v>2.3</v>
+        <v>2.1</v>
       </c>
       <c r="J3" t="n">
-        <v>3.15</v>
+        <v>3.3</v>
       </c>
       <c r="K3" t="n">
-        <v>7.2</v>
+        <v>4.8</v>
       </c>
       <c r="L3" t="n">
-        <v>1.29</v>
+        <v>1.31</v>
       </c>
       <c r="M3" t="n">
-        <v>1.01</v>
+        <v>1.05</v>
       </c>
       <c r="N3" t="n">
-        <v>1.86</v>
+        <v>3.95</v>
       </c>
       <c r="O3" t="n">
         <v>1.28</v>
       </c>
       <c r="P3" t="n">
-        <v>1.86</v>
+        <v>2.02</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.69</v>
+        <v>1.7</v>
       </c>
       <c r="R3" t="n">
-        <v>1.25</v>
+        <v>1.4</v>
       </c>
       <c r="S3" t="n">
-        <v>2.12</v>
+        <v>2.74</v>
       </c>
       <c r="T3" t="n">
-        <v>1.04</v>
+        <v>1.6</v>
       </c>
       <c r="U3" t="n">
-        <v>1.04</v>
+        <v>1.97</v>
       </c>
       <c r="V3" t="n">
         <v>1.78</v>
       </c>
       <c r="W3" t="n">
-        <v>1.14</v>
+        <v>1.24</v>
       </c>
       <c r="X3" t="n">
         <v>1000</v>
@@ -871,7 +871,7 @@
         <v>1000</v>
       </c>
       <c r="AC3" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="AD3" t="n">
         <v>1000</v>
@@ -937,52 +937,52 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>2.46</v>
+        <v>2.62</v>
       </c>
       <c r="G4" t="n">
-        <v>3.3</v>
+        <v>3.05</v>
       </c>
       <c r="H4" t="n">
-        <v>2.46</v>
+        <v>2.5</v>
       </c>
       <c r="I4" t="n">
-        <v>2.96</v>
+        <v>2.92</v>
       </c>
       <c r="J4" t="n">
-        <v>3.1</v>
+        <v>3.35</v>
       </c>
       <c r="K4" t="n">
-        <v>4.6</v>
+        <v>3.9</v>
       </c>
       <c r="L4" t="n">
-        <v>1.29</v>
+        <v>1.31</v>
       </c>
       <c r="M4" t="n">
         <v>1.05</v>
       </c>
       <c r="N4" t="n">
-        <v>3.55</v>
+        <v>3.95</v>
       </c>
       <c r="O4" t="n">
-        <v>1.26</v>
+        <v>1.28</v>
       </c>
       <c r="P4" t="n">
         <v>2.04</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.67</v>
+        <v>1.79</v>
       </c>
       <c r="R4" t="n">
         <v>1.4</v>
       </c>
       <c r="S4" t="n">
-        <v>2.68</v>
+        <v>2.96</v>
       </c>
       <c r="T4" t="n">
-        <v>1.55</v>
+        <v>1.65</v>
       </c>
       <c r="U4" t="n">
-        <v>2.06</v>
+        <v>2.24</v>
       </c>
       <c r="V4" t="n">
         <v>1.52</v>
@@ -1072,58 +1072,58 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1.02</v>
+        <v>3.25</v>
       </c>
       <c r="G5" t="n">
-        <v>1000</v>
+        <v>4.7</v>
       </c>
       <c r="H5" t="n">
-        <v>1.02</v>
+        <v>2</v>
       </c>
       <c r="I5" t="n">
-        <v>1000</v>
+        <v>2.4</v>
       </c>
       <c r="J5" t="n">
-        <v>1.01</v>
+        <v>2.96</v>
       </c>
       <c r="K5" t="n">
-        <v>1000</v>
+        <v>4.2</v>
       </c>
       <c r="L5" t="n">
-        <v>1.01</v>
+        <v>1.39</v>
       </c>
       <c r="M5" t="n">
-        <v>1.03</v>
+        <v>1.07</v>
       </c>
       <c r="N5" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="O5" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="P5" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="R5" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="S5" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="T5" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="U5" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="V5" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="W5" t="n">
         <v>1.3</v>
-      </c>
-      <c r="O5" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="P5" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="R5" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="S5" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="T5" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="U5" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="V5" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="W5" t="n">
-        <v>1.01</v>
       </c>
       <c r="X5" t="n">
         <v>1000</v>
@@ -1207,58 +1207,58 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>2.2</v>
+        <v>2.18</v>
       </c>
       <c r="G6" t="n">
         <v>2.34</v>
       </c>
       <c r="H6" t="n">
-        <v>3</v>
+        <v>3.15</v>
       </c>
       <c r="I6" t="n">
-        <v>3.9</v>
+        <v>3.75</v>
       </c>
       <c r="J6" t="n">
-        <v>3.15</v>
+        <v>3.3</v>
       </c>
       <c r="K6" t="n">
-        <v>4.4</v>
+        <v>4.2</v>
       </c>
       <c r="L6" t="n">
-        <v>1.01</v>
+        <v>1.39</v>
       </c>
       <c r="M6" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N6" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="O6" t="n">
         <v>1.31</v>
       </c>
       <c r="P6" t="n">
-        <v>1.85</v>
+        <v>1.82</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.93</v>
+        <v>1.92</v>
       </c>
       <c r="R6" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="S6" t="n">
-        <v>3.05</v>
+        <v>3.2</v>
       </c>
       <c r="T6" t="n">
-        <v>1.74</v>
+        <v>1.73</v>
       </c>
       <c r="U6" t="n">
-        <v>1.93</v>
+        <v>1.97</v>
       </c>
       <c r="V6" t="n">
-        <v>1.37</v>
+        <v>1.36</v>
       </c>
       <c r="W6" t="n">
-        <v>1.74</v>
+        <v>1.75</v>
       </c>
       <c r="X6" t="n">
         <v>1000</v>
@@ -1342,58 +1342,58 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>2.28</v>
+        <v>2.34</v>
       </c>
       <c r="G7" t="n">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="H7" t="n">
-        <v>2.46</v>
+        <v>2.56</v>
       </c>
       <c r="I7" t="n">
-        <v>3.35</v>
+        <v>3.1</v>
       </c>
       <c r="J7" t="n">
         <v>3.2</v>
       </c>
       <c r="K7" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="L7" t="n">
-        <v>1.01</v>
+        <v>1.27</v>
       </c>
       <c r="M7" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N7" t="n">
-        <v>3.9</v>
+        <v>4.4</v>
       </c>
       <c r="O7" t="n">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
       <c r="P7" t="n">
-        <v>2.16</v>
+        <v>2.28</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.68</v>
+        <v>1.66</v>
       </c>
       <c r="R7" t="n">
-        <v>1.39</v>
+        <v>1.49</v>
       </c>
       <c r="S7" t="n">
-        <v>2.48</v>
+        <v>2.64</v>
       </c>
       <c r="T7" t="n">
-        <v>1.04</v>
+        <v>1.56</v>
       </c>
       <c r="U7" t="n">
-        <v>1.04</v>
+        <v>2.42</v>
       </c>
       <c r="V7" t="n">
         <v>1.49</v>
       </c>
       <c r="W7" t="n">
-        <v>1.56</v>
+        <v>1.57</v>
       </c>
       <c r="X7" t="n">
         <v>1000</v>
@@ -1486,7 +1486,7 @@
         <v>2.18</v>
       </c>
       <c r="I8" t="n">
-        <v>2.42</v>
+        <v>2.36</v>
       </c>
       <c r="J8" t="n">
         <v>3.2</v>
@@ -1495,7 +1495,7 @@
         <v>3.7</v>
       </c>
       <c r="L8" t="n">
-        <v>1.37</v>
+        <v>1.44</v>
       </c>
       <c r="M8" t="n">
         <v>1.08</v>
@@ -1525,7 +1525,7 @@
         <v>1.99</v>
       </c>
       <c r="V8" t="n">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="W8" t="n">
         <v>1.34</v>
@@ -1534,13 +1534,13 @@
         <v>12.5</v>
       </c>
       <c r="Y8" t="n">
-        <v>9.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="Z8" t="n">
         <v>15</v>
       </c>
       <c r="AA8" t="n">
-        <v>34</v>
+        <v>980</v>
       </c>
       <c r="AB8" t="n">
         <v>13</v>
@@ -1603,118 +1603,118 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>AC Ospitaletto</t>
+          <t>Benevento</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Union Brescia</t>
+          <t>Monopoli</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>5.1</v>
+        <v>1.45</v>
       </c>
       <c r="G9" t="n">
-        <v>27</v>
+        <v>1.59</v>
       </c>
       <c r="H9" t="n">
-        <v>1.55</v>
+        <v>7.2</v>
       </c>
       <c r="I9" t="n">
-        <v>1.87</v>
+        <v>12</v>
       </c>
       <c r="J9" t="n">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="K9" t="n">
-        <v>980</v>
+        <v>5.5</v>
       </c>
       <c r="L9" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="M9" t="n">
-        <v>1.01</v>
+        <v>1.06</v>
       </c>
       <c r="N9" t="n">
-        <v>1.54</v>
+        <v>3.25</v>
       </c>
       <c r="O9" t="n">
-        <v>1.01</v>
+        <v>1.35</v>
       </c>
       <c r="P9" t="n">
-        <v>1.53</v>
+        <v>1.78</v>
       </c>
       <c r="Q9" t="n">
-        <v>2.08</v>
+        <v>1.9</v>
       </c>
       <c r="R9" t="n">
-        <v>1.18</v>
+        <v>1.29</v>
       </c>
       <c r="S9" t="n">
-        <v>3.05</v>
+        <v>3.35</v>
       </c>
       <c r="T9" t="n">
-        <v>1.04</v>
+        <v>2.02</v>
       </c>
       <c r="U9" t="n">
-        <v>1.04</v>
+        <v>1.57</v>
       </c>
       <c r="V9" t="n">
-        <v>2.14</v>
+        <v>1.09</v>
       </c>
       <c r="W9" t="n">
-        <v>1.04</v>
+        <v>2.7</v>
       </c>
       <c r="X9" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="Y9" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="Z9" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="AA9" t="n">
         <v>1000</v>
       </c>
       <c r="AB9" t="n">
-        <v>1000</v>
+        <v>8</v>
       </c>
       <c r="AC9" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AD9" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AE9" t="n">
         <v>1000</v>
       </c>
       <c r="AF9" t="n">
-        <v>1000</v>
+        <v>9.4</v>
       </c>
       <c r="AG9" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AH9" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AI9" t="n">
         <v>1000</v>
       </c>
       <c r="AJ9" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AK9" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AL9" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AM9" t="n">
         <v>1000</v>
       </c>
       <c r="AN9" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="AO9" t="n">
         <v>1000</v>
@@ -1738,73 +1738,73 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Benevento</t>
+          <t>AC Ospitaletto</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Monopoli</t>
+          <t>Union Brescia</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>1.39</v>
+        <v>5.6</v>
       </c>
       <c r="G10" t="n">
-        <v>1.66</v>
+        <v>9</v>
       </c>
       <c r="H10" t="n">
-        <v>6.4</v>
+        <v>1.62</v>
       </c>
       <c r="I10" t="n">
-        <v>980</v>
+        <v>1.8</v>
       </c>
       <c r="J10" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="K10" t="n">
-        <v>8</v>
+        <v>4.6</v>
       </c>
       <c r="L10" t="n">
-        <v>1.34</v>
+        <v>1.41</v>
       </c>
       <c r="M10" t="n">
-        <v>1.02</v>
+        <v>1.08</v>
       </c>
       <c r="N10" t="n">
-        <v>2.36</v>
+        <v>2.9</v>
       </c>
       <c r="O10" t="n">
-        <v>1.02</v>
+        <v>1.42</v>
       </c>
       <c r="P10" t="n">
         <v>1.64</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.88</v>
+        <v>2.24</v>
       </c>
       <c r="R10" t="n">
-        <v>1.18</v>
+        <v>1.24</v>
       </c>
       <c r="S10" t="n">
-        <v>2.6</v>
+        <v>3.85</v>
       </c>
       <c r="T10" t="n">
-        <v>1.04</v>
+        <v>1.99</v>
       </c>
       <c r="U10" t="n">
-        <v>1.04</v>
+        <v>1.59</v>
       </c>
       <c r="V10" t="n">
-        <v>1.01</v>
+        <v>2.26</v>
       </c>
       <c r="W10" t="n">
-        <v>2.5</v>
+        <v>1.12</v>
       </c>
       <c r="X10" t="n">
         <v>1000</v>
       </c>
       <c r="Y10" t="n">
-        <v>1000</v>
+        <v>7.6</v>
       </c>
       <c r="Z10" t="n">
         <v>1000</v>
@@ -1882,16 +1882,16 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>2.62</v>
+        <v>2.54</v>
       </c>
       <c r="G11" t="n">
-        <v>2.82</v>
+        <v>2.72</v>
       </c>
       <c r="H11" t="n">
-        <v>3.05</v>
+        <v>3.2</v>
       </c>
       <c r="I11" t="n">
-        <v>3.35</v>
+        <v>3.55</v>
       </c>
       <c r="J11" t="n">
         <v>3</v>
@@ -2035,7 +2035,7 @@
         <v>4.1</v>
       </c>
       <c r="L12" t="n">
-        <v>1.01</v>
+        <v>1.38</v>
       </c>
       <c r="M12" t="n">
         <v>1.07</v>
@@ -2059,7 +2059,7 @@
         <v>3.45</v>
       </c>
       <c r="T12" t="n">
-        <v>1.69</v>
+        <v>1.7</v>
       </c>
       <c r="U12" t="n">
         <v>1.85</v>
@@ -2086,7 +2086,7 @@
         <v>1000</v>
       </c>
       <c r="AC12" t="n">
-        <v>9</v>
+        <v>1000</v>
       </c>
       <c r="AD12" t="n">
         <v>1000</v>
@@ -2170,7 +2170,7 @@
         <v>980</v>
       </c>
       <c r="L13" t="n">
-        <v>1.34</v>
+        <v>1.43</v>
       </c>
       <c r="M13" t="n">
         <v>1.01</v>
@@ -2287,28 +2287,28 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>1.04</v>
+        <v>2.78</v>
       </c>
       <c r="G14" t="n">
-        <v>1000</v>
+        <v>3.55</v>
       </c>
       <c r="H14" t="n">
-        <v>1.09</v>
+        <v>2.26</v>
       </c>
       <c r="I14" t="n">
-        <v>1000</v>
+        <v>2.76</v>
       </c>
       <c r="J14" t="n">
-        <v>1.09</v>
+        <v>2.94</v>
       </c>
       <c r="K14" t="n">
-        <v>1000</v>
+        <v>4.4</v>
       </c>
       <c r="L14" t="n">
-        <v>1.01</v>
+        <v>1.37</v>
       </c>
       <c r="M14" t="n">
-        <v>1.01</v>
+        <v>1.06</v>
       </c>
       <c r="N14" t="n">
         <v>1.01</v>
@@ -2317,22 +2317,22 @@
         <v>1.31</v>
       </c>
       <c r="P14" t="n">
-        <v>1.24</v>
+        <v>1.74</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.01</v>
+        <v>1.78</v>
       </c>
       <c r="R14" t="n">
-        <v>1.18</v>
+        <v>1.32</v>
       </c>
       <c r="S14" t="n">
         <v>1.01</v>
       </c>
       <c r="T14" t="n">
-        <v>1.01</v>
+        <v>1.68</v>
       </c>
       <c r="U14" t="n">
-        <v>1.01</v>
+        <v>2.04</v>
       </c>
       <c r="V14" t="n">
         <v>1.01</v>
@@ -2422,100 +2422,100 @@
         </is>
       </c>
       <c r="F15" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="G15" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="H15" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="I15" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="J15" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="K15" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="L15" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="M15" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="N15" t="n">
         <v>2.34</v>
       </c>
-      <c r="G15" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="H15" t="n">
-        <v>2.78</v>
-      </c>
-      <c r="I15" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="J15" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="K15" t="n">
-        <v>980</v>
-      </c>
-      <c r="L15" t="n">
-        <v>1.54</v>
-      </c>
-      <c r="M15" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="N15" t="n">
-        <v>1.36</v>
-      </c>
       <c r="O15" t="n">
-        <v>1.58</v>
+        <v>1.6</v>
       </c>
       <c r="P15" t="n">
-        <v>1.36</v>
+        <v>1.44</v>
       </c>
       <c r="Q15" t="n">
-        <v>2.66</v>
+        <v>2.82</v>
       </c>
       <c r="R15" t="n">
         <v>1.18</v>
       </c>
       <c r="S15" t="n">
-        <v>2.66</v>
+        <v>5.4</v>
       </c>
       <c r="T15" t="n">
-        <v>1.01</v>
+        <v>2.18</v>
       </c>
       <c r="U15" t="n">
-        <v>1.01</v>
+        <v>1.69</v>
       </c>
       <c r="V15" t="n">
-        <v>1.31</v>
+        <v>1.38</v>
       </c>
       <c r="W15" t="n">
-        <v>1.42</v>
+        <v>1.51</v>
       </c>
       <c r="X15" t="n">
-        <v>1000</v>
+        <v>9</v>
       </c>
       <c r="Y15" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="Z15" t="n">
-        <v>1000</v>
+        <v>26</v>
       </c>
       <c r="AA15" t="n">
         <v>1000</v>
       </c>
       <c r="AB15" t="n">
-        <v>1000</v>
+        <v>9</v>
       </c>
       <c r="AC15" t="n">
-        <v>1000</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD15" t="n">
-        <v>1000</v>
+        <v>18.5</v>
       </c>
       <c r="AE15" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AF15" t="n">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="AG15" t="n">
-        <v>1000</v>
+        <v>16.5</v>
       </c>
       <c r="AH15" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AI15" t="n">
         <v>1000</v>
       </c>
       <c r="AJ15" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AK15" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AL15" t="n">
         <v>1000</v>
@@ -2548,121 +2548,121 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Sporting Gijon</t>
+          <t>Almeria</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Eibar</t>
+          <t>Cadiz</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>2.34</v>
+        <v>1.65</v>
       </c>
       <c r="G16" t="n">
-        <v>2.54</v>
+        <v>1.71</v>
       </c>
       <c r="H16" t="n">
-        <v>3.6</v>
+        <v>5.7</v>
       </c>
       <c r="I16" t="n">
-        <v>4.1</v>
+        <v>6.4</v>
       </c>
       <c r="J16" t="n">
-        <v>2.94</v>
+        <v>3.95</v>
       </c>
       <c r="K16" t="n">
-        <v>3.15</v>
+        <v>4.3</v>
       </c>
       <c r="L16" t="n">
-        <v>1.52</v>
+        <v>1.39</v>
       </c>
       <c r="M16" t="n">
-        <v>1.11</v>
+        <v>1.06</v>
       </c>
       <c r="N16" t="n">
-        <v>2.84</v>
+        <v>3.85</v>
       </c>
       <c r="O16" t="n">
-        <v>1.47</v>
+        <v>1.3</v>
       </c>
       <c r="P16" t="n">
-        <v>1.7</v>
+        <v>1.98</v>
       </c>
       <c r="Q16" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="R16" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="S16" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="T16" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="U16" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="V16" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="W16" t="n">
         <v>2.38</v>
       </c>
-      <c r="R16" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="S16" t="n">
-        <v>4.7</v>
-      </c>
-      <c r="T16" t="n">
-        <v>1.96</v>
-      </c>
-      <c r="U16" t="n">
-        <v>1.86</v>
-      </c>
-      <c r="V16" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="W16" t="n">
-        <v>1.64</v>
-      </c>
       <c r="X16" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="Y16" t="n">
-        <v>12</v>
+        <v>980</v>
       </c>
       <c r="Z16" t="n">
-        <v>27</v>
+        <v>980</v>
       </c>
       <c r="AA16" t="n">
-        <v>85</v>
+        <v>200</v>
       </c>
       <c r="AB16" t="n">
         <v>8.6</v>
       </c>
       <c r="AC16" t="n">
-        <v>7.4</v>
+        <v>9.4</v>
       </c>
       <c r="AD16" t="n">
+        <v>980</v>
+      </c>
+      <c r="AE16" t="n">
+        <v>110</v>
+      </c>
+      <c r="AF16" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AG16" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AH16" t="n">
+        <v>980</v>
+      </c>
+      <c r="AI16" t="n">
+        <v>100</v>
+      </c>
+      <c r="AJ16" t="n">
         <v>17</v>
       </c>
-      <c r="AE16" t="n">
-        <v>60</v>
-      </c>
-      <c r="AF16" t="n">
-        <v>15</v>
-      </c>
-      <c r="AG16" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AH16" t="n">
-        <v>21</v>
-      </c>
-      <c r="AI16" t="n">
-        <v>80</v>
-      </c>
-      <c r="AJ16" t="n">
-        <v>980</v>
-      </c>
       <c r="AK16" t="n">
-        <v>34</v>
+        <v>980</v>
       </c>
       <c r="AL16" t="n">
-        <v>60</v>
+        <v>980</v>
       </c>
       <c r="AM16" t="n">
-        <v>180</v>
+        <v>150</v>
       </c>
       <c r="AN16" t="n">
-        <v>980</v>
+        <v>10.5</v>
       </c>
       <c r="AO16" t="n">
-        <v>75</v>
+        <v>130</v>
       </c>
     </row>
     <row r="17">
@@ -2683,121 +2683,121 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Almeria</t>
+          <t>Sporting Gijon</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Cadiz</t>
+          <t>Eibar</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>1.68</v>
+        <v>2.38</v>
       </c>
       <c r="G17" t="n">
-        <v>1.74</v>
+        <v>2.5</v>
       </c>
       <c r="H17" t="n">
-        <v>5.6</v>
+        <v>3.55</v>
       </c>
       <c r="I17" t="n">
-        <v>6.4</v>
+        <v>3.9</v>
       </c>
       <c r="J17" t="n">
-        <v>3.9</v>
+        <v>3</v>
       </c>
       <c r="K17" t="n">
-        <v>4.4</v>
+        <v>3.15</v>
       </c>
       <c r="L17" t="n">
-        <v>1.38</v>
+        <v>1.52</v>
       </c>
       <c r="M17" t="n">
-        <v>1.06</v>
+        <v>1.11</v>
       </c>
       <c r="N17" t="n">
-        <v>3.85</v>
+        <v>2.86</v>
       </c>
       <c r="O17" t="n">
-        <v>1.3</v>
+        <v>1.47</v>
       </c>
       <c r="P17" t="n">
-        <v>1.98</v>
+        <v>1.64</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.87</v>
+        <v>2.4</v>
       </c>
       <c r="R17" t="n">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="S17" t="n">
-        <v>3.3</v>
+        <v>4.7</v>
       </c>
       <c r="T17" t="n">
-        <v>1.9</v>
+        <v>1.96</v>
       </c>
       <c r="U17" t="n">
-        <v>1.96</v>
+        <v>1.88</v>
       </c>
       <c r="V17" t="n">
-        <v>1.18</v>
+        <v>1.35</v>
       </c>
       <c r="W17" t="n">
-        <v>2.34</v>
+        <v>1.66</v>
       </c>
       <c r="X17" t="n">
-        <v>16</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="Y17" t="n">
-        <v>980</v>
+        <v>11.5</v>
       </c>
       <c r="Z17" t="n">
-        <v>980</v>
+        <v>27</v>
       </c>
       <c r="AA17" t="n">
-        <v>200</v>
+        <v>80</v>
       </c>
       <c r="AB17" t="n">
         <v>8.6</v>
       </c>
       <c r="AC17" t="n">
-        <v>9.4</v>
+        <v>7.4</v>
       </c>
       <c r="AD17" t="n">
-        <v>980</v>
+        <v>17</v>
       </c>
       <c r="AE17" t="n">
-        <v>110</v>
+        <v>60</v>
       </c>
       <c r="AF17" t="n">
-        <v>10.5</v>
+        <v>15</v>
       </c>
       <c r="AG17" t="n">
-        <v>10.5</v>
+        <v>12.5</v>
       </c>
       <c r="AH17" t="n">
-        <v>980</v>
+        <v>21</v>
       </c>
       <c r="AI17" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="AJ17" t="n">
-        <v>17</v>
+        <v>980</v>
       </c>
       <c r="AK17" t="n">
-        <v>980</v>
+        <v>34</v>
       </c>
       <c r="AL17" t="n">
-        <v>980</v>
+        <v>60</v>
       </c>
       <c r="AM17" t="n">
-        <v>150</v>
+        <v>180</v>
       </c>
       <c r="AN17" t="n">
-        <v>10.5</v>
+        <v>980</v>
       </c>
       <c r="AO17" t="n">
-        <v>130</v>
+        <v>75</v>
       </c>
     </row>
     <row r="18">
@@ -2962,13 +2962,13 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>1.65</v>
+        <v>1.68</v>
       </c>
       <c r="G19" t="n">
         <v>2.08</v>
       </c>
       <c r="H19" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="I19" t="n">
         <v>7.8</v>
@@ -2995,13 +2995,13 @@
         <v>1.5</v>
       </c>
       <c r="Q19" t="n">
-        <v>2.28</v>
+        <v>2.34</v>
       </c>
       <c r="R19" t="n">
         <v>1.18</v>
       </c>
       <c r="S19" t="n">
-        <v>2.28</v>
+        <v>2.34</v>
       </c>
       <c r="T19" t="n">
         <v>1.01</v>
@@ -3121,16 +3121,16 @@
         <v>1.13</v>
       </c>
       <c r="N20" t="n">
-        <v>2.48</v>
+        <v>2.5</v>
       </c>
       <c r="O20" t="n">
-        <v>1.58</v>
+        <v>1.59</v>
       </c>
       <c r="P20" t="n">
-        <v>1.5</v>
+        <v>1.51</v>
       </c>
       <c r="Q20" t="n">
-        <v>2.7</v>
+        <v>2.72</v>
       </c>
       <c r="R20" t="n">
         <v>1.17</v>
@@ -3142,7 +3142,7 @@
         <v>2.16</v>
       </c>
       <c r="U20" t="n">
-        <v>1.73</v>
+        <v>1.74</v>
       </c>
       <c r="V20" t="n">
         <v>1.6</v>
@@ -3151,7 +3151,7 @@
         <v>1.39</v>
       </c>
       <c r="X20" t="n">
-        <v>8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="Y20" t="n">
         <v>7.6</v>
@@ -3181,7 +3181,7 @@
         <v>16</v>
       </c>
       <c r="AH20" t="n">
-        <v>26</v>
+        <v>980</v>
       </c>
       <c r="AI20" t="n">
         <v>75</v>
@@ -3232,31 +3232,31 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>2.4</v>
+        <v>2.46</v>
       </c>
       <c r="G21" t="n">
-        <v>2.62</v>
+        <v>2.6</v>
       </c>
       <c r="H21" t="n">
-        <v>2.98</v>
+        <v>3.05</v>
       </c>
       <c r="I21" t="n">
         <v>3.25</v>
       </c>
       <c r="J21" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="K21" t="n">
         <v>3.5</v>
       </c>
-      <c r="K21" t="n">
-        <v>3.75</v>
-      </c>
       <c r="L21" t="n">
-        <v>1.34</v>
+        <v>1.38</v>
       </c>
       <c r="M21" t="n">
         <v>1.06</v>
       </c>
       <c r="N21" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="O21" t="n">
         <v>1.27</v>
@@ -3274,16 +3274,16 @@
         <v>3.15</v>
       </c>
       <c r="T21" t="n">
-        <v>1.66</v>
+        <v>1.67</v>
       </c>
       <c r="U21" t="n">
         <v>2.28</v>
       </c>
       <c r="V21" t="n">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="W21" t="n">
-        <v>1.61</v>
+        <v>1.62</v>
       </c>
       <c r="X21" t="n">
         <v>17.5</v>
@@ -3295,7 +3295,7 @@
         <v>980</v>
       </c>
       <c r="AA21" t="n">
-        <v>55</v>
+        <v>980</v>
       </c>
       <c r="AB21" t="n">
         <v>12.5</v>
@@ -3367,64 +3367,64 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>2.96</v>
+        <v>3.1</v>
       </c>
       <c r="G22" t="n">
-        <v>4.3</v>
+        <v>3.8</v>
       </c>
       <c r="H22" t="n">
-        <v>2.14</v>
+        <v>2.32</v>
       </c>
       <c r="I22" t="n">
-        <v>2.94</v>
+        <v>2.68</v>
       </c>
       <c r="J22" t="n">
-        <v>2.8</v>
+        <v>3.05</v>
       </c>
       <c r="K22" t="n">
-        <v>5.1</v>
+        <v>3.55</v>
       </c>
       <c r="L22" t="n">
-        <v>1.38</v>
+        <v>1.41</v>
       </c>
       <c r="M22" t="n">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="N22" t="n">
-        <v>1.55</v>
+        <v>2.98</v>
       </c>
       <c r="O22" t="n">
-        <v>1.08</v>
+        <v>1.42</v>
       </c>
       <c r="P22" t="n">
-        <v>1.55</v>
+        <v>1.66</v>
       </c>
       <c r="Q22" t="n">
-        <v>2.08</v>
+        <v>2.24</v>
       </c>
       <c r="R22" t="n">
-        <v>1.2</v>
+        <v>1.25</v>
       </c>
       <c r="S22" t="n">
-        <v>3.65</v>
+        <v>3.75</v>
       </c>
       <c r="T22" t="n">
-        <v>1.01</v>
+        <v>1.76</v>
       </c>
       <c r="U22" t="n">
-        <v>1.01</v>
+        <v>1.78</v>
       </c>
       <c r="V22" t="n">
-        <v>1.52</v>
+        <v>1.59</v>
       </c>
       <c r="W22" t="n">
-        <v>1.3</v>
+        <v>1.37</v>
       </c>
       <c r="X22" t="n">
         <v>1000</v>
       </c>
       <c r="Y22" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="Z22" t="n">
         <v>1000</v>
@@ -3433,13 +3433,13 @@
         <v>1000</v>
       </c>
       <c r="AB22" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="AC22" t="n">
-        <v>1000</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD22" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="AE22" t="n">
         <v>1000</v>
@@ -3448,7 +3448,7 @@
         <v>1000</v>
       </c>
       <c r="AG22" t="n">
-        <v>1000</v>
+        <v>18</v>
       </c>
       <c r="AH22" t="n">
         <v>1000</v>
@@ -3505,7 +3505,7 @@
         <v>2.12</v>
       </c>
       <c r="G23" t="n">
-        <v>2.32</v>
+        <v>2.3</v>
       </c>
       <c r="H23" t="n">
         <v>3.85</v>
@@ -3547,13 +3547,13 @@
         <v>1.99</v>
       </c>
       <c r="U23" t="n">
-        <v>1.85</v>
+        <v>1.84</v>
       </c>
       <c r="V23" t="n">
         <v>1.29</v>
       </c>
       <c r="W23" t="n">
-        <v>1.75</v>
+        <v>1.76</v>
       </c>
       <c r="X23" t="n">
         <v>10.5</v>
@@ -3592,7 +3592,7 @@
         <v>80</v>
       </c>
       <c r="AJ23" t="n">
-        <v>32</v>
+        <v>980</v>
       </c>
       <c r="AK23" t="n">
         <v>980</v>
@@ -3637,22 +3637,22 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>4.1</v>
+        <v>4.3</v>
       </c>
       <c r="G24" t="n">
-        <v>980</v>
+        <v>4.8</v>
       </c>
       <c r="H24" t="n">
-        <v>1.81</v>
+        <v>1.97</v>
       </c>
       <c r="I24" t="n">
-        <v>2.26</v>
+        <v>2.12</v>
       </c>
       <c r="J24" t="n">
-        <v>2.64</v>
+        <v>3.3</v>
       </c>
       <c r="K24" t="n">
-        <v>980</v>
+        <v>3.65</v>
       </c>
       <c r="L24" t="n">
         <v>1.48</v>
@@ -3661,88 +3661,88 @@
         <v>1.09</v>
       </c>
       <c r="N24" t="n">
-        <v>1.03</v>
+        <v>3.1</v>
       </c>
       <c r="O24" t="n">
         <v>1.42</v>
       </c>
       <c r="P24" t="n">
-        <v>1.25</v>
+        <v>1.71</v>
       </c>
       <c r="Q24" t="n">
-        <v>1.42</v>
+        <v>2.2</v>
       </c>
       <c r="R24" t="n">
-        <v>1.23</v>
+        <v>1.26</v>
       </c>
       <c r="S24" t="n">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="T24" t="n">
-        <v>1.01</v>
+        <v>1.94</v>
       </c>
       <c r="U24" t="n">
-        <v>1.01</v>
+        <v>1.87</v>
       </c>
       <c r="V24" t="n">
-        <v>1.79</v>
+        <v>1.9</v>
       </c>
       <c r="W24" t="n">
-        <v>1.22</v>
+        <v>1.26</v>
       </c>
       <c r="X24" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="Y24" t="n">
-        <v>1000</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="Z24" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AA24" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AB24" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="AC24" t="n">
-        <v>1000</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD24" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="AE24" t="n">
-        <v>1000</v>
+        <v>26</v>
       </c>
       <c r="AF24" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AG24" t="n">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="AH24" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AI24" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AJ24" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="AK24" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
       <c r="AL24" t="n">
-        <v>1000</v>
+        <v>90</v>
       </c>
       <c r="AM24" t="n">
-        <v>1000</v>
+        <v>170</v>
       </c>
       <c r="AN24" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AO24" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
     </row>
     <row r="25">
@@ -3772,19 +3772,19 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>1.45</v>
+        <v>1.57</v>
       </c>
       <c r="G25" t="n">
-        <v>1.83</v>
+        <v>1.69</v>
       </c>
       <c r="H25" t="n">
-        <v>4</v>
+        <v>5.8</v>
       </c>
       <c r="I25" t="n">
-        <v>980</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="J25" t="n">
-        <v>1.09</v>
+        <v>3.7</v>
       </c>
       <c r="K25" t="n">
         <v>4.8</v>
@@ -3793,88 +3793,88 @@
         <v>1.45</v>
       </c>
       <c r="M25" t="n">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="N25" t="n">
-        <v>1.02</v>
+        <v>3.05</v>
       </c>
       <c r="O25" t="n">
-        <v>1.39</v>
+        <v>1.41</v>
       </c>
       <c r="P25" t="n">
-        <v>1.25</v>
+        <v>1.71</v>
       </c>
       <c r="Q25" t="n">
-        <v>1.39</v>
+        <v>2.16</v>
       </c>
       <c r="R25" t="n">
-        <v>1.24</v>
+        <v>1.26</v>
       </c>
       <c r="S25" t="n">
-        <v>3.35</v>
+        <v>3.7</v>
       </c>
       <c r="T25" t="n">
-        <v>1.01</v>
+        <v>1.99</v>
       </c>
       <c r="U25" t="n">
-        <v>1.01</v>
+        <v>1.6</v>
       </c>
       <c r="V25" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="W25" t="n">
-        <v>2.2</v>
+        <v>2.38</v>
       </c>
       <c r="X25" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="Y25" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="Z25" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AA25" t="n">
         <v>1000</v>
       </c>
       <c r="AB25" t="n">
-        <v>1000</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AC25" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="AD25" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AE25" t="n">
-        <v>1000</v>
+        <v>170</v>
       </c>
       <c r="AF25" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="AG25" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AH25" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AI25" t="n">
-        <v>1000</v>
+        <v>170</v>
       </c>
       <c r="AJ25" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AK25" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AL25" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AM25" t="n">
         <v>1000</v>
       </c>
       <c r="AN25" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AO25" t="n">
         <v>1000</v>
@@ -3907,16 +3907,16 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>1.93</v>
+        <v>1.92</v>
       </c>
       <c r="G26" t="n">
         <v>2.08</v>
       </c>
       <c r="H26" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="I26" t="n">
-        <v>5.1</v>
+        <v>4.9</v>
       </c>
       <c r="J26" t="n">
         <v>3.35</v>
@@ -3946,7 +3946,7 @@
         <v>1.23</v>
       </c>
       <c r="S26" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="T26" t="n">
         <v>2.04</v>
@@ -3961,25 +3961,25 @@
         <v>1.92</v>
       </c>
       <c r="X26" t="n">
-        <v>13.5</v>
+        <v>970</v>
       </c>
       <c r="Y26" t="n">
-        <v>15.5</v>
+        <v>980</v>
       </c>
       <c r="Z26" t="n">
         <v>980</v>
       </c>
       <c r="AA26" t="n">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="AB26" t="n">
-        <v>7.6</v>
+        <v>980</v>
       </c>
       <c r="AC26" t="n">
         <v>980</v>
       </c>
       <c r="AD26" t="n">
-        <v>23</v>
+        <v>980</v>
       </c>
       <c r="AE26" t="n">
         <v>90</v>
@@ -4054,10 +4054,10 @@
         <v>2.58</v>
       </c>
       <c r="J27" t="n">
-        <v>2.98</v>
+        <v>2.7</v>
       </c>
       <c r="K27" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="L27" t="n">
         <v>1.01</v>
@@ -4069,19 +4069,19 @@
         <v>2.48</v>
       </c>
       <c r="O27" t="n">
-        <v>1.57</v>
+        <v>1.58</v>
       </c>
       <c r="P27" t="n">
-        <v>1.5</v>
+        <v>1.49</v>
       </c>
       <c r="Q27" t="n">
-        <v>2.42</v>
+        <v>2.46</v>
       </c>
       <c r="R27" t="n">
         <v>1.17</v>
       </c>
       <c r="S27" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="T27" t="n">
         <v>2.12</v>
@@ -4189,7 +4189,7 @@
         <v>2.68</v>
       </c>
       <c r="J28" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="K28" t="n">
         <v>3.3</v>
@@ -4201,7 +4201,7 @@
         <v>1.12</v>
       </c>
       <c r="N28" t="n">
-        <v>2.44</v>
+        <v>2.46</v>
       </c>
       <c r="O28" t="n">
         <v>1.59</v>
@@ -4210,7 +4210,7 @@
         <v>1.49</v>
       </c>
       <c r="Q28" t="n">
-        <v>2.68</v>
+        <v>2.72</v>
       </c>
       <c r="R28" t="n">
         <v>1.17</v>
@@ -4219,7 +4219,7 @@
         <v>5.9</v>
       </c>
       <c r="T28" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="U28" t="n">
         <v>1.71</v>
@@ -4231,7 +4231,7 @@
         <v>1.4</v>
       </c>
       <c r="X28" t="n">
-        <v>8.800000000000001</v>
+        <v>10.5</v>
       </c>
       <c r="Y28" t="n">
         <v>7.4</v>
@@ -4243,22 +4243,22 @@
         <v>980</v>
       </c>
       <c r="AB28" t="n">
-        <v>9</v>
+        <v>9.6</v>
       </c>
       <c r="AC28" t="n">
         <v>7.8</v>
       </c>
       <c r="AD28" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AE28" t="n">
         <v>980</v>
       </c>
       <c r="AF28" t="n">
-        <v>22</v>
+        <v>980</v>
       </c>
       <c r="AG28" t="n">
-        <v>15.5</v>
+        <v>17.5</v>
       </c>
       <c r="AH28" t="n">
         <v>980</v>
@@ -4276,10 +4276,10 @@
         <v>100</v>
       </c>
       <c r="AM28" t="n">
-        <v>280</v>
+        <v>270</v>
       </c>
       <c r="AN28" t="n">
-        <v>80</v>
+        <v>95</v>
       </c>
       <c r="AO28" t="n">
         <v>60</v>
@@ -4312,10 +4312,10 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>2.28</v>
+        <v>2.32</v>
       </c>
       <c r="G29" t="n">
-        <v>2.36</v>
+        <v>2.44</v>
       </c>
       <c r="H29" t="n">
         <v>3.75</v>
@@ -4327,10 +4327,10 @@
         <v>3.05</v>
       </c>
       <c r="K29" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="L29" t="n">
-        <v>1.01</v>
+        <v>1.56</v>
       </c>
       <c r="M29" t="n">
         <v>1.13</v>
@@ -4339,10 +4339,10 @@
         <v>2.52</v>
       </c>
       <c r="O29" t="n">
-        <v>1.56</v>
+        <v>1.57</v>
       </c>
       <c r="P29" t="n">
-        <v>1.51</v>
+        <v>1.52</v>
       </c>
       <c r="Q29" t="n">
         <v>2.68</v>
@@ -4357,13 +4357,13 @@
         <v>2.16</v>
       </c>
       <c r="U29" t="n">
-        <v>1.74</v>
+        <v>1.61</v>
       </c>
       <c r="V29" t="n">
         <v>1.32</v>
       </c>
       <c r="W29" t="n">
-        <v>1.73</v>
+        <v>1.71</v>
       </c>
       <c r="X29" t="n">
         <v>8.4</v>
@@ -4375,19 +4375,19 @@
         <v>26</v>
       </c>
       <c r="AA29" t="n">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="AB29" t="n">
         <v>7.2</v>
       </c>
       <c r="AC29" t="n">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="AD29" t="n">
         <v>17.5</v>
       </c>
       <c r="AE29" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AF29" t="n">
         <v>13</v>
@@ -4411,13 +4411,13 @@
         <v>80</v>
       </c>
       <c r="AM29" t="n">
-        <v>220</v>
+        <v>210</v>
       </c>
       <c r="AN29" t="n">
         <v>38</v>
       </c>
       <c r="AO29" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
     </row>
     <row r="30">
@@ -4591,7 +4591,7 @@
         <v>3.75</v>
       </c>
       <c r="I31" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="J31" t="n">
         <v>3.2</v>
@@ -4612,7 +4612,7 @@
         <v>1.44</v>
       </c>
       <c r="P31" t="n">
-        <v>1.64</v>
+        <v>1.66</v>
       </c>
       <c r="Q31" t="n">
         <v>2.28</v>
@@ -4630,7 +4630,7 @@
         <v>1.89</v>
       </c>
       <c r="V31" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="W31" t="n">
         <v>1.8</v>
@@ -4657,7 +4657,7 @@
         <v>17.5</v>
       </c>
       <c r="AE31" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AF31" t="n">
         <v>14</v>
@@ -4708,67 +4708,67 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Central Cordoba (SdE)</t>
+          <t>Newells</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Banfield</t>
+          <t>Racing Club</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>2.38</v>
+        <v>4.2</v>
       </c>
       <c r="G32" t="n">
-        <v>2.6</v>
+        <v>4.8</v>
       </c>
       <c r="H32" t="n">
-        <v>3.3</v>
+        <v>2.02</v>
       </c>
       <c r="I32" t="n">
-        <v>3.65</v>
+        <v>2.16</v>
       </c>
       <c r="J32" t="n">
-        <v>3.05</v>
+        <v>3.2</v>
       </c>
       <c r="K32" t="n">
-        <v>3.4</v>
+        <v>3.55</v>
       </c>
       <c r="L32" t="n">
-        <v>1.01</v>
+        <v>1.5</v>
       </c>
       <c r="M32" t="n">
-        <v>1.12</v>
+        <v>1.1</v>
       </c>
       <c r="N32" t="n">
-        <v>2.52</v>
+        <v>2.96</v>
       </c>
       <c r="O32" t="n">
-        <v>1.55</v>
+        <v>1.44</v>
       </c>
       <c r="P32" t="n">
-        <v>1.52</v>
+        <v>1.66</v>
       </c>
       <c r="Q32" t="n">
-        <v>2.38</v>
+        <v>2.08</v>
       </c>
       <c r="R32" t="n">
-        <v>1.18</v>
+        <v>1.24</v>
       </c>
       <c r="S32" t="n">
-        <v>5.5</v>
+        <v>4.4</v>
       </c>
       <c r="T32" t="n">
-        <v>2.14</v>
+        <v>1.97</v>
       </c>
       <c r="U32" t="n">
-        <v>1.74</v>
+        <v>1.87</v>
       </c>
       <c r="V32" t="n">
-        <v>1.37</v>
+        <v>1.87</v>
       </c>
       <c r="W32" t="n">
-        <v>1.65</v>
+        <v>1.28</v>
       </c>
       <c r="X32" t="n">
         <v>980</v>
@@ -4780,19 +4780,19 @@
         <v>980</v>
       </c>
       <c r="AA32" t="n">
-        <v>80</v>
+        <v>980</v>
       </c>
       <c r="AB32" t="n">
-        <v>7.6</v>
+        <v>980</v>
       </c>
       <c r="AC32" t="n">
-        <v>7.6</v>
+        <v>980</v>
       </c>
       <c r="AD32" t="n">
         <v>980</v>
       </c>
       <c r="AE32" t="n">
-        <v>60</v>
+        <v>980</v>
       </c>
       <c r="AF32" t="n">
         <v>980</v>
@@ -4804,25 +4804,25 @@
         <v>980</v>
       </c>
       <c r="AI32" t="n">
+        <v>980</v>
+      </c>
+      <c r="AJ32" t="n">
+        <v>120</v>
+      </c>
+      <c r="AK32" t="n">
+        <v>70</v>
+      </c>
+      <c r="AL32" t="n">
         <v>100</v>
       </c>
-      <c r="AJ32" t="n">
-        <v>980</v>
-      </c>
-      <c r="AK32" t="n">
-        <v>980</v>
-      </c>
-      <c r="AL32" t="n">
-        <v>70</v>
-      </c>
       <c r="AM32" t="n">
-        <v>260</v>
+        <v>180</v>
       </c>
       <c r="AN32" t="n">
-        <v>980</v>
+        <v>110</v>
       </c>
       <c r="AO32" t="n">
-        <v>100</v>
+        <v>980</v>
       </c>
     </row>
     <row r="33">
@@ -4843,121 +4843,121 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Boca Juniors</t>
+          <t>Estudiantes</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Tigre</t>
+          <t>Argentinos Juniors</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>1.71</v>
+        <v>2.64</v>
       </c>
       <c r="G33" t="n">
-        <v>1.8</v>
+        <v>2.66</v>
       </c>
       <c r="H33" t="n">
-        <v>6.6</v>
+        <v>3.15</v>
       </c>
       <c r="I33" t="n">
-        <v>7.4</v>
+        <v>3.4</v>
       </c>
       <c r="J33" t="n">
-        <v>3.3</v>
+        <v>3.05</v>
       </c>
       <c r="K33" t="n">
-        <v>3.65</v>
+        <v>3.25</v>
       </c>
       <c r="L33" t="n">
         <v>1.01</v>
       </c>
       <c r="M33" t="n">
-        <v>1.12</v>
+        <v>1.13</v>
       </c>
       <c r="N33" t="n">
-        <v>2.58</v>
+        <v>2.34</v>
       </c>
       <c r="O33" t="n">
-        <v>1.55</v>
+        <v>1.63</v>
       </c>
       <c r="P33" t="n">
-        <v>1.53</v>
+        <v>1.45</v>
       </c>
       <c r="Q33" t="n">
-        <v>2.6</v>
+        <v>2.8</v>
       </c>
       <c r="R33" t="n">
-        <v>1.19</v>
+        <v>1.15</v>
       </c>
       <c r="S33" t="n">
-        <v>5.5</v>
+        <v>6.2</v>
       </c>
       <c r="T33" t="n">
-        <v>2.36</v>
+        <v>2.2</v>
       </c>
       <c r="U33" t="n">
-        <v>1.63</v>
+        <v>1.7</v>
       </c>
       <c r="V33" t="n">
-        <v>1.15</v>
+        <v>1.41</v>
       </c>
       <c r="W33" t="n">
-        <v>2.24</v>
+        <v>1.6</v>
       </c>
       <c r="X33" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="Y33" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="Z33" t="n">
+        <v>21</v>
+      </c>
+      <c r="AA33" t="n">
+        <v>70</v>
+      </c>
+      <c r="AB33" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AC33" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AD33" t="n">
         <v>16</v>
       </c>
-      <c r="Z33" t="n">
+      <c r="AE33" t="n">
+        <v>65</v>
+      </c>
+      <c r="AF33" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AG33" t="n">
+        <v>14</v>
+      </c>
+      <c r="AH33" t="n">
+        <v>28</v>
+      </c>
+      <c r="AI33" t="n">
+        <v>90</v>
+      </c>
+      <c r="AJ33" t="n">
         <v>55</v>
       </c>
-      <c r="AA33" t="n">
-        <v>320</v>
-      </c>
-      <c r="AB33" t="n">
-        <v>5.9</v>
-      </c>
-      <c r="AC33" t="n">
-        <v>8.4</v>
-      </c>
-      <c r="AD33" t="n">
-        <v>980</v>
-      </c>
-      <c r="AE33" t="n">
-        <v>190</v>
-      </c>
-      <c r="AF33" t="n">
-        <v>9</v>
-      </c>
-      <c r="AG33" t="n">
-        <v>11</v>
-      </c>
-      <c r="AH33" t="n">
-        <v>32</v>
-      </c>
-      <c r="AI33" t="n">
-        <v>200</v>
-      </c>
-      <c r="AJ33" t="n">
-        <v>980</v>
-      </c>
       <c r="AK33" t="n">
         <v>980</v>
       </c>
       <c r="AL33" t="n">
-        <v>65</v>
+        <v>90</v>
       </c>
       <c r="AM33" t="n">
-        <v>340</v>
+        <v>250</v>
       </c>
       <c r="AN33" t="n">
-        <v>980</v>
+        <v>60</v>
       </c>
       <c r="AO33" t="n">
-        <v>370</v>
+        <v>85</v>
       </c>
     </row>
     <row r="34">
@@ -4978,121 +4978,121 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Newells</t>
+          <t>Central Cordoba (SdE)</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Racing Club</t>
+          <t>Banfield</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>4.2</v>
+        <v>2.66</v>
       </c>
       <c r="G34" t="n">
-        <v>4.8</v>
+        <v>3.05</v>
       </c>
       <c r="H34" t="n">
-        <v>2.02</v>
+        <v>3.3</v>
       </c>
       <c r="I34" t="n">
-        <v>2.16</v>
+        <v>3.55</v>
       </c>
       <c r="J34" t="n">
-        <v>3.2</v>
+        <v>2.72</v>
       </c>
       <c r="K34" t="n">
-        <v>3.55</v>
+        <v>2.96</v>
       </c>
       <c r="L34" t="n">
-        <v>1.5</v>
+        <v>1.01</v>
       </c>
       <c r="M34" t="n">
-        <v>1.1</v>
+        <v>1.13</v>
       </c>
       <c r="N34" t="n">
-        <v>2.96</v>
+        <v>2.46</v>
       </c>
       <c r="O34" t="n">
-        <v>1.44</v>
+        <v>1.58</v>
       </c>
       <c r="P34" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="R34" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="S34" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="T34" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="U34" t="n">
         <v>1.66</v>
       </c>
-      <c r="Q34" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="R34" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="S34" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="T34" t="n">
-        <v>1.97</v>
-      </c>
-      <c r="U34" t="n">
-        <v>1.87</v>
-      </c>
       <c r="V34" t="n">
-        <v>1.86</v>
+        <v>1.39</v>
       </c>
       <c r="W34" t="n">
-        <v>1.28</v>
+        <v>1.49</v>
       </c>
       <c r="X34" t="n">
-        <v>980</v>
+        <v>7.4</v>
       </c>
       <c r="Y34" t="n">
-        <v>980</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="Z34" t="n">
-        <v>980</v>
+        <v>21</v>
       </c>
       <c r="AA34" t="n">
-        <v>980</v>
+        <v>75</v>
       </c>
       <c r="AB34" t="n">
-        <v>980</v>
+        <v>9.4</v>
       </c>
       <c r="AC34" t="n">
-        <v>980</v>
+        <v>6.6</v>
       </c>
       <c r="AD34" t="n">
-        <v>980</v>
+        <v>16.5</v>
       </c>
       <c r="AE34" t="n">
-        <v>980</v>
+        <v>60</v>
       </c>
       <c r="AF34" t="n">
-        <v>980</v>
+        <v>17.5</v>
       </c>
       <c r="AG34" t="n">
-        <v>980</v>
+        <v>16.5</v>
       </c>
       <c r="AH34" t="n">
         <v>980</v>
       </c>
       <c r="AI34" t="n">
-        <v>980</v>
+        <v>100</v>
       </c>
       <c r="AJ34" t="n">
-        <v>120</v>
+        <v>50</v>
       </c>
       <c r="AK34" t="n">
+        <v>48</v>
+      </c>
+      <c r="AL34" t="n">
+        <v>90</v>
+      </c>
+      <c r="AM34" t="n">
+        <v>230</v>
+      </c>
+      <c r="AN34" t="n">
+        <v>60</v>
+      </c>
+      <c r="AO34" t="n">
         <v>85</v>
-      </c>
-      <c r="AL34" t="n">
-        <v>100</v>
-      </c>
-      <c r="AM34" t="n">
-        <v>180</v>
-      </c>
-      <c r="AN34" t="n">
-        <v>110</v>
-      </c>
-      <c r="AO34" t="n">
-        <v>980</v>
       </c>
     </row>
     <row r="35">
@@ -5113,121 +5113,256 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Estudiantes</t>
+          <t>Boca Juniors</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Argentinos Juniors</t>
+          <t>Tigre</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>2.64</v>
+        <v>1.73</v>
       </c>
       <c r="G35" t="n">
-        <v>2.66</v>
+        <v>1.8</v>
       </c>
       <c r="H35" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="I35" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="J35" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="K35" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="L35" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="M35" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="N35" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="O35" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="P35" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="R35" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="S35" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="T35" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="U35" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="V35" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="W35" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="X35" t="n">
+        <v>9</v>
+      </c>
+      <c r="Y35" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="Z35" t="n">
+        <v>55</v>
+      </c>
+      <c r="AA35" t="n">
+        <v>310</v>
+      </c>
+      <c r="AB35" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="AC35" t="n">
+        <v>9</v>
+      </c>
+      <c r="AD35" t="n">
+        <v>980</v>
+      </c>
+      <c r="AE35" t="n">
+        <v>180</v>
+      </c>
+      <c r="AF35" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AG35" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AH35" t="n">
+        <v>980</v>
+      </c>
+      <c r="AI35" t="n">
+        <v>200</v>
+      </c>
+      <c r="AJ35" t="n">
+        <v>24</v>
+      </c>
+      <c r="AK35" t="n">
+        <v>980</v>
+      </c>
+      <c r="AL35" t="n">
+        <v>70</v>
+      </c>
+      <c r="AM35" t="n">
+        <v>340</v>
+      </c>
+      <c r="AN35" t="n">
+        <v>21</v>
+      </c>
+      <c r="AO35" t="n">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Colombian Primera B</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>2025-11-16</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>21:30:00</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>Real Soacha Cundinamarca FC</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>Real Cartagena</t>
+        </is>
+      </c>
+      <c r="F36" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="G36" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="H36" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="I36" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="J36" t="n">
         <v>3.15</v>
       </c>
-      <c r="I35" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="J35" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="K35" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="L35" t="n">
+      <c r="K36" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="L36" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="M36" t="n">
         <v>1.01</v>
       </c>
-      <c r="M35" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="N35" t="n">
-        <v>2.36</v>
-      </c>
-      <c r="O35" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="P35" t="n">
-        <v>1.46</v>
-      </c>
-      <c r="Q35" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="R35" t="n">
-        <v>1.16</v>
-      </c>
-      <c r="S35" t="n">
-        <v>6</v>
-      </c>
-      <c r="T35" t="n">
-        <v>2.18</v>
-      </c>
-      <c r="U35" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="V35" t="n">
-        <v>1.41</v>
-      </c>
-      <c r="W35" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="X35" t="n">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="Y35" t="n">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="Z35" t="n">
-        <v>21</v>
-      </c>
-      <c r="AA35" t="n">
+      <c r="N36" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="O36" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="P36" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="R36" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="S36" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="T36" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="U36" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="V36" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="W36" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="X36" t="n">
+        <v>16</v>
+      </c>
+      <c r="Y36" t="n">
+        <v>17</v>
+      </c>
+      <c r="Z36" t="n">
+        <v>38</v>
+      </c>
+      <c r="AA36" t="n">
+        <v>100</v>
+      </c>
+      <c r="AB36" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AC36" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AD36" t="n">
+        <v>23</v>
+      </c>
+      <c r="AE36" t="n">
+        <v>75</v>
+      </c>
+      <c r="AF36" t="n">
+        <v>20</v>
+      </c>
+      <c r="AG36" t="n">
+        <v>17</v>
+      </c>
+      <c r="AH36" t="n">
+        <v>29</v>
+      </c>
+      <c r="AI36" t="n">
+        <v>95</v>
+      </c>
+      <c r="AJ36" t="n">
+        <v>46</v>
+      </c>
+      <c r="AK36" t="n">
+        <v>40</v>
+      </c>
+      <c r="AL36" t="n">
         <v>70</v>
       </c>
-      <c r="AB35" t="n">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="AC35" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="AD35" t="n">
-        <v>16</v>
-      </c>
-      <c r="AE35" t="n">
-        <v>55</v>
-      </c>
-      <c r="AF35" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AG35" t="n">
-        <v>14</v>
-      </c>
-      <c r="AH35" t="n">
-        <v>26</v>
-      </c>
-      <c r="AI35" t="n">
-        <v>90</v>
-      </c>
-      <c r="AJ35" t="n">
-        <v>55</v>
-      </c>
-      <c r="AK35" t="n">
-        <v>46</v>
-      </c>
-      <c r="AL35" t="n">
-        <v>75</v>
-      </c>
-      <c r="AM35" t="n">
-        <v>250</v>
-      </c>
-      <c r="AN35" t="n">
-        <v>65</v>
-      </c>
-      <c r="AO35" t="n">
-        <v>100</v>
+      <c r="AM36" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN36" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO36" t="n">
+        <v>1000</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-11-16.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-11-16.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO36"/>
+  <dimension ref="A1:AO38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -670,19 +670,19 @@
         <v>1.92</v>
       </c>
       <c r="G2" t="n">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="H2" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="I2" t="n">
-        <v>4.7</v>
+        <v>5</v>
       </c>
       <c r="J2" t="n">
         <v>3</v>
       </c>
       <c r="K2" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="L2" t="n">
         <v>1.35</v>
@@ -700,7 +700,7 @@
         <v>1.82</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.98</v>
+        <v>1.87</v>
       </c>
       <c r="R2" t="n">
         <v>1.31</v>
@@ -718,7 +718,7 @@
         <v>1.27</v>
       </c>
       <c r="W2" t="n">
-        <v>1.81</v>
+        <v>1.84</v>
       </c>
       <c r="X2" t="n">
         <v>1000</v>
@@ -802,16 +802,16 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="G3" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="H3" t="n">
         <v>1.89</v>
       </c>
       <c r="I3" t="n">
-        <v>2.1</v>
+        <v>2.28</v>
       </c>
       <c r="J3" t="n">
         <v>3.3</v>
@@ -850,10 +850,10 @@
         <v>1.97</v>
       </c>
       <c r="V3" t="n">
-        <v>1.78</v>
+        <v>1.92</v>
       </c>
       <c r="W3" t="n">
-        <v>1.24</v>
+        <v>1.26</v>
       </c>
       <c r="X3" t="n">
         <v>1000</v>
@@ -937,19 +937,19 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>2.62</v>
+        <v>2.7</v>
       </c>
       <c r="G4" t="n">
-        <v>3.05</v>
+        <v>3.15</v>
       </c>
       <c r="H4" t="n">
-        <v>2.5</v>
+        <v>2.46</v>
       </c>
       <c r="I4" t="n">
-        <v>2.92</v>
+        <v>2.78</v>
       </c>
       <c r="J4" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="K4" t="n">
         <v>3.9</v>
@@ -961,34 +961,34 @@
         <v>1.05</v>
       </c>
       <c r="N4" t="n">
-        <v>3.95</v>
+        <v>4.2</v>
       </c>
       <c r="O4" t="n">
-        <v>1.28</v>
+        <v>1.25</v>
       </c>
       <c r="P4" t="n">
-        <v>2.04</v>
+        <v>2.1</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.79</v>
+        <v>1.68</v>
       </c>
       <c r="R4" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="S4" t="n">
-        <v>2.96</v>
+        <v>2.72</v>
       </c>
       <c r="T4" t="n">
-        <v>1.65</v>
+        <v>1.6</v>
       </c>
       <c r="U4" t="n">
         <v>2.24</v>
       </c>
       <c r="V4" t="n">
-        <v>1.52</v>
+        <v>1.56</v>
       </c>
       <c r="W4" t="n">
-        <v>1.48</v>
+        <v>1.46</v>
       </c>
       <c r="X4" t="n">
         <v>1000</v>
@@ -1075,7 +1075,7 @@
         <v>3.25</v>
       </c>
       <c r="G5" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="H5" t="n">
         <v>2</v>
@@ -1084,7 +1084,7 @@
         <v>2.4</v>
       </c>
       <c r="J5" t="n">
-        <v>2.96</v>
+        <v>3.15</v>
       </c>
       <c r="K5" t="n">
         <v>4.2</v>
@@ -1105,7 +1105,7 @@
         <v>1.72</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.97</v>
+        <v>1.99</v>
       </c>
       <c r="R5" t="n">
         <v>1.27</v>
@@ -1123,7 +1123,7 @@
         <v>1.71</v>
       </c>
       <c r="W5" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="X5" t="n">
         <v>1000</v>
@@ -1222,31 +1222,31 @@
         <v>3.3</v>
       </c>
       <c r="K6" t="n">
-        <v>4.2</v>
+        <v>4.4</v>
       </c>
       <c r="L6" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="M6" t="n">
         <v>1.06</v>
       </c>
       <c r="N6" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="O6" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="P6" t="n">
         <v>1.82</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.92</v>
+        <v>1.95</v>
       </c>
       <c r="R6" t="n">
         <v>1.32</v>
       </c>
       <c r="S6" t="n">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="T6" t="n">
         <v>1.73</v>
@@ -1342,13 +1342,13 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>2.34</v>
+        <v>2.36</v>
       </c>
       <c r="G7" t="n">
         <v>2.8</v>
       </c>
       <c r="H7" t="n">
-        <v>2.56</v>
+        <v>2.58</v>
       </c>
       <c r="I7" t="n">
         <v>3.1</v>
@@ -1357,7 +1357,7 @@
         <v>3.2</v>
       </c>
       <c r="K7" t="n">
-        <v>4.8</v>
+        <v>4.3</v>
       </c>
       <c r="L7" t="n">
         <v>1.27</v>
@@ -1372,13 +1372,13 @@
         <v>1.23</v>
       </c>
       <c r="P7" t="n">
-        <v>2.28</v>
+        <v>2.26</v>
       </c>
       <c r="Q7" t="n">
         <v>1.66</v>
       </c>
       <c r="R7" t="n">
-        <v>1.49</v>
+        <v>1.5</v>
       </c>
       <c r="S7" t="n">
         <v>2.64</v>
@@ -1480,7 +1480,7 @@
         <v>3.4</v>
       </c>
       <c r="G8" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="H8" t="n">
         <v>2.18</v>
@@ -1603,118 +1603,118 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Benevento</t>
+          <t>AC Ospitaletto</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Monopoli</t>
+          <t>Union Brescia</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>1.45</v>
+        <v>5.6</v>
       </c>
       <c r="G9" t="n">
+        <v>9</v>
+      </c>
+      <c r="H9" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="I9" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="J9" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="K9" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="L9" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="M9" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N9" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="O9" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="P9" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="R9" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="S9" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="T9" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="U9" t="n">
         <v>1.59</v>
       </c>
-      <c r="H9" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="I9" t="n">
-        <v>12</v>
-      </c>
-      <c r="J9" t="n">
-        <v>4</v>
-      </c>
-      <c r="K9" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="L9" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="M9" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N9" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="O9" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="P9" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="R9" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="S9" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="T9" t="n">
-        <v>2.02</v>
-      </c>
-      <c r="U9" t="n">
-        <v>1.57</v>
-      </c>
       <c r="V9" t="n">
-        <v>1.09</v>
+        <v>2.26</v>
       </c>
       <c r="W9" t="n">
-        <v>2.7</v>
+        <v>1.14</v>
       </c>
       <c r="X9" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="Y9" t="n">
-        <v>980</v>
+        <v>7.6</v>
       </c>
       <c r="Z9" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AA9" t="n">
         <v>1000</v>
       </c>
       <c r="AB9" t="n">
-        <v>8</v>
+        <v>1000</v>
       </c>
       <c r="AC9" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AD9" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AE9" t="n">
         <v>1000</v>
       </c>
       <c r="AF9" t="n">
-        <v>9.4</v>
+        <v>1000</v>
       </c>
       <c r="AG9" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AH9" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AI9" t="n">
         <v>1000</v>
       </c>
       <c r="AJ9" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AK9" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AL9" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AM9" t="n">
         <v>1000</v>
       </c>
       <c r="AN9" t="n">
-        <v>12</v>
+        <v>1000</v>
       </c>
       <c r="AO9" t="n">
         <v>1000</v>
@@ -1738,118 +1738,118 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>AC Ospitaletto</t>
+          <t>Benevento</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Union Brescia</t>
+          <t>Monopoli</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>5.6</v>
+        <v>1.45</v>
       </c>
       <c r="G10" t="n">
-        <v>9</v>
+        <v>1.59</v>
       </c>
       <c r="H10" t="n">
-        <v>1.62</v>
+        <v>7.2</v>
       </c>
       <c r="I10" t="n">
-        <v>1.8</v>
+        <v>12</v>
       </c>
       <c r="J10" t="n">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="K10" t="n">
-        <v>4.6</v>
+        <v>5.5</v>
       </c>
       <c r="L10" t="n">
-        <v>1.41</v>
+        <v>1.38</v>
       </c>
       <c r="M10" t="n">
-        <v>1.08</v>
+        <v>1.06</v>
       </c>
       <c r="N10" t="n">
-        <v>2.9</v>
+        <v>3.25</v>
       </c>
       <c r="O10" t="n">
-        <v>1.42</v>
+        <v>1.35</v>
       </c>
       <c r="P10" t="n">
-        <v>1.64</v>
+        <v>1.78</v>
       </c>
       <c r="Q10" t="n">
-        <v>2.24</v>
+        <v>1.9</v>
       </c>
       <c r="R10" t="n">
-        <v>1.24</v>
+        <v>1.29</v>
       </c>
       <c r="S10" t="n">
-        <v>3.85</v>
+        <v>3.35</v>
       </c>
       <c r="T10" t="n">
-        <v>1.99</v>
+        <v>2.02</v>
       </c>
       <c r="U10" t="n">
-        <v>1.59</v>
+        <v>1.57</v>
       </c>
       <c r="V10" t="n">
-        <v>2.26</v>
+        <v>1.09</v>
       </c>
       <c r="W10" t="n">
-        <v>1.12</v>
+        <v>2.7</v>
       </c>
       <c r="X10" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="Y10" t="n">
-        <v>7.6</v>
+        <v>980</v>
       </c>
       <c r="Z10" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="AA10" t="n">
         <v>1000</v>
       </c>
       <c r="AB10" t="n">
-        <v>1000</v>
+        <v>8</v>
       </c>
       <c r="AC10" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AD10" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AE10" t="n">
         <v>1000</v>
       </c>
       <c r="AF10" t="n">
-        <v>1000</v>
+        <v>9.4</v>
       </c>
       <c r="AG10" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AH10" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AI10" t="n">
         <v>1000</v>
       </c>
       <c r="AJ10" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AK10" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AL10" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AM10" t="n">
         <v>1000</v>
       </c>
       <c r="AN10" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="AO10" t="n">
         <v>1000</v>
@@ -1882,22 +1882,22 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>2.54</v>
+        <v>2.58</v>
       </c>
       <c r="G11" t="n">
-        <v>2.72</v>
+        <v>2.76</v>
       </c>
       <c r="H11" t="n">
         <v>3.2</v>
       </c>
       <c r="I11" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="J11" t="n">
-        <v>3</v>
+        <v>2.94</v>
       </c>
       <c r="K11" t="n">
-        <v>3.15</v>
+        <v>3.05</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -2020,7 +2020,7 @@
         <v>2.44</v>
       </c>
       <c r="G12" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="H12" t="n">
         <v>2.92</v>
@@ -2041,25 +2041,25 @@
         <v>1.07</v>
       </c>
       <c r="N12" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="O12" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="P12" t="n">
         <v>1.73</v>
       </c>
       <c r="Q12" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="R12" t="n">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="S12" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="T12" t="n">
-        <v>1.7</v>
+        <v>1.71</v>
       </c>
       <c r="U12" t="n">
         <v>1.85</v>
@@ -2278,67 +2278,67 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>FC Giugliano</t>
+          <t>Livorno</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Audace Cerignola</t>
+          <t>Ravenna</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>2.78</v>
+        <v>3.6</v>
       </c>
       <c r="G14" t="n">
-        <v>3.55</v>
+        <v>4.7</v>
       </c>
       <c r="H14" t="n">
-        <v>2.26</v>
+        <v>2.14</v>
       </c>
       <c r="I14" t="n">
-        <v>2.76</v>
+        <v>2.48</v>
       </c>
       <c r="J14" t="n">
-        <v>2.94</v>
+        <v>2.72</v>
       </c>
       <c r="K14" t="n">
-        <v>4.4</v>
+        <v>3.9</v>
       </c>
       <c r="L14" t="n">
-        <v>1.37</v>
+        <v>1.42</v>
       </c>
       <c r="M14" t="n">
-        <v>1.06</v>
+        <v>1.01</v>
       </c>
       <c r="N14" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="O14" t="n">
         <v>1.01</v>
       </c>
-      <c r="O14" t="n">
-        <v>1.31</v>
-      </c>
       <c r="P14" t="n">
-        <v>1.74</v>
+        <v>1.5</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.78</v>
+        <v>2.14</v>
       </c>
       <c r="R14" t="n">
-        <v>1.32</v>
+        <v>1.18</v>
       </c>
       <c r="S14" t="n">
-        <v>1.01</v>
+        <v>2.14</v>
       </c>
       <c r="T14" t="n">
-        <v>1.68</v>
+        <v>1.81</v>
       </c>
       <c r="U14" t="n">
-        <v>2.04</v>
+        <v>1.73</v>
       </c>
       <c r="V14" t="n">
-        <v>1.01</v>
+        <v>1.67</v>
       </c>
       <c r="W14" t="n">
-        <v>1.01</v>
+        <v>1.28</v>
       </c>
       <c r="X14" t="n">
         <v>1000</v>
@@ -2413,109 +2413,109 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>ASD Alcione</t>
+          <t>FC Giugliano</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Novara</t>
+          <t>Audace Cerignola</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>2.6</v>
+        <v>2.78</v>
       </c>
       <c r="G15" t="n">
-        <v>2.96</v>
+        <v>3.55</v>
       </c>
       <c r="H15" t="n">
-        <v>3.1</v>
+        <v>2.26</v>
       </c>
       <c r="I15" t="n">
-        <v>3.6</v>
+        <v>2.76</v>
       </c>
       <c r="J15" t="n">
-        <v>2.76</v>
+        <v>2.94</v>
       </c>
       <c r="K15" t="n">
-        <v>3.15</v>
+        <v>4.4</v>
       </c>
       <c r="L15" t="n">
-        <v>1.61</v>
+        <v>1.37</v>
       </c>
       <c r="M15" t="n">
-        <v>1.14</v>
+        <v>1.06</v>
       </c>
       <c r="N15" t="n">
-        <v>2.34</v>
+        <v>1.01</v>
       </c>
       <c r="O15" t="n">
-        <v>1.6</v>
+        <v>1.31</v>
       </c>
       <c r="P15" t="n">
-        <v>1.44</v>
+        <v>1.74</v>
       </c>
       <c r="Q15" t="n">
-        <v>2.82</v>
+        <v>1.78</v>
       </c>
       <c r="R15" t="n">
-        <v>1.18</v>
+        <v>1.32</v>
       </c>
       <c r="S15" t="n">
-        <v>5.4</v>
+        <v>1.01</v>
       </c>
       <c r="T15" t="n">
-        <v>2.18</v>
+        <v>1.67</v>
       </c>
       <c r="U15" t="n">
-        <v>1.69</v>
+        <v>2.04</v>
       </c>
       <c r="V15" t="n">
-        <v>1.38</v>
+        <v>1.01</v>
       </c>
       <c r="W15" t="n">
-        <v>1.51</v>
+        <v>1.01</v>
       </c>
       <c r="X15" t="n">
-        <v>9</v>
+        <v>1000</v>
       </c>
       <c r="Y15" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="Z15" t="n">
-        <v>26</v>
+        <v>1000</v>
       </c>
       <c r="AA15" t="n">
         <v>1000</v>
       </c>
       <c r="AB15" t="n">
-        <v>9</v>
+        <v>1000</v>
       </c>
       <c r="AC15" t="n">
-        <v>8.199999999999999</v>
+        <v>1000</v>
       </c>
       <c r="AD15" t="n">
-        <v>18.5</v>
+        <v>1000</v>
       </c>
       <c r="AE15" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="AF15" t="n">
-        <v>20</v>
+        <v>1000</v>
       </c>
       <c r="AG15" t="n">
-        <v>16.5</v>
+        <v>1000</v>
       </c>
       <c r="AH15" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AI15" t="n">
         <v>1000</v>
       </c>
       <c r="AJ15" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AK15" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AL15" t="n">
         <v>1000</v>
@@ -2533,7 +2533,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Spanish Segunda Division</t>
+          <t>Italian Serie C</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -2543,126 +2543,126 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>12:15:00</t>
+          <t>10:30:00</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Almeria</t>
+          <t>ASD Alcione</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Cadiz</t>
+          <t>Novara</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>1.65</v>
+        <v>2.6</v>
       </c>
       <c r="G16" t="n">
-        <v>1.71</v>
+        <v>2.96</v>
       </c>
       <c r="H16" t="n">
-        <v>5.7</v>
+        <v>3.1</v>
       </c>
       <c r="I16" t="n">
-        <v>6.4</v>
+        <v>3.6</v>
       </c>
       <c r="J16" t="n">
-        <v>3.95</v>
+        <v>2.76</v>
       </c>
       <c r="K16" t="n">
-        <v>4.3</v>
+        <v>3.15</v>
       </c>
       <c r="L16" t="n">
-        <v>1.39</v>
+        <v>1.61</v>
       </c>
       <c r="M16" t="n">
-        <v>1.06</v>
+        <v>1.14</v>
       </c>
       <c r="N16" t="n">
-        <v>3.85</v>
+        <v>2.34</v>
       </c>
       <c r="O16" t="n">
-        <v>1.3</v>
+        <v>1.6</v>
       </c>
       <c r="P16" t="n">
-        <v>1.98</v>
+        <v>1.44</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.89</v>
+        <v>2.82</v>
       </c>
       <c r="R16" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="S16" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="T16" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="U16" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="V16" t="n">
         <v>1.38</v>
       </c>
-      <c r="S16" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="T16" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="U16" t="n">
-        <v>1.96</v>
-      </c>
-      <c r="V16" t="n">
-        <v>1.18</v>
-      </c>
       <c r="W16" t="n">
-        <v>2.38</v>
+        <v>1.51</v>
       </c>
       <c r="X16" t="n">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="Y16" t="n">
-        <v>980</v>
+        <v>10.5</v>
       </c>
       <c r="Z16" t="n">
-        <v>980</v>
+        <v>26</v>
       </c>
       <c r="AA16" t="n">
-        <v>200</v>
+        <v>1000</v>
       </c>
       <c r="AB16" t="n">
-        <v>8.6</v>
+        <v>9</v>
       </c>
       <c r="AC16" t="n">
-        <v>9.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD16" t="n">
-        <v>980</v>
+        <v>18.5</v>
       </c>
       <c r="AE16" t="n">
-        <v>110</v>
+        <v>70</v>
       </c>
       <c r="AF16" t="n">
-        <v>10.5</v>
+        <v>20</v>
       </c>
       <c r="AG16" t="n">
-        <v>10.5</v>
+        <v>16.5</v>
       </c>
       <c r="AH16" t="n">
-        <v>980</v>
+        <v>32</v>
       </c>
       <c r="AI16" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AJ16" t="n">
-        <v>17</v>
+        <v>60</v>
       </c>
       <c r="AK16" t="n">
-        <v>980</v>
+        <v>55</v>
       </c>
       <c r="AL16" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AM16" t="n">
-        <v>150</v>
+        <v>1000</v>
       </c>
       <c r="AN16" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="AO16" t="n">
-        <v>130</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="17">
@@ -2692,22 +2692,22 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>2.38</v>
+        <v>2.36</v>
       </c>
       <c r="G17" t="n">
-        <v>2.5</v>
+        <v>2.48</v>
       </c>
       <c r="H17" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="I17" t="n">
         <v>3.9</v>
       </c>
       <c r="J17" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="K17" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="L17" t="n">
         <v>1.52</v>
@@ -2722,10 +2722,10 @@
         <v>1.47</v>
       </c>
       <c r="P17" t="n">
-        <v>1.64</v>
+        <v>1.63</v>
       </c>
       <c r="Q17" t="n">
-        <v>2.4</v>
+        <v>2.42</v>
       </c>
       <c r="R17" t="n">
         <v>1.22</v>
@@ -2737,13 +2737,13 @@
         <v>1.96</v>
       </c>
       <c r="U17" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="V17" t="n">
-        <v>1.35</v>
+        <v>1.34</v>
       </c>
       <c r="W17" t="n">
-        <v>1.66</v>
+        <v>1.67</v>
       </c>
       <c r="X17" t="n">
         <v>9.800000000000001</v>
@@ -2761,7 +2761,7 @@
         <v>8.6</v>
       </c>
       <c r="AC17" t="n">
-        <v>7.4</v>
+        <v>7</v>
       </c>
       <c r="AD17" t="n">
         <v>17</v>
@@ -2803,7 +2803,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Italian Serie C</t>
+          <t>Spanish Segunda Division</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -2813,126 +2813,126 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>13:30:00</t>
+          <t>12:15:00</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Gubbio</t>
+          <t>Almeria</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Juventus B</t>
+          <t>Cadiz</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>1.02</v>
+        <v>1.65</v>
       </c>
       <c r="G18" t="n">
-        <v>1000</v>
+        <v>1.66</v>
       </c>
       <c r="H18" t="n">
-        <v>1.02</v>
+        <v>5.8</v>
       </c>
       <c r="I18" t="n">
-        <v>1000</v>
+        <v>6.4</v>
       </c>
       <c r="J18" t="n">
-        <v>1.02</v>
+        <v>4.1</v>
       </c>
       <c r="K18" t="n">
-        <v>1000</v>
+        <v>4.5</v>
       </c>
       <c r="L18" t="n">
-        <v>1.01</v>
+        <v>1.39</v>
       </c>
       <c r="M18" t="n">
-        <v>1.01</v>
+        <v>1.06</v>
       </c>
       <c r="N18" t="n">
-        <v>1.36</v>
+        <v>3.85</v>
       </c>
       <c r="O18" t="n">
-        <v>1.01</v>
+        <v>1.3</v>
       </c>
       <c r="P18" t="n">
-        <v>1.36</v>
+        <v>1.99</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.02</v>
+        <v>1.89</v>
       </c>
       <c r="R18" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="S18" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="T18" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="U18" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="V18" t="n">
         <v>1.18</v>
       </c>
-      <c r="S18" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="T18" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="U18" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="V18" t="n">
-        <v>1.01</v>
-      </c>
       <c r="W18" t="n">
-        <v>1.01</v>
+        <v>2.5</v>
       </c>
       <c r="X18" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="Y18" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="Z18" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AA18" t="n">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="AB18" t="n">
-        <v>1000</v>
+        <v>8.6</v>
       </c>
       <c r="AC18" t="n">
-        <v>1000</v>
+        <v>9.4</v>
       </c>
       <c r="AD18" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AE18" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AF18" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="AG18" t="n">
-        <v>1000</v>
+        <v>10</v>
       </c>
       <c r="AH18" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AI18" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="AJ18" t="n">
-        <v>1000</v>
+        <v>17</v>
       </c>
       <c r="AK18" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AL18" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AM18" t="n">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="AN18" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="AO18" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
     </row>
     <row r="19">
@@ -2953,55 +2953,55 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Lecco</t>
+          <t>LR Vicenza Virtus</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Aurora Pro Patria 1919</t>
+          <t>Renate</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>1.68</v>
+        <v>1.47</v>
       </c>
       <c r="G19" t="n">
-        <v>2.08</v>
+        <v>1.92</v>
       </c>
       <c r="H19" t="n">
-        <v>4.8</v>
+        <v>6</v>
       </c>
       <c r="I19" t="n">
-        <v>7.8</v>
+        <v>1000</v>
       </c>
       <c r="J19" t="n">
-        <v>2.84</v>
+        <v>3.15</v>
       </c>
       <c r="K19" t="n">
-        <v>4.2</v>
+        <v>6.6</v>
       </c>
       <c r="L19" t="n">
-        <v>1.43</v>
+        <v>1.37</v>
       </c>
       <c r="M19" t="n">
         <v>1.01</v>
       </c>
       <c r="N19" t="n">
-        <v>1.5</v>
+        <v>1.55</v>
       </c>
       <c r="O19" t="n">
         <v>1.01</v>
       </c>
       <c r="P19" t="n">
-        <v>1.5</v>
+        <v>1.54</v>
       </c>
       <c r="Q19" t="n">
-        <v>2.34</v>
+        <v>2</v>
       </c>
       <c r="R19" t="n">
         <v>1.18</v>
       </c>
       <c r="S19" t="n">
-        <v>2.34</v>
+        <v>2.02</v>
       </c>
       <c r="T19" t="n">
         <v>1.01</v>
@@ -3010,10 +3010,10 @@
         <v>1.01</v>
       </c>
       <c r="V19" t="n">
-        <v>1.15</v>
+        <v>1.01</v>
       </c>
       <c r="W19" t="n">
-        <v>1.92</v>
+        <v>2.08</v>
       </c>
       <c r="X19" t="n">
         <v>1000</v>
@@ -3073,7 +3073,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Spanish Segunda Division</t>
+          <t>Italian Serie C</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -3083,132 +3083,132 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>14:30:00</t>
+          <t>13:30:00</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Mirandes</t>
+          <t>Gubbio</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Burgos</t>
+          <t>Juventus B</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>3.45</v>
+        <v>1.04</v>
       </c>
       <c r="G20" t="n">
-        <v>3.6</v>
+        <v>1000</v>
       </c>
       <c r="H20" t="n">
-        <v>2.58</v>
+        <v>1.04</v>
       </c>
       <c r="I20" t="n">
-        <v>2.64</v>
+        <v>1000</v>
       </c>
       <c r="J20" t="n">
-        <v>3</v>
+        <v>1.02</v>
       </c>
       <c r="K20" t="n">
-        <v>3.15</v>
+        <v>1000</v>
       </c>
       <c r="L20" t="n">
         <v>1.01</v>
       </c>
       <c r="M20" t="n">
-        <v>1.13</v>
+        <v>1.01</v>
       </c>
       <c r="N20" t="n">
-        <v>2.5</v>
+        <v>1.36</v>
       </c>
       <c r="O20" t="n">
-        <v>1.59</v>
+        <v>1.01</v>
       </c>
       <c r="P20" t="n">
-        <v>1.51</v>
+        <v>1.36</v>
       </c>
       <c r="Q20" t="n">
-        <v>2.72</v>
+        <v>1.02</v>
       </c>
       <c r="R20" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="S20" t="n">
-        <v>6</v>
+        <v>1.5</v>
       </c>
       <c r="T20" t="n">
-        <v>2.16</v>
+        <v>1.01</v>
       </c>
       <c r="U20" t="n">
-        <v>1.74</v>
+        <v>1.01</v>
       </c>
       <c r="V20" t="n">
-        <v>1.6</v>
+        <v>1.01</v>
       </c>
       <c r="W20" t="n">
-        <v>1.39</v>
+        <v>1.01</v>
       </c>
       <c r="X20" t="n">
-        <v>8.199999999999999</v>
+        <v>1000</v>
       </c>
       <c r="Y20" t="n">
-        <v>7.6</v>
+        <v>1000</v>
       </c>
       <c r="Z20" t="n">
-        <v>14.5</v>
+        <v>1000</v>
       </c>
       <c r="AA20" t="n">
-        <v>40</v>
+        <v>1000</v>
       </c>
       <c r="AB20" t="n">
-        <v>9.4</v>
+        <v>1000</v>
       </c>
       <c r="AC20" t="n">
-        <v>7.2</v>
+        <v>1000</v>
       </c>
       <c r="AD20" t="n">
-        <v>13</v>
+        <v>1000</v>
       </c>
       <c r="AE20" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AF20" t="n">
-        <v>22</v>
+        <v>1000</v>
       </c>
       <c r="AG20" t="n">
-        <v>16</v>
+        <v>1000</v>
       </c>
       <c r="AH20" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AI20" t="n">
-        <v>75</v>
+        <v>1000</v>
       </c>
       <c r="AJ20" t="n">
-        <v>80</v>
+        <v>1000</v>
       </c>
       <c r="AK20" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AL20" t="n">
-        <v>90</v>
+        <v>1000</v>
       </c>
       <c r="AM20" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AN20" t="n">
-        <v>85</v>
+        <v>1000</v>
       </c>
       <c r="AO20" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Spanish Segunda Division</t>
+          <t>Italian Serie C</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -3218,120 +3218,120 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>14:30:00</t>
+          <t>13:30:00</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Cordoba</t>
+          <t>Lecco</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Deportivo</t>
+          <t>Aurora Pro Patria 1919</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>2.46</v>
+        <v>1.68</v>
       </c>
       <c r="G21" t="n">
-        <v>2.6</v>
+        <v>2.08</v>
       </c>
       <c r="H21" t="n">
-        <v>3.05</v>
+        <v>4.8</v>
       </c>
       <c r="I21" t="n">
-        <v>3.25</v>
+        <v>7.8</v>
       </c>
       <c r="J21" t="n">
-        <v>3.4</v>
+        <v>2.84</v>
       </c>
       <c r="K21" t="n">
-        <v>3.5</v>
+        <v>4.2</v>
       </c>
       <c r="L21" t="n">
-        <v>1.38</v>
+        <v>1.44</v>
       </c>
       <c r="M21" t="n">
-        <v>1.06</v>
+        <v>1.01</v>
       </c>
       <c r="N21" t="n">
-        <v>4</v>
+        <v>1.5</v>
       </c>
       <c r="O21" t="n">
-        <v>1.27</v>
+        <v>1.01</v>
       </c>
       <c r="P21" t="n">
-        <v>2.08</v>
+        <v>1.5</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.84</v>
+        <v>2.34</v>
       </c>
       <c r="R21" t="n">
-        <v>1.4</v>
+        <v>1.18</v>
       </c>
       <c r="S21" t="n">
-        <v>3.15</v>
+        <v>2.34</v>
       </c>
       <c r="T21" t="n">
-        <v>1.67</v>
+        <v>1.01</v>
       </c>
       <c r="U21" t="n">
-        <v>2.28</v>
+        <v>1.01</v>
       </c>
       <c r="V21" t="n">
-        <v>1.44</v>
+        <v>1.15</v>
       </c>
       <c r="W21" t="n">
-        <v>1.62</v>
+        <v>1.92</v>
       </c>
       <c r="X21" t="n">
-        <v>17.5</v>
+        <v>1000</v>
       </c>
       <c r="Y21" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="Z21" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AA21" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AB21" t="n">
-        <v>12.5</v>
+        <v>1000</v>
       </c>
       <c r="AC21" t="n">
-        <v>8.4</v>
+        <v>1000</v>
       </c>
       <c r="AD21" t="n">
-        <v>13.5</v>
+        <v>1000</v>
       </c>
       <c r="AE21" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AF21" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AG21" t="n">
-        <v>13</v>
+        <v>1000</v>
       </c>
       <c r="AH21" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AI21" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AJ21" t="n">
-        <v>40</v>
+        <v>1000</v>
       </c>
       <c r="AK21" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AL21" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AM21" t="n">
-        <v>80</v>
+        <v>1000</v>
       </c>
       <c r="AN21" t="n">
         <v>1000</v>
@@ -3343,7 +3343,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Portuguese Segunda Liga</t>
+          <t>Spanish Segunda Division</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -3353,132 +3353,132 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>15:00:00</t>
+          <t>14:30:00</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Leixoes</t>
+          <t>Mirandes</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Chaves</t>
+          <t>Burgos</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="G22" t="n">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="H22" t="n">
-        <v>2.32</v>
+        <v>2.58</v>
       </c>
       <c r="I22" t="n">
-        <v>2.68</v>
+        <v>2.62</v>
       </c>
       <c r="J22" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="K22" t="n">
-        <v>3.55</v>
+        <v>3.15</v>
       </c>
       <c r="L22" t="n">
-        <v>1.41</v>
+        <v>1.58</v>
       </c>
       <c r="M22" t="n">
-        <v>1.09</v>
+        <v>1.13</v>
       </c>
       <c r="N22" t="n">
-        <v>2.98</v>
+        <v>2.48</v>
       </c>
       <c r="O22" t="n">
-        <v>1.42</v>
+        <v>1.6</v>
       </c>
       <c r="P22" t="n">
-        <v>1.66</v>
+        <v>1.5</v>
       </c>
       <c r="Q22" t="n">
-        <v>2.24</v>
+        <v>2.78</v>
       </c>
       <c r="R22" t="n">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="S22" t="n">
-        <v>3.75</v>
+        <v>6</v>
       </c>
       <c r="T22" t="n">
-        <v>1.76</v>
+        <v>2.2</v>
       </c>
       <c r="U22" t="n">
-        <v>1.78</v>
+        <v>1.74</v>
       </c>
       <c r="V22" t="n">
-        <v>1.59</v>
+        <v>1.61</v>
       </c>
       <c r="W22" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="X22" t="n">
-        <v>1000</v>
+        <v>8</v>
       </c>
       <c r="Y22" t="n">
-        <v>11</v>
+        <v>7.4</v>
       </c>
       <c r="Z22" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="AA22" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AB22" t="n">
-        <v>13.5</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AC22" t="n">
-        <v>8.800000000000001</v>
+        <v>7</v>
       </c>
       <c r="AD22" t="n">
-        <v>14.5</v>
+        <v>13</v>
       </c>
       <c r="AE22" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AF22" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AG22" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AH22" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AI22" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AJ22" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
       <c r="AK22" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AL22" t="n">
-        <v>1000</v>
+        <v>90</v>
       </c>
       <c r="AM22" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AN22" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
       <c r="AO22" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Brazilian Serie B</t>
+          <t>Spanish Segunda Division</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -3488,132 +3488,132 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>16:30:00</t>
+          <t>14:30:00</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Goias</t>
+          <t>Cordoba</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Novorizontino</t>
+          <t>Deportivo</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>2.12</v>
+        <v>2.46</v>
       </c>
       <c r="G23" t="n">
-        <v>2.3</v>
+        <v>2.6</v>
       </c>
       <c r="H23" t="n">
-        <v>3.85</v>
+        <v>3.05</v>
       </c>
       <c r="I23" t="n">
-        <v>4.5</v>
+        <v>3.25</v>
       </c>
       <c r="J23" t="n">
-        <v>3.15</v>
+        <v>3.4</v>
       </c>
       <c r="K23" t="n">
         <v>3.55</v>
       </c>
       <c r="L23" t="n">
-        <v>1.53</v>
+        <v>1.38</v>
       </c>
       <c r="M23" t="n">
-        <v>1.1</v>
+        <v>1.06</v>
       </c>
       <c r="N23" t="n">
-        <v>2.84</v>
+        <v>4.1</v>
       </c>
       <c r="O23" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="P23" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="R23" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="S23" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="T23" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="U23" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="V23" t="n">
         <v>1.45</v>
       </c>
-      <c r="P23" t="n">
-        <v>1.63</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="R23" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="S23" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="T23" t="n">
-        <v>1.99</v>
-      </c>
-      <c r="U23" t="n">
-        <v>1.84</v>
-      </c>
-      <c r="V23" t="n">
-        <v>1.29</v>
-      </c>
       <c r="W23" t="n">
-        <v>1.76</v>
+        <v>1.62</v>
       </c>
       <c r="X23" t="n">
-        <v>10.5</v>
+        <v>17.5</v>
       </c>
       <c r="Y23" t="n">
+        <v>980</v>
+      </c>
+      <c r="Z23" t="n">
+        <v>980</v>
+      </c>
+      <c r="AA23" t="n">
+        <v>980</v>
+      </c>
+      <c r="AB23" t="n">
         <v>12.5</v>
       </c>
-      <c r="Z23" t="n">
-        <v>980</v>
-      </c>
-      <c r="AA23" t="n">
-        <v>120</v>
-      </c>
-      <c r="AB23" t="n">
-        <v>8</v>
-      </c>
       <c r="AC23" t="n">
-        <v>7.8</v>
+        <v>8.4</v>
       </c>
       <c r="AD23" t="n">
-        <v>18</v>
+        <v>13.5</v>
       </c>
       <c r="AE23" t="n">
-        <v>65</v>
+        <v>980</v>
       </c>
       <c r="AF23" t="n">
-        <v>13.5</v>
+        <v>980</v>
       </c>
       <c r="AG23" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AH23" t="n">
-        <v>23</v>
+        <v>980</v>
       </c>
       <c r="AI23" t="n">
+        <v>980</v>
+      </c>
+      <c r="AJ23" t="n">
+        <v>40</v>
+      </c>
+      <c r="AK23" t="n">
+        <v>980</v>
+      </c>
+      <c r="AL23" t="n">
+        <v>980</v>
+      </c>
+      <c r="AM23" t="n">
         <v>80</v>
       </c>
-      <c r="AJ23" t="n">
-        <v>980</v>
-      </c>
-      <c r="AK23" t="n">
-        <v>980</v>
-      </c>
-      <c r="AL23" t="n">
-        <v>55</v>
-      </c>
-      <c r="AM23" t="n">
-        <v>190</v>
-      </c>
       <c r="AN23" t="n">
-        <v>27</v>
+        <v>1000</v>
       </c>
       <c r="AO23" t="n">
-        <v>110</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Brazilian Serie B</t>
+          <t>Portuguese Segunda Liga</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -3623,126 +3623,126 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>16:30:00</t>
+          <t>15:00:00</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Ferroviaria</t>
+          <t>Leixoes</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Athletico-PR</t>
+          <t>Chaves</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>4.3</v>
+        <v>3.1</v>
       </c>
       <c r="G24" t="n">
-        <v>4.8</v>
+        <v>3.8</v>
       </c>
       <c r="H24" t="n">
-        <v>1.97</v>
+        <v>2.32</v>
       </c>
       <c r="I24" t="n">
-        <v>2.12</v>
+        <v>2.68</v>
       </c>
       <c r="J24" t="n">
-        <v>3.3</v>
+        <v>3.05</v>
       </c>
       <c r="K24" t="n">
-        <v>3.65</v>
+        <v>3.55</v>
       </c>
       <c r="L24" t="n">
-        <v>1.48</v>
+        <v>1.42</v>
       </c>
       <c r="M24" t="n">
         <v>1.09</v>
       </c>
       <c r="N24" t="n">
-        <v>3.1</v>
+        <v>2.98</v>
       </c>
       <c r="O24" t="n">
         <v>1.42</v>
       </c>
       <c r="P24" t="n">
-        <v>1.71</v>
+        <v>1.66</v>
       </c>
       <c r="Q24" t="n">
-        <v>2.2</v>
+        <v>2.24</v>
       </c>
       <c r="R24" t="n">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="S24" t="n">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="T24" t="n">
-        <v>1.94</v>
+        <v>1.76</v>
       </c>
       <c r="U24" t="n">
-        <v>1.87</v>
+        <v>1.78</v>
       </c>
       <c r="V24" t="n">
-        <v>1.9</v>
+        <v>1.59</v>
       </c>
       <c r="W24" t="n">
-        <v>1.26</v>
+        <v>1.37</v>
       </c>
       <c r="X24" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="Y24" t="n">
-        <v>8.199999999999999</v>
+        <v>11</v>
       </c>
       <c r="Z24" t="n">
-        <v>12.5</v>
+        <v>1000</v>
       </c>
       <c r="AA24" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AB24" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AC24" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AD24" t="n">
         <v>14.5</v>
       </c>
-      <c r="AC24" t="n">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="AD24" t="n">
-        <v>11.5</v>
-      </c>
       <c r="AE24" t="n">
-        <v>26</v>
+        <v>1000</v>
       </c>
       <c r="AF24" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AG24" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AH24" t="n">
-        <v>22</v>
+        <v>1000</v>
       </c>
       <c r="AI24" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AJ24" t="n">
-        <v>130</v>
+        <v>1000</v>
       </c>
       <c r="AK24" t="n">
-        <v>80</v>
+        <v>1000</v>
       </c>
       <c r="AL24" t="n">
-        <v>90</v>
+        <v>1000</v>
       </c>
       <c r="AM24" t="n">
-        <v>170</v>
+        <v>1000</v>
       </c>
       <c r="AN24" t="n">
-        <v>110</v>
+        <v>1000</v>
       </c>
       <c r="AO24" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="25">
@@ -3763,103 +3763,103 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Criciuma</t>
+          <t>Goias</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Botafogo SP</t>
+          <t>Novorizontino</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>1.57</v>
+        <v>2.12</v>
       </c>
       <c r="G25" t="n">
-        <v>1.69</v>
+        <v>2.3</v>
       </c>
       <c r="H25" t="n">
-        <v>5.8</v>
+        <v>3.85</v>
       </c>
       <c r="I25" t="n">
-        <v>8.199999999999999</v>
+        <v>4.5</v>
       </c>
       <c r="J25" t="n">
-        <v>3.7</v>
+        <v>3.15</v>
       </c>
       <c r="K25" t="n">
-        <v>4.8</v>
+        <v>3.5</v>
       </c>
       <c r="L25" t="n">
-        <v>1.45</v>
+        <v>1.53</v>
       </c>
       <c r="M25" t="n">
-        <v>1.09</v>
+        <v>1.1</v>
       </c>
       <c r="N25" t="n">
-        <v>3.05</v>
+        <v>2.84</v>
       </c>
       <c r="O25" t="n">
-        <v>1.41</v>
+        <v>1.49</v>
       </c>
       <c r="P25" t="n">
-        <v>1.71</v>
+        <v>1.62</v>
       </c>
       <c r="Q25" t="n">
-        <v>2.16</v>
+        <v>2.3</v>
       </c>
       <c r="R25" t="n">
-        <v>1.26</v>
+        <v>1.22</v>
       </c>
       <c r="S25" t="n">
-        <v>3.7</v>
+        <v>4.5</v>
       </c>
       <c r="T25" t="n">
         <v>1.99</v>
       </c>
       <c r="U25" t="n">
-        <v>1.6</v>
+        <v>1.84</v>
       </c>
       <c r="V25" t="n">
-        <v>1.14</v>
+        <v>1.29</v>
       </c>
       <c r="W25" t="n">
-        <v>2.38</v>
+        <v>1.76</v>
       </c>
       <c r="X25" t="n">
-        <v>980</v>
+        <v>10.5</v>
       </c>
       <c r="Y25" t="n">
-        <v>980</v>
+        <v>12.5</v>
       </c>
       <c r="Z25" t="n">
-        <v>75</v>
+        <v>980</v>
       </c>
       <c r="AA25" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AB25" t="n">
-        <v>8.199999999999999</v>
+        <v>8</v>
       </c>
       <c r="AC25" t="n">
-        <v>11</v>
+        <v>7.8</v>
       </c>
       <c r="AD25" t="n">
-        <v>980</v>
+        <v>18</v>
       </c>
       <c r="AE25" t="n">
-        <v>170</v>
+        <v>65</v>
       </c>
       <c r="AF25" t="n">
-        <v>10.5</v>
+        <v>13.5</v>
       </c>
       <c r="AG25" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AH25" t="n">
-        <v>980</v>
+        <v>23</v>
       </c>
       <c r="AI25" t="n">
-        <v>170</v>
+        <v>80</v>
       </c>
       <c r="AJ25" t="n">
         <v>980</v>
@@ -3868,16 +3868,16 @@
         <v>980</v>
       </c>
       <c r="AL25" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AM25" t="n">
-        <v>1000</v>
+        <v>190</v>
       </c>
       <c r="AN25" t="n">
-        <v>980</v>
+        <v>27</v>
       </c>
       <c r="AO25" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
     </row>
     <row r="26">
@@ -3898,127 +3898,127 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>America MG</t>
+          <t>Ferroviaria</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Cuiaba</t>
+          <t>Athletico-PR</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>1.92</v>
+        <v>4.3</v>
       </c>
       <c r="G26" t="n">
-        <v>2.08</v>
+        <v>4.8</v>
       </c>
       <c r="H26" t="n">
-        <v>4.2</v>
+        <v>1.97</v>
       </c>
       <c r="I26" t="n">
-        <v>4.9</v>
+        <v>2.12</v>
       </c>
       <c r="J26" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="K26" t="n">
-        <v>4.1</v>
+        <v>3.65</v>
       </c>
       <c r="L26" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="M26" t="n">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="N26" t="n">
-        <v>2.88</v>
+        <v>3.1</v>
       </c>
       <c r="O26" t="n">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="P26" t="n">
-        <v>1.65</v>
+        <v>1.71</v>
       </c>
       <c r="Q26" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="R26" t="n">
-        <v>1.23</v>
+        <v>1.26</v>
       </c>
       <c r="S26" t="n">
         <v>4</v>
       </c>
       <c r="T26" t="n">
-        <v>2.04</v>
+        <v>1.94</v>
       </c>
       <c r="U26" t="n">
-        <v>1.79</v>
+        <v>1.9</v>
       </c>
       <c r="V26" t="n">
-        <v>1.25</v>
+        <v>1.9</v>
       </c>
       <c r="W26" t="n">
-        <v>1.92</v>
+        <v>1.26</v>
       </c>
       <c r="X26" t="n">
-        <v>970</v>
+        <v>12</v>
       </c>
       <c r="Y26" t="n">
-        <v>980</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="Z26" t="n">
-        <v>980</v>
+        <v>12.5</v>
       </c>
       <c r="AA26" t="n">
-        <v>140</v>
+        <v>980</v>
       </c>
       <c r="AB26" t="n">
-        <v>980</v>
+        <v>14.5</v>
       </c>
       <c r="AC26" t="n">
-        <v>980</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD26" t="n">
-        <v>980</v>
+        <v>11.5</v>
       </c>
       <c r="AE26" t="n">
+        <v>26</v>
+      </c>
+      <c r="AF26" t="n">
+        <v>980</v>
+      </c>
+      <c r="AG26" t="n">
+        <v>20</v>
+      </c>
+      <c r="AH26" t="n">
+        <v>22</v>
+      </c>
+      <c r="AI26" t="n">
+        <v>980</v>
+      </c>
+      <c r="AJ26" t="n">
+        <v>130</v>
+      </c>
+      <c r="AK26" t="n">
+        <v>80</v>
+      </c>
+      <c r="AL26" t="n">
         <v>90</v>
       </c>
-      <c r="AF26" t="n">
-        <v>980</v>
-      </c>
-      <c r="AG26" t="n">
-        <v>980</v>
-      </c>
-      <c r="AH26" t="n">
-        <v>980</v>
-      </c>
-      <c r="AI26" t="n">
+      <c r="AM26" t="n">
+        <v>170</v>
+      </c>
+      <c r="AN26" t="n">
         <v>110</v>
       </c>
-      <c r="AJ26" t="n">
-        <v>980</v>
-      </c>
-      <c r="AK26" t="n">
-        <v>980</v>
-      </c>
-      <c r="AL26" t="n">
-        <v>55</v>
-      </c>
-      <c r="AM26" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN26" t="n">
-        <v>980</v>
-      </c>
       <c r="AO26" t="n">
-        <v>130</v>
+        <v>21</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Argentinian Primera Division</t>
+          <t>Brazilian Serie B</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -4028,73 +4028,73 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>17:00:00</t>
+          <t>16:30:00</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Velez Sarsfield</t>
+          <t>Criciuma</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>River Plate</t>
+          <t>Botafogo SP</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>3.4</v>
+        <v>1.57</v>
       </c>
       <c r="G27" t="n">
-        <v>4.1</v>
+        <v>1.68</v>
       </c>
       <c r="H27" t="n">
-        <v>2.26</v>
+        <v>6</v>
       </c>
       <c r="I27" t="n">
-        <v>2.58</v>
+        <v>9.6</v>
       </c>
       <c r="J27" t="n">
-        <v>2.7</v>
+        <v>3.75</v>
       </c>
       <c r="K27" t="n">
-        <v>3.35</v>
+        <v>4.8</v>
       </c>
       <c r="L27" t="n">
-        <v>1.01</v>
+        <v>1.45</v>
       </c>
       <c r="M27" t="n">
-        <v>1.13</v>
+        <v>1.09</v>
       </c>
       <c r="N27" t="n">
-        <v>2.48</v>
+        <v>3.05</v>
       </c>
       <c r="O27" t="n">
-        <v>1.58</v>
+        <v>1.41</v>
       </c>
       <c r="P27" t="n">
-        <v>1.49</v>
+        <v>1.71</v>
       </c>
       <c r="Q27" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="R27" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="S27" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="T27" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="U27" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="V27" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="W27" t="n">
         <v>2.46</v>
       </c>
-      <c r="R27" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="S27" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="T27" t="n">
-        <v>2.12</v>
-      </c>
-      <c r="U27" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="V27" t="n">
-        <v>1.63</v>
-      </c>
-      <c r="W27" t="n">
-        <v>1.32</v>
-      </c>
       <c r="X27" t="n">
         <v>980</v>
       </c>
@@ -4102,58 +4102,58 @@
         <v>980</v>
       </c>
       <c r="Z27" t="n">
-        <v>980</v>
+        <v>75</v>
       </c>
       <c r="AA27" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AB27" t="n">
-        <v>980</v>
+        <v>7.8</v>
       </c>
       <c r="AC27" t="n">
-        <v>980</v>
+        <v>11</v>
       </c>
       <c r="AD27" t="n">
         <v>980</v>
       </c>
       <c r="AE27" t="n">
-        <v>980</v>
+        <v>170</v>
       </c>
       <c r="AF27" t="n">
-        <v>980</v>
+        <v>10.5</v>
       </c>
       <c r="AG27" t="n">
-        <v>980</v>
+        <v>12.5</v>
       </c>
       <c r="AH27" t="n">
         <v>980</v>
       </c>
       <c r="AI27" t="n">
-        <v>85</v>
+        <v>170</v>
       </c>
       <c r="AJ27" t="n">
-        <v>110</v>
+        <v>980</v>
       </c>
       <c r="AK27" t="n">
-        <v>80</v>
+        <v>980</v>
       </c>
       <c r="AL27" t="n">
-        <v>110</v>
+        <v>60</v>
       </c>
       <c r="AM27" t="n">
         <v>1000</v>
       </c>
       <c r="AN27" t="n">
-        <v>130</v>
+        <v>980</v>
       </c>
       <c r="AO27" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Argentinian Primera Division</t>
+          <t>Brazilian Serie B</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -4163,126 +4163,126 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>17:00:00</t>
+          <t>16:30:00</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Instituto</t>
+          <t>America MG</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Talleres</t>
+          <t>Cuiaba</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>3.15</v>
+        <v>1.95</v>
       </c>
       <c r="G28" t="n">
-        <v>3.5</v>
+        <v>2.12</v>
       </c>
       <c r="H28" t="n">
-        <v>2.44</v>
+        <v>4.1</v>
       </c>
       <c r="I28" t="n">
-        <v>2.68</v>
+        <v>4.8</v>
       </c>
       <c r="J28" t="n">
-        <v>3.05</v>
+        <v>3.35</v>
       </c>
       <c r="K28" t="n">
-        <v>3.3</v>
+        <v>3.9</v>
       </c>
       <c r="L28" t="n">
-        <v>1.01</v>
+        <v>1.5</v>
       </c>
       <c r="M28" t="n">
-        <v>1.12</v>
+        <v>1.1</v>
       </c>
       <c r="N28" t="n">
-        <v>2.46</v>
+        <v>2.88</v>
       </c>
       <c r="O28" t="n">
-        <v>1.59</v>
+        <v>1.45</v>
       </c>
       <c r="P28" t="n">
-        <v>1.49</v>
+        <v>1.65</v>
       </c>
       <c r="Q28" t="n">
-        <v>2.72</v>
+        <v>2.1</v>
       </c>
       <c r="R28" t="n">
-        <v>1.17</v>
+        <v>1.23</v>
       </c>
       <c r="S28" t="n">
-        <v>5.9</v>
+        <v>4</v>
       </c>
       <c r="T28" t="n">
-        <v>2.2</v>
+        <v>2.04</v>
       </c>
       <c r="U28" t="n">
-        <v>1.71</v>
+        <v>1.81</v>
       </c>
       <c r="V28" t="n">
-        <v>1.59</v>
+        <v>1.26</v>
       </c>
       <c r="W28" t="n">
-        <v>1.4</v>
+        <v>1.89</v>
       </c>
       <c r="X28" t="n">
-        <v>10.5</v>
+        <v>970</v>
       </c>
       <c r="Y28" t="n">
-        <v>7.4</v>
+        <v>980</v>
       </c>
       <c r="Z28" t="n">
-        <v>15.5</v>
+        <v>980</v>
       </c>
       <c r="AA28" t="n">
-        <v>980</v>
+        <v>140</v>
       </c>
       <c r="AB28" t="n">
-        <v>9.6</v>
+        <v>980</v>
       </c>
       <c r="AC28" t="n">
-        <v>7.8</v>
+        <v>980</v>
       </c>
       <c r="AD28" t="n">
-        <v>14</v>
+        <v>980</v>
       </c>
       <c r="AE28" t="n">
-        <v>980</v>
+        <v>85</v>
       </c>
       <c r="AF28" t="n">
         <v>980</v>
       </c>
       <c r="AG28" t="n">
-        <v>17.5</v>
+        <v>980</v>
       </c>
       <c r="AH28" t="n">
         <v>980</v>
       </c>
       <c r="AI28" t="n">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="AJ28" t="n">
-        <v>75</v>
+        <v>980</v>
       </c>
       <c r="AK28" t="n">
-        <v>60</v>
+        <v>980</v>
       </c>
       <c r="AL28" t="n">
-        <v>100</v>
+        <v>55</v>
       </c>
       <c r="AM28" t="n">
-        <v>270</v>
+        <v>1000</v>
       </c>
       <c r="AN28" t="n">
-        <v>95</v>
+        <v>980</v>
       </c>
       <c r="AO28" t="n">
-        <v>60</v>
+        <v>120</v>
       </c>
     </row>
     <row r="29">
@@ -4318,7 +4318,7 @@
         <v>2.44</v>
       </c>
       <c r="H29" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="I29" t="n">
         <v>4.1</v>
@@ -4345,25 +4345,25 @@
         <v>1.52</v>
       </c>
       <c r="Q29" t="n">
-        <v>2.68</v>
+        <v>2.7</v>
       </c>
       <c r="R29" t="n">
         <v>1.18</v>
       </c>
       <c r="S29" t="n">
-        <v>4.9</v>
+        <v>5.7</v>
       </c>
       <c r="T29" t="n">
         <v>2.16</v>
       </c>
       <c r="U29" t="n">
-        <v>1.61</v>
+        <v>1.75</v>
       </c>
       <c r="V29" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="W29" t="n">
-        <v>1.71</v>
+        <v>1.7</v>
       </c>
       <c r="X29" t="n">
         <v>8.4</v>
@@ -4381,7 +4381,7 @@
         <v>7.2</v>
       </c>
       <c r="AC29" t="n">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="AD29" t="n">
         <v>17.5</v>
@@ -4393,7 +4393,7 @@
         <v>13</v>
       </c>
       <c r="AG29" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AH29" t="n">
         <v>30</v>
@@ -4423,7 +4423,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Uruguayan Primera Division</t>
+          <t>Argentinian Primera Division</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -4433,132 +4433,132 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>18:00:00</t>
+          <t>17:00:00</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Liverpool Montevideo</t>
+          <t>Velez Sarsfield</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Penarol</t>
+          <t>River Plate</t>
         </is>
       </c>
       <c r="F30" t="n">
         <v>3.65</v>
       </c>
       <c r="G30" t="n">
-        <v>5.8</v>
+        <v>4.2</v>
       </c>
       <c r="H30" t="n">
-        <v>1.78</v>
+        <v>2.24</v>
       </c>
       <c r="I30" t="n">
-        <v>2.24</v>
+        <v>2.48</v>
       </c>
       <c r="J30" t="n">
-        <v>3.3</v>
+        <v>2.98</v>
       </c>
       <c r="K30" t="n">
-        <v>980</v>
+        <v>3.35</v>
       </c>
       <c r="L30" t="n">
-        <v>1.33</v>
+        <v>1.01</v>
       </c>
       <c r="M30" t="n">
-        <v>1.01</v>
+        <v>1.13</v>
       </c>
       <c r="N30" t="n">
-        <v>1.76</v>
+        <v>2.48</v>
       </c>
       <c r="O30" t="n">
-        <v>1.01</v>
+        <v>1.58</v>
       </c>
       <c r="P30" t="n">
-        <v>1.76</v>
+        <v>1.5</v>
       </c>
       <c r="Q30" t="n">
-        <v>1.88</v>
+        <v>2.66</v>
       </c>
       <c r="R30" t="n">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="S30" t="n">
-        <v>3.2</v>
+        <v>5.1</v>
       </c>
       <c r="T30" t="n">
-        <v>1.01</v>
+        <v>2.16</v>
       </c>
       <c r="U30" t="n">
-        <v>1.01</v>
+        <v>1.7</v>
       </c>
       <c r="V30" t="n">
-        <v>1.8</v>
+        <v>1.67</v>
       </c>
       <c r="W30" t="n">
-        <v>1.21</v>
+        <v>1.32</v>
       </c>
       <c r="X30" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="Y30" t="n">
-        <v>1000</v>
+        <v>7.4</v>
       </c>
       <c r="Z30" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AA30" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AB30" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AC30" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AD30" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AE30" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AF30" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AG30" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AH30" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AI30" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
       <c r="AJ30" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AK30" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
       <c r="AL30" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AM30" t="n">
         <v>1000</v>
       </c>
       <c r="AN30" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="AO30" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Brazilian Serie A</t>
+          <t>Argentinian Primera Division</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -4568,132 +4568,132 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>19:00:00</t>
+          <t>17:00:00</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Red Bull Bragantino</t>
+          <t>Instituto</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Atletico MG</t>
+          <t>Talleres</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>2.1</v>
+        <v>3.15</v>
       </c>
       <c r="G31" t="n">
-        <v>2.24</v>
+        <v>3.5</v>
       </c>
       <c r="H31" t="n">
-        <v>3.75</v>
+        <v>2.46</v>
       </c>
       <c r="I31" t="n">
-        <v>4.2</v>
+        <v>2.7</v>
       </c>
       <c r="J31" t="n">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="K31" t="n">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="L31" t="n">
-        <v>1.5</v>
+        <v>1.01</v>
       </c>
       <c r="M31" t="n">
-        <v>1.1</v>
+        <v>1.13</v>
       </c>
       <c r="N31" t="n">
-        <v>2.96</v>
+        <v>2.46</v>
       </c>
       <c r="O31" t="n">
-        <v>1.44</v>
+        <v>1.59</v>
       </c>
       <c r="P31" t="n">
-        <v>1.66</v>
+        <v>1.51</v>
       </c>
       <c r="Q31" t="n">
-        <v>2.28</v>
+        <v>2.72</v>
       </c>
       <c r="R31" t="n">
-        <v>1.24</v>
+        <v>1.17</v>
       </c>
       <c r="S31" t="n">
-        <v>4.3</v>
+        <v>5.9</v>
       </c>
       <c r="T31" t="n">
-        <v>1.95</v>
+        <v>2.2</v>
       </c>
       <c r="U31" t="n">
-        <v>1.89</v>
+        <v>1.71</v>
       </c>
       <c r="V31" t="n">
-        <v>1.31</v>
+        <v>1.6</v>
       </c>
       <c r="W31" t="n">
-        <v>1.8</v>
+        <v>1.4</v>
       </c>
       <c r="X31" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Y31" t="n">
-        <v>12.5</v>
+        <v>7.4</v>
       </c>
       <c r="Z31" t="n">
-        <v>980</v>
+        <v>15.5</v>
       </c>
       <c r="AA31" t="n">
-        <v>95</v>
+        <v>980</v>
       </c>
       <c r="AB31" t="n">
-        <v>8.4</v>
+        <v>9.6</v>
       </c>
       <c r="AC31" t="n">
         <v>7.8</v>
       </c>
       <c r="AD31" t="n">
+        <v>14</v>
+      </c>
+      <c r="AE31" t="n">
+        <v>980</v>
+      </c>
+      <c r="AF31" t="n">
+        <v>980</v>
+      </c>
+      <c r="AG31" t="n">
         <v>17.5</v>
       </c>
-      <c r="AE31" t="n">
+      <c r="AH31" t="n">
+        <v>980</v>
+      </c>
+      <c r="AI31" t="n">
+        <v>70</v>
+      </c>
+      <c r="AJ31" t="n">
+        <v>75</v>
+      </c>
+      <c r="AK31" t="n">
         <v>60</v>
       </c>
-      <c r="AF31" t="n">
-        <v>14</v>
-      </c>
-      <c r="AG31" t="n">
-        <v>12</v>
-      </c>
-      <c r="AH31" t="n">
-        <v>980</v>
-      </c>
-      <c r="AI31" t="n">
-        <v>75</v>
-      </c>
-      <c r="AJ31" t="n">
-        <v>32</v>
-      </c>
-      <c r="AK31" t="n">
-        <v>980</v>
-      </c>
       <c r="AL31" t="n">
-        <v>55</v>
+        <v>100</v>
       </c>
       <c r="AM31" t="n">
-        <v>170</v>
+        <v>270</v>
       </c>
       <c r="AN31" t="n">
-        <v>980</v>
+        <v>95</v>
       </c>
       <c r="AO31" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Argentinian Primera Division</t>
+          <t>Uruguayan Primera Division</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -4703,132 +4703,132 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>20:15:00</t>
+          <t>18:00:00</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Newells</t>
+          <t>Liverpool Montevideo</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Racing Club</t>
+          <t>Penarol</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>4.2</v>
+        <v>3.65</v>
       </c>
       <c r="G32" t="n">
-        <v>4.8</v>
+        <v>5.6</v>
       </c>
       <c r="H32" t="n">
-        <v>2.02</v>
+        <v>1.8</v>
       </c>
       <c r="I32" t="n">
-        <v>2.16</v>
+        <v>2.24</v>
       </c>
       <c r="J32" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="K32" t="n">
+        <v>980</v>
+      </c>
+      <c r="L32" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="M32" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N32" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="O32" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="P32" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="R32" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="S32" t="n">
         <v>3.2</v>
       </c>
-      <c r="K32" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="L32" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="M32" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="N32" t="n">
-        <v>2.96</v>
-      </c>
-      <c r="O32" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="P32" t="n">
-        <v>1.66</v>
-      </c>
-      <c r="Q32" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="R32" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="S32" t="n">
-        <v>4.4</v>
-      </c>
       <c r="T32" t="n">
-        <v>1.97</v>
+        <v>1.01</v>
       </c>
       <c r="U32" t="n">
-        <v>1.87</v>
+        <v>1.01</v>
       </c>
       <c r="V32" t="n">
-        <v>1.87</v>
+        <v>1.8</v>
       </c>
       <c r="W32" t="n">
-        <v>1.28</v>
+        <v>1.21</v>
       </c>
       <c r="X32" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="Y32" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="Z32" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AA32" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AB32" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AC32" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AD32" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AE32" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AF32" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AG32" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AH32" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AI32" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AJ32" t="n">
-        <v>120</v>
+        <v>1000</v>
       </c>
       <c r="AK32" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="AL32" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AM32" t="n">
-        <v>180</v>
+        <v>1000</v>
       </c>
       <c r="AN32" t="n">
-        <v>110</v>
+        <v>1000</v>
       </c>
       <c r="AO32" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Argentinian Primera Division</t>
+          <t>Brazilian Serie A</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -4838,126 +4838,126 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>20:15:00</t>
+          <t>19:00:00</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Estudiantes</t>
+          <t>Red Bull Bragantino</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Argentinos Juniors</t>
+          <t>Atletico MG</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>2.64</v>
+        <v>2.24</v>
       </c>
       <c r="G33" t="n">
-        <v>2.66</v>
+        <v>2.28</v>
       </c>
       <c r="H33" t="n">
-        <v>3.15</v>
+        <v>3.75</v>
       </c>
       <c r="I33" t="n">
-        <v>3.4</v>
+        <v>4.1</v>
       </c>
       <c r="J33" t="n">
-        <v>3.05</v>
+        <v>3.25</v>
       </c>
       <c r="K33" t="n">
-        <v>3.25</v>
+        <v>3.45</v>
       </c>
       <c r="L33" t="n">
-        <v>1.01</v>
+        <v>1.51</v>
       </c>
       <c r="M33" t="n">
-        <v>1.13</v>
+        <v>1.1</v>
       </c>
       <c r="N33" t="n">
-        <v>2.34</v>
+        <v>2.96</v>
       </c>
       <c r="O33" t="n">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="P33" t="n">
-        <v>1.45</v>
+        <v>1.64</v>
       </c>
       <c r="Q33" t="n">
-        <v>2.8</v>
+        <v>2.28</v>
       </c>
       <c r="R33" t="n">
-        <v>1.15</v>
+        <v>1.24</v>
       </c>
       <c r="S33" t="n">
-        <v>6.2</v>
+        <v>4.3</v>
       </c>
       <c r="T33" t="n">
-        <v>2.2</v>
+        <v>1.95</v>
       </c>
       <c r="U33" t="n">
-        <v>1.7</v>
+        <v>1.89</v>
       </c>
       <c r="V33" t="n">
-        <v>1.41</v>
+        <v>1.32</v>
       </c>
       <c r="W33" t="n">
-        <v>1.6</v>
+        <v>1.78</v>
       </c>
       <c r="X33" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="Y33" t="n">
-        <v>8.800000000000001</v>
+        <v>12.5</v>
       </c>
       <c r="Z33" t="n">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="AA33" t="n">
-        <v>70</v>
+        <v>95</v>
       </c>
       <c r="AB33" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="AC33" t="n">
         <v>7.8</v>
       </c>
-      <c r="AC33" t="n">
-        <v>7.4</v>
-      </c>
       <c r="AD33" t="n">
-        <v>16</v>
+        <v>17.5</v>
       </c>
       <c r="AE33" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AF33" t="n">
-        <v>17.5</v>
+        <v>14</v>
       </c>
       <c r="AG33" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AH33" t="n">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="AI33" t="n">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="AJ33" t="n">
+        <v>32</v>
+      </c>
+      <c r="AK33" t="n">
+        <v>980</v>
+      </c>
+      <c r="AL33" t="n">
         <v>55</v>
       </c>
-      <c r="AK33" t="n">
-        <v>980</v>
-      </c>
-      <c r="AL33" t="n">
-        <v>90</v>
-      </c>
       <c r="AM33" t="n">
-        <v>250</v>
+        <v>170</v>
       </c>
       <c r="AN33" t="n">
-        <v>60</v>
+        <v>980</v>
       </c>
       <c r="AO33" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
     </row>
     <row r="34">
@@ -4978,31 +4978,31 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Central Cordoba (SdE)</t>
+          <t>Estudiantes</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Banfield</t>
+          <t>Argentinos Juniors</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>2.66</v>
+        <v>2.64</v>
       </c>
       <c r="G34" t="n">
-        <v>3.05</v>
+        <v>2.68</v>
       </c>
       <c r="H34" t="n">
-        <v>3.3</v>
+        <v>3.15</v>
       </c>
       <c r="I34" t="n">
-        <v>3.55</v>
+        <v>3.4</v>
       </c>
       <c r="J34" t="n">
-        <v>2.72</v>
+        <v>3</v>
       </c>
       <c r="K34" t="n">
-        <v>2.96</v>
+        <v>3.25</v>
       </c>
       <c r="L34" t="n">
         <v>1.01</v>
@@ -5011,82 +5011,82 @@
         <v>1.13</v>
       </c>
       <c r="N34" t="n">
-        <v>2.46</v>
+        <v>2.34</v>
       </c>
       <c r="O34" t="n">
-        <v>1.58</v>
+        <v>1.63</v>
       </c>
       <c r="P34" t="n">
         <v>1.45</v>
       </c>
       <c r="Q34" t="n">
-        <v>2.84</v>
+        <v>2.8</v>
       </c>
       <c r="R34" t="n">
-        <v>1.17</v>
+        <v>1.15</v>
       </c>
       <c r="S34" t="n">
-        <v>5.5</v>
+        <v>6.2</v>
       </c>
       <c r="T34" t="n">
-        <v>1.98</v>
+        <v>2.2</v>
       </c>
       <c r="U34" t="n">
-        <v>1.66</v>
+        <v>1.7</v>
       </c>
       <c r="V34" t="n">
-        <v>1.39</v>
+        <v>1.41</v>
       </c>
       <c r="W34" t="n">
-        <v>1.49</v>
+        <v>1.59</v>
       </c>
       <c r="X34" t="n">
-        <v>7.4</v>
+        <v>8</v>
       </c>
       <c r="Y34" t="n">
-        <v>9.800000000000001</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="Z34" t="n">
         <v>21</v>
       </c>
       <c r="AA34" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AB34" t="n">
-        <v>9.4</v>
+        <v>7.8</v>
       </c>
       <c r="AC34" t="n">
-        <v>6.6</v>
+        <v>7.4</v>
       </c>
       <c r="AD34" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AE34" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AF34" t="n">
         <v>17.5</v>
       </c>
       <c r="AG34" t="n">
-        <v>16.5</v>
+        <v>14</v>
       </c>
       <c r="AH34" t="n">
-        <v>980</v>
+        <v>28</v>
       </c>
       <c r="AI34" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="AJ34" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AK34" t="n">
-        <v>48</v>
+        <v>980</v>
       </c>
       <c r="AL34" t="n">
         <v>90</v>
       </c>
       <c r="AM34" t="n">
-        <v>230</v>
+        <v>250</v>
       </c>
       <c r="AN34" t="n">
         <v>60</v>
@@ -5113,127 +5113,127 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Boca Juniors</t>
+          <t>Central Cordoba (SdE)</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Tigre</t>
+          <t>Banfield</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>1.73</v>
+        <v>2.66</v>
       </c>
       <c r="G35" t="n">
-        <v>1.8</v>
+        <v>2.8</v>
       </c>
       <c r="H35" t="n">
-        <v>6.4</v>
+        <v>3.35</v>
       </c>
       <c r="I35" t="n">
-        <v>7.2</v>
+        <v>3.6</v>
       </c>
       <c r="J35" t="n">
-        <v>3.3</v>
+        <v>2.92</v>
       </c>
       <c r="K35" t="n">
-        <v>3.65</v>
+        <v>2.96</v>
       </c>
       <c r="L35" t="n">
-        <v>1.58</v>
+        <v>1.01</v>
       </c>
       <c r="M35" t="n">
-        <v>1.12</v>
+        <v>1.13</v>
       </c>
       <c r="N35" t="n">
-        <v>2.56</v>
+        <v>2.5</v>
       </c>
       <c r="O35" t="n">
-        <v>1.55</v>
+        <v>1.57</v>
       </c>
       <c r="P35" t="n">
-        <v>1.52</v>
+        <v>1.46</v>
       </c>
       <c r="Q35" t="n">
-        <v>2.62</v>
+        <v>2.84</v>
       </c>
       <c r="R35" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="S35" t="n">
         <v>5.5</v>
       </c>
       <c r="T35" t="n">
-        <v>2.38</v>
+        <v>1.98</v>
       </c>
       <c r="U35" t="n">
-        <v>1.63</v>
+        <v>1.66</v>
       </c>
       <c r="V35" t="n">
-        <v>1.16</v>
+        <v>1.39</v>
       </c>
       <c r="W35" t="n">
-        <v>2.24</v>
+        <v>1.56</v>
       </c>
       <c r="X35" t="n">
-        <v>9</v>
+        <v>7.4</v>
       </c>
       <c r="Y35" t="n">
-        <v>17.5</v>
+        <v>9.4</v>
       </c>
       <c r="Z35" t="n">
-        <v>55</v>
+        <v>21</v>
       </c>
       <c r="AA35" t="n">
-        <v>310</v>
+        <v>75</v>
       </c>
       <c r="AB35" t="n">
-        <v>5.9</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AC35" t="n">
-        <v>9</v>
+        <v>6.6</v>
       </c>
       <c r="AD35" t="n">
-        <v>980</v>
+        <v>16.5</v>
       </c>
       <c r="AE35" t="n">
-        <v>180</v>
+        <v>1000</v>
       </c>
       <c r="AF35" t="n">
-        <v>8.800000000000001</v>
+        <v>17</v>
       </c>
       <c r="AG35" t="n">
-        <v>11.5</v>
+        <v>14.5</v>
       </c>
       <c r="AH35" t="n">
-        <v>980</v>
+        <v>29</v>
       </c>
       <c r="AI35" t="n">
+        <v>100</v>
+      </c>
+      <c r="AJ35" t="n">
+        <v>46</v>
+      </c>
+      <c r="AK35" t="n">
+        <v>48</v>
+      </c>
+      <c r="AL35" t="n">
+        <v>85</v>
+      </c>
+      <c r="AM35" t="n">
         <v>200</v>
       </c>
-      <c r="AJ35" t="n">
-        <v>24</v>
-      </c>
-      <c r="AK35" t="n">
-        <v>980</v>
-      </c>
-      <c r="AL35" t="n">
-        <v>70</v>
-      </c>
-      <c r="AM35" t="n">
-        <v>340</v>
-      </c>
       <c r="AN35" t="n">
-        <v>21</v>
+        <v>60</v>
       </c>
       <c r="AO35" t="n">
-        <v>360</v>
+        <v>90</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Colombian Primera B</t>
+          <t>Argentinian Primera Division</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -5243,125 +5243,395 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>21:30:00</t>
+          <t>20:15:00</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Real Soacha Cundinamarca FC</t>
+          <t>Boca Juniors</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Real Cartagena</t>
+          <t>Tigre</t>
         </is>
       </c>
       <c r="F36" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="G36" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="H36" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="I36" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="J36" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="K36" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="L36" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="M36" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="N36" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="O36" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="P36" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="R36" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="S36" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="T36" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="U36" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="V36" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="W36" t="n">
         <v>2.18</v>
       </c>
-      <c r="G36" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="H36" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="I36" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="J36" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="K36" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="L36" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="M36" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="N36" t="n">
-        <v>1.68</v>
-      </c>
-      <c r="O36" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="P36" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="Q36" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="R36" t="n">
-        <v>1.21</v>
-      </c>
-      <c r="S36" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="T36" t="n">
-        <v>1.64</v>
-      </c>
-      <c r="U36" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="V36" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="W36" t="n">
-        <v>1.66</v>
-      </c>
       <c r="X36" t="n">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="Y36" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="Z36" t="n">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="AA36" t="n">
-        <v>100</v>
+        <v>310</v>
       </c>
       <c r="AB36" t="n">
-        <v>12.5</v>
+        <v>5.9</v>
       </c>
       <c r="AC36" t="n">
-        <v>10.5</v>
+        <v>9</v>
       </c>
       <c r="AD36" t="n">
-        <v>23</v>
+        <v>980</v>
       </c>
       <c r="AE36" t="n">
-        <v>75</v>
+        <v>180</v>
       </c>
       <c r="AF36" t="n">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="AG36" t="n">
-        <v>17</v>
+        <v>11.5</v>
       </c>
       <c r="AH36" t="n">
-        <v>29</v>
+        <v>980</v>
       </c>
       <c r="AI36" t="n">
-        <v>95</v>
+        <v>200</v>
       </c>
       <c r="AJ36" t="n">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="AK36" t="n">
-        <v>40</v>
+        <v>980</v>
       </c>
       <c r="AL36" t="n">
         <v>70</v>
       </c>
       <c r="AM36" t="n">
-        <v>1000</v>
+        <v>340</v>
       </c>
       <c r="AN36" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AO36" t="n">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Argentinian Primera Division</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>2025-11-16</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>20:15:00</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>Newells</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>Racing Club</t>
+        </is>
+      </c>
+      <c r="F37" t="n">
+        <v>4</v>
+      </c>
+      <c r="G37" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="H37" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="I37" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="J37" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="K37" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="L37" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="M37" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="N37" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="O37" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="P37" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="R37" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="S37" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="T37" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="U37" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="V37" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="W37" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="X37" t="n">
+        <v>980</v>
+      </c>
+      <c r="Y37" t="n">
+        <v>980</v>
+      </c>
+      <c r="Z37" t="n">
+        <v>980</v>
+      </c>
+      <c r="AA37" t="n">
+        <v>980</v>
+      </c>
+      <c r="AB37" t="n">
+        <v>980</v>
+      </c>
+      <c r="AC37" t="n">
+        <v>980</v>
+      </c>
+      <c r="AD37" t="n">
+        <v>980</v>
+      </c>
+      <c r="AE37" t="n">
+        <v>980</v>
+      </c>
+      <c r="AF37" t="n">
+        <v>980</v>
+      </c>
+      <c r="AG37" t="n">
+        <v>980</v>
+      </c>
+      <c r="AH37" t="n">
+        <v>980</v>
+      </c>
+      <c r="AI37" t="n">
+        <v>980</v>
+      </c>
+      <c r="AJ37" t="n">
+        <v>120</v>
+      </c>
+      <c r="AK37" t="n">
+        <v>70</v>
+      </c>
+      <c r="AL37" t="n">
+        <v>95</v>
+      </c>
+      <c r="AM37" t="n">
+        <v>180</v>
+      </c>
+      <c r="AN37" t="n">
+        <v>110</v>
+      </c>
+      <c r="AO37" t="n">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Colombian Primera B</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>2025-11-16</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>21:30:00</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>Real Soacha Cundinamarca FC</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>Real Cartagena</t>
+        </is>
+      </c>
+      <c r="F38" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="G38" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="H38" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="I38" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="J38" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="K38" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="L38" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="M38" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N38" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="O38" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="P38" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="R38" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="S38" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="T38" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="U38" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="V38" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="W38" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="X38" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="Y38" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="Z38" t="n">
+        <v>980</v>
+      </c>
+      <c r="AA38" t="n">
+        <v>80</v>
+      </c>
+      <c r="AB38" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AC38" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AD38" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AE38" t="n">
+        <v>55</v>
+      </c>
+      <c r="AF38" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AG38" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH38" t="n">
+        <v>21</v>
+      </c>
+      <c r="AI38" t="n">
+        <v>70</v>
+      </c>
+      <c r="AJ38" t="n">
+        <v>980</v>
+      </c>
+      <c r="AK38" t="n">
+        <v>980</v>
+      </c>
+      <c r="AL38" t="n">
+        <v>980</v>
+      </c>
+      <c r="AM38" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN38" t="n">
+        <v>30</v>
+      </c>
+      <c r="AO38" t="n">
         <v>1000</v>
       </c>
     </row>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-11-16.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-11-16.xlsx
@@ -670,10 +670,10 @@
         <v>1.92</v>
       </c>
       <c r="G2" t="n">
-        <v>2.2</v>
+        <v>2.16</v>
       </c>
       <c r="H2" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="I2" t="n">
         <v>5</v>
@@ -718,7 +718,7 @@
         <v>1.27</v>
       </c>
       <c r="W2" t="n">
-        <v>1.84</v>
+        <v>1.86</v>
       </c>
       <c r="X2" t="n">
         <v>1000</v>
@@ -802,10 +802,10 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="G3" t="n">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="H3" t="n">
         <v>1.89</v>
@@ -841,16 +841,16 @@
         <v>1.4</v>
       </c>
       <c r="S3" t="n">
-        <v>2.74</v>
+        <v>2.8</v>
       </c>
       <c r="T3" t="n">
         <v>1.6</v>
       </c>
       <c r="U3" t="n">
-        <v>1.97</v>
+        <v>1.98</v>
       </c>
       <c r="V3" t="n">
-        <v>1.92</v>
+        <v>1.78</v>
       </c>
       <c r="W3" t="n">
         <v>1.26</v>
@@ -868,10 +868,10 @@
         <v>1000</v>
       </c>
       <c r="AB3" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AC3" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AD3" t="n">
         <v>1000</v>
@@ -937,19 +937,19 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>2.7</v>
+        <v>2.74</v>
       </c>
       <c r="G4" t="n">
         <v>3.15</v>
       </c>
       <c r="H4" t="n">
-        <v>2.46</v>
+        <v>2.42</v>
       </c>
       <c r="I4" t="n">
-        <v>2.78</v>
+        <v>2.74</v>
       </c>
       <c r="J4" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="K4" t="n">
         <v>3.9</v>
@@ -967,16 +967,16 @@
         <v>1.25</v>
       </c>
       <c r="P4" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.68</v>
+        <v>1.69</v>
       </c>
       <c r="R4" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="S4" t="n">
-        <v>2.72</v>
+        <v>2.74</v>
       </c>
       <c r="T4" t="n">
         <v>1.6</v>
@@ -985,7 +985,7 @@
         <v>2.24</v>
       </c>
       <c r="V4" t="n">
-        <v>1.56</v>
+        <v>1.57</v>
       </c>
       <c r="W4" t="n">
         <v>1.46</v>
@@ -1075,7 +1075,7 @@
         <v>3.25</v>
       </c>
       <c r="G5" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="H5" t="n">
         <v>2</v>
@@ -1123,7 +1123,7 @@
         <v>1.71</v>
       </c>
       <c r="W5" t="n">
-        <v>1.27</v>
+        <v>1.31</v>
       </c>
       <c r="X5" t="n">
         <v>1000</v>
@@ -1207,49 +1207,49 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>2.18</v>
+        <v>2.34</v>
       </c>
       <c r="G6" t="n">
-        <v>2.34</v>
+        <v>2.56</v>
       </c>
       <c r="H6" t="n">
-        <v>3.15</v>
+        <v>3.25</v>
       </c>
       <c r="I6" t="n">
-        <v>3.75</v>
+        <v>3.9</v>
       </c>
       <c r="J6" t="n">
-        <v>3.3</v>
+        <v>3.05</v>
       </c>
       <c r="K6" t="n">
-        <v>4.4</v>
+        <v>3.7</v>
       </c>
       <c r="L6" t="n">
-        <v>1.4</v>
+        <v>1.42</v>
       </c>
       <c r="M6" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N6" t="n">
         <v>3.3</v>
       </c>
       <c r="O6" t="n">
-        <v>1.32</v>
+        <v>1.34</v>
       </c>
       <c r="P6" t="n">
-        <v>1.82</v>
+        <v>1.78</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="R6" t="n">
-        <v>1.32</v>
+        <v>1.3</v>
       </c>
       <c r="S6" t="n">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="T6" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="U6" t="n">
         <v>1.97</v>
@@ -1258,7 +1258,7 @@
         <v>1.36</v>
       </c>
       <c r="W6" t="n">
-        <v>1.75</v>
+        <v>1.64</v>
       </c>
       <c r="X6" t="n">
         <v>1000</v>
@@ -1372,7 +1372,7 @@
         <v>1.23</v>
       </c>
       <c r="P7" t="n">
-        <v>2.26</v>
+        <v>2.28</v>
       </c>
       <c r="Q7" t="n">
         <v>1.66</v>
@@ -1480,19 +1480,19 @@
         <v>3.4</v>
       </c>
       <c r="G8" t="n">
-        <v>3.95</v>
+        <v>3.9</v>
       </c>
       <c r="H8" t="n">
-        <v>2.18</v>
+        <v>2.22</v>
       </c>
       <c r="I8" t="n">
-        <v>2.36</v>
+        <v>2.34</v>
       </c>
       <c r="J8" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="K8" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="L8" t="n">
         <v>1.44</v>
@@ -1525,10 +1525,10 @@
         <v>1.99</v>
       </c>
       <c r="V8" t="n">
-        <v>1.73</v>
+        <v>1.74</v>
       </c>
       <c r="W8" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="X8" t="n">
         <v>12.5</v>
@@ -1618,7 +1618,7 @@
         <v>9</v>
       </c>
       <c r="H9" t="n">
-        <v>1.62</v>
+        <v>1.61</v>
       </c>
       <c r="I9" t="n">
         <v>1.8</v>
@@ -1627,7 +1627,7 @@
         <v>3.5</v>
       </c>
       <c r="K9" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="L9" t="n">
         <v>1.41</v>
@@ -1663,7 +1663,7 @@
         <v>2.26</v>
       </c>
       <c r="W9" t="n">
-        <v>1.14</v>
+        <v>1.12</v>
       </c>
       <c r="X9" t="n">
         <v>1000</v>
@@ -1750,7 +1750,7 @@
         <v>1.45</v>
       </c>
       <c r="G10" t="n">
-        <v>1.59</v>
+        <v>1.61</v>
       </c>
       <c r="H10" t="n">
         <v>7.2</v>
@@ -1759,7 +1759,7 @@
         <v>12</v>
       </c>
       <c r="J10" t="n">
-        <v>4</v>
+        <v>3.65</v>
       </c>
       <c r="K10" t="n">
         <v>5.5</v>
@@ -1798,7 +1798,7 @@
         <v>1.09</v>
       </c>
       <c r="W10" t="n">
-        <v>2.7</v>
+        <v>2.56</v>
       </c>
       <c r="X10" t="n">
         <v>980</v>
@@ -1882,22 +1882,22 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>2.58</v>
+        <v>2.56</v>
       </c>
       <c r="G11" t="n">
-        <v>2.76</v>
+        <v>2.74</v>
       </c>
       <c r="H11" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="I11" t="n">
         <v>3.5</v>
       </c>
       <c r="J11" t="n">
-        <v>2.94</v>
+        <v>2.98</v>
       </c>
       <c r="K11" t="n">
-        <v>3.05</v>
+        <v>3.15</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -2017,22 +2017,22 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>2.44</v>
+        <v>2.48</v>
       </c>
       <c r="G12" t="n">
-        <v>3</v>
+        <v>2.82</v>
       </c>
       <c r="H12" t="n">
-        <v>2.92</v>
+        <v>2.82</v>
       </c>
       <c r="I12" t="n">
-        <v>3.7</v>
+        <v>3.55</v>
       </c>
       <c r="J12" t="n">
-        <v>2.84</v>
+        <v>2.88</v>
       </c>
       <c r="K12" t="n">
-        <v>4.1</v>
+        <v>3.95</v>
       </c>
       <c r="L12" t="n">
         <v>1.38</v>
@@ -2065,10 +2065,10 @@
         <v>1.85</v>
       </c>
       <c r="V12" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="W12" t="n">
-        <v>1.5</v>
+        <v>1.54</v>
       </c>
       <c r="X12" t="n">
         <v>1000</v>
@@ -2152,112 +2152,112 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>1.9</v>
+        <v>2.04</v>
       </c>
       <c r="G13" t="n">
-        <v>2.46</v>
+        <v>2.28</v>
       </c>
       <c r="H13" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="I13" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="J13" t="n">
         <v>3.25</v>
       </c>
-      <c r="I13" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="J13" t="n">
-        <v>2.9</v>
-      </c>
       <c r="K13" t="n">
-        <v>980</v>
+        <v>4.2</v>
       </c>
       <c r="L13" t="n">
         <v>1.43</v>
       </c>
       <c r="M13" t="n">
-        <v>1.01</v>
+        <v>1.07</v>
       </c>
       <c r="N13" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="O13" t="n">
-        <v>1.02</v>
+        <v>1.35</v>
       </c>
       <c r="P13" t="n">
-        <v>1.65</v>
+        <v>1.78</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.9</v>
+        <v>2.02</v>
       </c>
       <c r="R13" t="n">
-        <v>1.21</v>
+        <v>1.29</v>
       </c>
       <c r="S13" t="n">
-        <v>1.92</v>
+        <v>3.7</v>
       </c>
       <c r="T13" t="n">
-        <v>1.01</v>
+        <v>1.7</v>
       </c>
       <c r="U13" t="n">
-        <v>1.01</v>
+        <v>1.98</v>
       </c>
       <c r="V13" t="n">
-        <v>1.15</v>
+        <v>1.26</v>
       </c>
       <c r="W13" t="n">
-        <v>1.68</v>
+        <v>1.78</v>
       </c>
       <c r="X13" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
       <c r="Y13" t="n">
-        <v>1000</v>
+        <v>16.5</v>
       </c>
       <c r="Z13" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AA13" t="n">
         <v>1000</v>
       </c>
       <c r="AB13" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="AC13" t="n">
-        <v>1000</v>
+        <v>9.4</v>
       </c>
       <c r="AD13" t="n">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="AE13" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AF13" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="AG13" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="AH13" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AI13" t="n">
         <v>1000</v>
       </c>
       <c r="AJ13" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AK13" t="n">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="AL13" t="n">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="AM13" t="n">
         <v>1000</v>
       </c>
       <c r="AN13" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AO13" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
     </row>
     <row r="14">
@@ -2287,46 +2287,46 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="G14" t="n">
-        <v>4.7</v>
+        <v>4.3</v>
       </c>
       <c r="H14" t="n">
         <v>2.14</v>
       </c>
       <c r="I14" t="n">
-        <v>2.48</v>
+        <v>2.38</v>
       </c>
       <c r="J14" t="n">
-        <v>2.72</v>
+        <v>2.9</v>
       </c>
       <c r="K14" t="n">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="L14" t="n">
         <v>1.42</v>
       </c>
       <c r="M14" t="n">
-        <v>1.01</v>
+        <v>1.1</v>
       </c>
       <c r="N14" t="n">
-        <v>1.5</v>
+        <v>2.8</v>
       </c>
       <c r="O14" t="n">
-        <v>1.01</v>
+        <v>1.44</v>
       </c>
       <c r="P14" t="n">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="Q14" t="n">
-        <v>2.14</v>
+        <v>2.3</v>
       </c>
       <c r="R14" t="n">
-        <v>1.18</v>
+        <v>1.22</v>
       </c>
       <c r="S14" t="n">
-        <v>2.14</v>
+        <v>4</v>
       </c>
       <c r="T14" t="n">
         <v>1.81</v>
@@ -2335,16 +2335,16 @@
         <v>1.73</v>
       </c>
       <c r="V14" t="n">
-        <v>1.67</v>
+        <v>1.72</v>
       </c>
       <c r="W14" t="n">
-        <v>1.28</v>
+        <v>1.3</v>
       </c>
       <c r="X14" t="n">
         <v>1000</v>
       </c>
       <c r="Y14" t="n">
-        <v>1000</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="Z14" t="n">
         <v>1000</v>
@@ -2356,10 +2356,10 @@
         <v>1000</v>
       </c>
       <c r="AC14" t="n">
-        <v>1000</v>
+        <v>9</v>
       </c>
       <c r="AD14" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="AE14" t="n">
         <v>1000</v>
@@ -2446,7 +2446,7 @@
         <v>1.06</v>
       </c>
       <c r="N15" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="O15" t="n">
         <v>1.31</v>
@@ -2464,10 +2464,10 @@
         <v>1.01</v>
       </c>
       <c r="T15" t="n">
-        <v>1.67</v>
+        <v>1.68</v>
       </c>
       <c r="U15" t="n">
-        <v>2.04</v>
+        <v>1.95</v>
       </c>
       <c r="V15" t="n">
         <v>1.01</v>
@@ -2575,7 +2575,7 @@
         <v>3.15</v>
       </c>
       <c r="L16" t="n">
-        <v>1.61</v>
+        <v>1.62</v>
       </c>
       <c r="M16" t="n">
         <v>1.14</v>
@@ -2590,7 +2590,7 @@
         <v>1.44</v>
       </c>
       <c r="Q16" t="n">
-        <v>2.82</v>
+        <v>2.84</v>
       </c>
       <c r="R16" t="n">
         <v>1.18</v>
@@ -2683,121 +2683,121 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Sporting Gijon</t>
+          <t>Almeria</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Eibar</t>
+          <t>Cadiz</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>2.36</v>
+        <v>1.66</v>
       </c>
       <c r="G17" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="H17" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="I17" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="J17" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="K17" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="L17" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="M17" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N17" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="O17" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="P17" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="R17" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="S17" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="T17" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="U17" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="V17" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="W17" t="n">
         <v>2.48</v>
       </c>
-      <c r="H17" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="I17" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="J17" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="K17" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="L17" t="n">
-        <v>1.52</v>
-      </c>
-      <c r="M17" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="N17" t="n">
-        <v>2.86</v>
-      </c>
-      <c r="O17" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="P17" t="n">
-        <v>1.63</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>2.42</v>
-      </c>
-      <c r="R17" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="S17" t="n">
-        <v>4.7</v>
-      </c>
-      <c r="T17" t="n">
-        <v>1.96</v>
-      </c>
-      <c r="U17" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="V17" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="W17" t="n">
-        <v>1.67</v>
-      </c>
       <c r="X17" t="n">
-        <v>9.800000000000001</v>
+        <v>15.5</v>
       </c>
       <c r="Y17" t="n">
-        <v>11.5</v>
+        <v>980</v>
       </c>
       <c r="Z17" t="n">
-        <v>27</v>
+        <v>980</v>
       </c>
       <c r="AA17" t="n">
-        <v>80</v>
+        <v>190</v>
       </c>
       <c r="AB17" t="n">
         <v>8.6</v>
       </c>
       <c r="AC17" t="n">
-        <v>7</v>
+        <v>9.6</v>
       </c>
       <c r="AD17" t="n">
-        <v>17</v>
+        <v>980</v>
       </c>
       <c r="AE17" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="AF17" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="AG17" t="n">
-        <v>12.5</v>
+        <v>9.4</v>
       </c>
       <c r="AH17" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AI17" t="n">
-        <v>80</v>
+        <v>95</v>
       </c>
       <c r="AJ17" t="n">
-        <v>980</v>
+        <v>16.5</v>
       </c>
       <c r="AK17" t="n">
-        <v>34</v>
+        <v>17.5</v>
       </c>
       <c r="AL17" t="n">
-        <v>60</v>
+        <v>38</v>
       </c>
       <c r="AM17" t="n">
-        <v>180</v>
+        <v>140</v>
       </c>
       <c r="AN17" t="n">
-        <v>980</v>
+        <v>10.5</v>
       </c>
       <c r="AO17" t="n">
-        <v>75</v>
+        <v>120</v>
       </c>
     </row>
     <row r="18">
@@ -2818,121 +2818,121 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Almeria</t>
+          <t>Sporting Gijon</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Cadiz</t>
+          <t>Eibar</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>1.65</v>
+        <v>2.36</v>
       </c>
       <c r="G18" t="n">
-        <v>1.66</v>
+        <v>2.48</v>
       </c>
       <c r="H18" t="n">
-        <v>5.8</v>
+        <v>3.6</v>
       </c>
       <c r="I18" t="n">
-        <v>6.4</v>
+        <v>3.85</v>
       </c>
       <c r="J18" t="n">
-        <v>4.1</v>
+        <v>3.1</v>
       </c>
       <c r="K18" t="n">
-        <v>4.5</v>
+        <v>3.3</v>
       </c>
       <c r="L18" t="n">
-        <v>1.39</v>
+        <v>1.52</v>
       </c>
       <c r="M18" t="n">
-        <v>1.06</v>
+        <v>1.11</v>
       </c>
       <c r="N18" t="n">
-        <v>3.85</v>
+        <v>2.86</v>
       </c>
       <c r="O18" t="n">
-        <v>1.3</v>
+        <v>1.47</v>
       </c>
       <c r="P18" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="R18" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="S18" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="T18" t="n">
         <v>1.99</v>
       </c>
-      <c r="Q18" t="n">
+      <c r="U18" t="n">
         <v>1.89</v>
       </c>
-      <c r="R18" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="S18" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="T18" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="U18" t="n">
-        <v>1.96</v>
-      </c>
       <c r="V18" t="n">
-        <v>1.18</v>
+        <v>1.35</v>
       </c>
       <c r="W18" t="n">
-        <v>2.5</v>
+        <v>1.67</v>
       </c>
       <c r="X18" t="n">
-        <v>16</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="Y18" t="n">
-        <v>980</v>
+        <v>11.5</v>
       </c>
       <c r="Z18" t="n">
-        <v>980</v>
+        <v>27</v>
       </c>
       <c r="AA18" t="n">
-        <v>200</v>
+        <v>80</v>
       </c>
       <c r="AB18" t="n">
         <v>8.6</v>
       </c>
       <c r="AC18" t="n">
-        <v>9.4</v>
+        <v>7.2</v>
       </c>
       <c r="AD18" t="n">
-        <v>980</v>
+        <v>17</v>
       </c>
       <c r="AE18" t="n">
-        <v>110</v>
+        <v>60</v>
       </c>
       <c r="AF18" t="n">
-        <v>10.5</v>
+        <v>15</v>
       </c>
       <c r="AG18" t="n">
-        <v>10</v>
+        <v>12.5</v>
       </c>
       <c r="AH18" t="n">
-        <v>980</v>
+        <v>21</v>
       </c>
       <c r="AI18" t="n">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="AJ18" t="n">
-        <v>17</v>
+        <v>980</v>
       </c>
       <c r="AK18" t="n">
         <v>980</v>
       </c>
       <c r="AL18" t="n">
-        <v>980</v>
+        <v>60</v>
       </c>
       <c r="AM18" t="n">
-        <v>150</v>
+        <v>180</v>
       </c>
       <c r="AN18" t="n">
-        <v>10.5</v>
+        <v>980</v>
       </c>
       <c r="AO18" t="n">
-        <v>130</v>
+        <v>75</v>
       </c>
     </row>
     <row r="19">
@@ -2962,58 +2962,58 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>1.47</v>
+        <v>1.54</v>
       </c>
       <c r="G19" t="n">
-        <v>1.92</v>
+        <v>1.71</v>
       </c>
       <c r="H19" t="n">
         <v>6</v>
       </c>
       <c r="I19" t="n">
-        <v>1000</v>
+        <v>10</v>
       </c>
       <c r="J19" t="n">
-        <v>3.15</v>
+        <v>3.55</v>
       </c>
       <c r="K19" t="n">
-        <v>6.6</v>
+        <v>4.4</v>
       </c>
       <c r="L19" t="n">
         <v>1.37</v>
       </c>
       <c r="M19" t="n">
-        <v>1.01</v>
+        <v>1.08</v>
       </c>
       <c r="N19" t="n">
-        <v>1.55</v>
+        <v>2.88</v>
       </c>
       <c r="O19" t="n">
-        <v>1.01</v>
+        <v>1.41</v>
       </c>
       <c r="P19" t="n">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="Q19" t="n">
-        <v>2</v>
+        <v>2.16</v>
       </c>
       <c r="R19" t="n">
-        <v>1.18</v>
+        <v>1.23</v>
       </c>
       <c r="S19" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="T19" t="n">
         <v>2.02</v>
       </c>
-      <c r="T19" t="n">
-        <v>1.01</v>
-      </c>
       <c r="U19" t="n">
-        <v>1.01</v>
+        <v>1.57</v>
       </c>
       <c r="V19" t="n">
-        <v>1.01</v>
+        <v>1.11</v>
       </c>
       <c r="W19" t="n">
-        <v>2.08</v>
+        <v>2.4</v>
       </c>
       <c r="X19" t="n">
         <v>1000</v>
@@ -3028,7 +3028,7 @@
         <v>1000</v>
       </c>
       <c r="AB19" t="n">
-        <v>1000</v>
+        <v>7.6</v>
       </c>
       <c r="AC19" t="n">
         <v>1000</v>
@@ -3040,7 +3040,7 @@
         <v>1000</v>
       </c>
       <c r="AF19" t="n">
-        <v>1000</v>
+        <v>10</v>
       </c>
       <c r="AG19" t="n">
         <v>1000</v>
@@ -3088,55 +3088,55 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Gubbio</t>
+          <t>Lecco</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Juventus B</t>
+          <t>Aurora Pro Patria 1919</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>1.04</v>
+        <v>1.68</v>
       </c>
       <c r="G20" t="n">
-        <v>1000</v>
+        <v>2.02</v>
       </c>
       <c r="H20" t="n">
-        <v>1.04</v>
+        <v>4.8</v>
       </c>
       <c r="I20" t="n">
-        <v>1000</v>
+        <v>7.8</v>
       </c>
       <c r="J20" t="n">
-        <v>1.02</v>
+        <v>2.88</v>
       </c>
       <c r="K20" t="n">
-        <v>1000</v>
+        <v>4</v>
       </c>
       <c r="L20" t="n">
-        <v>1.01</v>
+        <v>1.44</v>
       </c>
       <c r="M20" t="n">
         <v>1.01</v>
       </c>
       <c r="N20" t="n">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="O20" t="n">
         <v>1.01</v>
       </c>
       <c r="P20" t="n">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.02</v>
+        <v>2.34</v>
       </c>
       <c r="R20" t="n">
         <v>1.18</v>
       </c>
       <c r="S20" t="n">
-        <v>1.5</v>
+        <v>2.34</v>
       </c>
       <c r="T20" t="n">
         <v>1.01</v>
@@ -3145,10 +3145,10 @@
         <v>1.01</v>
       </c>
       <c r="V20" t="n">
-        <v>1.01</v>
+        <v>1.15</v>
       </c>
       <c r="W20" t="n">
-        <v>1.01</v>
+        <v>1.98</v>
       </c>
       <c r="X20" t="n">
         <v>1000</v>
@@ -3208,7 +3208,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Italian Serie C</t>
+          <t>Spanish Segunda Division</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -3218,126 +3218,126 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>13:30:00</t>
+          <t>14:30:00</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Lecco</t>
+          <t>Mirandes</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Aurora Pro Patria 1919</t>
+          <t>Burgos</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>1.68</v>
+        <v>3.45</v>
       </c>
       <c r="G21" t="n">
-        <v>2.08</v>
+        <v>3.6</v>
       </c>
       <c r="H21" t="n">
-        <v>4.8</v>
+        <v>2.58</v>
       </c>
       <c r="I21" t="n">
-        <v>7.8</v>
+        <v>2.62</v>
       </c>
       <c r="J21" t="n">
+        <v>3</v>
+      </c>
+      <c r="K21" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="L21" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="M21" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="N21" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="O21" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="P21" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="Q21" t="n">
         <v>2.84</v>
-      </c>
-      <c r="K21" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="L21" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="M21" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="N21" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="O21" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="P21" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="Q21" t="n">
-        <v>2.34</v>
       </c>
       <c r="R21" t="n">
         <v>1.18</v>
       </c>
       <c r="S21" t="n">
-        <v>2.34</v>
+        <v>6</v>
       </c>
       <c r="T21" t="n">
-        <v>1.01</v>
+        <v>2.2</v>
       </c>
       <c r="U21" t="n">
-        <v>1.01</v>
+        <v>1.74</v>
       </c>
       <c r="V21" t="n">
-        <v>1.15</v>
+        <v>1.61</v>
       </c>
       <c r="W21" t="n">
-        <v>1.92</v>
+        <v>1.38</v>
       </c>
       <c r="X21" t="n">
-        <v>1000</v>
+        <v>8</v>
       </c>
       <c r="Y21" t="n">
-        <v>1000</v>
+        <v>7.4</v>
       </c>
       <c r="Z21" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="AA21" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AB21" t="n">
-        <v>1000</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AC21" t="n">
-        <v>1000</v>
+        <v>7</v>
       </c>
       <c r="AD21" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="AE21" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AF21" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AG21" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="AH21" t="n">
-        <v>1000</v>
+        <v>28</v>
       </c>
       <c r="AI21" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AJ21" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
       <c r="AK21" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AL21" t="n">
-        <v>1000</v>
+        <v>90</v>
       </c>
       <c r="AM21" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AN21" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
       <c r="AO21" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
     </row>
     <row r="22">
@@ -3358,127 +3358,127 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Mirandes</t>
+          <t>Cordoba</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Burgos</t>
+          <t>Deportivo</t>
         </is>
       </c>
       <c r="F22" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="G22" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="H22" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="I22" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="J22" t="n">
         <v>3.4</v>
       </c>
-      <c r="G22" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="H22" t="n">
-        <v>2.58</v>
-      </c>
-      <c r="I22" t="n">
-        <v>2.62</v>
-      </c>
-      <c r="J22" t="n">
-        <v>3</v>
-      </c>
       <c r="K22" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="L22" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="M22" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N22" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="O22" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="P22" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="R22" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="S22" t="n">
         <v>3.15</v>
       </c>
-      <c r="L22" t="n">
-        <v>1.58</v>
-      </c>
-      <c r="M22" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="N22" t="n">
-        <v>2.48</v>
-      </c>
-      <c r="O22" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="P22" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>2.78</v>
-      </c>
-      <c r="R22" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="S22" t="n">
-        <v>6</v>
-      </c>
       <c r="T22" t="n">
-        <v>2.2</v>
+        <v>1.65</v>
       </c>
       <c r="U22" t="n">
-        <v>1.74</v>
+        <v>2.44</v>
       </c>
       <c r="V22" t="n">
-        <v>1.61</v>
+        <v>1.45</v>
       </c>
       <c r="W22" t="n">
-        <v>1.38</v>
+        <v>1.62</v>
       </c>
       <c r="X22" t="n">
-        <v>8</v>
+        <v>17.5</v>
       </c>
       <c r="Y22" t="n">
-        <v>7.4</v>
+        <v>980</v>
       </c>
       <c r="Z22" t="n">
-        <v>14.5</v>
+        <v>980</v>
       </c>
       <c r="AA22" t="n">
+        <v>980</v>
+      </c>
+      <c r="AB22" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AC22" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="AD22" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AE22" t="n">
+        <v>980</v>
+      </c>
+      <c r="AF22" t="n">
+        <v>980</v>
+      </c>
+      <c r="AG22" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH22" t="n">
+        <v>980</v>
+      </c>
+      <c r="AI22" t="n">
+        <v>980</v>
+      </c>
+      <c r="AJ22" t="n">
         <v>40</v>
       </c>
-      <c r="AB22" t="n">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="AC22" t="n">
-        <v>7</v>
-      </c>
-      <c r="AD22" t="n">
-        <v>13</v>
-      </c>
-      <c r="AE22" t="n">
-        <v>40</v>
-      </c>
-      <c r="AF22" t="n">
-        <v>22</v>
-      </c>
-      <c r="AG22" t="n">
-        <v>16</v>
-      </c>
-      <c r="AH22" t="n">
-        <v>32</v>
-      </c>
-      <c r="AI22" t="n">
-        <v>75</v>
-      </c>
-      <c r="AJ22" t="n">
+      <c r="AK22" t="n">
+        <v>980</v>
+      </c>
+      <c r="AL22" t="n">
+        <v>980</v>
+      </c>
+      <c r="AM22" t="n">
         <v>80</v>
       </c>
-      <c r="AK22" t="n">
-        <v>60</v>
-      </c>
-      <c r="AL22" t="n">
-        <v>90</v>
-      </c>
-      <c r="AM22" t="n">
-        <v>980</v>
-      </c>
       <c r="AN22" t="n">
-        <v>85</v>
+        <v>1000</v>
       </c>
       <c r="AO22" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Spanish Segunda Division</t>
+          <t>Portuguese Segunda Liga</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -3488,120 +3488,120 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>14:30:00</t>
+          <t>15:00:00</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Cordoba</t>
+          <t>Leixoes</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Deportivo</t>
+          <t>Chaves</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>2.46</v>
+        <v>3.1</v>
       </c>
       <c r="G23" t="n">
-        <v>2.6</v>
+        <v>3.8</v>
       </c>
       <c r="H23" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="I23" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="J23" t="n">
         <v>3.05</v>
       </c>
-      <c r="I23" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="J23" t="n">
-        <v>3.4</v>
-      </c>
       <c r="K23" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="L23" t="n">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="M23" t="n">
-        <v>1.06</v>
+        <v>1.09</v>
       </c>
       <c r="N23" t="n">
-        <v>4.1</v>
+        <v>2.98</v>
       </c>
       <c r="O23" t="n">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="P23" t="n">
-        <v>2.12</v>
+        <v>1.66</v>
       </c>
       <c r="Q23" t="n">
-        <v>1.84</v>
+        <v>2.24</v>
       </c>
       <c r="R23" t="n">
-        <v>1.4</v>
+        <v>1.25</v>
       </c>
       <c r="S23" t="n">
-        <v>3.15</v>
+        <v>3.75</v>
       </c>
       <c r="T23" t="n">
-        <v>1.65</v>
+        <v>1.76</v>
       </c>
       <c r="U23" t="n">
-        <v>2.44</v>
+        <v>1.78</v>
       </c>
       <c r="V23" t="n">
-        <v>1.45</v>
+        <v>1.59</v>
       </c>
       <c r="W23" t="n">
-        <v>1.62</v>
+        <v>1.37</v>
       </c>
       <c r="X23" t="n">
-        <v>17.5</v>
+        <v>13</v>
       </c>
       <c r="Y23" t="n">
-        <v>980</v>
+        <v>11</v>
       </c>
       <c r="Z23" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AA23" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AB23" t="n">
-        <v>12.5</v>
+        <v>13.5</v>
       </c>
       <c r="AC23" t="n">
-        <v>8.4</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD23" t="n">
-        <v>13.5</v>
+        <v>14.5</v>
       </c>
       <c r="AE23" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AF23" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AG23" t="n">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="AH23" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AI23" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AJ23" t="n">
-        <v>40</v>
+        <v>1000</v>
       </c>
       <c r="AK23" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AL23" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AM23" t="n">
-        <v>80</v>
+        <v>1000</v>
       </c>
       <c r="AN23" t="n">
         <v>1000</v>
@@ -3613,7 +3613,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Portuguese Segunda Liga</t>
+          <t>Brazilian Serie B</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -3623,126 +3623,126 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>15:00:00</t>
+          <t>16:30:00</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Leixoes</t>
+          <t>Goias</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Chaves</t>
+          <t>Novorizontino</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>3.1</v>
+        <v>2.12</v>
       </c>
       <c r="G24" t="n">
-        <v>3.8</v>
+        <v>2.3</v>
       </c>
       <c r="H24" t="n">
-        <v>2.32</v>
+        <v>3.85</v>
       </c>
       <c r="I24" t="n">
-        <v>2.68</v>
+        <v>4.4</v>
       </c>
       <c r="J24" t="n">
-        <v>3.05</v>
+        <v>3.2</v>
       </c>
       <c r="K24" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="L24" t="n">
-        <v>1.42</v>
+        <v>1.53</v>
       </c>
       <c r="M24" t="n">
-        <v>1.09</v>
+        <v>1.1</v>
       </c>
       <c r="N24" t="n">
-        <v>2.98</v>
+        <v>2.84</v>
       </c>
       <c r="O24" t="n">
-        <v>1.42</v>
+        <v>1.49</v>
       </c>
       <c r="P24" t="n">
-        <v>1.66</v>
+        <v>1.62</v>
       </c>
       <c r="Q24" t="n">
-        <v>2.24</v>
+        <v>2.3</v>
       </c>
       <c r="R24" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="S24" t="n">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="T24" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="U24" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="V24" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="W24" t="n">
         <v>1.76</v>
       </c>
-      <c r="U24" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="V24" t="n">
-        <v>1.59</v>
-      </c>
-      <c r="W24" t="n">
-        <v>1.37</v>
-      </c>
       <c r="X24" t="n">
-        <v>13</v>
+        <v>10.5</v>
       </c>
       <c r="Y24" t="n">
-        <v>11</v>
+        <v>12.5</v>
       </c>
       <c r="Z24" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AA24" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AB24" t="n">
+        <v>8</v>
+      </c>
+      <c r="AC24" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AD24" t="n">
+        <v>18</v>
+      </c>
+      <c r="AE24" t="n">
+        <v>65</v>
+      </c>
+      <c r="AF24" t="n">
         <v>13.5</v>
       </c>
-      <c r="AC24" t="n">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="AD24" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AE24" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF24" t="n">
-        <v>1000</v>
-      </c>
       <c r="AG24" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="AH24" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AI24" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
       <c r="AJ24" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AK24" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AL24" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AM24" t="n">
-        <v>1000</v>
+        <v>190</v>
       </c>
       <c r="AN24" t="n">
-        <v>1000</v>
+        <v>27</v>
       </c>
       <c r="AO24" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
     </row>
     <row r="25">
@@ -3763,121 +3763,121 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Goias</t>
+          <t>Ferroviaria</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Novorizontino</t>
+          <t>Athletico-PR</t>
         </is>
       </c>
       <c r="F25" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="G25" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="H25" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="I25" t="n">
         <v>2.12</v>
       </c>
-      <c r="G25" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="H25" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="I25" t="n">
-        <v>4.5</v>
-      </c>
       <c r="J25" t="n">
-        <v>3.15</v>
+        <v>3.3</v>
       </c>
       <c r="K25" t="n">
-        <v>3.5</v>
+        <v>3.65</v>
       </c>
       <c r="L25" t="n">
-        <v>1.53</v>
+        <v>1.48</v>
       </c>
       <c r="M25" t="n">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="N25" t="n">
-        <v>2.84</v>
+        <v>3.1</v>
       </c>
       <c r="O25" t="n">
-        <v>1.49</v>
+        <v>1.42</v>
       </c>
       <c r="P25" t="n">
-        <v>1.62</v>
+        <v>1.71</v>
       </c>
       <c r="Q25" t="n">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="R25" t="n">
-        <v>1.22</v>
+        <v>1.26</v>
       </c>
       <c r="S25" t="n">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="T25" t="n">
-        <v>1.99</v>
+        <v>1.94</v>
       </c>
       <c r="U25" t="n">
-        <v>1.84</v>
+        <v>1.9</v>
       </c>
       <c r="V25" t="n">
-        <v>1.29</v>
+        <v>1.9</v>
       </c>
       <c r="W25" t="n">
-        <v>1.76</v>
+        <v>1.26</v>
       </c>
       <c r="X25" t="n">
-        <v>10.5</v>
+        <v>12</v>
       </c>
       <c r="Y25" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="Z25" t="n">
         <v>12.5</v>
       </c>
-      <c r="Z25" t="n">
-        <v>980</v>
-      </c>
       <c r="AA25" t="n">
-        <v>120</v>
+        <v>980</v>
       </c>
       <c r="AB25" t="n">
-        <v>8</v>
+        <v>14.5</v>
       </c>
       <c r="AC25" t="n">
-        <v>7.8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD25" t="n">
-        <v>18</v>
+        <v>11.5</v>
       </c>
       <c r="AE25" t="n">
-        <v>65</v>
+        <v>26</v>
       </c>
       <c r="AF25" t="n">
-        <v>13.5</v>
+        <v>980</v>
       </c>
       <c r="AG25" t="n">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="AH25" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AI25" t="n">
+        <v>980</v>
+      </c>
+      <c r="AJ25" t="n">
+        <v>130</v>
+      </c>
+      <c r="AK25" t="n">
         <v>80</v>
       </c>
-      <c r="AJ25" t="n">
-        <v>980</v>
-      </c>
-      <c r="AK25" t="n">
-        <v>980</v>
-      </c>
       <c r="AL25" t="n">
-        <v>55</v>
+        <v>90</v>
       </c>
       <c r="AM25" t="n">
-        <v>190</v>
+        <v>170</v>
       </c>
       <c r="AN25" t="n">
-        <v>27</v>
+        <v>110</v>
       </c>
       <c r="AO25" t="n">
-        <v>110</v>
+        <v>21</v>
       </c>
     </row>
     <row r="26">
@@ -3898,121 +3898,121 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Ferroviaria</t>
+          <t>Criciuma</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Athletico-PR</t>
+          <t>Botafogo SP</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>4.3</v>
+        <v>1.53</v>
       </c>
       <c r="G26" t="n">
-        <v>4.8</v>
+        <v>1.66</v>
       </c>
       <c r="H26" t="n">
-        <v>1.97</v>
+        <v>6.8</v>
       </c>
       <c r="I26" t="n">
-        <v>2.12</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="J26" t="n">
-        <v>3.3</v>
+        <v>3.8</v>
       </c>
       <c r="K26" t="n">
-        <v>3.65</v>
+        <v>4.9</v>
       </c>
       <c r="L26" t="n">
-        <v>1.48</v>
+        <v>1.47</v>
       </c>
       <c r="M26" t="n">
         <v>1.09</v>
       </c>
       <c r="N26" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="O26" t="n">
-        <v>1.42</v>
+        <v>1.41</v>
       </c>
       <c r="P26" t="n">
         <v>1.71</v>
       </c>
       <c r="Q26" t="n">
-        <v>2.2</v>
+        <v>2.16</v>
       </c>
       <c r="R26" t="n">
         <v>1.26</v>
       </c>
       <c r="S26" t="n">
-        <v>4</v>
+        <v>3.65</v>
       </c>
       <c r="T26" t="n">
-        <v>1.94</v>
+        <v>1.99</v>
       </c>
       <c r="U26" t="n">
-        <v>1.9</v>
+        <v>1.6</v>
       </c>
       <c r="V26" t="n">
-        <v>1.9</v>
+        <v>1.14</v>
       </c>
       <c r="W26" t="n">
-        <v>1.26</v>
+        <v>2.5</v>
       </c>
       <c r="X26" t="n">
-        <v>12</v>
+        <v>980</v>
       </c>
       <c r="Y26" t="n">
-        <v>8.199999999999999</v>
+        <v>980</v>
       </c>
       <c r="Z26" t="n">
+        <v>75</v>
+      </c>
+      <c r="AA26" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB26" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AC26" t="n">
+        <v>11</v>
+      </c>
+      <c r="AD26" t="n">
+        <v>980</v>
+      </c>
+      <c r="AE26" t="n">
+        <v>170</v>
+      </c>
+      <c r="AF26" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AG26" t="n">
         <v>12.5</v>
       </c>
-      <c r="AA26" t="n">
-        <v>980</v>
-      </c>
-      <c r="AB26" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AC26" t="n">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="AD26" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AE26" t="n">
-        <v>26</v>
-      </c>
-      <c r="AF26" t="n">
-        <v>980</v>
-      </c>
-      <c r="AG26" t="n">
-        <v>20</v>
-      </c>
       <c r="AH26" t="n">
-        <v>22</v>
+        <v>980</v>
       </c>
       <c r="AI26" t="n">
-        <v>980</v>
+        <v>170</v>
       </c>
       <c r="AJ26" t="n">
-        <v>130</v>
+        <v>980</v>
       </c>
       <c r="AK26" t="n">
-        <v>80</v>
+        <v>980</v>
       </c>
       <c r="AL26" t="n">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="AM26" t="n">
-        <v>170</v>
+        <v>1000</v>
       </c>
       <c r="AN26" t="n">
-        <v>110</v>
+        <v>980</v>
       </c>
       <c r="AO26" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="27">
@@ -4033,103 +4033,103 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Criciuma</t>
+          <t>America MG</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Botafogo SP</t>
+          <t>Cuiaba</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>1.57</v>
+        <v>1.91</v>
       </c>
       <c r="G27" t="n">
-        <v>1.68</v>
+        <v>2.08</v>
       </c>
       <c r="H27" t="n">
-        <v>6</v>
+        <v>4.2</v>
       </c>
       <c r="I27" t="n">
-        <v>9.6</v>
+        <v>4.8</v>
       </c>
       <c r="J27" t="n">
-        <v>3.75</v>
+        <v>3.35</v>
       </c>
       <c r="K27" t="n">
-        <v>4.8</v>
+        <v>3.85</v>
       </c>
       <c r="L27" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="M27" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="N27" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="O27" t="n">
         <v>1.45</v>
       </c>
-      <c r="M27" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="N27" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="O27" t="n">
-        <v>1.41</v>
-      </c>
       <c r="P27" t="n">
-        <v>1.71</v>
+        <v>1.65</v>
       </c>
       <c r="Q27" t="n">
-        <v>2.16</v>
+        <v>2.1</v>
       </c>
       <c r="R27" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="S27" t="n">
+        <v>4</v>
+      </c>
+      <c r="T27" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="U27" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="V27" t="n">
         <v>1.26</v>
       </c>
-      <c r="S27" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="T27" t="n">
-        <v>1.99</v>
-      </c>
-      <c r="U27" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="V27" t="n">
-        <v>1.14</v>
-      </c>
       <c r="W27" t="n">
-        <v>2.46</v>
+        <v>1.92</v>
       </c>
       <c r="X27" t="n">
-        <v>980</v>
+        <v>970</v>
       </c>
       <c r="Y27" t="n">
         <v>980</v>
       </c>
       <c r="Z27" t="n">
-        <v>75</v>
+        <v>980</v>
       </c>
       <c r="AA27" t="n">
-        <v>1000</v>
+        <v>140</v>
       </c>
       <c r="AB27" t="n">
-        <v>7.8</v>
+        <v>980</v>
       </c>
       <c r="AC27" t="n">
-        <v>11</v>
+        <v>980</v>
       </c>
       <c r="AD27" t="n">
         <v>980</v>
       </c>
       <c r="AE27" t="n">
-        <v>170</v>
+        <v>85</v>
       </c>
       <c r="AF27" t="n">
-        <v>10.5</v>
+        <v>980</v>
       </c>
       <c r="AG27" t="n">
-        <v>12.5</v>
+        <v>980</v>
       </c>
       <c r="AH27" t="n">
         <v>980</v>
       </c>
       <c r="AI27" t="n">
-        <v>170</v>
+        <v>100</v>
       </c>
       <c r="AJ27" t="n">
         <v>980</v>
@@ -4138,7 +4138,7 @@
         <v>980</v>
       </c>
       <c r="AL27" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AM27" t="n">
         <v>1000</v>
@@ -4147,13 +4147,13 @@
         <v>980</v>
       </c>
       <c r="AO27" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Brazilian Serie B</t>
+          <t>Argentinian Primera Division</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -4163,132 +4163,132 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>16:30:00</t>
+          <t>17:00:00</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>America MG</t>
+          <t>Instituto</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Cuiaba</t>
+          <t>Talleres</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>1.95</v>
+        <v>3.25</v>
       </c>
       <c r="G28" t="n">
-        <v>2.12</v>
+        <v>3.55</v>
       </c>
       <c r="H28" t="n">
-        <v>4.1</v>
+        <v>2.44</v>
       </c>
       <c r="I28" t="n">
-        <v>4.8</v>
+        <v>2.62</v>
       </c>
       <c r="J28" t="n">
-        <v>3.35</v>
+        <v>3</v>
       </c>
       <c r="K28" t="n">
-        <v>3.9</v>
+        <v>3.3</v>
       </c>
       <c r="L28" t="n">
-        <v>1.5</v>
+        <v>1.01</v>
       </c>
       <c r="M28" t="n">
-        <v>1.1</v>
+        <v>1.13</v>
       </c>
       <c r="N28" t="n">
-        <v>2.88</v>
+        <v>2.44</v>
       </c>
       <c r="O28" t="n">
-        <v>1.45</v>
+        <v>1.59</v>
       </c>
       <c r="P28" t="n">
-        <v>1.65</v>
+        <v>1.51</v>
       </c>
       <c r="Q28" t="n">
-        <v>2.1</v>
+        <v>2.72</v>
       </c>
       <c r="R28" t="n">
-        <v>1.23</v>
+        <v>1.17</v>
       </c>
       <c r="S28" t="n">
-        <v>4</v>
+        <v>5.9</v>
       </c>
       <c r="T28" t="n">
-        <v>2.04</v>
+        <v>2.2</v>
       </c>
       <c r="U28" t="n">
-        <v>1.81</v>
+        <v>1.71</v>
       </c>
       <c r="V28" t="n">
-        <v>1.26</v>
+        <v>1.61</v>
       </c>
       <c r="W28" t="n">
-        <v>1.89</v>
+        <v>1.39</v>
       </c>
       <c r="X28" t="n">
-        <v>970</v>
+        <v>8.6</v>
       </c>
       <c r="Y28" t="n">
-        <v>980</v>
+        <v>7.4</v>
       </c>
       <c r="Z28" t="n">
-        <v>980</v>
+        <v>15.5</v>
       </c>
       <c r="AA28" t="n">
-        <v>140</v>
+        <v>980</v>
       </c>
       <c r="AB28" t="n">
-        <v>980</v>
+        <v>9.6</v>
       </c>
       <c r="AC28" t="n">
-        <v>980</v>
+        <v>7.8</v>
       </c>
       <c r="AD28" t="n">
-        <v>980</v>
+        <v>14</v>
       </c>
       <c r="AE28" t="n">
-        <v>85</v>
+        <v>980</v>
       </c>
       <c r="AF28" t="n">
         <v>980</v>
       </c>
       <c r="AG28" t="n">
-        <v>980</v>
+        <v>17.5</v>
       </c>
       <c r="AH28" t="n">
         <v>980</v>
       </c>
       <c r="AI28" t="n">
+        <v>70</v>
+      </c>
+      <c r="AJ28" t="n">
+        <v>75</v>
+      </c>
+      <c r="AK28" t="n">
+        <v>60</v>
+      </c>
+      <c r="AL28" t="n">
         <v>100</v>
       </c>
-      <c r="AJ28" t="n">
-        <v>980</v>
-      </c>
-      <c r="AK28" t="n">
-        <v>980</v>
-      </c>
-      <c r="AL28" t="n">
-        <v>55</v>
-      </c>
       <c r="AM28" t="n">
-        <v>1000</v>
+        <v>270</v>
       </c>
       <c r="AN28" t="n">
-        <v>980</v>
+        <v>95</v>
       </c>
       <c r="AO28" t="n">
-        <v>120</v>
+        <v>60</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Spanish Segunda Division</t>
+          <t>Argentinian Primera Division</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -4303,127 +4303,127 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Zaragoza</t>
+          <t>Velez Sarsfield</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Huesca</t>
+          <t>River Plate</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>2.32</v>
+        <v>3.65</v>
       </c>
       <c r="G29" t="n">
-        <v>2.44</v>
+        <v>4.2</v>
       </c>
       <c r="H29" t="n">
-        <v>3.8</v>
+        <v>2.24</v>
       </c>
       <c r="I29" t="n">
-        <v>4.1</v>
+        <v>2.48</v>
       </c>
       <c r="J29" t="n">
-        <v>3.05</v>
+        <v>2.98</v>
       </c>
       <c r="K29" t="n">
-        <v>3.15</v>
+        <v>3.35</v>
       </c>
       <c r="L29" t="n">
-        <v>1.56</v>
+        <v>1.01</v>
       </c>
       <c r="M29" t="n">
         <v>1.13</v>
       </c>
       <c r="N29" t="n">
-        <v>2.52</v>
+        <v>2.48</v>
       </c>
       <c r="O29" t="n">
-        <v>1.57</v>
+        <v>1.58</v>
       </c>
       <c r="P29" t="n">
-        <v>1.52</v>
+        <v>1.5</v>
       </c>
       <c r="Q29" t="n">
-        <v>2.7</v>
+        <v>2.68</v>
       </c>
       <c r="R29" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="S29" t="n">
-        <v>5.7</v>
+        <v>5.1</v>
       </c>
       <c r="T29" t="n">
         <v>2.16</v>
       </c>
       <c r="U29" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="V29" t="n">
-        <v>1.33</v>
+        <v>1.67</v>
       </c>
       <c r="W29" t="n">
-        <v>1.7</v>
+        <v>1.32</v>
       </c>
       <c r="X29" t="n">
-        <v>8.4</v>
+        <v>980</v>
       </c>
       <c r="Y29" t="n">
-        <v>10.5</v>
+        <v>7.4</v>
       </c>
       <c r="Z29" t="n">
-        <v>26</v>
+        <v>980</v>
       </c>
       <c r="AA29" t="n">
-        <v>90</v>
+        <v>980</v>
       </c>
       <c r="AB29" t="n">
-        <v>7.2</v>
+        <v>980</v>
       </c>
       <c r="AC29" t="n">
-        <v>7</v>
+        <v>980</v>
       </c>
       <c r="AD29" t="n">
-        <v>17.5</v>
+        <v>980</v>
       </c>
       <c r="AE29" t="n">
-        <v>70</v>
+        <v>980</v>
       </c>
       <c r="AF29" t="n">
-        <v>13</v>
+        <v>980</v>
       </c>
       <c r="AG29" t="n">
-        <v>12.5</v>
+        <v>980</v>
       </c>
       <c r="AH29" t="n">
-        <v>30</v>
+        <v>980</v>
       </c>
       <c r="AI29" t="n">
+        <v>85</v>
+      </c>
+      <c r="AJ29" t="n">
         <v>110</v>
       </c>
-      <c r="AJ29" t="n">
-        <v>34</v>
-      </c>
       <c r="AK29" t="n">
-        <v>36</v>
+        <v>80</v>
       </c>
       <c r="AL29" t="n">
-        <v>80</v>
+        <v>110</v>
       </c>
       <c r="AM29" t="n">
-        <v>210</v>
+        <v>1000</v>
       </c>
       <c r="AN29" t="n">
-        <v>38</v>
+        <v>130</v>
       </c>
       <c r="AO29" t="n">
-        <v>100</v>
+        <v>980</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Argentinian Primera Division</t>
+          <t>Spanish Segunda Division</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -4438,127 +4438,127 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Velez Sarsfield</t>
+          <t>Zaragoza</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>River Plate</t>
+          <t>Huesca</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>3.65</v>
+        <v>2.34</v>
       </c>
       <c r="G30" t="n">
-        <v>4.2</v>
+        <v>2.42</v>
       </c>
       <c r="H30" t="n">
-        <v>2.24</v>
+        <v>3.75</v>
       </c>
       <c r="I30" t="n">
-        <v>2.48</v>
+        <v>4</v>
       </c>
       <c r="J30" t="n">
-        <v>2.98</v>
+        <v>3.05</v>
       </c>
       <c r="K30" t="n">
-        <v>3.35</v>
+        <v>3.15</v>
       </c>
       <c r="L30" t="n">
-        <v>1.01</v>
+        <v>1.56</v>
       </c>
       <c r="M30" t="n">
         <v>1.13</v>
       </c>
       <c r="N30" t="n">
-        <v>2.48</v>
+        <v>2.54</v>
       </c>
       <c r="O30" t="n">
-        <v>1.58</v>
+        <v>1.57</v>
       </c>
       <c r="P30" t="n">
-        <v>1.5</v>
+        <v>1.52</v>
       </c>
       <c r="Q30" t="n">
-        <v>2.66</v>
+        <v>2.7</v>
       </c>
       <c r="R30" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="S30" t="n">
-        <v>5.1</v>
+        <v>5.7</v>
       </c>
       <c r="T30" t="n">
         <v>2.16</v>
       </c>
       <c r="U30" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="V30" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="W30" t="n">
         <v>1.7</v>
       </c>
-      <c r="V30" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="W30" t="n">
-        <v>1.32</v>
-      </c>
       <c r="X30" t="n">
-        <v>980</v>
+        <v>8.4</v>
       </c>
       <c r="Y30" t="n">
-        <v>7.4</v>
+        <v>10.5</v>
       </c>
       <c r="Z30" t="n">
-        <v>980</v>
+        <v>26</v>
       </c>
       <c r="AA30" t="n">
-        <v>980</v>
+        <v>90</v>
       </c>
       <c r="AB30" t="n">
-        <v>980</v>
+        <v>7.2</v>
       </c>
       <c r="AC30" t="n">
-        <v>980</v>
+        <v>7</v>
       </c>
       <c r="AD30" t="n">
-        <v>980</v>
+        <v>17.5</v>
       </c>
       <c r="AE30" t="n">
-        <v>980</v>
+        <v>65</v>
       </c>
       <c r="AF30" t="n">
-        <v>980</v>
+        <v>13</v>
       </c>
       <c r="AG30" t="n">
-        <v>980</v>
+        <v>12.5</v>
       </c>
       <c r="AH30" t="n">
-        <v>980</v>
+        <v>30</v>
       </c>
       <c r="AI30" t="n">
-        <v>85</v>
+        <v>110</v>
       </c>
       <c r="AJ30" t="n">
-        <v>110</v>
+        <v>34</v>
       </c>
       <c r="AK30" t="n">
+        <v>36</v>
+      </c>
+      <c r="AL30" t="n">
         <v>80</v>
       </c>
-      <c r="AL30" t="n">
-        <v>110</v>
-      </c>
       <c r="AM30" t="n">
-        <v>1000</v>
+        <v>210</v>
       </c>
       <c r="AN30" t="n">
-        <v>130</v>
+        <v>38</v>
       </c>
       <c r="AO30" t="n">
-        <v>980</v>
+        <v>95</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Argentinian Primera Division</t>
+          <t>Uruguayan Primera Division</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -4568,132 +4568,132 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>17:00:00</t>
+          <t>18:00:00</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Instituto</t>
+          <t>Liverpool Montevideo</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Talleres</t>
+          <t>Penarol</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>3.15</v>
+        <v>3.75</v>
       </c>
       <c r="G31" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="H31" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="I31" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="J31" t="n">
         <v>3.5</v>
       </c>
-      <c r="H31" t="n">
-        <v>2.46</v>
-      </c>
-      <c r="I31" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="J31" t="n">
-        <v>3</v>
-      </c>
       <c r="K31" t="n">
-        <v>3.3</v>
+        <v>4.5</v>
       </c>
       <c r="L31" t="n">
-        <v>1.01</v>
+        <v>1.34</v>
       </c>
       <c r="M31" t="n">
-        <v>1.13</v>
+        <v>1.08</v>
       </c>
       <c r="N31" t="n">
-        <v>2.46</v>
+        <v>1.81</v>
       </c>
       <c r="O31" t="n">
-        <v>1.59</v>
+        <v>1.35</v>
       </c>
       <c r="P31" t="n">
-        <v>1.51</v>
+        <v>1.8</v>
       </c>
       <c r="Q31" t="n">
-        <v>2.72</v>
+        <v>2.02</v>
       </c>
       <c r="R31" t="n">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="S31" t="n">
-        <v>5.9</v>
+        <v>2.02</v>
       </c>
       <c r="T31" t="n">
-        <v>2.2</v>
+        <v>1.72</v>
       </c>
       <c r="U31" t="n">
-        <v>1.71</v>
+        <v>1.81</v>
       </c>
       <c r="V31" t="n">
-        <v>1.6</v>
+        <v>1.92</v>
       </c>
       <c r="W31" t="n">
-        <v>1.4</v>
+        <v>1.25</v>
       </c>
       <c r="X31" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="Y31" t="n">
-        <v>7.4</v>
+        <v>10.5</v>
       </c>
       <c r="Z31" t="n">
-        <v>15.5</v>
+        <v>14.5</v>
       </c>
       <c r="AA31" t="n">
-        <v>980</v>
+        <v>28</v>
       </c>
       <c r="AB31" t="n">
-        <v>9.6</v>
+        <v>18</v>
       </c>
       <c r="AC31" t="n">
-        <v>7.8</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AD31" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AE31" t="n">
-        <v>980</v>
+        <v>23</v>
       </c>
       <c r="AF31" t="n">
-        <v>980</v>
+        <v>42</v>
       </c>
       <c r="AG31" t="n">
-        <v>17.5</v>
+        <v>22</v>
       </c>
       <c r="AH31" t="n">
-        <v>980</v>
+        <v>24</v>
       </c>
       <c r="AI31" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="AJ31" t="n">
-        <v>75</v>
+        <v>1000</v>
       </c>
       <c r="AK31" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AL31" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AM31" t="n">
-        <v>270</v>
+        <v>1000</v>
       </c>
       <c r="AN31" t="n">
-        <v>95</v>
+        <v>1000</v>
       </c>
       <c r="AO31" t="n">
-        <v>60</v>
+        <v>19.5</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Uruguayan Primera Division</t>
+          <t>Brazilian Serie A</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -4703,132 +4703,132 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>18:00:00</t>
+          <t>19:00:00</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Liverpool Montevideo</t>
+          <t>Red Bull Bragantino</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Penarol</t>
+          <t>Atletico MG</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>3.65</v>
+        <v>2.24</v>
       </c>
       <c r="G32" t="n">
-        <v>5.6</v>
+        <v>2.32</v>
       </c>
       <c r="H32" t="n">
-        <v>1.8</v>
+        <v>3.75</v>
       </c>
       <c r="I32" t="n">
-        <v>2.24</v>
+        <v>4.1</v>
       </c>
       <c r="J32" t="n">
-        <v>3.3</v>
+        <v>3.15</v>
       </c>
       <c r="K32" t="n">
-        <v>980</v>
+        <v>3.4</v>
       </c>
       <c r="L32" t="n">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="M32" t="n">
-        <v>1.01</v>
+        <v>1.1</v>
       </c>
       <c r="N32" t="n">
-        <v>1.76</v>
+        <v>2.98</v>
       </c>
       <c r="O32" t="n">
-        <v>1.01</v>
+        <v>1.44</v>
       </c>
       <c r="P32" t="n">
-        <v>1.76</v>
+        <v>1.67</v>
       </c>
       <c r="Q32" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="R32" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="S32" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="T32" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="U32" t="n">
         <v>1.89</v>
       </c>
-      <c r="R32" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="S32" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="T32" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="U32" t="n">
-        <v>1.01</v>
-      </c>
       <c r="V32" t="n">
-        <v>1.8</v>
+        <v>1.32</v>
       </c>
       <c r="W32" t="n">
-        <v>1.21</v>
+        <v>1.75</v>
       </c>
       <c r="X32" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="Y32" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="Z32" t="n">
-        <v>1000</v>
+        <v>29</v>
       </c>
       <c r="AA32" t="n">
-        <v>1000</v>
+        <v>95</v>
       </c>
       <c r="AB32" t="n">
-        <v>1000</v>
+        <v>8.4</v>
       </c>
       <c r="AC32" t="n">
-        <v>1000</v>
+        <v>7.8</v>
       </c>
       <c r="AD32" t="n">
-        <v>1000</v>
+        <v>17.5</v>
       </c>
       <c r="AE32" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AF32" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="AG32" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="AH32" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AI32" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AJ32" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AK32" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AL32" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AM32" t="n">
-        <v>1000</v>
+        <v>170</v>
       </c>
       <c r="AN32" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AO32" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Brazilian Serie A</t>
+          <t>US USL League One</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -4843,121 +4843,121 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Red Bull Bragantino</t>
+          <t>One Knoxville SC</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Atletico MG</t>
+          <t>Spokane Velocity FC</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>2.24</v>
+        <v>2.14</v>
       </c>
       <c r="G33" t="n">
-        <v>2.28</v>
+        <v>2.96</v>
       </c>
       <c r="H33" t="n">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="I33" t="n">
-        <v>4.1</v>
+        <v>5.5</v>
       </c>
       <c r="J33" t="n">
-        <v>3.25</v>
+        <v>2.36</v>
       </c>
       <c r="K33" t="n">
-        <v>3.45</v>
+        <v>4.4</v>
       </c>
       <c r="L33" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="M33" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N33" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="O33" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="P33" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="R33" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="S33" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="T33" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="U33" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="V33" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="W33" t="n">
         <v>1.51</v>
       </c>
-      <c r="M33" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="N33" t="n">
-        <v>2.96</v>
-      </c>
-      <c r="O33" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="P33" t="n">
-        <v>1.64</v>
-      </c>
-      <c r="Q33" t="n">
-        <v>2.28</v>
-      </c>
-      <c r="R33" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="S33" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="T33" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="U33" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="V33" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="W33" t="n">
-        <v>1.78</v>
-      </c>
       <c r="X33" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="Y33" t="n">
-        <v>12.5</v>
+        <v>1000</v>
       </c>
       <c r="Z33" t="n">
-        <v>29</v>
+        <v>1000</v>
       </c>
       <c r="AA33" t="n">
-        <v>95</v>
+        <v>1000</v>
       </c>
       <c r="AB33" t="n">
-        <v>8.4</v>
+        <v>1000</v>
       </c>
       <c r="AC33" t="n">
-        <v>7.8</v>
+        <v>1000</v>
       </c>
       <c r="AD33" t="n">
-        <v>17.5</v>
+        <v>1000</v>
       </c>
       <c r="AE33" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AF33" t="n">
-        <v>14</v>
+        <v>1000</v>
       </c>
       <c r="AG33" t="n">
-        <v>12</v>
+        <v>1000</v>
       </c>
       <c r="AH33" t="n">
-        <v>22</v>
+        <v>1000</v>
       </c>
       <c r="AI33" t="n">
-        <v>75</v>
+        <v>1000</v>
       </c>
       <c r="AJ33" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AK33" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AL33" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AM33" t="n">
-        <v>170</v>
+        <v>1000</v>
       </c>
       <c r="AN33" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AO33" t="n">
-        <v>80</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="34">
@@ -4978,121 +4978,121 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Estudiantes</t>
+          <t>Newells</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Argentinos Juniors</t>
+          <t>Racing Club</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>2.64</v>
+        <v>4</v>
       </c>
       <c r="G34" t="n">
-        <v>2.68</v>
+        <v>4.5</v>
       </c>
       <c r="H34" t="n">
-        <v>3.15</v>
+        <v>2.06</v>
       </c>
       <c r="I34" t="n">
-        <v>3.4</v>
+        <v>2.2</v>
       </c>
       <c r="J34" t="n">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="K34" t="n">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="L34" t="n">
-        <v>1.01</v>
+        <v>1.51</v>
       </c>
       <c r="M34" t="n">
-        <v>1.13</v>
+        <v>1.1</v>
       </c>
       <c r="N34" t="n">
-        <v>2.34</v>
+        <v>2.96</v>
       </c>
       <c r="O34" t="n">
-        <v>1.63</v>
+        <v>1.45</v>
       </c>
       <c r="P34" t="n">
-        <v>1.45</v>
+        <v>1.66</v>
       </c>
       <c r="Q34" t="n">
-        <v>2.8</v>
+        <v>2.08</v>
       </c>
       <c r="R34" t="n">
-        <v>1.15</v>
+        <v>1.24</v>
       </c>
       <c r="S34" t="n">
-        <v>6.2</v>
+        <v>4.4</v>
       </c>
       <c r="T34" t="n">
-        <v>2.2</v>
+        <v>1.97</v>
       </c>
       <c r="U34" t="n">
-        <v>1.7</v>
+        <v>1.87</v>
       </c>
       <c r="V34" t="n">
-        <v>1.41</v>
+        <v>1.83</v>
       </c>
       <c r="W34" t="n">
-        <v>1.59</v>
+        <v>1.28</v>
       </c>
       <c r="X34" t="n">
-        <v>8</v>
+        <v>980</v>
       </c>
       <c r="Y34" t="n">
-        <v>8.800000000000001</v>
+        <v>980</v>
       </c>
       <c r="Z34" t="n">
-        <v>21</v>
+        <v>980</v>
       </c>
       <c r="AA34" t="n">
+        <v>980</v>
+      </c>
+      <c r="AB34" t="n">
+        <v>980</v>
+      </c>
+      <c r="AC34" t="n">
+        <v>980</v>
+      </c>
+      <c r="AD34" t="n">
+        <v>980</v>
+      </c>
+      <c r="AE34" t="n">
+        <v>980</v>
+      </c>
+      <c r="AF34" t="n">
+        <v>980</v>
+      </c>
+      <c r="AG34" t="n">
+        <v>980</v>
+      </c>
+      <c r="AH34" t="n">
+        <v>980</v>
+      </c>
+      <c r="AI34" t="n">
+        <v>980</v>
+      </c>
+      <c r="AJ34" t="n">
+        <v>120</v>
+      </c>
+      <c r="AK34" t="n">
         <v>70</v>
       </c>
-      <c r="AB34" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="AC34" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="AD34" t="n">
-        <v>16</v>
-      </c>
-      <c r="AE34" t="n">
-        <v>65</v>
-      </c>
-      <c r="AF34" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AG34" t="n">
-        <v>14</v>
-      </c>
-      <c r="AH34" t="n">
-        <v>28</v>
-      </c>
-      <c r="AI34" t="n">
-        <v>90</v>
-      </c>
-      <c r="AJ34" t="n">
-        <v>55</v>
-      </c>
-      <c r="AK34" t="n">
-        <v>980</v>
-      </c>
       <c r="AL34" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="AM34" t="n">
-        <v>250</v>
+        <v>180</v>
       </c>
       <c r="AN34" t="n">
-        <v>60</v>
+        <v>110</v>
       </c>
       <c r="AO34" t="n">
-        <v>85</v>
+        <v>980</v>
       </c>
     </row>
     <row r="35">
@@ -5113,31 +5113,31 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Central Cordoba (SdE)</t>
+          <t>Estudiantes</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Banfield</t>
+          <t>Argentinos Juniors</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>2.66</v>
+        <v>2.64</v>
       </c>
       <c r="G35" t="n">
-        <v>2.8</v>
+        <v>2.68</v>
       </c>
       <c r="H35" t="n">
-        <v>3.35</v>
+        <v>3.15</v>
       </c>
       <c r="I35" t="n">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="J35" t="n">
-        <v>2.92</v>
+        <v>3</v>
       </c>
       <c r="K35" t="n">
-        <v>2.96</v>
+        <v>3.25</v>
       </c>
       <c r="L35" t="n">
         <v>1.01</v>
@@ -5146,88 +5146,88 @@
         <v>1.13</v>
       </c>
       <c r="N35" t="n">
-        <v>2.5</v>
+        <v>2.34</v>
       </c>
       <c r="O35" t="n">
-        <v>1.57</v>
+        <v>1.63</v>
       </c>
       <c r="P35" t="n">
-        <v>1.46</v>
+        <v>1.45</v>
       </c>
       <c r="Q35" t="n">
-        <v>2.84</v>
+        <v>2.88</v>
       </c>
       <c r="R35" t="n">
-        <v>1.17</v>
+        <v>1.15</v>
       </c>
       <c r="S35" t="n">
-        <v>5.5</v>
+        <v>6.2</v>
       </c>
       <c r="T35" t="n">
-        <v>1.98</v>
+        <v>2.2</v>
       </c>
       <c r="U35" t="n">
-        <v>1.66</v>
+        <v>1.7</v>
       </c>
       <c r="V35" t="n">
-        <v>1.39</v>
+        <v>1.41</v>
       </c>
       <c r="W35" t="n">
-        <v>1.56</v>
+        <v>1.59</v>
       </c>
       <c r="X35" t="n">
-        <v>7.4</v>
+        <v>8</v>
       </c>
       <c r="Y35" t="n">
-        <v>9.4</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="Z35" t="n">
         <v>21</v>
       </c>
       <c r="AA35" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AB35" t="n">
-        <v>9.199999999999999</v>
+        <v>7.8</v>
       </c>
       <c r="AC35" t="n">
-        <v>6.6</v>
+        <v>7.4</v>
       </c>
       <c r="AD35" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AE35" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AF35" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AG35" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AH35" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AI35" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="AJ35" t="n">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="AK35" t="n">
-        <v>48</v>
+        <v>980</v>
       </c>
       <c r="AL35" t="n">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="AM35" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="AN35" t="n">
         <v>60</v>
       </c>
       <c r="AO35" t="n">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="36">
@@ -5248,121 +5248,121 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Boca Juniors</t>
+          <t>Central Cordoba (SdE)</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Tigre</t>
+          <t>Banfield</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>1.74</v>
+        <v>2.6</v>
       </c>
       <c r="G36" t="n">
-        <v>1.84</v>
+        <v>2.66</v>
       </c>
       <c r="H36" t="n">
-        <v>6.4</v>
+        <v>3.5</v>
       </c>
       <c r="I36" t="n">
-        <v>7.4</v>
+        <v>3.6</v>
       </c>
       <c r="J36" t="n">
-        <v>3.25</v>
+        <v>2.96</v>
       </c>
       <c r="K36" t="n">
-        <v>3.6</v>
+        <v>2.98</v>
       </c>
       <c r="L36" t="n">
-        <v>1.58</v>
+        <v>1.01</v>
       </c>
       <c r="M36" t="n">
-        <v>1.12</v>
+        <v>1.14</v>
       </c>
       <c r="N36" t="n">
-        <v>2.58</v>
+        <v>2.48</v>
       </c>
       <c r="O36" t="n">
-        <v>1.55</v>
+        <v>1.63</v>
       </c>
       <c r="P36" t="n">
-        <v>1.53</v>
+        <v>1.46</v>
       </c>
       <c r="Q36" t="n">
-        <v>2.62</v>
+        <v>2.9</v>
       </c>
       <c r="R36" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="S36" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="T36" t="n">
-        <v>2.38</v>
+        <v>2.24</v>
       </c>
       <c r="U36" t="n">
-        <v>1.63</v>
+        <v>1.68</v>
       </c>
       <c r="V36" t="n">
-        <v>1.16</v>
+        <v>1.38</v>
       </c>
       <c r="W36" t="n">
-        <v>2.18</v>
+        <v>1.6</v>
       </c>
       <c r="X36" t="n">
-        <v>9</v>
+        <v>7.6</v>
       </c>
       <c r="Y36" t="n">
-        <v>17.5</v>
+        <v>9.4</v>
       </c>
       <c r="Z36" t="n">
-        <v>55</v>
+        <v>21</v>
       </c>
       <c r="AA36" t="n">
-        <v>310</v>
+        <v>75</v>
       </c>
       <c r="AB36" t="n">
-        <v>5.9</v>
+        <v>7.8</v>
       </c>
       <c r="AC36" t="n">
-        <v>9</v>
+        <v>6.6</v>
       </c>
       <c r="AD36" t="n">
-        <v>980</v>
+        <v>17</v>
       </c>
       <c r="AE36" t="n">
-        <v>180</v>
+        <v>65</v>
       </c>
       <c r="AF36" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="AG36" t="n">
-        <v>11.5</v>
+        <v>14</v>
       </c>
       <c r="AH36" t="n">
-        <v>980</v>
+        <v>28</v>
       </c>
       <c r="AI36" t="n">
-        <v>200</v>
+        <v>110</v>
       </c>
       <c r="AJ36" t="n">
-        <v>24</v>
+        <v>46</v>
       </c>
       <c r="AK36" t="n">
-        <v>980</v>
+        <v>48</v>
       </c>
       <c r="AL36" t="n">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="AM36" t="n">
-        <v>340</v>
+        <v>240</v>
       </c>
       <c r="AN36" t="n">
-        <v>21</v>
+        <v>50</v>
       </c>
       <c r="AO36" t="n">
-        <v>360</v>
+        <v>95</v>
       </c>
     </row>
     <row r="37">
@@ -5383,121 +5383,121 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Newells</t>
+          <t>Boca Juniors</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Racing Club</t>
+          <t>Tigre</t>
         </is>
       </c>
       <c r="F37" t="n">
-        <v>4</v>
+        <v>1.76</v>
       </c>
       <c r="G37" t="n">
-        <v>4.6</v>
+        <v>1.84</v>
       </c>
       <c r="H37" t="n">
-        <v>2.06</v>
+        <v>6.4</v>
       </c>
       <c r="I37" t="n">
-        <v>2.22</v>
+        <v>7.4</v>
       </c>
       <c r="J37" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="K37" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="L37" t="n">
-        <v>1.51</v>
+        <v>1.58</v>
       </c>
       <c r="M37" t="n">
-        <v>1.1</v>
+        <v>1.12</v>
       </c>
       <c r="N37" t="n">
-        <v>2.96</v>
+        <v>2.58</v>
       </c>
       <c r="O37" t="n">
-        <v>1.45</v>
+        <v>1.55</v>
       </c>
       <c r="P37" t="n">
-        <v>1.66</v>
+        <v>1.53</v>
       </c>
       <c r="Q37" t="n">
-        <v>2.08</v>
+        <v>2.62</v>
       </c>
       <c r="R37" t="n">
-        <v>1.24</v>
+        <v>1.18</v>
       </c>
       <c r="S37" t="n">
-        <v>4.4</v>
+        <v>5.5</v>
       </c>
       <c r="T37" t="n">
-        <v>1.97</v>
+        <v>2.38</v>
       </c>
       <c r="U37" t="n">
-        <v>1.87</v>
+        <v>1.63</v>
       </c>
       <c r="V37" t="n">
-        <v>1.83</v>
+        <v>1.16</v>
       </c>
       <c r="W37" t="n">
-        <v>1.28</v>
+        <v>2.16</v>
       </c>
       <c r="X37" t="n">
-        <v>980</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="Y37" t="n">
-        <v>980</v>
+        <v>15.5</v>
       </c>
       <c r="Z37" t="n">
-        <v>980</v>
+        <v>55</v>
       </c>
       <c r="AA37" t="n">
-        <v>980</v>
+        <v>310</v>
       </c>
       <c r="AB37" t="n">
-        <v>980</v>
+        <v>5.9</v>
       </c>
       <c r="AC37" t="n">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="AD37" t="n">
         <v>980</v>
       </c>
       <c r="AE37" t="n">
-        <v>980</v>
+        <v>180</v>
       </c>
       <c r="AF37" t="n">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="AG37" t="n">
-        <v>980</v>
+        <v>11.5</v>
       </c>
       <c r="AH37" t="n">
         <v>980</v>
       </c>
       <c r="AI37" t="n">
-        <v>980</v>
+        <v>200</v>
       </c>
       <c r="AJ37" t="n">
-        <v>120</v>
+        <v>24</v>
       </c>
       <c r="AK37" t="n">
-        <v>70</v>
+        <v>980</v>
       </c>
       <c r="AL37" t="n">
-        <v>95</v>
+        <v>65</v>
       </c>
       <c r="AM37" t="n">
-        <v>180</v>
+        <v>340</v>
       </c>
       <c r="AN37" t="n">
-        <v>110</v>
+        <v>21</v>
       </c>
       <c r="AO37" t="n">
-        <v>980</v>
+        <v>360</v>
       </c>
     </row>
     <row r="38">
@@ -5542,10 +5542,10 @@
         <v>3.15</v>
       </c>
       <c r="K38" t="n">
-        <v>3.65</v>
+        <v>3.95</v>
       </c>
       <c r="L38" t="n">
-        <v>1.33</v>
+        <v>1.35</v>
       </c>
       <c r="M38" t="n">
         <v>1.08</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-11-16.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-11-16.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO38"/>
+  <dimension ref="A1:AO42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -670,25 +670,25 @@
         <v>1.92</v>
       </c>
       <c r="G2" t="n">
-        <v>2.16</v>
+        <v>2.1</v>
       </c>
       <c r="H2" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="I2" t="n">
-        <v>5</v>
+        <v>4.8</v>
       </c>
       <c r="J2" t="n">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="K2" t="n">
-        <v>4.3</v>
+        <v>3.95</v>
       </c>
       <c r="L2" t="n">
         <v>1.35</v>
       </c>
       <c r="M2" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N2" t="n">
         <v>3.05</v>
@@ -700,16 +700,16 @@
         <v>1.82</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.87</v>
+        <v>1.98</v>
       </c>
       <c r="R2" t="n">
         <v>1.31</v>
       </c>
       <c r="S2" t="n">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="T2" t="n">
-        <v>1.69</v>
+        <v>1.82</v>
       </c>
       <c r="U2" t="n">
         <v>1.85</v>
@@ -718,13 +718,13 @@
         <v>1.27</v>
       </c>
       <c r="W2" t="n">
-        <v>1.86</v>
+        <v>1.91</v>
       </c>
       <c r="X2" t="n">
         <v>1000</v>
       </c>
       <c r="Y2" t="n">
-        <v>1000</v>
+        <v>18.5</v>
       </c>
       <c r="Z2" t="n">
         <v>1000</v>
@@ -739,19 +739,19 @@
         <v>1000</v>
       </c>
       <c r="AD2" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AE2" t="n">
         <v>1000</v>
       </c>
       <c r="AF2" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="AG2" t="n">
         <v>1000</v>
       </c>
       <c r="AH2" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="AI2" t="n">
         <v>1000</v>
@@ -769,7 +769,7 @@
         <v>1000</v>
       </c>
       <c r="AN2" t="n">
-        <v>1000</v>
+        <v>18.5</v>
       </c>
       <c r="AO2" t="n">
         <v>1000</v>
@@ -802,91 +802,91 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>3.55</v>
+        <v>3.85</v>
       </c>
       <c r="G3" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="H3" t="n">
         <v>1.89</v>
       </c>
       <c r="I3" t="n">
-        <v>2.28</v>
+        <v>2.12</v>
       </c>
       <c r="J3" t="n">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="K3" t="n">
         <v>4.8</v>
       </c>
       <c r="L3" t="n">
-        <v>1.31</v>
+        <v>1.3</v>
       </c>
       <c r="M3" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N3" t="n">
         <v>3.95</v>
       </c>
       <c r="O3" t="n">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="P3" t="n">
         <v>2.02</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.7</v>
+        <v>1.79</v>
       </c>
       <c r="R3" t="n">
         <v>1.4</v>
       </c>
       <c r="S3" t="n">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="T3" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="U3" t="n">
-        <v>1.98</v>
+        <v>2.02</v>
       </c>
       <c r="V3" t="n">
-        <v>1.78</v>
+        <v>1.88</v>
       </c>
       <c r="W3" t="n">
-        <v>1.26</v>
+        <v>1.24</v>
       </c>
       <c r="X3" t="n">
         <v>1000</v>
       </c>
       <c r="Y3" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="Z3" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="AA3" t="n">
         <v>1000</v>
       </c>
       <c r="AB3" t="n">
+        <v>20</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>13</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>25</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>40</v>
+      </c>
+      <c r="AG3" t="n">
         <v>21</v>
       </c>
-      <c r="AC3" t="n">
-        <v>11</v>
-      </c>
-      <c r="AD3" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AE3" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF3" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>1000</v>
-      </c>
       <c r="AH3" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AI3" t="n">
         <v>1000</v>
@@ -946,16 +946,16 @@
         <v>2.42</v>
       </c>
       <c r="I4" t="n">
-        <v>2.74</v>
+        <v>2.7</v>
       </c>
       <c r="J4" t="n">
         <v>3.45</v>
       </c>
       <c r="K4" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="L4" t="n">
-        <v>1.31</v>
+        <v>1.35</v>
       </c>
       <c r="M4" t="n">
         <v>1.05</v>
@@ -967,28 +967,28 @@
         <v>1.25</v>
       </c>
       <c r="P4" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="Q4" t="n">
         <v>1.69</v>
       </c>
       <c r="R4" t="n">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="S4" t="n">
-        <v>2.74</v>
+        <v>2.72</v>
       </c>
       <c r="T4" t="n">
         <v>1.6</v>
       </c>
       <c r="U4" t="n">
-        <v>2.24</v>
+        <v>2.32</v>
       </c>
       <c r="V4" t="n">
-        <v>1.57</v>
+        <v>1.58</v>
       </c>
       <c r="W4" t="n">
-        <v>1.46</v>
+        <v>1.48</v>
       </c>
       <c r="X4" t="n">
         <v>1000</v>
@@ -1072,28 +1072,28 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>3.25</v>
+        <v>3.45</v>
       </c>
       <c r="G5" t="n">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="I5" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="J5" t="n">
         <v>3.15</v>
       </c>
       <c r="K5" t="n">
-        <v>4.2</v>
+        <v>3.75</v>
       </c>
       <c r="L5" t="n">
-        <v>1.39</v>
+        <v>1.45</v>
       </c>
       <c r="M5" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N5" t="n">
         <v>3.1</v>
@@ -1105,22 +1105,22 @@
         <v>1.72</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.99</v>
+        <v>1.96</v>
       </c>
       <c r="R5" t="n">
         <v>1.27</v>
       </c>
       <c r="S5" t="n">
-        <v>3.5</v>
+        <v>3.9</v>
       </c>
       <c r="T5" t="n">
-        <v>1.73</v>
+        <v>1.85</v>
       </c>
       <c r="U5" t="n">
-        <v>1.81</v>
+        <v>1.94</v>
       </c>
       <c r="V5" t="n">
-        <v>1.71</v>
+        <v>1.72</v>
       </c>
       <c r="W5" t="n">
         <v>1.31</v>
@@ -1129,7 +1129,7 @@
         <v>1000</v>
       </c>
       <c r="Y5" t="n">
-        <v>1000</v>
+        <v>10</v>
       </c>
       <c r="Z5" t="n">
         <v>1000</v>
@@ -1210,52 +1210,52 @@
         <v>2.34</v>
       </c>
       <c r="G6" t="n">
-        <v>2.56</v>
+        <v>2.58</v>
       </c>
       <c r="H6" t="n">
         <v>3.25</v>
       </c>
       <c r="I6" t="n">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="J6" t="n">
-        <v>3.05</v>
+        <v>3.15</v>
       </c>
       <c r="K6" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="L6" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="M6" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N6" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="O6" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="P6" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="R6" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="S6" t="n">
         <v>3.7</v>
       </c>
-      <c r="L6" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="M6" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N6" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="O6" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="P6" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>2</v>
-      </c>
-      <c r="R6" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="S6" t="n">
-        <v>3.6</v>
-      </c>
       <c r="T6" t="n">
-        <v>1.75</v>
+        <v>1.79</v>
       </c>
       <c r="U6" t="n">
         <v>1.97</v>
       </c>
       <c r="V6" t="n">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="W6" t="n">
         <v>1.64</v>
@@ -1342,25 +1342,25 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>2.36</v>
+        <v>2.44</v>
       </c>
       <c r="G7" t="n">
-        <v>2.8</v>
+        <v>2.74</v>
       </c>
       <c r="H7" t="n">
-        <v>2.58</v>
+        <v>2.64</v>
       </c>
       <c r="I7" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="J7" t="n">
-        <v>3.2</v>
+        <v>3.45</v>
       </c>
       <c r="K7" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="L7" t="n">
-        <v>1.27</v>
+        <v>1.34</v>
       </c>
       <c r="M7" t="n">
         <v>1.04</v>
@@ -1375,25 +1375,25 @@
         <v>2.28</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.66</v>
+        <v>1.65</v>
       </c>
       <c r="R7" t="n">
         <v>1.5</v>
       </c>
       <c r="S7" t="n">
-        <v>2.64</v>
+        <v>2.62</v>
       </c>
       <c r="T7" t="n">
-        <v>1.56</v>
+        <v>1.57</v>
       </c>
       <c r="U7" t="n">
         <v>2.42</v>
       </c>
       <c r="V7" t="n">
-        <v>1.49</v>
+        <v>1.5</v>
       </c>
       <c r="W7" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="X7" t="n">
         <v>1000</v>
@@ -1483,19 +1483,19 @@
         <v>3.9</v>
       </c>
       <c r="H8" t="n">
-        <v>2.22</v>
+        <v>2.18</v>
       </c>
       <c r="I8" t="n">
         <v>2.34</v>
       </c>
       <c r="J8" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="K8" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="L8" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="M8" t="n">
         <v>1.08</v>
@@ -1507,10 +1507,10 @@
         <v>1.37</v>
       </c>
       <c r="P8" t="n">
-        <v>1.75</v>
+        <v>1.76</v>
       </c>
       <c r="Q8" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="R8" t="n">
         <v>1.28</v>
@@ -1537,7 +1537,7 @@
         <v>9.199999999999999</v>
       </c>
       <c r="Z8" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AA8" t="n">
         <v>980</v>
@@ -1549,7 +1549,7 @@
         <v>8</v>
       </c>
       <c r="AD8" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AE8" t="n">
         <v>980</v>
@@ -1582,13 +1582,13 @@
         <v>1000</v>
       </c>
       <c r="AO8" t="n">
-        <v>24</v>
+        <v>980</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Italian Serie C</t>
+          <t>Portuguese Segunda Liga</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -1598,126 +1598,126 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>08:30:00</t>
+          <t>08:00:00</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>AC Ospitaletto</t>
+          <t>Felgueiras</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Union Brescia</t>
+          <t>Farense</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>5.6</v>
+        <v>2.64</v>
       </c>
       <c r="G9" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="H9" t="n">
-        <v>1.61</v>
+        <v>2.74</v>
       </c>
       <c r="I9" t="n">
-        <v>1.8</v>
+        <v>3.2</v>
       </c>
       <c r="J9" t="n">
-        <v>3.5</v>
+        <v>3.15</v>
       </c>
       <c r="K9" t="n">
-        <v>4.7</v>
+        <v>3.95</v>
       </c>
       <c r="L9" t="n">
-        <v>1.41</v>
+        <v>1.38</v>
       </c>
       <c r="M9" t="n">
         <v>1.08</v>
       </c>
       <c r="N9" t="n">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="O9" t="n">
-        <v>1.42</v>
+        <v>1.39</v>
       </c>
       <c r="P9" t="n">
-        <v>1.64</v>
+        <v>1.72</v>
       </c>
       <c r="Q9" t="n">
-        <v>2.24</v>
+        <v>2.18</v>
       </c>
       <c r="R9" t="n">
-        <v>1.24</v>
+        <v>1.26</v>
       </c>
       <c r="S9" t="n">
-        <v>3.85</v>
+        <v>3.6</v>
       </c>
       <c r="T9" t="n">
-        <v>1.99</v>
+        <v>1.85</v>
       </c>
       <c r="U9" t="n">
-        <v>1.59</v>
+        <v>1.98</v>
       </c>
       <c r="V9" t="n">
-        <v>2.26</v>
+        <v>1.46</v>
       </c>
       <c r="W9" t="n">
-        <v>1.12</v>
+        <v>1.5</v>
       </c>
       <c r="X9" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="Y9" t="n">
-        <v>7.6</v>
+        <v>11</v>
       </c>
       <c r="Z9" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AA9" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AB9" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="AC9" t="n">
-        <v>1000</v>
+        <v>9</v>
       </c>
       <c r="AD9" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="AE9" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AF9" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AG9" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
       <c r="AH9" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AI9" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AJ9" t="n">
-        <v>1000</v>
+        <v>48</v>
       </c>
       <c r="AK9" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AL9" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AM9" t="n">
-        <v>1000</v>
+        <v>140</v>
       </c>
       <c r="AN9" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AO9" t="n">
-        <v>1000</v>
+        <v>960</v>
       </c>
     </row>
     <row r="10">
@@ -1747,58 +1747,58 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>1.45</v>
+        <v>1.41</v>
       </c>
       <c r="G10" t="n">
-        <v>1.61</v>
+        <v>1.57</v>
       </c>
       <c r="H10" t="n">
-        <v>7.2</v>
+        <v>7.6</v>
       </c>
       <c r="I10" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J10" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="K10" t="n">
-        <v>5.5</v>
+        <v>5.7</v>
       </c>
       <c r="L10" t="n">
-        <v>1.38</v>
+        <v>1.37</v>
       </c>
       <c r="M10" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N10" t="n">
-        <v>3.25</v>
+        <v>3.35</v>
       </c>
       <c r="O10" t="n">
-        <v>1.35</v>
+        <v>1.34</v>
       </c>
       <c r="P10" t="n">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.9</v>
+        <v>1.92</v>
       </c>
       <c r="R10" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="S10" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="T10" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="U10" t="n">
         <v>1.57</v>
       </c>
       <c r="V10" t="n">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="W10" t="n">
-        <v>2.56</v>
+        <v>2.68</v>
       </c>
       <c r="X10" t="n">
         <v>980</v>
@@ -1816,7 +1816,7 @@
         <v>8</v>
       </c>
       <c r="AC10" t="n">
-        <v>980</v>
+        <v>12.5</v>
       </c>
       <c r="AD10" t="n">
         <v>980</v>
@@ -1825,7 +1825,7 @@
         <v>1000</v>
       </c>
       <c r="AF10" t="n">
-        <v>9.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AG10" t="n">
         <v>980</v>
@@ -1849,7 +1849,7 @@
         <v>1000</v>
       </c>
       <c r="AN10" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AO10" t="n">
         <v>1000</v>
@@ -1858,7 +1858,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Spanish Segunda Division</t>
+          <t>Italian Serie C</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -1868,132 +1868,132 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>10:00:00</t>
+          <t>08:30:00</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>AD Ceuta FC</t>
+          <t>AC Ospitaletto</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Leganes</t>
+          <t>Union Brescia</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>2.56</v>
+        <v>5.6</v>
       </c>
       <c r="G11" t="n">
-        <v>2.74</v>
+        <v>9</v>
       </c>
       <c r="H11" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="I11" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="J11" t="n">
         <v>3.25</v>
       </c>
-      <c r="I11" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="J11" t="n">
-        <v>2.98</v>
-      </c>
       <c r="K11" t="n">
-        <v>3.15</v>
+        <v>4.7</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>1.43</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>1.08</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>2.94</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>1.41</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>1.65</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>1.24</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>3.8</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>1.99</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>2.2</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>1.12</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z11" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA11" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB11" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC11" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD11" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE11" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF11" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG11" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH11" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI11" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ11" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK11" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL11" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM11" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN11" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO11" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Italian Serie C</t>
+          <t>Danish 2nd Division</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -2003,72 +2003,72 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>10:30:00</t>
+          <t>09:00:00</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Potenza</t>
+          <t>Naestved</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Trapani</t>
+          <t>VSK Aarhus FC</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>2.48</v>
+        <v>1.43</v>
       </c>
       <c r="G12" t="n">
-        <v>2.82</v>
+        <v>1.78</v>
       </c>
       <c r="H12" t="n">
-        <v>2.82</v>
+        <v>5</v>
       </c>
       <c r="I12" t="n">
-        <v>3.55</v>
+        <v>1000</v>
       </c>
       <c r="J12" t="n">
-        <v>2.88</v>
+        <v>3.9</v>
       </c>
       <c r="K12" t="n">
-        <v>3.95</v>
+        <v>660</v>
       </c>
       <c r="L12" t="n">
-        <v>1.38</v>
+        <v>1.01</v>
       </c>
       <c r="M12" t="n">
-        <v>1.07</v>
+        <v>1.01</v>
       </c>
       <c r="N12" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="O12" t="n">
-        <v>1.38</v>
+        <v>1.23</v>
       </c>
       <c r="P12" t="n">
-        <v>1.73</v>
+        <v>2.02</v>
       </c>
       <c r="Q12" t="n">
-        <v>2.1</v>
+        <v>1.54</v>
       </c>
       <c r="R12" t="n">
-        <v>1.27</v>
+        <v>1.4</v>
       </c>
       <c r="S12" t="n">
-        <v>3.5</v>
+        <v>2.36</v>
       </c>
       <c r="T12" t="n">
-        <v>1.71</v>
+        <v>1.04</v>
       </c>
       <c r="U12" t="n">
-        <v>1.85</v>
+        <v>1.04</v>
       </c>
       <c r="V12" t="n">
-        <v>1.39</v>
+        <v>1.04</v>
       </c>
       <c r="W12" t="n">
-        <v>1.54</v>
+        <v>2.28</v>
       </c>
       <c r="X12" t="n">
         <v>1000</v>
@@ -2128,7 +2128,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Italian Serie C</t>
+          <t>Spanish Segunda Division</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -2138,126 +2138,126 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>10:30:00</t>
+          <t>10:00:00</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Albinoleffe</t>
+          <t>AD Ceuta FC</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>SS Virtus Verona 1921</t>
+          <t>Leganes</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>2.04</v>
+        <v>2.6</v>
       </c>
       <c r="G13" t="n">
-        <v>2.28</v>
+        <v>2.72</v>
       </c>
       <c r="H13" t="n">
-        <v>3.7</v>
+        <v>3.25</v>
       </c>
       <c r="I13" t="n">
-        <v>4.9</v>
+        <v>3.45</v>
       </c>
       <c r="J13" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="K13" t="n">
-        <v>4.2</v>
+        <v>3.15</v>
       </c>
       <c r="L13" t="n">
-        <v>1.43</v>
+        <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>1.07</v>
+        <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>3.25</v>
+        <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>1.35</v>
+        <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>1.78</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>2.02</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>1.29</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>3.7</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>1.7</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>1.98</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>1.26</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>1.78</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>15.5</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>16.5</v>
+        <v>0</v>
       </c>
       <c r="Z13" t="n">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="AA13" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AB13" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AC13" t="n">
-        <v>9.4</v>
+        <v>0</v>
       </c>
       <c r="AD13" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="AE13" t="n">
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="AF13" t="n">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="AG13" t="n">
-        <v>13.5</v>
+        <v>0</v>
       </c>
       <c r="AH13" t="n">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="AI13" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AJ13" t="n">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="AK13" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="AL13" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AM13" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AN13" t="n">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="AO13" t="n">
-        <v>75</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -2278,73 +2278,73 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Livorno</t>
+          <t>Potenza</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Ravenna</t>
+          <t>Trapani</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>3.5</v>
+        <v>2.48</v>
       </c>
       <c r="G14" t="n">
-        <v>4.3</v>
+        <v>2.82</v>
       </c>
       <c r="H14" t="n">
-        <v>2.14</v>
+        <v>2.8</v>
       </c>
       <c r="I14" t="n">
-        <v>2.38</v>
+        <v>3.45</v>
       </c>
       <c r="J14" t="n">
-        <v>2.9</v>
+        <v>2.92</v>
       </c>
       <c r="K14" t="n">
         <v>3.85</v>
       </c>
       <c r="L14" t="n">
-        <v>1.42</v>
+        <v>1.39</v>
       </c>
       <c r="M14" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="N14" t="n">
-        <v>2.8</v>
+        <v>3.1</v>
       </c>
       <c r="O14" t="n">
-        <v>1.44</v>
+        <v>1.38</v>
       </c>
       <c r="P14" t="n">
-        <v>1.62</v>
+        <v>1.73</v>
       </c>
       <c r="Q14" t="n">
-        <v>2.3</v>
+        <v>2.1</v>
       </c>
       <c r="R14" t="n">
-        <v>1.22</v>
+        <v>1.27</v>
       </c>
       <c r="S14" t="n">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="T14" t="n">
-        <v>1.81</v>
+        <v>1.72</v>
       </c>
       <c r="U14" t="n">
-        <v>1.73</v>
+        <v>1.85</v>
       </c>
       <c r="V14" t="n">
-        <v>1.72</v>
+        <v>1.4</v>
       </c>
       <c r="W14" t="n">
-        <v>1.3</v>
+        <v>1.54</v>
       </c>
       <c r="X14" t="n">
         <v>1000</v>
       </c>
       <c r="Y14" t="n">
-        <v>9.199999999999999</v>
+        <v>1000</v>
       </c>
       <c r="Z14" t="n">
         <v>1000</v>
@@ -2356,10 +2356,10 @@
         <v>1000</v>
       </c>
       <c r="AC14" t="n">
-        <v>9</v>
+        <v>1000</v>
       </c>
       <c r="AD14" t="n">
-        <v>13.5</v>
+        <v>1000</v>
       </c>
       <c r="AE14" t="n">
         <v>1000</v>
@@ -2413,121 +2413,121 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>FC Giugliano</t>
+          <t>Albinoleffe</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Audace Cerignola</t>
+          <t>SS Virtus Verona 1921</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>2.78</v>
+        <v>2.04</v>
       </c>
       <c r="G15" t="n">
-        <v>3.55</v>
+        <v>2.28</v>
       </c>
       <c r="H15" t="n">
-        <v>2.26</v>
+        <v>3.7</v>
       </c>
       <c r="I15" t="n">
-        <v>2.76</v>
+        <v>4.9</v>
       </c>
       <c r="J15" t="n">
-        <v>2.94</v>
+        <v>3.25</v>
       </c>
       <c r="K15" t="n">
-        <v>4.4</v>
+        <v>4.2</v>
       </c>
       <c r="L15" t="n">
-        <v>1.37</v>
+        <v>1.43</v>
       </c>
       <c r="M15" t="n">
-        <v>1.06</v>
+        <v>1.08</v>
       </c>
       <c r="N15" t="n">
-        <v>1.02</v>
+        <v>3.25</v>
       </c>
       <c r="O15" t="n">
-        <v>1.31</v>
+        <v>1.35</v>
       </c>
       <c r="P15" t="n">
-        <v>1.74</v>
+        <v>1.78</v>
       </c>
       <c r="Q15" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="R15" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="S15" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="T15" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="U15" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="V15" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="W15" t="n">
         <v>1.78</v>
       </c>
-      <c r="R15" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="S15" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="T15" t="n">
-        <v>1.68</v>
-      </c>
-      <c r="U15" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="V15" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="W15" t="n">
-        <v>1.01</v>
-      </c>
       <c r="X15" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
       <c r="Y15" t="n">
-        <v>1000</v>
+        <v>16.5</v>
       </c>
       <c r="Z15" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AA15" t="n">
         <v>1000</v>
       </c>
       <c r="AB15" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="AC15" t="n">
-        <v>1000</v>
+        <v>9.4</v>
       </c>
       <c r="AD15" t="n">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="AE15" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AF15" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="AG15" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="AH15" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AI15" t="n">
         <v>1000</v>
       </c>
       <c r="AJ15" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AK15" t="n">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="AL15" t="n">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="AM15" t="n">
         <v>1000</v>
       </c>
       <c r="AN15" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AO15" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
     </row>
     <row r="16">
@@ -2548,109 +2548,109 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>ASD Alcione</t>
+          <t>Livorno</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Novara</t>
+          <t>Ravenna</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>2.6</v>
+        <v>3.65</v>
       </c>
       <c r="G16" t="n">
-        <v>2.96</v>
+        <v>4.4</v>
       </c>
       <c r="H16" t="n">
-        <v>3.1</v>
+        <v>2.18</v>
       </c>
       <c r="I16" t="n">
-        <v>3.6</v>
+        <v>2.38</v>
       </c>
       <c r="J16" t="n">
-        <v>2.76</v>
+        <v>3.05</v>
       </c>
       <c r="K16" t="n">
-        <v>3.15</v>
+        <v>3.65</v>
       </c>
       <c r="L16" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="M16" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="N16" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="O16" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="P16" t="n">
         <v>1.62</v>
       </c>
-      <c r="M16" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="N16" t="n">
-        <v>2.34</v>
-      </c>
-      <c r="O16" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="P16" t="n">
-        <v>1.44</v>
-      </c>
       <c r="Q16" t="n">
-        <v>2.84</v>
+        <v>2.3</v>
       </c>
       <c r="R16" t="n">
-        <v>1.18</v>
+        <v>1.22</v>
       </c>
       <c r="S16" t="n">
-        <v>5.4</v>
+        <v>4</v>
       </c>
       <c r="T16" t="n">
-        <v>2.18</v>
+        <v>1.81</v>
       </c>
       <c r="U16" t="n">
-        <v>1.69</v>
+        <v>1.74</v>
       </c>
       <c r="V16" t="n">
-        <v>1.38</v>
+        <v>1.73</v>
       </c>
       <c r="W16" t="n">
-        <v>1.51</v>
+        <v>1.3</v>
       </c>
       <c r="X16" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB16" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC16" t="n">
         <v>9</v>
       </c>
-      <c r="Y16" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="Z16" t="n">
-        <v>26</v>
-      </c>
-      <c r="AA16" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB16" t="n">
-        <v>9</v>
-      </c>
-      <c r="AC16" t="n">
-        <v>8.199999999999999</v>
-      </c>
       <c r="AD16" t="n">
-        <v>18.5</v>
+        <v>13.5</v>
       </c>
       <c r="AE16" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="AF16" t="n">
-        <v>20</v>
+        <v>1000</v>
       </c>
       <c r="AG16" t="n">
-        <v>16.5</v>
+        <v>1000</v>
       </c>
       <c r="AH16" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AI16" t="n">
         <v>1000</v>
       </c>
       <c r="AJ16" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AK16" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AL16" t="n">
         <v>1000</v>
@@ -2668,7 +2668,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Spanish Segunda Division</t>
+          <t>Italian Serie C</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -2678,132 +2678,132 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>12:15:00</t>
+          <t>10:30:00</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Almeria</t>
+          <t>FC Giugliano</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Cadiz</t>
+          <t>Audace Cerignola</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>1.66</v>
+        <v>2.78</v>
       </c>
       <c r="G17" t="n">
-        <v>1.67</v>
+        <v>3.55</v>
       </c>
       <c r="H17" t="n">
-        <v>5.9</v>
+        <v>2.26</v>
       </c>
       <c r="I17" t="n">
-        <v>6.4</v>
+        <v>2.76</v>
       </c>
       <c r="J17" t="n">
-        <v>4.1</v>
+        <v>2.94</v>
       </c>
       <c r="K17" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="L17" t="n">
-        <v>1.39</v>
+        <v>1.37</v>
       </c>
       <c r="M17" t="n">
         <v>1.06</v>
       </c>
       <c r="N17" t="n">
-        <v>3.85</v>
+        <v>1.1</v>
       </c>
       <c r="O17" t="n">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="P17" t="n">
-        <v>1.99</v>
+        <v>1.74</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.9</v>
+        <v>1.79</v>
       </c>
       <c r="R17" t="n">
-        <v>1.38</v>
+        <v>1.32</v>
       </c>
       <c r="S17" t="n">
-        <v>3.35</v>
+        <v>1.05</v>
       </c>
       <c r="T17" t="n">
-        <v>1.9</v>
+        <v>1.61</v>
       </c>
       <c r="U17" t="n">
-        <v>1.94</v>
+        <v>2.04</v>
       </c>
       <c r="V17" t="n">
-        <v>1.18</v>
+        <v>1.01</v>
       </c>
       <c r="W17" t="n">
-        <v>2.48</v>
+        <v>1.01</v>
       </c>
       <c r="X17" t="n">
-        <v>15.5</v>
+        <v>1000</v>
       </c>
       <c r="Y17" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="Z17" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AA17" t="n">
-        <v>190</v>
+        <v>1000</v>
       </c>
       <c r="AB17" t="n">
-        <v>8.6</v>
+        <v>1000</v>
       </c>
       <c r="AC17" t="n">
-        <v>9.6</v>
+        <v>1000</v>
       </c>
       <c r="AD17" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AE17" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AF17" t="n">
-        <v>10</v>
+        <v>1000</v>
       </c>
       <c r="AG17" t="n">
-        <v>9.4</v>
+        <v>1000</v>
       </c>
       <c r="AH17" t="n">
-        <v>22</v>
+        <v>1000</v>
       </c>
       <c r="AI17" t="n">
-        <v>95</v>
+        <v>1000</v>
       </c>
       <c r="AJ17" t="n">
-        <v>16.5</v>
+        <v>1000</v>
       </c>
       <c r="AK17" t="n">
-        <v>17.5</v>
+        <v>1000</v>
       </c>
       <c r="AL17" t="n">
-        <v>38</v>
+        <v>1000</v>
       </c>
       <c r="AM17" t="n">
-        <v>140</v>
+        <v>1000</v>
       </c>
       <c r="AN17" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="AO17" t="n">
-        <v>120</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Spanish Segunda Division</t>
+          <t>Italian Serie C</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -2813,132 +2813,132 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>12:15:00</t>
+          <t>10:30:00</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Sporting Gijon</t>
+          <t>ASD Alcione</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Eibar</t>
+          <t>Novara</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>2.36</v>
+        <v>2.6</v>
       </c>
       <c r="G18" t="n">
-        <v>2.48</v>
+        <v>2.96</v>
       </c>
       <c r="H18" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="I18" t="n">
         <v>3.6</v>
       </c>
-      <c r="I18" t="n">
-        <v>3.85</v>
-      </c>
       <c r="J18" t="n">
-        <v>3.1</v>
+        <v>2.76</v>
       </c>
       <c r="K18" t="n">
-        <v>3.3</v>
+        <v>3.15</v>
       </c>
       <c r="L18" t="n">
-        <v>1.52</v>
+        <v>1.62</v>
       </c>
       <c r="M18" t="n">
-        <v>1.11</v>
+        <v>1.14</v>
       </c>
       <c r="N18" t="n">
-        <v>2.86</v>
+        <v>2.34</v>
       </c>
       <c r="O18" t="n">
-        <v>1.47</v>
+        <v>1.61</v>
       </c>
       <c r="P18" t="n">
-        <v>1.63</v>
+        <v>1.45</v>
       </c>
       <c r="Q18" t="n">
-        <v>2.38</v>
+        <v>2.82</v>
       </c>
       <c r="R18" t="n">
-        <v>1.22</v>
+        <v>1.18</v>
       </c>
       <c r="S18" t="n">
-        <v>4.7</v>
+        <v>5.4</v>
       </c>
       <c r="T18" t="n">
-        <v>1.99</v>
+        <v>2.18</v>
       </c>
       <c r="U18" t="n">
-        <v>1.89</v>
+        <v>1.7</v>
       </c>
       <c r="V18" t="n">
-        <v>1.35</v>
+        <v>1.38</v>
       </c>
       <c r="W18" t="n">
-        <v>1.67</v>
+        <v>1.51</v>
       </c>
       <c r="X18" t="n">
-        <v>9.800000000000001</v>
+        <v>9</v>
       </c>
       <c r="Y18" t="n">
-        <v>11.5</v>
+        <v>10.5</v>
       </c>
       <c r="Z18" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AA18" t="n">
-        <v>80</v>
+        <v>1000</v>
       </c>
       <c r="AB18" t="n">
-        <v>8.6</v>
+        <v>9</v>
       </c>
       <c r="AC18" t="n">
-        <v>7.2</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD18" t="n">
-        <v>17</v>
+        <v>18.5</v>
       </c>
       <c r="AE18" t="n">
+        <v>70</v>
+      </c>
+      <c r="AF18" t="n">
+        <v>20</v>
+      </c>
+      <c r="AG18" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AH18" t="n">
+        <v>32</v>
+      </c>
+      <c r="AI18" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ18" t="n">
         <v>60</v>
       </c>
-      <c r="AF18" t="n">
-        <v>15</v>
-      </c>
-      <c r="AG18" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AH18" t="n">
-        <v>21</v>
-      </c>
-      <c r="AI18" t="n">
-        <v>75</v>
-      </c>
-      <c r="AJ18" t="n">
-        <v>980</v>
-      </c>
       <c r="AK18" t="n">
-        <v>980</v>
+        <v>55</v>
       </c>
       <c r="AL18" t="n">
-        <v>60</v>
+        <v>95</v>
       </c>
       <c r="AM18" t="n">
-        <v>180</v>
+        <v>1000</v>
       </c>
       <c r="AN18" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AO18" t="n">
-        <v>75</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Italian Serie C</t>
+          <t>Spanish Segunda Division</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -2948,132 +2948,132 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>13:30:00</t>
+          <t>12:15:00</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>LR Vicenza Virtus</t>
+          <t>Almeria</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Renate</t>
+          <t>Cadiz</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>1.54</v>
+        <v>1.68</v>
       </c>
       <c r="G19" t="n">
-        <v>1.71</v>
+        <v>1.72</v>
       </c>
       <c r="H19" t="n">
-        <v>6</v>
+        <v>5.7</v>
       </c>
       <c r="I19" t="n">
-        <v>10</v>
+        <v>6.2</v>
       </c>
       <c r="J19" t="n">
-        <v>3.55</v>
+        <v>4</v>
       </c>
       <c r="K19" t="n">
-        <v>4.4</v>
+        <v>4.2</v>
       </c>
       <c r="L19" t="n">
-        <v>1.37</v>
+        <v>1.39</v>
       </c>
       <c r="M19" t="n">
-        <v>1.08</v>
+        <v>1.06</v>
       </c>
       <c r="N19" t="n">
-        <v>2.88</v>
+        <v>3.95</v>
       </c>
       <c r="O19" t="n">
-        <v>1.41</v>
+        <v>1.3</v>
       </c>
       <c r="P19" t="n">
-        <v>1.64</v>
+        <v>2</v>
       </c>
       <c r="Q19" t="n">
-        <v>2.16</v>
+        <v>1.91</v>
       </c>
       <c r="R19" t="n">
-        <v>1.23</v>
+        <v>1.38</v>
       </c>
       <c r="S19" t="n">
-        <v>3.8</v>
+        <v>3.35</v>
       </c>
       <c r="T19" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="U19" t="n">
         <v>2.02</v>
       </c>
-      <c r="U19" t="n">
-        <v>1.57</v>
-      </c>
       <c r="V19" t="n">
-        <v>1.11</v>
+        <v>1.19</v>
       </c>
       <c r="W19" t="n">
         <v>2.4</v>
       </c>
       <c r="X19" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
       <c r="Y19" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="Z19" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AA19" t="n">
-        <v>1000</v>
+        <v>180</v>
       </c>
       <c r="AB19" t="n">
-        <v>7.6</v>
+        <v>8.4</v>
       </c>
       <c r="AC19" t="n">
-        <v>1000</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD19" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AE19" t="n">
-        <v>1000</v>
+        <v>95</v>
       </c>
       <c r="AF19" t="n">
         <v>10</v>
       </c>
       <c r="AG19" t="n">
-        <v>1000</v>
+        <v>9.4</v>
       </c>
       <c r="AH19" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AI19" t="n">
-        <v>1000</v>
+        <v>95</v>
       </c>
       <c r="AJ19" t="n">
-        <v>1000</v>
+        <v>16.5</v>
       </c>
       <c r="AK19" t="n">
-        <v>1000</v>
+        <v>17.5</v>
       </c>
       <c r="AL19" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AM19" t="n">
-        <v>1000</v>
+        <v>140</v>
       </c>
       <c r="AN19" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="AO19" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Italian Serie C</t>
+          <t>Spanish Segunda Division</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -3083,132 +3083,132 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>13:30:00</t>
+          <t>12:15:00</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Lecco</t>
+          <t>Sporting Gijon</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Aurora Pro Patria 1919</t>
+          <t>Eibar</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>1.68</v>
+        <v>2.36</v>
       </c>
       <c r="G20" t="n">
-        <v>2.02</v>
+        <v>2.44</v>
       </c>
       <c r="H20" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="I20" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="J20" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="K20" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="L20" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="M20" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="N20" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="O20" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="P20" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="R20" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="S20" t="n">
         <v>4.8</v>
       </c>
-      <c r="I20" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="J20" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="K20" t="n">
-        <v>4</v>
-      </c>
-      <c r="L20" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="M20" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="N20" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="O20" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="P20" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>2.34</v>
-      </c>
-      <c r="R20" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="S20" t="n">
-        <v>2.34</v>
-      </c>
       <c r="T20" t="n">
-        <v>1.01</v>
+        <v>1.99</v>
       </c>
       <c r="U20" t="n">
-        <v>1.01</v>
+        <v>1.96</v>
       </c>
       <c r="V20" t="n">
-        <v>1.15</v>
+        <v>1.36</v>
       </c>
       <c r="W20" t="n">
-        <v>1.98</v>
+        <v>1.69</v>
       </c>
       <c r="X20" t="n">
-        <v>1000</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="Y20" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="Z20" t="n">
-        <v>1000</v>
+        <v>26</v>
       </c>
       <c r="AA20" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
       <c r="AB20" t="n">
-        <v>1000</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AC20" t="n">
-        <v>1000</v>
+        <v>7.2</v>
       </c>
       <c r="AD20" t="n">
-        <v>1000</v>
+        <v>16.5</v>
       </c>
       <c r="AE20" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AF20" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="AG20" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AH20" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AI20" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AJ20" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AK20" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AL20" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AM20" t="n">
-        <v>1000</v>
+        <v>180</v>
       </c>
       <c r="AN20" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AO20" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Spanish Segunda Division</t>
+          <t>Italian Serie C</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -3218,132 +3218,132 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>14:30:00</t>
+          <t>13:30:00</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Mirandes</t>
+          <t>LR Vicenza Virtus</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Burgos</t>
+          <t>Renate</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>3.45</v>
+        <v>1.54</v>
       </c>
       <c r="G21" t="n">
-        <v>3.6</v>
+        <v>1.71</v>
       </c>
       <c r="H21" t="n">
-        <v>2.58</v>
+        <v>6.6</v>
       </c>
       <c r="I21" t="n">
-        <v>2.62</v>
+        <v>11</v>
       </c>
       <c r="J21" t="n">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="K21" t="n">
-        <v>3.1</v>
+        <v>4.2</v>
       </c>
       <c r="L21" t="n">
-        <v>1.58</v>
+        <v>1.01</v>
       </c>
       <c r="M21" t="n">
-        <v>1.13</v>
+        <v>1.08</v>
       </c>
       <c r="N21" t="n">
-        <v>2.48</v>
+        <v>2.94</v>
       </c>
       <c r="O21" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="P21" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="R21" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="S21" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="T21" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="U21" t="n">
         <v>1.6</v>
       </c>
-      <c r="P21" t="n">
-        <v>1.51</v>
-      </c>
-      <c r="Q21" t="n">
-        <v>2.84</v>
-      </c>
-      <c r="R21" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="S21" t="n">
-        <v>6</v>
-      </c>
-      <c r="T21" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="U21" t="n">
-        <v>1.74</v>
-      </c>
       <c r="V21" t="n">
-        <v>1.61</v>
+        <v>1.11</v>
       </c>
       <c r="W21" t="n">
-        <v>1.38</v>
+        <v>2.4</v>
       </c>
       <c r="X21" t="n">
-        <v>8</v>
+        <v>1000</v>
       </c>
       <c r="Y21" t="n">
-        <v>7.4</v>
+        <v>1000</v>
       </c>
       <c r="Z21" t="n">
-        <v>14.5</v>
+        <v>1000</v>
       </c>
       <c r="AA21" t="n">
-        <v>40</v>
+        <v>1000</v>
       </c>
       <c r="AB21" t="n">
-        <v>9.199999999999999</v>
+        <v>1000</v>
       </c>
       <c r="AC21" t="n">
-        <v>7</v>
+        <v>1000</v>
       </c>
       <c r="AD21" t="n">
-        <v>13</v>
+        <v>1000</v>
       </c>
       <c r="AE21" t="n">
-        <v>40</v>
+        <v>1000</v>
       </c>
       <c r="AF21" t="n">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="AG21" t="n">
-        <v>16</v>
+        <v>1000</v>
       </c>
       <c r="AH21" t="n">
-        <v>28</v>
+        <v>1000</v>
       </c>
       <c r="AI21" t="n">
-        <v>75</v>
+        <v>1000</v>
       </c>
       <c r="AJ21" t="n">
-        <v>80</v>
+        <v>1000</v>
       </c>
       <c r="AK21" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AL21" t="n">
-        <v>90</v>
+        <v>1000</v>
       </c>
       <c r="AM21" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AN21" t="n">
-        <v>85</v>
+        <v>1000</v>
       </c>
       <c r="AO21" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Spanish Segunda Division</t>
+          <t>Italian Serie C</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -3353,120 +3353,120 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>14:30:00</t>
+          <t>13:30:00</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Cordoba</t>
+          <t>Casertana</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Deportivo</t>
+          <t>Atalanta B</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>2.46</v>
+        <v>1.04</v>
       </c>
       <c r="G22" t="n">
-        <v>2.6</v>
+        <v>1000</v>
       </c>
       <c r="H22" t="n">
-        <v>3.05</v>
+        <v>1.04</v>
       </c>
       <c r="I22" t="n">
-        <v>3.2</v>
+        <v>1000</v>
       </c>
       <c r="J22" t="n">
-        <v>3.4</v>
+        <v>1.01</v>
       </c>
       <c r="K22" t="n">
-        <v>3.55</v>
+        <v>1000</v>
       </c>
       <c r="L22" t="n">
-        <v>1.38</v>
+        <v>1.01</v>
       </c>
       <c r="M22" t="n">
-        <v>1.06</v>
+        <v>1.01</v>
       </c>
       <c r="N22" t="n">
-        <v>4.1</v>
+        <v>1.31</v>
       </c>
       <c r="O22" t="n">
-        <v>1.27</v>
+        <v>1.01</v>
       </c>
       <c r="P22" t="n">
-        <v>2.14</v>
+        <v>1.3</v>
       </c>
       <c r="Q22" t="n">
-        <v>1.84</v>
+        <v>1.32</v>
       </c>
       <c r="R22" t="n">
-        <v>1.41</v>
+        <v>1.18</v>
       </c>
       <c r="S22" t="n">
-        <v>3.15</v>
+        <v>1.32</v>
       </c>
       <c r="T22" t="n">
-        <v>1.65</v>
+        <v>1.04</v>
       </c>
       <c r="U22" t="n">
-        <v>2.44</v>
+        <v>1.04</v>
       </c>
       <c r="V22" t="n">
-        <v>1.45</v>
+        <v>1.01</v>
       </c>
       <c r="W22" t="n">
-        <v>1.62</v>
+        <v>1.01</v>
       </c>
       <c r="X22" t="n">
-        <v>17.5</v>
+        <v>1000</v>
       </c>
       <c r="Y22" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="Z22" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AA22" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AB22" t="n">
-        <v>12.5</v>
+        <v>1000</v>
       </c>
       <c r="AC22" t="n">
-        <v>8.4</v>
+        <v>1000</v>
       </c>
       <c r="AD22" t="n">
-        <v>13.5</v>
+        <v>1000</v>
       </c>
       <c r="AE22" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AF22" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AG22" t="n">
-        <v>13</v>
+        <v>1000</v>
       </c>
       <c r="AH22" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AI22" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AJ22" t="n">
-        <v>40</v>
+        <v>1000</v>
       </c>
       <c r="AK22" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AL22" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AM22" t="n">
-        <v>80</v>
+        <v>1000</v>
       </c>
       <c r="AN22" t="n">
         <v>1000</v>
@@ -3478,7 +3478,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Portuguese Segunda Liga</t>
+          <t>Italian Serie C</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -3488,132 +3488,132 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>15:00:00</t>
+          <t>13:30:00</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Leixoes</t>
+          <t>Pontedera</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Chaves</t>
+          <t>US Pianese</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>3.1</v>
+        <v>2.68</v>
       </c>
       <c r="G23" t="n">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="H23" t="n">
-        <v>2.32</v>
+        <v>2.72</v>
       </c>
       <c r="I23" t="n">
-        <v>2.68</v>
+        <v>3.45</v>
       </c>
       <c r="J23" t="n">
-        <v>3.05</v>
+        <v>2.74</v>
       </c>
       <c r="K23" t="n">
-        <v>3.5</v>
+        <v>3.85</v>
       </c>
       <c r="L23" t="n">
-        <v>1.47</v>
+        <v>1.01</v>
       </c>
       <c r="M23" t="n">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="N23" t="n">
-        <v>2.98</v>
+        <v>3</v>
       </c>
       <c r="O23" t="n">
-        <v>1.42</v>
+        <v>1.41</v>
       </c>
       <c r="P23" t="n">
-        <v>1.66</v>
+        <v>1.68</v>
       </c>
       <c r="Q23" t="n">
-        <v>2.24</v>
+        <v>2</v>
       </c>
       <c r="R23" t="n">
         <v>1.25</v>
       </c>
       <c r="S23" t="n">
-        <v>3.75</v>
+        <v>3.65</v>
       </c>
       <c r="T23" t="n">
-        <v>1.76</v>
+        <v>1.73</v>
       </c>
       <c r="U23" t="n">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
       <c r="V23" t="n">
-        <v>1.59</v>
+        <v>1.4</v>
       </c>
       <c r="W23" t="n">
-        <v>1.37</v>
+        <v>1.43</v>
       </c>
       <c r="X23" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="Y23" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Z23" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AA23" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AB23" t="n">
-        <v>13.5</v>
+        <v>12</v>
       </c>
       <c r="AC23" t="n">
         <v>8.800000000000001</v>
       </c>
       <c r="AD23" t="n">
-        <v>14.5</v>
+        <v>16</v>
       </c>
       <c r="AE23" t="n">
-        <v>1000</v>
+        <v>46</v>
       </c>
       <c r="AF23" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AG23" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AH23" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AI23" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AJ23" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AK23" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="AL23" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AM23" t="n">
         <v>1000</v>
       </c>
       <c r="AN23" t="n">
-        <v>1000</v>
+        <v>46</v>
       </c>
       <c r="AO23" t="n">
-        <v>1000</v>
+        <v>46</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Brazilian Serie B</t>
+          <t>Italian Serie C</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -3623,132 +3623,132 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>16:30:00</t>
+          <t>13:30:00</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Goias</t>
+          <t>Lecco</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Novorizontino</t>
+          <t>Aurora Pro Patria 1919</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>2.12</v>
+        <v>1.75</v>
       </c>
       <c r="G24" t="n">
-        <v>2.3</v>
+        <v>1.84</v>
       </c>
       <c r="H24" t="n">
-        <v>3.85</v>
+        <v>5.6</v>
       </c>
       <c r="I24" t="n">
-        <v>4.4</v>
+        <v>6.8</v>
       </c>
       <c r="J24" t="n">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="K24" t="n">
-        <v>3.5</v>
+        <v>3.7</v>
       </c>
       <c r="L24" t="n">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="M24" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="N24" t="n">
-        <v>2.84</v>
+        <v>2.68</v>
       </c>
       <c r="O24" t="n">
-        <v>1.49</v>
+        <v>1.47</v>
       </c>
       <c r="P24" t="n">
-        <v>1.62</v>
+        <v>1.56</v>
       </c>
       <c r="Q24" t="n">
-        <v>2.3</v>
+        <v>2.42</v>
       </c>
       <c r="R24" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="S24" t="n">
-        <v>4.5</v>
+        <v>4.8</v>
       </c>
       <c r="T24" t="n">
-        <v>1.99</v>
+        <v>2.14</v>
       </c>
       <c r="U24" t="n">
-        <v>1.84</v>
+        <v>1.71</v>
       </c>
       <c r="V24" t="n">
-        <v>1.29</v>
+        <v>1.17</v>
       </c>
       <c r="W24" t="n">
-        <v>1.76</v>
+        <v>2.18</v>
       </c>
       <c r="X24" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="Y24" t="n">
-        <v>12.5</v>
+        <v>18.5</v>
       </c>
       <c r="Z24" t="n">
-        <v>980</v>
+        <v>60</v>
       </c>
       <c r="AA24" t="n">
-        <v>120</v>
+        <v>1000</v>
       </c>
       <c r="AB24" t="n">
-        <v>8</v>
+        <v>6.8</v>
       </c>
       <c r="AC24" t="n">
-        <v>7.8</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD24" t="n">
-        <v>18</v>
+        <v>1000</v>
       </c>
       <c r="AE24" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AF24" t="n">
-        <v>13.5</v>
+        <v>10</v>
       </c>
       <c r="AG24" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AH24" t="n">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="AI24" t="n">
-        <v>80</v>
+        <v>1000</v>
       </c>
       <c r="AJ24" t="n">
-        <v>980</v>
+        <v>22</v>
       </c>
       <c r="AK24" t="n">
-        <v>980</v>
+        <v>26</v>
       </c>
       <c r="AL24" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AM24" t="n">
-        <v>190</v>
+        <v>1000</v>
       </c>
       <c r="AN24" t="n">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="AO24" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Brazilian Serie B</t>
+          <t>Spanish Segunda Division</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -3758,132 +3758,132 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>16:30:00</t>
+          <t>14:30:00</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Ferroviaria</t>
+          <t>Mirandes</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Athletico-PR</t>
+          <t>Burgos</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>4.3</v>
+        <v>3.4</v>
       </c>
       <c r="G25" t="n">
-        <v>4.8</v>
+        <v>3.55</v>
       </c>
       <c r="H25" t="n">
-        <v>1.98</v>
+        <v>2.58</v>
       </c>
       <c r="I25" t="n">
-        <v>2.12</v>
+        <v>2.62</v>
       </c>
       <c r="J25" t="n">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="K25" t="n">
-        <v>3.65</v>
+        <v>3.1</v>
       </c>
       <c r="L25" t="n">
-        <v>1.48</v>
+        <v>1.58</v>
       </c>
       <c r="M25" t="n">
-        <v>1.09</v>
+        <v>1.13</v>
       </c>
       <c r="N25" t="n">
-        <v>3.1</v>
+        <v>2.5</v>
       </c>
       <c r="O25" t="n">
-        <v>1.42</v>
+        <v>1.6</v>
       </c>
       <c r="P25" t="n">
-        <v>1.71</v>
+        <v>1.5</v>
       </c>
       <c r="Q25" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="R25" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="S25" t="n">
+        <v>6</v>
+      </c>
+      <c r="T25" t="n">
         <v>2.2</v>
       </c>
-      <c r="R25" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="S25" t="n">
-        <v>4</v>
-      </c>
-      <c r="T25" t="n">
-        <v>1.94</v>
-      </c>
       <c r="U25" t="n">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="V25" t="n">
-        <v>1.9</v>
+        <v>1.61</v>
       </c>
       <c r="W25" t="n">
-        <v>1.26</v>
+        <v>1.39</v>
       </c>
       <c r="X25" t="n">
-        <v>12</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="Y25" t="n">
-        <v>8.199999999999999</v>
+        <v>7.4</v>
       </c>
       <c r="Z25" t="n">
-        <v>12.5</v>
+        <v>14.5</v>
       </c>
       <c r="AA25" t="n">
-        <v>980</v>
+        <v>40</v>
       </c>
       <c r="AB25" t="n">
-        <v>14.5</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AC25" t="n">
-        <v>8.199999999999999</v>
+        <v>7</v>
       </c>
       <c r="AD25" t="n">
-        <v>11.5</v>
+        <v>13</v>
       </c>
       <c r="AE25" t="n">
-        <v>26</v>
+        <v>980</v>
       </c>
       <c r="AF25" t="n">
-        <v>980</v>
+        <v>22</v>
       </c>
       <c r="AG25" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="AH25" t="n">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="AI25" t="n">
-        <v>980</v>
+        <v>75</v>
       </c>
       <c r="AJ25" t="n">
-        <v>130</v>
+        <v>80</v>
       </c>
       <c r="AK25" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="AL25" t="n">
         <v>90</v>
       </c>
       <c r="AM25" t="n">
-        <v>170</v>
+        <v>980</v>
       </c>
       <c r="AN25" t="n">
-        <v>110</v>
+        <v>85</v>
       </c>
       <c r="AO25" t="n">
-        <v>21</v>
+        <v>55</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Brazilian Serie B</t>
+          <t>Spanish Segunda Division</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -3893,99 +3893,99 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>16:30:00</t>
+          <t>14:30:00</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Criciuma</t>
+          <t>Cordoba</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Botafogo SP</t>
+          <t>Deportivo</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>1.53</v>
+        <v>2.48</v>
       </c>
       <c r="G26" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="H26" t="n">
+        <v>3</v>
+      </c>
+      <c r="I26" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="J26" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="K26" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="L26" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="M26" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N26" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="O26" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="P26" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="R26" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="S26" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="T26" t="n">
         <v>1.66</v>
       </c>
-      <c r="H26" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="I26" t="n">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="J26" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="K26" t="n">
-        <v>4.9</v>
-      </c>
-      <c r="L26" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="M26" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="N26" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="O26" t="n">
-        <v>1.41</v>
-      </c>
-      <c r="P26" t="n">
-        <v>1.71</v>
-      </c>
-      <c r="Q26" t="n">
-        <v>2.16</v>
-      </c>
-      <c r="R26" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="S26" t="n">
-        <v>3.65</v>
-      </c>
-      <c r="T26" t="n">
-        <v>1.99</v>
-      </c>
       <c r="U26" t="n">
-        <v>1.6</v>
+        <v>2.36</v>
       </c>
       <c r="V26" t="n">
-        <v>1.14</v>
+        <v>1.46</v>
       </c>
       <c r="W26" t="n">
-        <v>2.5</v>
+        <v>1.62</v>
       </c>
       <c r="X26" t="n">
-        <v>980</v>
+        <v>17.5</v>
       </c>
       <c r="Y26" t="n">
         <v>980</v>
       </c>
       <c r="Z26" t="n">
-        <v>75</v>
+        <v>980</v>
       </c>
       <c r="AA26" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AB26" t="n">
-        <v>7.8</v>
+        <v>12.5</v>
       </c>
       <c r="AC26" t="n">
-        <v>11</v>
+        <v>8.4</v>
       </c>
       <c r="AD26" t="n">
-        <v>980</v>
+        <v>13.5</v>
       </c>
       <c r="AE26" t="n">
-        <v>170</v>
+        <v>980</v>
       </c>
       <c r="AF26" t="n">
-        <v>10.5</v>
+        <v>980</v>
       </c>
       <c r="AG26" t="n">
         <v>12.5</v>
@@ -3994,22 +3994,22 @@
         <v>980</v>
       </c>
       <c r="AI26" t="n">
-        <v>170</v>
+        <v>980</v>
       </c>
       <c r="AJ26" t="n">
-        <v>980</v>
+        <v>40</v>
       </c>
       <c r="AK26" t="n">
         <v>980</v>
       </c>
       <c r="AL26" t="n">
-        <v>60</v>
+        <v>980</v>
       </c>
       <c r="AM26" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
       <c r="AN26" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AO26" t="n">
         <v>1000</v>
@@ -4018,7 +4018,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Brazilian Serie B</t>
+          <t>Portuguese Segunda Liga</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -4028,132 +4028,132 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>16:30:00</t>
+          <t>15:00:00</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>America MG</t>
+          <t>Leixoes</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Cuiaba</t>
+          <t>Chaves</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>1.91</v>
+        <v>3.25</v>
       </c>
       <c r="G27" t="n">
-        <v>2.08</v>
+        <v>3.75</v>
       </c>
       <c r="H27" t="n">
-        <v>4.2</v>
+        <v>2.34</v>
       </c>
       <c r="I27" t="n">
-        <v>4.8</v>
+        <v>2.64</v>
       </c>
       <c r="J27" t="n">
-        <v>3.35</v>
+        <v>3</v>
       </c>
       <c r="K27" t="n">
-        <v>3.85</v>
+        <v>3.45</v>
       </c>
       <c r="L27" t="n">
-        <v>1.5</v>
+        <v>1.49</v>
       </c>
       <c r="M27" t="n">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="N27" t="n">
-        <v>2.88</v>
+        <v>2.98</v>
       </c>
       <c r="O27" t="n">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="P27" t="n">
-        <v>1.65</v>
+        <v>1.68</v>
       </c>
       <c r="Q27" t="n">
-        <v>2.1</v>
+        <v>2.26</v>
       </c>
       <c r="R27" t="n">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="S27" t="n">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="T27" t="n">
-        <v>2.04</v>
+        <v>1.86</v>
       </c>
       <c r="U27" t="n">
-        <v>1.81</v>
+        <v>1.77</v>
       </c>
       <c r="V27" t="n">
-        <v>1.26</v>
+        <v>1.61</v>
       </c>
       <c r="W27" t="n">
-        <v>1.92</v>
+        <v>1.37</v>
       </c>
       <c r="X27" t="n">
-        <v>970</v>
+        <v>11.5</v>
       </c>
       <c r="Y27" t="n">
-        <v>980</v>
+        <v>10.5</v>
       </c>
       <c r="Z27" t="n">
-        <v>980</v>
+        <v>18.5</v>
       </c>
       <c r="AA27" t="n">
-        <v>140</v>
+        <v>1000</v>
       </c>
       <c r="AB27" t="n">
-        <v>980</v>
+        <v>13.5</v>
       </c>
       <c r="AC27" t="n">
-        <v>980</v>
+        <v>7.8</v>
       </c>
       <c r="AD27" t="n">
-        <v>980</v>
+        <v>14.5</v>
       </c>
       <c r="AE27" t="n">
-        <v>85</v>
+        <v>1000</v>
       </c>
       <c r="AF27" t="n">
-        <v>980</v>
+        <v>28</v>
       </c>
       <c r="AG27" t="n">
-        <v>980</v>
+        <v>18</v>
       </c>
       <c r="AH27" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AI27" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AJ27" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AK27" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AL27" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AM27" t="n">
         <v>1000</v>
       </c>
       <c r="AN27" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AO27" t="n">
-        <v>120</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Argentinian Primera Division</t>
+          <t>Brazilian Serie B</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -4163,132 +4163,132 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>17:00:00</t>
+          <t>16:30:00</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Instituto</t>
+          <t>Goias</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Talleres</t>
+          <t>Novorizontino</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>3.25</v>
+        <v>2.12</v>
       </c>
       <c r="G28" t="n">
-        <v>3.55</v>
+        <v>2.28</v>
       </c>
       <c r="H28" t="n">
-        <v>2.44</v>
+        <v>3.85</v>
       </c>
       <c r="I28" t="n">
-        <v>2.62</v>
+        <v>4.3</v>
       </c>
       <c r="J28" t="n">
-        <v>3</v>
+        <v>3.15</v>
       </c>
       <c r="K28" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="L28" t="n">
         <v>1.01</v>
       </c>
       <c r="M28" t="n">
-        <v>1.13</v>
+        <v>1.1</v>
       </c>
       <c r="N28" t="n">
-        <v>2.44</v>
+        <v>2.84</v>
       </c>
       <c r="O28" t="n">
-        <v>1.59</v>
+        <v>1.49</v>
       </c>
       <c r="P28" t="n">
-        <v>1.51</v>
+        <v>1.62</v>
       </c>
       <c r="Q28" t="n">
-        <v>2.72</v>
+        <v>2.3</v>
       </c>
       <c r="R28" t="n">
-        <v>1.17</v>
+        <v>1.22</v>
       </c>
       <c r="S28" t="n">
-        <v>5.9</v>
+        <v>4.5</v>
       </c>
       <c r="T28" t="n">
-        <v>2.2</v>
+        <v>1.99</v>
       </c>
       <c r="U28" t="n">
-        <v>1.71</v>
+        <v>1.84</v>
       </c>
       <c r="V28" t="n">
-        <v>1.61</v>
+        <v>1.3</v>
       </c>
       <c r="W28" t="n">
-        <v>1.39</v>
+        <v>1.79</v>
       </c>
       <c r="X28" t="n">
-        <v>8.6</v>
+        <v>10.5</v>
       </c>
       <c r="Y28" t="n">
-        <v>7.4</v>
+        <v>12.5</v>
       </c>
       <c r="Z28" t="n">
-        <v>15.5</v>
+        <v>980</v>
       </c>
       <c r="AA28" t="n">
-        <v>980</v>
+        <v>120</v>
       </c>
       <c r="AB28" t="n">
-        <v>9.6</v>
+        <v>8</v>
       </c>
       <c r="AC28" t="n">
         <v>7.8</v>
       </c>
       <c r="AD28" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="AE28" t="n">
-        <v>980</v>
+        <v>65</v>
       </c>
       <c r="AF28" t="n">
-        <v>980</v>
+        <v>13.5</v>
       </c>
       <c r="AG28" t="n">
-        <v>17.5</v>
+        <v>12</v>
       </c>
       <c r="AH28" t="n">
-        <v>980</v>
+        <v>23</v>
       </c>
       <c r="AI28" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="AJ28" t="n">
-        <v>75</v>
+        <v>980</v>
       </c>
       <c r="AK28" t="n">
-        <v>60</v>
+        <v>980</v>
       </c>
       <c r="AL28" t="n">
+        <v>55</v>
+      </c>
+      <c r="AM28" t="n">
+        <v>190</v>
+      </c>
+      <c r="AN28" t="n">
+        <v>27</v>
+      </c>
+      <c r="AO28" t="n">
         <v>100</v>
-      </c>
-      <c r="AM28" t="n">
-        <v>270</v>
-      </c>
-      <c r="AN28" t="n">
-        <v>95</v>
-      </c>
-      <c r="AO28" t="n">
-        <v>60</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Argentinian Primera Division</t>
+          <t>Brazilian Serie B</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -4298,132 +4298,132 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>17:00:00</t>
+          <t>16:30:00</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Velez Sarsfield</t>
+          <t>Ferroviaria</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>River Plate</t>
+          <t>Athletico-PR</t>
         </is>
       </c>
       <c r="F29" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="G29" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="H29" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="I29" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="J29" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="K29" t="n">
         <v>3.65</v>
       </c>
-      <c r="G29" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="H29" t="n">
-        <v>2.24</v>
-      </c>
-      <c r="I29" t="n">
-        <v>2.48</v>
-      </c>
-      <c r="J29" t="n">
-        <v>2.98</v>
-      </c>
-      <c r="K29" t="n">
-        <v>3.35</v>
-      </c>
       <c r="L29" t="n">
-        <v>1.01</v>
+        <v>1.48</v>
       </c>
       <c r="M29" t="n">
-        <v>1.13</v>
+        <v>1.09</v>
       </c>
       <c r="N29" t="n">
-        <v>2.48</v>
+        <v>3.1</v>
       </c>
       <c r="O29" t="n">
-        <v>1.58</v>
+        <v>1.42</v>
       </c>
       <c r="P29" t="n">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="Q29" t="n">
-        <v>2.68</v>
+        <v>2.2</v>
       </c>
       <c r="R29" t="n">
-        <v>1.17</v>
+        <v>1.26</v>
       </c>
       <c r="S29" t="n">
-        <v>5.1</v>
+        <v>4</v>
       </c>
       <c r="T29" t="n">
-        <v>2.16</v>
+        <v>1.94</v>
       </c>
       <c r="U29" t="n">
-        <v>1.7</v>
+        <v>1.9</v>
       </c>
       <c r="V29" t="n">
-        <v>1.67</v>
+        <v>1.9</v>
       </c>
       <c r="W29" t="n">
-        <v>1.32</v>
+        <v>1.26</v>
       </c>
       <c r="X29" t="n">
-        <v>980</v>
+        <v>12</v>
       </c>
       <c r="Y29" t="n">
-        <v>7.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="Z29" t="n">
-        <v>980</v>
+        <v>12.5</v>
       </c>
       <c r="AA29" t="n">
         <v>980</v>
       </c>
       <c r="AB29" t="n">
-        <v>980</v>
+        <v>14.5</v>
       </c>
       <c r="AC29" t="n">
-        <v>980</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD29" t="n">
-        <v>980</v>
+        <v>11.5</v>
       </c>
       <c r="AE29" t="n">
-        <v>980</v>
+        <v>26</v>
       </c>
       <c r="AF29" t="n">
         <v>980</v>
       </c>
       <c r="AG29" t="n">
-        <v>980</v>
+        <v>19</v>
       </c>
       <c r="AH29" t="n">
-        <v>980</v>
+        <v>22</v>
       </c>
       <c r="AI29" t="n">
-        <v>85</v>
+        <v>48</v>
       </c>
       <c r="AJ29" t="n">
+        <v>130</v>
+      </c>
+      <c r="AK29" t="n">
+        <v>70</v>
+      </c>
+      <c r="AL29" t="n">
+        <v>80</v>
+      </c>
+      <c r="AM29" t="n">
+        <v>170</v>
+      </c>
+      <c r="AN29" t="n">
         <v>110</v>
       </c>
-      <c r="AK29" t="n">
-        <v>80</v>
-      </c>
-      <c r="AL29" t="n">
-        <v>110</v>
-      </c>
-      <c r="AM29" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN29" t="n">
-        <v>130</v>
-      </c>
       <c r="AO29" t="n">
-        <v>980</v>
+        <v>21</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Spanish Segunda Division</t>
+          <t>Brazilian Serie B</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -4433,132 +4433,132 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>17:00:00</t>
+          <t>16:30:00</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Zaragoza</t>
+          <t>Criciuma</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Huesca</t>
+          <t>Botafogo SP</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>2.34</v>
+        <v>1.55</v>
       </c>
       <c r="G30" t="n">
-        <v>2.42</v>
+        <v>1.64</v>
       </c>
       <c r="H30" t="n">
-        <v>3.75</v>
+        <v>7</v>
       </c>
       <c r="I30" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="J30" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="K30" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="L30" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="M30" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="N30" t="n">
         <v>3.05</v>
       </c>
-      <c r="K30" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="L30" t="n">
-        <v>1.56</v>
-      </c>
-      <c r="M30" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="N30" t="n">
-        <v>2.54</v>
-      </c>
       <c r="O30" t="n">
-        <v>1.57</v>
+        <v>1.41</v>
       </c>
       <c r="P30" t="n">
-        <v>1.52</v>
+        <v>1.71</v>
       </c>
       <c r="Q30" t="n">
-        <v>2.7</v>
+        <v>2.16</v>
       </c>
       <c r="R30" t="n">
-        <v>1.18</v>
+        <v>1.26</v>
       </c>
       <c r="S30" t="n">
-        <v>5.7</v>
+        <v>4.2</v>
       </c>
       <c r="T30" t="n">
-        <v>2.16</v>
+        <v>2</v>
       </c>
       <c r="U30" t="n">
-        <v>1.75</v>
+        <v>1.62</v>
       </c>
       <c r="V30" t="n">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="W30" t="n">
-        <v>1.7</v>
+        <v>2.56</v>
       </c>
       <c r="X30" t="n">
-        <v>8.4</v>
+        <v>980</v>
       </c>
       <c r="Y30" t="n">
+        <v>980</v>
+      </c>
+      <c r="Z30" t="n">
+        <v>75</v>
+      </c>
+      <c r="AA30" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB30" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AC30" t="n">
+        <v>11</v>
+      </c>
+      <c r="AD30" t="n">
+        <v>980</v>
+      </c>
+      <c r="AE30" t="n">
+        <v>170</v>
+      </c>
+      <c r="AF30" t="n">
         <v>10.5</v>
-      </c>
-      <c r="Z30" t="n">
-        <v>26</v>
-      </c>
-      <c r="AA30" t="n">
-        <v>90</v>
-      </c>
-      <c r="AB30" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="AC30" t="n">
-        <v>7</v>
-      </c>
-      <c r="AD30" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AE30" t="n">
-        <v>65</v>
-      </c>
-      <c r="AF30" t="n">
-        <v>13</v>
       </c>
       <c r="AG30" t="n">
         <v>12.5</v>
       </c>
       <c r="AH30" t="n">
-        <v>30</v>
+        <v>980</v>
       </c>
       <c r="AI30" t="n">
-        <v>110</v>
+        <v>170</v>
       </c>
       <c r="AJ30" t="n">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AK30" t="n">
-        <v>36</v>
+        <v>980</v>
       </c>
       <c r="AL30" t="n">
-        <v>80</v>
+        <v>55</v>
       </c>
       <c r="AM30" t="n">
-        <v>210</v>
+        <v>1000</v>
       </c>
       <c r="AN30" t="n">
-        <v>38</v>
+        <v>15.5</v>
       </c>
       <c r="AO30" t="n">
-        <v>95</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Uruguayan Primera Division</t>
+          <t>Brazilian Serie B</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -4568,132 +4568,132 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>18:00:00</t>
+          <t>16:30:00</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Liverpool Montevideo</t>
+          <t>America MG</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Penarol</t>
+          <t>Cuiaba</t>
         </is>
       </c>
       <c r="F31" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="G31" t="n">
+        <v>2</v>
+      </c>
+      <c r="H31" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="I31" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="J31" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="K31" t="n">
         <v>3.75</v>
       </c>
-      <c r="G31" t="n">
-        <v>4.9</v>
-      </c>
-      <c r="H31" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="I31" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="J31" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="K31" t="n">
-        <v>4.5</v>
-      </c>
       <c r="L31" t="n">
-        <v>1.34</v>
+        <v>1.01</v>
       </c>
       <c r="M31" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="N31" t="n">
-        <v>1.81</v>
+        <v>2.9</v>
       </c>
       <c r="O31" t="n">
-        <v>1.35</v>
+        <v>1.45</v>
       </c>
       <c r="P31" t="n">
-        <v>1.8</v>
+        <v>1.65</v>
       </c>
       <c r="Q31" t="n">
-        <v>2.02</v>
+        <v>2.32</v>
       </c>
       <c r="R31" t="n">
-        <v>1.31</v>
+        <v>1.23</v>
       </c>
       <c r="S31" t="n">
-        <v>2.02</v>
+        <v>4.4</v>
       </c>
       <c r="T31" t="n">
-        <v>1.72</v>
+        <v>2.04</v>
       </c>
       <c r="U31" t="n">
         <v>1.81</v>
       </c>
       <c r="V31" t="n">
-        <v>1.92</v>
+        <v>1.25</v>
       </c>
       <c r="W31" t="n">
-        <v>1.25</v>
+        <v>2</v>
       </c>
       <c r="X31" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="Y31" t="n">
-        <v>10.5</v>
+        <v>980</v>
       </c>
       <c r="Z31" t="n">
-        <v>14.5</v>
+        <v>980</v>
       </c>
       <c r="AA31" t="n">
-        <v>28</v>
+        <v>140</v>
       </c>
       <c r="AB31" t="n">
-        <v>18</v>
+        <v>980</v>
       </c>
       <c r="AC31" t="n">
-        <v>9.800000000000001</v>
+        <v>8.4</v>
       </c>
       <c r="AD31" t="n">
-        <v>13</v>
+        <v>980</v>
       </c>
       <c r="AE31" t="n">
-        <v>23</v>
+        <v>85</v>
       </c>
       <c r="AF31" t="n">
-        <v>42</v>
+        <v>980</v>
       </c>
       <c r="AG31" t="n">
-        <v>22</v>
+        <v>980</v>
       </c>
       <c r="AH31" t="n">
-        <v>24</v>
+        <v>980</v>
       </c>
       <c r="AI31" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="AJ31" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AK31" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AL31" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AM31" t="n">
         <v>1000</v>
       </c>
       <c r="AN31" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AO31" t="n">
-        <v>19.5</v>
+        <v>120</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Brazilian Serie A</t>
+          <t>Spanish Segunda Division</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -4703,132 +4703,132 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>19:00:00</t>
+          <t>17:00:00</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Red Bull Bragantino</t>
+          <t>Zaragoza</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Atletico MG</t>
+          <t>Huesca</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>2.24</v>
+        <v>2.34</v>
       </c>
       <c r="G32" t="n">
-        <v>2.32</v>
+        <v>2.44</v>
       </c>
       <c r="H32" t="n">
         <v>3.75</v>
       </c>
       <c r="I32" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="J32" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="K32" t="n">
         <v>3.15</v>
       </c>
-      <c r="K32" t="n">
-        <v>3.4</v>
-      </c>
       <c r="L32" t="n">
-        <v>1.5</v>
+        <v>1.56</v>
       </c>
       <c r="M32" t="n">
-        <v>1.1</v>
+        <v>1.13</v>
       </c>
       <c r="N32" t="n">
-        <v>2.98</v>
+        <v>2.54</v>
       </c>
       <c r="O32" t="n">
-        <v>1.44</v>
+        <v>1.57</v>
       </c>
       <c r="P32" t="n">
-        <v>1.67</v>
+        <v>1.52</v>
       </c>
       <c r="Q32" t="n">
-        <v>2.3</v>
+        <v>2.68</v>
       </c>
       <c r="R32" t="n">
-        <v>1.24</v>
+        <v>1.18</v>
       </c>
       <c r="S32" t="n">
-        <v>4.3</v>
+        <v>5.7</v>
       </c>
       <c r="T32" t="n">
-        <v>1.95</v>
+        <v>2.16</v>
       </c>
       <c r="U32" t="n">
-        <v>1.89</v>
+        <v>1.75</v>
       </c>
       <c r="V32" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="W32" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="X32" t="n">
-        <v>11</v>
+        <v>8.4</v>
       </c>
       <c r="Y32" t="n">
-        <v>12.5</v>
+        <v>10.5</v>
       </c>
       <c r="Z32" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AA32" t="n">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="AB32" t="n">
-        <v>8.4</v>
+        <v>7.2</v>
       </c>
       <c r="AC32" t="n">
-        <v>7.8</v>
+        <v>7</v>
       </c>
       <c r="AD32" t="n">
         <v>17.5</v>
       </c>
       <c r="AE32" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AF32" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AG32" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AH32" t="n">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="AI32" t="n">
-        <v>75</v>
+        <v>110</v>
       </c>
       <c r="AJ32" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="AK32" t="n">
-        <v>980</v>
+        <v>36</v>
       </c>
       <c r="AL32" t="n">
-        <v>55</v>
+        <v>80</v>
       </c>
       <c r="AM32" t="n">
-        <v>170</v>
+        <v>210</v>
       </c>
       <c r="AN32" t="n">
-        <v>980</v>
+        <v>38</v>
       </c>
       <c r="AO32" t="n">
-        <v>80</v>
+        <v>95</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>US USL League One</t>
+          <t>Argentinian Primera Division</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -4838,126 +4838,126 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>19:00:00</t>
+          <t>17:00:00</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>One Knoxville SC</t>
+          <t>Instituto</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Spokane Velocity FC</t>
+          <t>Talleres</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>2.14</v>
+        <v>3.25</v>
       </c>
       <c r="G33" t="n">
-        <v>2.96</v>
+        <v>3.55</v>
       </c>
       <c r="H33" t="n">
-        <v>3.3</v>
+        <v>2.44</v>
       </c>
       <c r="I33" t="n">
-        <v>5.5</v>
+        <v>2.66</v>
       </c>
       <c r="J33" t="n">
-        <v>2.36</v>
+        <v>3</v>
       </c>
       <c r="K33" t="n">
-        <v>4.4</v>
+        <v>3.25</v>
       </c>
       <c r="L33" t="n">
-        <v>1.36</v>
+        <v>1.01</v>
       </c>
       <c r="M33" t="n">
-        <v>1.01</v>
+        <v>1.13</v>
       </c>
       <c r="N33" t="n">
-        <v>1.57</v>
+        <v>2.44</v>
       </c>
       <c r="O33" t="n">
-        <v>1.01</v>
+        <v>1.59</v>
       </c>
       <c r="P33" t="n">
-        <v>1.57</v>
+        <v>1.51</v>
       </c>
       <c r="Q33" t="n">
-        <v>1.98</v>
+        <v>2.72</v>
       </c>
       <c r="R33" t="n">
-        <v>1.21</v>
+        <v>1.17</v>
       </c>
       <c r="S33" t="n">
-        <v>1.98</v>
+        <v>5.9</v>
       </c>
       <c r="T33" t="n">
-        <v>1.01</v>
+        <v>2.2</v>
       </c>
       <c r="U33" t="n">
-        <v>1.01</v>
+        <v>1.71</v>
       </c>
       <c r="V33" t="n">
-        <v>1.22</v>
+        <v>1.6</v>
       </c>
       <c r="W33" t="n">
-        <v>1.51</v>
+        <v>1.39</v>
       </c>
       <c r="X33" t="n">
-        <v>1000</v>
+        <v>8.6</v>
       </c>
       <c r="Y33" t="n">
-        <v>1000</v>
+        <v>7.4</v>
       </c>
       <c r="Z33" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
       <c r="AA33" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AB33" t="n">
-        <v>1000</v>
+        <v>9.6</v>
       </c>
       <c r="AC33" t="n">
-        <v>1000</v>
+        <v>7.8</v>
       </c>
       <c r="AD33" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="AE33" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AF33" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AG33" t="n">
-        <v>1000</v>
+        <v>17.5</v>
       </c>
       <c r="AH33" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AI33" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AJ33" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AK33" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AL33" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="AM33" t="n">
-        <v>1000</v>
+        <v>270</v>
       </c>
       <c r="AN33" t="n">
-        <v>1000</v>
+        <v>95</v>
       </c>
       <c r="AO33" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
     </row>
     <row r="34">
@@ -4973,78 +4973,78 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>20:15:00</t>
+          <t>17:00:00</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Newells</t>
+          <t>Velez Sarsfield</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Racing Club</t>
+          <t>River Plate</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>4</v>
+        <v>3.65</v>
       </c>
       <c r="G34" t="n">
-        <v>4.5</v>
+        <v>4.1</v>
       </c>
       <c r="H34" t="n">
-        <v>2.06</v>
+        <v>2.26</v>
       </c>
       <c r="I34" t="n">
-        <v>2.2</v>
+        <v>2.44</v>
       </c>
       <c r="J34" t="n">
-        <v>3.2</v>
+        <v>3.05</v>
       </c>
       <c r="K34" t="n">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="L34" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M34" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="N34" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="O34" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="P34" t="n">
         <v>1.51</v>
       </c>
-      <c r="M34" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="N34" t="n">
-        <v>2.96</v>
-      </c>
-      <c r="O34" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="P34" t="n">
-        <v>1.66</v>
-      </c>
       <c r="Q34" t="n">
-        <v>2.08</v>
+        <v>2.7</v>
       </c>
       <c r="R34" t="n">
-        <v>1.24</v>
+        <v>1.17</v>
       </c>
       <c r="S34" t="n">
-        <v>4.4</v>
+        <v>5.5</v>
       </c>
       <c r="T34" t="n">
-        <v>1.97</v>
+        <v>2.16</v>
       </c>
       <c r="U34" t="n">
-        <v>1.87</v>
+        <v>1.7</v>
       </c>
       <c r="V34" t="n">
-        <v>1.83</v>
+        <v>1.69</v>
       </c>
       <c r="W34" t="n">
-        <v>1.28</v>
+        <v>1.33</v>
       </c>
       <c r="X34" t="n">
         <v>980</v>
       </c>
       <c r="Y34" t="n">
-        <v>980</v>
+        <v>7.2</v>
       </c>
       <c r="Z34" t="n">
         <v>980</v>
@@ -5074,22 +5074,22 @@
         <v>980</v>
       </c>
       <c r="AI34" t="n">
-        <v>980</v>
+        <v>80</v>
       </c>
       <c r="AJ34" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AK34" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="AL34" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="AM34" t="n">
-        <v>180</v>
+        <v>1000</v>
       </c>
       <c r="AN34" t="n">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="AO34" t="n">
         <v>980</v>
@@ -5098,7 +5098,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Argentinian Primera Division</t>
+          <t>Uruguayan Primera Division</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -5108,132 +5108,132 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>20:15:00</t>
+          <t>18:00:00</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Estudiantes</t>
+          <t>Liverpool Montevideo</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Argentinos Juniors</t>
+          <t>Penarol</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>2.64</v>
+        <v>4.2</v>
       </c>
       <c r="G35" t="n">
-        <v>2.68</v>
+        <v>4.9</v>
       </c>
       <c r="H35" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="I35" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="J35" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="K35" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="L35" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="M35" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N35" t="n">
         <v>3.15</v>
       </c>
-      <c r="I35" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="J35" t="n">
-        <v>3</v>
-      </c>
-      <c r="K35" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="L35" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="M35" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="N35" t="n">
-        <v>2.34</v>
-      </c>
       <c r="O35" t="n">
-        <v>1.63</v>
+        <v>1.38</v>
       </c>
       <c r="P35" t="n">
-        <v>1.45</v>
+        <v>1.75</v>
       </c>
       <c r="Q35" t="n">
-        <v>2.88</v>
+        <v>2.02</v>
       </c>
       <c r="R35" t="n">
-        <v>1.15</v>
+        <v>1.28</v>
       </c>
       <c r="S35" t="n">
-        <v>6.2</v>
+        <v>3.1</v>
       </c>
       <c r="T35" t="n">
-        <v>2.2</v>
+        <v>1.9</v>
       </c>
       <c r="U35" t="n">
-        <v>1.7</v>
+        <v>1.93</v>
       </c>
       <c r="V35" t="n">
-        <v>1.41</v>
+        <v>1.92</v>
       </c>
       <c r="W35" t="n">
-        <v>1.59</v>
+        <v>1.25</v>
       </c>
       <c r="X35" t="n">
-        <v>8</v>
+        <v>12.5</v>
       </c>
       <c r="Y35" t="n">
-        <v>8.800000000000001</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="Z35" t="n">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="AA35" t="n">
-        <v>70</v>
+        <v>28</v>
       </c>
       <c r="AB35" t="n">
-        <v>7.8</v>
+        <v>14.5</v>
       </c>
       <c r="AC35" t="n">
-        <v>7.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD35" t="n">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="AE35" t="n">
-        <v>65</v>
+        <v>28</v>
       </c>
       <c r="AF35" t="n">
-        <v>17.5</v>
+        <v>42</v>
       </c>
       <c r="AG35" t="n">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="AH35" t="n">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="AI35" t="n">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="AJ35" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AK35" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AL35" t="n">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="AM35" t="n">
-        <v>250</v>
+        <v>1000</v>
       </c>
       <c r="AN35" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AO35" t="n">
-        <v>85</v>
+        <v>18</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Argentinian Primera Division</t>
+          <t>Brazilian Serie A</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -5243,132 +5243,132 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>20:15:00</t>
+          <t>19:00:00</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Central Cordoba (SdE)</t>
+          <t>Red Bull Bragantino</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Banfield</t>
+          <t>Atletico MG</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>2.6</v>
+        <v>2.24</v>
       </c>
       <c r="G36" t="n">
-        <v>2.66</v>
+        <v>2.32</v>
       </c>
       <c r="H36" t="n">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="I36" t="n">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="J36" t="n">
-        <v>2.96</v>
+        <v>3.2</v>
       </c>
       <c r="K36" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="L36" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="M36" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="N36" t="n">
         <v>2.98</v>
       </c>
-      <c r="L36" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="M36" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="N36" t="n">
-        <v>2.48</v>
-      </c>
       <c r="O36" t="n">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="P36" t="n">
-        <v>1.46</v>
+        <v>1.67</v>
       </c>
       <c r="Q36" t="n">
-        <v>2.9</v>
+        <v>2.3</v>
       </c>
       <c r="R36" t="n">
-        <v>1.17</v>
+        <v>1.25</v>
       </c>
       <c r="S36" t="n">
-        <v>6</v>
+        <v>4.6</v>
       </c>
       <c r="T36" t="n">
-        <v>2.24</v>
+        <v>1.95</v>
       </c>
       <c r="U36" t="n">
-        <v>1.68</v>
+        <v>1.9</v>
       </c>
       <c r="V36" t="n">
-        <v>1.38</v>
+        <v>1.32</v>
       </c>
       <c r="W36" t="n">
-        <v>1.6</v>
+        <v>1.75</v>
       </c>
       <c r="X36" t="n">
-        <v>7.6</v>
+        <v>11</v>
       </c>
       <c r="Y36" t="n">
-        <v>9.4</v>
+        <v>12.5</v>
       </c>
       <c r="Z36" t="n">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="AA36" t="n">
+        <v>90</v>
+      </c>
+      <c r="AB36" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="AC36" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AD36" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AE36" t="n">
+        <v>60</v>
+      </c>
+      <c r="AF36" t="n">
+        <v>14</v>
+      </c>
+      <c r="AG36" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH36" t="n">
+        <v>22</v>
+      </c>
+      <c r="AI36" t="n">
         <v>75</v>
       </c>
-      <c r="AB36" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="AC36" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="AD36" t="n">
-        <v>17</v>
-      </c>
-      <c r="AE36" t="n">
-        <v>65</v>
-      </c>
-      <c r="AF36" t="n">
-        <v>15</v>
-      </c>
-      <c r="AG36" t="n">
-        <v>14</v>
-      </c>
-      <c r="AH36" t="n">
-        <v>28</v>
-      </c>
-      <c r="AI36" t="n">
-        <v>110</v>
-      </c>
       <c r="AJ36" t="n">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="AK36" t="n">
-        <v>48</v>
+        <v>29</v>
       </c>
       <c r="AL36" t="n">
-        <v>85</v>
+        <v>50</v>
       </c>
       <c r="AM36" t="n">
-        <v>240</v>
+        <v>170</v>
       </c>
       <c r="AN36" t="n">
-        <v>50</v>
+        <v>26</v>
       </c>
       <c r="AO36" t="n">
-        <v>95</v>
+        <v>80</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Argentinian Primera Division</t>
+          <t>US USL League One</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -5378,260 +5378,800 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>20:15:00</t>
+          <t>19:00:00</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Boca Juniors</t>
+          <t>One Knoxville SC</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Tigre</t>
+          <t>Spokane Velocity FC</t>
         </is>
       </c>
       <c r="F37" t="n">
-        <v>1.76</v>
+        <v>2.14</v>
       </c>
       <c r="G37" t="n">
-        <v>1.84</v>
+        <v>3</v>
       </c>
       <c r="H37" t="n">
-        <v>6.4</v>
+        <v>3.25</v>
       </c>
       <c r="I37" t="n">
-        <v>7.4</v>
+        <v>5.5</v>
       </c>
       <c r="J37" t="n">
-        <v>3.25</v>
+        <v>2.36</v>
       </c>
       <c r="K37" t="n">
-        <v>3.5</v>
+        <v>4.4</v>
       </c>
       <c r="L37" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="M37" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N37" t="n">
         <v>1.58</v>
       </c>
-      <c r="M37" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="N37" t="n">
-        <v>2.58</v>
-      </c>
       <c r="O37" t="n">
-        <v>1.55</v>
+        <v>1.01</v>
       </c>
       <c r="P37" t="n">
-        <v>1.53</v>
+        <v>1.58</v>
       </c>
       <c r="Q37" t="n">
-        <v>2.62</v>
+        <v>1.98</v>
       </c>
       <c r="R37" t="n">
         <v>1.18</v>
       </c>
       <c r="S37" t="n">
-        <v>5.5</v>
+        <v>1.98</v>
       </c>
       <c r="T37" t="n">
-        <v>2.38</v>
+        <v>1.01</v>
       </c>
       <c r="U37" t="n">
-        <v>1.63</v>
+        <v>1.01</v>
       </c>
       <c r="V37" t="n">
-        <v>1.16</v>
+        <v>1.22</v>
       </c>
       <c r="W37" t="n">
-        <v>2.16</v>
+        <v>1.5</v>
       </c>
       <c r="X37" t="n">
-        <v>8.800000000000001</v>
+        <v>1000</v>
       </c>
       <c r="Y37" t="n">
-        <v>15.5</v>
+        <v>1000</v>
       </c>
       <c r="Z37" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AA37" t="n">
-        <v>310</v>
+        <v>1000</v>
       </c>
       <c r="AB37" t="n">
-        <v>5.9</v>
+        <v>1000</v>
       </c>
       <c r="AC37" t="n">
-        <v>9</v>
+        <v>1000</v>
       </c>
       <c r="AD37" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AE37" t="n">
-        <v>180</v>
+        <v>1000</v>
       </c>
       <c r="AF37" t="n">
-        <v>9</v>
+        <v>1000</v>
       </c>
       <c r="AG37" t="n">
-        <v>11.5</v>
+        <v>1000</v>
       </c>
       <c r="AH37" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AI37" t="n">
-        <v>200</v>
+        <v>1000</v>
       </c>
       <c r="AJ37" t="n">
-        <v>24</v>
+        <v>1000</v>
       </c>
       <c r="AK37" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AL37" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AM37" t="n">
-        <v>340</v>
+        <v>1000</v>
       </c>
       <c r="AN37" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="AO37" t="n">
-        <v>360</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
+          <t>Argentinian Primera Division</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>2025-11-16</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>20:15:00</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>Central Cordoba (SdE)</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>Banfield</t>
+        </is>
+      </c>
+      <c r="F38" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="G38" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="H38" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="I38" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="J38" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="K38" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="L38" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M38" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="N38" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="O38" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="P38" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="R38" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="S38" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="T38" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="U38" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="V38" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="W38" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="X38" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="Y38" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="Z38" t="n">
+        <v>21</v>
+      </c>
+      <c r="AA38" t="n">
+        <v>75</v>
+      </c>
+      <c r="AB38" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AC38" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="AD38" t="n">
+        <v>21</v>
+      </c>
+      <c r="AE38" t="n">
+        <v>60</v>
+      </c>
+      <c r="AF38" t="n">
+        <v>15</v>
+      </c>
+      <c r="AG38" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AH38" t="n">
+        <v>28</v>
+      </c>
+      <c r="AI38" t="n">
+        <v>980</v>
+      </c>
+      <c r="AJ38" t="n">
+        <v>46</v>
+      </c>
+      <c r="AK38" t="n">
+        <v>44</v>
+      </c>
+      <c r="AL38" t="n">
+        <v>85</v>
+      </c>
+      <c r="AM38" t="n">
+        <v>230</v>
+      </c>
+      <c r="AN38" t="n">
+        <v>55</v>
+      </c>
+      <c r="AO38" t="n">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Argentinian Primera Division</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>2025-11-16</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>20:15:00</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>Boca Juniors</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>Tigre</t>
+        </is>
+      </c>
+      <c r="F39" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="G39" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="H39" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="I39" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="J39" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="K39" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="L39" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="M39" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="N39" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="O39" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="P39" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="R39" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="S39" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="T39" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="U39" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="V39" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="W39" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="X39" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="Y39" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="Z39" t="n">
+        <v>55</v>
+      </c>
+      <c r="AA39" t="n">
+        <v>310</v>
+      </c>
+      <c r="AB39" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="AC39" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AD39" t="n">
+        <v>980</v>
+      </c>
+      <c r="AE39" t="n">
+        <v>180</v>
+      </c>
+      <c r="AF39" t="n">
+        <v>9</v>
+      </c>
+      <c r="AG39" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AH39" t="n">
+        <v>980</v>
+      </c>
+      <c r="AI39" t="n">
+        <v>200</v>
+      </c>
+      <c r="AJ39" t="n">
+        <v>22</v>
+      </c>
+      <c r="AK39" t="n">
+        <v>980</v>
+      </c>
+      <c r="AL39" t="n">
+        <v>65</v>
+      </c>
+      <c r="AM39" t="n">
+        <v>340</v>
+      </c>
+      <c r="AN39" t="n">
+        <v>21</v>
+      </c>
+      <c r="AO39" t="n">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Argentinian Primera Division</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>2025-11-16</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>20:15:00</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>Newells</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>Racing Club</t>
+        </is>
+      </c>
+      <c r="F40" t="n">
+        <v>4</v>
+      </c>
+      <c r="G40" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="H40" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="I40" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="J40" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="K40" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="L40" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="M40" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="N40" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="O40" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="P40" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="R40" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="S40" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="T40" t="n">
+        <v>2</v>
+      </c>
+      <c r="U40" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="V40" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="W40" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="X40" t="n">
+        <v>980</v>
+      </c>
+      <c r="Y40" t="n">
+        <v>980</v>
+      </c>
+      <c r="Z40" t="n">
+        <v>980</v>
+      </c>
+      <c r="AA40" t="n">
+        <v>980</v>
+      </c>
+      <c r="AB40" t="n">
+        <v>980</v>
+      </c>
+      <c r="AC40" t="n">
+        <v>980</v>
+      </c>
+      <c r="AD40" t="n">
+        <v>980</v>
+      </c>
+      <c r="AE40" t="n">
+        <v>980</v>
+      </c>
+      <c r="AF40" t="n">
+        <v>980</v>
+      </c>
+      <c r="AG40" t="n">
+        <v>980</v>
+      </c>
+      <c r="AH40" t="n">
+        <v>980</v>
+      </c>
+      <c r="AI40" t="n">
+        <v>980</v>
+      </c>
+      <c r="AJ40" t="n">
+        <v>120</v>
+      </c>
+      <c r="AK40" t="n">
+        <v>70</v>
+      </c>
+      <c r="AL40" t="n">
+        <v>100</v>
+      </c>
+      <c r="AM40" t="n">
+        <v>180</v>
+      </c>
+      <c r="AN40" t="n">
+        <v>110</v>
+      </c>
+      <c r="AO40" t="n">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Argentinian Primera Division</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>2025-11-16</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>20:15:00</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>Estudiantes</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>Argentinos Juniors</t>
+        </is>
+      </c>
+      <c r="F41" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="G41" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="H41" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="I41" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="J41" t="n">
+        <v>3</v>
+      </c>
+      <c r="K41" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="L41" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="M41" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="N41" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="O41" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="P41" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="R41" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="S41" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="T41" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="U41" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="V41" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="W41" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="X41" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="Y41" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="Z41" t="n">
+        <v>20</v>
+      </c>
+      <c r="AA41" t="n">
+        <v>70</v>
+      </c>
+      <c r="AB41" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AC41" t="n">
+        <v>7</v>
+      </c>
+      <c r="AD41" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AE41" t="n">
+        <v>60</v>
+      </c>
+      <c r="AF41" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AG41" t="n">
+        <v>14</v>
+      </c>
+      <c r="AH41" t="n">
+        <v>27</v>
+      </c>
+      <c r="AI41" t="n">
+        <v>95</v>
+      </c>
+      <c r="AJ41" t="n">
+        <v>50</v>
+      </c>
+      <c r="AK41" t="n">
+        <v>44</v>
+      </c>
+      <c r="AL41" t="n">
+        <v>80</v>
+      </c>
+      <c r="AM41" t="n">
+        <v>240</v>
+      </c>
+      <c r="AN41" t="n">
+        <v>55</v>
+      </c>
+      <c r="AO41" t="n">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
           <t>Colombian Primera B</t>
         </is>
       </c>
-      <c r="B38" t="inlineStr">
+      <c r="B42" t="inlineStr">
         <is>
           <t>2025-11-16</t>
         </is>
       </c>
-      <c r="C38" t="inlineStr">
+      <c r="C42" t="inlineStr">
         <is>
           <t>21:30:00</t>
         </is>
       </c>
-      <c r="D38" t="inlineStr">
+      <c r="D42" t="inlineStr">
         <is>
           <t>Real Soacha Cundinamarca FC</t>
         </is>
       </c>
-      <c r="E38" t="inlineStr">
+      <c r="E42" t="inlineStr">
         <is>
           <t>Real Cartagena</t>
         </is>
       </c>
-      <c r="F38" t="n">
+      <c r="F42" t="n">
         <v>2.18</v>
       </c>
-      <c r="G38" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="H38" t="n">
+      <c r="G42" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="H42" t="n">
         <v>3.5</v>
       </c>
-      <c r="I38" t="n">
+      <c r="I42" t="n">
         <v>4.1</v>
       </c>
-      <c r="J38" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="K38" t="n">
+      <c r="J42" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="K42" t="n">
         <v>3.95</v>
       </c>
-      <c r="L38" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="M38" t="n">
+      <c r="L42" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="M42" t="n">
         <v>1.08</v>
       </c>
-      <c r="N38" t="n">
+      <c r="N42" t="n">
         <v>2.98</v>
       </c>
-      <c r="O38" t="n">
+      <c r="O42" t="n">
         <v>1.41</v>
       </c>
-      <c r="P38" t="n">
+      <c r="P42" t="n">
         <v>1.67</v>
       </c>
-      <c r="Q38" t="n">
+      <c r="Q42" t="n">
         <v>2.2</v>
       </c>
-      <c r="R38" t="n">
+      <c r="R42" t="n">
         <v>1.25</v>
       </c>
-      <c r="S38" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="T38" t="n">
+      <c r="S42" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="T42" t="n">
         <v>1.89</v>
       </c>
-      <c r="U38" t="n">
-        <v>1.92</v>
-      </c>
-      <c r="V38" t="n">
+      <c r="U42" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="V42" t="n">
         <v>1.32</v>
       </c>
-      <c r="W38" t="n">
-        <v>1.66</v>
-      </c>
-      <c r="X38" t="n">
+      <c r="W42" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="X42" t="n">
         <v>11.5</v>
       </c>
-      <c r="Y38" t="n">
+      <c r="Y42" t="n">
         <v>12.5</v>
       </c>
-      <c r="Z38" t="n">
-        <v>980</v>
-      </c>
-      <c r="AA38" t="n">
+      <c r="Z42" t="n">
+        <v>980</v>
+      </c>
+      <c r="AA42" t="n">
         <v>80</v>
       </c>
-      <c r="AB38" t="n">
+      <c r="AB42" t="n">
         <v>8.800000000000001</v>
       </c>
-      <c r="AC38" t="n">
+      <c r="AC42" t="n">
         <v>7.8</v>
       </c>
-      <c r="AD38" t="n">
+      <c r="AD42" t="n">
         <v>16.5</v>
       </c>
-      <c r="AE38" t="n">
+      <c r="AE42" t="n">
         <v>55</v>
       </c>
-      <c r="AF38" t="n">
+      <c r="AF42" t="n">
         <v>14.5</v>
       </c>
-      <c r="AG38" t="n">
+      <c r="AG42" t="n">
         <v>12</v>
       </c>
-      <c r="AH38" t="n">
+      <c r="AH42" t="n">
         <v>21</v>
       </c>
-      <c r="AI38" t="n">
+      <c r="AI42" t="n">
         <v>70</v>
       </c>
-      <c r="AJ38" t="n">
-        <v>980</v>
-      </c>
-      <c r="AK38" t="n">
-        <v>980</v>
-      </c>
-      <c r="AL38" t="n">
-        <v>980</v>
-      </c>
-      <c r="AM38" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN38" t="n">
+      <c r="AJ42" t="n">
+        <v>980</v>
+      </c>
+      <c r="AK42" t="n">
+        <v>980</v>
+      </c>
+      <c r="AL42" t="n">
+        <v>980</v>
+      </c>
+      <c r="AM42" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN42" t="n">
         <v>30</v>
       </c>
-      <c r="AO38" t="n">
+      <c r="AO42" t="n">
         <v>1000</v>
       </c>
     </row>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-11-16.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-11-16.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO42"/>
+  <dimension ref="A1:AO44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -670,10 +670,10 @@
         <v>1.92</v>
       </c>
       <c r="G2" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="H2" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="I2" t="n">
         <v>4.8</v>
@@ -682,43 +682,43 @@
         <v>3.4</v>
       </c>
       <c r="K2" t="n">
-        <v>3.95</v>
+        <v>3.85</v>
       </c>
       <c r="L2" t="n">
-        <v>1.35</v>
+        <v>1.46</v>
       </c>
       <c r="M2" t="n">
         <v>1.07</v>
       </c>
       <c r="N2" t="n">
-        <v>3.05</v>
+        <v>3.4</v>
       </c>
       <c r="O2" t="n">
         <v>1.33</v>
       </c>
       <c r="P2" t="n">
-        <v>1.82</v>
+        <v>1.84</v>
       </c>
       <c r="Q2" t="n">
         <v>1.98</v>
       </c>
       <c r="R2" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="S2" t="n">
         <v>3.5</v>
       </c>
       <c r="T2" t="n">
-        <v>1.82</v>
+        <v>1.81</v>
       </c>
       <c r="U2" t="n">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="V2" t="n">
         <v>1.27</v>
       </c>
       <c r="W2" t="n">
-        <v>1.91</v>
+        <v>1.92</v>
       </c>
       <c r="X2" t="n">
         <v>1000</v>
@@ -736,7 +736,7 @@
         <v>1000</v>
       </c>
       <c r="AC2" t="n">
-        <v>1000</v>
+        <v>8.6</v>
       </c>
       <c r="AD2" t="n">
         <v>22</v>
@@ -802,58 +802,58 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>3.85</v>
+        <v>3.95</v>
       </c>
       <c r="G3" t="n">
-        <v>5</v>
+        <v>4.8</v>
       </c>
       <c r="H3" t="n">
-        <v>1.89</v>
+        <v>1.88</v>
       </c>
       <c r="I3" t="n">
-        <v>2.12</v>
+        <v>2</v>
       </c>
       <c r="J3" t="n">
         <v>3.6</v>
       </c>
       <c r="K3" t="n">
-        <v>4.8</v>
+        <v>4.3</v>
       </c>
       <c r="L3" t="n">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="M3" t="n">
         <v>1.06</v>
       </c>
       <c r="N3" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="O3" t="n">
-        <v>1.27</v>
+        <v>1.26</v>
       </c>
       <c r="P3" t="n">
         <v>2.02</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.79</v>
+        <v>1.78</v>
       </c>
       <c r="R3" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="S3" t="n">
         <v>3</v>
       </c>
       <c r="T3" t="n">
-        <v>1.62</v>
+        <v>1.71</v>
       </c>
       <c r="U3" t="n">
         <v>2.02</v>
       </c>
       <c r="V3" t="n">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="W3" t="n">
-        <v>1.24</v>
+        <v>1.27</v>
       </c>
       <c r="X3" t="n">
         <v>1000</v>
@@ -877,10 +877,10 @@
         <v>13</v>
       </c>
       <c r="AE3" t="n">
-        <v>25</v>
+        <v>1000</v>
       </c>
       <c r="AF3" t="n">
-        <v>40</v>
+        <v>1000</v>
       </c>
       <c r="AG3" t="n">
         <v>21</v>
@@ -937,25 +937,25 @@
         </is>
       </c>
       <c r="F4" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="G4" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="H4" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="I4" t="n">
         <v>2.74</v>
-      </c>
-      <c r="G4" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="H4" t="n">
-        <v>2.42</v>
-      </c>
-      <c r="I4" t="n">
-        <v>2.7</v>
       </c>
       <c r="J4" t="n">
         <v>3.45</v>
       </c>
       <c r="K4" t="n">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="L4" t="n">
-        <v>1.35</v>
+        <v>1.38</v>
       </c>
       <c r="M4" t="n">
         <v>1.05</v>
@@ -976,7 +976,7 @@
         <v>1.44</v>
       </c>
       <c r="S4" t="n">
-        <v>2.72</v>
+        <v>2.74</v>
       </c>
       <c r="T4" t="n">
         <v>1.6</v>
@@ -985,7 +985,7 @@
         <v>2.32</v>
       </c>
       <c r="V4" t="n">
-        <v>1.58</v>
+        <v>1.59</v>
       </c>
       <c r="W4" t="n">
         <v>1.48</v>
@@ -1072,85 +1072,85 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>3.45</v>
+        <v>3.75</v>
       </c>
       <c r="G5" t="n">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="H5" t="n">
-        <v>2.08</v>
+        <v>2.14</v>
       </c>
       <c r="I5" t="n">
         <v>2.38</v>
       </c>
       <c r="J5" t="n">
-        <v>3.15</v>
+        <v>2.82</v>
       </c>
       <c r="K5" t="n">
-        <v>3.75</v>
+        <v>3.35</v>
       </c>
       <c r="L5" t="n">
-        <v>1.45</v>
+        <v>1.56</v>
       </c>
       <c r="M5" t="n">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="N5" t="n">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="O5" t="n">
-        <v>1.38</v>
+        <v>1.43</v>
       </c>
       <c r="P5" t="n">
-        <v>1.72</v>
+        <v>1.63</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.96</v>
+        <v>2.26</v>
       </c>
       <c r="R5" t="n">
-        <v>1.27</v>
+        <v>1.23</v>
       </c>
       <c r="S5" t="n">
-        <v>3.9</v>
+        <v>4.4</v>
       </c>
       <c r="T5" t="n">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="U5" t="n">
-        <v>1.94</v>
+        <v>1.86</v>
       </c>
       <c r="V5" t="n">
         <v>1.72</v>
       </c>
       <c r="W5" t="n">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="X5" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="Y5" t="n">
-        <v>10</v>
+        <v>1000</v>
       </c>
       <c r="Z5" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="AA5" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AB5" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="AC5" t="n">
-        <v>1000</v>
+        <v>7.4</v>
       </c>
       <c r="AD5" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="AE5" t="n">
         <v>1000</v>
       </c>
       <c r="AF5" t="n">
-        <v>1000</v>
+        <v>29</v>
       </c>
       <c r="AG5" t="n">
         <v>1000</v>
@@ -1159,10 +1159,10 @@
         <v>1000</v>
       </c>
       <c r="AI5" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AJ5" t="n">
-        <v>1000</v>
+        <v>95</v>
       </c>
       <c r="AK5" t="n">
         <v>1000</v>
@@ -1174,10 +1174,10 @@
         <v>1000</v>
       </c>
       <c r="AN5" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="AO5" t="n">
-        <v>1000</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6">
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>2.34</v>
+        <v>2.36</v>
       </c>
       <c r="G6" t="n">
         <v>2.58</v>
@@ -1216,16 +1216,16 @@
         <v>3.25</v>
       </c>
       <c r="I6" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="J6" t="n">
-        <v>3.15</v>
+        <v>3.05</v>
       </c>
       <c r="K6" t="n">
         <v>3.45</v>
       </c>
       <c r="L6" t="n">
-        <v>1.43</v>
+        <v>1.49</v>
       </c>
       <c r="M6" t="n">
         <v>1.08</v>
@@ -1249,16 +1249,16 @@
         <v>3.7</v>
       </c>
       <c r="T6" t="n">
-        <v>1.79</v>
+        <v>1.8</v>
       </c>
       <c r="U6" t="n">
-        <v>1.97</v>
+        <v>1.99</v>
       </c>
       <c r="V6" t="n">
         <v>1.35</v>
       </c>
       <c r="W6" t="n">
-        <v>1.64</v>
+        <v>1.63</v>
       </c>
       <c r="X6" t="n">
         <v>1000</v>
@@ -1342,31 +1342,31 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>2.44</v>
+        <v>2.46</v>
       </c>
       <c r="G7" t="n">
         <v>2.74</v>
       </c>
       <c r="H7" t="n">
-        <v>2.64</v>
+        <v>2.68</v>
       </c>
       <c r="I7" t="n">
         <v>3</v>
       </c>
       <c r="J7" t="n">
-        <v>3.45</v>
+        <v>3.35</v>
       </c>
       <c r="K7" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="L7" t="n">
-        <v>1.34</v>
+        <v>1.36</v>
       </c>
       <c r="M7" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N7" t="n">
-        <v>4.4</v>
+        <v>5</v>
       </c>
       <c r="O7" t="n">
         <v>1.23</v>
@@ -1375,7 +1375,7 @@
         <v>2.28</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="R7" t="n">
         <v>1.5</v>
@@ -1393,7 +1393,7 @@
         <v>1.5</v>
       </c>
       <c r="W7" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="X7" t="n">
         <v>1000</v>
@@ -1486,16 +1486,16 @@
         <v>2.18</v>
       </c>
       <c r="I8" t="n">
-        <v>2.34</v>
+        <v>2.36</v>
       </c>
       <c r="J8" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="K8" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="L8" t="n">
-        <v>1.45</v>
+        <v>1.5</v>
       </c>
       <c r="M8" t="n">
         <v>1.08</v>
@@ -1510,13 +1510,13 @@
         <v>1.76</v>
       </c>
       <c r="Q8" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="R8" t="n">
         <v>1.28</v>
       </c>
       <c r="S8" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="T8" t="n">
         <v>1.83</v>
@@ -1525,13 +1525,13 @@
         <v>1.99</v>
       </c>
       <c r="V8" t="n">
-        <v>1.74</v>
+        <v>1.73</v>
       </c>
       <c r="W8" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="X8" t="n">
-        <v>12.5</v>
+        <v>15.5</v>
       </c>
       <c r="Y8" t="n">
         <v>9.199999999999999</v>
@@ -1564,7 +1564,7 @@
         <v>19.5</v>
       </c>
       <c r="AI8" t="n">
-        <v>46</v>
+        <v>980</v>
       </c>
       <c r="AJ8" t="n">
         <v>75</v>
@@ -1582,13 +1582,13 @@
         <v>1000</v>
       </c>
       <c r="AO8" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Portuguese Segunda Liga</t>
+          <t>Slovakian 2 Liga</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -1598,132 +1598,132 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>08:00:00</t>
+          <t>06:30:00</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Felgueiras</t>
+          <t>FC Petrzalka</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Farense</t>
+          <t>Slovan Bratislava II</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>2.64</v>
+        <v>1.54</v>
       </c>
       <c r="G9" t="n">
-        <v>3</v>
+        <v>1.63</v>
       </c>
       <c r="H9" t="n">
-        <v>2.74</v>
+        <v>5.5</v>
       </c>
       <c r="I9" t="n">
-        <v>3.2</v>
+        <v>6.8</v>
       </c>
       <c r="J9" t="n">
-        <v>3.15</v>
+        <v>4.3</v>
       </c>
       <c r="K9" t="n">
-        <v>3.95</v>
+        <v>5.2</v>
       </c>
       <c r="L9" t="n">
-        <v>1.38</v>
+        <v>1.25</v>
       </c>
       <c r="M9" t="n">
-        <v>1.08</v>
+        <v>1.03</v>
       </c>
       <c r="N9" t="n">
-        <v>3.1</v>
+        <v>4.9</v>
       </c>
       <c r="O9" t="n">
-        <v>1.39</v>
+        <v>1.19</v>
       </c>
       <c r="P9" t="n">
-        <v>1.72</v>
+        <v>2.36</v>
       </c>
       <c r="Q9" t="n">
-        <v>2.18</v>
+        <v>1.57</v>
       </c>
       <c r="R9" t="n">
-        <v>1.26</v>
+        <v>1.54</v>
       </c>
       <c r="S9" t="n">
-        <v>3.6</v>
+        <v>2.44</v>
       </c>
       <c r="T9" t="n">
-        <v>1.85</v>
+        <v>1.69</v>
       </c>
       <c r="U9" t="n">
-        <v>1.98</v>
+        <v>2.14</v>
       </c>
       <c r="V9" t="n">
-        <v>1.46</v>
+        <v>1.17</v>
       </c>
       <c r="W9" t="n">
-        <v>1.5</v>
+        <v>2.56</v>
       </c>
       <c r="X9" t="n">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="Y9" t="n">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="Z9" t="n">
-        <v>23</v>
+        <v>65</v>
       </c>
       <c r="AA9" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AB9" t="n">
         <v>12</v>
       </c>
       <c r="AC9" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="AD9" t="n">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="AE9" t="n">
-        <v>40</v>
+        <v>230</v>
       </c>
       <c r="AF9" t="n">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="AG9" t="n">
-        <v>15.5</v>
+        <v>11</v>
       </c>
       <c r="AH9" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AI9" t="n">
-        <v>65</v>
+        <v>170</v>
       </c>
       <c r="AJ9" t="n">
-        <v>48</v>
+        <v>19</v>
       </c>
       <c r="AK9" t="n">
-        <v>42</v>
+        <v>19</v>
       </c>
       <c r="AL9" t="n">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="AM9" t="n">
-        <v>140</v>
+        <v>330</v>
       </c>
       <c r="AN9" t="n">
-        <v>42</v>
+        <v>8</v>
       </c>
       <c r="AO9" t="n">
-        <v>960</v>
+        <v>540</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Italian Serie C</t>
+          <t>Slovakian 2 Liga</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -1733,132 +1733,132 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>08:30:00</t>
+          <t>07:00:00</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Benevento</t>
+          <t>Slavia TU Kosice</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Monopoli</t>
+          <t>Samorin</t>
         </is>
       </c>
       <c r="F10" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="G10" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
+      </c>
+      <c r="I10" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="J10" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="K10" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="L10" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="M10" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N10" t="n">
+        <v>4</v>
+      </c>
+      <c r="O10" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="P10" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="R10" t="n">
         <v>1.41</v>
       </c>
-      <c r="G10" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="H10" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="I10" t="n">
-        <v>13</v>
-      </c>
-      <c r="J10" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="K10" t="n">
-        <v>5.7</v>
-      </c>
-      <c r="L10" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="M10" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N10" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="O10" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="P10" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>1.92</v>
-      </c>
-      <c r="R10" t="n">
-        <v>1.3</v>
-      </c>
       <c r="S10" t="n">
-        <v>3.3</v>
+        <v>2.64</v>
       </c>
       <c r="T10" t="n">
-        <v>2.04</v>
+        <v>1.64</v>
       </c>
       <c r="U10" t="n">
-        <v>1.57</v>
+        <v>2.22</v>
       </c>
       <c r="V10" t="n">
-        <v>1.08</v>
+        <v>1.39</v>
       </c>
       <c r="W10" t="n">
-        <v>2.68</v>
+        <v>1.69</v>
       </c>
       <c r="X10" t="n">
-        <v>980</v>
+        <v>18.5</v>
       </c>
       <c r="Y10" t="n">
-        <v>980</v>
+        <v>15.5</v>
       </c>
       <c r="Z10" t="n">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="AA10" t="n">
-        <v>1000</v>
+        <v>170</v>
       </c>
       <c r="AB10" t="n">
-        <v>8</v>
+        <v>12.5</v>
       </c>
       <c r="AC10" t="n">
-        <v>12.5</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD10" t="n">
-        <v>980</v>
+        <v>15</v>
       </c>
       <c r="AE10" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="AF10" t="n">
-        <v>9.199999999999999</v>
+        <v>16.5</v>
       </c>
       <c r="AG10" t="n">
-        <v>980</v>
+        <v>12</v>
       </c>
       <c r="AH10" t="n">
-        <v>980</v>
+        <v>17.5</v>
       </c>
       <c r="AI10" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AJ10" t="n">
-        <v>980</v>
+        <v>80</v>
       </c>
       <c r="AK10" t="n">
-        <v>980</v>
+        <v>25</v>
       </c>
       <c r="AL10" t="n">
-        <v>60</v>
+        <v>85</v>
       </c>
       <c r="AM10" t="n">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="AN10" t="n">
-        <v>11</v>
+        <v>16.5</v>
       </c>
       <c r="AO10" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Italian Serie C</t>
+          <t>Portuguese Segunda Liga</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -1868,132 +1868,132 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>08:30:00</t>
+          <t>08:00:00</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>AC Ospitaletto</t>
+          <t>Felgueiras</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Union Brescia</t>
+          <t>Farense</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>5.6</v>
+        <v>2.74</v>
       </c>
       <c r="G11" t="n">
-        <v>9</v>
+        <v>2.96</v>
       </c>
       <c r="H11" t="n">
-        <v>1.61</v>
+        <v>2.86</v>
       </c>
       <c r="I11" t="n">
-        <v>1.83</v>
+        <v>3.1</v>
       </c>
       <c r="J11" t="n">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="K11" t="n">
-        <v>4.7</v>
+        <v>3.45</v>
       </c>
       <c r="L11" t="n">
-        <v>1.43</v>
+        <v>1.48</v>
       </c>
       <c r="M11" t="n">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="N11" t="n">
-        <v>2.94</v>
+        <v>3.1</v>
       </c>
       <c r="O11" t="n">
         <v>1.41</v>
       </c>
       <c r="P11" t="n">
-        <v>1.65</v>
+        <v>1.71</v>
       </c>
       <c r="Q11" t="n">
-        <v>2.1</v>
+        <v>2.18</v>
       </c>
       <c r="R11" t="n">
-        <v>1.24</v>
+        <v>1.27</v>
       </c>
       <c r="S11" t="n">
-        <v>3.8</v>
+        <v>4.1</v>
       </c>
       <c r="T11" t="n">
-        <v>1.99</v>
+        <v>1.86</v>
       </c>
       <c r="U11" t="n">
-        <v>1.6</v>
+        <v>1.96</v>
       </c>
       <c r="V11" t="n">
-        <v>2.2</v>
+        <v>1.47</v>
       </c>
       <c r="W11" t="n">
-        <v>1.12</v>
+        <v>1.51</v>
       </c>
       <c r="X11" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="Y11" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="Z11" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AA11" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="AB11" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="AC11" t="n">
-        <v>1000</v>
+        <v>7.8</v>
       </c>
       <c r="AD11" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="AE11" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AF11" t="n">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="AG11" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
       <c r="AH11" t="n">
-        <v>1000</v>
+        <v>19.5</v>
       </c>
       <c r="AI11" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AJ11" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AK11" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AL11" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AM11" t="n">
-        <v>1000</v>
+        <v>580</v>
       </c>
       <c r="AN11" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AO11" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Danish 2nd Division</t>
+          <t>Italian Serie C</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -2003,78 +2003,78 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>09:00:00</t>
+          <t>08:30:00</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Naestved</t>
+          <t>AC Ospitaletto</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>VSK Aarhus FC</t>
+          <t>Union Brescia</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>1.43</v>
+        <v>5.5</v>
       </c>
       <c r="G12" t="n">
-        <v>1.78</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="H12" t="n">
-        <v>5</v>
+        <v>1.62</v>
       </c>
       <c r="I12" t="n">
-        <v>1000</v>
+        <v>1.85</v>
       </c>
       <c r="J12" t="n">
-        <v>3.9</v>
+        <v>3.25</v>
       </c>
       <c r="K12" t="n">
-        <v>660</v>
+        <v>4.7</v>
       </c>
       <c r="L12" t="n">
-        <v>1.01</v>
+        <v>1.41</v>
       </c>
       <c r="M12" t="n">
-        <v>1.01</v>
+        <v>1.08</v>
       </c>
       <c r="N12" t="n">
-        <v>3.15</v>
+        <v>2.92</v>
       </c>
       <c r="O12" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="P12" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="R12" t="n">
         <v>1.23</v>
       </c>
-      <c r="P12" t="n">
-        <v>2.02</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>1.54</v>
-      </c>
-      <c r="R12" t="n">
-        <v>1.4</v>
-      </c>
       <c r="S12" t="n">
-        <v>2.36</v>
+        <v>3.85</v>
       </c>
       <c r="T12" t="n">
-        <v>1.04</v>
+        <v>1.99</v>
       </c>
       <c r="U12" t="n">
-        <v>1.04</v>
+        <v>1.6</v>
       </c>
       <c r="V12" t="n">
-        <v>1.04</v>
+        <v>2.18</v>
       </c>
       <c r="W12" t="n">
-        <v>2.28</v>
+        <v>1.13</v>
       </c>
       <c r="X12" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="Y12" t="n">
-        <v>1000</v>
+        <v>29</v>
       </c>
       <c r="Z12" t="n">
         <v>1000</v>
@@ -2086,7 +2086,7 @@
         <v>1000</v>
       </c>
       <c r="AC12" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AD12" t="n">
         <v>1000</v>
@@ -2122,13 +2122,13 @@
         <v>1000</v>
       </c>
       <c r="AO12" t="n">
-        <v>1000</v>
+        <v>18.5</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Spanish Segunda Division</t>
+          <t>Italian Serie C</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -2138,132 +2138,132 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>10:00:00</t>
+          <t>08:30:00</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>AD Ceuta FC</t>
+          <t>Benevento</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Leganes</t>
+          <t>Monopoli</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>2.6</v>
+        <v>1.42</v>
       </c>
       <c r="G13" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="H13" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="I13" t="n">
+        <v>13</v>
+      </c>
+      <c r="J13" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="K13" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="L13" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="M13" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N13" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="O13" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="P13" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="R13" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="S13" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="T13" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="U13" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="V13" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="W13" t="n">
         <v>2.72</v>
       </c>
-      <c r="H13" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="I13" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="J13" t="n">
-        <v>3</v>
-      </c>
-      <c r="K13" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="L13" t="n">
-        <v>0</v>
-      </c>
-      <c r="M13" t="n">
-        <v>0</v>
-      </c>
-      <c r="N13" t="n">
-        <v>0</v>
-      </c>
-      <c r="O13" t="n">
-        <v>0</v>
-      </c>
-      <c r="P13" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>0</v>
-      </c>
-      <c r="R13" t="n">
-        <v>0</v>
-      </c>
-      <c r="S13" t="n">
-        <v>0</v>
-      </c>
-      <c r="T13" t="n">
-        <v>0</v>
-      </c>
-      <c r="U13" t="n">
-        <v>0</v>
-      </c>
-      <c r="V13" t="n">
-        <v>0</v>
-      </c>
-      <c r="W13" t="n">
-        <v>0</v>
-      </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="Z13" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AA13" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB13" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AC13" t="n">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="AD13" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AE13" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF13" t="n">
-        <v>0</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AG13" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AH13" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AI13" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ13" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="AK13" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="AL13" t="n">
-        <v>0</v>
+        <v>370</v>
       </c>
       <c r="AM13" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN13" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AO13" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Italian Serie C</t>
+          <t>Danish 2nd Division</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -2273,72 +2273,72 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>10:30:00</t>
+          <t>09:00:00</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Potenza</t>
+          <t>Naestved</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Trapani</t>
+          <t>VSK Aarhus FC</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>2.48</v>
+        <v>1.43</v>
       </c>
       <c r="G14" t="n">
-        <v>2.82</v>
+        <v>1.78</v>
       </c>
       <c r="H14" t="n">
-        <v>2.8</v>
+        <v>5</v>
       </c>
       <c r="I14" t="n">
-        <v>3.45</v>
+        <v>1000</v>
       </c>
       <c r="J14" t="n">
-        <v>2.92</v>
+        <v>3.9</v>
       </c>
       <c r="K14" t="n">
-        <v>3.85</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="L14" t="n">
-        <v>1.39</v>
+        <v>1.01</v>
       </c>
       <c r="M14" t="n">
-        <v>1.08</v>
+        <v>1.03</v>
       </c>
       <c r="N14" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="O14" t="n">
-        <v>1.38</v>
+        <v>1.23</v>
       </c>
       <c r="P14" t="n">
-        <v>1.73</v>
+        <v>2.02</v>
       </c>
       <c r="Q14" t="n">
-        <v>2.1</v>
+        <v>1.54</v>
       </c>
       <c r="R14" t="n">
-        <v>1.27</v>
+        <v>1.4</v>
       </c>
       <c r="S14" t="n">
-        <v>3.5</v>
+        <v>2.36</v>
       </c>
       <c r="T14" t="n">
-        <v>1.72</v>
+        <v>1.04</v>
       </c>
       <c r="U14" t="n">
-        <v>1.85</v>
+        <v>1.04</v>
       </c>
       <c r="V14" t="n">
-        <v>1.4</v>
+        <v>1.11</v>
       </c>
       <c r="W14" t="n">
-        <v>1.54</v>
+        <v>2.28</v>
       </c>
       <c r="X14" t="n">
         <v>1000</v>
@@ -2398,7 +2398,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Italian Serie C</t>
+          <t>Spanish Segunda Division</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -2408,126 +2408,126 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>10:30:00</t>
+          <t>10:00:00</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Albinoleffe</t>
+          <t>AD Ceuta FC</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>SS Virtus Verona 1921</t>
+          <t>Leganes</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>2.04</v>
+        <v>2.6</v>
       </c>
       <c r="G15" t="n">
-        <v>2.28</v>
+        <v>2.74</v>
       </c>
       <c r="H15" t="n">
-        <v>3.7</v>
+        <v>3.3</v>
       </c>
       <c r="I15" t="n">
-        <v>4.9</v>
+        <v>3.5</v>
       </c>
       <c r="J15" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="K15" t="n">
-        <v>4.2</v>
+        <v>3.1</v>
       </c>
       <c r="L15" t="n">
-        <v>1.43</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>1.08</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>3.25</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>1.35</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>1.78</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>2.02</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>1.29</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>3.7</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>1.83</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>1.99</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>1.29</v>
+        <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>1.78</v>
+        <v>0</v>
       </c>
       <c r="X15" t="n">
-        <v>15.5</v>
+        <v>0</v>
       </c>
       <c r="Y15" t="n">
-        <v>16.5</v>
+        <v>0</v>
       </c>
       <c r="Z15" t="n">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="AA15" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AB15" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AC15" t="n">
-        <v>9.4</v>
+        <v>0</v>
       </c>
       <c r="AD15" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="AE15" t="n">
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="AF15" t="n">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="AG15" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="AH15" t="n">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="AI15" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AJ15" t="n">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="AK15" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="AL15" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AM15" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AN15" t="n">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="AO15" t="n">
-        <v>75</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -2548,88 +2548,88 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Livorno</t>
+          <t>Potenza</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Ravenna</t>
+          <t>Trapani</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>3.65</v>
+        <v>2.48</v>
       </c>
       <c r="G16" t="n">
-        <v>4.4</v>
+        <v>2.82</v>
       </c>
       <c r="H16" t="n">
-        <v>2.18</v>
+        <v>2.9</v>
       </c>
       <c r="I16" t="n">
-        <v>2.38</v>
+        <v>3.45</v>
       </c>
       <c r="J16" t="n">
-        <v>3.05</v>
+        <v>2.92</v>
       </c>
       <c r="K16" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="L16" t="n">
-        <v>1.42</v>
+        <v>1.39</v>
       </c>
       <c r="M16" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="N16" t="n">
-        <v>2.8</v>
+        <v>3.1</v>
       </c>
       <c r="O16" t="n">
-        <v>1.44</v>
+        <v>1.38</v>
       </c>
       <c r="P16" t="n">
-        <v>1.62</v>
+        <v>1.73</v>
       </c>
       <c r="Q16" t="n">
-        <v>2.3</v>
+        <v>2.1</v>
       </c>
       <c r="R16" t="n">
-        <v>1.22</v>
+        <v>1.27</v>
       </c>
       <c r="S16" t="n">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="T16" t="n">
-        <v>1.81</v>
+        <v>1.72</v>
       </c>
       <c r="U16" t="n">
-        <v>1.74</v>
+        <v>1.85</v>
       </c>
       <c r="V16" t="n">
-        <v>1.73</v>
+        <v>1.4</v>
       </c>
       <c r="W16" t="n">
-        <v>1.3</v>
+        <v>1.54</v>
       </c>
       <c r="X16" t="n">
         <v>1000</v>
       </c>
       <c r="Y16" t="n">
-        <v>9.199999999999999</v>
+        <v>1000</v>
       </c>
       <c r="Z16" t="n">
         <v>1000</v>
       </c>
       <c r="AA16" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="AB16" t="n">
         <v>1000</v>
       </c>
       <c r="AC16" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="AD16" t="n">
-        <v>13.5</v>
+        <v>1000</v>
       </c>
       <c r="AE16" t="n">
         <v>1000</v>
@@ -2638,16 +2638,16 @@
         <v>1000</v>
       </c>
       <c r="AG16" t="n">
-        <v>1000</v>
+        <v>26</v>
       </c>
       <c r="AH16" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AI16" t="n">
         <v>1000</v>
       </c>
       <c r="AJ16" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="AK16" t="n">
         <v>1000</v>
@@ -2683,118 +2683,118 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>FC Giugliano</t>
+          <t>Albinoleffe</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Audace Cerignola</t>
+          <t>SS Virtus Verona 1921</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>2.78</v>
+        <v>2.04</v>
       </c>
       <c r="G17" t="n">
-        <v>3.55</v>
+        <v>2.28</v>
       </c>
       <c r="H17" t="n">
-        <v>2.26</v>
+        <v>3.7</v>
       </c>
       <c r="I17" t="n">
-        <v>2.76</v>
+        <v>4.9</v>
       </c>
       <c r="J17" t="n">
-        <v>2.94</v>
+        <v>3.25</v>
       </c>
       <c r="K17" t="n">
-        <v>4.4</v>
+        <v>3.8</v>
       </c>
       <c r="L17" t="n">
-        <v>1.37</v>
+        <v>1.43</v>
       </c>
       <c r="M17" t="n">
-        <v>1.06</v>
+        <v>1.08</v>
       </c>
       <c r="N17" t="n">
-        <v>1.1</v>
+        <v>3.25</v>
       </c>
       <c r="O17" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="P17" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="R17" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="S17" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="T17" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="U17" t="n">
+        <v>2</v>
+      </c>
+      <c r="V17" t="n">
         <v>1.29</v>
       </c>
-      <c r="P17" t="n">
-        <v>1.74</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>1.79</v>
-      </c>
-      <c r="R17" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="S17" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="T17" t="n">
-        <v>1.61</v>
-      </c>
-      <c r="U17" t="n">
-        <v>2.04</v>
-      </c>
-      <c r="V17" t="n">
-        <v>1.01</v>
-      </c>
       <c r="W17" t="n">
-        <v>1.01</v>
+        <v>1.78</v>
       </c>
       <c r="X17" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
       <c r="Y17" t="n">
-        <v>1000</v>
+        <v>16.5</v>
       </c>
       <c r="Z17" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AA17" t="n">
         <v>1000</v>
       </c>
       <c r="AB17" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="AC17" t="n">
-        <v>1000</v>
+        <v>9.4</v>
       </c>
       <c r="AD17" t="n">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="AE17" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AF17" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="AG17" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="AH17" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AI17" t="n">
-        <v>1000</v>
+        <v>380</v>
       </c>
       <c r="AJ17" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AK17" t="n">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="AL17" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AM17" t="n">
         <v>1000</v>
       </c>
       <c r="AN17" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AO17" t="n">
         <v>1000</v>
@@ -2818,112 +2818,112 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>ASD Alcione</t>
+          <t>Livorno</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Novara</t>
+          <t>Ravenna</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>2.6</v>
+        <v>3.35</v>
       </c>
       <c r="G18" t="n">
-        <v>2.96</v>
+        <v>3.95</v>
       </c>
       <c r="H18" t="n">
-        <v>3.1</v>
+        <v>2.36</v>
       </c>
       <c r="I18" t="n">
-        <v>3.6</v>
+        <v>2.56</v>
       </c>
       <c r="J18" t="n">
-        <v>2.76</v>
+        <v>3.05</v>
       </c>
       <c r="K18" t="n">
-        <v>3.15</v>
+        <v>3.4</v>
       </c>
       <c r="L18" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="M18" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="N18" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="O18" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="P18" t="n">
         <v>1.62</v>
       </c>
-      <c r="M18" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="N18" t="n">
-        <v>2.34</v>
-      </c>
-      <c r="O18" t="n">
-        <v>1.61</v>
-      </c>
-      <c r="P18" t="n">
-        <v>1.45</v>
-      </c>
       <c r="Q18" t="n">
-        <v>2.82</v>
+        <v>2.32</v>
       </c>
       <c r="R18" t="n">
-        <v>1.18</v>
+        <v>1.23</v>
       </c>
       <c r="S18" t="n">
-        <v>5.4</v>
+        <v>4.1</v>
       </c>
       <c r="T18" t="n">
-        <v>2.18</v>
+        <v>1.81</v>
       </c>
       <c r="U18" t="n">
-        <v>1.7</v>
+        <v>1.74</v>
       </c>
       <c r="V18" t="n">
-        <v>1.38</v>
+        <v>1.64</v>
       </c>
       <c r="W18" t="n">
-        <v>1.51</v>
+        <v>1.35</v>
       </c>
       <c r="X18" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="Z18" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>130</v>
+      </c>
+      <c r="AB18" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC18" t="n">
         <v>9</v>
       </c>
-      <c r="Y18" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="Z18" t="n">
-        <v>26</v>
-      </c>
-      <c r="AA18" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB18" t="n">
-        <v>9</v>
-      </c>
-      <c r="AC18" t="n">
-        <v>8.199999999999999</v>
-      </c>
       <c r="AD18" t="n">
-        <v>18.5</v>
+        <v>1000</v>
       </c>
       <c r="AE18" t="n">
-        <v>70</v>
+        <v>110</v>
       </c>
       <c r="AF18" t="n">
-        <v>20</v>
+        <v>95</v>
       </c>
       <c r="AG18" t="n">
-        <v>16.5</v>
+        <v>19</v>
       </c>
       <c r="AH18" t="n">
-        <v>32</v>
+        <v>65</v>
       </c>
       <c r="AI18" t="n">
         <v>1000</v>
       </c>
       <c r="AJ18" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AK18" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AL18" t="n">
-        <v>95</v>
+        <v>1000</v>
       </c>
       <c r="AM18" t="n">
         <v>1000</v>
@@ -2938,7 +2938,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Spanish Segunda Division</t>
+          <t>Italian Serie C</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -2948,132 +2948,132 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>12:15:00</t>
+          <t>10:30:00</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Almeria</t>
+          <t>FC Giugliano</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Cadiz</t>
+          <t>Audace Cerignola</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>1.68</v>
+        <v>2.78</v>
       </c>
       <c r="G19" t="n">
-        <v>1.72</v>
+        <v>3.5</v>
       </c>
       <c r="H19" t="n">
-        <v>5.7</v>
+        <v>2.28</v>
       </c>
       <c r="I19" t="n">
-        <v>6.2</v>
+        <v>2.76</v>
       </c>
       <c r="J19" t="n">
-        <v>4</v>
+        <v>3.15</v>
       </c>
       <c r="K19" t="n">
-        <v>4.2</v>
+        <v>3.9</v>
       </c>
       <c r="L19" t="n">
-        <v>1.39</v>
+        <v>1.37</v>
       </c>
       <c r="M19" t="n">
         <v>1.06</v>
       </c>
       <c r="N19" t="n">
-        <v>3.95</v>
+        <v>1.1</v>
       </c>
       <c r="O19" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="P19" t="n">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.91</v>
+        <v>1.78</v>
       </c>
       <c r="R19" t="n">
-        <v>1.38</v>
+        <v>1.32</v>
       </c>
       <c r="S19" t="n">
-        <v>3.35</v>
+        <v>1.05</v>
       </c>
       <c r="T19" t="n">
-        <v>1.92</v>
+        <v>1.68</v>
       </c>
       <c r="U19" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="V19" t="n">
-        <v>1.19</v>
+        <v>1.01</v>
       </c>
       <c r="W19" t="n">
-        <v>2.4</v>
+        <v>1.01</v>
       </c>
       <c r="X19" t="n">
-        <v>15.5</v>
+        <v>1000</v>
       </c>
       <c r="Y19" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="Z19" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AA19" t="n">
-        <v>180</v>
+        <v>900</v>
       </c>
       <c r="AB19" t="n">
-        <v>8.4</v>
+        <v>1000</v>
       </c>
       <c r="AC19" t="n">
-        <v>9.199999999999999</v>
+        <v>42</v>
       </c>
       <c r="AD19" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AE19" t="n">
-        <v>95</v>
+        <v>1000</v>
       </c>
       <c r="AF19" t="n">
-        <v>10</v>
+        <v>1000</v>
       </c>
       <c r="AG19" t="n">
-        <v>9.4</v>
+        <v>1000</v>
       </c>
       <c r="AH19" t="n">
-        <v>22</v>
+        <v>1000</v>
       </c>
       <c r="AI19" t="n">
-        <v>95</v>
+        <v>1000</v>
       </c>
       <c r="AJ19" t="n">
-        <v>16.5</v>
+        <v>1000</v>
       </c>
       <c r="AK19" t="n">
-        <v>17.5</v>
+        <v>1000</v>
       </c>
       <c r="AL19" t="n">
-        <v>38</v>
+        <v>1000</v>
       </c>
       <c r="AM19" t="n">
-        <v>140</v>
+        <v>1000</v>
       </c>
       <c r="AN19" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="AO19" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Spanish Segunda Division</t>
+          <t>Italian Serie C</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -3083,132 +3083,132 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>12:15:00</t>
+          <t>10:30:00</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Sporting Gijon</t>
+          <t>ASD Alcione</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Eibar</t>
+          <t>Novara</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>2.36</v>
+        <v>2.6</v>
       </c>
       <c r="G20" t="n">
-        <v>2.44</v>
+        <v>2.96</v>
       </c>
       <c r="H20" t="n">
-        <v>3.65</v>
+        <v>3.1</v>
       </c>
       <c r="I20" t="n">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="J20" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="K20" t="n">
         <v>3.15</v>
       </c>
-      <c r="K20" t="n">
-        <v>3.25</v>
-      </c>
       <c r="L20" t="n">
-        <v>1.52</v>
+        <v>1.62</v>
       </c>
       <c r="M20" t="n">
-        <v>1.11</v>
+        <v>1.14</v>
       </c>
       <c r="N20" t="n">
-        <v>2.88</v>
+        <v>2.34</v>
       </c>
       <c r="O20" t="n">
-        <v>1.47</v>
+        <v>1.61</v>
       </c>
       <c r="P20" t="n">
-        <v>1.65</v>
+        <v>1.45</v>
       </c>
       <c r="Q20" t="n">
-        <v>2.42</v>
+        <v>2.82</v>
       </c>
       <c r="R20" t="n">
-        <v>1.24</v>
+        <v>1.18</v>
       </c>
       <c r="S20" t="n">
-        <v>4.8</v>
+        <v>5.4</v>
       </c>
       <c r="T20" t="n">
-        <v>1.99</v>
+        <v>2.18</v>
       </c>
       <c r="U20" t="n">
-        <v>1.96</v>
+        <v>1.69</v>
       </c>
       <c r="V20" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="W20" t="n">
-        <v>1.69</v>
+        <v>1.51</v>
       </c>
       <c r="X20" t="n">
-        <v>9.800000000000001</v>
+        <v>9</v>
       </c>
       <c r="Y20" t="n">
-        <v>11.5</v>
+        <v>10.5</v>
       </c>
       <c r="Z20" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AA20" t="n">
-        <v>80</v>
+        <v>900</v>
       </c>
       <c r="AB20" t="n">
+        <v>9</v>
+      </c>
+      <c r="AC20" t="n">
         <v>8.199999999999999</v>
       </c>
-      <c r="AC20" t="n">
-        <v>7.2</v>
-      </c>
       <c r="AD20" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AE20" t="n">
+        <v>70</v>
+      </c>
+      <c r="AF20" t="n">
+        <v>20</v>
+      </c>
+      <c r="AG20" t="n">
         <v>16.5</v>
       </c>
-      <c r="AE20" t="n">
+      <c r="AH20" t="n">
+        <v>32</v>
+      </c>
+      <c r="AI20" t="n">
+        <v>260</v>
+      </c>
+      <c r="AJ20" t="n">
         <v>60</v>
       </c>
-      <c r="AF20" t="n">
-        <v>15</v>
-      </c>
-      <c r="AG20" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AH20" t="n">
-        <v>21</v>
-      </c>
-      <c r="AI20" t="n">
-        <v>75</v>
-      </c>
-      <c r="AJ20" t="n">
-        <v>36</v>
-      </c>
       <c r="AK20" t="n">
-        <v>980</v>
+        <v>55</v>
       </c>
       <c r="AL20" t="n">
-        <v>60</v>
+        <v>210</v>
       </c>
       <c r="AM20" t="n">
-        <v>180</v>
+        <v>1000</v>
       </c>
       <c r="AN20" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AO20" t="n">
-        <v>75</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Italian Serie C</t>
+          <t>Spanish Segunda Division</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -3218,132 +3218,132 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>13:30:00</t>
+          <t>12:15:00</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>LR Vicenza Virtus</t>
+          <t>Almeria</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Renate</t>
+          <t>Cadiz</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>1.54</v>
+        <v>1.74</v>
       </c>
       <c r="G21" t="n">
-        <v>1.71</v>
+        <v>1.75</v>
       </c>
       <c r="H21" t="n">
-        <v>6.6</v>
+        <v>5.3</v>
       </c>
       <c r="I21" t="n">
-        <v>11</v>
+        <v>5.8</v>
       </c>
       <c r="J21" t="n">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="K21" t="n">
         <v>4.2</v>
       </c>
       <c r="L21" t="n">
-        <v>1.01</v>
+        <v>1.39</v>
       </c>
       <c r="M21" t="n">
-        <v>1.08</v>
+        <v>1.06</v>
       </c>
       <c r="N21" t="n">
-        <v>2.94</v>
+        <v>3.9</v>
       </c>
       <c r="O21" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="P21" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="R21" t="n">
         <v>1.38</v>
       </c>
-      <c r="P21" t="n">
-        <v>1.64</v>
-      </c>
-      <c r="Q21" t="n">
-        <v>2.16</v>
-      </c>
-      <c r="R21" t="n">
-        <v>1.24</v>
-      </c>
       <c r="S21" t="n">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="T21" t="n">
-        <v>2.02</v>
+        <v>1.9</v>
       </c>
       <c r="U21" t="n">
-        <v>1.6</v>
+        <v>2.04</v>
       </c>
       <c r="V21" t="n">
-        <v>1.11</v>
+        <v>1.21</v>
       </c>
       <c r="W21" t="n">
-        <v>2.4</v>
+        <v>2.32</v>
       </c>
       <c r="X21" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
       <c r="Y21" t="n">
-        <v>1000</v>
+        <v>18</v>
       </c>
       <c r="Z21" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AA21" t="n">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="AB21" t="n">
-        <v>1000</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AC21" t="n">
-        <v>1000</v>
+        <v>9</v>
       </c>
       <c r="AD21" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AE21" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AF21" t="n">
-        <v>10</v>
+        <v>12.5</v>
       </c>
       <c r="AG21" t="n">
-        <v>1000</v>
+        <v>9.4</v>
       </c>
       <c r="AH21" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AI21" t="n">
-        <v>1000</v>
+        <v>90</v>
       </c>
       <c r="AJ21" t="n">
-        <v>1000</v>
+        <v>17.5</v>
       </c>
       <c r="AK21" t="n">
-        <v>1000</v>
+        <v>17.5</v>
       </c>
       <c r="AL21" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AM21" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="AN21" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="AO21" t="n">
-        <v>1000</v>
+        <v>90</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Italian Serie C</t>
+          <t>Spanish Segunda Division</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -3353,126 +3353,126 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>13:30:00</t>
+          <t>12:15:00</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Casertana</t>
+          <t>Sporting Gijon</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Atalanta B</t>
+          <t>Eibar</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>1.04</v>
+        <v>2.36</v>
       </c>
       <c r="G22" t="n">
-        <v>1000</v>
+        <v>2.44</v>
       </c>
       <c r="H22" t="n">
-        <v>1.04</v>
+        <v>3.65</v>
       </c>
       <c r="I22" t="n">
-        <v>1000</v>
+        <v>3.75</v>
       </c>
       <c r="J22" t="n">
-        <v>1.01</v>
+        <v>3.1</v>
       </c>
       <c r="K22" t="n">
-        <v>1000</v>
+        <v>3.2</v>
       </c>
       <c r="L22" t="n">
-        <v>1.01</v>
+        <v>1.52</v>
       </c>
       <c r="M22" t="n">
-        <v>1.01</v>
+        <v>1.11</v>
       </c>
       <c r="N22" t="n">
-        <v>1.31</v>
+        <v>2.88</v>
       </c>
       <c r="O22" t="n">
-        <v>1.01</v>
+        <v>1.47</v>
       </c>
       <c r="P22" t="n">
-        <v>1.3</v>
+        <v>1.64</v>
       </c>
       <c r="Q22" t="n">
-        <v>1.32</v>
+        <v>2.42</v>
       </c>
       <c r="R22" t="n">
-        <v>1.18</v>
+        <v>1.24</v>
       </c>
       <c r="S22" t="n">
-        <v>1.32</v>
+        <v>4.8</v>
       </c>
       <c r="T22" t="n">
-        <v>1.04</v>
+        <v>1.99</v>
       </c>
       <c r="U22" t="n">
-        <v>1.04</v>
+        <v>1.96</v>
       </c>
       <c r="V22" t="n">
-        <v>1.01</v>
+        <v>1.36</v>
       </c>
       <c r="W22" t="n">
-        <v>1.01</v>
+        <v>1.7</v>
       </c>
       <c r="X22" t="n">
-        <v>1000</v>
+        <v>9.6</v>
       </c>
       <c r="Y22" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="Z22" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="AA22" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AB22" t="n">
-        <v>1000</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AC22" t="n">
-        <v>1000</v>
+        <v>7.2</v>
       </c>
       <c r="AD22" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="AE22" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AF22" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="AG22" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="AH22" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AI22" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AJ22" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AK22" t="n">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="AL22" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AM22" t="n">
-        <v>1000</v>
+        <v>170</v>
       </c>
       <c r="AN22" t="n">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="AO22" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
     </row>
     <row r="23">
@@ -3493,31 +3493,31 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Pontedera</t>
+          <t>LR Vicenza Virtus</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>US Pianese</t>
+          <t>Renate</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>2.68</v>
+        <v>1.51</v>
       </c>
       <c r="G23" t="n">
-        <v>3.4</v>
+        <v>1.65</v>
       </c>
       <c r="H23" t="n">
-        <v>2.72</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="I23" t="n">
-        <v>3.45</v>
+        <v>11</v>
       </c>
       <c r="J23" t="n">
-        <v>2.74</v>
+        <v>3.5</v>
       </c>
       <c r="K23" t="n">
-        <v>3.85</v>
+        <v>4.2</v>
       </c>
       <c r="L23" t="n">
         <v>1.01</v>
@@ -3529,85 +3529,85 @@
         <v>3</v>
       </c>
       <c r="O23" t="n">
-        <v>1.41</v>
+        <v>1.37</v>
       </c>
       <c r="P23" t="n">
-        <v>1.68</v>
+        <v>1.67</v>
       </c>
       <c r="Q23" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="R23" t="n">
         <v>1.25</v>
       </c>
       <c r="S23" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="T23" t="n">
-        <v>1.73</v>
+        <v>2.04</v>
       </c>
       <c r="U23" t="n">
-        <v>1.8</v>
+        <v>1.67</v>
       </c>
       <c r="V23" t="n">
-        <v>1.4</v>
+        <v>1.1</v>
       </c>
       <c r="W23" t="n">
-        <v>1.43</v>
+        <v>2.52</v>
       </c>
       <c r="X23" t="n">
-        <v>13.5</v>
+        <v>1000</v>
       </c>
       <c r="Y23" t="n">
-        <v>12</v>
+        <v>1000</v>
       </c>
       <c r="Z23" t="n">
-        <v>23</v>
+        <v>1000</v>
       </c>
       <c r="AA23" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AB23" t="n">
-        <v>12</v>
+        <v>1000</v>
       </c>
       <c r="AC23" t="n">
-        <v>8.800000000000001</v>
+        <v>1000</v>
       </c>
       <c r="AD23" t="n">
-        <v>16</v>
+        <v>1000</v>
       </c>
       <c r="AE23" t="n">
-        <v>46</v>
+        <v>1000</v>
       </c>
       <c r="AF23" t="n">
-        <v>23</v>
+        <v>1000</v>
       </c>
       <c r="AG23" t="n">
-        <v>16</v>
+        <v>1000</v>
       </c>
       <c r="AH23" t="n">
-        <v>23</v>
+        <v>1000</v>
       </c>
       <c r="AI23" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AJ23" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AK23" t="n">
-        <v>44</v>
+        <v>1000</v>
       </c>
       <c r="AL23" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AM23" t="n">
         <v>1000</v>
       </c>
       <c r="AN23" t="n">
-        <v>46</v>
+        <v>1000</v>
       </c>
       <c r="AO23" t="n">
-        <v>46</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="24">
@@ -3628,85 +3628,85 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Lecco</t>
+          <t>Casertana</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Aurora Pro Patria 1919</t>
+          <t>Atalanta B</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>1.75</v>
+        <v>1.04</v>
       </c>
       <c r="G24" t="n">
-        <v>1.84</v>
+        <v>1000</v>
       </c>
       <c r="H24" t="n">
-        <v>5.6</v>
+        <v>1.04</v>
       </c>
       <c r="I24" t="n">
-        <v>6.8</v>
+        <v>1000</v>
       </c>
       <c r="J24" t="n">
-        <v>3.5</v>
+        <v>1.01</v>
       </c>
       <c r="K24" t="n">
-        <v>3.7</v>
+        <v>1000</v>
       </c>
       <c r="L24" t="n">
-        <v>1.44</v>
+        <v>1.01</v>
       </c>
       <c r="M24" t="n">
-        <v>1.11</v>
+        <v>1.01</v>
       </c>
       <c r="N24" t="n">
-        <v>2.68</v>
+        <v>1.32</v>
       </c>
       <c r="O24" t="n">
-        <v>1.47</v>
+        <v>1.01</v>
       </c>
       <c r="P24" t="n">
-        <v>1.56</v>
+        <v>1.32</v>
       </c>
       <c r="Q24" t="n">
-        <v>2.42</v>
+        <v>1.32</v>
       </c>
       <c r="R24" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="S24" t="n">
-        <v>4.8</v>
+        <v>1.32</v>
       </c>
       <c r="T24" t="n">
-        <v>2.14</v>
+        <v>1.04</v>
       </c>
       <c r="U24" t="n">
-        <v>1.71</v>
+        <v>1.04</v>
       </c>
       <c r="V24" t="n">
-        <v>1.17</v>
+        <v>1.01</v>
       </c>
       <c r="W24" t="n">
-        <v>2.18</v>
+        <v>1.01</v>
       </c>
       <c r="X24" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="Y24" t="n">
-        <v>18.5</v>
+        <v>1000</v>
       </c>
       <c r="Z24" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AA24" t="n">
         <v>1000</v>
       </c>
       <c r="AB24" t="n">
-        <v>6.8</v>
+        <v>1000</v>
       </c>
       <c r="AC24" t="n">
-        <v>9.199999999999999</v>
+        <v>1000</v>
       </c>
       <c r="AD24" t="n">
         <v>1000</v>
@@ -3715,22 +3715,22 @@
         <v>1000</v>
       </c>
       <c r="AF24" t="n">
-        <v>10</v>
+        <v>1000</v>
       </c>
       <c r="AG24" t="n">
-        <v>11.5</v>
+        <v>1000</v>
       </c>
       <c r="AH24" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AI24" t="n">
         <v>1000</v>
       </c>
       <c r="AJ24" t="n">
-        <v>22</v>
+        <v>1000</v>
       </c>
       <c r="AK24" t="n">
-        <v>26</v>
+        <v>1000</v>
       </c>
       <c r="AL24" t="n">
         <v>1000</v>
@@ -3739,7 +3739,7 @@
         <v>1000</v>
       </c>
       <c r="AN24" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="AO24" t="n">
         <v>1000</v>
@@ -3748,7 +3748,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Spanish Segunda Division</t>
+          <t>Italian Serie C</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -3758,132 +3758,132 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>14:30:00</t>
+          <t>13:30:00</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Mirandes</t>
+          <t>Lecco</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Burgos</t>
+          <t>Aurora Pro Patria 1919</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>3.4</v>
+        <v>1.75</v>
       </c>
       <c r="G25" t="n">
-        <v>3.55</v>
+        <v>1.84</v>
       </c>
       <c r="H25" t="n">
-        <v>2.58</v>
+        <v>5.7</v>
       </c>
       <c r="I25" t="n">
-        <v>2.62</v>
+        <v>6.8</v>
       </c>
       <c r="J25" t="n">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="K25" t="n">
-        <v>3.1</v>
+        <v>3.7</v>
       </c>
       <c r="L25" t="n">
-        <v>1.58</v>
+        <v>1.44</v>
       </c>
       <c r="M25" t="n">
-        <v>1.13</v>
+        <v>1.1</v>
       </c>
       <c r="N25" t="n">
-        <v>2.5</v>
+        <v>2.68</v>
       </c>
       <c r="O25" t="n">
-        <v>1.6</v>
+        <v>1.47</v>
       </c>
       <c r="P25" t="n">
-        <v>1.5</v>
+        <v>1.56</v>
       </c>
       <c r="Q25" t="n">
-        <v>2.82</v>
+        <v>2.42</v>
       </c>
       <c r="R25" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="S25" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="T25" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="U25" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="V25" t="n">
         <v>1.17</v>
       </c>
-      <c r="S25" t="n">
-        <v>6</v>
-      </c>
-      <c r="T25" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="U25" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="V25" t="n">
-        <v>1.61</v>
-      </c>
       <c r="W25" t="n">
-        <v>1.39</v>
+        <v>2.18</v>
       </c>
       <c r="X25" t="n">
-        <v>8.199999999999999</v>
+        <v>11</v>
       </c>
       <c r="Y25" t="n">
-        <v>7.4</v>
+        <v>18.5</v>
       </c>
       <c r="Z25" t="n">
-        <v>14.5</v>
+        <v>60</v>
       </c>
       <c r="AA25" t="n">
-        <v>40</v>
+        <v>1000</v>
       </c>
       <c r="AB25" t="n">
-        <v>9.199999999999999</v>
+        <v>6.6</v>
       </c>
       <c r="AC25" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AD25" t="n">
-        <v>13</v>
+        <v>1000</v>
       </c>
       <c r="AE25" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AF25" t="n">
-        <v>22</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AG25" t="n">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="AH25" t="n">
         <v>32</v>
       </c>
       <c r="AI25" t="n">
-        <v>75</v>
+        <v>1000</v>
       </c>
       <c r="AJ25" t="n">
-        <v>80</v>
+        <v>21</v>
       </c>
       <c r="AK25" t="n">
-        <v>60</v>
+        <v>26</v>
       </c>
       <c r="AL25" t="n">
-        <v>90</v>
+        <v>1000</v>
       </c>
       <c r="AM25" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AN25" t="n">
-        <v>85</v>
+        <v>20</v>
       </c>
       <c r="AO25" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Spanish Segunda Division</t>
+          <t>Italian Serie C</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -3893,132 +3893,132 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>14:30:00</t>
+          <t>13:30:00</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Cordoba</t>
+          <t>Pontedera</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Deportivo</t>
+          <t>US Pianese</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>2.48</v>
+        <v>2.68</v>
       </c>
       <c r="G26" t="n">
-        <v>2.6</v>
+        <v>3.1</v>
       </c>
       <c r="H26" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="I26" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="J26" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="K26" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="L26" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M26" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N26" t="n">
         <v>3</v>
       </c>
-      <c r="I26" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="J26" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="K26" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="L26" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="M26" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N26" t="n">
-        <v>4.1</v>
-      </c>
       <c r="O26" t="n">
-        <v>1.27</v>
+        <v>1.41</v>
       </c>
       <c r="P26" t="n">
-        <v>2.12</v>
+        <v>1.68</v>
       </c>
       <c r="Q26" t="n">
-        <v>1.83</v>
+        <v>2.18</v>
       </c>
       <c r="R26" t="n">
-        <v>1.42</v>
+        <v>1.25</v>
       </c>
       <c r="S26" t="n">
-        <v>3.1</v>
+        <v>3.65</v>
       </c>
       <c r="T26" t="n">
-        <v>1.66</v>
+        <v>1.86</v>
       </c>
       <c r="U26" t="n">
-        <v>2.36</v>
+        <v>1.95</v>
       </c>
       <c r="V26" t="n">
-        <v>1.46</v>
+        <v>1.47</v>
       </c>
       <c r="W26" t="n">
-        <v>1.62</v>
+        <v>1.47</v>
       </c>
       <c r="X26" t="n">
-        <v>17.5</v>
+        <v>13.5</v>
       </c>
       <c r="Y26" t="n">
-        <v>980</v>
+        <v>12</v>
       </c>
       <c r="Z26" t="n">
-        <v>980</v>
+        <v>23</v>
       </c>
       <c r="AA26" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AB26" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AC26" t="n">
-        <v>8.4</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD26" t="n">
-        <v>13.5</v>
+        <v>16</v>
       </c>
       <c r="AE26" t="n">
-        <v>980</v>
+        <v>46</v>
       </c>
       <c r="AF26" t="n">
-        <v>980</v>
+        <v>23</v>
       </c>
       <c r="AG26" t="n">
-        <v>12.5</v>
+        <v>16</v>
       </c>
       <c r="AH26" t="n">
-        <v>980</v>
+        <v>23</v>
       </c>
       <c r="AI26" t="n">
-        <v>980</v>
+        <v>65</v>
       </c>
       <c r="AJ26" t="n">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="AK26" t="n">
-        <v>980</v>
+        <v>44</v>
       </c>
       <c r="AL26" t="n">
-        <v>980</v>
+        <v>65</v>
       </c>
       <c r="AM26" t="n">
-        <v>80</v>
+        <v>1000</v>
       </c>
       <c r="AN26" t="n">
-        <v>1000</v>
+        <v>46</v>
       </c>
       <c r="AO26" t="n">
-        <v>1000</v>
+        <v>46</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Portuguese Segunda Liga</t>
+          <t>Spanish Segunda Division</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -4028,132 +4028,132 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>15:00:00</t>
+          <t>14:30:00</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Leixoes</t>
+          <t>Mirandes</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Chaves</t>
+          <t>Burgos</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="G27" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="H27" t="n">
-        <v>2.34</v>
+        <v>2.56</v>
       </c>
       <c r="I27" t="n">
-        <v>2.64</v>
+        <v>2.62</v>
       </c>
       <c r="J27" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="K27" t="n">
-        <v>3.45</v>
+        <v>3.1</v>
       </c>
       <c r="L27" t="n">
-        <v>1.49</v>
+        <v>1.58</v>
       </c>
       <c r="M27" t="n">
-        <v>1.09</v>
+        <v>1.13</v>
       </c>
       <c r="N27" t="n">
-        <v>2.98</v>
+        <v>2.5</v>
       </c>
       <c r="O27" t="n">
-        <v>1.42</v>
+        <v>1.61</v>
       </c>
       <c r="P27" t="n">
-        <v>1.68</v>
+        <v>1.51</v>
       </c>
       <c r="Q27" t="n">
-        <v>2.26</v>
+        <v>2.8</v>
       </c>
       <c r="R27" t="n">
-        <v>1.24</v>
+        <v>1.17</v>
       </c>
       <c r="S27" t="n">
-        <v>3.8</v>
+        <v>6</v>
       </c>
       <c r="T27" t="n">
-        <v>1.86</v>
+        <v>2.2</v>
       </c>
       <c r="U27" t="n">
-        <v>1.77</v>
+        <v>1.75</v>
       </c>
       <c r="V27" t="n">
         <v>1.61</v>
       </c>
       <c r="W27" t="n">
-        <v>1.37</v>
+        <v>1.39</v>
       </c>
       <c r="X27" t="n">
-        <v>11.5</v>
+        <v>7.8</v>
       </c>
       <c r="Y27" t="n">
-        <v>10.5</v>
+        <v>7.4</v>
       </c>
       <c r="Z27" t="n">
-        <v>18.5</v>
+        <v>14.5</v>
       </c>
       <c r="AA27" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AB27" t="n">
-        <v>13.5</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AC27" t="n">
-        <v>7.8</v>
+        <v>7</v>
       </c>
       <c r="AD27" t="n">
-        <v>14.5</v>
+        <v>13</v>
       </c>
       <c r="AE27" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AF27" t="n">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="AG27" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AH27" t="n">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="AI27" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AJ27" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
       <c r="AK27" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AL27" t="n">
-        <v>1000</v>
+        <v>90</v>
       </c>
       <c r="AM27" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AN27" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
       <c r="AO27" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Brazilian Serie B</t>
+          <t>Spanish Segunda Division</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -4163,132 +4163,132 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>16:30:00</t>
+          <t>14:30:00</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Goias</t>
+          <t>Cordoba</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Novorizontino</t>
+          <t>Deportivo</t>
         </is>
       </c>
       <c r="F28" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="G28" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="H28" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="I28" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="J28" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="K28" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="L28" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="M28" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N28" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="O28" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="P28" t="n">
         <v>2.12</v>
       </c>
-      <c r="G28" t="n">
-        <v>2.28</v>
-      </c>
-      <c r="H28" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="I28" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="J28" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="K28" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="L28" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="M28" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="N28" t="n">
-        <v>2.84</v>
-      </c>
-      <c r="O28" t="n">
-        <v>1.49</v>
-      </c>
-      <c r="P28" t="n">
+      <c r="Q28" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="R28" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="S28" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="T28" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="U28" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="V28" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="W28" t="n">
         <v>1.62</v>
       </c>
-      <c r="Q28" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="R28" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="S28" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="T28" t="n">
-        <v>1.99</v>
-      </c>
-      <c r="U28" t="n">
-        <v>1.84</v>
-      </c>
-      <c r="V28" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="W28" t="n">
-        <v>1.79</v>
-      </c>
       <c r="X28" t="n">
-        <v>10.5</v>
+        <v>17.5</v>
       </c>
       <c r="Y28" t="n">
+        <v>980</v>
+      </c>
+      <c r="Z28" t="n">
+        <v>980</v>
+      </c>
+      <c r="AA28" t="n">
+        <v>55</v>
+      </c>
+      <c r="AB28" t="n">
         <v>12.5</v>
       </c>
-      <c r="Z28" t="n">
-        <v>980</v>
-      </c>
-      <c r="AA28" t="n">
-        <v>120</v>
-      </c>
-      <c r="AB28" t="n">
-        <v>8</v>
-      </c>
       <c r="AC28" t="n">
-        <v>7.8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD28" t="n">
-        <v>18</v>
+        <v>13.5</v>
       </c>
       <c r="AE28" t="n">
-        <v>65</v>
+        <v>980</v>
       </c>
       <c r="AF28" t="n">
-        <v>13.5</v>
+        <v>980</v>
       </c>
       <c r="AG28" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AH28" t="n">
-        <v>23</v>
+        <v>980</v>
       </c>
       <c r="AI28" t="n">
+        <v>980</v>
+      </c>
+      <c r="AJ28" t="n">
+        <v>40</v>
+      </c>
+      <c r="AK28" t="n">
+        <v>980</v>
+      </c>
+      <c r="AL28" t="n">
+        <v>980</v>
+      </c>
+      <c r="AM28" t="n">
         <v>80</v>
       </c>
-      <c r="AJ28" t="n">
-        <v>980</v>
-      </c>
-      <c r="AK28" t="n">
-        <v>980</v>
-      </c>
-      <c r="AL28" t="n">
-        <v>55</v>
-      </c>
-      <c r="AM28" t="n">
-        <v>190</v>
-      </c>
       <c r="AN28" t="n">
-        <v>27</v>
+        <v>1000</v>
       </c>
       <c r="AO28" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Brazilian Serie B</t>
+          <t>Portuguese Segunda Liga</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -4298,126 +4298,126 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>16:30:00</t>
+          <t>15:00:00</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Ferroviaria</t>
+          <t>Leixoes</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Athletico-PR</t>
+          <t>Chaves</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>4.3</v>
+        <v>3.25</v>
       </c>
       <c r="G29" t="n">
-        <v>4.8</v>
+        <v>3.7</v>
       </c>
       <c r="H29" t="n">
-        <v>1.98</v>
+        <v>2.46</v>
       </c>
       <c r="I29" t="n">
-        <v>2.1</v>
+        <v>2.62</v>
       </c>
       <c r="J29" t="n">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="K29" t="n">
-        <v>3.65</v>
+        <v>3.4</v>
       </c>
       <c r="L29" t="n">
-        <v>1.48</v>
+        <v>1.42</v>
       </c>
       <c r="M29" t="n">
-        <v>1.09</v>
+        <v>1.1</v>
       </c>
       <c r="N29" t="n">
-        <v>3.1</v>
+        <v>2.92</v>
       </c>
       <c r="O29" t="n">
-        <v>1.42</v>
+        <v>1.44</v>
       </c>
       <c r="P29" t="n">
-        <v>1.71</v>
+        <v>1.66</v>
       </c>
       <c r="Q29" t="n">
-        <v>2.2</v>
+        <v>2.26</v>
       </c>
       <c r="R29" t="n">
-        <v>1.26</v>
+        <v>1.23</v>
       </c>
       <c r="S29" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="T29" t="n">
-        <v>1.94</v>
+        <v>1.86</v>
       </c>
       <c r="U29" t="n">
-        <v>1.9</v>
+        <v>1.77</v>
       </c>
       <c r="V29" t="n">
-        <v>1.9</v>
+        <v>1.61</v>
       </c>
       <c r="W29" t="n">
-        <v>1.26</v>
+        <v>1.37</v>
       </c>
       <c r="X29" t="n">
-        <v>12</v>
+        <v>1000</v>
       </c>
       <c r="Y29" t="n">
-        <v>8.199999999999999</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="Z29" t="n">
-        <v>12.5</v>
+        <v>18</v>
       </c>
       <c r="AA29" t="n">
-        <v>980</v>
+        <v>900</v>
       </c>
       <c r="AB29" t="n">
-        <v>14.5</v>
+        <v>11.5</v>
       </c>
       <c r="AC29" t="n">
-        <v>8.199999999999999</v>
+        <v>7.6</v>
       </c>
       <c r="AD29" t="n">
-        <v>11.5</v>
+        <v>13</v>
       </c>
       <c r="AE29" t="n">
-        <v>26</v>
+        <v>1000</v>
       </c>
       <c r="AF29" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AG29" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AH29" t="n">
-        <v>22</v>
+        <v>1000</v>
       </c>
       <c r="AI29" t="n">
-        <v>48</v>
+        <v>1000</v>
       </c>
       <c r="AJ29" t="n">
-        <v>130</v>
+        <v>1000</v>
       </c>
       <c r="AK29" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="AL29" t="n">
-        <v>80</v>
+        <v>1000</v>
       </c>
       <c r="AM29" t="n">
-        <v>170</v>
+        <v>1000</v>
       </c>
       <c r="AN29" t="n">
-        <v>110</v>
+        <v>1000</v>
       </c>
       <c r="AO29" t="n">
-        <v>21</v>
+        <v>36</v>
       </c>
     </row>
     <row r="30">
@@ -4438,121 +4438,121 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Criciuma</t>
+          <t>Goias</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Botafogo SP</t>
+          <t>Novorizontino</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>1.55</v>
+        <v>2.14</v>
       </c>
       <c r="G30" t="n">
-        <v>1.64</v>
+        <v>2.28</v>
       </c>
       <c r="H30" t="n">
-        <v>7</v>
+        <v>3.85</v>
       </c>
       <c r="I30" t="n">
-        <v>9</v>
+        <v>4.2</v>
       </c>
       <c r="J30" t="n">
-        <v>3.8</v>
+        <v>3.1</v>
       </c>
       <c r="K30" t="n">
-        <v>4.7</v>
+        <v>3.4</v>
       </c>
       <c r="L30" t="n">
-        <v>1.47</v>
+        <v>1.01</v>
       </c>
       <c r="M30" t="n">
-        <v>1.09</v>
+        <v>1.1</v>
       </c>
       <c r="N30" t="n">
-        <v>3.05</v>
+        <v>2.82</v>
       </c>
       <c r="O30" t="n">
-        <v>1.41</v>
+        <v>1.49</v>
       </c>
       <c r="P30" t="n">
-        <v>1.71</v>
+        <v>1.63</v>
       </c>
       <c r="Q30" t="n">
-        <v>2.16</v>
+        <v>2.3</v>
       </c>
       <c r="R30" t="n">
-        <v>1.26</v>
+        <v>1.22</v>
       </c>
       <c r="S30" t="n">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="T30" t="n">
-        <v>2</v>
+        <v>1.99</v>
       </c>
       <c r="U30" t="n">
-        <v>1.62</v>
+        <v>1.84</v>
       </c>
       <c r="V30" t="n">
-        <v>1.14</v>
+        <v>1.31</v>
       </c>
       <c r="W30" t="n">
-        <v>2.56</v>
+        <v>1.78</v>
       </c>
       <c r="X30" t="n">
-        <v>980</v>
+        <v>10.5</v>
       </c>
       <c r="Y30" t="n">
-        <v>980</v>
+        <v>12.5</v>
       </c>
       <c r="Z30" t="n">
-        <v>75</v>
+        <v>980</v>
       </c>
       <c r="AA30" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="AB30" t="n">
-        <v>7.6</v>
+        <v>8</v>
       </c>
       <c r="AC30" t="n">
-        <v>11</v>
+        <v>7.8</v>
       </c>
       <c r="AD30" t="n">
-        <v>980</v>
+        <v>18</v>
       </c>
       <c r="AE30" t="n">
-        <v>170</v>
+        <v>65</v>
       </c>
       <c r="AF30" t="n">
-        <v>10.5</v>
+        <v>13.5</v>
       </c>
       <c r="AG30" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AH30" t="n">
-        <v>980</v>
+        <v>23</v>
       </c>
       <c r="AI30" t="n">
-        <v>170</v>
+        <v>80</v>
       </c>
       <c r="AJ30" t="n">
-        <v>19</v>
+        <v>900</v>
       </c>
       <c r="AK30" t="n">
-        <v>980</v>
+        <v>70</v>
       </c>
       <c r="AL30" t="n">
         <v>55</v>
       </c>
       <c r="AM30" t="n">
-        <v>1000</v>
+        <v>190</v>
       </c>
       <c r="AN30" t="n">
-        <v>15.5</v>
+        <v>27</v>
       </c>
       <c r="AO30" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
     </row>
     <row r="31">
@@ -4573,127 +4573,127 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>America MG</t>
+          <t>Ferroviaria</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Cuiaba</t>
+          <t>Athletico-PR</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>1.92</v>
+        <v>4.3</v>
       </c>
       <c r="G31" t="n">
-        <v>2</v>
+        <v>4.8</v>
       </c>
       <c r="H31" t="n">
-        <v>4.4</v>
+        <v>1.98</v>
       </c>
       <c r="I31" t="n">
-        <v>5.1</v>
+        <v>2.1</v>
       </c>
       <c r="J31" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="K31" t="n">
-        <v>3.75</v>
+        <v>3.65</v>
       </c>
       <c r="L31" t="n">
-        <v>1.01</v>
+        <v>1.48</v>
       </c>
       <c r="M31" t="n">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="N31" t="n">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="O31" t="n">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="P31" t="n">
-        <v>1.65</v>
+        <v>1.72</v>
       </c>
       <c r="Q31" t="n">
-        <v>2.32</v>
+        <v>2.2</v>
       </c>
       <c r="R31" t="n">
-        <v>1.23</v>
+        <v>1.26</v>
       </c>
       <c r="S31" t="n">
-        <v>4.4</v>
+        <v>4.1</v>
       </c>
       <c r="T31" t="n">
-        <v>2.04</v>
+        <v>1.94</v>
       </c>
       <c r="U31" t="n">
-        <v>1.81</v>
+        <v>1.9</v>
       </c>
       <c r="V31" t="n">
-        <v>1.25</v>
+        <v>1.9</v>
       </c>
       <c r="W31" t="n">
-        <v>2</v>
+        <v>1.27</v>
       </c>
       <c r="X31" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="Y31" t="n">
-        <v>980</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="Z31" t="n">
-        <v>980</v>
+        <v>12.5</v>
       </c>
       <c r="AA31" t="n">
-        <v>140</v>
+        <v>900</v>
       </c>
       <c r="AB31" t="n">
-        <v>980</v>
+        <v>14.5</v>
       </c>
       <c r="AC31" t="n">
-        <v>8.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD31" t="n">
-        <v>980</v>
+        <v>11.5</v>
       </c>
       <c r="AE31" t="n">
-        <v>85</v>
+        <v>26</v>
       </c>
       <c r="AF31" t="n">
         <v>980</v>
       </c>
       <c r="AG31" t="n">
-        <v>980</v>
+        <v>19</v>
       </c>
       <c r="AH31" t="n">
-        <v>980</v>
+        <v>22</v>
       </c>
       <c r="AI31" t="n">
-        <v>100</v>
+        <v>48</v>
       </c>
       <c r="AJ31" t="n">
-        <v>980</v>
+        <v>130</v>
       </c>
       <c r="AK31" t="n">
-        <v>980</v>
+        <v>70</v>
       </c>
       <c r="AL31" t="n">
-        <v>55</v>
+        <v>80</v>
       </c>
       <c r="AM31" t="n">
-        <v>1000</v>
+        <v>170</v>
       </c>
       <c r="AN31" t="n">
-        <v>980</v>
+        <v>95</v>
       </c>
       <c r="AO31" t="n">
-        <v>120</v>
+        <v>21</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Spanish Segunda Division</t>
+          <t>Brazilian Serie B</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -4703,132 +4703,132 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>17:00:00</t>
+          <t>16:30:00</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Zaragoza</t>
+          <t>Criciuma</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Huesca</t>
+          <t>Botafogo SP</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>2.34</v>
+        <v>1.55</v>
       </c>
       <c r="G32" t="n">
-        <v>2.44</v>
+        <v>1.64</v>
       </c>
       <c r="H32" t="n">
-        <v>3.75</v>
+        <v>7</v>
       </c>
       <c r="I32" t="n">
-        <v>4</v>
+        <v>8.4</v>
       </c>
       <c r="J32" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="K32" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="L32" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="M32" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="N32" t="n">
         <v>3.05</v>
       </c>
-      <c r="K32" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="L32" t="n">
-        <v>1.56</v>
-      </c>
-      <c r="M32" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="N32" t="n">
-        <v>2.54</v>
-      </c>
       <c r="O32" t="n">
-        <v>1.57</v>
+        <v>1.41</v>
       </c>
       <c r="P32" t="n">
-        <v>1.52</v>
+        <v>1.72</v>
       </c>
       <c r="Q32" t="n">
-        <v>2.68</v>
+        <v>2.16</v>
       </c>
       <c r="R32" t="n">
-        <v>1.18</v>
+        <v>1.26</v>
       </c>
       <c r="S32" t="n">
-        <v>5.7</v>
+        <v>4.2</v>
       </c>
       <c r="T32" t="n">
-        <v>2.16</v>
+        <v>2</v>
       </c>
       <c r="U32" t="n">
-        <v>1.75</v>
+        <v>1.62</v>
       </c>
       <c r="V32" t="n">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="W32" t="n">
-        <v>1.7</v>
+        <v>2.56</v>
       </c>
       <c r="X32" t="n">
-        <v>8.4</v>
+        <v>90</v>
       </c>
       <c r="Y32" t="n">
+        <v>980</v>
+      </c>
+      <c r="Z32" t="n">
+        <v>75</v>
+      </c>
+      <c r="AA32" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB32" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AC32" t="n">
+        <v>11</v>
+      </c>
+      <c r="AD32" t="n">
+        <v>980</v>
+      </c>
+      <c r="AE32" t="n">
+        <v>170</v>
+      </c>
+      <c r="AF32" t="n">
         <v>10.5</v>
       </c>
-      <c r="Z32" t="n">
-        <v>26</v>
-      </c>
-      <c r="AA32" t="n">
-        <v>90</v>
-      </c>
-      <c r="AB32" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="AC32" t="n">
-        <v>7</v>
-      </c>
-      <c r="AD32" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AE32" t="n">
-        <v>65</v>
-      </c>
-      <c r="AF32" t="n">
-        <v>13</v>
-      </c>
       <c r="AG32" t="n">
-        <v>12.5</v>
+        <v>980</v>
       </c>
       <c r="AH32" t="n">
-        <v>30</v>
+        <v>980</v>
       </c>
       <c r="AI32" t="n">
-        <v>110</v>
+        <v>170</v>
       </c>
       <c r="AJ32" t="n">
-        <v>34</v>
+        <v>980</v>
       </c>
       <c r="AK32" t="n">
-        <v>36</v>
+        <v>980</v>
       </c>
       <c r="AL32" t="n">
-        <v>80</v>
+        <v>55</v>
       </c>
       <c r="AM32" t="n">
-        <v>210</v>
+        <v>1000</v>
       </c>
       <c r="AN32" t="n">
-        <v>38</v>
+        <v>980</v>
       </c>
       <c r="AO32" t="n">
-        <v>95</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Argentinian Primera Division</t>
+          <t>Brazilian Serie B</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -4838,126 +4838,126 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>17:00:00</t>
+          <t>16:30:00</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Instituto</t>
+          <t>America MG</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Talleres</t>
+          <t>Cuiaba</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>3.25</v>
+        <v>1.85</v>
       </c>
       <c r="G33" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="H33" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="I33" t="n">
+        <v>6</v>
+      </c>
+      <c r="J33" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="K33" t="n">
         <v>3.55</v>
-      </c>
-      <c r="H33" t="n">
-        <v>2.44</v>
-      </c>
-      <c r="I33" t="n">
-        <v>2.66</v>
-      </c>
-      <c r="J33" t="n">
-        <v>3</v>
-      </c>
-      <c r="K33" t="n">
-        <v>3.25</v>
       </c>
       <c r="L33" t="n">
         <v>1.01</v>
       </c>
       <c r="M33" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="N33" t="n">
-        <v>2.44</v>
+        <v>2.88</v>
       </c>
       <c r="O33" t="n">
-        <v>1.59</v>
+        <v>1.45</v>
       </c>
       <c r="P33" t="n">
-        <v>1.51</v>
+        <v>1.61</v>
       </c>
       <c r="Q33" t="n">
-        <v>2.72</v>
+        <v>2.32</v>
       </c>
       <c r="R33" t="n">
-        <v>1.17</v>
+        <v>1.23</v>
       </c>
       <c r="S33" t="n">
-        <v>5.9</v>
+        <v>4.4</v>
       </c>
       <c r="T33" t="n">
-        <v>2.2</v>
+        <v>2.04</v>
       </c>
       <c r="U33" t="n">
-        <v>1.71</v>
+        <v>1.81</v>
       </c>
       <c r="V33" t="n">
-        <v>1.6</v>
+        <v>1.2</v>
       </c>
       <c r="W33" t="n">
-        <v>1.39</v>
+        <v>2.04</v>
       </c>
       <c r="X33" t="n">
-        <v>8.6</v>
+        <v>90</v>
       </c>
       <c r="Y33" t="n">
-        <v>7.4</v>
+        <v>18</v>
       </c>
       <c r="Z33" t="n">
-        <v>15.5</v>
+        <v>980</v>
       </c>
       <c r="AA33" t="n">
-        <v>980</v>
+        <v>180</v>
       </c>
       <c r="AB33" t="n">
-        <v>9.6</v>
+        <v>29</v>
       </c>
       <c r="AC33" t="n">
-        <v>7.8</v>
+        <v>980</v>
       </c>
       <c r="AD33" t="n">
-        <v>14</v>
+        <v>980</v>
       </c>
       <c r="AE33" t="n">
-        <v>980</v>
+        <v>110</v>
       </c>
       <c r="AF33" t="n">
         <v>980</v>
       </c>
       <c r="AG33" t="n">
-        <v>17.5</v>
+        <v>40</v>
       </c>
       <c r="AH33" t="n">
         <v>980</v>
       </c>
       <c r="AI33" t="n">
-        <v>70</v>
+        <v>130</v>
       </c>
       <c r="AJ33" t="n">
-        <v>75</v>
+        <v>980</v>
       </c>
       <c r="AK33" t="n">
-        <v>60</v>
+        <v>980</v>
       </c>
       <c r="AL33" t="n">
-        <v>100</v>
+        <v>55</v>
       </c>
       <c r="AM33" t="n">
-        <v>270</v>
+        <v>1000</v>
       </c>
       <c r="AN33" t="n">
-        <v>95</v>
+        <v>980</v>
       </c>
       <c r="AO33" t="n">
-        <v>60</v>
+        <v>160</v>
       </c>
     </row>
     <row r="34">
@@ -4978,31 +4978,31 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Velez Sarsfield</t>
+          <t>Instituto</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>River Plate</t>
+          <t>Talleres</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>3.65</v>
+        <v>3.35</v>
       </c>
       <c r="G34" t="n">
-        <v>4.1</v>
+        <v>3.75</v>
       </c>
       <c r="H34" t="n">
-        <v>2.26</v>
+        <v>2.62</v>
       </c>
       <c r="I34" t="n">
-        <v>2.44</v>
+        <v>2.72</v>
       </c>
       <c r="J34" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="K34" t="n">
         <v>3.05</v>
-      </c>
-      <c r="K34" t="n">
-        <v>3.25</v>
       </c>
       <c r="L34" t="n">
         <v>1.01</v>
@@ -5011,55 +5011,55 @@
         <v>1.13</v>
       </c>
       <c r="N34" t="n">
-        <v>2.48</v>
+        <v>2.44</v>
       </c>
       <c r="O34" t="n">
-        <v>1.58</v>
+        <v>1.59</v>
       </c>
       <c r="P34" t="n">
-        <v>1.51</v>
+        <v>1.48</v>
       </c>
       <c r="Q34" t="n">
-        <v>2.7</v>
+        <v>2.8</v>
       </c>
       <c r="R34" t="n">
         <v>1.17</v>
       </c>
       <c r="S34" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="T34" t="n">
-        <v>2.16</v>
+        <v>2.2</v>
       </c>
       <c r="U34" t="n">
-        <v>1.7</v>
+        <v>1.72</v>
       </c>
       <c r="V34" t="n">
-        <v>1.69</v>
+        <v>1.58</v>
       </c>
       <c r="W34" t="n">
-        <v>1.33</v>
+        <v>1.37</v>
       </c>
       <c r="X34" t="n">
-        <v>980</v>
+        <v>8.4</v>
       </c>
       <c r="Y34" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="Z34" t="n">
+        <v>15</v>
+      </c>
+      <c r="AA34" t="n">
+        <v>980</v>
+      </c>
+      <c r="AB34" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AC34" t="n">
         <v>7.2</v>
       </c>
-      <c r="Z34" t="n">
-        <v>980</v>
-      </c>
-      <c r="AA34" t="n">
-        <v>980</v>
-      </c>
-      <c r="AB34" t="n">
-        <v>980</v>
-      </c>
-      <c r="AC34" t="n">
-        <v>980</v>
-      </c>
       <c r="AD34" t="n">
-        <v>980</v>
+        <v>13</v>
       </c>
       <c r="AE34" t="n">
         <v>980</v>
@@ -5074,31 +5074,31 @@
         <v>980</v>
       </c>
       <c r="AI34" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AJ34" t="n">
-        <v>110</v>
+        <v>900</v>
       </c>
       <c r="AK34" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="AL34" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AM34" t="n">
-        <v>1000</v>
+        <v>260</v>
       </c>
       <c r="AN34" t="n">
-        <v>130</v>
+        <v>85</v>
       </c>
       <c r="AO34" t="n">
-        <v>980</v>
+        <v>60</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Uruguayan Primera Division</t>
+          <t>Argentinian Primera Division</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -5108,132 +5108,132 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>18:00:00</t>
+          <t>17:00:00</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Liverpool Montevideo</t>
+          <t>Velez Sarsfield</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Penarol</t>
+          <t>River Plate</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>4.2</v>
+        <v>3.7</v>
       </c>
       <c r="G35" t="n">
-        <v>4.9</v>
+        <v>4</v>
       </c>
       <c r="H35" t="n">
-        <v>1.92</v>
+        <v>2.28</v>
       </c>
       <c r="I35" t="n">
-        <v>2.08</v>
+        <v>2.42</v>
       </c>
       <c r="J35" t="n">
-        <v>3.35</v>
+        <v>3.15</v>
       </c>
       <c r="K35" t="n">
-        <v>3.8</v>
+        <v>3.25</v>
       </c>
       <c r="L35" t="n">
-        <v>1.45</v>
+        <v>1.01</v>
       </c>
       <c r="M35" t="n">
-        <v>1.08</v>
+        <v>1.13</v>
       </c>
       <c r="N35" t="n">
-        <v>3.15</v>
+        <v>2.46</v>
       </c>
       <c r="O35" t="n">
-        <v>1.38</v>
+        <v>1.58</v>
       </c>
       <c r="P35" t="n">
-        <v>1.75</v>
+        <v>1.5</v>
       </c>
       <c r="Q35" t="n">
-        <v>2.02</v>
+        <v>2.72</v>
       </c>
       <c r="R35" t="n">
-        <v>1.28</v>
+        <v>1.17</v>
       </c>
       <c r="S35" t="n">
-        <v>3.1</v>
+        <v>5.5</v>
       </c>
       <c r="T35" t="n">
-        <v>1.9</v>
+        <v>2.16</v>
       </c>
       <c r="U35" t="n">
-        <v>1.93</v>
+        <v>1.7</v>
       </c>
       <c r="V35" t="n">
-        <v>1.92</v>
+        <v>1.7</v>
       </c>
       <c r="W35" t="n">
-        <v>1.25</v>
+        <v>1.33</v>
       </c>
       <c r="X35" t="n">
-        <v>12.5</v>
+        <v>980</v>
       </c>
       <c r="Y35" t="n">
-        <v>8.199999999999999</v>
+        <v>7.2</v>
       </c>
       <c r="Z35" t="n">
-        <v>12</v>
+        <v>980</v>
       </c>
       <c r="AA35" t="n">
-        <v>28</v>
+        <v>980</v>
       </c>
       <c r="AB35" t="n">
-        <v>14.5</v>
+        <v>980</v>
       </c>
       <c r="AC35" t="n">
-        <v>8.199999999999999</v>
+        <v>18.5</v>
       </c>
       <c r="AD35" t="n">
-        <v>11</v>
+        <v>980</v>
       </c>
       <c r="AE35" t="n">
-        <v>28</v>
+        <v>980</v>
       </c>
       <c r="AF35" t="n">
-        <v>42</v>
+        <v>980</v>
       </c>
       <c r="AG35" t="n">
-        <v>19</v>
+        <v>980</v>
       </c>
       <c r="AH35" t="n">
-        <v>24</v>
+        <v>980</v>
       </c>
       <c r="AI35" t="n">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="AJ35" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="AK35" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
       <c r="AL35" t="n">
-        <v>85</v>
+        <v>110</v>
       </c>
       <c r="AM35" t="n">
         <v>1000</v>
       </c>
       <c r="AN35" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="AO35" t="n">
-        <v>18</v>
+        <v>980</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Brazilian Serie A</t>
+          <t>Spanish Segunda Division</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -5243,132 +5243,132 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>19:00:00</t>
+          <t>17:00:00</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Red Bull Bragantino</t>
+          <t>Zaragoza</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Atletico MG</t>
+          <t>Huesca</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>2.24</v>
+        <v>2.36</v>
       </c>
       <c r="G36" t="n">
-        <v>2.32</v>
+        <v>2.44</v>
       </c>
       <c r="H36" t="n">
-        <v>3.8</v>
+        <v>3.65</v>
       </c>
       <c r="I36" t="n">
-        <v>4.2</v>
+        <v>3.9</v>
       </c>
       <c r="J36" t="n">
-        <v>3.2</v>
+        <v>3.05</v>
       </c>
       <c r="K36" t="n">
-        <v>3.4</v>
+        <v>3.15</v>
       </c>
       <c r="L36" t="n">
-        <v>1.5</v>
+        <v>1.56</v>
       </c>
       <c r="M36" t="n">
-        <v>1.1</v>
+        <v>1.13</v>
       </c>
       <c r="N36" t="n">
-        <v>2.98</v>
+        <v>2.56</v>
       </c>
       <c r="O36" t="n">
-        <v>1.44</v>
+        <v>1.58</v>
       </c>
       <c r="P36" t="n">
-        <v>1.67</v>
+        <v>1.52</v>
       </c>
       <c r="Q36" t="n">
-        <v>2.3</v>
+        <v>2.68</v>
       </c>
       <c r="R36" t="n">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="S36" t="n">
-        <v>4.6</v>
+        <v>5.7</v>
       </c>
       <c r="T36" t="n">
-        <v>1.95</v>
+        <v>2.18</v>
       </c>
       <c r="U36" t="n">
-        <v>1.9</v>
+        <v>1.74</v>
       </c>
       <c r="V36" t="n">
-        <v>1.32</v>
+        <v>1.34</v>
       </c>
       <c r="W36" t="n">
-        <v>1.75</v>
+        <v>1.69</v>
       </c>
       <c r="X36" t="n">
-        <v>11</v>
+        <v>8.4</v>
       </c>
       <c r="Y36" t="n">
+        <v>10</v>
+      </c>
+      <c r="Z36" t="n">
+        <v>24</v>
+      </c>
+      <c r="AA36" t="n">
+        <v>85</v>
+      </c>
+      <c r="AB36" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AC36" t="n">
+        <v>7</v>
+      </c>
+      <c r="AD36" t="n">
+        <v>17</v>
+      </c>
+      <c r="AE36" t="n">
+        <v>65</v>
+      </c>
+      <c r="AF36" t="n">
+        <v>13</v>
+      </c>
+      <c r="AG36" t="n">
         <v>12.5</v>
       </c>
-      <c r="Z36" t="n">
-        <v>29</v>
-      </c>
-      <c r="AA36" t="n">
-        <v>90</v>
-      </c>
-      <c r="AB36" t="n">
-        <v>8.4</v>
-      </c>
-      <c r="AC36" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="AD36" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AE36" t="n">
-        <v>60</v>
-      </c>
-      <c r="AF36" t="n">
-        <v>14</v>
-      </c>
-      <c r="AG36" t="n">
-        <v>12</v>
-      </c>
       <c r="AH36" t="n">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="AI36" t="n">
-        <v>75</v>
+        <v>110</v>
       </c>
       <c r="AJ36" t="n">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="AK36" t="n">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="AL36" t="n">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="AM36" t="n">
-        <v>170</v>
+        <v>200</v>
       </c>
       <c r="AN36" t="n">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="AO36" t="n">
-        <v>80</v>
+        <v>95</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>US USL League One</t>
+          <t>Uruguayan Primera Division</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -5378,108 +5378,108 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>19:00:00</t>
+          <t>18:00:00</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>One Knoxville SC</t>
+          <t>Liverpool Montevideo</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Spokane Velocity FC</t>
+          <t>Penarol</t>
         </is>
       </c>
       <c r="F37" t="n">
-        <v>2.14</v>
+        <v>4.2</v>
       </c>
       <c r="G37" t="n">
-        <v>3</v>
+        <v>4.9</v>
       </c>
       <c r="H37" t="n">
-        <v>3.25</v>
+        <v>1.93</v>
       </c>
       <c r="I37" t="n">
-        <v>5.5</v>
+        <v>2.08</v>
       </c>
       <c r="J37" t="n">
-        <v>2.36</v>
+        <v>3.35</v>
       </c>
       <c r="K37" t="n">
-        <v>4.4</v>
+        <v>3.75</v>
       </c>
       <c r="L37" t="n">
-        <v>1.36</v>
+        <v>1.46</v>
       </c>
       <c r="M37" t="n">
-        <v>1.01</v>
+        <v>1.08</v>
       </c>
       <c r="N37" t="n">
-        <v>1.58</v>
+        <v>3.2</v>
       </c>
       <c r="O37" t="n">
-        <v>1.01</v>
+        <v>1.38</v>
       </c>
       <c r="P37" t="n">
-        <v>1.58</v>
+        <v>1.75</v>
       </c>
       <c r="Q37" t="n">
-        <v>1.98</v>
+        <v>1.93</v>
       </c>
       <c r="R37" t="n">
-        <v>1.18</v>
+        <v>1.28</v>
       </c>
       <c r="S37" t="n">
-        <v>1.98</v>
+        <v>3.1</v>
       </c>
       <c r="T37" t="n">
-        <v>1.01</v>
+        <v>1.9</v>
       </c>
       <c r="U37" t="n">
-        <v>1.01</v>
+        <v>1.93</v>
       </c>
       <c r="V37" t="n">
-        <v>1.22</v>
+        <v>1.92</v>
       </c>
       <c r="W37" t="n">
-        <v>1.5</v>
+        <v>1.25</v>
       </c>
       <c r="X37" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="Y37" t="n">
-        <v>1000</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="Z37" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="AA37" t="n">
-        <v>1000</v>
+        <v>28</v>
       </c>
       <c r="AB37" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="AC37" t="n">
-        <v>1000</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD37" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="AE37" t="n">
-        <v>1000</v>
+        <v>28</v>
       </c>
       <c r="AF37" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AG37" t="n">
-        <v>1000</v>
+        <v>19</v>
       </c>
       <c r="AH37" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="AI37" t="n">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="AJ37" t="n">
         <v>1000</v>
@@ -5488,7 +5488,7 @@
         <v>1000</v>
       </c>
       <c r="AL37" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
       <c r="AM37" t="n">
         <v>1000</v>
@@ -5497,13 +5497,13 @@
         <v>1000</v>
       </c>
       <c r="AO37" t="n">
-        <v>1000</v>
+        <v>18</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Argentinian Primera Division</t>
+          <t>Brazilian Serie A</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -5513,132 +5513,132 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>20:15:00</t>
+          <t>19:00:00</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Central Cordoba (SdE)</t>
+          <t>Red Bull Bragantino</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Banfield</t>
+          <t>Atletico MG</t>
         </is>
       </c>
       <c r="F38" t="n">
-        <v>2.64</v>
+        <v>2.24</v>
       </c>
       <c r="G38" t="n">
-        <v>2.68</v>
+        <v>2.32</v>
       </c>
       <c r="H38" t="n">
-        <v>3.45</v>
+        <v>3.8</v>
       </c>
       <c r="I38" t="n">
-        <v>3.55</v>
+        <v>4</v>
       </c>
       <c r="J38" t="n">
-        <v>2.96</v>
+        <v>3.25</v>
       </c>
       <c r="K38" t="n">
-        <v>2.98</v>
+        <v>3.4</v>
       </c>
       <c r="L38" t="n">
-        <v>1.01</v>
+        <v>1.51</v>
       </c>
       <c r="M38" t="n">
-        <v>1.14</v>
+        <v>1.1</v>
       </c>
       <c r="N38" t="n">
-        <v>2.48</v>
+        <v>3</v>
       </c>
       <c r="O38" t="n">
-        <v>1.63</v>
+        <v>1.45</v>
       </c>
       <c r="P38" t="n">
-        <v>1.47</v>
+        <v>1.67</v>
       </c>
       <c r="Q38" t="n">
-        <v>2.9</v>
+        <v>2.34</v>
       </c>
       <c r="R38" t="n">
-        <v>1.16</v>
+        <v>1.25</v>
       </c>
       <c r="S38" t="n">
-        <v>6.4</v>
+        <v>4.6</v>
       </c>
       <c r="T38" t="n">
-        <v>2.26</v>
+        <v>2.02</v>
       </c>
       <c r="U38" t="n">
-        <v>1.68</v>
+        <v>1.9</v>
       </c>
       <c r="V38" t="n">
-        <v>1.39</v>
+        <v>1.33</v>
       </c>
       <c r="W38" t="n">
-        <v>1.59</v>
+        <v>1.76</v>
       </c>
       <c r="X38" t="n">
-        <v>7.8</v>
+        <v>10.5</v>
       </c>
       <c r="Y38" t="n">
-        <v>9.199999999999999</v>
+        <v>12</v>
       </c>
       <c r="Z38" t="n">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="AA38" t="n">
+        <v>90</v>
+      </c>
+      <c r="AB38" t="n">
+        <v>8</v>
+      </c>
+      <c r="AC38" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AD38" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AE38" t="n">
+        <v>370</v>
+      </c>
+      <c r="AF38" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AG38" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH38" t="n">
+        <v>22</v>
+      </c>
+      <c r="AI38" t="n">
         <v>75</v>
       </c>
-      <c r="AB38" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="AC38" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="AD38" t="n">
-        <v>21</v>
-      </c>
-      <c r="AE38" t="n">
-        <v>60</v>
-      </c>
-      <c r="AF38" t="n">
-        <v>15</v>
-      </c>
-      <c r="AG38" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AH38" t="n">
-        <v>28</v>
-      </c>
-      <c r="AI38" t="n">
-        <v>980</v>
-      </c>
       <c r="AJ38" t="n">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="AK38" t="n">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="AL38" t="n">
-        <v>85</v>
+        <v>540</v>
       </c>
       <c r="AM38" t="n">
-        <v>230</v>
+        <v>170</v>
       </c>
       <c r="AN38" t="n">
-        <v>55</v>
+        <v>34</v>
       </c>
       <c r="AO38" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Argentinian Primera Division</t>
+          <t>US USL League One</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -5648,126 +5648,126 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>20:15:00</t>
+          <t>19:00:00</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Boca Juniors</t>
+          <t>One Knoxville SC</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Tigre</t>
+          <t>Spokane Velocity FC</t>
         </is>
       </c>
       <c r="F39" t="n">
-        <v>1.76</v>
+        <v>2.14</v>
       </c>
       <c r="G39" t="n">
-        <v>1.84</v>
+        <v>3</v>
       </c>
       <c r="H39" t="n">
-        <v>6.4</v>
+        <v>3.25</v>
       </c>
       <c r="I39" t="n">
-        <v>7.4</v>
+        <v>5.5</v>
       </c>
       <c r="J39" t="n">
-        <v>3.25</v>
+        <v>2.2</v>
       </c>
       <c r="K39" t="n">
-        <v>3.5</v>
+        <v>4.4</v>
       </c>
       <c r="L39" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="M39" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N39" t="n">
         <v>1.58</v>
       </c>
-      <c r="M39" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="N39" t="n">
-        <v>2.58</v>
-      </c>
       <c r="O39" t="n">
-        <v>1.55</v>
+        <v>1.01</v>
       </c>
       <c r="P39" t="n">
-        <v>1.53</v>
+        <v>1.58</v>
       </c>
       <c r="Q39" t="n">
-        <v>2.62</v>
+        <v>1.98</v>
       </c>
       <c r="R39" t="n">
         <v>1.18</v>
       </c>
       <c r="S39" t="n">
-        <v>5.5</v>
+        <v>2.7</v>
       </c>
       <c r="T39" t="n">
-        <v>2.38</v>
+        <v>1.01</v>
       </c>
       <c r="U39" t="n">
-        <v>1.63</v>
+        <v>1.01</v>
       </c>
       <c r="V39" t="n">
-        <v>1.16</v>
+        <v>1.25</v>
       </c>
       <c r="W39" t="n">
-        <v>2.16</v>
+        <v>1.5</v>
       </c>
       <c r="X39" t="n">
-        <v>8.800000000000001</v>
+        <v>1000</v>
       </c>
       <c r="Y39" t="n">
-        <v>15.5</v>
+        <v>1000</v>
       </c>
       <c r="Z39" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AA39" t="n">
-        <v>310</v>
+        <v>1000</v>
       </c>
       <c r="AB39" t="n">
-        <v>5.9</v>
+        <v>1000</v>
       </c>
       <c r="AC39" t="n">
-        <v>8.199999999999999</v>
+        <v>1000</v>
       </c>
       <c r="AD39" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AE39" t="n">
-        <v>180</v>
+        <v>1000</v>
       </c>
       <c r="AF39" t="n">
-        <v>9</v>
+        <v>1000</v>
       </c>
       <c r="AG39" t="n">
-        <v>11.5</v>
+        <v>1000</v>
       </c>
       <c r="AH39" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AI39" t="n">
-        <v>200</v>
+        <v>1000</v>
       </c>
       <c r="AJ39" t="n">
-        <v>22</v>
+        <v>1000</v>
       </c>
       <c r="AK39" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AL39" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AM39" t="n">
-        <v>340</v>
+        <v>1000</v>
       </c>
       <c r="AN39" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="AO39" t="n">
-        <v>360</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="40">
@@ -5803,13 +5803,13 @@
         <v>4.5</v>
       </c>
       <c r="H40" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="I40" t="n">
         <v>2.22</v>
       </c>
       <c r="J40" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="K40" t="n">
         <v>3.5</v>
@@ -5854,7 +5854,7 @@
         <v>980</v>
       </c>
       <c r="Y40" t="n">
-        <v>980</v>
+        <v>29</v>
       </c>
       <c r="Z40" t="n">
         <v>980</v>
@@ -5887,7 +5887,7 @@
         <v>980</v>
       </c>
       <c r="AJ40" t="n">
-        <v>120</v>
+        <v>900</v>
       </c>
       <c r="AK40" t="n">
         <v>70</v>
@@ -5932,7 +5932,7 @@
         </is>
       </c>
       <c r="F41" t="n">
-        <v>2.66</v>
+        <v>2.62</v>
       </c>
       <c r="G41" t="n">
         <v>2.68</v>
@@ -5956,13 +5956,13 @@
         <v>1.14</v>
       </c>
       <c r="N41" t="n">
-        <v>2.48</v>
+        <v>2.46</v>
       </c>
       <c r="O41" t="n">
         <v>1.63</v>
       </c>
       <c r="P41" t="n">
-        <v>1.47</v>
+        <v>1.46</v>
       </c>
       <c r="Q41" t="n">
         <v>2.9</v>
@@ -5980,7 +5980,7 @@
         <v>1.7</v>
       </c>
       <c r="V41" t="n">
-        <v>1.41</v>
+        <v>1.4</v>
       </c>
       <c r="W41" t="n">
         <v>1.59</v>
@@ -5998,7 +5998,7 @@
         <v>70</v>
       </c>
       <c r="AB41" t="n">
-        <v>7.6</v>
+        <v>7.4</v>
       </c>
       <c r="AC41" t="n">
         <v>7</v>
@@ -6019,7 +6019,7 @@
         <v>27</v>
       </c>
       <c r="AI41" t="n">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="AJ41" t="n">
         <v>50</v>
@@ -6028,22 +6028,22 @@
         <v>44</v>
       </c>
       <c r="AL41" t="n">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AM41" t="n">
         <v>240</v>
       </c>
       <c r="AN41" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AO41" t="n">
-        <v>85</v>
+        <v>90</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Colombian Primera B</t>
+          <t>Argentinian Primera Division</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -6053,125 +6053,395 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>21:30:00</t>
+          <t>20:15:00</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Real Soacha Cundinamarca FC</t>
+          <t>Central Cordoba (SdE)</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Real Cartagena</t>
+          <t>Banfield</t>
         </is>
       </c>
       <c r="F42" t="n">
-        <v>2.18</v>
+        <v>2.58</v>
       </c>
       <c r="G42" t="n">
-        <v>2.44</v>
+        <v>2.7</v>
       </c>
       <c r="H42" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="I42" t="n">
-        <v>4.1</v>
+        <v>3.6</v>
       </c>
       <c r="J42" t="n">
-        <v>2.92</v>
+        <v>2.96</v>
       </c>
       <c r="K42" t="n">
-        <v>3.95</v>
+        <v>3</v>
       </c>
       <c r="L42" t="n">
-        <v>1.33</v>
+        <v>1.01</v>
       </c>
       <c r="M42" t="n">
-        <v>1.08</v>
+        <v>1.14</v>
       </c>
       <c r="N42" t="n">
-        <v>2.98</v>
+        <v>2.46</v>
       </c>
       <c r="O42" t="n">
-        <v>1.41</v>
+        <v>1.63</v>
       </c>
       <c r="P42" t="n">
-        <v>1.67</v>
+        <v>1.47</v>
       </c>
       <c r="Q42" t="n">
-        <v>2.2</v>
+        <v>2.9</v>
       </c>
       <c r="R42" t="n">
-        <v>1.25</v>
+        <v>1.16</v>
       </c>
       <c r="S42" t="n">
-        <v>3.75</v>
+        <v>6.4</v>
       </c>
       <c r="T42" t="n">
-        <v>1.89</v>
+        <v>2.24</v>
       </c>
       <c r="U42" t="n">
-        <v>1.78</v>
+        <v>1.68</v>
       </c>
       <c r="V42" t="n">
-        <v>1.32</v>
+        <v>1.38</v>
       </c>
       <c r="W42" t="n">
-        <v>1.69</v>
+        <v>1.59</v>
       </c>
       <c r="X42" t="n">
-        <v>11.5</v>
+        <v>7.8</v>
       </c>
       <c r="Y42" t="n">
-        <v>12.5</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="Z42" t="n">
-        <v>980</v>
+        <v>21</v>
       </c>
       <c r="AA42" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AB42" t="n">
-        <v>8.800000000000001</v>
+        <v>7.8</v>
       </c>
       <c r="AC42" t="n">
-        <v>7.8</v>
+        <v>6.8</v>
       </c>
       <c r="AD42" t="n">
         <v>16.5</v>
       </c>
       <c r="AE42" t="n">
+        <v>65</v>
+      </c>
+      <c r="AF42" t="n">
+        <v>15</v>
+      </c>
+      <c r="AG42" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AH42" t="n">
+        <v>28</v>
+      </c>
+      <c r="AI42" t="n">
+        <v>980</v>
+      </c>
+      <c r="AJ42" t="n">
+        <v>46</v>
+      </c>
+      <c r="AK42" t="n">
+        <v>44</v>
+      </c>
+      <c r="AL42" t="n">
+        <v>85</v>
+      </c>
+      <c r="AM42" t="n">
+        <v>230</v>
+      </c>
+      <c r="AN42" t="n">
+        <v>980</v>
+      </c>
+      <c r="AO42" t="n">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Argentinian Primera Division</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>2025-11-16</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>20:15:00</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>Boca Juniors</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>Tigre</t>
+        </is>
+      </c>
+      <c r="F43" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="G43" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="H43" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="I43" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="J43" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="K43" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="L43" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="M43" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="N43" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="O43" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="P43" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="R43" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="S43" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="T43" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="U43" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="V43" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="W43" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="X43" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="Y43" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="Z43" t="n">
         <v>55</v>
       </c>
-      <c r="AF42" t="n">
+      <c r="AA43" t="n">
+        <v>310</v>
+      </c>
+      <c r="AB43" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="AC43" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AD43" t="n">
+        <v>980</v>
+      </c>
+      <c r="AE43" t="n">
+        <v>180</v>
+      </c>
+      <c r="AF43" t="n">
+        <v>9</v>
+      </c>
+      <c r="AG43" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AH43" t="n">
+        <v>980</v>
+      </c>
+      <c r="AI43" t="n">
+        <v>200</v>
+      </c>
+      <c r="AJ43" t="n">
+        <v>22</v>
+      </c>
+      <c r="AK43" t="n">
+        <v>70</v>
+      </c>
+      <c r="AL43" t="n">
+        <v>65</v>
+      </c>
+      <c r="AM43" t="n">
+        <v>340</v>
+      </c>
+      <c r="AN43" t="n">
+        <v>21</v>
+      </c>
+      <c r="AO43" t="n">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Colombian Primera B</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>2025-11-16</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>21:30:00</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>Real Soacha Cundinamarca FC</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>Real Cartagena</t>
+        </is>
+      </c>
+      <c r="F44" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="G44" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="H44" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="I44" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="J44" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="K44" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="L44" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="M44" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N44" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="O44" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="P44" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="R44" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="S44" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="T44" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="U44" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="V44" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="W44" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="X44" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="Y44" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="Z44" t="n">
+        <v>980</v>
+      </c>
+      <c r="AA44" t="n">
+        <v>80</v>
+      </c>
+      <c r="AB44" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AC44" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AD44" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AE44" t="n">
+        <v>55</v>
+      </c>
+      <c r="AF44" t="n">
         <v>14.5</v>
       </c>
-      <c r="AG42" t="n">
+      <c r="AG44" t="n">
         <v>12</v>
       </c>
-      <c r="AH42" t="n">
+      <c r="AH44" t="n">
         <v>21</v>
       </c>
-      <c r="AI42" t="n">
+      <c r="AI44" t="n">
         <v>70</v>
       </c>
-      <c r="AJ42" t="n">
-        <v>980</v>
-      </c>
-      <c r="AK42" t="n">
-        <v>980</v>
-      </c>
-      <c r="AL42" t="n">
-        <v>980</v>
-      </c>
-      <c r="AM42" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN42" t="n">
+      <c r="AJ44" t="n">
+        <v>980</v>
+      </c>
+      <c r="AK44" t="n">
+        <v>980</v>
+      </c>
+      <c r="AL44" t="n">
+        <v>980</v>
+      </c>
+      <c r="AM44" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN44" t="n">
         <v>30</v>
       </c>
-      <c r="AO42" t="n">
+      <c r="AO44" t="n">
         <v>1000</v>
       </c>
     </row>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-11-16.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-11-16.xlsx
@@ -667,19 +667,19 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.92</v>
+        <v>1.95</v>
       </c>
       <c r="G2" t="n">
-        <v>2.08</v>
+        <v>2.04</v>
       </c>
       <c r="H2" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="I2" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="J2" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="K2" t="n">
         <v>3.85</v>
@@ -688,79 +688,79 @@
         <v>1.46</v>
       </c>
       <c r="M2" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N2" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="O2" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="P2" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="R2" t="n">
         <v>1.33</v>
       </c>
-      <c r="P2" t="n">
-        <v>1.84</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="R2" t="n">
-        <v>1.32</v>
-      </c>
       <c r="S2" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="T2" t="n">
-        <v>1.81</v>
+        <v>1.85</v>
       </c>
       <c r="U2" t="n">
         <v>2</v>
       </c>
       <c r="V2" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="W2" t="n">
-        <v>1.92</v>
+        <v>1.96</v>
       </c>
       <c r="X2" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="Y2" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="Z2" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AA2" t="n">
         <v>1000</v>
       </c>
       <c r="AB2" t="n">
-        <v>1000</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AC2" t="n">
-        <v>8.6</v>
+        <v>8.4</v>
       </c>
       <c r="AD2" t="n">
+        <v>20</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>14</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AH2" t="n">
         <v>22</v>
       </c>
-      <c r="AE2" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF2" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AG2" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AH2" t="n">
-        <v>24</v>
-      </c>
       <c r="AI2" t="n">
         <v>1000</v>
       </c>
       <c r="AJ2" t="n">
-        <v>1000</v>
+        <v>26</v>
       </c>
       <c r="AK2" t="n">
-        <v>1000</v>
+        <v>26</v>
       </c>
       <c r="AL2" t="n">
         <v>1000</v>
@@ -769,7 +769,7 @@
         <v>1000</v>
       </c>
       <c r="AN2" t="n">
-        <v>18.5</v>
+        <v>28</v>
       </c>
       <c r="AO2" t="n">
         <v>1000</v>
@@ -802,22 +802,22 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>3.95</v>
+        <v>4.1</v>
       </c>
       <c r="G3" t="n">
-        <v>4.8</v>
+        <v>4.6</v>
       </c>
       <c r="H3" t="n">
-        <v>1.88</v>
+        <v>1.91</v>
       </c>
       <c r="I3" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="J3" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="K3" t="n">
-        <v>4.3</v>
+        <v>4.1</v>
       </c>
       <c r="L3" t="n">
         <v>1.4</v>
@@ -826,76 +826,76 @@
         <v>1.06</v>
       </c>
       <c r="N3" t="n">
-        <v>4</v>
+        <v>4.3</v>
       </c>
       <c r="O3" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="P3" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="R3" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="S3" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="T3" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="U3" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V3" t="n">
         <v>2.02</v>
       </c>
-      <c r="Q3" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="R3" t="n">
-        <v>1.41</v>
-      </c>
-      <c r="S3" t="n">
-        <v>3</v>
-      </c>
-      <c r="T3" t="n">
-        <v>1.71</v>
-      </c>
-      <c r="U3" t="n">
-        <v>2.02</v>
-      </c>
-      <c r="V3" t="n">
-        <v>2</v>
-      </c>
       <c r="W3" t="n">
-        <v>1.27</v>
+        <v>1.29</v>
       </c>
       <c r="X3" t="n">
-        <v>1000</v>
+        <v>18.5</v>
       </c>
       <c r="Y3" t="n">
-        <v>12.5</v>
+        <v>11</v>
       </c>
       <c r="Z3" t="n">
-        <v>16</v>
+        <v>14.5</v>
       </c>
       <c r="AA3" t="n">
-        <v>1000</v>
+        <v>26</v>
       </c>
       <c r="AB3" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>9</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>11</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>24</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>40</v>
+      </c>
+      <c r="AG3" t="n">
         <v>20</v>
       </c>
-      <c r="AC3" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AD3" t="n">
-        <v>13</v>
-      </c>
-      <c r="AE3" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF3" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>21</v>
-      </c>
       <c r="AH3" t="n">
-        <v>22</v>
+        <v>18.5</v>
       </c>
       <c r="AI3" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AJ3" t="n">
         <v>1000</v>
       </c>
       <c r="AK3" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AL3" t="n">
         <v>1000</v>
@@ -907,7 +907,7 @@
         <v>1000</v>
       </c>
       <c r="AO3" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4">
@@ -937,103 +937,103 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>2.76</v>
+        <v>2.8</v>
       </c>
       <c r="G4" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="H4" t="n">
-        <v>2.44</v>
+        <v>2.48</v>
       </c>
       <c r="I4" t="n">
-        <v>2.74</v>
+        <v>2.66</v>
       </c>
       <c r="J4" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="K4" t="n">
-        <v>3.95</v>
+        <v>3.85</v>
       </c>
       <c r="L4" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="M4" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N4" t="n">
-        <v>4.2</v>
+        <v>4.4</v>
       </c>
       <c r="O4" t="n">
         <v>1.25</v>
       </c>
       <c r="P4" t="n">
-        <v>2.14</v>
+        <v>2.24</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.69</v>
+        <v>1.76</v>
       </c>
       <c r="R4" t="n">
-        <v>1.44</v>
+        <v>1.46</v>
       </c>
       <c r="S4" t="n">
-        <v>2.74</v>
+        <v>2.94</v>
       </c>
       <c r="T4" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="U4" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="V4" t="n">
         <v>1.6</v>
       </c>
-      <c r="U4" t="n">
-        <v>2.32</v>
-      </c>
-      <c r="V4" t="n">
-        <v>1.59</v>
-      </c>
       <c r="W4" t="n">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="X4" t="n">
-        <v>1000</v>
+        <v>18.5</v>
       </c>
       <c r="Y4" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="Z4" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AA4" t="n">
-        <v>1000</v>
+        <v>46</v>
       </c>
       <c r="AB4" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="AC4" t="n">
-        <v>1000</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD4" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="AE4" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AF4" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AG4" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
       <c r="AH4" t="n">
-        <v>1000</v>
+        <v>16.5</v>
       </c>
       <c r="AI4" t="n">
-        <v>1000</v>
+        <v>46</v>
       </c>
       <c r="AJ4" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AK4" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AL4" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AM4" t="n">
         <v>1000</v>
@@ -1042,7 +1042,7 @@
         <v>1000</v>
       </c>
       <c r="AO4" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5">
@@ -1072,112 +1072,112 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="G5" t="n">
-        <v>4.5</v>
+        <v>4.1</v>
       </c>
       <c r="H5" t="n">
-        <v>2.14</v>
+        <v>2.22</v>
       </c>
       <c r="I5" t="n">
-        <v>2.38</v>
+        <v>2.32</v>
       </c>
       <c r="J5" t="n">
-        <v>2.82</v>
+        <v>3.15</v>
       </c>
       <c r="K5" t="n">
         <v>3.35</v>
       </c>
       <c r="L5" t="n">
-        <v>1.56</v>
+        <v>1.53</v>
       </c>
       <c r="M5" t="n">
-        <v>1.09</v>
+        <v>1.1</v>
       </c>
       <c r="N5" t="n">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="O5" t="n">
         <v>1.43</v>
       </c>
       <c r="P5" t="n">
-        <v>1.63</v>
+        <v>1.69</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.26</v>
+        <v>2.3</v>
       </c>
       <c r="R5" t="n">
-        <v>1.23</v>
+        <v>1.25</v>
       </c>
       <c r="S5" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="T5" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="U5" t="n">
         <v>1.9</v>
       </c>
-      <c r="U5" t="n">
-        <v>1.86</v>
-      </c>
       <c r="V5" t="n">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
       <c r="W5" t="n">
-        <v>1.29</v>
+        <v>1.33</v>
       </c>
       <c r="X5" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="Y5" t="n">
-        <v>1000</v>
+        <v>8.4</v>
       </c>
       <c r="Z5" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AA5" t="n">
         <v>32</v>
       </c>
       <c r="AB5" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AC5" t="n">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="AD5" t="n">
         <v>11.5</v>
       </c>
       <c r="AE5" t="n">
-        <v>1000</v>
+        <v>28</v>
       </c>
       <c r="AF5" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AG5" t="n">
-        <v>1000</v>
+        <v>18.5</v>
       </c>
       <c r="AH5" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AI5" t="n">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="AJ5" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK5" t="n">
         <v>95</v>
       </c>
-      <c r="AK5" t="n">
-        <v>1000</v>
-      </c>
       <c r="AL5" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
       <c r="AM5" t="n">
-        <v>1000</v>
+        <v>160</v>
       </c>
       <c r="AN5" t="n">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="AO5" t="n">
-        <v>28</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="6">
@@ -1207,91 +1207,91 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>2.36</v>
+        <v>2.4</v>
       </c>
       <c r="G6" t="n">
-        <v>2.58</v>
+        <v>2.56</v>
       </c>
       <c r="H6" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="I6" t="n">
-        <v>3.9</v>
+        <v>3.65</v>
       </c>
       <c r="J6" t="n">
         <v>3.05</v>
       </c>
       <c r="K6" t="n">
-        <v>3.45</v>
+        <v>3.35</v>
       </c>
       <c r="L6" t="n">
-        <v>1.49</v>
+        <v>1.51</v>
       </c>
       <c r="M6" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="N6" t="n">
         <v>3.1</v>
       </c>
       <c r="O6" t="n">
-        <v>1.37</v>
+        <v>1.42</v>
       </c>
       <c r="P6" t="n">
         <v>1.71</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.12</v>
+        <v>2.26</v>
       </c>
       <c r="R6" t="n">
-        <v>1.29</v>
+        <v>1.27</v>
       </c>
       <c r="S6" t="n">
-        <v>3.7</v>
+        <v>4.3</v>
       </c>
       <c r="T6" t="n">
-        <v>1.8</v>
+        <v>1.93</v>
       </c>
       <c r="U6" t="n">
-        <v>1.99</v>
+        <v>1.93</v>
       </c>
       <c r="V6" t="n">
-        <v>1.35</v>
+        <v>1.38</v>
       </c>
       <c r="W6" t="n">
-        <v>1.63</v>
+        <v>1.64</v>
       </c>
       <c r="X6" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="Y6" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="Z6" t="n">
-        <v>1000</v>
+        <v>26</v>
       </c>
       <c r="AA6" t="n">
         <v>1000</v>
       </c>
       <c r="AB6" t="n">
-        <v>1000</v>
+        <v>9.4</v>
       </c>
       <c r="AC6" t="n">
-        <v>1000</v>
+        <v>7.8</v>
       </c>
       <c r="AD6" t="n">
-        <v>1000</v>
+        <v>17</v>
       </c>
       <c r="AE6" t="n">
         <v>1000</v>
       </c>
       <c r="AF6" t="n">
-        <v>1000</v>
+        <v>17</v>
       </c>
       <c r="AG6" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="AH6" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="AI6" t="n">
         <v>1000</v>
@@ -1300,7 +1300,7 @@
         <v>1000</v>
       </c>
       <c r="AK6" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AL6" t="n">
         <v>1000</v>
@@ -1342,25 +1342,25 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>2.46</v>
+        <v>2.54</v>
       </c>
       <c r="G7" t="n">
-        <v>2.74</v>
+        <v>2.68</v>
       </c>
       <c r="H7" t="n">
         <v>2.68</v>
       </c>
       <c r="I7" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="J7" t="n">
-        <v>3.35</v>
+        <v>3.75</v>
       </c>
       <c r="K7" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="L7" t="n">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="M7" t="n">
         <v>1.05</v>
@@ -1369,76 +1369,76 @@
         <v>5</v>
       </c>
       <c r="O7" t="n">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="P7" t="n">
-        <v>2.28</v>
+        <v>2.38</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="R7" t="n">
-        <v>1.5</v>
+        <v>1.54</v>
       </c>
       <c r="S7" t="n">
         <v>2.62</v>
       </c>
       <c r="T7" t="n">
-        <v>1.57</v>
+        <v>1.58</v>
       </c>
       <c r="U7" t="n">
-        <v>2.42</v>
+        <v>2.46</v>
       </c>
       <c r="V7" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="W7" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="X7" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="Y7" t="n">
-        <v>1000</v>
+        <v>17.5</v>
       </c>
       <c r="Z7" t="n">
-        <v>1000</v>
+        <v>26</v>
       </c>
       <c r="AA7" t="n">
         <v>1000</v>
       </c>
       <c r="AB7" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="AC7" t="n">
-        <v>1000</v>
+        <v>9.6</v>
       </c>
       <c r="AD7" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="AE7" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AF7" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AG7" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="AH7" t="n">
-        <v>1000</v>
+        <v>18.5</v>
       </c>
       <c r="AI7" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AJ7" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="AK7" t="n">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="AL7" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AM7" t="n">
         <v>1000</v>
@@ -1447,7 +1447,7 @@
         <v>1000</v>
       </c>
       <c r="AO7" t="n">
-        <v>1000</v>
+        <v>17.5</v>
       </c>
     </row>
     <row r="8">
@@ -1477,19 +1477,19 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>3.4</v>
+        <v>3.65</v>
       </c>
       <c r="G8" t="n">
         <v>3.9</v>
       </c>
       <c r="H8" t="n">
-        <v>2.18</v>
+        <v>2.14</v>
       </c>
       <c r="I8" t="n">
-        <v>2.36</v>
+        <v>2.24</v>
       </c>
       <c r="J8" t="n">
-        <v>3.35</v>
+        <v>3.5</v>
       </c>
       <c r="K8" t="n">
         <v>3.65</v>
@@ -1501,79 +1501,79 @@
         <v>1.08</v>
       </c>
       <c r="N8" t="n">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="O8" t="n">
         <v>1.37</v>
       </c>
       <c r="P8" t="n">
-        <v>1.76</v>
+        <v>1.8</v>
       </c>
       <c r="Q8" t="n">
-        <v>2.08</v>
+        <v>2.12</v>
       </c>
       <c r="R8" t="n">
-        <v>1.28</v>
+        <v>1.3</v>
       </c>
       <c r="S8" t="n">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="T8" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="U8" t="n">
-        <v>1.99</v>
+        <v>2.02</v>
       </c>
       <c r="V8" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="W8" t="n">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="X8" t="n">
-        <v>15.5</v>
+        <v>13</v>
       </c>
       <c r="Y8" t="n">
-        <v>9.199999999999999</v>
+        <v>9</v>
       </c>
       <c r="Z8" t="n">
-        <v>14.5</v>
+        <v>13.5</v>
       </c>
       <c r="AA8" t="n">
-        <v>980</v>
+        <v>34</v>
       </c>
       <c r="AB8" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AC8" t="n">
-        <v>8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD8" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AE8" t="n">
-        <v>980</v>
+        <v>29</v>
       </c>
       <c r="AF8" t="n">
-        <v>980</v>
+        <v>34</v>
       </c>
       <c r="AG8" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AH8" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="AI8" t="n">
-        <v>980</v>
+        <v>75</v>
       </c>
       <c r="AJ8" t="n">
+        <v>130</v>
+      </c>
+      <c r="AK8" t="n">
         <v>75</v>
       </c>
-      <c r="AK8" t="n">
-        <v>50</v>
-      </c>
       <c r="AL8" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="AM8" t="n">
         <v>1000</v>
@@ -1582,7 +1582,7 @@
         <v>1000</v>
       </c>
       <c r="AO8" t="n">
-        <v>1000</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9">
@@ -1615,10 +1615,10 @@
         <v>1.54</v>
       </c>
       <c r="G9" t="n">
-        <v>1.63</v>
+        <v>1.64</v>
       </c>
       <c r="H9" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="I9" t="n">
         <v>6.8</v>
@@ -1630,13 +1630,13 @@
         <v>5.2</v>
       </c>
       <c r="L9" t="n">
-        <v>1.25</v>
+        <v>1.28</v>
       </c>
       <c r="M9" t="n">
         <v>1.03</v>
       </c>
       <c r="N9" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="O9" t="n">
         <v>1.19</v>
@@ -1660,7 +1660,7 @@
         <v>2.14</v>
       </c>
       <c r="V9" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="W9" t="n">
         <v>2.56</v>
@@ -1687,7 +1687,7 @@
         <v>25</v>
       </c>
       <c r="AE9" t="n">
-        <v>230</v>
+        <v>90</v>
       </c>
       <c r="AF9" t="n">
         <v>12</v>
@@ -1717,7 +1717,7 @@
         <v>8</v>
       </c>
       <c r="AO9" t="n">
-        <v>540</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="10">
@@ -1747,16 +1747,16 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>2.14</v>
+        <v>2.3</v>
       </c>
       <c r="G10" t="n">
         <v>2.44</v>
       </c>
       <c r="H10" t="n">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="I10" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="J10" t="n">
         <v>3.55</v>
@@ -1765,37 +1765,37 @@
         <v>4.2</v>
       </c>
       <c r="L10" t="n">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="M10" t="n">
         <v>1.05</v>
       </c>
       <c r="N10" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="O10" t="n">
         <v>1.25</v>
       </c>
       <c r="P10" t="n">
-        <v>2.06</v>
+        <v>2.16</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="R10" t="n">
-        <v>1.41</v>
+        <v>1.43</v>
       </c>
       <c r="S10" t="n">
         <v>2.64</v>
       </c>
       <c r="T10" t="n">
-        <v>1.64</v>
+        <v>1.63</v>
       </c>
       <c r="U10" t="n">
-        <v>2.22</v>
+        <v>2.26</v>
       </c>
       <c r="V10" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="W10" t="n">
         <v>1.69</v>
@@ -1822,7 +1822,7 @@
         <v>15</v>
       </c>
       <c r="AE10" t="n">
-        <v>44</v>
+        <v>95</v>
       </c>
       <c r="AF10" t="n">
         <v>16.5</v>
@@ -1831,7 +1831,7 @@
         <v>12</v>
       </c>
       <c r="AH10" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AI10" t="n">
         <v>55</v>
@@ -1840,16 +1840,16 @@
         <v>80</v>
       </c>
       <c r="AK10" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AL10" t="n">
         <v>85</v>
       </c>
       <c r="AM10" t="n">
-        <v>200</v>
+        <v>580</v>
       </c>
       <c r="AN10" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AO10" t="n">
         <v>38</v>
@@ -1882,22 +1882,22 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>2.74</v>
+        <v>2.7</v>
       </c>
       <c r="G11" t="n">
-        <v>2.96</v>
+        <v>2.92</v>
       </c>
       <c r="H11" t="n">
-        <v>2.86</v>
+        <v>2.82</v>
       </c>
       <c r="I11" t="n">
         <v>3.1</v>
       </c>
       <c r="J11" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="K11" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="L11" t="n">
         <v>1.48</v>
@@ -1912,28 +1912,28 @@
         <v>1.41</v>
       </c>
       <c r="P11" t="n">
-        <v>1.71</v>
+        <v>1.76</v>
       </c>
       <c r="Q11" t="n">
-        <v>2.18</v>
+        <v>2.22</v>
       </c>
       <c r="R11" t="n">
         <v>1.27</v>
       </c>
       <c r="S11" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="T11" t="n">
         <v>1.86</v>
       </c>
       <c r="U11" t="n">
-        <v>1.96</v>
+        <v>2</v>
       </c>
       <c r="V11" t="n">
-        <v>1.47</v>
+        <v>1.48</v>
       </c>
       <c r="W11" t="n">
-        <v>1.51</v>
+        <v>1.52</v>
       </c>
       <c r="X11" t="n">
         <v>13.5</v>
@@ -1942,7 +1942,7 @@
         <v>10.5</v>
       </c>
       <c r="Z11" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AA11" t="n">
         <v>130</v>
@@ -1951,7 +1951,7 @@
         <v>10.5</v>
       </c>
       <c r="AC11" t="n">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="AD11" t="n">
         <v>14</v>
@@ -1975,7 +1975,7 @@
         <v>120</v>
       </c>
       <c r="AK11" t="n">
-        <v>40</v>
+        <v>95</v>
       </c>
       <c r="AL11" t="n">
         <v>55</v>
@@ -1984,7 +1984,7 @@
         <v>580</v>
       </c>
       <c r="AN11" t="n">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="AO11" t="n">
         <v>42</v>
@@ -2017,58 +2017,58 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="G12" t="n">
-        <v>8.800000000000001</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="H12" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="I12" t="n">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="J12" t="n">
         <v>3.25</v>
       </c>
       <c r="K12" t="n">
-        <v>4.7</v>
+        <v>4.5</v>
       </c>
       <c r="L12" t="n">
-        <v>1.41</v>
+        <v>1.4</v>
       </c>
       <c r="M12" t="n">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="N12" t="n">
-        <v>2.92</v>
+        <v>2.9</v>
       </c>
       <c r="O12" t="n">
-        <v>1.41</v>
+        <v>1.42</v>
       </c>
       <c r="P12" t="n">
-        <v>1.65</v>
+        <v>1.73</v>
       </c>
       <c r="Q12" t="n">
         <v>2.12</v>
       </c>
       <c r="R12" t="n">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="S12" t="n">
-        <v>3.85</v>
+        <v>4.3</v>
       </c>
       <c r="T12" t="n">
-        <v>1.99</v>
+        <v>2.02</v>
       </c>
       <c r="U12" t="n">
         <v>1.6</v>
       </c>
       <c r="V12" t="n">
-        <v>2.18</v>
+        <v>2.24</v>
       </c>
       <c r="W12" t="n">
-        <v>1.13</v>
+        <v>1.15</v>
       </c>
       <c r="X12" t="n">
         <v>25</v>
@@ -2077,7 +2077,7 @@
         <v>29</v>
       </c>
       <c r="Z12" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AA12" t="n">
         <v>1000</v>
@@ -2095,16 +2095,16 @@
         <v>1000</v>
       </c>
       <c r="AF12" t="n">
-        <v>1000</v>
+        <v>170</v>
       </c>
       <c r="AG12" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AH12" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AI12" t="n">
-        <v>1000</v>
+        <v>160</v>
       </c>
       <c r="AJ12" t="n">
         <v>1000</v>
@@ -2152,64 +2152,64 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>1.42</v>
+        <v>1.47</v>
       </c>
       <c r="G13" t="n">
-        <v>1.58</v>
+        <v>1.55</v>
       </c>
       <c r="H13" t="n">
-        <v>7.6</v>
+        <v>8.4</v>
       </c>
       <c r="I13" t="n">
-        <v>13</v>
+        <v>10.5</v>
       </c>
       <c r="J13" t="n">
-        <v>3.7</v>
+        <v>4.1</v>
       </c>
       <c r="K13" t="n">
-        <v>5.6</v>
+        <v>4.6</v>
       </c>
       <c r="L13" t="n">
-        <v>1.37</v>
+        <v>1.36</v>
       </c>
       <c r="M13" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N13" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="O13" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="P13" t="n">
-        <v>1.8</v>
+        <v>1.78</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.92</v>
+        <v>2.02</v>
       </c>
       <c r="R13" t="n">
         <v>1.3</v>
       </c>
       <c r="S13" t="n">
-        <v>3.3</v>
+        <v>3.7</v>
       </c>
       <c r="T13" t="n">
-        <v>2.04</v>
+        <v>2.2</v>
       </c>
       <c r="U13" t="n">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="V13" t="n">
-        <v>1.09</v>
+        <v>1.11</v>
       </c>
       <c r="W13" t="n">
-        <v>2.72</v>
+        <v>2.76</v>
       </c>
       <c r="X13" t="n">
-        <v>980</v>
+        <v>90</v>
       </c>
       <c r="Y13" t="n">
-        <v>980</v>
+        <v>65</v>
       </c>
       <c r="Z13" t="n">
         <v>100</v>
@@ -2218,25 +2218,25 @@
         <v>1000</v>
       </c>
       <c r="AB13" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="AC13" t="n">
-        <v>12.5</v>
+        <v>23</v>
       </c>
       <c r="AD13" t="n">
-        <v>980</v>
+        <v>110</v>
       </c>
       <c r="AE13" t="n">
         <v>1000</v>
       </c>
       <c r="AF13" t="n">
-        <v>9.199999999999999</v>
+        <v>8.4</v>
       </c>
       <c r="AG13" t="n">
-        <v>980</v>
+        <v>40</v>
       </c>
       <c r="AH13" t="n">
-        <v>980</v>
+        <v>85</v>
       </c>
       <c r="AI13" t="n">
         <v>1000</v>
@@ -2248,13 +2248,13 @@
         <v>70</v>
       </c>
       <c r="AL13" t="n">
-        <v>370</v>
+        <v>130</v>
       </c>
       <c r="AM13" t="n">
         <v>1000</v>
       </c>
       <c r="AN13" t="n">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="AO13" t="n">
         <v>1000</v>
@@ -2287,64 +2287,64 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>1.43</v>
+        <v>1.52</v>
       </c>
       <c r="G14" t="n">
-        <v>1.78</v>
+        <v>1.66</v>
       </c>
       <c r="H14" t="n">
-        <v>5</v>
+        <v>5.3</v>
       </c>
       <c r="I14" t="n">
-        <v>1000</v>
+        <v>8.4</v>
       </c>
       <c r="J14" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="K14" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="L14" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="M14" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N14" t="n">
         <v>3.9</v>
-      </c>
-      <c r="K14" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="L14" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="M14" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N14" t="n">
-        <v>3.15</v>
       </c>
       <c r="O14" t="n">
         <v>1.23</v>
       </c>
       <c r="P14" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="R14" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="S14" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="T14" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="U14" t="n">
         <v>2.02</v>
       </c>
-      <c r="Q14" t="n">
-        <v>1.54</v>
-      </c>
-      <c r="R14" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="S14" t="n">
-        <v>2.36</v>
-      </c>
-      <c r="T14" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="U14" t="n">
-        <v>1.04</v>
-      </c>
       <c r="V14" t="n">
-        <v>1.11</v>
+        <v>1.15</v>
       </c>
       <c r="W14" t="n">
-        <v>2.28</v>
+        <v>2.5</v>
       </c>
       <c r="X14" t="n">
         <v>1000</v>
       </c>
       <c r="Y14" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
       <c r="Z14" t="n">
         <v>1000</v>
@@ -2353,22 +2353,22 @@
         <v>1000</v>
       </c>
       <c r="AB14" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AC14" t="n">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="AD14" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
       <c r="AE14" t="n">
         <v>1000</v>
       </c>
       <c r="AF14" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AG14" t="n">
-        <v>1000</v>
+        <v>8.4</v>
       </c>
       <c r="AH14" t="n">
         <v>1000</v>
@@ -2377,7 +2377,7 @@
         <v>1000</v>
       </c>
       <c r="AJ14" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="AK14" t="n">
         <v>1000</v>
@@ -2389,7 +2389,7 @@
         <v>1000</v>
       </c>
       <c r="AN14" t="n">
-        <v>1000</v>
+        <v>29</v>
       </c>
       <c r="AO14" t="n">
         <v>1000</v>
@@ -2425,13 +2425,13 @@
         <v>2.6</v>
       </c>
       <c r="G15" t="n">
-        <v>2.74</v>
+        <v>2.68</v>
       </c>
       <c r="H15" t="n">
         <v>3.3</v>
       </c>
       <c r="I15" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="J15" t="n">
         <v>3</v>
@@ -2557,52 +2557,52 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>2.48</v>
+        <v>2.54</v>
       </c>
       <c r="G16" t="n">
-        <v>2.82</v>
+        <v>2.84</v>
       </c>
       <c r="H16" t="n">
-        <v>2.9</v>
+        <v>2.92</v>
       </c>
       <c r="I16" t="n">
-        <v>3.45</v>
+        <v>3.55</v>
       </c>
       <c r="J16" t="n">
-        <v>2.92</v>
+        <v>2.84</v>
       </c>
       <c r="K16" t="n">
         <v>3.6</v>
       </c>
       <c r="L16" t="n">
-        <v>1.39</v>
+        <v>1.38</v>
       </c>
       <c r="M16" t="n">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="N16" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="O16" t="n">
         <v>1.38</v>
       </c>
       <c r="P16" t="n">
-        <v>1.73</v>
+        <v>1.72</v>
       </c>
       <c r="Q16" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="R16" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="S16" t="n">
         <v>3.5</v>
       </c>
       <c r="T16" t="n">
-        <v>1.72</v>
+        <v>1.69</v>
       </c>
       <c r="U16" t="n">
-        <v>1.85</v>
+        <v>1.87</v>
       </c>
       <c r="V16" t="n">
         <v>1.4</v>
@@ -2614,16 +2614,16 @@
         <v>1000</v>
       </c>
       <c r="Y16" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="Z16" t="n">
         <v>1000</v>
       </c>
       <c r="AA16" t="n">
-        <v>900</v>
+        <v>150</v>
       </c>
       <c r="AB16" t="n">
-        <v>1000</v>
+        <v>19.5</v>
       </c>
       <c r="AC16" t="n">
         <v>15</v>
@@ -2632,28 +2632,28 @@
         <v>1000</v>
       </c>
       <c r="AE16" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AF16" t="n">
         <v>1000</v>
       </c>
       <c r="AG16" t="n">
-        <v>26</v>
+        <v>1000</v>
       </c>
       <c r="AH16" t="n">
-        <v>55</v>
+        <v>23</v>
       </c>
       <c r="AI16" t="n">
-        <v>1000</v>
+        <v>160</v>
       </c>
       <c r="AJ16" t="n">
-        <v>900</v>
+        <v>120</v>
       </c>
       <c r="AK16" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
       <c r="AL16" t="n">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="AM16" t="n">
         <v>1000</v>
@@ -2692,25 +2692,25 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>2.04</v>
+        <v>2.1</v>
       </c>
       <c r="G17" t="n">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="H17" t="n">
         <v>3.7</v>
       </c>
       <c r="I17" t="n">
-        <v>4.9</v>
+        <v>4.6</v>
       </c>
       <c r="J17" t="n">
-        <v>3.25</v>
+        <v>3.15</v>
       </c>
       <c r="K17" t="n">
         <v>3.8</v>
       </c>
       <c r="L17" t="n">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="M17" t="n">
         <v>1.08</v>
@@ -2725,13 +2725,13 @@
         <v>1.78</v>
       </c>
       <c r="Q17" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="R17" t="n">
         <v>1.3</v>
       </c>
       <c r="S17" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="T17" t="n">
         <v>1.81</v>
@@ -2746,25 +2746,25 @@
         <v>1.78</v>
       </c>
       <c r="X17" t="n">
-        <v>15.5</v>
+        <v>13.5</v>
       </c>
       <c r="Y17" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="Z17" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AA17" t="n">
         <v>1000</v>
       </c>
       <c r="AB17" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AC17" t="n">
-        <v>9.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD17" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AE17" t="n">
         <v>65</v>
@@ -2776,16 +2776,16 @@
         <v>13</v>
       </c>
       <c r="AH17" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AI17" t="n">
-        <v>380</v>
+        <v>160</v>
       </c>
       <c r="AJ17" t="n">
         <v>34</v>
       </c>
       <c r="AK17" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AL17" t="n">
         <v>110</v>
@@ -2827,61 +2827,61 @@
         </is>
       </c>
       <c r="F18" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="G18" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="H18" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="I18" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="J18" t="n">
+        <v>3</v>
+      </c>
+      <c r="K18" t="n">
         <v>3.35</v>
       </c>
-      <c r="G18" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="H18" t="n">
-        <v>2.36</v>
-      </c>
-      <c r="I18" t="n">
-        <v>2.56</v>
-      </c>
-      <c r="J18" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="K18" t="n">
-        <v>3.4</v>
-      </c>
       <c r="L18" t="n">
-        <v>1.43</v>
+        <v>1.51</v>
       </c>
       <c r="M18" t="n">
         <v>1.1</v>
       </c>
       <c r="N18" t="n">
-        <v>2.8</v>
+        <v>2.78</v>
       </c>
       <c r="O18" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="P18" t="n">
-        <v>1.62</v>
+        <v>1.59</v>
       </c>
       <c r="Q18" t="n">
-        <v>2.32</v>
+        <v>2.36</v>
       </c>
       <c r="R18" t="n">
-        <v>1.23</v>
+        <v>1.22</v>
       </c>
       <c r="S18" t="n">
-        <v>4.1</v>
+        <v>4.7</v>
       </c>
       <c r="T18" t="n">
-        <v>1.81</v>
+        <v>1.82</v>
       </c>
       <c r="U18" t="n">
         <v>1.74</v>
       </c>
       <c r="V18" t="n">
-        <v>1.64</v>
+        <v>1.63</v>
       </c>
       <c r="W18" t="n">
-        <v>1.35</v>
+        <v>1.37</v>
       </c>
       <c r="X18" t="n">
-        <v>12.5</v>
+        <v>17</v>
       </c>
       <c r="Y18" t="n">
         <v>9.199999999999999</v>
@@ -2890,40 +2890,40 @@
         <v>1000</v>
       </c>
       <c r="AA18" t="n">
-        <v>130</v>
+        <v>95</v>
       </c>
       <c r="AB18" t="n">
         <v>1000</v>
       </c>
       <c r="AC18" t="n">
-        <v>9</v>
+        <v>8.6</v>
       </c>
       <c r="AD18" t="n">
         <v>1000</v>
       </c>
       <c r="AE18" t="n">
-        <v>110</v>
+        <v>85</v>
       </c>
       <c r="AF18" t="n">
-        <v>95</v>
+        <v>75</v>
       </c>
       <c r="AG18" t="n">
         <v>19</v>
       </c>
       <c r="AH18" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AI18" t="n">
-        <v>1000</v>
+        <v>160</v>
       </c>
       <c r="AJ18" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="AK18" t="n">
-        <v>1000</v>
+        <v>160</v>
       </c>
       <c r="AL18" t="n">
-        <v>1000</v>
+        <v>210</v>
       </c>
       <c r="AM18" t="n">
         <v>1000</v>
@@ -2962,19 +2962,19 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>2.78</v>
+        <v>2.68</v>
       </c>
       <c r="G19" t="n">
-        <v>3.5</v>
+        <v>3.35</v>
       </c>
       <c r="H19" t="n">
-        <v>2.28</v>
+        <v>2.32</v>
       </c>
       <c r="I19" t="n">
-        <v>2.76</v>
+        <v>2.86</v>
       </c>
       <c r="J19" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="K19" t="n">
         <v>3.9</v>
@@ -2986,19 +2986,19 @@
         <v>1.06</v>
       </c>
       <c r="N19" t="n">
-        <v>1.1</v>
+        <v>2.24</v>
       </c>
       <c r="O19" t="n">
         <v>1.29</v>
       </c>
       <c r="P19" t="n">
-        <v>1.75</v>
+        <v>1.83</v>
       </c>
       <c r="Q19" t="n">
         <v>1.78</v>
       </c>
       <c r="R19" t="n">
-        <v>1.32</v>
+        <v>1.34</v>
       </c>
       <c r="S19" t="n">
         <v>1.05</v>
@@ -3025,7 +3025,7 @@
         <v>1000</v>
       </c>
       <c r="AA19" t="n">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="AB19" t="n">
         <v>1000</v>
@@ -3049,16 +3049,16 @@
         <v>1000</v>
       </c>
       <c r="AI19" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="AJ19" t="n">
-        <v>1000</v>
+        <v>190</v>
       </c>
       <c r="AK19" t="n">
         <v>1000</v>
       </c>
       <c r="AL19" t="n">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="AM19" t="n">
         <v>1000</v>
@@ -3097,7 +3097,7 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>2.6</v>
+        <v>2.62</v>
       </c>
       <c r="G20" t="n">
         <v>2.96</v>
@@ -3106,13 +3106,13 @@
         <v>3.1</v>
       </c>
       <c r="I20" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="J20" t="n">
         <v>2.76</v>
       </c>
       <c r="K20" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="L20" t="n">
         <v>1.62</v>
@@ -3121,7 +3121,7 @@
         <v>1.14</v>
       </c>
       <c r="N20" t="n">
-        <v>2.34</v>
+        <v>2.36</v>
       </c>
       <c r="O20" t="n">
         <v>1.61</v>
@@ -3130,22 +3130,22 @@
         <v>1.45</v>
       </c>
       <c r="Q20" t="n">
-        <v>2.82</v>
+        <v>2.74</v>
       </c>
       <c r="R20" t="n">
         <v>1.18</v>
       </c>
       <c r="S20" t="n">
-        <v>5.4</v>
+        <v>6</v>
       </c>
       <c r="T20" t="n">
         <v>2.18</v>
       </c>
       <c r="U20" t="n">
-        <v>1.69</v>
+        <v>1.71</v>
       </c>
       <c r="V20" t="n">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="W20" t="n">
         <v>1.51</v>
@@ -3154,13 +3154,13 @@
         <v>9</v>
       </c>
       <c r="Y20" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="Z20" t="n">
         <v>25</v>
       </c>
       <c r="AA20" t="n">
-        <v>900</v>
+        <v>190</v>
       </c>
       <c r="AB20" t="n">
         <v>9</v>
@@ -3172,16 +3172,16 @@
         <v>18.5</v>
       </c>
       <c r="AE20" t="n">
-        <v>70</v>
+        <v>160</v>
       </c>
       <c r="AF20" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AG20" t="n">
         <v>16.5</v>
       </c>
       <c r="AH20" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AI20" t="n">
         <v>260</v>
@@ -3190,7 +3190,7 @@
         <v>60</v>
       </c>
       <c r="AK20" t="n">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="AL20" t="n">
         <v>210</v>
@@ -3199,10 +3199,10 @@
         <v>1000</v>
       </c>
       <c r="AN20" t="n">
-        <v>1000</v>
+        <v>180</v>
       </c>
       <c r="AO20" t="n">
-        <v>1000</v>
+        <v>600</v>
       </c>
     </row>
     <row r="21">
@@ -3232,22 +3232,22 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>1.74</v>
+        <v>1.68</v>
       </c>
       <c r="G21" t="n">
-        <v>1.75</v>
+        <v>1.72</v>
       </c>
       <c r="H21" t="n">
-        <v>5.3</v>
+        <v>5.6</v>
       </c>
       <c r="I21" t="n">
-        <v>5.8</v>
+        <v>6.2</v>
       </c>
       <c r="J21" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="K21" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="L21" t="n">
         <v>1.39</v>
@@ -3256,58 +3256,58 @@
         <v>1.06</v>
       </c>
       <c r="N21" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="O21" t="n">
-        <v>1.31</v>
+        <v>1.3</v>
       </c>
       <c r="P21" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.93</v>
+        <v>1.92</v>
       </c>
       <c r="R21" t="n">
         <v>1.38</v>
       </c>
       <c r="S21" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="T21" t="n">
         <v>1.9</v>
       </c>
       <c r="U21" t="n">
-        <v>2.04</v>
+        <v>2.02</v>
       </c>
       <c r="V21" t="n">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="W21" t="n">
-        <v>2.32</v>
+        <v>2.38</v>
       </c>
       <c r="X21" t="n">
         <v>15.5</v>
       </c>
       <c r="Y21" t="n">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="Z21" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AA21" t="n">
-        <v>150</v>
+        <v>170</v>
       </c>
       <c r="AB21" t="n">
-        <v>8.800000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="AC21" t="n">
-        <v>9</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD21" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AE21" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AF21" t="n">
         <v>12.5</v>
@@ -3316,28 +3316,28 @@
         <v>9.4</v>
       </c>
       <c r="AH21" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AI21" t="n">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="AJ21" t="n">
-        <v>17.5</v>
+        <v>16.5</v>
       </c>
       <c r="AK21" t="n">
         <v>17.5</v>
       </c>
       <c r="AL21" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AM21" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="AN21" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AO21" t="n">
-        <v>90</v>
+        <v>110</v>
       </c>
     </row>
     <row r="22">
@@ -3367,19 +3367,19 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>2.36</v>
+        <v>2.32</v>
       </c>
       <c r="G22" t="n">
-        <v>2.44</v>
+        <v>2.4</v>
       </c>
       <c r="H22" t="n">
-        <v>3.65</v>
+        <v>3.75</v>
       </c>
       <c r="I22" t="n">
-        <v>3.75</v>
+        <v>3.95</v>
       </c>
       <c r="J22" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="K22" t="n">
         <v>3.2</v>
@@ -3391,46 +3391,46 @@
         <v>1.11</v>
       </c>
       <c r="N22" t="n">
-        <v>2.88</v>
+        <v>2.94</v>
       </c>
       <c r="O22" t="n">
-        <v>1.47</v>
+        <v>1.48</v>
       </c>
       <c r="P22" t="n">
-        <v>1.64</v>
+        <v>1.65</v>
       </c>
       <c r="Q22" t="n">
-        <v>2.42</v>
+        <v>2.44</v>
       </c>
       <c r="R22" t="n">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
       <c r="S22" t="n">
         <v>4.8</v>
       </c>
       <c r="T22" t="n">
-        <v>1.99</v>
+        <v>2.02</v>
       </c>
       <c r="U22" t="n">
-        <v>1.96</v>
+        <v>1.9</v>
       </c>
       <c r="V22" t="n">
-        <v>1.36</v>
+        <v>1.34</v>
       </c>
       <c r="W22" t="n">
-        <v>1.7</v>
+        <v>1.72</v>
       </c>
       <c r="X22" t="n">
-        <v>9.6</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="Y22" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="Z22" t="n">
         <v>25</v>
       </c>
       <c r="AA22" t="n">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="AB22" t="n">
         <v>8.199999999999999</v>
@@ -3439,16 +3439,16 @@
         <v>7.2</v>
       </c>
       <c r="AD22" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AE22" t="n">
         <v>55</v>
       </c>
       <c r="AF22" t="n">
-        <v>14.5</v>
+        <v>13.5</v>
       </c>
       <c r="AG22" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AH22" t="n">
         <v>21</v>
@@ -3460,19 +3460,19 @@
         <v>34</v>
       </c>
       <c r="AK22" t="n">
-        <v>30</v>
+        <v>75</v>
       </c>
       <c r="AL22" t="n">
         <v>55</v>
       </c>
       <c r="AM22" t="n">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="AN22" t="n">
         <v>30</v>
       </c>
       <c r="AO22" t="n">
-        <v>65</v>
+        <v>75</v>
       </c>
     </row>
     <row r="23">
@@ -3502,19 +3502,19 @@
         </is>
       </c>
       <c r="F23" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="G23" t="n">
         <v>1.51</v>
       </c>
-      <c r="G23" t="n">
-        <v>1.65</v>
-      </c>
       <c r="H23" t="n">
-        <v>8.199999999999999</v>
+        <v>8.4</v>
       </c>
       <c r="I23" t="n">
         <v>11</v>
       </c>
       <c r="J23" t="n">
-        <v>3.5</v>
+        <v>4.1</v>
       </c>
       <c r="K23" t="n">
         <v>4.2</v>
@@ -3526,13 +3526,13 @@
         <v>1.08</v>
       </c>
       <c r="N23" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="O23" t="n">
-        <v>1.37</v>
+        <v>1.36</v>
       </c>
       <c r="P23" t="n">
-        <v>1.67</v>
+        <v>1.76</v>
       </c>
       <c r="Q23" t="n">
         <v>2.1</v>
@@ -3547,16 +3547,16 @@
         <v>2.04</v>
       </c>
       <c r="U23" t="n">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="V23" t="n">
         <v>1.1</v>
       </c>
       <c r="W23" t="n">
-        <v>2.52</v>
+        <v>2.96</v>
       </c>
       <c r="X23" t="n">
-        <v>1000</v>
+        <v>90</v>
       </c>
       <c r="Y23" t="n">
         <v>1000</v>
@@ -3568,43 +3568,43 @@
         <v>1000</v>
       </c>
       <c r="AB23" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="AC23" t="n">
-        <v>1000</v>
+        <v>18</v>
       </c>
       <c r="AD23" t="n">
-        <v>1000</v>
+        <v>95</v>
       </c>
       <c r="AE23" t="n">
         <v>1000</v>
       </c>
       <c r="AF23" t="n">
-        <v>1000</v>
+        <v>16.5</v>
       </c>
       <c r="AG23" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AH23" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
       <c r="AI23" t="n">
         <v>1000</v>
       </c>
       <c r="AJ23" t="n">
-        <v>1000</v>
+        <v>180</v>
       </c>
       <c r="AK23" t="n">
         <v>1000</v>
       </c>
       <c r="AL23" t="n">
-        <v>1000</v>
+        <v>160</v>
       </c>
       <c r="AM23" t="n">
         <v>1000</v>
       </c>
       <c r="AN23" t="n">
-        <v>1000</v>
+        <v>29</v>
       </c>
       <c r="AO23" t="n">
         <v>1000</v>
@@ -3772,22 +3772,22 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>1.75</v>
+        <v>1.72</v>
       </c>
       <c r="G25" t="n">
-        <v>1.84</v>
+        <v>1.82</v>
       </c>
       <c r="H25" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="I25" t="n">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="J25" t="n">
         <v>3.5</v>
       </c>
       <c r="K25" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="L25" t="n">
         <v>1.44</v>
@@ -3814,7 +3814,7 @@
         <v>4.8</v>
       </c>
       <c r="T25" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="U25" t="n">
         <v>1.68</v>
@@ -3823,7 +3823,7 @@
         <v>1.17</v>
       </c>
       <c r="W25" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="X25" t="n">
         <v>11</v>
@@ -3832,7 +3832,7 @@
         <v>18.5</v>
       </c>
       <c r="Z25" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AA25" t="n">
         <v>1000</v>
@@ -3844,7 +3844,7 @@
         <v>9</v>
       </c>
       <c r="AD25" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AE25" t="n">
         <v>1000</v>
@@ -3865,16 +3865,16 @@
         <v>21</v>
       </c>
       <c r="AK25" t="n">
-        <v>26</v>
+        <v>48</v>
       </c>
       <c r="AL25" t="n">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="AM25" t="n">
         <v>1000</v>
       </c>
       <c r="AN25" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AO25" t="n">
         <v>1000</v>
@@ -3937,7 +3937,7 @@
         <v>1.41</v>
       </c>
       <c r="P26" t="n">
-        <v>1.68</v>
+        <v>1.69</v>
       </c>
       <c r="Q26" t="n">
         <v>2.18</v>
@@ -3952,13 +3952,13 @@
         <v>1.86</v>
       </c>
       <c r="U26" t="n">
-        <v>1.95</v>
+        <v>1.94</v>
       </c>
       <c r="V26" t="n">
-        <v>1.47</v>
+        <v>1.48</v>
       </c>
       <c r="W26" t="n">
-        <v>1.47</v>
+        <v>1.48</v>
       </c>
       <c r="X26" t="n">
         <v>13.5</v>
@@ -4009,7 +4009,7 @@
         <v>1000</v>
       </c>
       <c r="AN26" t="n">
-        <v>46</v>
+        <v>90</v>
       </c>
       <c r="AO26" t="n">
         <v>46</v>
@@ -4045,7 +4045,7 @@
         <v>3.4</v>
       </c>
       <c r="G27" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="H27" t="n">
         <v>2.56</v>
@@ -4054,40 +4054,40 @@
         <v>2.62</v>
       </c>
       <c r="J27" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="K27" t="n">
         <v>3.1</v>
       </c>
       <c r="L27" t="n">
-        <v>1.58</v>
+        <v>1.01</v>
       </c>
       <c r="M27" t="n">
         <v>1.13</v>
       </c>
       <c r="N27" t="n">
-        <v>2.5</v>
+        <v>2.56</v>
       </c>
       <c r="O27" t="n">
-        <v>1.61</v>
+        <v>1.58</v>
       </c>
       <c r="P27" t="n">
-        <v>1.51</v>
+        <v>1.53</v>
       </c>
       <c r="Q27" t="n">
-        <v>2.8</v>
+        <v>2.7</v>
       </c>
       <c r="R27" t="n">
-        <v>1.17</v>
+        <v>1.19</v>
       </c>
       <c r="S27" t="n">
-        <v>6</v>
+        <v>5.7</v>
       </c>
       <c r="T27" t="n">
-        <v>2.2</v>
+        <v>2.14</v>
       </c>
       <c r="U27" t="n">
-        <v>1.75</v>
+        <v>1.78</v>
       </c>
       <c r="V27" t="n">
         <v>1.61</v>
@@ -4096,10 +4096,10 @@
         <v>1.39</v>
       </c>
       <c r="X27" t="n">
-        <v>7.8</v>
+        <v>8.6</v>
       </c>
       <c r="Y27" t="n">
-        <v>7.4</v>
+        <v>7.6</v>
       </c>
       <c r="Z27" t="n">
         <v>14.5</v>
@@ -4108,7 +4108,7 @@
         <v>40</v>
       </c>
       <c r="AB27" t="n">
-        <v>9.199999999999999</v>
+        <v>9.4</v>
       </c>
       <c r="AC27" t="n">
         <v>7</v>
@@ -4117,7 +4117,7 @@
         <v>13</v>
       </c>
       <c r="AE27" t="n">
-        <v>980</v>
+        <v>38</v>
       </c>
       <c r="AF27" t="n">
         <v>22</v>
@@ -4126,28 +4126,28 @@
         <v>16</v>
       </c>
       <c r="AH27" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="AI27" t="n">
-        <v>75</v>
+        <v>170</v>
       </c>
       <c r="AJ27" t="n">
-        <v>80</v>
+        <v>170</v>
       </c>
       <c r="AK27" t="n">
         <v>60</v>
       </c>
       <c r="AL27" t="n">
-        <v>90</v>
+        <v>210</v>
       </c>
       <c r="AM27" t="n">
         <v>980</v>
       </c>
       <c r="AN27" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="AO27" t="n">
-        <v>60</v>
+        <v>42</v>
       </c>
     </row>
     <row r="28">
@@ -4177,7 +4177,7 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>2.52</v>
+        <v>2.54</v>
       </c>
       <c r="G28" t="n">
         <v>2.6</v>
@@ -4186,7 +4186,7 @@
         <v>3.05</v>
       </c>
       <c r="I28" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="J28" t="n">
         <v>3.45</v>
@@ -4201,88 +4201,88 @@
         <v>1.06</v>
       </c>
       <c r="N28" t="n">
-        <v>4.1</v>
+        <v>4.3</v>
       </c>
       <c r="O28" t="n">
         <v>1.27</v>
       </c>
       <c r="P28" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="Q28" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="R28" t="n">
-        <v>1.42</v>
+        <v>1.45</v>
       </c>
       <c r="S28" t="n">
         <v>3.1</v>
       </c>
       <c r="T28" t="n">
-        <v>1.67</v>
+        <v>1.68</v>
       </c>
       <c r="U28" t="n">
-        <v>2.34</v>
+        <v>2.38</v>
       </c>
       <c r="V28" t="n">
-        <v>1.45</v>
+        <v>1.46</v>
       </c>
       <c r="W28" t="n">
         <v>1.62</v>
       </c>
       <c r="X28" t="n">
-        <v>17.5</v>
+        <v>16.5</v>
       </c>
       <c r="Y28" t="n">
-        <v>980</v>
+        <v>14.5</v>
       </c>
       <c r="Z28" t="n">
-        <v>980</v>
+        <v>22</v>
       </c>
       <c r="AA28" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AB28" t="n">
         <v>12.5</v>
       </c>
       <c r="AC28" t="n">
-        <v>8.199999999999999</v>
+        <v>8.4</v>
       </c>
       <c r="AD28" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AE28" t="n">
-        <v>980</v>
+        <v>32</v>
       </c>
       <c r="AF28" t="n">
-        <v>980</v>
+        <v>18</v>
       </c>
       <c r="AG28" t="n">
-        <v>12.5</v>
+        <v>11.5</v>
       </c>
       <c r="AH28" t="n">
-        <v>980</v>
+        <v>15.5</v>
       </c>
       <c r="AI28" t="n">
-        <v>980</v>
+        <v>38</v>
       </c>
       <c r="AJ28" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AK28" t="n">
-        <v>980</v>
+        <v>26</v>
       </c>
       <c r="AL28" t="n">
-        <v>980</v>
+        <v>34</v>
       </c>
       <c r="AM28" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AN28" t="n">
-        <v>1000</v>
+        <v>18.5</v>
       </c>
       <c r="AO28" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
     </row>
     <row r="29">
@@ -4312,43 +4312,43 @@
         </is>
       </c>
       <c r="F29" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="G29" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="H29" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="I29" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="J29" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="K29" t="n">
         <v>3.25</v>
       </c>
-      <c r="G29" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="H29" t="n">
-        <v>2.46</v>
-      </c>
-      <c r="I29" t="n">
-        <v>2.62</v>
-      </c>
-      <c r="J29" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="K29" t="n">
-        <v>3.4</v>
-      </c>
       <c r="L29" t="n">
-        <v>1.42</v>
+        <v>1.48</v>
       </c>
       <c r="M29" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="N29" t="n">
-        <v>2.92</v>
+        <v>2.94</v>
       </c>
       <c r="O29" t="n">
         <v>1.44</v>
       </c>
       <c r="P29" t="n">
-        <v>1.66</v>
+        <v>1.7</v>
       </c>
       <c r="Q29" t="n">
-        <v>2.26</v>
+        <v>2.32</v>
       </c>
       <c r="R29" t="n">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="S29" t="n">
         <v>4.5</v>
@@ -4357,64 +4357,64 @@
         <v>1.86</v>
       </c>
       <c r="U29" t="n">
-        <v>1.77</v>
+        <v>1.8</v>
       </c>
       <c r="V29" t="n">
-        <v>1.61</v>
+        <v>1.63</v>
       </c>
       <c r="W29" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="X29" t="n">
-        <v>1000</v>
+        <v>10</v>
       </c>
       <c r="Y29" t="n">
-        <v>9.199999999999999</v>
+        <v>9</v>
       </c>
       <c r="Z29" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AA29" t="n">
-        <v>900</v>
+        <v>40</v>
       </c>
       <c r="AB29" t="n">
         <v>11.5</v>
       </c>
       <c r="AC29" t="n">
-        <v>7.6</v>
+        <v>7.2</v>
       </c>
       <c r="AD29" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AE29" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AF29" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AG29" t="n">
-        <v>18</v>
+        <v>16.5</v>
       </c>
       <c r="AH29" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AI29" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AJ29" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AK29" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AL29" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AM29" t="n">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="AN29" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AO29" t="n">
         <v>36</v>
@@ -4453,13 +4453,13 @@
         <v>2.28</v>
       </c>
       <c r="H30" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="I30" t="n">
         <v>4.2</v>
       </c>
       <c r="J30" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="K30" t="n">
         <v>3.4</v>
@@ -4471,13 +4471,13 @@
         <v>1.1</v>
       </c>
       <c r="N30" t="n">
-        <v>2.82</v>
+        <v>2.8</v>
       </c>
       <c r="O30" t="n">
         <v>1.49</v>
       </c>
       <c r="P30" t="n">
-        <v>1.63</v>
+        <v>1.62</v>
       </c>
       <c r="Q30" t="n">
         <v>2.3</v>
@@ -4504,10 +4504,10 @@
         <v>10.5</v>
       </c>
       <c r="Y30" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="Z30" t="n">
-        <v>980</v>
+        <v>29</v>
       </c>
       <c r="AA30" t="n">
         <v>900</v>
@@ -4588,13 +4588,13 @@
         <v>4.8</v>
       </c>
       <c r="H31" t="n">
-        <v>1.98</v>
+        <v>1.96</v>
       </c>
       <c r="I31" t="n">
         <v>2.1</v>
       </c>
       <c r="J31" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="K31" t="n">
         <v>3.65</v>
@@ -4612,7 +4612,7 @@
         <v>1.42</v>
       </c>
       <c r="P31" t="n">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
       <c r="Q31" t="n">
         <v>2.2</v>
@@ -4639,25 +4639,25 @@
         <v>12</v>
       </c>
       <c r="Y31" t="n">
-        <v>8.199999999999999</v>
+        <v>8</v>
       </c>
       <c r="Z31" t="n">
         <v>12.5</v>
       </c>
       <c r="AA31" t="n">
-        <v>900</v>
+        <v>26</v>
       </c>
       <c r="AB31" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AC31" t="n">
         <v>8.199999999999999</v>
       </c>
       <c r="AD31" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AE31" t="n">
-        <v>26</v>
+        <v>70</v>
       </c>
       <c r="AF31" t="n">
         <v>980</v>
@@ -4687,7 +4687,7 @@
         <v>95</v>
       </c>
       <c r="AO31" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="32">
@@ -4717,19 +4717,19 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>1.55</v>
+        <v>1.56</v>
       </c>
       <c r="G32" t="n">
-        <v>1.64</v>
+        <v>1.63</v>
       </c>
       <c r="H32" t="n">
-        <v>7</v>
+        <v>7.2</v>
       </c>
       <c r="I32" t="n">
-        <v>8.4</v>
+        <v>8.6</v>
       </c>
       <c r="J32" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="K32" t="n">
         <v>4.3</v>
@@ -4741,13 +4741,13 @@
         <v>1.09</v>
       </c>
       <c r="N32" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="O32" t="n">
         <v>1.41</v>
       </c>
       <c r="P32" t="n">
-        <v>1.72</v>
+        <v>1.73</v>
       </c>
       <c r="Q32" t="n">
         <v>2.16</v>
@@ -4765,19 +4765,19 @@
         <v>1.62</v>
       </c>
       <c r="V32" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="W32" t="n">
-        <v>2.56</v>
+        <v>2.58</v>
       </c>
       <c r="X32" t="n">
-        <v>90</v>
+        <v>12.5</v>
       </c>
       <c r="Y32" t="n">
         <v>980</v>
       </c>
       <c r="Z32" t="n">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="AA32" t="n">
         <v>1000</v>
@@ -4852,28 +4852,28 @@
         </is>
       </c>
       <c r="F33" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="G33" t="n">
-        <v>1.96</v>
+        <v>1.94</v>
       </c>
       <c r="H33" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="I33" t="n">
-        <v>6</v>
+        <v>6.2</v>
       </c>
       <c r="J33" t="n">
-        <v>3.05</v>
+        <v>3.25</v>
       </c>
       <c r="K33" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="L33" t="n">
         <v>1.01</v>
       </c>
       <c r="M33" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="N33" t="n">
         <v>2.88</v>
@@ -4882,10 +4882,10 @@
         <v>1.45</v>
       </c>
       <c r="P33" t="n">
-        <v>1.61</v>
+        <v>1.65</v>
       </c>
       <c r="Q33" t="n">
-        <v>2.32</v>
+        <v>2.34</v>
       </c>
       <c r="R33" t="n">
         <v>1.23</v>
@@ -4909,7 +4909,7 @@
         <v>90</v>
       </c>
       <c r="Y33" t="n">
-        <v>18</v>
+        <v>980</v>
       </c>
       <c r="Z33" t="n">
         <v>980</v>
@@ -4918,7 +4918,7 @@
         <v>180</v>
       </c>
       <c r="AB33" t="n">
-        <v>29</v>
+        <v>7.2</v>
       </c>
       <c r="AC33" t="n">
         <v>980</v>
@@ -4933,13 +4933,13 @@
         <v>980</v>
       </c>
       <c r="AG33" t="n">
-        <v>40</v>
+        <v>980</v>
       </c>
       <c r="AH33" t="n">
         <v>980</v>
       </c>
       <c r="AI33" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="AJ33" t="n">
         <v>980</v>
@@ -4990,16 +4990,16 @@
         <v>3.35</v>
       </c>
       <c r="G34" t="n">
-        <v>3.75</v>
+        <v>3.65</v>
       </c>
       <c r="H34" t="n">
-        <v>2.62</v>
+        <v>2.52</v>
       </c>
       <c r="I34" t="n">
-        <v>2.72</v>
+        <v>2.76</v>
       </c>
       <c r="J34" t="n">
-        <v>2.82</v>
+        <v>2.86</v>
       </c>
       <c r="K34" t="n">
         <v>3.05</v>
@@ -5014,10 +5014,10 @@
         <v>2.44</v>
       </c>
       <c r="O34" t="n">
-        <v>1.59</v>
+        <v>1.6</v>
       </c>
       <c r="P34" t="n">
-        <v>1.48</v>
+        <v>1.49</v>
       </c>
       <c r="Q34" t="n">
         <v>2.8</v>
@@ -5041,13 +5041,13 @@
         <v>1.37</v>
       </c>
       <c r="X34" t="n">
-        <v>8.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="Y34" t="n">
         <v>7.4</v>
       </c>
       <c r="Z34" t="n">
-        <v>15</v>
+        <v>980</v>
       </c>
       <c r="AA34" t="n">
         <v>980</v>
@@ -5122,16 +5122,16 @@
         </is>
       </c>
       <c r="F35" t="n">
-        <v>3.7</v>
+        <v>4.1</v>
       </c>
       <c r="G35" t="n">
-        <v>4</v>
+        <v>4.4</v>
       </c>
       <c r="H35" t="n">
-        <v>2.28</v>
+        <v>2.16</v>
       </c>
       <c r="I35" t="n">
-        <v>2.42</v>
+        <v>2.26</v>
       </c>
       <c r="J35" t="n">
         <v>3.15</v>
@@ -5146,13 +5146,13 @@
         <v>1.13</v>
       </c>
       <c r="N35" t="n">
-        <v>2.46</v>
+        <v>2.56</v>
       </c>
       <c r="O35" t="n">
         <v>1.58</v>
       </c>
       <c r="P35" t="n">
-        <v>1.5</v>
+        <v>1.54</v>
       </c>
       <c r="Q35" t="n">
         <v>2.72</v>
@@ -5161,61 +5161,61 @@
         <v>1.17</v>
       </c>
       <c r="S35" t="n">
-        <v>5.5</v>
+        <v>5.8</v>
       </c>
       <c r="T35" t="n">
-        <v>2.16</v>
+        <v>2.26</v>
       </c>
       <c r="U35" t="n">
         <v>1.7</v>
       </c>
       <c r="V35" t="n">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="W35" t="n">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="X35" t="n">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="Y35" t="n">
         <v>7.2</v>
       </c>
       <c r="Z35" t="n">
-        <v>980</v>
+        <v>12.5</v>
       </c>
       <c r="AA35" t="n">
         <v>980</v>
       </c>
       <c r="AB35" t="n">
-        <v>980</v>
+        <v>11</v>
       </c>
       <c r="AC35" t="n">
-        <v>18.5</v>
+        <v>7.6</v>
       </c>
       <c r="AD35" t="n">
-        <v>980</v>
+        <v>14.5</v>
       </c>
       <c r="AE35" t="n">
         <v>980</v>
       </c>
       <c r="AF35" t="n">
-        <v>980</v>
+        <v>32</v>
       </c>
       <c r="AG35" t="n">
-        <v>980</v>
+        <v>26</v>
       </c>
       <c r="AH35" t="n">
         <v>980</v>
       </c>
       <c r="AI35" t="n">
-        <v>80</v>
+        <v>1000</v>
       </c>
       <c r="AJ35" t="n">
         <v>900</v>
       </c>
       <c r="AK35" t="n">
-        <v>80</v>
+        <v>1000</v>
       </c>
       <c r="AL35" t="n">
         <v>110</v>
@@ -5257,13 +5257,13 @@
         </is>
       </c>
       <c r="F36" t="n">
-        <v>2.36</v>
+        <v>2.38</v>
       </c>
       <c r="G36" t="n">
-        <v>2.44</v>
+        <v>2.46</v>
       </c>
       <c r="H36" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="I36" t="n">
         <v>3.9</v>
@@ -5275,64 +5275,64 @@
         <v>3.15</v>
       </c>
       <c r="L36" t="n">
-        <v>1.56</v>
+        <v>1.62</v>
       </c>
       <c r="M36" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="N36" t="n">
-        <v>2.56</v>
+        <v>2.5</v>
       </c>
       <c r="O36" t="n">
-        <v>1.58</v>
+        <v>1.62</v>
       </c>
       <c r="P36" t="n">
-        <v>1.52</v>
+        <v>1.49</v>
       </c>
       <c r="Q36" t="n">
-        <v>2.68</v>
+        <v>2.86</v>
       </c>
       <c r="R36" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="S36" t="n">
-        <v>5.7</v>
+        <v>6.4</v>
       </c>
       <c r="T36" t="n">
-        <v>2.18</v>
+        <v>2.3</v>
       </c>
       <c r="U36" t="n">
-        <v>1.74</v>
+        <v>1.72</v>
       </c>
       <c r="V36" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="W36" t="n">
         <v>1.69</v>
       </c>
       <c r="X36" t="n">
-        <v>8.4</v>
+        <v>8</v>
       </c>
       <c r="Y36" t="n">
-        <v>10</v>
+        <v>9.6</v>
       </c>
       <c r="Z36" t="n">
-        <v>24</v>
+        <v>980</v>
       </c>
       <c r="AA36" t="n">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="AB36" t="n">
-        <v>7.2</v>
+        <v>6.8</v>
       </c>
       <c r="AC36" t="n">
         <v>7</v>
       </c>
       <c r="AD36" t="n">
-        <v>17</v>
+        <v>970</v>
       </c>
       <c r="AE36" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AF36" t="n">
         <v>13</v>
@@ -5341,28 +5341,28 @@
         <v>12.5</v>
       </c>
       <c r="AH36" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="AI36" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="AJ36" t="n">
         <v>38</v>
       </c>
       <c r="AK36" t="n">
-        <v>36</v>
+        <v>980</v>
       </c>
       <c r="AL36" t="n">
-        <v>80</v>
+        <v>1000</v>
       </c>
       <c r="AM36" t="n">
-        <v>200</v>
+        <v>260</v>
       </c>
       <c r="AN36" t="n">
-        <v>38</v>
+        <v>980</v>
       </c>
       <c r="AO36" t="n">
-        <v>95</v>
+        <v>110</v>
       </c>
     </row>
     <row r="37">
@@ -5425,19 +5425,19 @@
         <v>1.75</v>
       </c>
       <c r="Q37" t="n">
-        <v>1.93</v>
+        <v>2.12</v>
       </c>
       <c r="R37" t="n">
         <v>1.28</v>
       </c>
       <c r="S37" t="n">
-        <v>3.1</v>
+        <v>3.85</v>
       </c>
       <c r="T37" t="n">
-        <v>1.9</v>
+        <v>1.92</v>
       </c>
       <c r="U37" t="n">
-        <v>1.93</v>
+        <v>1.94</v>
       </c>
       <c r="V37" t="n">
         <v>1.92</v>
@@ -5467,13 +5467,13 @@
         <v>11</v>
       </c>
       <c r="AE37" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="AF37" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AG37" t="n">
-        <v>19</v>
+        <v>1000</v>
       </c>
       <c r="AH37" t="n">
         <v>24</v>
@@ -5497,7 +5497,7 @@
         <v>1000</v>
       </c>
       <c r="AO37" t="n">
-        <v>18</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="38">
@@ -5527,22 +5527,22 @@
         </is>
       </c>
       <c r="F38" t="n">
-        <v>2.24</v>
+        <v>2.3</v>
       </c>
       <c r="G38" t="n">
-        <v>2.32</v>
+        <v>2.36</v>
       </c>
       <c r="H38" t="n">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="I38" t="n">
-        <v>4</v>
+        <v>3.85</v>
       </c>
       <c r="J38" t="n">
         <v>3.25</v>
       </c>
       <c r="K38" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="L38" t="n">
         <v>1.51</v>
@@ -5554,13 +5554,13 @@
         <v>3</v>
       </c>
       <c r="O38" t="n">
-        <v>1.45</v>
+        <v>1.46</v>
       </c>
       <c r="P38" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="Q38" t="n">
-        <v>2.34</v>
+        <v>2.36</v>
       </c>
       <c r="R38" t="n">
         <v>1.25</v>
@@ -5569,70 +5569,70 @@
         <v>4.6</v>
       </c>
       <c r="T38" t="n">
-        <v>2.02</v>
+        <v>1.99</v>
       </c>
       <c r="U38" t="n">
-        <v>1.9</v>
+        <v>1.92</v>
       </c>
       <c r="V38" t="n">
-        <v>1.33</v>
+        <v>1.35</v>
       </c>
       <c r="W38" t="n">
-        <v>1.76</v>
+        <v>1.74</v>
       </c>
       <c r="X38" t="n">
         <v>10.5</v>
       </c>
       <c r="Y38" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Z38" t="n">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="AA38" t="n">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="AB38" t="n">
-        <v>8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AC38" t="n">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="AD38" t="n">
-        <v>17.5</v>
+        <v>15.5</v>
       </c>
       <c r="AE38" t="n">
-        <v>370</v>
+        <v>55</v>
       </c>
       <c r="AF38" t="n">
         <v>13.5</v>
       </c>
       <c r="AG38" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AH38" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AI38" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AJ38" t="n">
         <v>32</v>
       </c>
       <c r="AK38" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AL38" t="n">
-        <v>540</v>
+        <v>55</v>
       </c>
       <c r="AM38" t="n">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="AN38" t="n">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="AO38" t="n">
-        <v>80</v>
+        <v>65</v>
       </c>
     </row>
     <row r="39">
@@ -5665,16 +5665,16 @@
         <v>2.14</v>
       </c>
       <c r="G39" t="n">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="H39" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="I39" t="n">
-        <v>5.5</v>
+        <v>4.9</v>
       </c>
       <c r="J39" t="n">
-        <v>2.2</v>
+        <v>2.36</v>
       </c>
       <c r="K39" t="n">
         <v>4.4</v>
@@ -5686,7 +5686,7 @@
         <v>1.01</v>
       </c>
       <c r="N39" t="n">
-        <v>1.58</v>
+        <v>2.24</v>
       </c>
       <c r="O39" t="n">
         <v>1.01</v>
@@ -5701,19 +5701,19 @@
         <v>1.18</v>
       </c>
       <c r="S39" t="n">
-        <v>2.7</v>
+        <v>2.68</v>
       </c>
       <c r="T39" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="U39" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="V39" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="W39" t="n">
-        <v>1.5</v>
+        <v>1.55</v>
       </c>
       <c r="X39" t="n">
         <v>1000</v>
@@ -5797,19 +5797,19 @@
         </is>
       </c>
       <c r="F40" t="n">
-        <v>4</v>
+        <v>4.4</v>
       </c>
       <c r="G40" t="n">
-        <v>4.5</v>
+        <v>4.8</v>
       </c>
       <c r="H40" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="I40" t="n">
-        <v>2.22</v>
+        <v>2.06</v>
       </c>
       <c r="J40" t="n">
-        <v>3.25</v>
+        <v>3.35</v>
       </c>
       <c r="K40" t="n">
         <v>3.5</v>
@@ -5818,79 +5818,79 @@
         <v>1.5</v>
       </c>
       <c r="M40" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="N40" t="n">
-        <v>2.92</v>
+        <v>3</v>
       </c>
       <c r="O40" t="n">
         <v>1.45</v>
       </c>
       <c r="P40" t="n">
-        <v>1.66</v>
+        <v>1.67</v>
       </c>
       <c r="Q40" t="n">
-        <v>2.08</v>
+        <v>2.28</v>
       </c>
       <c r="R40" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="S40" t="n">
         <v>4.4</v>
       </c>
       <c r="T40" t="n">
-        <v>2</v>
+        <v>2.04</v>
       </c>
       <c r="U40" t="n">
-        <v>1.87</v>
+        <v>1.8</v>
       </c>
       <c r="V40" t="n">
-        <v>1.82</v>
+        <v>1.94</v>
       </c>
       <c r="W40" t="n">
-        <v>1.28</v>
+        <v>1.26</v>
       </c>
       <c r="X40" t="n">
-        <v>980</v>
+        <v>12</v>
       </c>
       <c r="Y40" t="n">
-        <v>29</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="Z40" t="n">
-        <v>980</v>
+        <v>11</v>
       </c>
       <c r="AA40" t="n">
-        <v>980</v>
+        <v>32</v>
       </c>
       <c r="AB40" t="n">
-        <v>980</v>
+        <v>15.5</v>
       </c>
       <c r="AC40" t="n">
-        <v>980</v>
+        <v>8.4</v>
       </c>
       <c r="AD40" t="n">
-        <v>980</v>
+        <v>13</v>
       </c>
       <c r="AE40" t="n">
-        <v>980</v>
+        <v>36</v>
       </c>
       <c r="AF40" t="n">
-        <v>980</v>
+        <v>40</v>
       </c>
       <c r="AG40" t="n">
-        <v>980</v>
+        <v>23</v>
       </c>
       <c r="AH40" t="n">
-        <v>980</v>
+        <v>24</v>
       </c>
       <c r="AI40" t="n">
-        <v>980</v>
+        <v>280</v>
       </c>
       <c r="AJ40" t="n">
         <v>900</v>
       </c>
       <c r="AK40" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="AL40" t="n">
         <v>100</v>
@@ -5902,7 +5902,7 @@
         <v>110</v>
       </c>
       <c r="AO40" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="41">
@@ -5932,10 +5932,10 @@
         </is>
       </c>
       <c r="F41" t="n">
-        <v>2.62</v>
+        <v>2.64</v>
       </c>
       <c r="G41" t="n">
-        <v>2.68</v>
+        <v>2.76</v>
       </c>
       <c r="H41" t="n">
         <v>3.25</v>
@@ -5947,7 +5947,7 @@
         <v>3</v>
       </c>
       <c r="K41" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="L41" t="n">
         <v>1.62</v>
@@ -5959,7 +5959,7 @@
         <v>2.46</v>
       </c>
       <c r="O41" t="n">
-        <v>1.63</v>
+        <v>1.64</v>
       </c>
       <c r="P41" t="n">
         <v>1.46</v>
@@ -5983,7 +5983,7 @@
         <v>1.4</v>
       </c>
       <c r="W41" t="n">
-        <v>1.59</v>
+        <v>1.56</v>
       </c>
       <c r="X41" t="n">
         <v>7.6</v>
@@ -6010,7 +6010,7 @@
         <v>60</v>
       </c>
       <c r="AF41" t="n">
-        <v>14.5</v>
+        <v>15.5</v>
       </c>
       <c r="AG41" t="n">
         <v>14</v>
@@ -6025,7 +6025,7 @@
         <v>50</v>
       </c>
       <c r="AK41" t="n">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="AL41" t="n">
         <v>85</v>
@@ -6037,7 +6037,7 @@
         <v>60</v>
       </c>
       <c r="AO41" t="n">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="42">
@@ -6067,19 +6067,19 @@
         </is>
       </c>
       <c r="F42" t="n">
-        <v>2.58</v>
+        <v>2.6</v>
       </c>
       <c r="G42" t="n">
-        <v>2.7</v>
+        <v>2.74</v>
       </c>
       <c r="H42" t="n">
-        <v>3.45</v>
+        <v>3.35</v>
       </c>
       <c r="I42" t="n">
         <v>3.6</v>
       </c>
       <c r="J42" t="n">
-        <v>2.96</v>
+        <v>2.84</v>
       </c>
       <c r="K42" t="n">
         <v>3</v>
@@ -6091,13 +6091,13 @@
         <v>1.14</v>
       </c>
       <c r="N42" t="n">
-        <v>2.46</v>
+        <v>2.44</v>
       </c>
       <c r="O42" t="n">
         <v>1.63</v>
       </c>
       <c r="P42" t="n">
-        <v>1.47</v>
+        <v>1.46</v>
       </c>
       <c r="Q42" t="n">
         <v>2.9</v>
@@ -6118,10 +6118,10 @@
         <v>1.38</v>
       </c>
       <c r="W42" t="n">
-        <v>1.59</v>
+        <v>1.58</v>
       </c>
       <c r="X42" t="n">
-        <v>7.8</v>
+        <v>7.4</v>
       </c>
       <c r="Y42" t="n">
         <v>9.199999999999999</v>
@@ -6139,7 +6139,7 @@
         <v>6.8</v>
       </c>
       <c r="AD42" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AE42" t="n">
         <v>65</v>
@@ -6148,7 +6148,7 @@
         <v>15</v>
       </c>
       <c r="AG42" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AH42" t="n">
         <v>28</v>
@@ -6169,7 +6169,7 @@
         <v>230</v>
       </c>
       <c r="AN42" t="n">
-        <v>980</v>
+        <v>50</v>
       </c>
       <c r="AO42" t="n">
         <v>90</v>
@@ -6202,7 +6202,7 @@
         </is>
       </c>
       <c r="F43" t="n">
-        <v>1.75</v>
+        <v>1.74</v>
       </c>
       <c r="G43" t="n">
         <v>1.84</v>
@@ -6217,7 +6217,7 @@
         <v>3.25</v>
       </c>
       <c r="K43" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="L43" t="n">
         <v>1.58</v>
@@ -6226,16 +6226,16 @@
         <v>1.12</v>
       </c>
       <c r="N43" t="n">
-        <v>2.58</v>
+        <v>2.54</v>
       </c>
       <c r="O43" t="n">
-        <v>1.55</v>
+        <v>1.56</v>
       </c>
       <c r="P43" t="n">
         <v>1.53</v>
       </c>
       <c r="Q43" t="n">
-        <v>2.62</v>
+        <v>2.66</v>
       </c>
       <c r="R43" t="n">
         <v>1.18</v>
@@ -6256,10 +6256,10 @@
         <v>2.18</v>
       </c>
       <c r="X43" t="n">
-        <v>8.6</v>
+        <v>8.4</v>
       </c>
       <c r="Y43" t="n">
-        <v>15.5</v>
+        <v>980</v>
       </c>
       <c r="Z43" t="n">
         <v>55</v>
@@ -6271,7 +6271,7 @@
         <v>5.9</v>
       </c>
       <c r="AC43" t="n">
-        <v>8.199999999999999</v>
+        <v>8</v>
       </c>
       <c r="AD43" t="n">
         <v>980</v>
@@ -6298,7 +6298,7 @@
         <v>70</v>
       </c>
       <c r="AL43" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AM43" t="n">
         <v>340</v>
@@ -6340,10 +6340,10 @@
         <v>2.18</v>
       </c>
       <c r="G44" t="n">
-        <v>2.44</v>
+        <v>2.46</v>
       </c>
       <c r="H44" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="I44" t="n">
         <v>4.1</v>
@@ -6352,7 +6352,7 @@
         <v>2.92</v>
       </c>
       <c r="K44" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="L44" t="n">
         <v>1.33</v>
@@ -6367,7 +6367,7 @@
         <v>1.41</v>
       </c>
       <c r="P44" t="n">
-        <v>1.67</v>
+        <v>1.68</v>
       </c>
       <c r="Q44" t="n">
         <v>2.2</v>
@@ -6388,7 +6388,7 @@
         <v>1.32</v>
       </c>
       <c r="W44" t="n">
-        <v>1.63</v>
+        <v>1.69</v>
       </c>
       <c r="X44" t="n">
         <v>11.5</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-11-16.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-11-16.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO44"/>
+  <dimension ref="A1:AO37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -643,7 +643,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Japanese J League 3</t>
+          <t>Slovakian 2 Liga</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -653,123 +653,123 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>02:00:00</t>
+          <t>06:30:00</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Sagamihara</t>
+          <t>FC Petrzalka</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>FC Ryukyu</t>
+          <t>Slovan Bratislava II</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.95</v>
+        <v>1.54</v>
       </c>
       <c r="G2" t="n">
-        <v>2.04</v>
+        <v>1.65</v>
       </c>
       <c r="H2" t="n">
-        <v>4.2</v>
+        <v>5.3</v>
       </c>
       <c r="I2" t="n">
-        <v>4.7</v>
+        <v>6.6</v>
       </c>
       <c r="J2" t="n">
-        <v>3.5</v>
+        <v>4.4</v>
       </c>
       <c r="K2" t="n">
-        <v>3.85</v>
+        <v>5.4</v>
       </c>
       <c r="L2" t="n">
-        <v>1.46</v>
+        <v>1.28</v>
       </c>
       <c r="M2" t="n">
-        <v>1.08</v>
+        <v>1.03</v>
       </c>
       <c r="N2" t="n">
-        <v>3.5</v>
+        <v>5.6</v>
       </c>
       <c r="O2" t="n">
-        <v>1.36</v>
+        <v>1.18</v>
       </c>
       <c r="P2" t="n">
-        <v>1.85</v>
+        <v>2.56</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.06</v>
+        <v>1.52</v>
       </c>
       <c r="R2" t="n">
-        <v>1.33</v>
+        <v>1.63</v>
       </c>
       <c r="S2" t="n">
-        <v>3.75</v>
+        <v>2.34</v>
       </c>
       <c r="T2" t="n">
-        <v>1.85</v>
+        <v>1.67</v>
       </c>
       <c r="U2" t="n">
-        <v>2</v>
+        <v>2.26</v>
       </c>
       <c r="V2" t="n">
-        <v>1.28</v>
+        <v>1.18</v>
       </c>
       <c r="W2" t="n">
-        <v>1.96</v>
+        <v>2.5</v>
       </c>
       <c r="X2" t="n">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="Y2" t="n">
-        <v>18</v>
+        <v>70</v>
       </c>
       <c r="Z2" t="n">
-        <v>40</v>
+        <v>160</v>
       </c>
       <c r="AA2" t="n">
         <v>1000</v>
       </c>
       <c r="AB2" t="n">
-        <v>8.800000000000001</v>
+        <v>13</v>
       </c>
       <c r="AC2" t="n">
-        <v>8.4</v>
+        <v>12</v>
       </c>
       <c r="AD2" t="n">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="AE2" t="n">
-        <v>1000</v>
+        <v>230</v>
       </c>
       <c r="AF2" t="n">
-        <v>14</v>
+        <v>12.5</v>
       </c>
       <c r="AG2" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AH2" t="n">
-        <v>22</v>
+        <v>19.5</v>
       </c>
       <c r="AI2" t="n">
-        <v>1000</v>
+        <v>170</v>
       </c>
       <c r="AJ2" t="n">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="AK2" t="n">
-        <v>26</v>
+        <v>18.5</v>
       </c>
       <c r="AL2" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AM2" t="n">
         <v>1000</v>
       </c>
       <c r="AN2" t="n">
-        <v>28</v>
+        <v>6.4</v>
       </c>
       <c r="AO2" t="n">
         <v>1000</v>
@@ -778,7 +778,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Japanese J League 3</t>
+          <t>Slovakian 2 Liga</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -788,132 +788,132 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>02:00:00</t>
+          <t>07:00:00</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Kamatamare Sanuki</t>
+          <t>Slavia TU Kosice</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Kagoshima Utd</t>
+          <t>Samorin</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>4.1</v>
+        <v>2.38</v>
       </c>
       <c r="G3" t="n">
-        <v>4.6</v>
+        <v>3.05</v>
       </c>
       <c r="H3" t="n">
-        <v>1.91</v>
+        <v>2.6</v>
       </c>
       <c r="I3" t="n">
-        <v>1.98</v>
+        <v>3.05</v>
       </c>
       <c r="J3" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="K3" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="L3" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="M3" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N3" t="n">
         <v>3.75</v>
       </c>
-      <c r="K3" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="L3" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="M3" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N3" t="n">
-        <v>4.3</v>
-      </c>
       <c r="O3" t="n">
-        <v>1.27</v>
+        <v>1.21</v>
       </c>
       <c r="P3" t="n">
-        <v>2.16</v>
+        <v>2.3</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.81</v>
+        <v>1.52</v>
       </c>
       <c r="R3" t="n">
-        <v>1.43</v>
+        <v>1.52</v>
       </c>
       <c r="S3" t="n">
-        <v>3.1</v>
+        <v>2.28</v>
       </c>
       <c r="T3" t="n">
-        <v>1.77</v>
+        <v>1.54</v>
       </c>
       <c r="U3" t="n">
-        <v>2.2</v>
+        <v>2.44</v>
       </c>
       <c r="V3" t="n">
-        <v>2.02</v>
+        <v>1.48</v>
       </c>
       <c r="W3" t="n">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="X3" t="n">
-        <v>18.5</v>
+        <v>1000</v>
       </c>
       <c r="Y3" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="Z3" t="n">
-        <v>14.5</v>
+        <v>1000</v>
       </c>
       <c r="AA3" t="n">
-        <v>26</v>
+        <v>170</v>
       </c>
       <c r="AB3" t="n">
-        <v>18.5</v>
+        <v>1000</v>
       </c>
       <c r="AC3" t="n">
-        <v>9</v>
+        <v>42</v>
       </c>
       <c r="AD3" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="AE3" t="n">
-        <v>24</v>
+        <v>110</v>
       </c>
       <c r="AF3" t="n">
-        <v>40</v>
+        <v>1000</v>
       </c>
       <c r="AG3" t="n">
-        <v>20</v>
+        <v>1000</v>
       </c>
       <c r="AH3" t="n">
-        <v>18.5</v>
+        <v>1000</v>
       </c>
       <c r="AI3" t="n">
-        <v>42</v>
+        <v>130</v>
       </c>
       <c r="AJ3" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
       <c r="AK3" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AL3" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
       <c r="AM3" t="n">
         <v>1000</v>
       </c>
       <c r="AN3" t="n">
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="AO3" t="n">
-        <v>12</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Japanese J League 3</t>
+          <t>Portuguese Segunda Liga</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -923,132 +923,132 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>02:00:00</t>
+          <t>08:00:00</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Azul Claro Numazu</t>
+          <t>Felgueiras</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Thespakusatsu Gunma</t>
+          <t>Farense</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>2.8</v>
+        <v>2.72</v>
       </c>
       <c r="G4" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="H4" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="I4" t="n">
         <v>3</v>
       </c>
-      <c r="H4" t="n">
-        <v>2.48</v>
-      </c>
-      <c r="I4" t="n">
-        <v>2.66</v>
-      </c>
       <c r="J4" t="n">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="K4" t="n">
-        <v>3.85</v>
+        <v>3.4</v>
       </c>
       <c r="L4" t="n">
-        <v>1.39</v>
+        <v>1.49</v>
       </c>
       <c r="M4" t="n">
-        <v>1.06</v>
+        <v>1.09</v>
       </c>
       <c r="N4" t="n">
-        <v>4.4</v>
+        <v>3.25</v>
       </c>
       <c r="O4" t="n">
-        <v>1.25</v>
+        <v>1.41</v>
       </c>
       <c r="P4" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="Q4" t="n">
         <v>2.24</v>
       </c>
-      <c r="Q4" t="n">
-        <v>1.76</v>
-      </c>
       <c r="R4" t="n">
-        <v>1.46</v>
+        <v>1.27</v>
       </c>
       <c r="S4" t="n">
-        <v>2.94</v>
+        <v>4.2</v>
       </c>
       <c r="T4" t="n">
-        <v>1.66</v>
+        <v>1.84</v>
       </c>
       <c r="U4" t="n">
-        <v>2.3</v>
+        <v>1.99</v>
       </c>
       <c r="V4" t="n">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="W4" t="n">
-        <v>1.5</v>
+        <v>1.54</v>
       </c>
       <c r="X4" t="n">
-        <v>18.5</v>
+        <v>11.5</v>
       </c>
       <c r="Y4" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>20</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>85</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>10</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AD4" t="n">
         <v>14</v>
       </c>
-      <c r="Z4" t="n">
-        <v>21</v>
-      </c>
-      <c r="AA4" t="n">
-        <v>46</v>
-      </c>
-      <c r="AB4" t="n">
-        <v>15</v>
-      </c>
-      <c r="AC4" t="n">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="AD4" t="n">
-        <v>14.5</v>
-      </c>
       <c r="AE4" t="n">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="AF4" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="AG4" t="n">
-        <v>15.5</v>
+        <v>13.5</v>
       </c>
       <c r="AH4" t="n">
-        <v>16.5</v>
+        <v>19.5</v>
       </c>
       <c r="AI4" t="n">
-        <v>46</v>
+        <v>160</v>
       </c>
       <c r="AJ4" t="n">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="AK4" t="n">
-        <v>38</v>
+        <v>95</v>
       </c>
       <c r="AL4" t="n">
-        <v>60</v>
+        <v>130</v>
       </c>
       <c r="AM4" t="n">
-        <v>1000</v>
+        <v>580</v>
       </c>
       <c r="AN4" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AO4" t="n">
-        <v>38</v>
+        <v>42</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Japanese J League 3</t>
+          <t>Italian Serie C</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1058,123 +1058,123 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>02:00:00</t>
+          <t>08:30:00</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Matsumoto</t>
+          <t>Benevento</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>FC Osaka</t>
+          <t>Monopoli</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>3.7</v>
+        <v>1.43</v>
       </c>
       <c r="G5" t="n">
-        <v>4.1</v>
+        <v>1.47</v>
       </c>
       <c r="H5" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="I5" t="n">
+        <v>11</v>
+      </c>
+      <c r="J5" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="K5" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="L5" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="M5" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N5" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="O5" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="P5" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="R5" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="S5" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="T5" t="n">
         <v>2.22</v>
       </c>
-      <c r="I5" t="n">
-        <v>2.32</v>
-      </c>
-      <c r="J5" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="K5" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="L5" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="M5" t="n">
+      <c r="U5" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="V5" t="n">
         <v>1.1</v>
       </c>
-      <c r="N5" t="n">
+      <c r="W5" t="n">
         <v>3.1</v>
       </c>
-      <c r="O5" t="n">
-        <v>1.43</v>
-      </c>
-      <c r="P5" t="n">
-        <v>1.69</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="R5" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="S5" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="T5" t="n">
-        <v>1.96</v>
-      </c>
-      <c r="U5" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="V5" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="W5" t="n">
-        <v>1.33</v>
-      </c>
       <c r="X5" t="n">
-        <v>10.5</v>
+        <v>27</v>
       </c>
       <c r="Y5" t="n">
-        <v>8.4</v>
+        <v>65</v>
       </c>
       <c r="Z5" t="n">
+        <v>100</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB5" t="n">
         <v>12.5</v>
       </c>
-      <c r="AA5" t="n">
-        <v>32</v>
-      </c>
-      <c r="AB5" t="n">
-        <v>14</v>
-      </c>
       <c r="AC5" t="n">
-        <v>7.2</v>
+        <v>11.5</v>
       </c>
       <c r="AD5" t="n">
-        <v>11.5</v>
+        <v>110</v>
       </c>
       <c r="AE5" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>17</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>40</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>85</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ5" t="n">
         <v>28</v>
       </c>
-      <c r="AF5" t="n">
-        <v>30</v>
-      </c>
-      <c r="AG5" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AH5" t="n">
-        <v>21</v>
-      </c>
-      <c r="AI5" t="n">
+      <c r="AK5" t="n">
         <v>70</v>
       </c>
-      <c r="AJ5" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AK5" t="n">
-        <v>95</v>
-      </c>
       <c r="AL5" t="n">
-        <v>85</v>
+        <v>130</v>
       </c>
       <c r="AM5" t="n">
-        <v>160</v>
+        <v>1000</v>
       </c>
       <c r="AN5" t="n">
-        <v>70</v>
+        <v>29</v>
       </c>
       <c r="AO5" t="n">
         <v>1000</v>
@@ -1183,7 +1183,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Japanese J League 3</t>
+          <t>Italian Serie C</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1193,114 +1193,114 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>02:00:00</t>
+          <t>08:30:00</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Kanazawa</t>
+          <t>AC Ospitaletto</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Tochigi SC</t>
+          <t>Union Brescia</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>2.4</v>
+        <v>6</v>
       </c>
       <c r="G6" t="n">
-        <v>2.56</v>
+        <v>7.2</v>
       </c>
       <c r="H6" t="n">
-        <v>3.3</v>
+        <v>1.66</v>
       </c>
       <c r="I6" t="n">
-        <v>3.65</v>
+        <v>1.79</v>
       </c>
       <c r="J6" t="n">
-        <v>3.05</v>
+        <v>3.45</v>
       </c>
       <c r="K6" t="n">
-        <v>3.35</v>
+        <v>4.1</v>
       </c>
       <c r="L6" t="n">
-        <v>1.51</v>
+        <v>1.5</v>
       </c>
       <c r="M6" t="n">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="N6" t="n">
-        <v>3.1</v>
+        <v>2.92</v>
       </c>
       <c r="O6" t="n">
-        <v>1.42</v>
+        <v>1.43</v>
       </c>
       <c r="P6" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="R6" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="S6" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="T6" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="U6" t="n">
         <v>1.71</v>
       </c>
-      <c r="Q6" t="n">
-        <v>2.26</v>
-      </c>
-      <c r="R6" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="S6" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="T6" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="U6" t="n">
-        <v>1.93</v>
-      </c>
       <c r="V6" t="n">
-        <v>1.38</v>
+        <v>2.24</v>
       </c>
       <c r="W6" t="n">
-        <v>1.64</v>
+        <v>1.17</v>
       </c>
       <c r="X6" t="n">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="Y6" t="n">
-        <v>12.5</v>
+        <v>15</v>
       </c>
       <c r="Z6" t="n">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="AA6" t="n">
         <v>1000</v>
       </c>
       <c r="AB6" t="n">
-        <v>9.4</v>
+        <v>1000</v>
       </c>
       <c r="AC6" t="n">
-        <v>7.8</v>
+        <v>42</v>
       </c>
       <c r="AD6" t="n">
-        <v>17</v>
+        <v>1000</v>
       </c>
       <c r="AE6" t="n">
         <v>1000</v>
       </c>
       <c r="AF6" t="n">
-        <v>17</v>
+        <v>170</v>
       </c>
       <c r="AG6" t="n">
-        <v>14.5</v>
+        <v>75</v>
       </c>
       <c r="AH6" t="n">
-        <v>25</v>
+        <v>75</v>
       </c>
       <c r="AI6" t="n">
-        <v>1000</v>
+        <v>160</v>
       </c>
       <c r="AJ6" t="n">
         <v>1000</v>
       </c>
       <c r="AK6" t="n">
-        <v>38</v>
+        <v>1000</v>
       </c>
       <c r="AL6" t="n">
         <v>1000</v>
@@ -1312,13 +1312,13 @@
         <v>1000</v>
       </c>
       <c r="AO6" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Japanese J League 3</t>
+          <t>Danish 2nd Division</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1328,132 +1328,132 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>02:00:00</t>
+          <t>09:00:00</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Fukushima Utd</t>
+          <t>Naestved</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Nara Club</t>
+          <t>VSK Aarhus FC</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>2.54</v>
+        <v>1.53</v>
       </c>
       <c r="G7" t="n">
-        <v>2.68</v>
+        <v>1.67</v>
       </c>
       <c r="H7" t="n">
-        <v>2.68</v>
+        <v>5.3</v>
       </c>
       <c r="I7" t="n">
-        <v>2.9</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="J7" t="n">
-        <v>3.75</v>
+        <v>4.2</v>
       </c>
       <c r="K7" t="n">
-        <v>4</v>
+        <v>5.8</v>
       </c>
       <c r="L7" t="n">
-        <v>1.35</v>
+        <v>1.34</v>
       </c>
       <c r="M7" t="n">
         <v>1.05</v>
       </c>
       <c r="N7" t="n">
-        <v>5</v>
+        <v>4.4</v>
       </c>
       <c r="O7" t="n">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
       <c r="P7" t="n">
-        <v>2.38</v>
+        <v>2.18</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="R7" t="n">
-        <v>1.54</v>
+        <v>1.45</v>
       </c>
       <c r="S7" t="n">
-        <v>2.62</v>
+        <v>2.72</v>
       </c>
       <c r="T7" t="n">
-        <v>1.58</v>
+        <v>1.74</v>
       </c>
       <c r="U7" t="n">
-        <v>2.46</v>
+        <v>2.04</v>
       </c>
       <c r="V7" t="n">
-        <v>1.53</v>
+        <v>1.16</v>
       </c>
       <c r="W7" t="n">
-        <v>1.6</v>
+        <v>2.48</v>
       </c>
       <c r="X7" t="n">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="Y7" t="n">
-        <v>17.5</v>
+        <v>80</v>
       </c>
       <c r="Z7" t="n">
-        <v>26</v>
+        <v>1000</v>
       </c>
       <c r="AA7" t="n">
         <v>1000</v>
       </c>
       <c r="AB7" t="n">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="AC7" t="n">
-        <v>9.6</v>
+        <v>28</v>
       </c>
       <c r="AD7" t="n">
-        <v>14.5</v>
+        <v>85</v>
       </c>
       <c r="AE7" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="AF7" t="n">
-        <v>23</v>
+        <v>1000</v>
       </c>
       <c r="AG7" t="n">
-        <v>14</v>
+        <v>8.4</v>
       </c>
       <c r="AH7" t="n">
-        <v>18.5</v>
+        <v>1000</v>
       </c>
       <c r="AI7" t="n">
-        <v>42</v>
+        <v>1000</v>
       </c>
       <c r="AJ7" t="n">
-        <v>44</v>
+        <v>1000</v>
       </c>
       <c r="AK7" t="n">
-        <v>30</v>
+        <v>1000</v>
       </c>
       <c r="AL7" t="n">
-        <v>42</v>
+        <v>110</v>
       </c>
       <c r="AM7" t="n">
         <v>1000</v>
       </c>
       <c r="AN7" t="n">
-        <v>1000</v>
+        <v>29</v>
       </c>
       <c r="AO7" t="n">
-        <v>17.5</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Japanese J League 3</t>
+          <t>Spanish Segunda Division</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1463,132 +1463,132 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>02:00:00</t>
+          <t>10:00:00</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Tottori</t>
+          <t>AD Ceuta FC</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Kitakyushu</t>
+          <t>Leganes</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>3.65</v>
+        <v>2.46</v>
       </c>
       <c r="G8" t="n">
-        <v>3.9</v>
+        <v>2.56</v>
       </c>
       <c r="H8" t="n">
-        <v>2.14</v>
+        <v>3.55</v>
       </c>
       <c r="I8" t="n">
-        <v>2.24</v>
+        <v>3.7</v>
       </c>
       <c r="J8" t="n">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="K8" t="n">
-        <v>3.65</v>
+        <v>3.1</v>
       </c>
       <c r="L8" t="n">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>1.08</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>3.4</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>1.37</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>1.8</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>2.12</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>1.3</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>1.91</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>2.02</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>1.8</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>1.35</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="Z8" t="n">
-        <v>13.5</v>
+        <v>0</v>
       </c>
       <c r="AA8" t="n">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="AB8" t="n">
-        <v>13.5</v>
+        <v>0</v>
       </c>
       <c r="AC8" t="n">
-        <v>8.199999999999999</v>
+        <v>0</v>
       </c>
       <c r="AD8" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AE8" t="n">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="AF8" t="n">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="AG8" t="n">
-        <v>16.5</v>
+        <v>0</v>
       </c>
       <c r="AH8" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="AI8" t="n">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="AJ8" t="n">
-        <v>130</v>
+        <v>0</v>
       </c>
       <c r="AK8" t="n">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="AL8" t="n">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="AM8" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AN8" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AO8" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Slovakian 2 Liga</t>
+          <t>Italian Serie C</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -1598,123 +1598,123 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>06:30:00</t>
+          <t>10:30:00</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>FC Petrzalka</t>
+          <t>Potenza</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Slovan Bratislava II</t>
+          <t>Trapani</t>
         </is>
       </c>
       <c r="F9" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="G9" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="H9" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="I9" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="J9" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="K9" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="L9" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="M9" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="N9" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="O9" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="P9" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="R9" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="S9" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="T9" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="U9" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="V9" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="W9" t="n">
         <v>1.54</v>
       </c>
-      <c r="G9" t="n">
-        <v>1.64</v>
-      </c>
-      <c r="H9" t="n">
-        <v>5.6</v>
-      </c>
-      <c r="I9" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="J9" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="K9" t="n">
-        <v>5.2</v>
-      </c>
-      <c r="L9" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="M9" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N9" t="n">
-        <v>5</v>
-      </c>
-      <c r="O9" t="n">
-        <v>1.19</v>
-      </c>
-      <c r="P9" t="n">
-        <v>2.36</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="R9" t="n">
-        <v>1.54</v>
-      </c>
-      <c r="S9" t="n">
-        <v>2.44</v>
-      </c>
-      <c r="T9" t="n">
-        <v>1.69</v>
-      </c>
-      <c r="U9" t="n">
-        <v>2.14</v>
-      </c>
-      <c r="V9" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="W9" t="n">
-        <v>2.56</v>
-      </c>
       <c r="X9" t="n">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="Y9" t="n">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="Z9" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AA9" t="n">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="AB9" t="n">
-        <v>12</v>
+        <v>1000</v>
       </c>
       <c r="AC9" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AD9" t="n">
-        <v>25</v>
+        <v>1000</v>
       </c>
       <c r="AE9" t="n">
-        <v>90</v>
+        <v>110</v>
       </c>
       <c r="AF9" t="n">
-        <v>12</v>
+        <v>1000</v>
       </c>
       <c r="AG9" t="n">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="AH9" t="n">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="AI9" t="n">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="AJ9" t="n">
-        <v>19</v>
+        <v>120</v>
       </c>
       <c r="AK9" t="n">
-        <v>19</v>
+        <v>85</v>
       </c>
       <c r="AL9" t="n">
-        <v>36</v>
+        <v>150</v>
       </c>
       <c r="AM9" t="n">
-        <v>330</v>
+        <v>1000</v>
       </c>
       <c r="AN9" t="n">
-        <v>8</v>
+        <v>1000</v>
       </c>
       <c r="AO9" t="n">
         <v>1000</v>
@@ -1723,7 +1723,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Slovakian 2 Liga</t>
+          <t>Italian Serie C</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -1733,132 +1733,132 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>07:00:00</t>
+          <t>10:30:00</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Slavia TU Kosice</t>
+          <t>Albinoleffe</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Samorin</t>
+          <t>SS Virtus Verona 1921</t>
         </is>
       </c>
       <c r="F10" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="G10" t="n">
         <v>2.3</v>
       </c>
-      <c r="G10" t="n">
-        <v>2.44</v>
-      </c>
       <c r="H10" t="n">
-        <v>2.88</v>
+        <v>3.7</v>
       </c>
       <c r="I10" t="n">
-        <v>3.5</v>
+        <v>4.4</v>
       </c>
       <c r="J10" t="n">
-        <v>3.55</v>
+        <v>3.15</v>
       </c>
       <c r="K10" t="n">
-        <v>4.2</v>
+        <v>3.8</v>
       </c>
       <c r="L10" t="n">
-        <v>1.33</v>
+        <v>1.44</v>
       </c>
       <c r="M10" t="n">
-        <v>1.05</v>
+        <v>1.08</v>
       </c>
       <c r="N10" t="n">
-        <v>4.1</v>
+        <v>3.35</v>
       </c>
       <c r="O10" t="n">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="P10" t="n">
-        <v>2.16</v>
+        <v>1.8</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.73</v>
+        <v>2.06</v>
       </c>
       <c r="R10" t="n">
-        <v>1.43</v>
+        <v>1.3</v>
       </c>
       <c r="S10" t="n">
-        <v>2.64</v>
+        <v>3.7</v>
       </c>
       <c r="T10" t="n">
-        <v>1.63</v>
+        <v>1.81</v>
       </c>
       <c r="U10" t="n">
-        <v>2.26</v>
+        <v>2.02</v>
       </c>
       <c r="V10" t="n">
-        <v>1.4</v>
+        <v>1.3</v>
       </c>
       <c r="W10" t="n">
-        <v>1.69</v>
+        <v>1.78</v>
       </c>
       <c r="X10" t="n">
-        <v>18.5</v>
+        <v>13.5</v>
       </c>
       <c r="Y10" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="Z10" t="n">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="AA10" t="n">
-        <v>170</v>
+        <v>100</v>
       </c>
       <c r="AB10" t="n">
-        <v>12.5</v>
+        <v>10.5</v>
       </c>
       <c r="AC10" t="n">
         <v>9.199999999999999</v>
       </c>
       <c r="AD10" t="n">
-        <v>15</v>
+        <v>19.5</v>
       </c>
       <c r="AE10" t="n">
-        <v>95</v>
+        <v>160</v>
       </c>
       <c r="AF10" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AG10" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AH10" t="n">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="AI10" t="n">
-        <v>55</v>
+        <v>160</v>
       </c>
       <c r="AJ10" t="n">
-        <v>80</v>
+        <v>34</v>
       </c>
       <c r="AK10" t="n">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="AL10" t="n">
-        <v>85</v>
+        <v>110</v>
       </c>
       <c r="AM10" t="n">
-        <v>580</v>
+        <v>1000</v>
       </c>
       <c r="AN10" t="n">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="AO10" t="n">
-        <v>38</v>
+        <v>160</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Portuguese Segunda Liga</t>
+          <t>Italian Serie C</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -1868,126 +1868,126 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>08:00:00</t>
+          <t>10:30:00</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Felgueiras</t>
+          <t>Livorno</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Farense</t>
+          <t>Ravenna</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>2.7</v>
+        <v>3.3</v>
       </c>
       <c r="G11" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="H11" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="I11" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="J11" t="n">
         <v>2.92</v>
       </c>
-      <c r="H11" t="n">
-        <v>2.82</v>
-      </c>
-      <c r="I11" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="J11" t="n">
-        <v>3.15</v>
-      </c>
       <c r="K11" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="L11" t="n">
-        <v>1.48</v>
+        <v>1.53</v>
       </c>
       <c r="M11" t="n">
-        <v>1.09</v>
+        <v>1.11</v>
       </c>
       <c r="N11" t="n">
-        <v>3.1</v>
+        <v>2.74</v>
       </c>
       <c r="O11" t="n">
-        <v>1.41</v>
+        <v>1.46</v>
       </c>
       <c r="P11" t="n">
-        <v>1.76</v>
+        <v>1.59</v>
       </c>
       <c r="Q11" t="n">
-        <v>2.22</v>
+        <v>2.38</v>
       </c>
       <c r="R11" t="n">
-        <v>1.27</v>
+        <v>1.22</v>
       </c>
       <c r="S11" t="n">
-        <v>4.2</v>
+        <v>4.7</v>
       </c>
       <c r="T11" t="n">
-        <v>1.86</v>
+        <v>1.97</v>
       </c>
       <c r="U11" t="n">
-        <v>2</v>
+        <v>1.84</v>
       </c>
       <c r="V11" t="n">
-        <v>1.48</v>
+        <v>1.62</v>
       </c>
       <c r="W11" t="n">
-        <v>1.52</v>
+        <v>1.37</v>
       </c>
       <c r="X11" t="n">
+        <v>17</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>38</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>95</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>25</v>
+      </c>
+      <c r="AC11" t="n">
         <v>13.5</v>
       </c>
-      <c r="Y11" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="Z11" t="n">
-        <v>23</v>
-      </c>
-      <c r="AA11" t="n">
-        <v>130</v>
-      </c>
-      <c r="AB11" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AC11" t="n">
-        <v>7.6</v>
-      </c>
       <c r="AD11" t="n">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="AE11" t="n">
-        <v>40</v>
+        <v>85</v>
       </c>
       <c r="AF11" t="n">
-        <v>20</v>
+        <v>75</v>
       </c>
       <c r="AG11" t="n">
-        <v>15.5</v>
+        <v>34</v>
       </c>
       <c r="AH11" t="n">
-        <v>19.5</v>
+        <v>60</v>
       </c>
       <c r="AI11" t="n">
-        <v>65</v>
+        <v>160</v>
       </c>
       <c r="AJ11" t="n">
-        <v>120</v>
+        <v>900</v>
       </c>
       <c r="AK11" t="n">
-        <v>95</v>
+        <v>160</v>
       </c>
       <c r="AL11" t="n">
-        <v>55</v>
+        <v>210</v>
       </c>
       <c r="AM11" t="n">
-        <v>580</v>
+        <v>1000</v>
       </c>
       <c r="AN11" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AO11" t="n">
-        <v>42</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="12">
@@ -2003,81 +2003,81 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>08:30:00</t>
+          <t>10:30:00</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>AC Ospitaletto</t>
+          <t>FC Giugliano</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Union Brescia</t>
+          <t>Audace Cerignola</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>5.6</v>
+        <v>2.92</v>
       </c>
       <c r="G12" t="n">
-        <v>8.199999999999999</v>
+        <v>3.3</v>
       </c>
       <c r="H12" t="n">
-        <v>1.65</v>
+        <v>2.4</v>
       </c>
       <c r="I12" t="n">
-        <v>1.8</v>
+        <v>2.72</v>
       </c>
       <c r="J12" t="n">
-        <v>3.25</v>
+        <v>3.35</v>
       </c>
       <c r="K12" t="n">
-        <v>4.5</v>
+        <v>3.8</v>
       </c>
       <c r="L12" t="n">
-        <v>1.4</v>
+        <v>1.42</v>
       </c>
       <c r="M12" t="n">
-        <v>1.09</v>
+        <v>1.07</v>
       </c>
       <c r="N12" t="n">
-        <v>2.9</v>
+        <v>3.5</v>
       </c>
       <c r="O12" t="n">
-        <v>1.42</v>
+        <v>1.32</v>
       </c>
       <c r="P12" t="n">
-        <v>1.73</v>
+        <v>1.84</v>
       </c>
       <c r="Q12" t="n">
-        <v>2.12</v>
+        <v>1.89</v>
       </c>
       <c r="R12" t="n">
-        <v>1.24</v>
+        <v>1.34</v>
       </c>
       <c r="S12" t="n">
-        <v>4.3</v>
+        <v>3.45</v>
       </c>
       <c r="T12" t="n">
-        <v>2.02</v>
+        <v>1.74</v>
       </c>
       <c r="U12" t="n">
-        <v>1.6</v>
+        <v>2.08</v>
       </c>
       <c r="V12" t="n">
-        <v>2.24</v>
+        <v>1.49</v>
       </c>
       <c r="W12" t="n">
-        <v>1.15</v>
+        <v>1.01</v>
       </c>
       <c r="X12" t="n">
-        <v>25</v>
+        <v>1000</v>
       </c>
       <c r="Y12" t="n">
-        <v>29</v>
+        <v>1000</v>
       </c>
       <c r="Z12" t="n">
-        <v>40</v>
+        <v>1000</v>
       </c>
       <c r="AA12" t="n">
         <v>1000</v>
@@ -2095,25 +2095,25 @@
         <v>1000</v>
       </c>
       <c r="AF12" t="n">
-        <v>170</v>
+        <v>1000</v>
       </c>
       <c r="AG12" t="n">
-        <v>75</v>
+        <v>1000</v>
       </c>
       <c r="AH12" t="n">
-        <v>75</v>
+        <v>1000</v>
       </c>
       <c r="AI12" t="n">
-        <v>160</v>
+        <v>130</v>
       </c>
       <c r="AJ12" t="n">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="AK12" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
       <c r="AL12" t="n">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="AM12" t="n">
         <v>1000</v>
@@ -2122,7 +2122,7 @@
         <v>1000</v>
       </c>
       <c r="AO12" t="n">
-        <v>18.5</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="13">
@@ -2138,123 +2138,123 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>08:30:00</t>
+          <t>10:30:00</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Benevento</t>
+          <t>ASD Alcione</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Monopoli</t>
+          <t>Novara</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>1.47</v>
+        <v>2.62</v>
       </c>
       <c r="G13" t="n">
-        <v>1.55</v>
+        <v>2.96</v>
       </c>
       <c r="H13" t="n">
-        <v>8.4</v>
+        <v>3.15</v>
       </c>
       <c r="I13" t="n">
-        <v>10.5</v>
+        <v>3.55</v>
       </c>
       <c r="J13" t="n">
-        <v>4.1</v>
+        <v>2.76</v>
       </c>
       <c r="K13" t="n">
-        <v>4.6</v>
+        <v>3.2</v>
       </c>
       <c r="L13" t="n">
-        <v>1.36</v>
+        <v>1.65</v>
       </c>
       <c r="M13" t="n">
-        <v>1.08</v>
+        <v>1.14</v>
       </c>
       <c r="N13" t="n">
-        <v>3.3</v>
+        <v>2.42</v>
       </c>
       <c r="O13" t="n">
-        <v>1.35</v>
+        <v>1.59</v>
       </c>
       <c r="P13" t="n">
-        <v>1.78</v>
+        <v>1.46</v>
       </c>
       <c r="Q13" t="n">
-        <v>2.02</v>
+        <v>2.74</v>
       </c>
       <c r="R13" t="n">
-        <v>1.3</v>
+        <v>1.17</v>
       </c>
       <c r="S13" t="n">
-        <v>3.7</v>
+        <v>6</v>
       </c>
       <c r="T13" t="n">
-        <v>2.2</v>
+        <v>2.16</v>
       </c>
       <c r="U13" t="n">
-        <v>1.67</v>
+        <v>1.72</v>
       </c>
       <c r="V13" t="n">
-        <v>1.11</v>
+        <v>1.39</v>
       </c>
       <c r="W13" t="n">
-        <v>2.76</v>
+        <v>1.51</v>
       </c>
       <c r="X13" t="n">
-        <v>90</v>
+        <v>9</v>
       </c>
       <c r="Y13" t="n">
-        <v>65</v>
+        <v>10</v>
       </c>
       <c r="Z13" t="n">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="AA13" t="n">
-        <v>1000</v>
+        <v>190</v>
       </c>
       <c r="AB13" t="n">
-        <v>7.8</v>
+        <v>9</v>
       </c>
       <c r="AC13" t="n">
-        <v>23</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD13" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>95</v>
+      </c>
+      <c r="AF13" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AG13" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AH13" t="n">
+        <v>30</v>
+      </c>
+      <c r="AI13" t="n">
         <v>110</v>
       </c>
-      <c r="AE13" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF13" t="n">
-        <v>8.4</v>
-      </c>
-      <c r="AG13" t="n">
-        <v>40</v>
-      </c>
-      <c r="AH13" t="n">
-        <v>85</v>
-      </c>
-      <c r="AI13" t="n">
-        <v>1000</v>
-      </c>
       <c r="AJ13" t="n">
-        <v>28</v>
+        <v>150</v>
       </c>
       <c r="AK13" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="AL13" t="n">
-        <v>130</v>
+        <v>210</v>
       </c>
       <c r="AM13" t="n">
         <v>1000</v>
       </c>
       <c r="AN13" t="n">
-        <v>29</v>
+        <v>75</v>
       </c>
       <c r="AO13" t="n">
         <v>1000</v>
@@ -2263,7 +2263,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Danish 2nd Division</t>
+          <t>Spanish Segunda Division</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -2273,126 +2273,126 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>09:00:00</t>
+          <t>12:15:00</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Naestved</t>
+          <t>Almeria</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>VSK Aarhus FC</t>
+          <t>Cadiz</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>1.52</v>
+        <v>1.64</v>
       </c>
       <c r="G14" t="n">
         <v>1.66</v>
       </c>
       <c r="H14" t="n">
-        <v>5.3</v>
+        <v>6.2</v>
       </c>
       <c r="I14" t="n">
-        <v>8.4</v>
+        <v>6.6</v>
       </c>
       <c r="J14" t="n">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="K14" t="n">
-        <v>5.7</v>
+        <v>4.3</v>
       </c>
       <c r="L14" t="n">
-        <v>1.32</v>
+        <v>1.4</v>
       </c>
       <c r="M14" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N14" t="n">
-        <v>3.9</v>
+        <v>4.1</v>
       </c>
       <c r="O14" t="n">
-        <v>1.23</v>
+        <v>1.3</v>
       </c>
       <c r="P14" t="n">
-        <v>2.16</v>
+        <v>2.04</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.68</v>
+        <v>1.92</v>
       </c>
       <c r="R14" t="n">
-        <v>1.45</v>
+        <v>1.39</v>
       </c>
       <c r="S14" t="n">
-        <v>2.52</v>
+        <v>3.4</v>
       </c>
       <c r="T14" t="n">
-        <v>1.78</v>
+        <v>1.94</v>
       </c>
       <c r="U14" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="V14" t="n">
-        <v>1.15</v>
+        <v>1.17</v>
       </c>
       <c r="W14" t="n">
         <v>2.5</v>
       </c>
       <c r="X14" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="Y14" t="n">
-        <v>80</v>
+        <v>21</v>
       </c>
       <c r="Z14" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AA14" t="n">
-        <v>1000</v>
+        <v>190</v>
       </c>
       <c r="AB14" t="n">
-        <v>21</v>
+        <v>8.4</v>
       </c>
       <c r="AC14" t="n">
-        <v>20</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD14" t="n">
-        <v>85</v>
+        <v>36</v>
       </c>
       <c r="AE14" t="n">
-        <v>1000</v>
+        <v>95</v>
       </c>
       <c r="AF14" t="n">
-        <v>23</v>
+        <v>9.6</v>
       </c>
       <c r="AG14" t="n">
-        <v>8.4</v>
+        <v>9.4</v>
       </c>
       <c r="AH14" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AI14" t="n">
-        <v>1000</v>
+        <v>230</v>
       </c>
       <c r="AJ14" t="n">
-        <v>900</v>
+        <v>15.5</v>
       </c>
       <c r="AK14" t="n">
-        <v>1000</v>
+        <v>17</v>
       </c>
       <c r="AL14" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AM14" t="n">
-        <v>1000</v>
+        <v>580</v>
       </c>
       <c r="AN14" t="n">
-        <v>29</v>
+        <v>9.6</v>
       </c>
       <c r="AO14" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
     </row>
     <row r="15">
@@ -2408,126 +2408,126 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>10:00:00</t>
+          <t>12:15:00</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>AD Ceuta FC</t>
+          <t>Sporting Gijon</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Leganes</t>
+          <t>Eibar</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>2.6</v>
+        <v>2.44</v>
       </c>
       <c r="G15" t="n">
-        <v>2.68</v>
+        <v>2.5</v>
       </c>
       <c r="H15" t="n">
-        <v>3.3</v>
+        <v>3.55</v>
       </c>
       <c r="I15" t="n">
-        <v>3.45</v>
+        <v>3.7</v>
       </c>
       <c r="J15" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="K15" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="L15" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="M15" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="N15" t="n">
         <v>3</v>
       </c>
-      <c r="K15" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="L15" t="n">
-        <v>0</v>
-      </c>
-      <c r="M15" t="n">
-        <v>0</v>
-      </c>
-      <c r="N15" t="n">
-        <v>0</v>
-      </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>1.48</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>1.65</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>2.46</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>1.23</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>4.9</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>2.02</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>1.92</v>
       </c>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>1.37</v>
       </c>
       <c r="W15" t="n">
-        <v>0</v>
+        <v>1.66</v>
       </c>
       <c r="X15" t="n">
-        <v>0</v>
+        <v>9.4</v>
       </c>
       <c r="Y15" t="n">
-        <v>0</v>
+        <v>11.5</v>
       </c>
       <c r="Z15" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="AA15" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="AB15" t="n">
-        <v>0</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AC15" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AD15" t="n">
-        <v>0</v>
+        <v>15.5</v>
       </c>
       <c r="AE15" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="AF15" t="n">
-        <v>0</v>
+        <v>13.5</v>
       </c>
       <c r="AG15" t="n">
-        <v>0</v>
+        <v>11.5</v>
       </c>
       <c r="AH15" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="AI15" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="AJ15" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="AK15" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="AL15" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="AM15" t="n">
-        <v>0</v>
+        <v>580</v>
       </c>
       <c r="AN15" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="AO15" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
     </row>
     <row r="16">
@@ -2543,96 +2543,96 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>10:30:00</t>
+          <t>13:30:00</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Potenza</t>
+          <t>Casertana</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Trapani</t>
+          <t>Atalanta B</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>2.54</v>
+        <v>1.04</v>
       </c>
       <c r="G16" t="n">
-        <v>2.84</v>
+        <v>1000</v>
       </c>
       <c r="H16" t="n">
-        <v>2.92</v>
+        <v>1.04</v>
       </c>
       <c r="I16" t="n">
-        <v>3.55</v>
+        <v>1000</v>
       </c>
       <c r="J16" t="n">
-        <v>2.84</v>
+        <v>1.09</v>
       </c>
       <c r="K16" t="n">
-        <v>3.6</v>
+        <v>1000</v>
       </c>
       <c r="L16" t="n">
-        <v>1.38</v>
+        <v>1.01</v>
       </c>
       <c r="M16" t="n">
-        <v>1.09</v>
+        <v>1.01</v>
       </c>
       <c r="N16" t="n">
-        <v>3.15</v>
+        <v>1.1</v>
       </c>
       <c r="O16" t="n">
-        <v>1.38</v>
+        <v>1.01</v>
       </c>
       <c r="P16" t="n">
-        <v>1.72</v>
+        <v>1.34</v>
       </c>
       <c r="Q16" t="n">
-        <v>2.08</v>
+        <v>1.33</v>
       </c>
       <c r="R16" t="n">
-        <v>1.28</v>
+        <v>1.34</v>
       </c>
       <c r="S16" t="n">
-        <v>3.5</v>
+        <v>1.33</v>
       </c>
       <c r="T16" t="n">
-        <v>1.69</v>
+        <v>1.04</v>
       </c>
       <c r="U16" t="n">
-        <v>1.87</v>
+        <v>1.04</v>
       </c>
       <c r="V16" t="n">
-        <v>1.4</v>
+        <v>1.47</v>
       </c>
       <c r="W16" t="n">
-        <v>1.54</v>
+        <v>1.47</v>
       </c>
       <c r="X16" t="n">
         <v>1000</v>
       </c>
       <c r="Y16" t="n">
-        <v>13</v>
+        <v>1000</v>
       </c>
       <c r="Z16" t="n">
         <v>1000</v>
       </c>
       <c r="AA16" t="n">
-        <v>150</v>
+        <v>1000</v>
       </c>
       <c r="AB16" t="n">
-        <v>19.5</v>
+        <v>1000</v>
       </c>
       <c r="AC16" t="n">
-        <v>15</v>
+        <v>1000</v>
       </c>
       <c r="AD16" t="n">
         <v>1000</v>
       </c>
       <c r="AE16" t="n">
-        <v>110</v>
+        <v>1000</v>
       </c>
       <c r="AF16" t="n">
         <v>1000</v>
@@ -2641,19 +2641,19 @@
         <v>1000</v>
       </c>
       <c r="AH16" t="n">
-        <v>23</v>
+        <v>1000</v>
       </c>
       <c r="AI16" t="n">
-        <v>160</v>
+        <v>1000</v>
       </c>
       <c r="AJ16" t="n">
-        <v>120</v>
+        <v>1000</v>
       </c>
       <c r="AK16" t="n">
-        <v>85</v>
+        <v>1000</v>
       </c>
       <c r="AL16" t="n">
-        <v>150</v>
+        <v>1000</v>
       </c>
       <c r="AM16" t="n">
         <v>1000</v>
@@ -2678,123 +2678,123 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>10:30:00</t>
+          <t>13:30:00</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Albinoleffe</t>
+          <t>LR Vicenza Virtus</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>SS Virtus Verona 1921</t>
+          <t>Renate</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>2.1</v>
+        <v>1.48</v>
       </c>
       <c r="G17" t="n">
-        <v>2.3</v>
+        <v>1.52</v>
       </c>
       <c r="H17" t="n">
-        <v>3.7</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="I17" t="n">
-        <v>4.6</v>
+        <v>12.5</v>
       </c>
       <c r="J17" t="n">
-        <v>3.15</v>
+        <v>3.9</v>
       </c>
       <c r="K17" t="n">
-        <v>3.8</v>
+        <v>4.5</v>
       </c>
       <c r="L17" t="n">
-        <v>1.44</v>
+        <v>1.47</v>
       </c>
       <c r="M17" t="n">
         <v>1.08</v>
       </c>
       <c r="N17" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="O17" t="n">
-        <v>1.35</v>
+        <v>1.38</v>
       </c>
       <c r="P17" t="n">
         <v>1.78</v>
       </c>
       <c r="Q17" t="n">
-        <v>2.04</v>
+        <v>2.16</v>
       </c>
       <c r="R17" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="S17" t="n">
-        <v>3.65</v>
+        <v>4.1</v>
       </c>
       <c r="T17" t="n">
-        <v>1.81</v>
+        <v>2.26</v>
       </c>
       <c r="U17" t="n">
-        <v>2</v>
+        <v>1.64</v>
       </c>
       <c r="V17" t="n">
-        <v>1.29</v>
+        <v>1.09</v>
       </c>
       <c r="W17" t="n">
-        <v>1.78</v>
+        <v>2.84</v>
       </c>
       <c r="X17" t="n">
-        <v>13.5</v>
+        <v>90</v>
       </c>
       <c r="Y17" t="n">
-        <v>16</v>
+        <v>1000</v>
       </c>
       <c r="Z17" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="AA17" t="n">
         <v>1000</v>
       </c>
       <c r="AB17" t="n">
-        <v>10.5</v>
+        <v>6.6</v>
       </c>
       <c r="AC17" t="n">
-        <v>9.199999999999999</v>
+        <v>10</v>
       </c>
       <c r="AD17" t="n">
-        <v>19.5</v>
+        <v>95</v>
       </c>
       <c r="AE17" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AF17" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AG17" t="n">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="AH17" t="n">
-        <v>22</v>
+        <v>85</v>
       </c>
       <c r="AI17" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ17" t="n">
+        <v>50</v>
+      </c>
+      <c r="AK17" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL17" t="n">
         <v>160</v>
       </c>
-      <c r="AJ17" t="n">
-        <v>34</v>
-      </c>
-      <c r="AK17" t="n">
+      <c r="AM17" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN17" t="n">
         <v>29</v>
-      </c>
-      <c r="AL17" t="n">
-        <v>110</v>
-      </c>
-      <c r="AM17" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN17" t="n">
-        <v>23</v>
       </c>
       <c r="AO17" t="n">
         <v>1000</v>
@@ -2813,123 +2813,123 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>10:30:00</t>
+          <t>13:30:00</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Livorno</t>
+          <t>Lecco</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Ravenna</t>
+          <t>Aurora Pro Patria 1919</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>3.4</v>
+        <v>1.72</v>
       </c>
       <c r="G18" t="n">
-        <v>3.8</v>
+        <v>1.82</v>
       </c>
       <c r="H18" t="n">
-        <v>2.4</v>
+        <v>5.9</v>
       </c>
       <c r="I18" t="n">
-        <v>2.58</v>
+        <v>7.2</v>
       </c>
       <c r="J18" t="n">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="K18" t="n">
-        <v>3.35</v>
+        <v>3.75</v>
       </c>
       <c r="L18" t="n">
-        <v>1.51</v>
+        <v>1.55</v>
       </c>
       <c r="M18" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="N18" t="n">
-        <v>2.78</v>
+        <v>2.66</v>
       </c>
       <c r="O18" t="n">
-        <v>1.45</v>
+        <v>1.47</v>
       </c>
       <c r="P18" t="n">
-        <v>1.59</v>
+        <v>1.57</v>
       </c>
       <c r="Q18" t="n">
-        <v>2.36</v>
+        <v>2.46</v>
       </c>
       <c r="R18" t="n">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="S18" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="T18" t="n">
-        <v>1.82</v>
+        <v>2.18</v>
       </c>
       <c r="U18" t="n">
-        <v>1.74</v>
+        <v>1.68</v>
       </c>
       <c r="V18" t="n">
-        <v>1.63</v>
+        <v>1.16</v>
       </c>
       <c r="W18" t="n">
-        <v>1.37</v>
+        <v>2.2</v>
       </c>
       <c r="X18" t="n">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="Y18" t="n">
-        <v>9.199999999999999</v>
+        <v>18.5</v>
       </c>
       <c r="Z18" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="AA18" t="n">
-        <v>95</v>
+        <v>1000</v>
       </c>
       <c r="AB18" t="n">
-        <v>1000</v>
+        <v>6.4</v>
       </c>
       <c r="AC18" t="n">
-        <v>8.6</v>
+        <v>9</v>
       </c>
       <c r="AD18" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AE18" t="n">
-        <v>85</v>
+        <v>1000</v>
       </c>
       <c r="AF18" t="n">
-        <v>75</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AG18" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH18" t="n">
+        <v>32</v>
+      </c>
+      <c r="AI18" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ18" t="n">
+        <v>21</v>
+      </c>
+      <c r="AK18" t="n">
+        <v>48</v>
+      </c>
+      <c r="AL18" t="n">
+        <v>65</v>
+      </c>
+      <c r="AM18" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN18" t="n">
         <v>19</v>
-      </c>
-      <c r="AH18" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AI18" t="n">
-        <v>160</v>
-      </c>
-      <c r="AJ18" t="n">
-        <v>900</v>
-      </c>
-      <c r="AK18" t="n">
-        <v>160</v>
-      </c>
-      <c r="AL18" t="n">
-        <v>210</v>
-      </c>
-      <c r="AM18" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN18" t="n">
-        <v>1000</v>
       </c>
       <c r="AO18" t="n">
         <v>1000</v>
@@ -2948,117 +2948,117 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>10:30:00</t>
+          <t>13:30:00</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>FC Giugliano</t>
+          <t>Pontedera</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Audace Cerignola</t>
+          <t>US Pianese</t>
         </is>
       </c>
       <c r="F19" t="n">
         <v>2.68</v>
       </c>
       <c r="G19" t="n">
-        <v>3.35</v>
+        <v>3.05</v>
       </c>
       <c r="H19" t="n">
-        <v>2.32</v>
+        <v>2.7</v>
       </c>
       <c r="I19" t="n">
-        <v>2.86</v>
+        <v>3.05</v>
       </c>
       <c r="J19" t="n">
-        <v>3.2</v>
+        <v>3.05</v>
       </c>
       <c r="K19" t="n">
-        <v>3.9</v>
+        <v>3.5</v>
       </c>
       <c r="L19" t="n">
-        <v>1.37</v>
+        <v>1.52</v>
       </c>
       <c r="M19" t="n">
-        <v>1.06</v>
+        <v>1.09</v>
       </c>
       <c r="N19" t="n">
-        <v>2.24</v>
+        <v>3.15</v>
       </c>
       <c r="O19" t="n">
-        <v>1.29</v>
+        <v>1.38</v>
       </c>
       <c r="P19" t="n">
-        <v>1.83</v>
+        <v>1.72</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.78</v>
+        <v>2.18</v>
       </c>
       <c r="R19" t="n">
-        <v>1.34</v>
+        <v>1.27</v>
       </c>
       <c r="S19" t="n">
-        <v>1.05</v>
+        <v>3.95</v>
       </c>
       <c r="T19" t="n">
-        <v>1.68</v>
+        <v>1.86</v>
       </c>
       <c r="U19" t="n">
-        <v>2.04</v>
+        <v>1.98</v>
       </c>
       <c r="V19" t="n">
-        <v>1.01</v>
+        <v>1.48</v>
       </c>
       <c r="W19" t="n">
-        <v>1.01</v>
+        <v>1.49</v>
       </c>
       <c r="X19" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="Y19" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="Z19" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AA19" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AB19" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="AC19" t="n">
-        <v>42</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD19" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="AE19" t="n">
-        <v>1000</v>
+        <v>46</v>
       </c>
       <c r="AF19" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AG19" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="AH19" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AI19" t="n">
-        <v>130</v>
+        <v>160</v>
       </c>
       <c r="AJ19" t="n">
-        <v>190</v>
+        <v>60</v>
       </c>
       <c r="AK19" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AL19" t="n">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="AM19" t="n">
         <v>1000</v>
@@ -3067,13 +3067,13 @@
         <v>1000</v>
       </c>
       <c r="AO19" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Italian Serie C</t>
+          <t>Spanish Segunda Division</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -3083,126 +3083,126 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>10:30:00</t>
+          <t>14:30:00</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>ASD Alcione</t>
+          <t>Mirandes</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Novara</t>
+          <t>Burgos</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>2.62</v>
+        <v>3.4</v>
       </c>
       <c r="G20" t="n">
-        <v>2.96</v>
+        <v>3.55</v>
       </c>
       <c r="H20" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="I20" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="J20" t="n">
+        <v>3</v>
+      </c>
+      <c r="K20" t="n">
         <v>3.1</v>
       </c>
-      <c r="I20" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="J20" t="n">
-        <v>2.76</v>
-      </c>
-      <c r="K20" t="n">
-        <v>3.2</v>
-      </c>
       <c r="L20" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="M20" t="n">
         <v>1.14</v>
       </c>
       <c r="N20" t="n">
-        <v>2.36</v>
+        <v>2.58</v>
       </c>
       <c r="O20" t="n">
-        <v>1.61</v>
+        <v>1.6</v>
       </c>
       <c r="P20" t="n">
-        <v>1.45</v>
+        <v>1.51</v>
       </c>
       <c r="Q20" t="n">
-        <v>2.74</v>
+        <v>2.84</v>
       </c>
       <c r="R20" t="n">
-        <v>1.18</v>
+        <v>1.19</v>
       </c>
       <c r="S20" t="n">
         <v>6</v>
       </c>
       <c r="T20" t="n">
-        <v>2.18</v>
+        <v>2.22</v>
       </c>
       <c r="U20" t="n">
-        <v>1.71</v>
+        <v>1.77</v>
       </c>
       <c r="V20" t="n">
-        <v>1.39</v>
+        <v>1.6</v>
       </c>
       <c r="W20" t="n">
-        <v>1.51</v>
+        <v>1.4</v>
       </c>
       <c r="X20" t="n">
-        <v>9</v>
+        <v>7.8</v>
       </c>
       <c r="Y20" t="n">
-        <v>10</v>
+        <v>7.6</v>
       </c>
       <c r="Z20" t="n">
-        <v>25</v>
+        <v>14.5</v>
       </c>
       <c r="AA20" t="n">
-        <v>190</v>
+        <v>40</v>
       </c>
       <c r="AB20" t="n">
-        <v>9</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AC20" t="n">
-        <v>8.199999999999999</v>
+        <v>7</v>
       </c>
       <c r="AD20" t="n">
-        <v>18.5</v>
+        <v>13</v>
       </c>
       <c r="AE20" t="n">
-        <v>160</v>
+        <v>40</v>
       </c>
       <c r="AF20" t="n">
-        <v>19.5</v>
+        <v>22</v>
       </c>
       <c r="AG20" t="n">
-        <v>16.5</v>
+        <v>15.5</v>
       </c>
       <c r="AH20" t="n">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="AI20" t="n">
-        <v>260</v>
+        <v>75</v>
       </c>
       <c r="AJ20" t="n">
+        <v>170</v>
+      </c>
+      <c r="AK20" t="n">
         <v>60</v>
       </c>
-      <c r="AK20" t="n">
-        <v>48</v>
-      </c>
       <c r="AL20" t="n">
-        <v>210</v>
+        <v>90</v>
       </c>
       <c r="AM20" t="n">
-        <v>1000</v>
+        <v>230</v>
       </c>
       <c r="AN20" t="n">
-        <v>180</v>
+        <v>80</v>
       </c>
       <c r="AO20" t="n">
-        <v>600</v>
+        <v>46</v>
       </c>
     </row>
     <row r="21">
@@ -3218,132 +3218,132 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>12:15:00</t>
+          <t>14:30:00</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Almeria</t>
+          <t>Cordoba</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Cadiz</t>
+          <t>Deportivo</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>1.68</v>
+        <v>2.34</v>
       </c>
       <c r="G21" t="n">
-        <v>1.72</v>
+        <v>2.4</v>
       </c>
       <c r="H21" t="n">
-        <v>5.6</v>
+        <v>3.35</v>
       </c>
       <c r="I21" t="n">
-        <v>6.2</v>
+        <v>3.5</v>
       </c>
       <c r="J21" t="n">
-        <v>4.1</v>
+        <v>3.45</v>
       </c>
       <c r="K21" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="L21" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="M21" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N21" t="n">
         <v>4.3</v>
       </c>
-      <c r="L21" t="n">
-        <v>1.39</v>
-      </c>
-      <c r="M21" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N21" t="n">
-        <v>3.95</v>
-      </c>
       <c r="O21" t="n">
-        <v>1.3</v>
+        <v>1.28</v>
       </c>
       <c r="P21" t="n">
-        <v>2.02</v>
+        <v>2.1</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.92</v>
+        <v>1.87</v>
       </c>
       <c r="R21" t="n">
-        <v>1.38</v>
+        <v>1.43</v>
       </c>
       <c r="S21" t="n">
-        <v>3.35</v>
+        <v>3.2</v>
       </c>
       <c r="T21" t="n">
-        <v>1.9</v>
+        <v>1.69</v>
       </c>
       <c r="U21" t="n">
-        <v>2.02</v>
+        <v>2.32</v>
       </c>
       <c r="V21" t="n">
-        <v>1.2</v>
+        <v>1.4</v>
       </c>
       <c r="W21" t="n">
-        <v>2.38</v>
+        <v>1.71</v>
       </c>
       <c r="X21" t="n">
         <v>15.5</v>
       </c>
       <c r="Y21" t="n">
+        <v>15</v>
+      </c>
+      <c r="Z21" t="n">
+        <v>26</v>
+      </c>
+      <c r="AA21" t="n">
+        <v>60</v>
+      </c>
+      <c r="AB21" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AC21" t="n">
+        <v>8</v>
+      </c>
+      <c r="AD21" t="n">
+        <v>14</v>
+      </c>
+      <c r="AE21" t="n">
+        <v>36</v>
+      </c>
+      <c r="AF21" t="n">
+        <v>16</v>
+      </c>
+      <c r="AG21" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AH21" t="n">
+        <v>16</v>
+      </c>
+      <c r="AI21" t="n">
+        <v>44</v>
+      </c>
+      <c r="AJ21" t="n">
+        <v>95</v>
+      </c>
+      <c r="AK21" t="n">
+        <v>24</v>
+      </c>
+      <c r="AL21" t="n">
         <v>34</v>
       </c>
-      <c r="Z21" t="n">
-        <v>50</v>
-      </c>
-      <c r="AA21" t="n">
-        <v>170</v>
-      </c>
-      <c r="AB21" t="n">
-        <v>8.6</v>
-      </c>
-      <c r="AC21" t="n">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="AD21" t="n">
-        <v>22</v>
-      </c>
-      <c r="AE21" t="n">
-        <v>80</v>
-      </c>
-      <c r="AF21" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AG21" t="n">
-        <v>9.4</v>
-      </c>
-      <c r="AH21" t="n">
-        <v>22</v>
-      </c>
-      <c r="AI21" t="n">
-        <v>85</v>
-      </c>
-      <c r="AJ21" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AK21" t="n">
+      <c r="AM21" t="n">
+        <v>200</v>
+      </c>
+      <c r="AN21" t="n">
         <v>17.5</v>
       </c>
-      <c r="AL21" t="n">
-        <v>36</v>
-      </c>
-      <c r="AM21" t="n">
-        <v>120</v>
-      </c>
-      <c r="AN21" t="n">
-        <v>10.5</v>
-      </c>
       <c r="AO21" t="n">
-        <v>110</v>
+        <v>32</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Spanish Segunda Division</t>
+          <t>Portuguese Segunda Liga</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -3353,132 +3353,132 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>12:15:00</t>
+          <t>15:00:00</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Sporting Gijon</t>
+          <t>Leixoes</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Eibar</t>
+          <t>Chaves</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>2.32</v>
+        <v>3.55</v>
       </c>
       <c r="G22" t="n">
-        <v>2.4</v>
+        <v>3.75</v>
       </c>
       <c r="H22" t="n">
-        <v>3.75</v>
+        <v>2.42</v>
       </c>
       <c r="I22" t="n">
-        <v>3.95</v>
+        <v>2.54</v>
       </c>
       <c r="J22" t="n">
-        <v>3.15</v>
+        <v>3.05</v>
       </c>
       <c r="K22" t="n">
         <v>3.2</v>
       </c>
       <c r="L22" t="n">
-        <v>1.52</v>
+        <v>1.51</v>
       </c>
       <c r="M22" t="n">
         <v>1.11</v>
       </c>
       <c r="N22" t="n">
-        <v>2.94</v>
+        <v>3.1</v>
       </c>
       <c r="O22" t="n">
-        <v>1.48</v>
+        <v>1.44</v>
       </c>
       <c r="P22" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="R22" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="S22" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="T22" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="U22" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="V22" t="n">
         <v>1.65</v>
       </c>
-      <c r="Q22" t="n">
-        <v>2.44</v>
-      </c>
-      <c r="R22" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="S22" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="T22" t="n">
-        <v>2.02</v>
-      </c>
-      <c r="U22" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="V22" t="n">
-        <v>1.34</v>
-      </c>
       <c r="W22" t="n">
-        <v>1.72</v>
+        <v>1.37</v>
       </c>
       <c r="X22" t="n">
         <v>9.800000000000001</v>
       </c>
       <c r="Y22" t="n">
-        <v>12</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="Z22" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="AA22" t="n">
-        <v>85</v>
+        <v>38</v>
       </c>
       <c r="AB22" t="n">
-        <v>8.199999999999999</v>
+        <v>11.5</v>
       </c>
       <c r="AC22" t="n">
         <v>7.2</v>
       </c>
       <c r="AD22" t="n">
+        <v>12</v>
+      </c>
+      <c r="AE22" t="n">
+        <v>32</v>
+      </c>
+      <c r="AF22" t="n">
+        <v>23</v>
+      </c>
+      <c r="AG22" t="n">
         <v>16.5</v>
       </c>
-      <c r="AE22" t="n">
+      <c r="AH22" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AI22" t="n">
         <v>55</v>
       </c>
-      <c r="AF22" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AG22" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AH22" t="n">
-        <v>21</v>
-      </c>
-      <c r="AI22" t="n">
-        <v>75</v>
-      </c>
       <c r="AJ22" t="n">
-        <v>34</v>
+        <v>70</v>
       </c>
       <c r="AK22" t="n">
-        <v>75</v>
+        <v>48</v>
       </c>
       <c r="AL22" t="n">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="AM22" t="n">
         <v>150</v>
       </c>
       <c r="AN22" t="n">
-        <v>30</v>
+        <v>1000</v>
       </c>
       <c r="AO22" t="n">
-        <v>75</v>
+        <v>32</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Italian Serie C</t>
+          <t>Brazilian Serie B</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -3488,132 +3488,132 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>13:30:00</t>
+          <t>16:30:00</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>LR Vicenza Virtus</t>
+          <t>Goias</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Renate</t>
+          <t>Novorizontino</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>1.5</v>
+        <v>2.18</v>
       </c>
       <c r="G23" t="n">
-        <v>1.51</v>
+        <v>2.28</v>
       </c>
       <c r="H23" t="n">
-        <v>8.4</v>
+        <v>3.95</v>
       </c>
       <c r="I23" t="n">
-        <v>11</v>
+        <v>4.1</v>
       </c>
       <c r="J23" t="n">
-        <v>4.1</v>
+        <v>3.2</v>
       </c>
       <c r="K23" t="n">
-        <v>4.2</v>
+        <v>3.35</v>
       </c>
       <c r="L23" t="n">
-        <v>1.01</v>
+        <v>1.54</v>
       </c>
       <c r="M23" t="n">
-        <v>1.08</v>
+        <v>1.11</v>
       </c>
       <c r="N23" t="n">
-        <v>3.05</v>
+        <v>2.88</v>
       </c>
       <c r="O23" t="n">
-        <v>1.36</v>
+        <v>1.49</v>
       </c>
       <c r="P23" t="n">
-        <v>1.76</v>
+        <v>1.61</v>
       </c>
       <c r="Q23" t="n">
-        <v>2.1</v>
+        <v>2.48</v>
       </c>
       <c r="R23" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="S23" t="n">
-        <v>3.7</v>
+        <v>4.9</v>
       </c>
       <c r="T23" t="n">
         <v>2.04</v>
       </c>
       <c r="U23" t="n">
-        <v>1.6</v>
+        <v>1.83</v>
       </c>
       <c r="V23" t="n">
-        <v>1.1</v>
+        <v>1.32</v>
       </c>
       <c r="W23" t="n">
-        <v>2.96</v>
+        <v>1.78</v>
       </c>
       <c r="X23" t="n">
-        <v>90</v>
+        <v>10.5</v>
       </c>
       <c r="Y23" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="Z23" t="n">
-        <v>1000</v>
+        <v>29</v>
       </c>
       <c r="AA23" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="AB23" t="n">
-        <v>14</v>
+        <v>7.8</v>
       </c>
       <c r="AC23" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AD23" t="n">
         <v>18</v>
       </c>
-      <c r="AD23" t="n">
-        <v>95</v>
-      </c>
       <c r="AE23" t="n">
-        <v>1000</v>
+        <v>160</v>
       </c>
       <c r="AF23" t="n">
-        <v>16.5</v>
+        <v>13</v>
       </c>
       <c r="AG23" t="n">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="AH23" t="n">
-        <v>85</v>
+        <v>23</v>
       </c>
       <c r="AI23" t="n">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="AJ23" t="n">
-        <v>180</v>
+        <v>75</v>
       </c>
       <c r="AK23" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AL23" t="n">
-        <v>160</v>
+        <v>55</v>
       </c>
       <c r="AM23" t="n">
-        <v>1000</v>
+        <v>580</v>
       </c>
       <c r="AN23" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AO23" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Italian Serie C</t>
+          <t>Brazilian Serie B</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -3623,132 +3623,132 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>13:30:00</t>
+          <t>16:30:00</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Casertana</t>
+          <t>Ferroviaria</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Atalanta B</t>
+          <t>Athletico-PR</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>1.04</v>
+        <v>4.2</v>
       </c>
       <c r="G24" t="n">
-        <v>1000</v>
+        <v>4.3</v>
       </c>
       <c r="H24" t="n">
-        <v>1.04</v>
+        <v>2.1</v>
       </c>
       <c r="I24" t="n">
-        <v>1000</v>
+        <v>2.14</v>
       </c>
       <c r="J24" t="n">
-        <v>1.01</v>
+        <v>3.4</v>
       </c>
       <c r="K24" t="n">
-        <v>1000</v>
+        <v>3.5</v>
       </c>
       <c r="L24" t="n">
-        <v>1.01</v>
+        <v>1.5</v>
       </c>
       <c r="M24" t="n">
-        <v>1.01</v>
+        <v>1.09</v>
       </c>
       <c r="N24" t="n">
-        <v>1.32</v>
+        <v>3.1</v>
       </c>
       <c r="O24" t="n">
-        <v>1.01</v>
+        <v>1.42</v>
       </c>
       <c r="P24" t="n">
-        <v>1.32</v>
+        <v>1.72</v>
       </c>
       <c r="Q24" t="n">
-        <v>1.32</v>
+        <v>2.28</v>
       </c>
       <c r="R24" t="n">
-        <v>1.18</v>
+        <v>1.26</v>
       </c>
       <c r="S24" t="n">
-        <v>1.32</v>
+        <v>4.3</v>
       </c>
       <c r="T24" t="n">
-        <v>1.04</v>
+        <v>1.94</v>
       </c>
       <c r="U24" t="n">
-        <v>1.04</v>
+        <v>1.91</v>
       </c>
       <c r="V24" t="n">
-        <v>1.01</v>
+        <v>1.89</v>
       </c>
       <c r="W24" t="n">
-        <v>1.01</v>
+        <v>1.3</v>
       </c>
       <c r="X24" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="Y24" t="n">
-        <v>1000</v>
+        <v>7.8</v>
       </c>
       <c r="Z24" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="AA24" t="n">
-        <v>1000</v>
+        <v>46</v>
       </c>
       <c r="AB24" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="AC24" t="n">
-        <v>1000</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD24" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="AE24" t="n">
-        <v>1000</v>
+        <v>46</v>
       </c>
       <c r="AF24" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
       <c r="AG24" t="n">
-        <v>1000</v>
+        <v>18.5</v>
       </c>
       <c r="AH24" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AI24" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AJ24" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="AK24" t="n">
-        <v>1000</v>
+        <v>170</v>
       </c>
       <c r="AL24" t="n">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="AM24" t="n">
-        <v>1000</v>
+        <v>580</v>
       </c>
       <c r="AN24" t="n">
-        <v>1000</v>
+        <v>300</v>
       </c>
       <c r="AO24" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Italian Serie C</t>
+          <t>Brazilian Serie B</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -3758,123 +3758,123 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>13:30:00</t>
+          <t>16:30:00</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Lecco</t>
+          <t>Criciuma</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Aurora Pro Patria 1919</t>
+          <t>Botafogo SP</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>1.72</v>
+        <v>1.6</v>
       </c>
       <c r="G25" t="n">
-        <v>1.82</v>
+        <v>1.64</v>
       </c>
       <c r="H25" t="n">
-        <v>5.8</v>
+        <v>7</v>
       </c>
       <c r="I25" t="n">
-        <v>7</v>
+        <v>7.8</v>
       </c>
       <c r="J25" t="n">
-        <v>3.5</v>
+        <v>3.95</v>
       </c>
       <c r="K25" t="n">
-        <v>3.75</v>
+        <v>4.3</v>
       </c>
       <c r="L25" t="n">
-        <v>1.44</v>
+        <v>1.49</v>
       </c>
       <c r="M25" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="N25" t="n">
-        <v>2.68</v>
+        <v>3.3</v>
       </c>
       <c r="O25" t="n">
-        <v>1.47</v>
+        <v>1.4</v>
       </c>
       <c r="P25" t="n">
-        <v>1.56</v>
+        <v>1.75</v>
       </c>
       <c r="Q25" t="n">
-        <v>2.42</v>
+        <v>2.18</v>
       </c>
       <c r="R25" t="n">
-        <v>1.2</v>
+        <v>1.28</v>
       </c>
       <c r="S25" t="n">
-        <v>4.8</v>
+        <v>4.2</v>
       </c>
       <c r="T25" t="n">
-        <v>2.18</v>
+        <v>1.99</v>
       </c>
       <c r="U25" t="n">
-        <v>1.68</v>
+        <v>1.64</v>
       </c>
       <c r="V25" t="n">
-        <v>1.17</v>
+        <v>1.15</v>
       </c>
       <c r="W25" t="n">
-        <v>2.2</v>
+        <v>2.56</v>
       </c>
       <c r="X25" t="n">
+        <v>90</v>
+      </c>
+      <c r="Y25" t="n">
+        <v>42</v>
+      </c>
+      <c r="Z25" t="n">
+        <v>190</v>
+      </c>
+      <c r="AA25" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB25" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AC25" t="n">
         <v>11</v>
       </c>
-      <c r="Y25" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="Z25" t="n">
-        <v>55</v>
-      </c>
-      <c r="AA25" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB25" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="AC25" t="n">
-        <v>9</v>
-      </c>
       <c r="AD25" t="n">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="AE25" t="n">
-        <v>1000</v>
+        <v>170</v>
       </c>
       <c r="AF25" t="n">
-        <v>9.800000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="AG25" t="n">
-        <v>11</v>
+        <v>40</v>
       </c>
       <c r="AH25" t="n">
-        <v>32</v>
+        <v>75</v>
       </c>
       <c r="AI25" t="n">
-        <v>1000</v>
+        <v>160</v>
       </c>
       <c r="AJ25" t="n">
-        <v>21</v>
+        <v>900</v>
       </c>
       <c r="AK25" t="n">
-        <v>48</v>
+        <v>980</v>
       </c>
       <c r="AL25" t="n">
-        <v>150</v>
+        <v>130</v>
       </c>
       <c r="AM25" t="n">
-        <v>1000</v>
+        <v>580</v>
       </c>
       <c r="AN25" t="n">
-        <v>19.5</v>
+        <v>29</v>
       </c>
       <c r="AO25" t="n">
         <v>1000</v>
@@ -3883,7 +3883,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Italian Serie C</t>
+          <t>Brazilian Serie B</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -3893,126 +3893,126 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>13:30:00</t>
+          <t>16:30:00</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Pontedera</t>
+          <t>America MG</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>US Pianese</t>
+          <t>Cuiaba</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>2.68</v>
+        <v>1.93</v>
       </c>
       <c r="G26" t="n">
-        <v>3.1</v>
+        <v>1.96</v>
       </c>
       <c r="H26" t="n">
-        <v>2.72</v>
+        <v>5</v>
       </c>
       <c r="I26" t="n">
-        <v>3.1</v>
+        <v>5.2</v>
       </c>
       <c r="J26" t="n">
-        <v>3.05</v>
+        <v>3.4</v>
       </c>
       <c r="K26" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="L26" t="n">
-        <v>1.01</v>
+        <v>1.53</v>
       </c>
       <c r="M26" t="n">
-        <v>1.08</v>
+        <v>1.11</v>
       </c>
       <c r="N26" t="n">
         <v>3</v>
       </c>
       <c r="O26" t="n">
-        <v>1.41</v>
+        <v>1.46</v>
       </c>
       <c r="P26" t="n">
-        <v>1.69</v>
+        <v>1.65</v>
       </c>
       <c r="Q26" t="n">
-        <v>2.18</v>
+        <v>2.42</v>
       </c>
       <c r="R26" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="S26" t="n">
-        <v>3.65</v>
+        <v>4.7</v>
       </c>
       <c r="T26" t="n">
-        <v>1.86</v>
+        <v>2.06</v>
       </c>
       <c r="U26" t="n">
-        <v>1.94</v>
+        <v>1.81</v>
       </c>
       <c r="V26" t="n">
-        <v>1.48</v>
+        <v>1.23</v>
       </c>
       <c r="W26" t="n">
-        <v>1.48</v>
+        <v>2.04</v>
       </c>
       <c r="X26" t="n">
+        <v>17</v>
+      </c>
+      <c r="Y26" t="n">
+        <v>980</v>
+      </c>
+      <c r="Z26" t="n">
+        <v>130</v>
+      </c>
+      <c r="AA26" t="n">
+        <v>160</v>
+      </c>
+      <c r="AB26" t="n">
         <v>13.5</v>
       </c>
-      <c r="Y26" t="n">
-        <v>12</v>
-      </c>
-      <c r="Z26" t="n">
-        <v>23</v>
-      </c>
-      <c r="AA26" t="n">
-        <v>60</v>
-      </c>
-      <c r="AB26" t="n">
-        <v>12</v>
-      </c>
       <c r="AC26" t="n">
-        <v>8.800000000000001</v>
+        <v>14</v>
       </c>
       <c r="AD26" t="n">
-        <v>16</v>
+        <v>980</v>
       </c>
       <c r="AE26" t="n">
-        <v>46</v>
+        <v>480</v>
       </c>
       <c r="AF26" t="n">
-        <v>23</v>
+        <v>19.5</v>
       </c>
       <c r="AG26" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="AH26" t="n">
-        <v>23</v>
+        <v>70</v>
       </c>
       <c r="AI26" t="n">
-        <v>65</v>
+        <v>380</v>
       </c>
       <c r="AJ26" t="n">
-        <v>60</v>
+        <v>900</v>
       </c>
       <c r="AK26" t="n">
-        <v>44</v>
+        <v>85</v>
       </c>
       <c r="AL26" t="n">
-        <v>65</v>
+        <v>130</v>
       </c>
       <c r="AM26" t="n">
-        <v>1000</v>
+        <v>580</v>
       </c>
       <c r="AN26" t="n">
-        <v>90</v>
+        <v>55</v>
       </c>
       <c r="AO26" t="n">
-        <v>46</v>
+        <v>300</v>
       </c>
     </row>
     <row r="27">
@@ -4028,132 +4028,132 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>14:30:00</t>
+          <t>17:00:00</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Mirandes</t>
+          <t>Zaragoza</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Burgos</t>
+          <t>Huesca</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>3.4</v>
+        <v>2.58</v>
       </c>
       <c r="G27" t="n">
-        <v>3.55</v>
+        <v>2.64</v>
       </c>
       <c r="H27" t="n">
-        <v>2.56</v>
+        <v>3.3</v>
       </c>
       <c r="I27" t="n">
-        <v>2.62</v>
+        <v>3.5</v>
       </c>
       <c r="J27" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="K27" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="L27" t="n">
-        <v>1.01</v>
+        <v>1.65</v>
       </c>
       <c r="M27" t="n">
-        <v>1.13</v>
+        <v>1.15</v>
       </c>
       <c r="N27" t="n">
-        <v>2.56</v>
+        <v>2.48</v>
       </c>
       <c r="O27" t="n">
-        <v>1.58</v>
+        <v>1.64</v>
       </c>
       <c r="P27" t="n">
-        <v>1.53</v>
+        <v>1.48</v>
       </c>
       <c r="Q27" t="n">
-        <v>2.7</v>
+        <v>2.96</v>
       </c>
       <c r="R27" t="n">
-        <v>1.19</v>
+        <v>1.16</v>
       </c>
       <c r="S27" t="n">
-        <v>5.7</v>
+        <v>6.4</v>
       </c>
       <c r="T27" t="n">
-        <v>2.14</v>
+        <v>2.28</v>
       </c>
       <c r="U27" t="n">
-        <v>1.78</v>
+        <v>1.7</v>
       </c>
       <c r="V27" t="n">
-        <v>1.61</v>
+        <v>1.4</v>
       </c>
       <c r="W27" t="n">
-        <v>1.39</v>
+        <v>1.6</v>
       </c>
       <c r="X27" t="n">
-        <v>8.6</v>
+        <v>8</v>
       </c>
       <c r="Y27" t="n">
-        <v>7.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="Z27" t="n">
-        <v>14.5</v>
+        <v>21</v>
       </c>
       <c r="AA27" t="n">
-        <v>40</v>
+        <v>200</v>
       </c>
       <c r="AB27" t="n">
-        <v>9.4</v>
+        <v>7.2</v>
       </c>
       <c r="AC27" t="n">
         <v>7</v>
       </c>
       <c r="AD27" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AE27" t="n">
+        <v>60</v>
+      </c>
+      <c r="AF27" t="n">
+        <v>15</v>
+      </c>
+      <c r="AG27" t="n">
         <v>13</v>
       </c>
-      <c r="AE27" t="n">
-        <v>38</v>
-      </c>
-      <c r="AF27" t="n">
-        <v>22</v>
-      </c>
-      <c r="AG27" t="n">
-        <v>16</v>
-      </c>
       <c r="AH27" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="AI27" t="n">
+        <v>110</v>
+      </c>
+      <c r="AJ27" t="n">
+        <v>42</v>
+      </c>
+      <c r="AK27" t="n">
+        <v>42</v>
+      </c>
+      <c r="AL27" t="n">
         <v>170</v>
       </c>
-      <c r="AJ27" t="n">
-        <v>170</v>
-      </c>
-      <c r="AK27" t="n">
-        <v>60</v>
-      </c>
-      <c r="AL27" t="n">
-        <v>210</v>
-      </c>
       <c r="AM27" t="n">
-        <v>980</v>
+        <v>230</v>
       </c>
       <c r="AN27" t="n">
-        <v>80</v>
+        <v>55</v>
       </c>
       <c r="AO27" t="n">
-        <v>42</v>
+        <v>85</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Spanish Segunda Division</t>
+          <t>Argentinian Primera Division</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -4163,132 +4163,132 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>14:30:00</t>
+          <t>17:00:00</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Cordoba</t>
+          <t>Velez Sarsfield</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Deportivo</t>
+          <t>River Plate</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>2.54</v>
+        <v>3.85</v>
       </c>
       <c r="G28" t="n">
-        <v>2.6</v>
+        <v>3.9</v>
       </c>
       <c r="H28" t="n">
-        <v>3.05</v>
+        <v>2.32</v>
       </c>
       <c r="I28" t="n">
-        <v>3.15</v>
+        <v>2.34</v>
       </c>
       <c r="J28" t="n">
-        <v>3.45</v>
+        <v>3.2</v>
       </c>
       <c r="K28" t="n">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="L28" t="n">
-        <v>1.38</v>
+        <v>1.63</v>
       </c>
       <c r="M28" t="n">
-        <v>1.06</v>
+        <v>1.14</v>
       </c>
       <c r="N28" t="n">
-        <v>4.3</v>
+        <v>2.58</v>
       </c>
       <c r="O28" t="n">
-        <v>1.27</v>
+        <v>1.59</v>
       </c>
       <c r="P28" t="n">
-        <v>2.14</v>
+        <v>1.54</v>
       </c>
       <c r="Q28" t="n">
-        <v>1.85</v>
+        <v>2.8</v>
       </c>
       <c r="R28" t="n">
-        <v>1.45</v>
+        <v>1.17</v>
       </c>
       <c r="S28" t="n">
-        <v>3.1</v>
+        <v>5.8</v>
       </c>
       <c r="T28" t="n">
-        <v>1.68</v>
+        <v>2.24</v>
       </c>
       <c r="U28" t="n">
-        <v>2.38</v>
+        <v>1.73</v>
       </c>
       <c r="V28" t="n">
-        <v>1.46</v>
+        <v>1.74</v>
       </c>
       <c r="W28" t="n">
-        <v>1.62</v>
+        <v>1.34</v>
       </c>
       <c r="X28" t="n">
-        <v>16.5</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="Y28" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="Z28" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AA28" t="n">
+        <v>75</v>
+      </c>
+      <c r="AB28" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AC28" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AD28" t="n">
         <v>14.5</v>
       </c>
-      <c r="Z28" t="n">
+      <c r="AE28" t="n">
+        <v>80</v>
+      </c>
+      <c r="AF28" t="n">
+        <v>26</v>
+      </c>
+      <c r="AG28" t="n">
         <v>22</v>
       </c>
-      <c r="AA28" t="n">
-        <v>50</v>
-      </c>
-      <c r="AB28" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AC28" t="n">
-        <v>8.4</v>
-      </c>
-      <c r="AD28" t="n">
-        <v>13</v>
-      </c>
-      <c r="AE28" t="n">
-        <v>32</v>
-      </c>
-      <c r="AF28" t="n">
-        <v>18</v>
-      </c>
-      <c r="AG28" t="n">
-        <v>11.5</v>
-      </c>
       <c r="AH28" t="n">
-        <v>15.5</v>
+        <v>42</v>
       </c>
       <c r="AI28" t="n">
-        <v>38</v>
+        <v>170</v>
       </c>
       <c r="AJ28" t="n">
-        <v>38</v>
+        <v>900</v>
       </c>
       <c r="AK28" t="n">
-        <v>26</v>
+        <v>200</v>
       </c>
       <c r="AL28" t="n">
-        <v>34</v>
+        <v>400</v>
       </c>
       <c r="AM28" t="n">
-        <v>75</v>
+        <v>1000</v>
       </c>
       <c r="AN28" t="n">
-        <v>18.5</v>
+        <v>130</v>
       </c>
       <c r="AO28" t="n">
-        <v>25</v>
+        <v>980</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Portuguese Segunda Liga</t>
+          <t>Argentinian Primera Division</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -4298,132 +4298,132 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>15:00:00</t>
+          <t>17:00:00</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Leixoes</t>
+          <t>Instituto</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Chaves</t>
+          <t>Talleres</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>3.45</v>
+        <v>3.35</v>
       </c>
       <c r="G29" t="n">
-        <v>3.65</v>
+        <v>3.55</v>
       </c>
       <c r="H29" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="I29" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="J29" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="K29" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="L29" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="M29" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="N29" t="n">
         <v>2.5</v>
       </c>
-      <c r="I29" t="n">
-        <v>2.58</v>
-      </c>
-      <c r="J29" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="K29" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="L29" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="M29" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="N29" t="n">
+      <c r="O29" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="P29" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="Q29" t="n">
         <v>2.94</v>
       </c>
-      <c r="O29" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="P29" t="n">
+      <c r="R29" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="S29" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="T29" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="U29" t="n">
         <v>1.7</v>
       </c>
-      <c r="Q29" t="n">
-        <v>2.32</v>
-      </c>
-      <c r="R29" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="S29" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="T29" t="n">
-        <v>1.86</v>
-      </c>
-      <c r="U29" t="n">
-        <v>1.8</v>
-      </c>
       <c r="V29" t="n">
-        <v>1.63</v>
+        <v>1.59</v>
       </c>
       <c r="W29" t="n">
-        <v>1.38</v>
+        <v>1.4</v>
       </c>
       <c r="X29" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="Y29" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="Z29" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AA29" t="n">
+        <v>65</v>
+      </c>
+      <c r="AB29" t="n">
         <v>9</v>
       </c>
-      <c r="Z29" t="n">
-        <v>16</v>
-      </c>
-      <c r="AA29" t="n">
-        <v>40</v>
-      </c>
-      <c r="AB29" t="n">
-        <v>11.5</v>
-      </c>
       <c r="AC29" t="n">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="AD29" t="n">
-        <v>12</v>
+        <v>16.5</v>
       </c>
       <c r="AE29" t="n">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="AF29" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AG29" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AH29" t="n">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="AI29" t="n">
-        <v>55</v>
+        <v>190</v>
       </c>
       <c r="AJ29" t="n">
-        <v>70</v>
+        <v>190</v>
       </c>
       <c r="AK29" t="n">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="AL29" t="n">
-        <v>65</v>
+        <v>100</v>
       </c>
       <c r="AM29" t="n">
-        <v>150</v>
+        <v>260</v>
       </c>
       <c r="AN29" t="n">
-        <v>110</v>
+        <v>360</v>
       </c>
       <c r="AO29" t="n">
-        <v>36</v>
+        <v>140</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Brazilian Serie B</t>
+          <t>Uruguayan Primera Division</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -4433,132 +4433,132 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>16:30:00</t>
+          <t>18:00:00</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Goias</t>
+          <t>Liverpool Montevideo</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Novorizontino</t>
+          <t>Penarol</t>
         </is>
       </c>
       <c r="F30" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="G30" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="H30" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="I30" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="J30" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="K30" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="L30" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="M30" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="N30" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="O30" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="P30" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="Q30" t="n">
         <v>2.14</v>
       </c>
-      <c r="G30" t="n">
-        <v>2.28</v>
-      </c>
-      <c r="H30" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="I30" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="J30" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="K30" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="L30" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="M30" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="N30" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="O30" t="n">
-        <v>1.49</v>
-      </c>
-      <c r="P30" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="Q30" t="n">
-        <v>2.3</v>
-      </c>
       <c r="R30" t="n">
-        <v>1.22</v>
+        <v>1.28</v>
       </c>
       <c r="S30" t="n">
-        <v>4.5</v>
+        <v>3.95</v>
       </c>
       <c r="T30" t="n">
-        <v>1.99</v>
+        <v>1.93</v>
       </c>
       <c r="U30" t="n">
-        <v>1.84</v>
+        <v>1.94</v>
       </c>
       <c r="V30" t="n">
-        <v>1.31</v>
+        <v>1.96</v>
       </c>
       <c r="W30" t="n">
-        <v>1.78</v>
+        <v>1.26</v>
       </c>
       <c r="X30" t="n">
-        <v>10.5</v>
+        <v>12</v>
       </c>
       <c r="Y30" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="Z30" t="n">
-        <v>29</v>
+        <v>11.5</v>
       </c>
       <c r="AA30" t="n">
-        <v>900</v>
+        <v>28</v>
       </c>
       <c r="AB30" t="n">
-        <v>8</v>
+        <v>14.5</v>
       </c>
       <c r="AC30" t="n">
-        <v>7.8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD30" t="n">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="AE30" t="n">
-        <v>65</v>
+        <v>26</v>
       </c>
       <c r="AF30" t="n">
-        <v>13.5</v>
+        <v>40</v>
       </c>
       <c r="AG30" t="n">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="AH30" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AI30" t="n">
-        <v>80</v>
+        <v>48</v>
       </c>
       <c r="AJ30" t="n">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="AK30" t="n">
-        <v>70</v>
+        <v>170</v>
       </c>
       <c r="AL30" t="n">
-        <v>55</v>
+        <v>85</v>
       </c>
       <c r="AM30" t="n">
-        <v>190</v>
+        <v>1000</v>
       </c>
       <c r="AN30" t="n">
-        <v>27</v>
+        <v>1000</v>
       </c>
       <c r="AO30" t="n">
-        <v>100</v>
+        <v>46</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Brazilian Serie B</t>
+          <t>Brazilian Serie A</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -4568,132 +4568,132 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>16:30:00</t>
+          <t>19:00:00</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Ferroviaria</t>
+          <t>Red Bull Bragantino</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Athletico-PR</t>
+          <t>Atletico MG</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>4.3</v>
+        <v>2.3</v>
       </c>
       <c r="G31" t="n">
-        <v>4.8</v>
+        <v>2.36</v>
       </c>
       <c r="H31" t="n">
-        <v>1.96</v>
+        <v>3.7</v>
       </c>
       <c r="I31" t="n">
-        <v>2.1</v>
+        <v>3.85</v>
       </c>
       <c r="J31" t="n">
-        <v>3.35</v>
+        <v>3.25</v>
       </c>
       <c r="K31" t="n">
-        <v>3.65</v>
+        <v>3.3</v>
       </c>
       <c r="L31" t="n">
-        <v>1.48</v>
+        <v>1.51</v>
       </c>
       <c r="M31" t="n">
-        <v>1.09</v>
+        <v>1.1</v>
       </c>
       <c r="N31" t="n">
         <v>3.1</v>
       </c>
       <c r="O31" t="n">
-        <v>1.42</v>
+        <v>1.46</v>
       </c>
       <c r="P31" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="Q31" t="n">
-        <v>2.2</v>
+        <v>2.38</v>
       </c>
       <c r="R31" t="n">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="S31" t="n">
-        <v>4.1</v>
+        <v>4.7</v>
       </c>
       <c r="T31" t="n">
-        <v>1.94</v>
+        <v>1.99</v>
       </c>
       <c r="U31" t="n">
-        <v>1.9</v>
+        <v>1.92</v>
       </c>
       <c r="V31" t="n">
-        <v>1.9</v>
+        <v>1.35</v>
       </c>
       <c r="W31" t="n">
-        <v>1.27</v>
+        <v>1.74</v>
       </c>
       <c r="X31" t="n">
-        <v>12</v>
+        <v>10.5</v>
       </c>
       <c r="Y31" t="n">
-        <v>8</v>
+        <v>11.5</v>
       </c>
       <c r="Z31" t="n">
-        <v>12.5</v>
+        <v>24</v>
       </c>
       <c r="AA31" t="n">
+        <v>75</v>
+      </c>
+      <c r="AB31" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AC31" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AD31" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AE31" t="n">
+        <v>55</v>
+      </c>
+      <c r="AF31" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AG31" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AH31" t="n">
+        <v>21</v>
+      </c>
+      <c r="AI31" t="n">
+        <v>70</v>
+      </c>
+      <c r="AJ31" t="n">
+        <v>32</v>
+      </c>
+      <c r="AK31" t="n">
+        <v>28</v>
+      </c>
+      <c r="AL31" t="n">
+        <v>55</v>
+      </c>
+      <c r="AM31" t="n">
+        <v>140</v>
+      </c>
+      <c r="AN31" t="n">
         <v>26</v>
       </c>
-      <c r="AB31" t="n">
-        <v>14</v>
-      </c>
-      <c r="AC31" t="n">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="AD31" t="n">
-        <v>11</v>
-      </c>
-      <c r="AE31" t="n">
-        <v>70</v>
-      </c>
-      <c r="AF31" t="n">
-        <v>980</v>
-      </c>
-      <c r="AG31" t="n">
-        <v>19</v>
-      </c>
-      <c r="AH31" t="n">
-        <v>22</v>
-      </c>
-      <c r="AI31" t="n">
-        <v>48</v>
-      </c>
-      <c r="AJ31" t="n">
-        <v>130</v>
-      </c>
-      <c r="AK31" t="n">
-        <v>70</v>
-      </c>
-      <c r="AL31" t="n">
-        <v>80</v>
-      </c>
-      <c r="AM31" t="n">
-        <v>170</v>
-      </c>
-      <c r="AN31" t="n">
-        <v>95</v>
-      </c>
       <c r="AO31" t="n">
-        <v>20</v>
+        <v>65</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Brazilian Serie B</t>
+          <t>US USL League One</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -4703,123 +4703,123 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>16:30:00</t>
+          <t>19:00:00</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Criciuma</t>
+          <t>One Knoxville SC</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Botafogo SP</t>
+          <t>Spokane Velocity FC</t>
         </is>
       </c>
       <c r="F32" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="G32" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="H32" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="I32" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="J32" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="K32" t="n">
+        <v>950</v>
+      </c>
+      <c r="L32" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="M32" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N32" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="O32" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="P32" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="R32" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="S32" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="T32" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="U32" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="V32" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="W32" t="n">
         <v>1.56</v>
       </c>
-      <c r="G32" t="n">
-        <v>1.63</v>
-      </c>
-      <c r="H32" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="I32" t="n">
-        <v>8.6</v>
-      </c>
-      <c r="J32" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="K32" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="L32" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="M32" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="N32" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="O32" t="n">
-        <v>1.41</v>
-      </c>
-      <c r="P32" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="Q32" t="n">
-        <v>2.16</v>
-      </c>
-      <c r="R32" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="S32" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="T32" t="n">
-        <v>2</v>
-      </c>
-      <c r="U32" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="V32" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="W32" t="n">
-        <v>2.58</v>
-      </c>
       <c r="X32" t="n">
-        <v>12.5</v>
+        <v>1000</v>
       </c>
       <c r="Y32" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="Z32" t="n">
-        <v>90</v>
+        <v>1000</v>
       </c>
       <c r="AA32" t="n">
         <v>1000</v>
       </c>
       <c r="AB32" t="n">
-        <v>7.6</v>
+        <v>1000</v>
       </c>
       <c r="AC32" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="AD32" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AE32" t="n">
-        <v>170</v>
+        <v>1000</v>
       </c>
       <c r="AF32" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="AG32" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AH32" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AI32" t="n">
-        <v>170</v>
+        <v>1000</v>
       </c>
       <c r="AJ32" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AK32" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AL32" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AM32" t="n">
         <v>1000</v>
       </c>
       <c r="AN32" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AO32" t="n">
         <v>1000</v>
@@ -4828,7 +4828,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Brazilian Serie B</t>
+          <t>Argentinian Primera Division</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -4838,126 +4838,126 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>16:30:00</t>
+          <t>20:15:00</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>America MG</t>
+          <t>Estudiantes</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Cuiaba</t>
+          <t>Argentinos Juniors</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>1.83</v>
+        <v>2.78</v>
       </c>
       <c r="G33" t="n">
-        <v>1.94</v>
+        <v>2.84</v>
       </c>
       <c r="H33" t="n">
-        <v>5.2</v>
+        <v>3.25</v>
       </c>
       <c r="I33" t="n">
-        <v>6.2</v>
+        <v>3.35</v>
       </c>
       <c r="J33" t="n">
-        <v>3.25</v>
+        <v>2.92</v>
       </c>
       <c r="K33" t="n">
-        <v>3.6</v>
+        <v>2.94</v>
       </c>
       <c r="L33" t="n">
-        <v>1.01</v>
+        <v>1.65</v>
       </c>
       <c r="M33" t="n">
-        <v>1.1</v>
+        <v>1.14</v>
       </c>
       <c r="N33" t="n">
-        <v>2.88</v>
+        <v>2.5</v>
       </c>
       <c r="O33" t="n">
-        <v>1.45</v>
+        <v>1.63</v>
       </c>
       <c r="P33" t="n">
-        <v>1.65</v>
+        <v>1.47</v>
       </c>
       <c r="Q33" t="n">
-        <v>2.34</v>
+        <v>2.96</v>
       </c>
       <c r="R33" t="n">
-        <v>1.23</v>
+        <v>1.16</v>
       </c>
       <c r="S33" t="n">
-        <v>4.4</v>
+        <v>6.4</v>
       </c>
       <c r="T33" t="n">
-        <v>2.04</v>
+        <v>2.26</v>
       </c>
       <c r="U33" t="n">
-        <v>1.81</v>
+        <v>1.7</v>
       </c>
       <c r="V33" t="n">
-        <v>1.2</v>
+        <v>1.42</v>
       </c>
       <c r="W33" t="n">
-        <v>2.04</v>
+        <v>1.55</v>
       </c>
       <c r="X33" t="n">
-        <v>90</v>
+        <v>7.6</v>
       </c>
       <c r="Y33" t="n">
-        <v>980</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="Z33" t="n">
-        <v>980</v>
+        <v>20</v>
       </c>
       <c r="AA33" t="n">
-        <v>180</v>
+        <v>70</v>
       </c>
       <c r="AB33" t="n">
-        <v>7.2</v>
+        <v>7.4</v>
       </c>
       <c r="AC33" t="n">
-        <v>980</v>
+        <v>7</v>
       </c>
       <c r="AD33" t="n">
-        <v>980</v>
+        <v>16.5</v>
       </c>
       <c r="AE33" t="n">
-        <v>110</v>
+        <v>60</v>
       </c>
       <c r="AF33" t="n">
-        <v>980</v>
+        <v>16</v>
       </c>
       <c r="AG33" t="n">
-        <v>980</v>
+        <v>14</v>
       </c>
       <c r="AH33" t="n">
-        <v>980</v>
+        <v>27</v>
       </c>
       <c r="AI33" t="n">
-        <v>120</v>
+        <v>95</v>
       </c>
       <c r="AJ33" t="n">
-        <v>980</v>
+        <v>50</v>
       </c>
       <c r="AK33" t="n">
-        <v>980</v>
+        <v>44</v>
       </c>
       <c r="AL33" t="n">
-        <v>55</v>
+        <v>80</v>
       </c>
       <c r="AM33" t="n">
-        <v>1000</v>
+        <v>230</v>
       </c>
       <c r="AN33" t="n">
-        <v>980</v>
+        <v>60</v>
       </c>
       <c r="AO33" t="n">
-        <v>160</v>
+        <v>85</v>
       </c>
     </row>
     <row r="34">
@@ -4973,126 +4973,126 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>17:00:00</t>
+          <t>20:15:00</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Instituto</t>
+          <t>Central Cordoba (SdE)</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Talleres</t>
+          <t>Banfield</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>3.35</v>
+        <v>2.64</v>
       </c>
       <c r="G34" t="n">
-        <v>3.65</v>
+        <v>2.66</v>
       </c>
       <c r="H34" t="n">
-        <v>2.52</v>
+        <v>3.5</v>
       </c>
       <c r="I34" t="n">
-        <v>2.76</v>
+        <v>3.6</v>
       </c>
       <c r="J34" t="n">
-        <v>2.86</v>
+        <v>2.9</v>
       </c>
       <c r="K34" t="n">
-        <v>3.05</v>
+        <v>2.98</v>
       </c>
       <c r="L34" t="n">
-        <v>1.01</v>
+        <v>1.65</v>
       </c>
       <c r="M34" t="n">
-        <v>1.13</v>
+        <v>1.15</v>
       </c>
       <c r="N34" t="n">
-        <v>2.44</v>
+        <v>2.48</v>
       </c>
       <c r="O34" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="P34" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="R34" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="S34" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="T34" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="U34" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="V34" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="W34" t="n">
         <v>1.6</v>
       </c>
-      <c r="P34" t="n">
-        <v>1.49</v>
-      </c>
-      <c r="Q34" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="R34" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="S34" t="n">
-        <v>6</v>
-      </c>
-      <c r="T34" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="U34" t="n">
-        <v>1.72</v>
-      </c>
-      <c r="V34" t="n">
-        <v>1.58</v>
-      </c>
-      <c r="W34" t="n">
-        <v>1.37</v>
-      </c>
       <c r="X34" t="n">
-        <v>8.199999999999999</v>
+        <v>7.4</v>
       </c>
       <c r="Y34" t="n">
-        <v>7.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="Z34" t="n">
+        <v>21</v>
+      </c>
+      <c r="AA34" t="n">
+        <v>75</v>
+      </c>
+      <c r="AB34" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AC34" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="AD34" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AE34" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF34" t="n">
+        <v>15</v>
+      </c>
+      <c r="AG34" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AH34" t="n">
+        <v>28</v>
+      </c>
+      <c r="AI34" t="n">
         <v>980</v>
       </c>
-      <c r="AA34" t="n">
+      <c r="AJ34" t="n">
+        <v>46</v>
+      </c>
+      <c r="AK34" t="n">
+        <v>44</v>
+      </c>
+      <c r="AL34" t="n">
+        <v>80</v>
+      </c>
+      <c r="AM34" t="n">
+        <v>230</v>
+      </c>
+      <c r="AN34" t="n">
         <v>980</v>
       </c>
-      <c r="AB34" t="n">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="AC34" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="AD34" t="n">
-        <v>13</v>
-      </c>
-      <c r="AE34" t="n">
-        <v>980</v>
-      </c>
-      <c r="AF34" t="n">
-        <v>980</v>
-      </c>
-      <c r="AG34" t="n">
-        <v>980</v>
-      </c>
-      <c r="AH34" t="n">
-        <v>980</v>
-      </c>
-      <c r="AI34" t="n">
-        <v>75</v>
-      </c>
-      <c r="AJ34" t="n">
-        <v>900</v>
-      </c>
-      <c r="AK34" t="n">
-        <v>60</v>
-      </c>
-      <c r="AL34" t="n">
-        <v>100</v>
-      </c>
-      <c r="AM34" t="n">
-        <v>260</v>
-      </c>
-      <c r="AN34" t="n">
-        <v>85</v>
-      </c>
       <c r="AO34" t="n">
-        <v>60</v>
+        <v>90</v>
       </c>
     </row>
     <row r="35">
@@ -5108,132 +5108,132 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>17:00:00</t>
+          <t>20:15:00</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Velez Sarsfield</t>
+          <t>Boca Juniors</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>River Plate</t>
+          <t>Tigre</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>4.1</v>
+        <v>1.79</v>
       </c>
       <c r="G35" t="n">
-        <v>4.4</v>
+        <v>1.82</v>
       </c>
       <c r="H35" t="n">
-        <v>2.16</v>
+        <v>6.2</v>
       </c>
       <c r="I35" t="n">
-        <v>2.26</v>
+        <v>7</v>
       </c>
       <c r="J35" t="n">
-        <v>3.15</v>
+        <v>3.35</v>
       </c>
       <c r="K35" t="n">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="L35" t="n">
-        <v>1.01</v>
+        <v>1.6</v>
       </c>
       <c r="M35" t="n">
         <v>1.13</v>
       </c>
       <c r="N35" t="n">
-        <v>2.56</v>
+        <v>2.68</v>
       </c>
       <c r="O35" t="n">
-        <v>1.58</v>
+        <v>1.57</v>
       </c>
       <c r="P35" t="n">
         <v>1.54</v>
       </c>
       <c r="Q35" t="n">
-        <v>2.72</v>
+        <v>2.74</v>
       </c>
       <c r="R35" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="S35" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="T35" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="U35" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="V35" t="n">
         <v>1.17</v>
       </c>
-      <c r="S35" t="n">
-        <v>5.8</v>
-      </c>
-      <c r="T35" t="n">
-        <v>2.26</v>
-      </c>
-      <c r="U35" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="V35" t="n">
-        <v>1.8</v>
-      </c>
       <c r="W35" t="n">
-        <v>1.29</v>
+        <v>2.2</v>
       </c>
       <c r="X35" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="Y35" t="n">
+        <v>18</v>
+      </c>
+      <c r="Z35" t="n">
+        <v>190</v>
+      </c>
+      <c r="AA35" t="n">
+        <v>280</v>
+      </c>
+      <c r="AB35" t="n">
+        <v>6</v>
+      </c>
+      <c r="AC35" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AD35" t="n">
+        <v>50</v>
+      </c>
+      <c r="AE35" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF35" t="n">
         <v>9</v>
       </c>
-      <c r="Y35" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="Z35" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AA35" t="n">
-        <v>980</v>
-      </c>
-      <c r="AB35" t="n">
-        <v>11</v>
-      </c>
-      <c r="AC35" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="AD35" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AE35" t="n">
-        <v>980</v>
-      </c>
-      <c r="AF35" t="n">
-        <v>32</v>
-      </c>
       <c r="AG35" t="n">
-        <v>26</v>
+        <v>11.5</v>
       </c>
       <c r="AH35" t="n">
         <v>980</v>
       </c>
       <c r="AI35" t="n">
-        <v>1000</v>
+        <v>180</v>
       </c>
       <c r="AJ35" t="n">
-        <v>900</v>
+        <v>21</v>
       </c>
       <c r="AK35" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AL35" t="n">
-        <v>110</v>
+        <v>1000</v>
       </c>
       <c r="AM35" t="n">
-        <v>1000</v>
+        <v>300</v>
       </c>
       <c r="AN35" t="n">
-        <v>130</v>
+        <v>26</v>
       </c>
       <c r="AO35" t="n">
-        <v>980</v>
+        <v>350</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Spanish Segunda Division</t>
+          <t>Argentinian Primera Division</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -5243,132 +5243,132 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>17:00:00</t>
+          <t>20:15:00</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Zaragoza</t>
+          <t>Newells</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Huesca</t>
+          <t>Racing Club</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>2.38</v>
+        <v>3.9</v>
       </c>
       <c r="G36" t="n">
-        <v>2.46</v>
+        <v>4.2</v>
       </c>
       <c r="H36" t="n">
-        <v>3.7</v>
+        <v>2.22</v>
       </c>
       <c r="I36" t="n">
-        <v>3.9</v>
+        <v>2.28</v>
       </c>
       <c r="J36" t="n">
-        <v>3.05</v>
+        <v>3.25</v>
       </c>
       <c r="K36" t="n">
-        <v>3.15</v>
+        <v>3.3</v>
       </c>
       <c r="L36" t="n">
-        <v>1.62</v>
+        <v>1.52</v>
       </c>
       <c r="M36" t="n">
-        <v>1.14</v>
+        <v>1.11</v>
       </c>
       <c r="N36" t="n">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="O36" t="n">
-        <v>1.62</v>
+        <v>1.47</v>
       </c>
       <c r="P36" t="n">
-        <v>1.49</v>
+        <v>1.65</v>
       </c>
       <c r="Q36" t="n">
-        <v>2.86</v>
+        <v>2.4</v>
       </c>
       <c r="R36" t="n">
-        <v>1.17</v>
+        <v>1.24</v>
       </c>
       <c r="S36" t="n">
-        <v>6.4</v>
+        <v>4.7</v>
       </c>
       <c r="T36" t="n">
-        <v>2.3</v>
+        <v>2.02</v>
       </c>
       <c r="U36" t="n">
-        <v>1.72</v>
+        <v>1.84</v>
       </c>
       <c r="V36" t="n">
-        <v>1.35</v>
+        <v>1.78</v>
       </c>
       <c r="W36" t="n">
-        <v>1.69</v>
+        <v>1.32</v>
       </c>
       <c r="X36" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="Y36" t="n">
         <v>8</v>
       </c>
-      <c r="Y36" t="n">
-        <v>9.6</v>
-      </c>
       <c r="Z36" t="n">
-        <v>980</v>
+        <v>12.5</v>
       </c>
       <c r="AA36" t="n">
-        <v>95</v>
+        <v>29</v>
       </c>
       <c r="AB36" t="n">
-        <v>6.8</v>
+        <v>12</v>
       </c>
       <c r="AC36" t="n">
-        <v>7</v>
+        <v>7.4</v>
       </c>
       <c r="AD36" t="n">
-        <v>970</v>
+        <v>11.5</v>
       </c>
       <c r="AE36" t="n">
-        <v>70</v>
+        <v>28</v>
       </c>
       <c r="AF36" t="n">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="AG36" t="n">
-        <v>12.5</v>
+        <v>17.5</v>
       </c>
       <c r="AH36" t="n">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="AI36" t="n">
-        <v>120</v>
+        <v>55</v>
       </c>
       <c r="AJ36" t="n">
-        <v>38</v>
+        <v>90</v>
       </c>
       <c r="AK36" t="n">
-        <v>980</v>
+        <v>570</v>
       </c>
       <c r="AL36" t="n">
-        <v>1000</v>
+        <v>400</v>
       </c>
       <c r="AM36" t="n">
-        <v>260</v>
+        <v>170</v>
       </c>
       <c r="AN36" t="n">
-        <v>980</v>
+        <v>85</v>
       </c>
       <c r="AO36" t="n">
-        <v>110</v>
+        <v>26</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Uruguayan Primera Division</t>
+          <t>Colombian Primera B</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -5378,1070 +5378,125 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>18:00:00</t>
+          <t>21:30:00</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Liverpool Montevideo</t>
+          <t>Real Soacha Cundinamarca FC</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Penarol</t>
+          <t>Real Cartagena</t>
         </is>
       </c>
       <c r="F37" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="G37" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="H37" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="I37" t="n">
+        <v>4</v>
+      </c>
+      <c r="J37" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="K37" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="L37" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="M37" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="N37" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="O37" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="P37" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="R37" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="S37" t="n">
         <v>4.2</v>
       </c>
-      <c r="G37" t="n">
-        <v>4.9</v>
-      </c>
-      <c r="H37" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="I37" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="J37" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="K37" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="L37" t="n">
-        <v>1.46</v>
-      </c>
-      <c r="M37" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="N37" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="O37" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="P37" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="Q37" t="n">
-        <v>2.12</v>
-      </c>
-      <c r="R37" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="S37" t="n">
-        <v>3.85</v>
-      </c>
       <c r="T37" t="n">
-        <v>1.92</v>
+        <v>1.9</v>
       </c>
       <c r="U37" t="n">
-        <v>1.94</v>
+        <v>1.9</v>
       </c>
       <c r="V37" t="n">
-        <v>1.92</v>
+        <v>1.33</v>
       </c>
       <c r="W37" t="n">
-        <v>1.25</v>
+        <v>1.72</v>
       </c>
       <c r="X37" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="Y37" t="n">
         <v>12.5</v>
       </c>
-      <c r="Y37" t="n">
-        <v>8.199999999999999</v>
-      </c>
       <c r="Z37" t="n">
+        <v>980</v>
+      </c>
+      <c r="AA37" t="n">
+        <v>80</v>
+      </c>
+      <c r="AB37" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AC37" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AD37" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AE37" t="n">
+        <v>55</v>
+      </c>
+      <c r="AF37" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AG37" t="n">
         <v>12</v>
       </c>
-      <c r="AA37" t="n">
-        <v>28</v>
-      </c>
-      <c r="AB37" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AC37" t="n">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="AD37" t="n">
-        <v>11</v>
-      </c>
-      <c r="AE37" t="n">
-        <v>26</v>
-      </c>
-      <c r="AF37" t="n">
-        <v>40</v>
-      </c>
-      <c r="AG37" t="n">
-        <v>1000</v>
-      </c>
       <c r="AH37" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="AI37" t="n">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="AJ37" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AK37" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AL37" t="n">
-        <v>85</v>
+        <v>980</v>
       </c>
       <c r="AM37" t="n">
         <v>1000</v>
       </c>
       <c r="AN37" t="n">
-        <v>1000</v>
+        <v>27</v>
       </c>
       <c r="AO37" t="n">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>Brazilian Serie A</t>
-        </is>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>2025-11-16</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>19:00:00</t>
-        </is>
-      </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>Red Bull Bragantino</t>
-        </is>
-      </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>Atletico MG</t>
-        </is>
-      </c>
-      <c r="F38" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="G38" t="n">
-        <v>2.36</v>
-      </c>
-      <c r="H38" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="I38" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="J38" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="K38" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="L38" t="n">
-        <v>1.51</v>
-      </c>
-      <c r="M38" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="N38" t="n">
-        <v>3</v>
-      </c>
-      <c r="O38" t="n">
-        <v>1.46</v>
-      </c>
-      <c r="P38" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="Q38" t="n">
-        <v>2.36</v>
-      </c>
-      <c r="R38" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="S38" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="T38" t="n">
-        <v>1.99</v>
-      </c>
-      <c r="U38" t="n">
-        <v>1.92</v>
-      </c>
-      <c r="V38" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="W38" t="n">
-        <v>1.74</v>
-      </c>
-      <c r="X38" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="Y38" t="n">
-        <v>11</v>
-      </c>
-      <c r="Z38" t="n">
-        <v>24</v>
-      </c>
-      <c r="AA38" t="n">
-        <v>75</v>
-      </c>
-      <c r="AB38" t="n">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="AC38" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="AD38" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AE38" t="n">
-        <v>55</v>
-      </c>
-      <c r="AF38" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AG38" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AH38" t="n">
-        <v>21</v>
-      </c>
-      <c r="AI38" t="n">
-        <v>70</v>
-      </c>
-      <c r="AJ38" t="n">
-        <v>32</v>
-      </c>
-      <c r="AK38" t="n">
-        <v>28</v>
-      </c>
-      <c r="AL38" t="n">
-        <v>55</v>
-      </c>
-      <c r="AM38" t="n">
-        <v>150</v>
-      </c>
-      <c r="AN38" t="n">
-        <v>26</v>
-      </c>
-      <c r="AO38" t="n">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>US USL League One</t>
-        </is>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>2025-11-16</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>19:00:00</t>
-        </is>
-      </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>One Knoxville SC</t>
-        </is>
-      </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>Spokane Velocity FC</t>
-        </is>
-      </c>
-      <c r="F39" t="n">
-        <v>2.14</v>
-      </c>
-      <c r="G39" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="H39" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="I39" t="n">
-        <v>4.9</v>
-      </c>
-      <c r="J39" t="n">
-        <v>2.36</v>
-      </c>
-      <c r="K39" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="L39" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="M39" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="N39" t="n">
-        <v>2.24</v>
-      </c>
-      <c r="O39" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="P39" t="n">
-        <v>1.58</v>
-      </c>
-      <c r="Q39" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="R39" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="S39" t="n">
-        <v>2.68</v>
-      </c>
-      <c r="T39" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="U39" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="V39" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="W39" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="X39" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Y39" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Z39" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AA39" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB39" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AC39" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AD39" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AE39" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF39" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AG39" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AH39" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AI39" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ39" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AK39" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AL39" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AM39" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN39" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AO39" t="n">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>Argentinian Primera Division</t>
-        </is>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>2025-11-16</t>
-        </is>
-      </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>20:15:00</t>
-        </is>
-      </c>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>Newells</t>
-        </is>
-      </c>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>Racing Club</t>
-        </is>
-      </c>
-      <c r="F40" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="G40" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="H40" t="n">
-        <v>2</v>
-      </c>
-      <c r="I40" t="n">
-        <v>2.06</v>
-      </c>
-      <c r="J40" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="K40" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="L40" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="M40" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="N40" t="n">
-        <v>3</v>
-      </c>
-      <c r="O40" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="P40" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="Q40" t="n">
-        <v>2.28</v>
-      </c>
-      <c r="R40" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="S40" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="T40" t="n">
-        <v>2.04</v>
-      </c>
-      <c r="U40" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="V40" t="n">
-        <v>1.94</v>
-      </c>
-      <c r="W40" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="X40" t="n">
-        <v>12</v>
-      </c>
-      <c r="Y40" t="n">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="Z40" t="n">
-        <v>11</v>
-      </c>
-      <c r="AA40" t="n">
-        <v>32</v>
-      </c>
-      <c r="AB40" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AC40" t="n">
-        <v>8.4</v>
-      </c>
-      <c r="AD40" t="n">
-        <v>13</v>
-      </c>
-      <c r="AE40" t="n">
-        <v>36</v>
-      </c>
-      <c r="AF40" t="n">
-        <v>40</v>
-      </c>
-      <c r="AG40" t="n">
-        <v>23</v>
-      </c>
-      <c r="AH40" t="n">
-        <v>24</v>
-      </c>
-      <c r="AI40" t="n">
-        <v>280</v>
-      </c>
-      <c r="AJ40" t="n">
-        <v>900</v>
-      </c>
-      <c r="AK40" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AL40" t="n">
-        <v>100</v>
-      </c>
-      <c r="AM40" t="n">
-        <v>180</v>
-      </c>
-      <c r="AN40" t="n">
-        <v>110</v>
-      </c>
-      <c r="AO40" t="n">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>Argentinian Primera Division</t>
-        </is>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>2025-11-16</t>
-        </is>
-      </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>20:15:00</t>
-        </is>
-      </c>
-      <c r="D41" t="inlineStr">
-        <is>
-          <t>Estudiantes</t>
-        </is>
-      </c>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>Argentinos Juniors</t>
-        </is>
-      </c>
-      <c r="F41" t="n">
-        <v>2.64</v>
-      </c>
-      <c r="G41" t="n">
-        <v>2.76</v>
-      </c>
-      <c r="H41" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="I41" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="J41" t="n">
-        <v>3</v>
-      </c>
-      <c r="K41" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="L41" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="M41" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="N41" t="n">
-        <v>2.46</v>
-      </c>
-      <c r="O41" t="n">
-        <v>1.64</v>
-      </c>
-      <c r="P41" t="n">
-        <v>1.46</v>
-      </c>
-      <c r="Q41" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="R41" t="n">
-        <v>1.16</v>
-      </c>
-      <c r="S41" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="T41" t="n">
-        <v>2.26</v>
-      </c>
-      <c r="U41" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="V41" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="W41" t="n">
-        <v>1.56</v>
-      </c>
-      <c r="X41" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="Y41" t="n">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="Z41" t="n">
-        <v>20</v>
-      </c>
-      <c r="AA41" t="n">
-        <v>70</v>
-      </c>
-      <c r="AB41" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="AC41" t="n">
-        <v>7</v>
-      </c>
-      <c r="AD41" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AE41" t="n">
-        <v>60</v>
-      </c>
-      <c r="AF41" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AG41" t="n">
-        <v>14</v>
-      </c>
-      <c r="AH41" t="n">
-        <v>27</v>
-      </c>
-      <c r="AI41" t="n">
-        <v>100</v>
-      </c>
-      <c r="AJ41" t="n">
-        <v>50</v>
-      </c>
-      <c r="AK41" t="n">
-        <v>46</v>
-      </c>
-      <c r="AL41" t="n">
-        <v>85</v>
-      </c>
-      <c r="AM41" t="n">
-        <v>240</v>
-      </c>
-      <c r="AN41" t="n">
-        <v>60</v>
-      </c>
-      <c r="AO41" t="n">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>Argentinian Primera Division</t>
-        </is>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>2025-11-16</t>
-        </is>
-      </c>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>20:15:00</t>
-        </is>
-      </c>
-      <c r="D42" t="inlineStr">
-        <is>
-          <t>Central Cordoba (SdE)</t>
-        </is>
-      </c>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>Banfield</t>
-        </is>
-      </c>
-      <c r="F42" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="G42" t="n">
-        <v>2.74</v>
-      </c>
-      <c r="H42" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="I42" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="J42" t="n">
-        <v>2.84</v>
-      </c>
-      <c r="K42" t="n">
-        <v>3</v>
-      </c>
-      <c r="L42" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="M42" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="N42" t="n">
-        <v>2.44</v>
-      </c>
-      <c r="O42" t="n">
-        <v>1.63</v>
-      </c>
-      <c r="P42" t="n">
-        <v>1.46</v>
-      </c>
-      <c r="Q42" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="R42" t="n">
-        <v>1.16</v>
-      </c>
-      <c r="S42" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="T42" t="n">
-        <v>2.24</v>
-      </c>
-      <c r="U42" t="n">
-        <v>1.68</v>
-      </c>
-      <c r="V42" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="W42" t="n">
-        <v>1.58</v>
-      </c>
-      <c r="X42" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="Y42" t="n">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="Z42" t="n">
-        <v>21</v>
-      </c>
-      <c r="AA42" t="n">
-        <v>75</v>
-      </c>
-      <c r="AB42" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="AC42" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="AD42" t="n">
-        <v>17</v>
-      </c>
-      <c r="AE42" t="n">
-        <v>65</v>
-      </c>
-      <c r="AF42" t="n">
-        <v>15</v>
-      </c>
-      <c r="AG42" t="n">
-        <v>14</v>
-      </c>
-      <c r="AH42" t="n">
-        <v>28</v>
-      </c>
-      <c r="AI42" t="n">
-        <v>980</v>
-      </c>
-      <c r="AJ42" t="n">
-        <v>46</v>
-      </c>
-      <c r="AK42" t="n">
-        <v>44</v>
-      </c>
-      <c r="AL42" t="n">
-        <v>85</v>
-      </c>
-      <c r="AM42" t="n">
-        <v>230</v>
-      </c>
-      <c r="AN42" t="n">
-        <v>50</v>
-      </c>
-      <c r="AO42" t="n">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>Argentinian Primera Division</t>
-        </is>
-      </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>2025-11-16</t>
-        </is>
-      </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>20:15:00</t>
-        </is>
-      </c>
-      <c r="D43" t="inlineStr">
-        <is>
-          <t>Boca Juniors</t>
-        </is>
-      </c>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>Tigre</t>
-        </is>
-      </c>
-      <c r="F43" t="n">
-        <v>1.74</v>
-      </c>
-      <c r="G43" t="n">
-        <v>1.84</v>
-      </c>
-      <c r="H43" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="I43" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="J43" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="K43" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="L43" t="n">
-        <v>1.58</v>
-      </c>
-      <c r="M43" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="N43" t="n">
-        <v>2.54</v>
-      </c>
-      <c r="O43" t="n">
-        <v>1.56</v>
-      </c>
-      <c r="P43" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="Q43" t="n">
-        <v>2.66</v>
-      </c>
-      <c r="R43" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="S43" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="T43" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="U43" t="n">
-        <v>1.63</v>
-      </c>
-      <c r="V43" t="n">
-        <v>1.16</v>
-      </c>
-      <c r="W43" t="n">
-        <v>2.18</v>
-      </c>
-      <c r="X43" t="n">
-        <v>8.4</v>
-      </c>
-      <c r="Y43" t="n">
-        <v>980</v>
-      </c>
-      <c r="Z43" t="n">
-        <v>55</v>
-      </c>
-      <c r="AA43" t="n">
-        <v>310</v>
-      </c>
-      <c r="AB43" t="n">
-        <v>5.9</v>
-      </c>
-      <c r="AC43" t="n">
-        <v>8</v>
-      </c>
-      <c r="AD43" t="n">
-        <v>980</v>
-      </c>
-      <c r="AE43" t="n">
-        <v>180</v>
-      </c>
-      <c r="AF43" t="n">
-        <v>9</v>
-      </c>
-      <c r="AG43" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AH43" t="n">
-        <v>980</v>
-      </c>
-      <c r="AI43" t="n">
-        <v>200</v>
-      </c>
-      <c r="AJ43" t="n">
-        <v>22</v>
-      </c>
-      <c r="AK43" t="n">
-        <v>70</v>
-      </c>
-      <c r="AL43" t="n">
-        <v>70</v>
-      </c>
-      <c r="AM43" t="n">
-        <v>340</v>
-      </c>
-      <c r="AN43" t="n">
-        <v>21</v>
-      </c>
-      <c r="AO43" t="n">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>Colombian Primera B</t>
-        </is>
-      </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>2025-11-16</t>
-        </is>
-      </c>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>21:30:00</t>
-        </is>
-      </c>
-      <c r="D44" t="inlineStr">
-        <is>
-          <t>Real Soacha Cundinamarca FC</t>
-        </is>
-      </c>
-      <c r="E44" t="inlineStr">
-        <is>
-          <t>Real Cartagena</t>
-        </is>
-      </c>
-      <c r="F44" t="n">
-        <v>2.18</v>
-      </c>
-      <c r="G44" t="n">
-        <v>2.46</v>
-      </c>
-      <c r="H44" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="I44" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="J44" t="n">
-        <v>2.92</v>
-      </c>
-      <c r="K44" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="L44" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="M44" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="N44" t="n">
-        <v>2.98</v>
-      </c>
-      <c r="O44" t="n">
-        <v>1.41</v>
-      </c>
-      <c r="P44" t="n">
-        <v>1.68</v>
-      </c>
-      <c r="Q44" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="R44" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="S44" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="T44" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="U44" t="n">
-        <v>1.92</v>
-      </c>
-      <c r="V44" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="W44" t="n">
-        <v>1.69</v>
-      </c>
-      <c r="X44" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="Y44" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="Z44" t="n">
-        <v>980</v>
-      </c>
-      <c r="AA44" t="n">
-        <v>80</v>
-      </c>
-      <c r="AB44" t="n">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="AC44" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="AD44" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AE44" t="n">
-        <v>55</v>
-      </c>
-      <c r="AF44" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AG44" t="n">
-        <v>12</v>
-      </c>
-      <c r="AH44" t="n">
-        <v>21</v>
-      </c>
-      <c r="AI44" t="n">
-        <v>70</v>
-      </c>
-      <c r="AJ44" t="n">
-        <v>980</v>
-      </c>
-      <c r="AK44" t="n">
-        <v>980</v>
-      </c>
-      <c r="AL44" t="n">
-        <v>980</v>
-      </c>
-      <c r="AM44" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN44" t="n">
-        <v>30</v>
-      </c>
-      <c r="AO44" t="n">
         <v>1000</v>
       </c>
     </row>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-11-16.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-11-16.xlsx
@@ -667,109 +667,109 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.54</v>
+        <v>1.01</v>
       </c>
       <c r="G2" t="n">
-        <v>1.65</v>
+        <v>1.02</v>
       </c>
       <c r="H2" t="n">
-        <v>5.3</v>
+        <v>1000</v>
       </c>
       <c r="I2" t="n">
-        <v>6.6</v>
+        <v>1000</v>
       </c>
       <c r="J2" t="n">
-        <v>4.4</v>
+        <v>50</v>
       </c>
       <c r="K2" t="n">
-        <v>5.4</v>
+        <v>1000</v>
       </c>
       <c r="L2" t="n">
-        <v>1.28</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>1.03</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>5.6</v>
+        <v>1.01</v>
       </c>
       <c r="O2" t="n">
-        <v>1.18</v>
+        <v>1.01</v>
       </c>
       <c r="P2" t="n">
-        <v>2.56</v>
+        <v>1.01</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.52</v>
+        <v>1.08</v>
       </c>
       <c r="R2" t="n">
-        <v>1.63</v>
+        <v>1.01</v>
       </c>
       <c r="S2" t="n">
-        <v>2.34</v>
+        <v>1.01</v>
       </c>
       <c r="T2" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="U2" t="n">
-        <v>2.26</v>
+        <v>1.01</v>
       </c>
       <c r="V2" t="n">
-        <v>1.18</v>
+        <v>1.01</v>
       </c>
       <c r="W2" t="n">
-        <v>2.5</v>
+        <v>1.01</v>
       </c>
       <c r="X2" t="n">
-        <v>29</v>
+        <v>1000</v>
       </c>
       <c r="Y2" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="Z2" t="n">
-        <v>160</v>
+        <v>1000</v>
       </c>
       <c r="AA2" t="n">
         <v>1000</v>
       </c>
       <c r="AB2" t="n">
-        <v>13</v>
+        <v>1000</v>
       </c>
       <c r="AC2" t="n">
-        <v>12</v>
+        <v>1000</v>
       </c>
       <c r="AD2" t="n">
-        <v>46</v>
+        <v>1000</v>
       </c>
       <c r="AE2" t="n">
-        <v>230</v>
+        <v>1000</v>
       </c>
       <c r="AF2" t="n">
-        <v>12.5</v>
+        <v>1000</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="AH2" t="n">
-        <v>19.5</v>
+        <v>1000</v>
       </c>
       <c r="AI2" t="n">
-        <v>170</v>
+        <v>1000</v>
       </c>
       <c r="AJ2" t="n">
-        <v>17</v>
+        <v>1000</v>
       </c>
       <c r="AK2" t="n">
-        <v>18.5</v>
+        <v>1000</v>
       </c>
       <c r="AL2" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AM2" t="n">
         <v>1000</v>
       </c>
       <c r="AN2" t="n">
-        <v>6.4</v>
+        <v>1000</v>
       </c>
       <c r="AO2" t="n">
         <v>1000</v>
@@ -802,58 +802,58 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>2.38</v>
+        <v>1.19</v>
       </c>
       <c r="G3" t="n">
-        <v>3.05</v>
+        <v>1.21</v>
       </c>
       <c r="H3" t="n">
-        <v>2.6</v>
+        <v>32</v>
       </c>
       <c r="I3" t="n">
-        <v>3.05</v>
+        <v>48</v>
       </c>
       <c r="J3" t="n">
-        <v>3.5</v>
+        <v>7</v>
       </c>
       <c r="K3" t="n">
-        <v>4.4</v>
+        <v>7.8</v>
       </c>
       <c r="L3" t="n">
-        <v>1.32</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>1.05</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>3.75</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>1.21</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>2.3</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.52</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>1.52</v>
+        <v>3.45</v>
       </c>
       <c r="S3" t="n">
-        <v>2.28</v>
+        <v>1.36</v>
       </c>
       <c r="T3" t="n">
-        <v>1.54</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>2.44</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>1.48</v>
+        <v>1.02</v>
       </c>
       <c r="W3" t="n">
-        <v>1.5</v>
+        <v>5.8</v>
       </c>
       <c r="X3" t="n">
         <v>1000</v>
@@ -865,49 +865,49 @@
         <v>1000</v>
       </c>
       <c r="AA3" t="n">
-        <v>170</v>
+        <v>1000</v>
       </c>
       <c r="AB3" t="n">
         <v>1000</v>
       </c>
       <c r="AC3" t="n">
-        <v>42</v>
+        <v>1000</v>
       </c>
       <c r="AD3" t="n">
         <v>1000</v>
       </c>
       <c r="AE3" t="n">
-        <v>110</v>
+        <v>1000</v>
       </c>
       <c r="AF3" t="n">
         <v>1000</v>
       </c>
       <c r="AG3" t="n">
-        <v>1000</v>
+        <v>4.2</v>
       </c>
       <c r="AH3" t="n">
-        <v>1000</v>
+        <v>9.4</v>
       </c>
       <c r="AI3" t="n">
-        <v>130</v>
+        <v>55</v>
       </c>
       <c r="AJ3" t="n">
-        <v>80</v>
+        <v>1000</v>
       </c>
       <c r="AK3" t="n">
-        <v>1000</v>
+        <v>4.7</v>
       </c>
       <c r="AL3" t="n">
-        <v>85</v>
+        <v>11</v>
       </c>
       <c r="AM3" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AN3" t="n">
-        <v>600</v>
+        <v>5.2</v>
       </c>
       <c r="AO3" t="n">
-        <v>1000</v>
+        <v>240</v>
       </c>
     </row>
     <row r="4">
@@ -940,109 +940,109 @@
         <v>2.72</v>
       </c>
       <c r="G4" t="n">
-        <v>2.86</v>
+        <v>2.8</v>
       </c>
       <c r="H4" t="n">
-        <v>2.86</v>
+        <v>3.05</v>
       </c>
       <c r="I4" t="n">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="J4" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="K4" t="n">
         <v>3.2</v>
       </c>
-      <c r="K4" t="n">
-        <v>3.4</v>
-      </c>
       <c r="L4" t="n">
-        <v>1.49</v>
+        <v>1.92</v>
       </c>
       <c r="M4" t="n">
-        <v>1.09</v>
+        <v>1.13</v>
       </c>
       <c r="N4" t="n">
-        <v>3.25</v>
+        <v>2.66</v>
       </c>
       <c r="O4" t="n">
-        <v>1.41</v>
+        <v>1.58</v>
       </c>
       <c r="P4" t="n">
-        <v>1.76</v>
+        <v>1.52</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.24</v>
+        <v>2.84</v>
       </c>
       <c r="R4" t="n">
-        <v>1.27</v>
+        <v>1.19</v>
       </c>
       <c r="S4" t="n">
-        <v>4.2</v>
+        <v>6.2</v>
       </c>
       <c r="T4" t="n">
-        <v>1.84</v>
+        <v>2.08</v>
       </c>
       <c r="U4" t="n">
-        <v>1.99</v>
+        <v>1.79</v>
       </c>
       <c r="V4" t="n">
-        <v>1.5</v>
+        <v>1.46</v>
       </c>
       <c r="W4" t="n">
         <v>1.54</v>
       </c>
       <c r="X4" t="n">
-        <v>11.5</v>
+        <v>8.6</v>
       </c>
       <c r="Y4" t="n">
-        <v>10.5</v>
+        <v>9</v>
       </c>
       <c r="Z4" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AA4" t="n">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="AB4" t="n">
-        <v>10</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AC4" t="n">
-        <v>7.4</v>
+        <v>7</v>
       </c>
       <c r="AD4" t="n">
+        <v>15</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>65</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>17</v>
+      </c>
+      <c r="AG4" t="n">
         <v>14</v>
       </c>
-      <c r="AE4" t="n">
-        <v>40</v>
-      </c>
-      <c r="AF4" t="n">
-        <v>19</v>
-      </c>
-      <c r="AG4" t="n">
-        <v>13.5</v>
-      </c>
       <c r="AH4" t="n">
-        <v>19.5</v>
+        <v>25</v>
       </c>
       <c r="AI4" t="n">
-        <v>160</v>
+        <v>110</v>
       </c>
       <c r="AJ4" t="n">
-        <v>120</v>
+        <v>55</v>
       </c>
       <c r="AK4" t="n">
-        <v>95</v>
+        <v>44</v>
       </c>
       <c r="AL4" t="n">
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="AM4" t="n">
-        <v>580</v>
+        <v>220</v>
       </c>
       <c r="AN4" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AO4" t="n">
-        <v>42</v>
+        <v>70</v>
       </c>
     </row>
     <row r="5">
@@ -1072,109 +1072,109 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1.43</v>
+        <v>1.45</v>
       </c>
       <c r="G5" t="n">
         <v>1.47</v>
       </c>
       <c r="H5" t="n">
-        <v>8.800000000000001</v>
+        <v>12</v>
       </c>
       <c r="I5" t="n">
-        <v>11</v>
+        <v>13.5</v>
       </c>
       <c r="J5" t="n">
-        <v>4.4</v>
+        <v>4</v>
       </c>
       <c r="K5" t="n">
-        <v>4.9</v>
+        <v>4.2</v>
       </c>
       <c r="L5" t="n">
-        <v>1.45</v>
+        <v>1.48</v>
       </c>
       <c r="M5" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="N5" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="O5" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="P5" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="R5" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="S5" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="T5" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="U5" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="V5" t="n">
         <v>1.08</v>
-      </c>
-      <c r="N5" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="O5" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="P5" t="n">
-        <v>1.82</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="R5" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="S5" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="T5" t="n">
-        <v>2.22</v>
-      </c>
-      <c r="U5" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="V5" t="n">
-        <v>1.1</v>
       </c>
       <c r="W5" t="n">
         <v>3.1</v>
       </c>
       <c r="X5" t="n">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="Y5" t="n">
+        <v>28</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>140</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>48</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>590</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>7</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>40</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>270</v>
+      </c>
+      <c r="AJ5" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AK5" t="n">
+        <v>18</v>
+      </c>
+      <c r="AL5" t="n">
         <v>65</v>
       </c>
-      <c r="Z5" t="n">
-        <v>100</v>
-      </c>
-      <c r="AA5" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB5" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AC5" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AD5" t="n">
-        <v>110</v>
-      </c>
-      <c r="AE5" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF5" t="n">
-        <v>17</v>
-      </c>
-      <c r="AG5" t="n">
-        <v>40</v>
-      </c>
-      <c r="AH5" t="n">
-        <v>85</v>
-      </c>
-      <c r="AI5" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ5" t="n">
-        <v>28</v>
-      </c>
-      <c r="AK5" t="n">
-        <v>70</v>
-      </c>
-      <c r="AL5" t="n">
-        <v>130</v>
-      </c>
       <c r="AM5" t="n">
-        <v>1000</v>
+        <v>310</v>
       </c>
       <c r="AN5" t="n">
-        <v>29</v>
+        <v>9.6</v>
       </c>
       <c r="AO5" t="n">
         <v>1000</v>
@@ -1207,94 +1207,94 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>6</v>
+        <v>6.6</v>
       </c>
       <c r="G6" t="n">
-        <v>7.2</v>
+        <v>7.6</v>
       </c>
       <c r="H6" t="n">
-        <v>1.66</v>
+        <v>1.7</v>
       </c>
       <c r="I6" t="n">
-        <v>1.79</v>
+        <v>1.77</v>
       </c>
       <c r="J6" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="K6" t="n">
-        <v>4.1</v>
+        <v>3.6</v>
       </c>
       <c r="L6" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="M6" t="n">
-        <v>1.09</v>
+        <v>1.1</v>
       </c>
       <c r="N6" t="n">
-        <v>2.92</v>
+        <v>2.94</v>
       </c>
       <c r="O6" t="n">
-        <v>1.43</v>
+        <v>1.46</v>
       </c>
       <c r="P6" t="n">
-        <v>1.73</v>
+        <v>1.65</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.28</v>
+        <v>2.36</v>
       </c>
       <c r="R6" t="n">
-        <v>1.23</v>
+        <v>1.25</v>
       </c>
       <c r="S6" t="n">
-        <v>4.4</v>
+        <v>4.8</v>
       </c>
       <c r="T6" t="n">
-        <v>2.14</v>
+        <v>2.26</v>
       </c>
       <c r="U6" t="n">
-        <v>1.71</v>
+        <v>1.7</v>
       </c>
       <c r="V6" t="n">
-        <v>2.24</v>
+        <v>2.3</v>
       </c>
       <c r="W6" t="n">
-        <v>1.17</v>
+        <v>1.15</v>
       </c>
       <c r="X6" t="n">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="Y6" t="n">
-        <v>15</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="Z6" t="n">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="AA6" t="n">
-        <v>1000</v>
+        <v>17.5</v>
       </c>
       <c r="AB6" t="n">
         <v>1000</v>
       </c>
       <c r="AC6" t="n">
-        <v>42</v>
+        <v>8.6</v>
       </c>
       <c r="AD6" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="AE6" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AF6" t="n">
         <v>170</v>
       </c>
       <c r="AG6" t="n">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="AH6" t="n">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="AI6" t="n">
-        <v>160</v>
+        <v>130</v>
       </c>
       <c r="AJ6" t="n">
         <v>1000</v>
@@ -1312,7 +1312,7 @@
         <v>1000</v>
       </c>
       <c r="AO6" t="n">
-        <v>55</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7">
@@ -1342,61 +1342,61 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1.53</v>
+        <v>1.71</v>
       </c>
       <c r="G7" t="n">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="H7" t="n">
-        <v>5.3</v>
+        <v>5</v>
       </c>
       <c r="I7" t="n">
-        <v>8.199999999999999</v>
+        <v>5.9</v>
       </c>
       <c r="J7" t="n">
-        <v>4.2</v>
+        <v>3.9</v>
       </c>
       <c r="K7" t="n">
-        <v>5.8</v>
+        <v>4.4</v>
       </c>
       <c r="L7" t="n">
-        <v>1.34</v>
+        <v>1.36</v>
       </c>
       <c r="M7" t="n">
         <v>1.05</v>
       </c>
       <c r="N7" t="n">
-        <v>4.4</v>
+        <v>4.2</v>
       </c>
       <c r="O7" t="n">
-        <v>1.23</v>
+        <v>1.26</v>
       </c>
       <c r="P7" t="n">
-        <v>2.18</v>
+        <v>2.12</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.7</v>
+        <v>1.76</v>
       </c>
       <c r="R7" t="n">
-        <v>1.45</v>
+        <v>1.46</v>
       </c>
       <c r="S7" t="n">
-        <v>2.72</v>
+        <v>2.96</v>
       </c>
       <c r="T7" t="n">
-        <v>1.74</v>
+        <v>1.72</v>
       </c>
       <c r="U7" t="n">
-        <v>2.04</v>
+        <v>2.1</v>
       </c>
       <c r="V7" t="n">
-        <v>1.16</v>
+        <v>1.22</v>
       </c>
       <c r="W7" t="n">
-        <v>2.48</v>
+        <v>2.22</v>
       </c>
       <c r="X7" t="n">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="Y7" t="n">
         <v>80</v>
@@ -1408,7 +1408,7 @@
         <v>1000</v>
       </c>
       <c r="AB7" t="n">
-        <v>21</v>
+        <v>14.5</v>
       </c>
       <c r="AC7" t="n">
         <v>28</v>
@@ -1417,28 +1417,28 @@
         <v>85</v>
       </c>
       <c r="AE7" t="n">
-        <v>1000</v>
+        <v>230</v>
       </c>
       <c r="AF7" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="AG7" t="n">
-        <v>8.4</v>
+        <v>9</v>
       </c>
       <c r="AH7" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AI7" t="n">
-        <v>1000</v>
+        <v>230</v>
       </c>
       <c r="AJ7" t="n">
-        <v>1000</v>
+        <v>180</v>
       </c>
       <c r="AK7" t="n">
         <v>1000</v>
       </c>
       <c r="AL7" t="n">
-        <v>110</v>
+        <v>1000</v>
       </c>
       <c r="AM7" t="n">
         <v>1000</v>
@@ -1477,22 +1477,22 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>2.46</v>
+        <v>2.54</v>
       </c>
       <c r="G8" t="n">
-        <v>2.56</v>
+        <v>2.6</v>
       </c>
       <c r="H8" t="n">
         <v>3.55</v>
       </c>
       <c r="I8" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="J8" t="n">
         <v>3</v>
       </c>
       <c r="K8" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -1615,19 +1615,19 @@
         <v>2.52</v>
       </c>
       <c r="G9" t="n">
-        <v>2.84</v>
+        <v>2.72</v>
       </c>
       <c r="H9" t="n">
-        <v>2.92</v>
+        <v>3.15</v>
       </c>
       <c r="I9" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="J9" t="n">
+        <v>3</v>
+      </c>
+      <c r="K9" t="n">
         <v>3.35</v>
-      </c>
-      <c r="J9" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="K9" t="n">
-        <v>3.55</v>
       </c>
       <c r="L9" t="n">
         <v>1.47</v>
@@ -1636,13 +1636,13 @@
         <v>1.09</v>
       </c>
       <c r="N9" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="O9" t="n">
-        <v>1.38</v>
+        <v>1.4</v>
       </c>
       <c r="P9" t="n">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
       <c r="Q9" t="n">
         <v>2.16</v>
@@ -1651,25 +1651,25 @@
         <v>1.28</v>
       </c>
       <c r="S9" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="T9" t="n">
         <v>1.8</v>
       </c>
       <c r="U9" t="n">
-        <v>2.02</v>
+        <v>2.06</v>
       </c>
       <c r="V9" t="n">
-        <v>1.42</v>
+        <v>1.41</v>
       </c>
       <c r="W9" t="n">
-        <v>1.54</v>
+        <v>1.59</v>
       </c>
       <c r="X9" t="n">
         <v>22</v>
       </c>
       <c r="Y9" t="n">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="Z9" t="n">
         <v>1000</v>
@@ -1678,22 +1678,22 @@
         <v>150</v>
       </c>
       <c r="AB9" t="n">
-        <v>1000</v>
+        <v>18</v>
       </c>
       <c r="AC9" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AD9" t="n">
-        <v>1000</v>
+        <v>26</v>
       </c>
       <c r="AE9" t="n">
         <v>110</v>
       </c>
       <c r="AF9" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AG9" t="n">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="AH9" t="n">
         <v>42</v>
@@ -1714,7 +1714,7 @@
         <v>1000</v>
       </c>
       <c r="AN9" t="n">
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="AO9" t="n">
         <v>1000</v>
@@ -1747,58 +1747,58 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="G10" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="H10" t="n">
         <v>3.7</v>
       </c>
       <c r="I10" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="J10" t="n">
-        <v>3.15</v>
+        <v>3.25</v>
       </c>
       <c r="K10" t="n">
         <v>3.8</v>
       </c>
       <c r="L10" t="n">
-        <v>1.44</v>
+        <v>1.43</v>
       </c>
       <c r="M10" t="n">
         <v>1.08</v>
       </c>
       <c r="N10" t="n">
-        <v>3.35</v>
+        <v>3.45</v>
       </c>
       <c r="O10" t="n">
-        <v>1.35</v>
+        <v>1.37</v>
       </c>
       <c r="P10" t="n">
-        <v>1.8</v>
+        <v>1.92</v>
       </c>
       <c r="Q10" t="n">
         <v>2.06</v>
       </c>
       <c r="R10" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="S10" t="n">
         <v>3.7</v>
       </c>
       <c r="T10" t="n">
-        <v>1.81</v>
+        <v>1.8</v>
       </c>
       <c r="U10" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="V10" t="n">
-        <v>1.3</v>
+        <v>1.32</v>
       </c>
       <c r="W10" t="n">
-        <v>1.78</v>
+        <v>1.76</v>
       </c>
       <c r="X10" t="n">
         <v>13.5</v>
@@ -1849,10 +1849,10 @@
         <v>1000</v>
       </c>
       <c r="AN10" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AO10" t="n">
-        <v>160</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="11">
@@ -1882,22 +1882,22 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>3.3</v>
+        <v>3.7</v>
       </c>
       <c r="G11" t="n">
-        <v>3.75</v>
+        <v>4.3</v>
       </c>
       <c r="H11" t="n">
-        <v>2.4</v>
+        <v>2.2</v>
       </c>
       <c r="I11" t="n">
-        <v>2.6</v>
+        <v>2.44</v>
       </c>
       <c r="J11" t="n">
-        <v>2.92</v>
+        <v>3</v>
       </c>
       <c r="K11" t="n">
-        <v>3.25</v>
+        <v>3.35</v>
       </c>
       <c r="L11" t="n">
         <v>1.53</v>
@@ -1906,13 +1906,13 @@
         <v>1.11</v>
       </c>
       <c r="N11" t="n">
-        <v>2.74</v>
+        <v>2.84</v>
       </c>
       <c r="O11" t="n">
-        <v>1.46</v>
+        <v>1.48</v>
       </c>
       <c r="P11" t="n">
-        <v>1.59</v>
+        <v>1.6</v>
       </c>
       <c r="Q11" t="n">
         <v>2.38</v>
@@ -1921,37 +1921,37 @@
         <v>1.22</v>
       </c>
       <c r="S11" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="T11" t="n">
-        <v>1.97</v>
+        <v>1.96</v>
       </c>
       <c r="U11" t="n">
-        <v>1.84</v>
+        <v>1.87</v>
       </c>
       <c r="V11" t="n">
-        <v>1.62</v>
+        <v>1.69</v>
       </c>
       <c r="W11" t="n">
-        <v>1.37</v>
+        <v>1.3</v>
       </c>
       <c r="X11" t="n">
-        <v>17</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="Y11" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="Z11" t="n">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="AA11" t="n">
-        <v>95</v>
+        <v>32</v>
       </c>
       <c r="AB11" t="n">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="AC11" t="n">
-        <v>13.5</v>
+        <v>7.6</v>
       </c>
       <c r="AD11" t="n">
         <v>22</v>
@@ -1960,34 +1960,34 @@
         <v>85</v>
       </c>
       <c r="AF11" t="n">
-        <v>75</v>
+        <v>28</v>
       </c>
       <c r="AG11" t="n">
-        <v>34</v>
+        <v>17.5</v>
       </c>
       <c r="AH11" t="n">
         <v>60</v>
       </c>
       <c r="AI11" t="n">
-        <v>160</v>
+        <v>60</v>
       </c>
       <c r="AJ11" t="n">
-        <v>900</v>
+        <v>200</v>
       </c>
       <c r="AK11" t="n">
         <v>160</v>
       </c>
       <c r="AL11" t="n">
-        <v>210</v>
+        <v>85</v>
       </c>
       <c r="AM11" t="n">
-        <v>1000</v>
+        <v>170</v>
       </c>
       <c r="AN11" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
       <c r="AO11" t="n">
-        <v>1000</v>
+        <v>30</v>
       </c>
     </row>
     <row r="12">
@@ -2017,22 +2017,22 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>2.92</v>
+        <v>2.86</v>
       </c>
       <c r="G12" t="n">
         <v>3.3</v>
       </c>
       <c r="H12" t="n">
-        <v>2.4</v>
+        <v>2.42</v>
       </c>
       <c r="I12" t="n">
-        <v>2.72</v>
+        <v>2.74</v>
       </c>
       <c r="J12" t="n">
-        <v>3.35</v>
+        <v>3.25</v>
       </c>
       <c r="K12" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="L12" t="n">
         <v>1.42</v>
@@ -2041,25 +2041,25 @@
         <v>1.07</v>
       </c>
       <c r="N12" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="O12" t="n">
-        <v>1.32</v>
+        <v>1.34</v>
       </c>
       <c r="P12" t="n">
-        <v>1.84</v>
+        <v>1.96</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.89</v>
+        <v>1.96</v>
       </c>
       <c r="R12" t="n">
         <v>1.34</v>
       </c>
       <c r="S12" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="T12" t="n">
-        <v>1.74</v>
+        <v>1.8</v>
       </c>
       <c r="U12" t="n">
         <v>2.08</v>
@@ -2071,10 +2071,10 @@
         <v>1.01</v>
       </c>
       <c r="X12" t="n">
-        <v>1000</v>
+        <v>27</v>
       </c>
       <c r="Y12" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="Z12" t="n">
         <v>1000</v>
@@ -2083,31 +2083,31 @@
         <v>1000</v>
       </c>
       <c r="AB12" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="AC12" t="n">
-        <v>42</v>
+        <v>11.5</v>
       </c>
       <c r="AD12" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AE12" t="n">
         <v>1000</v>
       </c>
       <c r="AF12" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="AG12" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="AH12" t="n">
         <v>1000</v>
       </c>
       <c r="AI12" t="n">
-        <v>130</v>
+        <v>48</v>
       </c>
       <c r="AJ12" t="n">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="AK12" t="n">
         <v>85</v>
@@ -2152,25 +2152,25 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>2.62</v>
+        <v>2.68</v>
       </c>
       <c r="G13" t="n">
-        <v>2.96</v>
+        <v>2.9</v>
       </c>
       <c r="H13" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="I13" t="n">
         <v>3.55</v>
       </c>
       <c r="J13" t="n">
-        <v>2.76</v>
+        <v>2.84</v>
       </c>
       <c r="K13" t="n">
-        <v>3.2</v>
+        <v>2.96</v>
       </c>
       <c r="L13" t="n">
-        <v>1.65</v>
+        <v>1.64</v>
       </c>
       <c r="M13" t="n">
         <v>1.14</v>
@@ -2179,31 +2179,31 @@
         <v>2.42</v>
       </c>
       <c r="O13" t="n">
-        <v>1.59</v>
+        <v>1.58</v>
       </c>
       <c r="P13" t="n">
-        <v>1.46</v>
+        <v>1.51</v>
       </c>
       <c r="Q13" t="n">
-        <v>2.74</v>
+        <v>2.68</v>
       </c>
       <c r="R13" t="n">
         <v>1.17</v>
       </c>
       <c r="S13" t="n">
-        <v>6</v>
+        <v>6.2</v>
       </c>
       <c r="T13" t="n">
-        <v>2.16</v>
+        <v>2.3</v>
       </c>
       <c r="U13" t="n">
-        <v>1.72</v>
+        <v>1.71</v>
       </c>
       <c r="V13" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="W13" t="n">
-        <v>1.51</v>
+        <v>1.54</v>
       </c>
       <c r="X13" t="n">
         <v>9</v>
@@ -2212,40 +2212,40 @@
         <v>10</v>
       </c>
       <c r="Z13" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="AA13" t="n">
         <v>190</v>
       </c>
       <c r="AB13" t="n">
-        <v>9</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AC13" t="n">
         <v>8.199999999999999</v>
       </c>
       <c r="AD13" t="n">
-        <v>18.5</v>
+        <v>15.5</v>
       </c>
       <c r="AE13" t="n">
-        <v>95</v>
+        <v>160</v>
       </c>
       <c r="AF13" t="n">
         <v>19.5</v>
       </c>
       <c r="AG13" t="n">
-        <v>16.5</v>
+        <v>15.5</v>
       </c>
       <c r="AH13" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AI13" t="n">
-        <v>110</v>
+        <v>260</v>
       </c>
       <c r="AJ13" t="n">
         <v>150</v>
       </c>
       <c r="AK13" t="n">
-        <v>50</v>
+        <v>130</v>
       </c>
       <c r="AL13" t="n">
         <v>210</v>
@@ -2254,10 +2254,10 @@
         <v>1000</v>
       </c>
       <c r="AN13" t="n">
-        <v>75</v>
+        <v>600</v>
       </c>
       <c r="AO13" t="n">
-        <v>1000</v>
+        <v>600</v>
       </c>
     </row>
     <row r="14">
@@ -2287,61 +2287,61 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>1.64</v>
+        <v>1.69</v>
       </c>
       <c r="G14" t="n">
-        <v>1.66</v>
+        <v>1.7</v>
       </c>
       <c r="H14" t="n">
-        <v>6.2</v>
+        <v>6</v>
       </c>
       <c r="I14" t="n">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="J14" t="n">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="K14" t="n">
-        <v>4.3</v>
+        <v>4.1</v>
       </c>
       <c r="L14" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="M14" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N14" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="O14" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="P14" t="n">
-        <v>2.04</v>
+        <v>2.02</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.92</v>
+        <v>1.94</v>
       </c>
       <c r="R14" t="n">
-        <v>1.39</v>
+        <v>1.38</v>
       </c>
       <c r="S14" t="n">
         <v>3.4</v>
       </c>
       <c r="T14" t="n">
-        <v>1.94</v>
+        <v>1.92</v>
       </c>
       <c r="U14" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="V14" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="W14" t="n">
-        <v>2.5</v>
+        <v>2.42</v>
       </c>
       <c r="X14" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="Y14" t="n">
         <v>21</v>
@@ -2350,49 +2350,49 @@
         <v>55</v>
       </c>
       <c r="AA14" t="n">
-        <v>190</v>
+        <v>170</v>
       </c>
       <c r="AB14" t="n">
-        <v>8.4</v>
+        <v>8.6</v>
       </c>
       <c r="AC14" t="n">
-        <v>9.199999999999999</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD14" t="n">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="AE14" t="n">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="AF14" t="n">
         <v>9.6</v>
       </c>
       <c r="AG14" t="n">
-        <v>9.4</v>
+        <v>9.6</v>
       </c>
       <c r="AH14" t="n">
         <v>22</v>
       </c>
       <c r="AI14" t="n">
-        <v>230</v>
+        <v>110</v>
       </c>
       <c r="AJ14" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AK14" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AL14" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="AM14" t="n">
-        <v>580</v>
+        <v>180</v>
       </c>
       <c r="AN14" t="n">
-        <v>9.6</v>
+        <v>10.5</v>
       </c>
       <c r="AO14" t="n">
-        <v>970</v>
+        <v>180</v>
       </c>
     </row>
     <row r="15">
@@ -2422,13 +2422,13 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>2.44</v>
+        <v>2.46</v>
       </c>
       <c r="G15" t="n">
-        <v>2.5</v>
+        <v>2.48</v>
       </c>
       <c r="H15" t="n">
-        <v>3.55</v>
+        <v>3.65</v>
       </c>
       <c r="I15" t="n">
         <v>3.7</v>
@@ -2452,43 +2452,43 @@
         <v>1.48</v>
       </c>
       <c r="P15" t="n">
-        <v>1.65</v>
+        <v>1.66</v>
       </c>
       <c r="Q15" t="n">
         <v>2.46</v>
       </c>
       <c r="R15" t="n">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="S15" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="T15" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="U15" t="n">
-        <v>1.92</v>
+        <v>1.91</v>
       </c>
       <c r="V15" t="n">
         <v>1.37</v>
       </c>
       <c r="W15" t="n">
-        <v>1.66</v>
+        <v>1.67</v>
       </c>
       <c r="X15" t="n">
-        <v>9.4</v>
+        <v>9.6</v>
       </c>
       <c r="Y15" t="n">
-        <v>11.5</v>
+        <v>10.5</v>
       </c>
       <c r="Z15" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AA15" t="n">
         <v>75</v>
       </c>
       <c r="AB15" t="n">
-        <v>8.199999999999999</v>
+        <v>8.4</v>
       </c>
       <c r="AC15" t="n">
         <v>7</v>
@@ -2500,7 +2500,7 @@
         <v>55</v>
       </c>
       <c r="AF15" t="n">
-        <v>13.5</v>
+        <v>14.5</v>
       </c>
       <c r="AG15" t="n">
         <v>11.5</v>
@@ -2512,7 +2512,7 @@
         <v>75</v>
       </c>
       <c r="AJ15" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="AK15" t="n">
         <v>32</v>
@@ -2524,7 +2524,7 @@
         <v>580</v>
       </c>
       <c r="AN15" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AO15" t="n">
         <v>70</v>
@@ -2557,19 +2557,19 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>1.04</v>
+        <v>1.2</v>
       </c>
       <c r="G16" t="n">
         <v>1000</v>
       </c>
       <c r="H16" t="n">
-        <v>1.04</v>
+        <v>1.11</v>
       </c>
       <c r="I16" t="n">
         <v>1000</v>
       </c>
       <c r="J16" t="n">
-        <v>1.09</v>
+        <v>1.03</v>
       </c>
       <c r="K16" t="n">
         <v>1000</v>
@@ -2587,16 +2587,16 @@
         <v>1.01</v>
       </c>
       <c r="P16" t="n">
-        <v>1.34</v>
+        <v>1.38</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="R16" t="n">
-        <v>1.34</v>
+        <v>1.38</v>
       </c>
       <c r="S16" t="n">
-        <v>1.33</v>
+        <v>1.05</v>
       </c>
       <c r="T16" t="n">
         <v>1.04</v>
@@ -2605,10 +2605,10 @@
         <v>1.04</v>
       </c>
       <c r="V16" t="n">
-        <v>1.47</v>
+        <v>1.01</v>
       </c>
       <c r="W16" t="n">
-        <v>1.47</v>
+        <v>1.01</v>
       </c>
       <c r="X16" t="n">
         <v>1000</v>
@@ -2692,22 +2692,22 @@
         </is>
       </c>
       <c r="F17" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="G17" t="n">
         <v>1.48</v>
       </c>
-      <c r="G17" t="n">
-        <v>1.52</v>
-      </c>
       <c r="H17" t="n">
-        <v>9.800000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="I17" t="n">
         <v>12.5</v>
       </c>
       <c r="J17" t="n">
-        <v>3.9</v>
+        <v>4.2</v>
       </c>
       <c r="K17" t="n">
-        <v>4.5</v>
+        <v>4.8</v>
       </c>
       <c r="L17" t="n">
         <v>1.47</v>
@@ -2716,37 +2716,37 @@
         <v>1.08</v>
       </c>
       <c r="N17" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="O17" t="n">
         <v>1.38</v>
       </c>
       <c r="P17" t="n">
-        <v>1.78</v>
+        <v>1.84</v>
       </c>
       <c r="Q17" t="n">
-        <v>2.16</v>
+        <v>2.1</v>
       </c>
       <c r="R17" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="S17" t="n">
-        <v>4.1</v>
+        <v>3.9</v>
       </c>
       <c r="T17" t="n">
-        <v>2.26</v>
+        <v>2.24</v>
       </c>
       <c r="U17" t="n">
-        <v>1.64</v>
+        <v>1.66</v>
       </c>
       <c r="V17" t="n">
         <v>1.09</v>
       </c>
       <c r="W17" t="n">
-        <v>2.84</v>
+        <v>3</v>
       </c>
       <c r="X17" t="n">
-        <v>90</v>
+        <v>1000</v>
       </c>
       <c r="Y17" t="n">
         <v>1000</v>
@@ -2761,10 +2761,10 @@
         <v>6.6</v>
       </c>
       <c r="AC17" t="n">
-        <v>10</v>
+        <v>42</v>
       </c>
       <c r="AD17" t="n">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="AE17" t="n">
         <v>1000</v>
@@ -2773,10 +2773,10 @@
         <v>16.5</v>
       </c>
       <c r="AG17" t="n">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="AH17" t="n">
-        <v>85</v>
+        <v>1000</v>
       </c>
       <c r="AI17" t="n">
         <v>1000</v>
@@ -2827,46 +2827,46 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>1.72</v>
+        <v>1.66</v>
       </c>
       <c r="G18" t="n">
-        <v>1.82</v>
+        <v>1.73</v>
       </c>
       <c r="H18" t="n">
-        <v>5.9</v>
+        <v>6.6</v>
       </c>
       <c r="I18" t="n">
-        <v>7.2</v>
+        <v>8</v>
       </c>
       <c r="J18" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="K18" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="L18" t="n">
         <v>1.55</v>
       </c>
       <c r="M18" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="N18" t="n">
-        <v>2.66</v>
+        <v>2.78</v>
       </c>
       <c r="O18" t="n">
-        <v>1.47</v>
+        <v>1.46</v>
       </c>
       <c r="P18" t="n">
-        <v>1.57</v>
+        <v>1.61</v>
       </c>
       <c r="Q18" t="n">
-        <v>2.46</v>
+        <v>2.36</v>
       </c>
       <c r="R18" t="n">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="S18" t="n">
-        <v>4.8</v>
+        <v>4.6</v>
       </c>
       <c r="T18" t="n">
         <v>2.18</v>
@@ -2875,64 +2875,64 @@
         <v>1.68</v>
       </c>
       <c r="V18" t="n">
-        <v>1.16</v>
+        <v>1.15</v>
       </c>
       <c r="W18" t="n">
-        <v>2.2</v>
+        <v>2.34</v>
       </c>
       <c r="X18" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="Y18" t="n">
         <v>18.5</v>
       </c>
       <c r="Z18" t="n">
-        <v>130</v>
+        <v>55</v>
       </c>
       <c r="AA18" t="n">
-        <v>1000</v>
+        <v>300</v>
       </c>
       <c r="AB18" t="n">
         <v>6.4</v>
       </c>
       <c r="AC18" t="n">
-        <v>9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD18" t="n">
-        <v>65</v>
+        <v>30</v>
       </c>
       <c r="AE18" t="n">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="AF18" t="n">
-        <v>9.800000000000001</v>
+        <v>9.4</v>
       </c>
       <c r="AG18" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AH18" t="n">
-        <v>32</v>
+        <v>80</v>
       </c>
       <c r="AI18" t="n">
         <v>1000</v>
       </c>
       <c r="AJ18" t="n">
-        <v>21</v>
+        <v>17.5</v>
       </c>
       <c r="AK18" t="n">
-        <v>48</v>
+        <v>23</v>
       </c>
       <c r="AL18" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AM18" t="n">
         <v>1000</v>
       </c>
       <c r="AN18" t="n">
-        <v>19</v>
+        <v>16.5</v>
       </c>
       <c r="AO18" t="n">
-        <v>1000</v>
+        <v>260</v>
       </c>
     </row>
     <row r="19">
@@ -2962,7 +2962,7 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>2.68</v>
+        <v>2.7</v>
       </c>
       <c r="G19" t="n">
         <v>3.05</v>
@@ -2974,13 +2974,13 @@
         <v>3.05</v>
       </c>
       <c r="J19" t="n">
-        <v>3.05</v>
+        <v>3.15</v>
       </c>
       <c r="K19" t="n">
         <v>3.5</v>
       </c>
       <c r="L19" t="n">
-        <v>1.52</v>
+        <v>1.48</v>
       </c>
       <c r="M19" t="n">
         <v>1.09</v>
@@ -2992,10 +2992,10 @@
         <v>1.38</v>
       </c>
       <c r="P19" t="n">
-        <v>1.72</v>
+        <v>1.73</v>
       </c>
       <c r="Q19" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="R19" t="n">
         <v>1.27</v>
@@ -3004,16 +3004,16 @@
         <v>3.95</v>
       </c>
       <c r="T19" t="n">
-        <v>1.86</v>
+        <v>1.83</v>
       </c>
       <c r="U19" t="n">
         <v>1.98</v>
       </c>
       <c r="V19" t="n">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="W19" t="n">
-        <v>1.49</v>
+        <v>1.5</v>
       </c>
       <c r="X19" t="n">
         <v>13.5</v>
@@ -3097,64 +3097,64 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="G20" t="n">
-        <v>3.55</v>
+        <v>3.7</v>
       </c>
       <c r="H20" t="n">
-        <v>2.58</v>
+        <v>2.5</v>
       </c>
       <c r="I20" t="n">
-        <v>2.66</v>
+        <v>2.56</v>
       </c>
       <c r="J20" t="n">
         <v>3</v>
       </c>
       <c r="K20" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="L20" t="n">
-        <v>1.65</v>
+        <v>1.66</v>
       </c>
       <c r="M20" t="n">
-        <v>1.14</v>
+        <v>1.15</v>
       </c>
       <c r="N20" t="n">
-        <v>2.58</v>
+        <v>2.52</v>
       </c>
       <c r="O20" t="n">
-        <v>1.6</v>
+        <v>1.63</v>
       </c>
       <c r="P20" t="n">
-        <v>1.51</v>
+        <v>1.49</v>
       </c>
       <c r="Q20" t="n">
-        <v>2.84</v>
+        <v>2.92</v>
       </c>
       <c r="R20" t="n">
-        <v>1.19</v>
+        <v>1.17</v>
       </c>
       <c r="S20" t="n">
-        <v>6</v>
+        <v>6.2</v>
       </c>
       <c r="T20" t="n">
-        <v>2.22</v>
+        <v>2.28</v>
       </c>
       <c r="U20" t="n">
-        <v>1.77</v>
+        <v>1.75</v>
       </c>
       <c r="V20" t="n">
-        <v>1.6</v>
+        <v>1.64</v>
       </c>
       <c r="W20" t="n">
-        <v>1.4</v>
+        <v>1.37</v>
       </c>
       <c r="X20" t="n">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="Y20" t="n">
-        <v>7.6</v>
+        <v>7.2</v>
       </c>
       <c r="Z20" t="n">
         <v>14.5</v>
@@ -3175,31 +3175,31 @@
         <v>40</v>
       </c>
       <c r="AF20" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AG20" t="n">
-        <v>15.5</v>
+        <v>16.5</v>
       </c>
       <c r="AH20" t="n">
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="AI20" t="n">
-        <v>75</v>
+        <v>170</v>
       </c>
       <c r="AJ20" t="n">
         <v>170</v>
       </c>
       <c r="AK20" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AL20" t="n">
+        <v>95</v>
+      </c>
+      <c r="AM20" t="n">
+        <v>980</v>
+      </c>
+      <c r="AN20" t="n">
         <v>90</v>
-      </c>
-      <c r="AM20" t="n">
-        <v>230</v>
-      </c>
-      <c r="AN20" t="n">
-        <v>80</v>
       </c>
       <c r="AO20" t="n">
         <v>46</v>
@@ -3232,25 +3232,25 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>2.34</v>
+        <v>2.38</v>
       </c>
       <c r="G21" t="n">
-        <v>2.4</v>
+        <v>2.44</v>
       </c>
       <c r="H21" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="I21" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="J21" t="n">
         <v>3.45</v>
       </c>
       <c r="K21" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="L21" t="n">
-        <v>1.42</v>
+        <v>1.41</v>
       </c>
       <c r="M21" t="n">
         <v>1.07</v>
@@ -3259,13 +3259,13 @@
         <v>4.3</v>
       </c>
       <c r="O21" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="P21" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.87</v>
+        <v>1.88</v>
       </c>
       <c r="R21" t="n">
         <v>1.43</v>
@@ -3274,25 +3274,25 @@
         <v>3.2</v>
       </c>
       <c r="T21" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="U21" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="V21" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="W21" t="n">
         <v>1.69</v>
       </c>
-      <c r="U21" t="n">
-        <v>2.32</v>
-      </c>
-      <c r="V21" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="W21" t="n">
-        <v>1.71</v>
-      </c>
       <c r="X21" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="Y21" t="n">
         <v>15</v>
       </c>
       <c r="Z21" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AA21" t="n">
         <v>60</v>
@@ -3301,10 +3301,10 @@
         <v>11.5</v>
       </c>
       <c r="AC21" t="n">
-        <v>8</v>
+        <v>7.6</v>
       </c>
       <c r="AD21" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AE21" t="n">
         <v>36</v>
@@ -3322,7 +3322,7 @@
         <v>44</v>
       </c>
       <c r="AJ21" t="n">
-        <v>95</v>
+        <v>32</v>
       </c>
       <c r="AK21" t="n">
         <v>24</v>
@@ -3331,7 +3331,7 @@
         <v>34</v>
       </c>
       <c r="AM21" t="n">
-        <v>200</v>
+        <v>80</v>
       </c>
       <c r="AN21" t="n">
         <v>17.5</v>
@@ -3367,112 +3367,112 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>3.55</v>
+        <v>3.95</v>
       </c>
       <c r="G22" t="n">
-        <v>3.75</v>
+        <v>4.2</v>
       </c>
       <c r="H22" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="I22" t="n">
         <v>2.42</v>
       </c>
-      <c r="I22" t="n">
-        <v>2.54</v>
-      </c>
       <c r="J22" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="K22" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="L22" t="n">
-        <v>1.51</v>
+        <v>1.5</v>
       </c>
       <c r="M22" t="n">
         <v>1.11</v>
       </c>
       <c r="N22" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="O22" t="n">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="P22" t="n">
         <v>1.7</v>
       </c>
       <c r="Q22" t="n">
-        <v>2.32</v>
+        <v>2.3</v>
       </c>
       <c r="R22" t="n">
-        <v>1.25</v>
+        <v>1.27</v>
       </c>
       <c r="S22" t="n">
-        <v>4.5</v>
+        <v>4.3</v>
       </c>
       <c r="T22" t="n">
         <v>1.87</v>
       </c>
       <c r="U22" t="n">
-        <v>1.96</v>
+        <v>1.99</v>
       </c>
       <c r="V22" t="n">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="W22" t="n">
-        <v>1.37</v>
+        <v>1.32</v>
       </c>
       <c r="X22" t="n">
-        <v>9.800000000000001</v>
+        <v>10.5</v>
       </c>
       <c r="Y22" t="n">
         <v>8.800000000000001</v>
       </c>
       <c r="Z22" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AA22" t="n">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="AB22" t="n">
-        <v>11.5</v>
+        <v>16</v>
       </c>
       <c r="AC22" t="n">
         <v>7.2</v>
       </c>
       <c r="AD22" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AE22" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="AF22" t="n">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="AG22" t="n">
         <v>16.5</v>
       </c>
       <c r="AH22" t="n">
-        <v>18.5</v>
+        <v>19.5</v>
       </c>
       <c r="AI22" t="n">
+        <v>130</v>
+      </c>
+      <c r="AJ22" t="n">
+        <v>170</v>
+      </c>
+      <c r="AK22" t="n">
         <v>55</v>
-      </c>
-      <c r="AJ22" t="n">
-        <v>70</v>
-      </c>
-      <c r="AK22" t="n">
-        <v>48</v>
       </c>
       <c r="AL22" t="n">
         <v>70</v>
       </c>
       <c r="AM22" t="n">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="AN22" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AO22" t="n">
-        <v>32</v>
+        <v>26</v>
       </c>
     </row>
     <row r="23">
@@ -3502,13 +3502,13 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>2.18</v>
+        <v>2.24</v>
       </c>
       <c r="G23" t="n">
         <v>2.28</v>
       </c>
       <c r="H23" t="n">
-        <v>3.95</v>
+        <v>3.9</v>
       </c>
       <c r="I23" t="n">
         <v>4.1</v>
@@ -3517,40 +3517,40 @@
         <v>3.2</v>
       </c>
       <c r="K23" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="L23" t="n">
-        <v>1.54</v>
+        <v>1.53</v>
       </c>
       <c r="M23" t="n">
         <v>1.11</v>
       </c>
       <c r="N23" t="n">
-        <v>2.88</v>
+        <v>2.92</v>
       </c>
       <c r="O23" t="n">
-        <v>1.49</v>
+        <v>1.48</v>
       </c>
       <c r="P23" t="n">
-        <v>1.61</v>
+        <v>1.63</v>
       </c>
       <c r="Q23" t="n">
         <v>2.48</v>
       </c>
       <c r="R23" t="n">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="S23" t="n">
-        <v>4.9</v>
+        <v>4.7</v>
       </c>
       <c r="T23" t="n">
-        <v>2.04</v>
+        <v>2.02</v>
       </c>
       <c r="U23" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="V23" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="W23" t="n">
         <v>1.78</v>
@@ -3604,10 +3604,10 @@
         <v>580</v>
       </c>
       <c r="AN23" t="n">
-        <v>28</v>
+        <v>600</v>
       </c>
       <c r="AO23" t="n">
-        <v>100</v>
+        <v>600</v>
       </c>
     </row>
     <row r="24">
@@ -3637,112 +3637,112 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>4.2</v>
+        <v>4.4</v>
       </c>
       <c r="G24" t="n">
-        <v>4.3</v>
+        <v>4.5</v>
       </c>
       <c r="H24" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="I24" t="n">
-        <v>2.14</v>
+        <v>2.02</v>
       </c>
       <c r="J24" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="K24" t="n">
-        <v>3.5</v>
+        <v>3.65</v>
       </c>
       <c r="L24" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="M24" t="n">
         <v>1.09</v>
       </c>
       <c r="N24" t="n">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="O24" t="n">
-        <v>1.42</v>
+        <v>1.41</v>
       </c>
       <c r="P24" t="n">
-        <v>1.72</v>
+        <v>1.77</v>
       </c>
       <c r="Q24" t="n">
-        <v>2.28</v>
+        <v>2.22</v>
       </c>
       <c r="R24" t="n">
-        <v>1.26</v>
+        <v>1.28</v>
       </c>
       <c r="S24" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="T24" t="n">
-        <v>1.94</v>
+        <v>1.92</v>
       </c>
       <c r="U24" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="V24" t="n">
-        <v>1.89</v>
+        <v>1.98</v>
       </c>
       <c r="W24" t="n">
-        <v>1.3</v>
+        <v>1.28</v>
       </c>
       <c r="X24" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y24" t="n">
+        <v>8</v>
+      </c>
+      <c r="Z24" t="n">
         <v>12</v>
       </c>
-      <c r="Y24" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="Z24" t="n">
-        <v>13</v>
-      </c>
       <c r="AA24" t="n">
-        <v>46</v>
+        <v>23</v>
       </c>
       <c r="AB24" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AC24" t="n">
-        <v>8.199999999999999</v>
+        <v>8</v>
       </c>
       <c r="AD24" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AE24" t="n">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="AF24" t="n">
-        <v>85</v>
+        <v>30</v>
       </c>
       <c r="AG24" t="n">
         <v>18.5</v>
       </c>
       <c r="AH24" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AI24" t="n">
-        <v>120</v>
+        <v>44</v>
       </c>
       <c r="AJ24" t="n">
         <v>900</v>
       </c>
       <c r="AK24" t="n">
-        <v>170</v>
+        <v>65</v>
       </c>
       <c r="AL24" t="n">
-        <v>200</v>
+        <v>80</v>
       </c>
       <c r="AM24" t="n">
-        <v>580</v>
+        <v>140</v>
       </c>
       <c r="AN24" t="n">
-        <v>300</v>
+        <v>80</v>
       </c>
       <c r="AO24" t="n">
-        <v>22</v>
+        <v>18.5</v>
       </c>
     </row>
     <row r="25">
@@ -3772,64 +3772,64 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>1.6</v>
+        <v>1.54</v>
       </c>
       <c r="G25" t="n">
-        <v>1.64</v>
+        <v>1.57</v>
       </c>
       <c r="H25" t="n">
-        <v>7</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="I25" t="n">
-        <v>7.8</v>
+        <v>9</v>
       </c>
       <c r="J25" t="n">
-        <v>3.95</v>
+        <v>4.1</v>
       </c>
       <c r="K25" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="L25" t="n">
-        <v>1.49</v>
+        <v>1.48</v>
       </c>
       <c r="M25" t="n">
         <v>1.08</v>
       </c>
       <c r="N25" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="O25" t="n">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="P25" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="Q25" t="n">
-        <v>2.18</v>
+        <v>2.14</v>
       </c>
       <c r="R25" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="S25" t="n">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="T25" t="n">
-        <v>1.99</v>
+        <v>2.14</v>
       </c>
       <c r="U25" t="n">
-        <v>1.64</v>
+        <v>1.6</v>
       </c>
       <c r="V25" t="n">
-        <v>1.15</v>
+        <v>1.13</v>
       </c>
       <c r="W25" t="n">
-        <v>2.56</v>
+        <v>2.74</v>
       </c>
       <c r="X25" t="n">
         <v>90</v>
       </c>
       <c r="Y25" t="n">
-        <v>42</v>
+        <v>980</v>
       </c>
       <c r="Z25" t="n">
         <v>190</v>
@@ -3838,31 +3838,31 @@
         <v>1000</v>
       </c>
       <c r="AB25" t="n">
-        <v>7.6</v>
+        <v>7.8</v>
       </c>
       <c r="AC25" t="n">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="AD25" t="n">
         <v>75</v>
       </c>
       <c r="AE25" t="n">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="AF25" t="n">
-        <v>9.6</v>
+        <v>15</v>
       </c>
       <c r="AG25" t="n">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="AH25" t="n">
         <v>75</v>
       </c>
       <c r="AI25" t="n">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="AJ25" t="n">
-        <v>900</v>
+        <v>29</v>
       </c>
       <c r="AK25" t="n">
         <v>980</v>
@@ -3907,22 +3907,22 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>1.93</v>
+        <v>2.42</v>
       </c>
       <c r="G26" t="n">
-        <v>1.96</v>
+        <v>2.52</v>
       </c>
       <c r="H26" t="n">
-        <v>5</v>
+        <v>3.35</v>
       </c>
       <c r="I26" t="n">
-        <v>5.2</v>
+        <v>3.55</v>
       </c>
       <c r="J26" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="K26" t="n">
-        <v>3.55</v>
+        <v>3.35</v>
       </c>
       <c r="L26" t="n">
         <v>1.53</v>
@@ -3931,88 +3931,88 @@
         <v>1.11</v>
       </c>
       <c r="N26" t="n">
-        <v>3</v>
+        <v>2.96</v>
       </c>
       <c r="O26" t="n">
-        <v>1.46</v>
+        <v>1.47</v>
       </c>
       <c r="P26" t="n">
         <v>1.65</v>
       </c>
       <c r="Q26" t="n">
-        <v>2.42</v>
+        <v>2.46</v>
       </c>
       <c r="R26" t="n">
         <v>1.24</v>
       </c>
       <c r="S26" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="T26" t="n">
-        <v>2.06</v>
+        <v>1.96</v>
       </c>
       <c r="U26" t="n">
-        <v>1.81</v>
+        <v>1.89</v>
       </c>
       <c r="V26" t="n">
-        <v>1.23</v>
+        <v>1.39</v>
       </c>
       <c r="W26" t="n">
-        <v>2.04</v>
+        <v>1.66</v>
       </c>
       <c r="X26" t="n">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="Y26" t="n">
-        <v>980</v>
+        <v>11</v>
       </c>
       <c r="Z26" t="n">
-        <v>130</v>
+        <v>24</v>
       </c>
       <c r="AA26" t="n">
-        <v>160</v>
+        <v>80</v>
       </c>
       <c r="AB26" t="n">
-        <v>13.5</v>
+        <v>8.6</v>
       </c>
       <c r="AC26" t="n">
-        <v>14</v>
+        <v>7.6</v>
       </c>
       <c r="AD26" t="n">
-        <v>980</v>
+        <v>15.5</v>
       </c>
       <c r="AE26" t="n">
-        <v>480</v>
+        <v>55</v>
       </c>
       <c r="AF26" t="n">
-        <v>19.5</v>
+        <v>14.5</v>
       </c>
       <c r="AG26" t="n">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="AH26" t="n">
-        <v>70</v>
+        <v>23</v>
       </c>
       <c r="AI26" t="n">
-        <v>380</v>
+        <v>240</v>
       </c>
       <c r="AJ26" t="n">
-        <v>900</v>
+        <v>34</v>
       </c>
       <c r="AK26" t="n">
-        <v>85</v>
+        <v>32</v>
       </c>
       <c r="AL26" t="n">
-        <v>130</v>
+        <v>55</v>
       </c>
       <c r="AM26" t="n">
         <v>580</v>
       </c>
       <c r="AN26" t="n">
-        <v>55</v>
+        <v>32</v>
       </c>
       <c r="AO26" t="n">
-        <v>300</v>
+        <v>65</v>
       </c>
     </row>
     <row r="27">
@@ -4042,13 +4042,13 @@
         </is>
       </c>
       <c r="F27" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="G27" t="n">
         <v>2.58</v>
       </c>
-      <c r="G27" t="n">
-        <v>2.64</v>
-      </c>
       <c r="H27" t="n">
-        <v>3.3</v>
+        <v>3.45</v>
       </c>
       <c r="I27" t="n">
         <v>3.5</v>
@@ -4057,97 +4057,97 @@
         <v>3.05</v>
       </c>
       <c r="K27" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="L27" t="n">
-        <v>1.65</v>
+        <v>1.69</v>
       </c>
       <c r="M27" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="N27" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="O27" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="P27" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="R27" t="n">
         <v>1.15</v>
       </c>
-      <c r="N27" t="n">
-        <v>2.48</v>
-      </c>
-      <c r="O27" t="n">
-        <v>1.64</v>
-      </c>
-      <c r="P27" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="Q27" t="n">
-        <v>2.96</v>
-      </c>
-      <c r="R27" t="n">
-        <v>1.16</v>
-      </c>
       <c r="S27" t="n">
-        <v>6.4</v>
+        <v>7</v>
       </c>
       <c r="T27" t="n">
-        <v>2.28</v>
+        <v>2.42</v>
       </c>
       <c r="U27" t="n">
-        <v>1.7</v>
+        <v>1.66</v>
       </c>
       <c r="V27" t="n">
         <v>1.4</v>
       </c>
       <c r="W27" t="n">
-        <v>1.6</v>
+        <v>1.63</v>
       </c>
       <c r="X27" t="n">
-        <v>8</v>
+        <v>7.4</v>
       </c>
       <c r="Y27" t="n">
-        <v>8.800000000000001</v>
+        <v>8.4</v>
       </c>
       <c r="Z27" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AA27" t="n">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="AB27" t="n">
-        <v>7.2</v>
+        <v>6.6</v>
       </c>
       <c r="AC27" t="n">
-        <v>7</v>
+        <v>7.6</v>
       </c>
       <c r="AD27" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AE27" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="AF27" t="n">
         <v>15</v>
       </c>
       <c r="AG27" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AH27" t="n">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="AI27" t="n">
-        <v>110</v>
+        <v>290</v>
       </c>
       <c r="AJ27" t="n">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="AK27" t="n">
-        <v>42</v>
+        <v>85</v>
       </c>
       <c r="AL27" t="n">
         <v>170</v>
       </c>
       <c r="AM27" t="n">
-        <v>230</v>
+        <v>250</v>
       </c>
       <c r="AN27" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AO27" t="n">
-        <v>85</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="28">
@@ -4177,7 +4177,7 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>3.85</v>
+        <v>3.7</v>
       </c>
       <c r="G28" t="n">
         <v>3.9</v>
@@ -4186,19 +4186,19 @@
         <v>2.32</v>
       </c>
       <c r="I28" t="n">
-        <v>2.34</v>
+        <v>2.42</v>
       </c>
       <c r="J28" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="K28" t="n">
         <v>3.25</v>
       </c>
       <c r="L28" t="n">
-        <v>1.63</v>
+        <v>1.64</v>
       </c>
       <c r="M28" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="N28" t="n">
         <v>2.58</v>
@@ -4207,7 +4207,7 @@
         <v>1.59</v>
       </c>
       <c r="P28" t="n">
-        <v>1.54</v>
+        <v>1.51</v>
       </c>
       <c r="Q28" t="n">
         <v>2.8</v>
@@ -4216,73 +4216,73 @@
         <v>1.17</v>
       </c>
       <c r="S28" t="n">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="T28" t="n">
         <v>2.24</v>
       </c>
       <c r="U28" t="n">
-        <v>1.73</v>
+        <v>1.74</v>
       </c>
       <c r="V28" t="n">
-        <v>1.74</v>
+        <v>1.71</v>
       </c>
       <c r="W28" t="n">
         <v>1.34</v>
       </c>
       <c r="X28" t="n">
-        <v>8.800000000000001</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="Y28" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="Z28" t="n">
+        <v>13</v>
+      </c>
+      <c r="AA28" t="n">
+        <v>34</v>
+      </c>
+      <c r="AB28" t="n">
+        <v>10</v>
+      </c>
+      <c r="AC28" t="n">
         <v>7.4</v>
       </c>
-      <c r="Z28" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AA28" t="n">
-        <v>75</v>
-      </c>
-      <c r="AB28" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AC28" t="n">
-        <v>7.6</v>
-      </c>
       <c r="AD28" t="n">
-        <v>14.5</v>
+        <v>12</v>
       </c>
       <c r="AE28" t="n">
-        <v>80</v>
+        <v>34</v>
       </c>
       <c r="AF28" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AG28" t="n">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="AH28" t="n">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="AI28" t="n">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="AJ28" t="n">
-        <v>900</v>
+        <v>95</v>
       </c>
       <c r="AK28" t="n">
-        <v>200</v>
+        <v>70</v>
       </c>
       <c r="AL28" t="n">
-        <v>400</v>
+        <v>95</v>
       </c>
       <c r="AM28" t="n">
-        <v>1000</v>
+        <v>230</v>
       </c>
       <c r="AN28" t="n">
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="AO28" t="n">
-        <v>980</v>
+        <v>36</v>
       </c>
     </row>
     <row r="29">
@@ -4312,19 +4312,19 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>3.35</v>
+        <v>3.2</v>
       </c>
       <c r="G29" t="n">
-        <v>3.55</v>
+        <v>3.4</v>
       </c>
       <c r="H29" t="n">
-        <v>2.6</v>
+        <v>2.68</v>
       </c>
       <c r="I29" t="n">
-        <v>2.72</v>
+        <v>2.8</v>
       </c>
       <c r="J29" t="n">
-        <v>2.94</v>
+        <v>2.92</v>
       </c>
       <c r="K29" t="n">
         <v>3.05</v>
@@ -4336,67 +4336,67 @@
         <v>1.15</v>
       </c>
       <c r="N29" t="n">
-        <v>2.5</v>
+        <v>2.52</v>
       </c>
       <c r="O29" t="n">
-        <v>1.63</v>
+        <v>1.62</v>
       </c>
       <c r="P29" t="n">
-        <v>1.47</v>
+        <v>1.49</v>
       </c>
       <c r="Q29" t="n">
-        <v>2.94</v>
+        <v>2.9</v>
       </c>
       <c r="R29" t="n">
-        <v>1.16</v>
+        <v>1.17</v>
       </c>
       <c r="S29" t="n">
         <v>6.2</v>
       </c>
       <c r="T29" t="n">
-        <v>2.28</v>
+        <v>2.22</v>
       </c>
       <c r="U29" t="n">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="V29" t="n">
-        <v>1.59</v>
+        <v>1.56</v>
       </c>
       <c r="W29" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="X29" t="n">
         <v>8</v>
       </c>
       <c r="Y29" t="n">
-        <v>7.4</v>
+        <v>7.8</v>
       </c>
       <c r="Z29" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AA29" t="n">
-        <v>65</v>
+        <v>100</v>
       </c>
       <c r="AB29" t="n">
-        <v>9</v>
+        <v>8.6</v>
       </c>
       <c r="AC29" t="n">
         <v>7</v>
       </c>
       <c r="AD29" t="n">
-        <v>16.5</v>
+        <v>14</v>
       </c>
       <c r="AE29" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="AF29" t="n">
         <v>21</v>
       </c>
       <c r="AG29" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AH29" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AI29" t="n">
         <v>190</v>
@@ -4405,19 +4405,19 @@
         <v>190</v>
       </c>
       <c r="AK29" t="n">
-        <v>140</v>
+        <v>60</v>
       </c>
       <c r="AL29" t="n">
         <v>100</v>
       </c>
       <c r="AM29" t="n">
-        <v>260</v>
+        <v>250</v>
       </c>
       <c r="AN29" t="n">
         <v>360</v>
       </c>
       <c r="AO29" t="n">
-        <v>140</v>
+        <v>130</v>
       </c>
     </row>
     <row r="30">
@@ -4447,22 +4447,22 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="G30" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="H30" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="I30" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="J30" t="n">
         <v>3.5</v>
       </c>
       <c r="K30" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="L30" t="n">
         <v>1.46</v>
@@ -4483,10 +4483,10 @@
         <v>2.14</v>
       </c>
       <c r="R30" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="S30" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="T30" t="n">
         <v>1.93</v>
@@ -4495,10 +4495,10 @@
         <v>1.94</v>
       </c>
       <c r="V30" t="n">
-        <v>1.96</v>
+        <v>1.94</v>
       </c>
       <c r="W30" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="X30" t="n">
         <v>12</v>
@@ -4507,7 +4507,7 @@
         <v>8</v>
       </c>
       <c r="Z30" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="AA30" t="n">
         <v>28</v>
@@ -4516,7 +4516,7 @@
         <v>14.5</v>
       </c>
       <c r="AC30" t="n">
-        <v>8.199999999999999</v>
+        <v>8</v>
       </c>
       <c r="AD30" t="n">
         <v>11</v>
@@ -4531,7 +4531,7 @@
         <v>34</v>
       </c>
       <c r="AH30" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="AI30" t="n">
         <v>48</v>
@@ -4549,7 +4549,7 @@
         <v>1000</v>
       </c>
       <c r="AN30" t="n">
-        <v>1000</v>
+        <v>90</v>
       </c>
       <c r="AO30" t="n">
         <v>46</v>
@@ -4582,16 +4582,16 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="G31" t="n">
-        <v>2.36</v>
+        <v>2.42</v>
       </c>
       <c r="H31" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="I31" t="n">
         <v>3.7</v>
-      </c>
-      <c r="I31" t="n">
-        <v>3.85</v>
       </c>
       <c r="J31" t="n">
         <v>3.25</v>
@@ -4606,40 +4606,40 @@
         <v>1.1</v>
       </c>
       <c r="N31" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="O31" t="n">
-        <v>1.46</v>
+        <v>1.45</v>
       </c>
       <c r="P31" t="n">
         <v>1.7</v>
       </c>
       <c r="Q31" t="n">
-        <v>2.38</v>
+        <v>2.34</v>
       </c>
       <c r="R31" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="S31" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="T31" t="n">
-        <v>1.99</v>
+        <v>1.97</v>
       </c>
       <c r="U31" t="n">
-        <v>1.92</v>
+        <v>1.97</v>
       </c>
       <c r="V31" t="n">
-        <v>1.35</v>
+        <v>1.37</v>
       </c>
       <c r="W31" t="n">
-        <v>1.74</v>
+        <v>1.7</v>
       </c>
       <c r="X31" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="Y31" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="Z31" t="n">
         <v>24</v>
@@ -4648,7 +4648,7 @@
         <v>75</v>
       </c>
       <c r="AB31" t="n">
-        <v>8.199999999999999</v>
+        <v>8.4</v>
       </c>
       <c r="AC31" t="n">
         <v>7.2</v>
@@ -4666,7 +4666,7 @@
         <v>11.5</v>
       </c>
       <c r="AH31" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AI31" t="n">
         <v>70</v>
@@ -4675,7 +4675,7 @@
         <v>32</v>
       </c>
       <c r="AK31" t="n">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="AL31" t="n">
         <v>55</v>
@@ -4684,7 +4684,7 @@
         <v>140</v>
       </c>
       <c r="AN31" t="n">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="AO31" t="n">
         <v>65</v>
@@ -4717,25 +4717,25 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>2.14</v>
+        <v>2.24</v>
       </c>
       <c r="G32" t="n">
-        <v>2.76</v>
+        <v>2.8</v>
       </c>
       <c r="H32" t="n">
         <v>3.3</v>
       </c>
       <c r="I32" t="n">
-        <v>4.9</v>
+        <v>5.2</v>
       </c>
       <c r="J32" t="n">
-        <v>2.36</v>
+        <v>2.64</v>
       </c>
       <c r="K32" t="n">
-        <v>950</v>
+        <v>3.95</v>
       </c>
       <c r="L32" t="n">
-        <v>1.45</v>
+        <v>1.46</v>
       </c>
       <c r="M32" t="n">
         <v>1.08</v>
@@ -4744,7 +4744,7 @@
         <v>2.24</v>
       </c>
       <c r="O32" t="n">
-        <v>1.32</v>
+        <v>1.34</v>
       </c>
       <c r="P32" t="n">
         <v>1.59</v>
@@ -4765,10 +4765,10 @@
         <v>1.04</v>
       </c>
       <c r="V32" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="W32" t="n">
-        <v>1.56</v>
+        <v>1.55</v>
       </c>
       <c r="X32" t="n">
         <v>1000</v>
@@ -4786,7 +4786,7 @@
         <v>1000</v>
       </c>
       <c r="AC32" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AD32" t="n">
         <v>1000</v>
@@ -4852,7 +4852,7 @@
         </is>
       </c>
       <c r="F33" t="n">
-        <v>2.78</v>
+        <v>2.76</v>
       </c>
       <c r="G33" t="n">
         <v>2.84</v>
@@ -4861,13 +4861,13 @@
         <v>3.25</v>
       </c>
       <c r="I33" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="J33" t="n">
         <v>2.92</v>
       </c>
       <c r="K33" t="n">
-        <v>2.94</v>
+        <v>3</v>
       </c>
       <c r="L33" t="n">
         <v>1.65</v>
@@ -4885,16 +4885,16 @@
         <v>1.47</v>
       </c>
       <c r="Q33" t="n">
-        <v>2.96</v>
+        <v>2.94</v>
       </c>
       <c r="R33" t="n">
         <v>1.16</v>
       </c>
       <c r="S33" t="n">
-        <v>6.4</v>
+        <v>6.2</v>
       </c>
       <c r="T33" t="n">
-        <v>2.26</v>
+        <v>2.24</v>
       </c>
       <c r="U33" t="n">
         <v>1.7</v>
@@ -4903,7 +4903,7 @@
         <v>1.42</v>
       </c>
       <c r="W33" t="n">
-        <v>1.55</v>
+        <v>1.54</v>
       </c>
       <c r="X33" t="n">
         <v>7.6</v>
@@ -4918,7 +4918,7 @@
         <v>70</v>
       </c>
       <c r="AB33" t="n">
-        <v>7.4</v>
+        <v>7.6</v>
       </c>
       <c r="AC33" t="n">
         <v>7</v>
@@ -4939,16 +4939,16 @@
         <v>27</v>
       </c>
       <c r="AI33" t="n">
-        <v>95</v>
+        <v>240</v>
       </c>
       <c r="AJ33" t="n">
         <v>50</v>
       </c>
       <c r="AK33" t="n">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="AL33" t="n">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AM33" t="n">
         <v>230</v>
@@ -4957,7 +4957,7 @@
         <v>60</v>
       </c>
       <c r="AO33" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
     </row>
     <row r="34">
@@ -4987,112 +4987,112 @@
         </is>
       </c>
       <c r="F34" t="n">
-        <v>2.64</v>
+        <v>2.54</v>
       </c>
       <c r="G34" t="n">
-        <v>2.66</v>
+        <v>2.58</v>
       </c>
       <c r="H34" t="n">
-        <v>3.5</v>
+        <v>3.7</v>
       </c>
       <c r="I34" t="n">
-        <v>3.6</v>
+        <v>3.85</v>
       </c>
       <c r="J34" t="n">
         <v>2.9</v>
       </c>
       <c r="K34" t="n">
-        <v>2.98</v>
+        <v>2.94</v>
       </c>
       <c r="L34" t="n">
-        <v>1.65</v>
+        <v>1.66</v>
       </c>
       <c r="M34" t="n">
-        <v>1.15</v>
+        <v>1.16</v>
       </c>
       <c r="N34" t="n">
-        <v>2.48</v>
+        <v>2.52</v>
       </c>
       <c r="O34" t="n">
-        <v>1.62</v>
+        <v>1.61</v>
       </c>
       <c r="P34" t="n">
-        <v>1.47</v>
+        <v>1.48</v>
       </c>
       <c r="Q34" t="n">
-        <v>2.96</v>
+        <v>2.88</v>
       </c>
       <c r="R34" t="n">
-        <v>1.16</v>
+        <v>1.17</v>
       </c>
       <c r="S34" t="n">
-        <v>6.4</v>
+        <v>6.2</v>
       </c>
       <c r="T34" t="n">
-        <v>2.24</v>
+        <v>2.22</v>
       </c>
       <c r="U34" t="n">
-        <v>1.67</v>
+        <v>1.72</v>
       </c>
       <c r="V34" t="n">
-        <v>1.39</v>
+        <v>1.35</v>
       </c>
       <c r="W34" t="n">
-        <v>1.6</v>
+        <v>1.63</v>
       </c>
       <c r="X34" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="Y34" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="Z34" t="n">
+        <v>27</v>
+      </c>
+      <c r="AA34" t="n">
+        <v>180</v>
+      </c>
+      <c r="AB34" t="n">
         <v>7.4</v>
-      </c>
-      <c r="Y34" t="n">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="Z34" t="n">
-        <v>21</v>
-      </c>
-      <c r="AA34" t="n">
-        <v>75</v>
-      </c>
-      <c r="AB34" t="n">
-        <v>7.8</v>
       </c>
       <c r="AC34" t="n">
         <v>6.8</v>
       </c>
       <c r="AD34" t="n">
-        <v>16.5</v>
+        <v>17.5</v>
       </c>
       <c r="AE34" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AF34" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AG34" t="n">
         <v>13.5</v>
       </c>
       <c r="AH34" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="AI34" t="n">
-        <v>980</v>
+        <v>100</v>
       </c>
       <c r="AJ34" t="n">
-        <v>46</v>
+        <v>80</v>
       </c>
       <c r="AK34" t="n">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="AL34" t="n">
-        <v>80</v>
+        <v>180</v>
       </c>
       <c r="AM34" t="n">
         <v>230</v>
       </c>
       <c r="AN34" t="n">
-        <v>980</v>
+        <v>46</v>
       </c>
       <c r="AO34" t="n">
-        <v>90</v>
+        <v>300</v>
       </c>
     </row>
     <row r="35">
@@ -5122,22 +5122,22 @@
         </is>
       </c>
       <c r="F35" t="n">
-        <v>1.79</v>
+        <v>1.81</v>
       </c>
       <c r="G35" t="n">
-        <v>1.82</v>
+        <v>1.84</v>
       </c>
       <c r="H35" t="n">
         <v>6.2</v>
       </c>
       <c r="I35" t="n">
-        <v>7</v>
+        <v>6.6</v>
       </c>
       <c r="J35" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="K35" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="L35" t="n">
         <v>1.6</v>
@@ -5146,85 +5146,85 @@
         <v>1.13</v>
       </c>
       <c r="N35" t="n">
-        <v>2.68</v>
+        <v>2.66</v>
       </c>
       <c r="O35" t="n">
-        <v>1.57</v>
+        <v>1.56</v>
       </c>
       <c r="P35" t="n">
-        <v>1.54</v>
+        <v>1.55</v>
       </c>
       <c r="Q35" t="n">
-        <v>2.74</v>
+        <v>2.7</v>
       </c>
       <c r="R35" t="n">
-        <v>1.19</v>
+        <v>1.2</v>
       </c>
       <c r="S35" t="n">
         <v>5.7</v>
       </c>
       <c r="T35" t="n">
-        <v>2.38</v>
+        <v>2.36</v>
       </c>
       <c r="U35" t="n">
-        <v>1.64</v>
+        <v>1.66</v>
       </c>
       <c r="V35" t="n">
         <v>1.17</v>
       </c>
       <c r="W35" t="n">
-        <v>2.2</v>
+        <v>2.18</v>
       </c>
       <c r="X35" t="n">
-        <v>8.4</v>
+        <v>8.6</v>
       </c>
       <c r="Y35" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="Z35" t="n">
-        <v>190</v>
+        <v>130</v>
       </c>
       <c r="AA35" t="n">
         <v>280</v>
       </c>
       <c r="AB35" t="n">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="AC35" t="n">
-        <v>7.8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD35" t="n">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="AE35" t="n">
         <v>1000</v>
       </c>
       <c r="AF35" t="n">
-        <v>9</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AG35" t="n">
         <v>11.5</v>
       </c>
       <c r="AH35" t="n">
-        <v>980</v>
+        <v>26</v>
       </c>
       <c r="AI35" t="n">
         <v>180</v>
       </c>
       <c r="AJ35" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AK35" t="n">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="AL35" t="n">
-        <v>1000</v>
+        <v>170</v>
       </c>
       <c r="AM35" t="n">
         <v>300</v>
       </c>
       <c r="AN35" t="n">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="AO35" t="n">
         <v>350</v>
@@ -5257,16 +5257,16 @@
         </is>
       </c>
       <c r="F36" t="n">
-        <v>3.9</v>
+        <v>3.75</v>
       </c>
       <c r="G36" t="n">
-        <v>4.2</v>
+        <v>3.95</v>
       </c>
       <c r="H36" t="n">
-        <v>2.22</v>
+        <v>2.28</v>
       </c>
       <c r="I36" t="n">
-        <v>2.28</v>
+        <v>2.34</v>
       </c>
       <c r="J36" t="n">
         <v>3.25</v>
@@ -5281,46 +5281,46 @@
         <v>1.11</v>
       </c>
       <c r="N36" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="O36" t="n">
-        <v>1.47</v>
+        <v>1.46</v>
       </c>
       <c r="P36" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="Q36" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="R36" t="n">
         <v>1.24</v>
       </c>
       <c r="S36" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="T36" t="n">
-        <v>2.02</v>
+        <v>1.99</v>
       </c>
       <c r="U36" t="n">
-        <v>1.84</v>
+        <v>1.87</v>
       </c>
       <c r="V36" t="n">
-        <v>1.78</v>
+        <v>1.75</v>
       </c>
       <c r="W36" t="n">
-        <v>1.32</v>
+        <v>1.34</v>
       </c>
       <c r="X36" t="n">
         <v>9.800000000000001</v>
       </c>
       <c r="Y36" t="n">
-        <v>8</v>
+        <v>8.4</v>
       </c>
       <c r="Z36" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AA36" t="n">
-        <v>29</v>
+        <v>80</v>
       </c>
       <c r="AB36" t="n">
         <v>12</v>
@@ -5332,13 +5332,13 @@
         <v>11.5</v>
       </c>
       <c r="AE36" t="n">
-        <v>28</v>
+        <v>65</v>
       </c>
       <c r="AF36" t="n">
         <v>27</v>
       </c>
       <c r="AG36" t="n">
-        <v>17.5</v>
+        <v>16.5</v>
       </c>
       <c r="AH36" t="n">
         <v>23</v>
@@ -5350,19 +5350,19 @@
         <v>90</v>
       </c>
       <c r="AK36" t="n">
-        <v>570</v>
+        <v>150</v>
       </c>
       <c r="AL36" t="n">
-        <v>400</v>
+        <v>75</v>
       </c>
       <c r="AM36" t="n">
         <v>170</v>
       </c>
       <c r="AN36" t="n">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="AO36" t="n">
-        <v>26</v>
+        <v>980</v>
       </c>
     </row>
     <row r="37">
@@ -5395,19 +5395,19 @@
         <v>2.2</v>
       </c>
       <c r="G37" t="n">
-        <v>2.4</v>
+        <v>2.36</v>
       </c>
       <c r="H37" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="I37" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="J37" t="n">
         <v>3.25</v>
       </c>
       <c r="K37" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="L37" t="n">
         <v>1.49</v>
@@ -5422,28 +5422,28 @@
         <v>1.41</v>
       </c>
       <c r="P37" t="n">
-        <v>1.68</v>
+        <v>1.7</v>
       </c>
       <c r="Q37" t="n">
-        <v>2.26</v>
+        <v>2.24</v>
       </c>
       <c r="R37" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="S37" t="n">
         <v>4.2</v>
       </c>
       <c r="T37" t="n">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="U37" t="n">
-        <v>1.9</v>
+        <v>1.92</v>
       </c>
       <c r="V37" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="W37" t="n">
-        <v>1.72</v>
+        <v>1.78</v>
       </c>
       <c r="X37" t="n">
         <v>11.5</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-11-16.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-11-16.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO37"/>
+  <dimension ref="A1:AO30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -643,7 +643,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Slovakian 2 Liga</t>
+          <t>Italian Serie C</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -653,36 +653,36 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>06:30:00</t>
+          <t>10:30:00</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>FC Petrzalka</t>
+          <t>Potenza</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Slovan Bratislava II</t>
+          <t>Trapani</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.01</v>
+        <v>1.15</v>
       </c>
       <c r="G2" t="n">
-        <v>1.02</v>
+        <v>1.2</v>
       </c>
       <c r="H2" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
       <c r="I2" t="n">
         <v>1000</v>
       </c>
       <c r="J2" t="n">
-        <v>50</v>
+        <v>6</v>
       </c>
       <c r="K2" t="n">
-        <v>1000</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -691,28 +691,28 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>1.01</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>1.01</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>1.01</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R2" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="S2" t="n">
         <v>1.08</v>
       </c>
-      <c r="R2" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="S2" t="n">
-        <v>1.01</v>
-      </c>
       <c r="T2" t="n">
-        <v>1.7</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>1.01</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>1.01</v>
@@ -748,7 +748,7 @@
         <v>1000</v>
       </c>
       <c r="AG2" t="n">
-        <v>1000</v>
+        <v>1.21</v>
       </c>
       <c r="AH2" t="n">
         <v>1000</v>
@@ -778,7 +778,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Slovakian 2 Liga</t>
+          <t>Italian Serie C</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -788,36 +788,36 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>07:00:00</t>
+          <t>10:30:00</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Slavia TU Kosice</t>
+          <t>Albinoleffe</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Samorin</t>
+          <t>SS Virtus Verona 1921</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.19</v>
+        <v>1.01</v>
       </c>
       <c r="G3" t="n">
-        <v>1.21</v>
+        <v>1.01</v>
       </c>
       <c r="H3" t="n">
-        <v>32</v>
+        <v>100</v>
       </c>
       <c r="I3" t="n">
-        <v>48</v>
+        <v>1000</v>
       </c>
       <c r="J3" t="n">
-        <v>7</v>
+        <v>200</v>
       </c>
       <c r="K3" t="n">
-        <v>7.8</v>
+        <v>1000</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -838,10 +838,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>3.45</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>1.36</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -850,10 +850,10 @@
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="W3" t="n">
-        <v>5.8</v>
+        <v>160</v>
       </c>
       <c r="X3" t="n">
         <v>1000</v>
@@ -883,37 +883,37 @@
         <v>1000</v>
       </c>
       <c r="AG3" t="n">
-        <v>4.2</v>
+        <v>1000</v>
       </c>
       <c r="AH3" t="n">
-        <v>9.4</v>
+        <v>1000</v>
       </c>
       <c r="AI3" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AJ3" t="n">
         <v>1000</v>
       </c>
       <c r="AK3" t="n">
-        <v>4.7</v>
+        <v>1.27</v>
       </c>
       <c r="AL3" t="n">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="AM3" t="n">
-        <v>75</v>
+        <v>1000</v>
       </c>
       <c r="AN3" t="n">
-        <v>5.2</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AO3" t="n">
-        <v>240</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Portuguese Segunda Liga</t>
+          <t>Italian Serie C</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -923,126 +923,126 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>08:00:00</t>
+          <t>10:30:00</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Felgueiras</t>
+          <t>ASD Alcione</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Farense</t>
+          <t>Novara</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>2.72</v>
+        <v>300</v>
       </c>
       <c r="G4" t="n">
-        <v>2.8</v>
+        <v>1000</v>
       </c>
       <c r="H4" t="n">
-        <v>3.05</v>
+        <v>1.06</v>
       </c>
       <c r="I4" t="n">
-        <v>3.2</v>
+        <v>1.07</v>
       </c>
       <c r="J4" t="n">
-        <v>3.1</v>
+        <v>10.5</v>
       </c>
       <c r="K4" t="n">
-        <v>3.2</v>
+        <v>36</v>
       </c>
       <c r="L4" t="n">
-        <v>1.92</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>1.13</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>2.66</v>
+        <v>1.11</v>
       </c>
       <c r="O4" t="n">
-        <v>1.58</v>
+        <v>7.2</v>
       </c>
       <c r="P4" t="n">
-        <v>1.52</v>
+        <v>1.01</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.84</v>
+        <v>130</v>
       </c>
       <c r="R4" t="n">
-        <v>1.19</v>
+        <v>1.01</v>
       </c>
       <c r="S4" t="n">
-        <v>6.2</v>
+        <v>130</v>
       </c>
       <c r="T4" t="n">
-        <v>2.08</v>
+        <v>1.7</v>
       </c>
       <c r="U4" t="n">
-        <v>1.79</v>
+        <v>1.01</v>
       </c>
       <c r="V4" t="n">
-        <v>1.46</v>
+        <v>8</v>
       </c>
       <c r="W4" t="n">
-        <v>1.54</v>
+        <v>1.01</v>
       </c>
       <c r="X4" t="n">
-        <v>8.6</v>
+        <v>1000</v>
       </c>
       <c r="Y4" t="n">
-        <v>9</v>
+        <v>1.15</v>
       </c>
       <c r="Z4" t="n">
-        <v>19</v>
+        <v>550</v>
       </c>
       <c r="AA4" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="AB4" t="n">
-        <v>8.199999999999999</v>
+        <v>1000</v>
       </c>
       <c r="AC4" t="n">
-        <v>7</v>
+        <v>1000</v>
       </c>
       <c r="AD4" t="n">
-        <v>15</v>
+        <v>1000</v>
       </c>
       <c r="AE4" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AF4" t="n">
-        <v>17</v>
+        <v>1000</v>
       </c>
       <c r="AG4" t="n">
-        <v>14</v>
+        <v>1000</v>
       </c>
       <c r="AH4" t="n">
-        <v>25</v>
+        <v>1000</v>
       </c>
       <c r="AI4" t="n">
-        <v>110</v>
+        <v>1000</v>
       </c>
       <c r="AJ4" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AK4" t="n">
-        <v>44</v>
+        <v>1000</v>
       </c>
       <c r="AL4" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AM4" t="n">
-        <v>220</v>
+        <v>1000</v>
       </c>
       <c r="AN4" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AO4" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="5">
@@ -1058,123 +1058,123 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>08:30:00</t>
+          <t>10:30:00</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Benevento</t>
+          <t>Livorno</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Monopoli</t>
+          <t>Ravenna</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1.45</v>
+        <v>11.5</v>
       </c>
       <c r="G5" t="n">
-        <v>1.47</v>
+        <v>16</v>
       </c>
       <c r="H5" t="n">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="I5" t="n">
-        <v>13.5</v>
+        <v>5.7</v>
       </c>
       <c r="J5" t="n">
-        <v>4</v>
+        <v>1.37</v>
       </c>
       <c r="K5" t="n">
-        <v>4.2</v>
+        <v>1.38</v>
       </c>
       <c r="L5" t="n">
-        <v>1.48</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>1.09</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>3.25</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>1.41</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>1.76</v>
+        <v>1.34</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.24</v>
+        <v>3.3</v>
       </c>
       <c r="R5" t="n">
-        <v>1.27</v>
+        <v>1.01</v>
       </c>
       <c r="S5" t="n">
-        <v>4.3</v>
+        <v>46</v>
       </c>
       <c r="T5" t="n">
-        <v>2.42</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>1.56</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="W5" t="n">
         <v>1.08</v>
       </c>
-      <c r="W5" t="n">
-        <v>3.1</v>
-      </c>
       <c r="X5" t="n">
-        <v>12</v>
+        <v>1000</v>
       </c>
       <c r="Y5" t="n">
-        <v>28</v>
+        <v>1000</v>
       </c>
       <c r="Z5" t="n">
-        <v>140</v>
+        <v>1000</v>
       </c>
       <c r="AA5" t="n">
         <v>1000</v>
       </c>
       <c r="AB5" t="n">
-        <v>6.2</v>
+        <v>1000</v>
       </c>
       <c r="AC5" t="n">
-        <v>9.800000000000001</v>
+        <v>1.39</v>
       </c>
       <c r="AD5" t="n">
-        <v>48</v>
+        <v>6.6</v>
       </c>
       <c r="AE5" t="n">
-        <v>590</v>
+        <v>150</v>
       </c>
       <c r="AF5" t="n">
-        <v>7</v>
+        <v>1000</v>
       </c>
       <c r="AG5" t="n">
-        <v>10.5</v>
+        <v>16</v>
       </c>
       <c r="AH5" t="n">
-        <v>40</v>
+        <v>130</v>
       </c>
       <c r="AI5" t="n">
-        <v>270</v>
+        <v>1000</v>
       </c>
       <c r="AJ5" t="n">
-        <v>11.5</v>
+        <v>1000</v>
       </c>
       <c r="AK5" t="n">
-        <v>18</v>
+        <v>1000</v>
       </c>
       <c r="AL5" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AM5" t="n">
-        <v>310</v>
+        <v>1000</v>
       </c>
       <c r="AN5" t="n">
-        <v>9.6</v>
+        <v>1000</v>
       </c>
       <c r="AO5" t="n">
         <v>1000</v>
@@ -1193,108 +1193,108 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>08:30:00</t>
+          <t>10:30:00</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>AC Ospitaletto</t>
+          <t>FC Giugliano</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Union Brescia</t>
+          <t>Audace Cerignola</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>6.6</v>
+        <v>310</v>
       </c>
       <c r="G6" t="n">
-        <v>7.6</v>
+        <v>1000</v>
       </c>
       <c r="H6" t="n">
-        <v>1.7</v>
+        <v>1.03</v>
       </c>
       <c r="I6" t="n">
-        <v>1.77</v>
+        <v>1.04</v>
       </c>
       <c r="J6" t="n">
-        <v>3.5</v>
+        <v>12</v>
       </c>
       <c r="K6" t="n">
-        <v>3.6</v>
+        <v>1000</v>
       </c>
       <c r="L6" t="n">
-        <v>1.53</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>1.1</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>2.94</v>
+        <v>1.05</v>
       </c>
       <c r="O6" t="n">
-        <v>1.46</v>
+        <v>10.5</v>
       </c>
       <c r="P6" t="n">
-        <v>1.65</v>
+        <v>1.01</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.36</v>
+        <v>100</v>
       </c>
       <c r="R6" t="n">
-        <v>1.25</v>
+        <v>1.01</v>
       </c>
       <c r="S6" t="n">
-        <v>4.8</v>
+        <v>100</v>
       </c>
       <c r="T6" t="n">
-        <v>2.26</v>
+        <v>2.02</v>
       </c>
       <c r="U6" t="n">
-        <v>1.7</v>
+        <v>1.01</v>
       </c>
       <c r="V6" t="n">
-        <v>2.3</v>
+        <v>1.01</v>
       </c>
       <c r="W6" t="n">
-        <v>1.15</v>
+        <v>1.01</v>
       </c>
       <c r="X6" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="Y6" t="n">
-        <v>8.800000000000001</v>
+        <v>1.14</v>
       </c>
       <c r="Z6" t="n">
-        <v>9</v>
+        <v>1000</v>
       </c>
       <c r="AA6" t="n">
-        <v>17.5</v>
+        <v>1000</v>
       </c>
       <c r="AB6" t="n">
         <v>1000</v>
       </c>
       <c r="AC6" t="n">
-        <v>8.6</v>
+        <v>1000</v>
       </c>
       <c r="AD6" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="AE6" t="n">
-        <v>23</v>
+        <v>1000</v>
       </c>
       <c r="AF6" t="n">
-        <v>170</v>
+        <v>1000</v>
       </c>
       <c r="AG6" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AH6" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AI6" t="n">
-        <v>130</v>
+        <v>1000</v>
       </c>
       <c r="AJ6" t="n">
         <v>1000</v>
@@ -1312,13 +1312,13 @@
         <v>1000</v>
       </c>
       <c r="AO6" t="n">
-        <v>27</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Danish 2nd Division</t>
+          <t>Spanish Segunda Division</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1328,126 +1328,126 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>09:00:00</t>
+          <t>12:15:00</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Naestved</t>
+          <t>Almeria</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>VSK Aarhus FC</t>
+          <t>Cadiz</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1.71</v>
+        <v>1.79</v>
       </c>
       <c r="G7" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="H7" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="I7" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="J7" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="K7" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="L7" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="M7" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="N7" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="O7" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="P7" t="n">
         <v>1.8</v>
       </c>
-      <c r="H7" t="n">
-        <v>5</v>
-      </c>
-      <c r="I7" t="n">
-        <v>5.9</v>
-      </c>
-      <c r="J7" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="K7" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="L7" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="M7" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N7" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="O7" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="P7" t="n">
-        <v>2.12</v>
-      </c>
       <c r="Q7" t="n">
-        <v>1.76</v>
+        <v>2.2</v>
       </c>
       <c r="R7" t="n">
-        <v>1.46</v>
+        <v>1.31</v>
       </c>
       <c r="S7" t="n">
-        <v>2.96</v>
+        <v>4.1</v>
       </c>
       <c r="T7" t="n">
-        <v>1.72</v>
+        <v>2.06</v>
       </c>
       <c r="U7" t="n">
-        <v>2.1</v>
+        <v>1.9</v>
       </c>
       <c r="V7" t="n">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="W7" t="n">
         <v>2.22</v>
       </c>
       <c r="X7" t="n">
-        <v>23</v>
+        <v>12.5</v>
       </c>
       <c r="Y7" t="n">
-        <v>80</v>
+        <v>17.5</v>
       </c>
       <c r="Z7" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AA7" t="n">
-        <v>1000</v>
+        <v>170</v>
       </c>
       <c r="AB7" t="n">
-        <v>14.5</v>
+        <v>7.6</v>
       </c>
       <c r="AC7" t="n">
-        <v>28</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD7" t="n">
-        <v>85</v>
+        <v>22</v>
       </c>
       <c r="AE7" t="n">
-        <v>230</v>
+        <v>100</v>
       </c>
       <c r="AF7" t="n">
-        <v>11.5</v>
+        <v>9.6</v>
       </c>
       <c r="AG7" t="n">
-        <v>9</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AH7" t="n">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="AI7" t="n">
-        <v>230</v>
+        <v>95</v>
       </c>
       <c r="AJ7" t="n">
-        <v>180</v>
+        <v>17.5</v>
       </c>
       <c r="AK7" t="n">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="AL7" t="n">
-        <v>1000</v>
+        <v>46</v>
       </c>
       <c r="AM7" t="n">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="AN7" t="n">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="AO7" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
     </row>
     <row r="8">
@@ -1463,36 +1463,36 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>10:00:00</t>
+          <t>12:15:00</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>AD Ceuta FC</t>
+          <t>Sporting Gijon</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Leganes</t>
+          <t>Eibar</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>2.54</v>
+        <v>5.1</v>
       </c>
       <c r="G8" t="n">
-        <v>2.6</v>
+        <v>5.3</v>
       </c>
       <c r="H8" t="n">
-        <v>3.55</v>
+        <v>1.86</v>
       </c>
       <c r="I8" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="J8" t="n">
         <v>3.65</v>
       </c>
-      <c r="J8" t="n">
-        <v>3</v>
-      </c>
       <c r="K8" t="n">
-        <v>3.05</v>
+        <v>3.7</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -1501,88 +1501,88 @@
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>7.8</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>1.13</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>2.62</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>1.51</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>2.88</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>1.37</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>3.45</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>2.12</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>1.23</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="Z8" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AA8" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="AB8" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC8" t="n">
-        <v>0</v>
+        <v>6.2</v>
       </c>
       <c r="AD8" t="n">
-        <v>0</v>
+        <v>7.6</v>
       </c>
       <c r="AE8" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AF8" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG8" t="n">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="AH8" t="n">
-        <v>0</v>
+        <v>11.5</v>
       </c>
       <c r="AI8" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AJ8" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK8" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="AL8" t="n">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="AM8" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="AN8" t="n">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="AO8" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9">
@@ -1598,126 +1598,126 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>10:30:00</t>
+          <t>13:30:00</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Potenza</t>
+          <t>Lecco</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Trapani</t>
+          <t>Aurora Pro Patria 1919</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>2.52</v>
+        <v>1.83</v>
       </c>
       <c r="G9" t="n">
-        <v>2.72</v>
+        <v>1.89</v>
       </c>
       <c r="H9" t="n">
-        <v>3.15</v>
+        <v>5.4</v>
       </c>
       <c r="I9" t="n">
+        <v>6</v>
+      </c>
+      <c r="J9" t="n">
         <v>3.45</v>
       </c>
-      <c r="J9" t="n">
-        <v>3</v>
-      </c>
       <c r="K9" t="n">
-        <v>3.35</v>
+        <v>3.6</v>
       </c>
       <c r="L9" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="M9" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="N9" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="O9" t="n">
         <v>1.47</v>
       </c>
-      <c r="M9" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="N9" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="O9" t="n">
-        <v>1.4</v>
-      </c>
       <c r="P9" t="n">
-        <v>1.75</v>
+        <v>1.6</v>
       </c>
       <c r="Q9" t="n">
-        <v>2.16</v>
+        <v>2.42</v>
       </c>
       <c r="R9" t="n">
-        <v>1.28</v>
+        <v>1.22</v>
       </c>
       <c r="S9" t="n">
-        <v>4</v>
+        <v>4.9</v>
       </c>
       <c r="T9" t="n">
-        <v>1.8</v>
+        <v>2.14</v>
       </c>
       <c r="U9" t="n">
-        <v>2.06</v>
+        <v>1.73</v>
       </c>
       <c r="V9" t="n">
-        <v>1.41</v>
+        <v>1.2</v>
       </c>
       <c r="W9" t="n">
-        <v>1.59</v>
+        <v>2.12</v>
       </c>
       <c r="X9" t="n">
-        <v>22</v>
+        <v>9.6</v>
       </c>
       <c r="Y9" t="n">
-        <v>22</v>
+        <v>15.5</v>
       </c>
       <c r="Z9" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AA9" t="n">
-        <v>150</v>
+        <v>190</v>
       </c>
       <c r="AB9" t="n">
-        <v>18</v>
+        <v>6.6</v>
       </c>
       <c r="AC9" t="n">
-        <v>13</v>
+        <v>7.8</v>
       </c>
       <c r="AD9" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AE9" t="n">
         <v>110</v>
       </c>
       <c r="AF9" t="n">
-        <v>32</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AG9" t="n">
-        <v>20</v>
+        <v>9.6</v>
       </c>
       <c r="AH9" t="n">
         <v>42</v>
       </c>
       <c r="AI9" t="n">
+        <v>130</v>
+      </c>
+      <c r="AJ9" t="n">
+        <v>22</v>
+      </c>
+      <c r="AK9" t="n">
+        <v>24</v>
+      </c>
+      <c r="AL9" t="n">
+        <v>55</v>
+      </c>
+      <c r="AM9" t="n">
+        <v>210</v>
+      </c>
+      <c r="AN9" t="n">
+        <v>22</v>
+      </c>
+      <c r="AO9" t="n">
         <v>160</v>
-      </c>
-      <c r="AJ9" t="n">
-        <v>120</v>
-      </c>
-      <c r="AK9" t="n">
-        <v>85</v>
-      </c>
-      <c r="AL9" t="n">
-        <v>150</v>
-      </c>
-      <c r="AM9" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN9" t="n">
-        <v>600</v>
-      </c>
-      <c r="AO9" t="n">
-        <v>1000</v>
       </c>
     </row>
     <row r="10">
@@ -1733,126 +1733,126 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>10:30:00</t>
+          <t>13:30:00</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Albinoleffe</t>
+          <t>Pontedera</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>SS Virtus Verona 1921</t>
+          <t>US Pianese</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>2.12</v>
+        <v>2.78</v>
       </c>
       <c r="G10" t="n">
-        <v>2.32</v>
+        <v>3.1</v>
       </c>
       <c r="H10" t="n">
-        <v>3.7</v>
+        <v>2.84</v>
       </c>
       <c r="I10" t="n">
-        <v>4.3</v>
+        <v>3.05</v>
       </c>
       <c r="J10" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="K10" t="n">
-        <v>3.8</v>
+        <v>3.3</v>
       </c>
       <c r="L10" t="n">
-        <v>1.43</v>
+        <v>1.51</v>
       </c>
       <c r="M10" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="N10" t="n">
-        <v>3.45</v>
+        <v>3.05</v>
       </c>
       <c r="O10" t="n">
-        <v>1.37</v>
+        <v>1.42</v>
       </c>
       <c r="P10" t="n">
-        <v>1.92</v>
+        <v>1.66</v>
       </c>
       <c r="Q10" t="n">
-        <v>2.06</v>
+        <v>2.28</v>
       </c>
       <c r="R10" t="n">
-        <v>1.31</v>
+        <v>1.26</v>
       </c>
       <c r="S10" t="n">
-        <v>3.7</v>
+        <v>4.4</v>
       </c>
       <c r="T10" t="n">
-        <v>1.8</v>
+        <v>1.89</v>
       </c>
       <c r="U10" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V10" t="n">
-        <v>1.32</v>
+        <v>1.48</v>
       </c>
       <c r="W10" t="n">
-        <v>1.76</v>
+        <v>1.48</v>
       </c>
       <c r="X10" t="n">
-        <v>13.5</v>
+        <v>11</v>
       </c>
       <c r="Y10" t="n">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="Z10" t="n">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="AA10" t="n">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="AB10" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AC10" t="n">
-        <v>9.199999999999999</v>
+        <v>8.4</v>
       </c>
       <c r="AD10" t="n">
-        <v>19.5</v>
+        <v>15</v>
       </c>
       <c r="AE10" t="n">
-        <v>160</v>
+        <v>46</v>
       </c>
       <c r="AF10" t="n">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="AG10" t="n">
-        <v>13</v>
+        <v>15.5</v>
       </c>
       <c r="AH10" t="n">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="AI10" t="n">
         <v>160</v>
       </c>
       <c r="AJ10" t="n">
-        <v>34</v>
+        <v>150</v>
       </c>
       <c r="AK10" t="n">
-        <v>29</v>
+        <v>110</v>
       </c>
       <c r="AL10" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AM10" t="n">
         <v>1000</v>
       </c>
       <c r="AN10" t="n">
-        <v>21</v>
+        <v>600</v>
       </c>
       <c r="AO10" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
     </row>
     <row r="11">
@@ -1868,126 +1868,126 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>10:30:00</t>
+          <t>13:30:00</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Livorno</t>
+          <t>Casertana</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Ravenna</t>
+          <t>Atalanta B</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>3.7</v>
+        <v>1.09</v>
       </c>
       <c r="G11" t="n">
-        <v>4.3</v>
+        <v>1000</v>
       </c>
       <c r="H11" t="n">
-        <v>2.2</v>
+        <v>1.16</v>
       </c>
       <c r="I11" t="n">
-        <v>2.44</v>
+        <v>1000</v>
       </c>
       <c r="J11" t="n">
-        <v>3</v>
+        <v>3.9</v>
       </c>
       <c r="K11" t="n">
-        <v>3.35</v>
+        <v>1000</v>
       </c>
       <c r="L11" t="n">
-        <v>1.53</v>
+        <v>1.34</v>
       </c>
       <c r="M11" t="n">
-        <v>1.11</v>
+        <v>1.04</v>
       </c>
       <c r="N11" t="n">
-        <v>2.84</v>
+        <v>1.1</v>
       </c>
       <c r="O11" t="n">
-        <v>1.48</v>
+        <v>1.29</v>
       </c>
       <c r="P11" t="n">
-        <v>1.6</v>
+        <v>1.39</v>
       </c>
       <c r="Q11" t="n">
-        <v>2.38</v>
+        <v>1.29</v>
       </c>
       <c r="R11" t="n">
-        <v>1.22</v>
+        <v>1.39</v>
       </c>
       <c r="S11" t="n">
-        <v>4.8</v>
+        <v>1.05</v>
       </c>
       <c r="T11" t="n">
-        <v>1.96</v>
+        <v>1.04</v>
       </c>
       <c r="U11" t="n">
-        <v>1.87</v>
+        <v>1.04</v>
       </c>
       <c r="V11" t="n">
-        <v>1.69</v>
+        <v>1.34</v>
       </c>
       <c r="W11" t="n">
-        <v>1.3</v>
+        <v>1.49</v>
       </c>
       <c r="X11" t="n">
-        <v>9.199999999999999</v>
+        <v>1000</v>
       </c>
       <c r="Y11" t="n">
-        <v>8</v>
+        <v>1000</v>
       </c>
       <c r="Z11" t="n">
-        <v>13</v>
+        <v>1000</v>
       </c>
       <c r="AA11" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AB11" t="n">
-        <v>12</v>
+        <v>1000</v>
       </c>
       <c r="AC11" t="n">
-        <v>7.6</v>
+        <v>1000</v>
       </c>
       <c r="AD11" t="n">
-        <v>22</v>
+        <v>1000</v>
       </c>
       <c r="AE11" t="n">
-        <v>85</v>
+        <v>1000</v>
       </c>
       <c r="AF11" t="n">
-        <v>28</v>
+        <v>1000</v>
       </c>
       <c r="AG11" t="n">
-        <v>17.5</v>
+        <v>1000</v>
       </c>
       <c r="AH11" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AI11" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AJ11" t="n">
-        <v>200</v>
+        <v>1000</v>
       </c>
       <c r="AK11" t="n">
-        <v>160</v>
+        <v>1000</v>
       </c>
       <c r="AL11" t="n">
-        <v>85</v>
+        <v>1000</v>
       </c>
       <c r="AM11" t="n">
-        <v>170</v>
+        <v>1000</v>
       </c>
       <c r="AN11" t="n">
-        <v>85</v>
+        <v>1000</v>
       </c>
       <c r="AO11" t="n">
-        <v>30</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="12">
@@ -2003,132 +2003,132 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>10:30:00</t>
+          <t>13:30:00</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>FC Giugliano</t>
+          <t>LR Vicenza Virtus</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Audace Cerignola</t>
+          <t>Renate</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>2.86</v>
+        <v>1.48</v>
       </c>
       <c r="G12" t="n">
-        <v>3.3</v>
+        <v>1.53</v>
       </c>
       <c r="H12" t="n">
-        <v>2.42</v>
+        <v>9</v>
       </c>
       <c r="I12" t="n">
-        <v>2.74</v>
+        <v>11</v>
       </c>
       <c r="J12" t="n">
-        <v>3.25</v>
+        <v>4.2</v>
       </c>
       <c r="K12" t="n">
-        <v>3.75</v>
+        <v>4.6</v>
       </c>
       <c r="L12" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="M12" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N12" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="O12" t="n">
         <v>1.42</v>
       </c>
-      <c r="M12" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N12" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="O12" t="n">
-        <v>1.34</v>
-      </c>
       <c r="P12" t="n">
-        <v>1.96</v>
+        <v>1.71</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.96</v>
+        <v>2.22</v>
       </c>
       <c r="R12" t="n">
-        <v>1.34</v>
+        <v>1.26</v>
       </c>
       <c r="S12" t="n">
-        <v>3.5</v>
+        <v>4.4</v>
       </c>
       <c r="T12" t="n">
-        <v>1.8</v>
+        <v>2.38</v>
       </c>
       <c r="U12" t="n">
-        <v>2.08</v>
+        <v>1.6</v>
       </c>
       <c r="V12" t="n">
-        <v>1.49</v>
+        <v>1.1</v>
       </c>
       <c r="W12" t="n">
-        <v>1.01</v>
+        <v>2.96</v>
       </c>
       <c r="X12" t="n">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="Y12" t="n">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="Z12" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="AA12" t="n">
-        <v>1000</v>
+        <v>480</v>
       </c>
       <c r="AB12" t="n">
-        <v>24</v>
+        <v>5.9</v>
       </c>
       <c r="AC12" t="n">
-        <v>11.5</v>
+        <v>10.5</v>
       </c>
       <c r="AD12" t="n">
-        <v>21</v>
+        <v>95</v>
       </c>
       <c r="AE12" t="n">
         <v>1000</v>
       </c>
       <c r="AF12" t="n">
-        <v>44</v>
+        <v>7.2</v>
       </c>
       <c r="AG12" t="n">
-        <v>24</v>
+        <v>9.4</v>
       </c>
       <c r="AH12" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AI12" t="n">
-        <v>48</v>
+        <v>1000</v>
       </c>
       <c r="AJ12" t="n">
-        <v>190</v>
+        <v>12.5</v>
       </c>
       <c r="AK12" t="n">
-        <v>85</v>
+        <v>19.5</v>
       </c>
       <c r="AL12" t="n">
-        <v>150</v>
+        <v>130</v>
       </c>
       <c r="AM12" t="n">
         <v>1000</v>
       </c>
       <c r="AN12" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="AO12" t="n">
-        <v>1000</v>
+        <v>440</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Italian Serie C</t>
+          <t>Spanish Segunda Division</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -2138,36 +2138,36 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>10:30:00</t>
+          <t>14:30:00</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>ASD Alcione</t>
+          <t>Mirandes</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Novara</t>
+          <t>Burgos</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>2.68</v>
+        <v>3.5</v>
       </c>
       <c r="G13" t="n">
-        <v>2.9</v>
+        <v>3.6</v>
       </c>
       <c r="H13" t="n">
-        <v>3.2</v>
+        <v>2.54</v>
       </c>
       <c r="I13" t="n">
-        <v>3.55</v>
+        <v>2.58</v>
       </c>
       <c r="J13" t="n">
-        <v>2.84</v>
+        <v>3</v>
       </c>
       <c r="K13" t="n">
-        <v>2.96</v>
+        <v>3.1</v>
       </c>
       <c r="L13" t="n">
         <v>1.64</v>
@@ -2176,88 +2176,88 @@
         <v>1.14</v>
       </c>
       <c r="N13" t="n">
-        <v>2.42</v>
+        <v>2.58</v>
       </c>
       <c r="O13" t="n">
-        <v>1.58</v>
+        <v>1.61</v>
       </c>
       <c r="P13" t="n">
-        <v>1.51</v>
+        <v>1.54</v>
       </c>
       <c r="Q13" t="n">
-        <v>2.68</v>
+        <v>2.78</v>
       </c>
       <c r="R13" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="S13" t="n">
-        <v>6.2</v>
+        <v>6</v>
       </c>
       <c r="T13" t="n">
-        <v>2.3</v>
+        <v>2.24</v>
       </c>
       <c r="U13" t="n">
-        <v>1.71</v>
+        <v>1.76</v>
       </c>
       <c r="V13" t="n">
-        <v>1.4</v>
+        <v>1.64</v>
       </c>
       <c r="W13" t="n">
-        <v>1.54</v>
+        <v>1.38</v>
       </c>
       <c r="X13" t="n">
-        <v>9</v>
+        <v>7.8</v>
       </c>
       <c r="Y13" t="n">
-        <v>10</v>
+        <v>7.6</v>
       </c>
       <c r="Z13" t="n">
-        <v>30</v>
+        <v>14.5</v>
       </c>
       <c r="AA13" t="n">
-        <v>190</v>
+        <v>40</v>
       </c>
       <c r="AB13" t="n">
-        <v>9.199999999999999</v>
+        <v>9.4</v>
       </c>
       <c r="AC13" t="n">
-        <v>8.199999999999999</v>
+        <v>7.2</v>
       </c>
       <c r="AD13" t="n">
-        <v>15.5</v>
+        <v>13</v>
       </c>
       <c r="AE13" t="n">
-        <v>160</v>
+        <v>36</v>
       </c>
       <c r="AF13" t="n">
-        <v>19.5</v>
+        <v>22</v>
       </c>
       <c r="AG13" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AH13" t="n">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="AI13" t="n">
-        <v>260</v>
+        <v>70</v>
       </c>
       <c r="AJ13" t="n">
-        <v>150</v>
+        <v>80</v>
       </c>
       <c r="AK13" t="n">
-        <v>130</v>
+        <v>60</v>
       </c>
       <c r="AL13" t="n">
-        <v>210</v>
+        <v>90</v>
       </c>
       <c r="AM13" t="n">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="AN13" t="n">
-        <v>600</v>
+        <v>85</v>
       </c>
       <c r="AO13" t="n">
-        <v>600</v>
+        <v>42</v>
       </c>
     </row>
     <row r="14">
@@ -2273,132 +2273,132 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>12:15:00</t>
+          <t>14:30:00</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Almeria</t>
+          <t>Cordoba</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Cadiz</t>
+          <t>Deportivo</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>1.69</v>
+        <v>2.38</v>
       </c>
       <c r="G14" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="H14" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="I14" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="J14" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="K14" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="L14" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="M14" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N14" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="O14" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="P14" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="R14" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="S14" t="n">
+        <v>3</v>
+      </c>
+      <c r="T14" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="U14" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="V14" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="W14" t="n">
         <v>1.7</v>
       </c>
-      <c r="H14" t="n">
-        <v>6</v>
-      </c>
-      <c r="I14" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="J14" t="n">
-        <v>4</v>
-      </c>
-      <c r="K14" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="L14" t="n">
-        <v>1.41</v>
-      </c>
-      <c r="M14" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N14" t="n">
-        <v>4</v>
-      </c>
-      <c r="O14" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="P14" t="n">
-        <v>2.02</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>1.94</v>
-      </c>
-      <c r="R14" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="S14" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="T14" t="n">
-        <v>1.92</v>
-      </c>
-      <c r="U14" t="n">
-        <v>2.02</v>
-      </c>
-      <c r="V14" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="W14" t="n">
-        <v>2.42</v>
-      </c>
       <c r="X14" t="n">
+        <v>17</v>
+      </c>
+      <c r="Y14" t="n">
         <v>15.5</v>
       </c>
-      <c r="Y14" t="n">
-        <v>21</v>
-      </c>
       <c r="Z14" t="n">
+        <v>24</v>
+      </c>
+      <c r="AA14" t="n">
         <v>55</v>
       </c>
-      <c r="AA14" t="n">
-        <v>170</v>
-      </c>
       <c r="AB14" t="n">
-        <v>8.6</v>
+        <v>12.5</v>
       </c>
       <c r="AC14" t="n">
-        <v>8.800000000000001</v>
+        <v>7.8</v>
       </c>
       <c r="AD14" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AE14" t="n">
+        <v>36</v>
+      </c>
+      <c r="AF14" t="n">
+        <v>16</v>
+      </c>
+      <c r="AG14" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH14" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AI14" t="n">
+        <v>42</v>
+      </c>
+      <c r="AJ14" t="n">
+        <v>30</v>
+      </c>
+      <c r="AK14" t="n">
         <v>24</v>
       </c>
-      <c r="AE14" t="n">
-        <v>100</v>
-      </c>
-      <c r="AF14" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="AG14" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="AH14" t="n">
-        <v>22</v>
-      </c>
-      <c r="AI14" t="n">
-        <v>110</v>
-      </c>
-      <c r="AJ14" t="n">
-        <v>16</v>
-      </c>
-      <c r="AK14" t="n">
-        <v>17.5</v>
-      </c>
       <c r="AL14" t="n">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="AM14" t="n">
-        <v>180</v>
+        <v>80</v>
       </c>
       <c r="AN14" t="n">
-        <v>10.5</v>
+        <v>15.5</v>
       </c>
       <c r="AO14" t="n">
-        <v>180</v>
+        <v>27</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Spanish Segunda Division</t>
+          <t>Portuguese Segunda Liga</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -2408,132 +2408,132 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>12:15:00</t>
+          <t>15:00:00</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Sporting Gijon</t>
+          <t>Leixoes</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Eibar</t>
+          <t>Chaves</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>2.46</v>
+        <v>3.5</v>
       </c>
       <c r="G15" t="n">
-        <v>2.48</v>
+        <v>3.6</v>
       </c>
       <c r="H15" t="n">
-        <v>3.65</v>
+        <v>2.5</v>
       </c>
       <c r="I15" t="n">
-        <v>3.7</v>
+        <v>2.52</v>
       </c>
       <c r="J15" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="K15" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="L15" t="n">
-        <v>1.53</v>
+        <v>1.52</v>
       </c>
       <c r="M15" t="n">
-        <v>1.12</v>
+        <v>1.11</v>
       </c>
       <c r="N15" t="n">
         <v>3</v>
       </c>
       <c r="O15" t="n">
-        <v>1.48</v>
+        <v>1.45</v>
       </c>
       <c r="P15" t="n">
         <v>1.66</v>
       </c>
       <c r="Q15" t="n">
-        <v>2.46</v>
+        <v>2.4</v>
       </c>
       <c r="R15" t="n">
-        <v>1.24</v>
+        <v>1.26</v>
       </c>
       <c r="S15" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="T15" t="n">
-        <v>2.04</v>
+        <v>1.99</v>
       </c>
       <c r="U15" t="n">
-        <v>1.91</v>
+        <v>1.93</v>
       </c>
       <c r="V15" t="n">
-        <v>1.37</v>
+        <v>1.65</v>
       </c>
       <c r="W15" t="n">
-        <v>1.67</v>
+        <v>1.39</v>
       </c>
       <c r="X15" t="n">
         <v>9.6</v>
       </c>
       <c r="Y15" t="n">
-        <v>10.5</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="Z15" t="n">
-        <v>23</v>
+        <v>15.5</v>
       </c>
       <c r="AA15" t="n">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="AB15" t="n">
-        <v>8.4</v>
+        <v>11</v>
       </c>
       <c r="AC15" t="n">
         <v>7</v>
       </c>
       <c r="AD15" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AE15" t="n">
+        <v>30</v>
+      </c>
+      <c r="AF15" t="n">
+        <v>25</v>
+      </c>
+      <c r="AG15" t="n">
         <v>15.5</v>
       </c>
-      <c r="AE15" t="n">
+      <c r="AH15" t="n">
+        <v>20</v>
+      </c>
+      <c r="AI15" t="n">
         <v>55</v>
       </c>
-      <c r="AF15" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AG15" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AH15" t="n">
-        <v>21</v>
-      </c>
-      <c r="AI15" t="n">
-        <v>75</v>
-      </c>
       <c r="AJ15" t="n">
-        <v>36</v>
+        <v>120</v>
       </c>
       <c r="AK15" t="n">
+        <v>46</v>
+      </c>
+      <c r="AL15" t="n">
+        <v>160</v>
+      </c>
+      <c r="AM15" t="n">
+        <v>140</v>
+      </c>
+      <c r="AN15" t="n">
+        <v>65</v>
+      </c>
+      <c r="AO15" t="n">
         <v>32</v>
-      </c>
-      <c r="AL15" t="n">
-        <v>55</v>
-      </c>
-      <c r="AM15" t="n">
-        <v>580</v>
-      </c>
-      <c r="AN15" t="n">
-        <v>30</v>
-      </c>
-      <c r="AO15" t="n">
-        <v>70</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Italian Serie C</t>
+          <t>Brazilian Serie B</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -2543,132 +2543,132 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>13:30:00</t>
+          <t>16:30:00</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Casertana</t>
+          <t>America MG</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Atalanta B</t>
+          <t>Cuiaba</t>
         </is>
       </c>
       <c r="F16" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="G16" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="H16" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="I16" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="J16" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="K16" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="L16" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="M16" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="N16" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="O16" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="P16" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="R16" t="n">
         <v>1.2</v>
       </c>
-      <c r="G16" t="n">
-        <v>1000</v>
-      </c>
-      <c r="H16" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="I16" t="n">
-        <v>1000</v>
-      </c>
-      <c r="J16" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="K16" t="n">
-        <v>1000</v>
-      </c>
-      <c r="L16" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="M16" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="N16" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="O16" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="P16" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="R16" t="n">
-        <v>1.38</v>
-      </c>
       <c r="S16" t="n">
-        <v>1.05</v>
+        <v>5.3</v>
       </c>
       <c r="T16" t="n">
-        <v>1.04</v>
+        <v>2.18</v>
       </c>
       <c r="U16" t="n">
-        <v>1.04</v>
+        <v>1.78</v>
       </c>
       <c r="V16" t="n">
-        <v>1.01</v>
+        <v>1.34</v>
       </c>
       <c r="W16" t="n">
-        <v>1.01</v>
+        <v>1.75</v>
       </c>
       <c r="X16" t="n">
-        <v>1000</v>
+        <v>9</v>
       </c>
       <c r="Y16" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="Z16" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="AA16" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
       <c r="AB16" t="n">
-        <v>1000</v>
+        <v>7.4</v>
       </c>
       <c r="AC16" t="n">
-        <v>1000</v>
+        <v>7.6</v>
       </c>
       <c r="AD16" t="n">
-        <v>1000</v>
+        <v>17</v>
       </c>
       <c r="AE16" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AF16" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="AG16" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="AH16" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="AI16" t="n">
-        <v>1000</v>
+        <v>230</v>
       </c>
       <c r="AJ16" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AK16" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AL16" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AM16" t="n">
-        <v>1000</v>
+        <v>580</v>
       </c>
       <c r="AN16" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AO16" t="n">
-        <v>1000</v>
+        <v>600</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Italian Serie C</t>
+          <t>Brazilian Serie B</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -2678,132 +2678,132 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>13:30:00</t>
+          <t>16:30:00</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>LR Vicenza Virtus</t>
+          <t>Criciuma</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Renate</t>
+          <t>Botafogo SP</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>1.44</v>
+        <v>1.47</v>
       </c>
       <c r="G17" t="n">
-        <v>1.48</v>
+        <v>1.51</v>
       </c>
       <c r="H17" t="n">
-        <v>9.6</v>
+        <v>9</v>
       </c>
       <c r="I17" t="n">
-        <v>12.5</v>
+        <v>10.5</v>
       </c>
       <c r="J17" t="n">
-        <v>4.2</v>
+        <v>4.4</v>
       </c>
       <c r="K17" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="L17" t="n">
-        <v>1.47</v>
+        <v>1.46</v>
       </c>
       <c r="M17" t="n">
         <v>1.08</v>
       </c>
       <c r="N17" t="n">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="O17" t="n">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="P17" t="n">
-        <v>1.84</v>
+        <v>1.85</v>
       </c>
       <c r="Q17" t="n">
         <v>2.1</v>
       </c>
       <c r="R17" t="n">
-        <v>1.28</v>
+        <v>1.31</v>
       </c>
       <c r="S17" t="n">
         <v>3.9</v>
       </c>
       <c r="T17" t="n">
-        <v>2.24</v>
+        <v>2.28</v>
       </c>
       <c r="U17" t="n">
-        <v>1.66</v>
+        <v>1.68</v>
       </c>
       <c r="V17" t="n">
-        <v>1.09</v>
+        <v>1.11</v>
       </c>
       <c r="W17" t="n">
-        <v>3</v>
+        <v>2.96</v>
       </c>
       <c r="X17" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="Y17" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="Z17" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AA17" t="n">
-        <v>1000</v>
+        <v>430</v>
       </c>
       <c r="AB17" t="n">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="AC17" t="n">
-        <v>42</v>
+        <v>10.5</v>
       </c>
       <c r="AD17" t="n">
-        <v>85</v>
+        <v>36</v>
       </c>
       <c r="AE17" t="n">
-        <v>1000</v>
+        <v>230</v>
       </c>
       <c r="AF17" t="n">
-        <v>16.5</v>
+        <v>7.6</v>
       </c>
       <c r="AG17" t="n">
-        <v>22</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AH17" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AI17" t="n">
-        <v>1000</v>
+        <v>180</v>
       </c>
       <c r="AJ17" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AK17" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AL17" t="n">
         <v>50</v>
       </c>
-      <c r="AK17" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AL17" t="n">
-        <v>160</v>
-      </c>
       <c r="AM17" t="n">
-        <v>1000</v>
+        <v>230</v>
       </c>
       <c r="AN17" t="n">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="AO17" t="n">
-        <v>1000</v>
+        <v>300</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Italian Serie C</t>
+          <t>Brazilian Serie B</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -2813,132 +2813,132 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>13:30:00</t>
+          <t>16:30:00</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Lecco</t>
+          <t>Goias</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Aurora Pro Patria 1919</t>
+          <t>Novorizontino</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>1.66</v>
+        <v>2.22</v>
       </c>
       <c r="G18" t="n">
-        <v>1.73</v>
+        <v>2.28</v>
       </c>
       <c r="H18" t="n">
-        <v>6.6</v>
+        <v>3.9</v>
       </c>
       <c r="I18" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="J18" t="n">
-        <v>3.6</v>
+        <v>3.25</v>
       </c>
       <c r="K18" t="n">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="L18" t="n">
-        <v>1.55</v>
+        <v>1.51</v>
       </c>
       <c r="M18" t="n">
         <v>1.1</v>
       </c>
       <c r="N18" t="n">
-        <v>2.78</v>
+        <v>3.05</v>
       </c>
       <c r="O18" t="n">
-        <v>1.46</v>
+        <v>1.45</v>
       </c>
       <c r="P18" t="n">
-        <v>1.61</v>
+        <v>1.69</v>
       </c>
       <c r="Q18" t="n">
-        <v>2.36</v>
+        <v>2.34</v>
       </c>
       <c r="R18" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="S18" t="n">
         <v>4.6</v>
       </c>
       <c r="T18" t="n">
-        <v>2.18</v>
+        <v>1.98</v>
       </c>
       <c r="U18" t="n">
-        <v>1.68</v>
+        <v>1.89</v>
       </c>
       <c r="V18" t="n">
-        <v>1.15</v>
+        <v>1.33</v>
       </c>
       <c r="W18" t="n">
-        <v>2.34</v>
+        <v>1.78</v>
       </c>
       <c r="X18" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="Y18" t="n">
-        <v>18.5</v>
+        <v>12</v>
       </c>
       <c r="Z18" t="n">
+        <v>26</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>90</v>
+      </c>
+      <c r="AB18" t="n">
+        <v>8</v>
+      </c>
+      <c r="AC18" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AD18" t="n">
+        <v>17</v>
+      </c>
+      <c r="AE18" t="n">
+        <v>60</v>
+      </c>
+      <c r="AF18" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AG18" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AH18" t="n">
+        <v>21</v>
+      </c>
+      <c r="AI18" t="n">
+        <v>75</v>
+      </c>
+      <c r="AJ18" t="n">
+        <v>29</v>
+      </c>
+      <c r="AK18" t="n">
+        <v>28</v>
+      </c>
+      <c r="AL18" t="n">
         <v>55</v>
       </c>
-      <c r="AA18" t="n">
-        <v>300</v>
-      </c>
-      <c r="AB18" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="AC18" t="n">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="AD18" t="n">
-        <v>30</v>
-      </c>
-      <c r="AE18" t="n">
+      <c r="AM18" t="n">
         <v>150</v>
       </c>
-      <c r="AF18" t="n">
-        <v>9.4</v>
-      </c>
-      <c r="AG18" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AH18" t="n">
-        <v>80</v>
-      </c>
-      <c r="AI18" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ18" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AK18" t="n">
-        <v>23</v>
-      </c>
-      <c r="AL18" t="n">
-        <v>60</v>
-      </c>
-      <c r="AM18" t="n">
-        <v>1000</v>
-      </c>
       <c r="AN18" t="n">
-        <v>16.5</v>
+        <v>24</v>
       </c>
       <c r="AO18" t="n">
-        <v>260</v>
+        <v>70</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Italian Serie C</t>
+          <t>Brazilian Serie B</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -2948,132 +2948,132 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>13:30:00</t>
+          <t>16:30:00</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Pontedera</t>
+          <t>Ferroviaria</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>US Pianese</t>
+          <t>Athletico-PR</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>2.7</v>
+        <v>4.5</v>
       </c>
       <c r="G19" t="n">
-        <v>3.05</v>
+        <v>4.8</v>
       </c>
       <c r="H19" t="n">
-        <v>2.7</v>
+        <v>1.89</v>
       </c>
       <c r="I19" t="n">
-        <v>3.05</v>
+        <v>1.92</v>
       </c>
       <c r="J19" t="n">
-        <v>3.15</v>
+        <v>3.7</v>
       </c>
       <c r="K19" t="n">
-        <v>3.5</v>
+        <v>3.85</v>
       </c>
       <c r="L19" t="n">
-        <v>1.48</v>
+        <v>1.47</v>
       </c>
       <c r="M19" t="n">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="N19" t="n">
-        <v>3.15</v>
+        <v>3.3</v>
       </c>
       <c r="O19" t="n">
-        <v>1.38</v>
+        <v>1.4</v>
       </c>
       <c r="P19" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="Q19" t="n">
-        <v>2.2</v>
+        <v>2.16</v>
       </c>
       <c r="R19" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="S19" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="T19" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="U19" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="V19" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="W19" t="n">
         <v>1.27</v>
       </c>
-      <c r="S19" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="T19" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="U19" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="V19" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="W19" t="n">
-        <v>1.5</v>
-      </c>
       <c r="X19" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="Y19" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="Z19" t="n">
+        <v>11</v>
+      </c>
+      <c r="AA19" t="n">
+        <v>21</v>
+      </c>
+      <c r="AB19" t="n">
+        <v>14</v>
+      </c>
+      <c r="AC19" t="n">
+        <v>9</v>
+      </c>
+      <c r="AD19" t="n">
         <v>10.5</v>
       </c>
-      <c r="Z19" t="n">
-        <v>23</v>
-      </c>
-      <c r="AA19" t="n">
-        <v>60</v>
-      </c>
-      <c r="AB19" t="n">
-        <v>12</v>
-      </c>
-      <c r="AC19" t="n">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="AD19" t="n">
-        <v>16</v>
-      </c>
       <c r="AE19" t="n">
-        <v>46</v>
+        <v>22</v>
       </c>
       <c r="AF19" t="n">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="AG19" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="AH19" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AI19" t="n">
-        <v>160</v>
+        <v>44</v>
       </c>
       <c r="AJ19" t="n">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="AK19" t="n">
-        <v>110</v>
+        <v>70</v>
       </c>
       <c r="AL19" t="n">
-        <v>160</v>
+        <v>85</v>
       </c>
       <c r="AM19" t="n">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="AN19" t="n">
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="AO19" t="n">
-        <v>80</v>
+        <v>16.5</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Spanish Segunda Division</t>
+          <t>Argentinian Primera Division</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -3083,102 +3083,102 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>14:30:00</t>
+          <t>17:00:00</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Mirandes</t>
+          <t>Velez Sarsfield</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Burgos</t>
+          <t>River Plate</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="G20" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="H20" t="n">
-        <v>2.5</v>
+        <v>2.34</v>
       </c>
       <c r="I20" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="J20" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="K20" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="L20" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="M20" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="N20" t="n">
         <v>2.56</v>
       </c>
-      <c r="J20" t="n">
-        <v>3</v>
-      </c>
-      <c r="K20" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="L20" t="n">
-        <v>1.66</v>
-      </c>
-      <c r="M20" t="n">
-        <v>1.15</v>
-      </c>
-      <c r="N20" t="n">
-        <v>2.52</v>
-      </c>
       <c r="O20" t="n">
-        <v>1.63</v>
+        <v>1.59</v>
       </c>
       <c r="P20" t="n">
-        <v>1.49</v>
+        <v>1.54</v>
       </c>
       <c r="Q20" t="n">
-        <v>2.92</v>
+        <v>2.8</v>
       </c>
       <c r="R20" t="n">
         <v>1.17</v>
       </c>
       <c r="S20" t="n">
-        <v>6.2</v>
+        <v>6</v>
       </c>
       <c r="T20" t="n">
-        <v>2.28</v>
+        <v>2.24</v>
       </c>
       <c r="U20" t="n">
-        <v>1.75</v>
+        <v>1.74</v>
       </c>
       <c r="V20" t="n">
-        <v>1.64</v>
+        <v>1.71</v>
       </c>
       <c r="W20" t="n">
-        <v>1.37</v>
+        <v>1.35</v>
       </c>
       <c r="X20" t="n">
-        <v>7.6</v>
+        <v>8.4</v>
       </c>
       <c r="Y20" t="n">
+        <v>7</v>
+      </c>
+      <c r="Z20" t="n">
+        <v>13</v>
+      </c>
+      <c r="AA20" t="n">
+        <v>34</v>
+      </c>
+      <c r="AB20" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AC20" t="n">
         <v>7.2</v>
       </c>
-      <c r="Z20" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AA20" t="n">
-        <v>40</v>
-      </c>
-      <c r="AB20" t="n">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="AC20" t="n">
-        <v>7</v>
-      </c>
       <c r="AD20" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AE20" t="n">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="AF20" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AG20" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AH20" t="n">
         <v>26</v>
@@ -3187,28 +3187,28 @@
         <v>170</v>
       </c>
       <c r="AJ20" t="n">
-        <v>170</v>
+        <v>85</v>
       </c>
       <c r="AK20" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AL20" t="n">
         <v>95</v>
       </c>
       <c r="AM20" t="n">
-        <v>980</v>
+        <v>220</v>
       </c>
       <c r="AN20" t="n">
         <v>90</v>
       </c>
       <c r="AO20" t="n">
-        <v>46</v>
+        <v>40</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Spanish Segunda Division</t>
+          <t>Argentinian Primera Division</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -3218,132 +3218,132 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>14:30:00</t>
+          <t>17:00:00</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Cordoba</t>
+          <t>Instituto</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Deportivo</t>
+          <t>Talleres</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>2.38</v>
+        <v>3.25</v>
       </c>
       <c r="G21" t="n">
-        <v>2.44</v>
+        <v>3.4</v>
       </c>
       <c r="H21" t="n">
-        <v>3.3</v>
+        <v>2.7</v>
       </c>
       <c r="I21" t="n">
-        <v>3.4</v>
+        <v>2.72</v>
       </c>
       <c r="J21" t="n">
-        <v>3.45</v>
+        <v>3</v>
       </c>
       <c r="K21" t="n">
-        <v>3.5</v>
+        <v>3.05</v>
       </c>
       <c r="L21" t="n">
-        <v>1.41</v>
+        <v>1.64</v>
       </c>
       <c r="M21" t="n">
-        <v>1.07</v>
+        <v>1.14</v>
       </c>
       <c r="N21" t="n">
-        <v>4.3</v>
+        <v>2.52</v>
       </c>
       <c r="O21" t="n">
-        <v>1.29</v>
+        <v>1.61</v>
       </c>
       <c r="P21" t="n">
-        <v>2.08</v>
+        <v>1.48</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.88</v>
+        <v>2.86</v>
       </c>
       <c r="R21" t="n">
-        <v>1.43</v>
+        <v>1.16</v>
       </c>
       <c r="S21" t="n">
-        <v>3.2</v>
+        <v>6.2</v>
       </c>
       <c r="T21" t="n">
-        <v>1.71</v>
+        <v>2.24</v>
       </c>
       <c r="U21" t="n">
-        <v>2.34</v>
+        <v>1.72</v>
       </c>
       <c r="V21" t="n">
-        <v>1.41</v>
+        <v>1.58</v>
       </c>
       <c r="W21" t="n">
-        <v>1.69</v>
+        <v>1.42</v>
       </c>
       <c r="X21" t="n">
-        <v>15</v>
+        <v>7.8</v>
       </c>
       <c r="Y21" t="n">
-        <v>15</v>
+        <v>7.8</v>
       </c>
       <c r="Z21" t="n">
-        <v>24</v>
+        <v>15.5</v>
       </c>
       <c r="AA21" t="n">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="AB21" t="n">
-        <v>11.5</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AC21" t="n">
-        <v>7.6</v>
+        <v>7</v>
       </c>
       <c r="AD21" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AE21" t="n">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="AF21" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="AG21" t="n">
-        <v>11.5</v>
+        <v>15.5</v>
       </c>
       <c r="AH21" t="n">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="AI21" t="n">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="AJ21" t="n">
-        <v>32</v>
+        <v>65</v>
       </c>
       <c r="AK21" t="n">
-        <v>24</v>
+        <v>55</v>
       </c>
       <c r="AL21" t="n">
-        <v>34</v>
+        <v>95</v>
       </c>
       <c r="AM21" t="n">
+        <v>250</v>
+      </c>
+      <c r="AN21" t="n">
         <v>80</v>
       </c>
-      <c r="AN21" t="n">
-        <v>17.5</v>
-      </c>
       <c r="AO21" t="n">
-        <v>32</v>
+        <v>50</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Portuguese Segunda Liga</t>
+          <t>Spanish Segunda Division</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -3353,132 +3353,132 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>15:00:00</t>
+          <t>17:00:00</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Leixoes</t>
+          <t>Zaragoza</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Chaves</t>
+          <t>Huesca</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>3.95</v>
+        <v>2.6</v>
       </c>
       <c r="G22" t="n">
-        <v>4.2</v>
+        <v>2.64</v>
       </c>
       <c r="H22" t="n">
-        <v>2.32</v>
+        <v>3.45</v>
       </c>
       <c r="I22" t="n">
-        <v>2.42</v>
+        <v>3.5</v>
       </c>
       <c r="J22" t="n">
         <v>3</v>
       </c>
       <c r="K22" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="L22" t="n">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="M22" t="n">
-        <v>1.11</v>
+        <v>1.15</v>
       </c>
       <c r="N22" t="n">
-        <v>3.2</v>
+        <v>2.46</v>
       </c>
       <c r="O22" t="n">
-        <v>1.42</v>
+        <v>1.65</v>
       </c>
       <c r="P22" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>3</v>
+      </c>
+      <c r="R22" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="S22" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="T22" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="U22" t="n">
         <v>1.7</v>
       </c>
-      <c r="Q22" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="R22" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="S22" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="T22" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="U22" t="n">
-        <v>1.99</v>
-      </c>
       <c r="V22" t="n">
-        <v>1.7</v>
+        <v>1.4</v>
       </c>
       <c r="W22" t="n">
-        <v>1.32</v>
+        <v>1.61</v>
       </c>
       <c r="X22" t="n">
-        <v>10.5</v>
+        <v>7.6</v>
       </c>
       <c r="Y22" t="n">
         <v>8.800000000000001</v>
       </c>
       <c r="Z22" t="n">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="AA22" t="n">
-        <v>34</v>
+        <v>75</v>
       </c>
       <c r="AB22" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AC22" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AD22" t="n">
         <v>16</v>
       </c>
-      <c r="AC22" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="AD22" t="n">
-        <v>11.5</v>
-      </c>
       <c r="AE22" t="n">
+        <v>60</v>
+      </c>
+      <c r="AF22" t="n">
+        <v>15</v>
+      </c>
+      <c r="AG22" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AH22" t="n">
         <v>29</v>
       </c>
-      <c r="AF22" t="n">
-        <v>28</v>
-      </c>
-      <c r="AG22" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AH22" t="n">
-        <v>19.5</v>
-      </c>
       <c r="AI22" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="AJ22" t="n">
-        <v>170</v>
+        <v>44</v>
       </c>
       <c r="AK22" t="n">
+        <v>42</v>
+      </c>
+      <c r="AL22" t="n">
+        <v>80</v>
+      </c>
+      <c r="AM22" t="n">
+        <v>230</v>
+      </c>
+      <c r="AN22" t="n">
         <v>55</v>
       </c>
-      <c r="AL22" t="n">
-        <v>70</v>
-      </c>
-      <c r="AM22" t="n">
-        <v>140</v>
-      </c>
-      <c r="AN22" t="n">
-        <v>65</v>
-      </c>
       <c r="AO22" t="n">
-        <v>26</v>
+        <v>90</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Brazilian Serie B</t>
+          <t>Uruguayan Primera Division</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -3488,132 +3488,132 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>16:30:00</t>
+          <t>18:00:00</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Goias</t>
+          <t>Liverpool Montevideo</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Novorizontino</t>
+          <t>Penarol</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>2.24</v>
+        <v>4.5</v>
       </c>
       <c r="G23" t="n">
-        <v>2.28</v>
+        <v>4.9</v>
       </c>
       <c r="H23" t="n">
-        <v>3.9</v>
+        <v>1.94</v>
       </c>
       <c r="I23" t="n">
-        <v>4.1</v>
+        <v>2.02</v>
       </c>
       <c r="J23" t="n">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="K23" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="L23" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="M23" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="N23" t="n">
         <v>3.3</v>
       </c>
-      <c r="L23" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="M23" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="N23" t="n">
-        <v>2.92</v>
-      </c>
       <c r="O23" t="n">
-        <v>1.48</v>
+        <v>1.4</v>
       </c>
       <c r="P23" t="n">
-        <v>1.63</v>
+        <v>1.77</v>
       </c>
       <c r="Q23" t="n">
-        <v>2.48</v>
+        <v>2.18</v>
       </c>
       <c r="R23" t="n">
-        <v>1.23</v>
+        <v>1.29</v>
       </c>
       <c r="S23" t="n">
-        <v>4.7</v>
+        <v>4</v>
       </c>
       <c r="T23" t="n">
-        <v>2.02</v>
+        <v>1.94</v>
       </c>
       <c r="U23" t="n">
-        <v>1.84</v>
+        <v>1.93</v>
       </c>
       <c r="V23" t="n">
-        <v>1.33</v>
+        <v>1.98</v>
       </c>
       <c r="W23" t="n">
-        <v>1.78</v>
+        <v>1.26</v>
       </c>
       <c r="X23" t="n">
-        <v>10.5</v>
+        <v>12</v>
       </c>
       <c r="Y23" t="n">
-        <v>12</v>
+        <v>7.8</v>
       </c>
       <c r="Z23" t="n">
-        <v>29</v>
+        <v>11.5</v>
       </c>
       <c r="AA23" t="n">
-        <v>900</v>
+        <v>26</v>
       </c>
       <c r="AB23" t="n">
-        <v>7.8</v>
+        <v>14.5</v>
       </c>
       <c r="AC23" t="n">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="AD23" t="n">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="AE23" t="n">
-        <v>160</v>
+        <v>26</v>
       </c>
       <c r="AF23" t="n">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="AG23" t="n">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="AH23" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AI23" t="n">
-        <v>200</v>
+        <v>48</v>
       </c>
       <c r="AJ23" t="n">
-        <v>75</v>
+        <v>1000</v>
       </c>
       <c r="AK23" t="n">
-        <v>70</v>
+        <v>170</v>
       </c>
       <c r="AL23" t="n">
-        <v>55</v>
+        <v>85</v>
       </c>
       <c r="AM23" t="n">
-        <v>580</v>
+        <v>1000</v>
       </c>
       <c r="AN23" t="n">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="AO23" t="n">
-        <v>600</v>
+        <v>26</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Brazilian Serie B</t>
+          <t>Brazilian Serie A</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -3623,132 +3623,132 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>16:30:00</t>
+          <t>19:00:00</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Ferroviaria</t>
+          <t>Red Bull Bragantino</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Athletico-PR</t>
+          <t>Atletico MG</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>4.4</v>
+        <v>2.36</v>
       </c>
       <c r="G24" t="n">
-        <v>4.5</v>
+        <v>2.4</v>
       </c>
       <c r="H24" t="n">
-        <v>2</v>
+        <v>3.65</v>
       </c>
       <c r="I24" t="n">
-        <v>2.02</v>
+        <v>3.75</v>
       </c>
       <c r="J24" t="n">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="K24" t="n">
-        <v>3.65</v>
+        <v>3.3</v>
       </c>
       <c r="L24" t="n">
-        <v>1.47</v>
+        <v>1.51</v>
       </c>
       <c r="M24" t="n">
-        <v>1.09</v>
+        <v>1.1</v>
       </c>
       <c r="N24" t="n">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="O24" t="n">
-        <v>1.41</v>
+        <v>1.45</v>
       </c>
       <c r="P24" t="n">
-        <v>1.77</v>
+        <v>1.71</v>
       </c>
       <c r="Q24" t="n">
-        <v>2.22</v>
+        <v>2.36</v>
       </c>
       <c r="R24" t="n">
-        <v>1.28</v>
+        <v>1.26</v>
       </c>
       <c r="S24" t="n">
-        <v>4.2</v>
+        <v>4.6</v>
       </c>
       <c r="T24" t="n">
-        <v>1.92</v>
+        <v>1.97</v>
       </c>
       <c r="U24" t="n">
-        <v>1.95</v>
+        <v>1.96</v>
       </c>
       <c r="V24" t="n">
-        <v>1.98</v>
+        <v>1.36</v>
       </c>
       <c r="W24" t="n">
-        <v>1.28</v>
+        <v>1.72</v>
       </c>
       <c r="X24" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y24" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="Z24" t="n">
+        <v>24</v>
+      </c>
+      <c r="AA24" t="n">
+        <v>75</v>
+      </c>
+      <c r="AB24" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="AC24" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AD24" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AE24" t="n">
+        <v>55</v>
+      </c>
+      <c r="AF24" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AG24" t="n">
         <v>11</v>
       </c>
-      <c r="Y24" t="n">
-        <v>8</v>
-      </c>
-      <c r="Z24" t="n">
-        <v>12</v>
-      </c>
-      <c r="AA24" t="n">
-        <v>23</v>
-      </c>
-      <c r="AB24" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AC24" t="n">
-        <v>8</v>
-      </c>
-      <c r="AD24" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AE24" t="n">
-        <v>24</v>
-      </c>
-      <c r="AF24" t="n">
-        <v>30</v>
-      </c>
-      <c r="AG24" t="n">
-        <v>18.5</v>
-      </c>
       <c r="AH24" t="n">
-        <v>21</v>
+        <v>19.5</v>
       </c>
       <c r="AI24" t="n">
-        <v>44</v>
+        <v>70</v>
       </c>
       <c r="AJ24" t="n">
-        <v>900</v>
+        <v>32</v>
       </c>
       <c r="AK24" t="n">
-        <v>65</v>
+        <v>32</v>
       </c>
       <c r="AL24" t="n">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="AM24" t="n">
-        <v>140</v>
+        <v>580</v>
       </c>
       <c r="AN24" t="n">
-        <v>80</v>
+        <v>29</v>
       </c>
       <c r="AO24" t="n">
-        <v>18.5</v>
+        <v>60</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Brazilian Serie B</t>
+          <t>US USL League One</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -3758,123 +3758,123 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>16:30:00</t>
+          <t>19:00:00</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Criciuma</t>
+          <t>One Knoxville SC</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Botafogo SP</t>
+          <t>Spokane Velocity FC</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>1.54</v>
+        <v>2.22</v>
       </c>
       <c r="G25" t="n">
-        <v>1.57</v>
+        <v>2.64</v>
       </c>
       <c r="H25" t="n">
-        <v>8.199999999999999</v>
+        <v>3.75</v>
       </c>
       <c r="I25" t="n">
-        <v>9</v>
+        <v>5.4</v>
       </c>
       <c r="J25" t="n">
-        <v>4.1</v>
+        <v>2.66</v>
       </c>
       <c r="K25" t="n">
-        <v>4.4</v>
+        <v>2.96</v>
       </c>
       <c r="L25" t="n">
-        <v>1.48</v>
+        <v>1.45</v>
       </c>
       <c r="M25" t="n">
         <v>1.08</v>
       </c>
       <c r="N25" t="n">
-        <v>3.4</v>
+        <v>2.32</v>
       </c>
       <c r="O25" t="n">
-        <v>1.39</v>
+        <v>1.35</v>
       </c>
       <c r="P25" t="n">
-        <v>1.8</v>
+        <v>1.61</v>
       </c>
       <c r="Q25" t="n">
-        <v>2.14</v>
+        <v>1.98</v>
       </c>
       <c r="R25" t="n">
-        <v>1.29</v>
+        <v>1.27</v>
       </c>
       <c r="S25" t="n">
-        <v>4</v>
+        <v>2.62</v>
       </c>
       <c r="T25" t="n">
-        <v>2.14</v>
+        <v>1.04</v>
       </c>
       <c r="U25" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="V25" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="W25" t="n">
         <v>1.6</v>
       </c>
-      <c r="V25" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="W25" t="n">
-        <v>2.74</v>
-      </c>
       <c r="X25" t="n">
-        <v>90</v>
+        <v>1000</v>
       </c>
       <c r="Y25" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="Z25" t="n">
-        <v>190</v>
+        <v>1000</v>
       </c>
       <c r="AA25" t="n">
         <v>1000</v>
       </c>
       <c r="AB25" t="n">
-        <v>7.8</v>
+        <v>1000</v>
       </c>
       <c r="AC25" t="n">
-        <v>17</v>
+        <v>42</v>
       </c>
       <c r="AD25" t="n">
-        <v>75</v>
+        <v>1000</v>
       </c>
       <c r="AE25" t="n">
-        <v>180</v>
+        <v>1000</v>
       </c>
       <c r="AF25" t="n">
-        <v>15</v>
+        <v>1000</v>
       </c>
       <c r="AG25" t="n">
-        <v>23</v>
+        <v>1000</v>
       </c>
       <c r="AH25" t="n">
-        <v>75</v>
+        <v>1000</v>
       </c>
       <c r="AI25" t="n">
-        <v>150</v>
+        <v>1000</v>
       </c>
       <c r="AJ25" t="n">
-        <v>29</v>
+        <v>1000</v>
       </c>
       <c r="AK25" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AL25" t="n">
-        <v>130</v>
+        <v>1000</v>
       </c>
       <c r="AM25" t="n">
-        <v>580</v>
+        <v>1000</v>
       </c>
       <c r="AN25" t="n">
-        <v>29</v>
+        <v>1000</v>
       </c>
       <c r="AO25" t="n">
         <v>1000</v>
@@ -3883,7 +3883,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Brazilian Serie B</t>
+          <t>Argentinian Primera Division</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -3893,132 +3893,132 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>16:30:00</t>
+          <t>20:15:00</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>America MG</t>
+          <t>Estudiantes</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Cuiaba</t>
+          <t>Argentinos Juniors</t>
         </is>
       </c>
       <c r="F26" t="n">
         <v>2.42</v>
       </c>
       <c r="G26" t="n">
-        <v>2.52</v>
+        <v>2.5</v>
       </c>
       <c r="H26" t="n">
-        <v>3.35</v>
+        <v>3.65</v>
       </c>
       <c r="I26" t="n">
-        <v>3.55</v>
+        <v>3.85</v>
       </c>
       <c r="J26" t="n">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="K26" t="n">
-        <v>3.35</v>
+        <v>3.1</v>
       </c>
       <c r="L26" t="n">
-        <v>1.53</v>
+        <v>1.66</v>
       </c>
       <c r="M26" t="n">
-        <v>1.11</v>
+        <v>1.14</v>
       </c>
       <c r="N26" t="n">
-        <v>2.96</v>
+        <v>2.48</v>
       </c>
       <c r="O26" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="P26" t="n">
         <v>1.47</v>
       </c>
-      <c r="P26" t="n">
-        <v>1.65</v>
-      </c>
       <c r="Q26" t="n">
-        <v>2.46</v>
+        <v>3</v>
       </c>
       <c r="R26" t="n">
-        <v>1.24</v>
+        <v>1.16</v>
       </c>
       <c r="S26" t="n">
-        <v>4.8</v>
+        <v>6.6</v>
       </c>
       <c r="T26" t="n">
-        <v>1.96</v>
+        <v>2.3</v>
       </c>
       <c r="U26" t="n">
-        <v>1.89</v>
+        <v>1.67</v>
       </c>
       <c r="V26" t="n">
-        <v>1.39</v>
+        <v>1.35</v>
       </c>
       <c r="W26" t="n">
         <v>1.66</v>
       </c>
       <c r="X26" t="n">
-        <v>10</v>
+        <v>7.4</v>
       </c>
       <c r="Y26" t="n">
-        <v>11</v>
+        <v>9.4</v>
       </c>
       <c r="Z26" t="n">
         <v>24</v>
       </c>
       <c r="AA26" t="n">
+        <v>85</v>
+      </c>
+      <c r="AB26" t="n">
+        <v>7</v>
+      </c>
+      <c r="AC26" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AD26" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AE26" t="n">
+        <v>70</v>
+      </c>
+      <c r="AF26" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AG26" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH26" t="n">
+        <v>28</v>
+      </c>
+      <c r="AI26" t="n">
+        <v>110</v>
+      </c>
+      <c r="AJ26" t="n">
+        <v>40</v>
+      </c>
+      <c r="AK26" t="n">
+        <v>40</v>
+      </c>
+      <c r="AL26" t="n">
         <v>80</v>
       </c>
-      <c r="AB26" t="n">
-        <v>8.6</v>
-      </c>
-      <c r="AC26" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="AD26" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AE26" t="n">
+      <c r="AM26" t="n">
+        <v>260</v>
+      </c>
+      <c r="AN26" t="n">
         <v>55</v>
       </c>
-      <c r="AF26" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AG26" t="n">
-        <v>11</v>
-      </c>
-      <c r="AH26" t="n">
-        <v>23</v>
-      </c>
-      <c r="AI26" t="n">
-        <v>240</v>
-      </c>
-      <c r="AJ26" t="n">
-        <v>34</v>
-      </c>
-      <c r="AK26" t="n">
-        <v>32</v>
-      </c>
-      <c r="AL26" t="n">
-        <v>55</v>
-      </c>
-      <c r="AM26" t="n">
-        <v>580</v>
-      </c>
-      <c r="AN26" t="n">
-        <v>32</v>
-      </c>
       <c r="AO26" t="n">
-        <v>65</v>
+        <v>110</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Spanish Segunda Division</t>
+          <t>Argentinian Primera Division</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -4028,126 +4028,126 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>17:00:00</t>
+          <t>20:15:00</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Zaragoza</t>
+          <t>Central Cordoba (SdE)</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Huesca</t>
+          <t>Banfield</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>2.54</v>
+        <v>2.6</v>
       </c>
       <c r="G27" t="n">
-        <v>2.58</v>
+        <v>2.64</v>
       </c>
       <c r="H27" t="n">
-        <v>3.45</v>
+        <v>3.55</v>
       </c>
       <c r="I27" t="n">
-        <v>3.5</v>
+        <v>3.7</v>
       </c>
       <c r="J27" t="n">
-        <v>3.05</v>
+        <v>2.9</v>
       </c>
       <c r="K27" t="n">
-        <v>3.1</v>
+        <v>2.94</v>
       </c>
       <c r="L27" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="M27" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="N27" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="O27" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="P27" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>3</v>
+      </c>
+      <c r="R27" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="S27" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="T27" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="U27" t="n">
         <v>1.69</v>
       </c>
-      <c r="M27" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="N27" t="n">
-        <v>2.34</v>
-      </c>
-      <c r="O27" t="n">
-        <v>1.72</v>
-      </c>
-      <c r="P27" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="Q27" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="R27" t="n">
-        <v>1.15</v>
-      </c>
-      <c r="S27" t="n">
-        <v>7</v>
-      </c>
-      <c r="T27" t="n">
-        <v>2.42</v>
-      </c>
-      <c r="U27" t="n">
-        <v>1.66</v>
-      </c>
       <c r="V27" t="n">
-        <v>1.4</v>
+        <v>1.37</v>
       </c>
       <c r="W27" t="n">
-        <v>1.63</v>
+        <v>1.6</v>
       </c>
       <c r="X27" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="Y27" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="Z27" t="n">
+        <v>22</v>
+      </c>
+      <c r="AA27" t="n">
+        <v>110</v>
+      </c>
+      <c r="AB27" t="n">
         <v>7.4</v>
       </c>
-      <c r="Y27" t="n">
-        <v>8.4</v>
-      </c>
-      <c r="Z27" t="n">
-        <v>23</v>
-      </c>
-      <c r="AA27" t="n">
-        <v>190</v>
-      </c>
-      <c r="AB27" t="n">
-        <v>6.6</v>
-      </c>
       <c r="AC27" t="n">
-        <v>7.6</v>
+        <v>6.8</v>
       </c>
       <c r="AD27" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AE27" t="n">
         <v>70</v>
       </c>
       <c r="AF27" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AG27" t="n">
         <v>13.5</v>
       </c>
       <c r="AH27" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AI27" t="n">
-        <v>290</v>
+        <v>250</v>
       </c>
       <c r="AJ27" t="n">
-        <v>46</v>
+        <v>70</v>
       </c>
       <c r="AK27" t="n">
-        <v>85</v>
+        <v>42</v>
       </c>
       <c r="AL27" t="n">
-        <v>170</v>
+        <v>80</v>
       </c>
       <c r="AM27" t="n">
-        <v>250</v>
+        <v>230</v>
       </c>
       <c r="AN27" t="n">
-        <v>60</v>
+        <v>130</v>
       </c>
       <c r="AO27" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
     </row>
     <row r="28">
@@ -4163,126 +4163,126 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>17:00:00</t>
+          <t>20:15:00</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Velez Sarsfield</t>
+          <t>Boca Juniors</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>River Plate</t>
+          <t>Tigre</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>3.7</v>
+        <v>1.68</v>
       </c>
       <c r="G28" t="n">
-        <v>3.9</v>
+        <v>1.69</v>
       </c>
       <c r="H28" t="n">
-        <v>2.32</v>
+        <v>7.4</v>
       </c>
       <c r="I28" t="n">
-        <v>2.42</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="J28" t="n">
-        <v>3.15</v>
+        <v>3.6</v>
       </c>
       <c r="K28" t="n">
-        <v>3.25</v>
+        <v>3.65</v>
       </c>
       <c r="L28" t="n">
-        <v>1.64</v>
+        <v>1.58</v>
       </c>
       <c r="M28" t="n">
-        <v>1.13</v>
+        <v>1.12</v>
       </c>
       <c r="N28" t="n">
-        <v>2.58</v>
+        <v>2.74</v>
       </c>
       <c r="O28" t="n">
-        <v>1.59</v>
+        <v>1.56</v>
       </c>
       <c r="P28" t="n">
-        <v>1.51</v>
+        <v>1.56</v>
       </c>
       <c r="Q28" t="n">
-        <v>2.8</v>
+        <v>2.66</v>
       </c>
       <c r="R28" t="n">
-        <v>1.17</v>
+        <v>1.2</v>
       </c>
       <c r="S28" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="T28" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="U28" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="V28" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="W28" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="X28" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="Y28" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="Z28" t="n">
+        <v>65</v>
+      </c>
+      <c r="AA28" t="n">
+        <v>300</v>
+      </c>
+      <c r="AB28" t="n">
         <v>5.9</v>
       </c>
-      <c r="T28" t="n">
-        <v>2.24</v>
-      </c>
-      <c r="U28" t="n">
-        <v>1.74</v>
-      </c>
-      <c r="V28" t="n">
-        <v>1.71</v>
-      </c>
-      <c r="W28" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="X28" t="n">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="Y28" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="Z28" t="n">
-        <v>13</v>
-      </c>
-      <c r="AA28" t="n">
-        <v>34</v>
-      </c>
-      <c r="AB28" t="n">
-        <v>10</v>
-      </c>
       <c r="AC28" t="n">
-        <v>7.4</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD28" t="n">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="AE28" t="n">
-        <v>34</v>
+        <v>180</v>
       </c>
       <c r="AF28" t="n">
+        <v>8</v>
+      </c>
+      <c r="AG28" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH28" t="n">
+        <v>32</v>
+      </c>
+      <c r="AI28" t="n">
+        <v>210</v>
+      </c>
+      <c r="AJ28" t="n">
+        <v>17</v>
+      </c>
+      <c r="AK28" t="n">
         <v>25</v>
       </c>
-      <c r="AG28" t="n">
-        <v>18</v>
-      </c>
-      <c r="AH28" t="n">
-        <v>27</v>
-      </c>
-      <c r="AI28" t="n">
-        <v>160</v>
-      </c>
-      <c r="AJ28" t="n">
-        <v>95</v>
-      </c>
-      <c r="AK28" t="n">
+      <c r="AL28" t="n">
         <v>70</v>
       </c>
-      <c r="AL28" t="n">
-        <v>95</v>
-      </c>
       <c r="AM28" t="n">
-        <v>230</v>
+        <v>340</v>
       </c>
       <c r="AN28" t="n">
-        <v>100</v>
+        <v>17</v>
       </c>
       <c r="AO28" t="n">
-        <v>36</v>
+        <v>350</v>
       </c>
     </row>
     <row r="29">
@@ -4298,132 +4298,132 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>17:00:00</t>
+          <t>20:15:00</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Instituto</t>
+          <t>Newells</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Talleres</t>
+          <t>Racing Club</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>3.2</v>
+        <v>3.7</v>
       </c>
       <c r="G29" t="n">
-        <v>3.4</v>
+        <v>3.95</v>
       </c>
       <c r="H29" t="n">
-        <v>2.68</v>
+        <v>2.3</v>
       </c>
       <c r="I29" t="n">
-        <v>2.8</v>
+        <v>2.38</v>
       </c>
       <c r="J29" t="n">
-        <v>2.92</v>
+        <v>3.15</v>
       </c>
       <c r="K29" t="n">
-        <v>3.05</v>
+        <v>3.25</v>
       </c>
       <c r="L29" t="n">
-        <v>1.64</v>
+        <v>1.52</v>
       </c>
       <c r="M29" t="n">
-        <v>1.15</v>
+        <v>1.11</v>
       </c>
       <c r="N29" t="n">
-        <v>2.52</v>
+        <v>3</v>
       </c>
       <c r="O29" t="n">
-        <v>1.62</v>
+        <v>1.46</v>
       </c>
       <c r="P29" t="n">
-        <v>1.49</v>
+        <v>1.68</v>
       </c>
       <c r="Q29" t="n">
-        <v>2.9</v>
+        <v>2.38</v>
       </c>
       <c r="R29" t="n">
-        <v>1.17</v>
+        <v>1.25</v>
       </c>
       <c r="S29" t="n">
-        <v>6.2</v>
+        <v>4.7</v>
       </c>
       <c r="T29" t="n">
-        <v>2.22</v>
+        <v>2</v>
       </c>
       <c r="U29" t="n">
-        <v>1.73</v>
+        <v>1.9</v>
       </c>
       <c r="V29" t="n">
-        <v>1.56</v>
+        <v>1.72</v>
       </c>
       <c r="W29" t="n">
-        <v>1.41</v>
+        <v>1.34</v>
       </c>
       <c r="X29" t="n">
-        <v>8</v>
+        <v>10.5</v>
       </c>
       <c r="Y29" t="n">
-        <v>7.8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="Z29" t="n">
-        <v>16</v>
+        <v>13.5</v>
       </c>
       <c r="AA29" t="n">
-        <v>100</v>
+        <v>36</v>
       </c>
       <c r="AB29" t="n">
-        <v>8.6</v>
+        <v>11.5</v>
       </c>
       <c r="AC29" t="n">
-        <v>7</v>
+        <v>7.4</v>
       </c>
       <c r="AD29" t="n">
-        <v>14</v>
+        <v>11.5</v>
       </c>
       <c r="AE29" t="n">
-        <v>100</v>
+        <v>29</v>
       </c>
       <c r="AF29" t="n">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="AG29" t="n">
         <v>16</v>
       </c>
       <c r="AH29" t="n">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="AI29" t="n">
-        <v>190</v>
+        <v>130</v>
       </c>
       <c r="AJ29" t="n">
-        <v>190</v>
+        <v>80</v>
       </c>
       <c r="AK29" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AL29" t="n">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="AM29" t="n">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="AN29" t="n">
-        <v>360</v>
+        <v>70</v>
       </c>
       <c r="AO29" t="n">
-        <v>130</v>
+        <v>26</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Uruguayan Primera Division</t>
+          <t>Colombian Primera B</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -4433,1070 +4433,125 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>18:00:00</t>
+          <t>21:30:00</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Liverpool Montevideo</t>
+          <t>Real Soacha Cundinamarca FC</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Penarol</t>
+          <t>Real Cartagena</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>4.3</v>
+        <v>2.2</v>
       </c>
       <c r="G30" t="n">
-        <v>4.8</v>
+        <v>2.42</v>
       </c>
       <c r="H30" t="n">
-        <v>1.95</v>
+        <v>3.5</v>
       </c>
       <c r="I30" t="n">
-        <v>2.06</v>
+        <v>4.1</v>
       </c>
       <c r="J30" t="n">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="K30" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="L30" t="n">
-        <v>1.46</v>
+        <v>1.49</v>
       </c>
       <c r="M30" t="n">
         <v>1.09</v>
       </c>
       <c r="N30" t="n">
-        <v>3.3</v>
+        <v>3.05</v>
       </c>
       <c r="O30" t="n">
-        <v>1.39</v>
+        <v>1.41</v>
       </c>
       <c r="P30" t="n">
-        <v>1.77</v>
+        <v>1.69</v>
       </c>
       <c r="Q30" t="n">
-        <v>2.14</v>
+        <v>2.24</v>
       </c>
       <c r="R30" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="S30" t="n">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="T30" t="n">
-        <v>1.93</v>
+        <v>1.89</v>
       </c>
       <c r="U30" t="n">
-        <v>1.94</v>
+        <v>1.92</v>
       </c>
       <c r="V30" t="n">
-        <v>1.94</v>
+        <v>1.33</v>
       </c>
       <c r="W30" t="n">
-        <v>1.27</v>
+        <v>1.71</v>
       </c>
       <c r="X30" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="Y30" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="Z30" t="n">
+        <v>980</v>
+      </c>
+      <c r="AA30" t="n">
+        <v>80</v>
+      </c>
+      <c r="AB30" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AC30" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AD30" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AE30" t="n">
+        <v>55</v>
+      </c>
+      <c r="AF30" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AG30" t="n">
         <v>12</v>
-      </c>
-      <c r="Y30" t="n">
-        <v>8</v>
-      </c>
-      <c r="Z30" t="n">
-        <v>12</v>
-      </c>
-      <c r="AA30" t="n">
-        <v>28</v>
-      </c>
-      <c r="AB30" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AC30" t="n">
-        <v>8</v>
-      </c>
-      <c r="AD30" t="n">
-        <v>11</v>
-      </c>
-      <c r="AE30" t="n">
-        <v>26</v>
-      </c>
-      <c r="AF30" t="n">
-        <v>40</v>
-      </c>
-      <c r="AG30" t="n">
-        <v>34</v>
       </c>
       <c r="AH30" t="n">
         <v>21</v>
       </c>
       <c r="AI30" t="n">
-        <v>48</v>
+        <v>70</v>
       </c>
       <c r="AJ30" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AK30" t="n">
-        <v>170</v>
+        <v>980</v>
       </c>
       <c r="AL30" t="n">
-        <v>85</v>
+        <v>980</v>
       </c>
       <c r="AM30" t="n">
         <v>1000</v>
       </c>
       <c r="AN30" t="n">
-        <v>90</v>
+        <v>26</v>
       </c>
       <c r="AO30" t="n">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>Brazilian Serie A</t>
-        </is>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>2025-11-16</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>19:00:00</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>Red Bull Bragantino</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>Atletico MG</t>
-        </is>
-      </c>
-      <c r="F31" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="G31" t="n">
-        <v>2.42</v>
-      </c>
-      <c r="H31" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="I31" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="J31" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="K31" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="L31" t="n">
-        <v>1.51</v>
-      </c>
-      <c r="M31" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="N31" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="O31" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="P31" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="Q31" t="n">
-        <v>2.34</v>
-      </c>
-      <c r="R31" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="S31" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="T31" t="n">
-        <v>1.97</v>
-      </c>
-      <c r="U31" t="n">
-        <v>1.97</v>
-      </c>
-      <c r="V31" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="W31" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="X31" t="n">
-        <v>10</v>
-      </c>
-      <c r="Y31" t="n">
-        <v>11</v>
-      </c>
-      <c r="Z31" t="n">
-        <v>24</v>
-      </c>
-      <c r="AA31" t="n">
-        <v>75</v>
-      </c>
-      <c r="AB31" t="n">
-        <v>8.4</v>
-      </c>
-      <c r="AC31" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="AD31" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AE31" t="n">
-        <v>55</v>
-      </c>
-      <c r="AF31" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AG31" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AH31" t="n">
-        <v>20</v>
-      </c>
-      <c r="AI31" t="n">
-        <v>70</v>
-      </c>
-      <c r="AJ31" t="n">
-        <v>32</v>
-      </c>
-      <c r="AK31" t="n">
-        <v>32</v>
-      </c>
-      <c r="AL31" t="n">
-        <v>55</v>
-      </c>
-      <c r="AM31" t="n">
-        <v>140</v>
-      </c>
-      <c r="AN31" t="n">
-        <v>30</v>
-      </c>
-      <c r="AO31" t="n">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>US USL League One</t>
-        </is>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>2025-11-16</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>19:00:00</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>One Knoxville SC</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>Spokane Velocity FC</t>
-        </is>
-      </c>
-      <c r="F32" t="n">
-        <v>2.24</v>
-      </c>
-      <c r="G32" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="H32" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="I32" t="n">
-        <v>5.2</v>
-      </c>
-      <c r="J32" t="n">
-        <v>2.64</v>
-      </c>
-      <c r="K32" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="L32" t="n">
-        <v>1.46</v>
-      </c>
-      <c r="M32" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="N32" t="n">
-        <v>2.24</v>
-      </c>
-      <c r="O32" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="P32" t="n">
-        <v>1.59</v>
-      </c>
-      <c r="Q32" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="R32" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="S32" t="n">
-        <v>2.68</v>
-      </c>
-      <c r="T32" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="U32" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="V32" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="W32" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="X32" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Y32" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Z32" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AA32" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB32" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AC32" t="n">
-        <v>42</v>
-      </c>
-      <c r="AD32" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AE32" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF32" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AG32" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AH32" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AI32" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ32" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AK32" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AL32" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AM32" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN32" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AO32" t="n">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>Argentinian Primera Division</t>
-        </is>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>2025-11-16</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>20:15:00</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>Estudiantes</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>Argentinos Juniors</t>
-        </is>
-      </c>
-      <c r="F33" t="n">
-        <v>2.76</v>
-      </c>
-      <c r="G33" t="n">
-        <v>2.84</v>
-      </c>
-      <c r="H33" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="I33" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="J33" t="n">
-        <v>2.92</v>
-      </c>
-      <c r="K33" t="n">
-        <v>3</v>
-      </c>
-      <c r="L33" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="M33" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="N33" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="O33" t="n">
-        <v>1.63</v>
-      </c>
-      <c r="P33" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="Q33" t="n">
-        <v>2.94</v>
-      </c>
-      <c r="R33" t="n">
-        <v>1.16</v>
-      </c>
-      <c r="S33" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="T33" t="n">
-        <v>2.24</v>
-      </c>
-      <c r="U33" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="V33" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="W33" t="n">
-        <v>1.54</v>
-      </c>
-      <c r="X33" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="Y33" t="n">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="Z33" t="n">
-        <v>20</v>
-      </c>
-      <c r="AA33" t="n">
-        <v>70</v>
-      </c>
-      <c r="AB33" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="AC33" t="n">
-        <v>7</v>
-      </c>
-      <c r="AD33" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AE33" t="n">
-        <v>60</v>
-      </c>
-      <c r="AF33" t="n">
-        <v>16</v>
-      </c>
-      <c r="AG33" t="n">
-        <v>14</v>
-      </c>
-      <c r="AH33" t="n">
-        <v>27</v>
-      </c>
-      <c r="AI33" t="n">
-        <v>240</v>
-      </c>
-      <c r="AJ33" t="n">
-        <v>50</v>
-      </c>
-      <c r="AK33" t="n">
-        <v>46</v>
-      </c>
-      <c r="AL33" t="n">
-        <v>85</v>
-      </c>
-      <c r="AM33" t="n">
-        <v>230</v>
-      </c>
-      <c r="AN33" t="n">
-        <v>60</v>
-      </c>
-      <c r="AO33" t="n">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>Argentinian Primera Division</t>
-        </is>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>2025-11-16</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>20:15:00</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>Central Cordoba (SdE)</t>
-        </is>
-      </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>Banfield</t>
-        </is>
-      </c>
-      <c r="F34" t="n">
-        <v>2.54</v>
-      </c>
-      <c r="G34" t="n">
-        <v>2.58</v>
-      </c>
-      <c r="H34" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="I34" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="J34" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="K34" t="n">
-        <v>2.94</v>
-      </c>
-      <c r="L34" t="n">
-        <v>1.66</v>
-      </c>
-      <c r="M34" t="n">
-        <v>1.16</v>
-      </c>
-      <c r="N34" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="O34" t="n">
-        <v>1.61</v>
-      </c>
-      <c r="P34" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="Q34" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="R34" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="S34" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="T34" t="n">
-        <v>2.22</v>
-      </c>
-      <c r="U34" t="n">
-        <v>1.72</v>
-      </c>
-      <c r="V34" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="W34" t="n">
-        <v>1.63</v>
-      </c>
-      <c r="X34" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="Y34" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="Z34" t="n">
-        <v>27</v>
-      </c>
-      <c r="AA34" t="n">
-        <v>180</v>
-      </c>
-      <c r="AB34" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="AC34" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="AD34" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AE34" t="n">
-        <v>70</v>
-      </c>
-      <c r="AF34" t="n">
-        <v>14</v>
-      </c>
-      <c r="AG34" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AH34" t="n">
-        <v>26</v>
-      </c>
-      <c r="AI34" t="n">
-        <v>100</v>
-      </c>
-      <c r="AJ34" t="n">
-        <v>80</v>
-      </c>
-      <c r="AK34" t="n">
-        <v>40</v>
-      </c>
-      <c r="AL34" t="n">
-        <v>180</v>
-      </c>
-      <c r="AM34" t="n">
-        <v>230</v>
-      </c>
-      <c r="AN34" t="n">
-        <v>46</v>
-      </c>
-      <c r="AO34" t="n">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>Argentinian Primera Division</t>
-        </is>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>2025-11-16</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>20:15:00</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>Boca Juniors</t>
-        </is>
-      </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>Tigre</t>
-        </is>
-      </c>
-      <c r="F35" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="G35" t="n">
-        <v>1.84</v>
-      </c>
-      <c r="H35" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="I35" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="J35" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="K35" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="L35" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="M35" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="N35" t="n">
-        <v>2.66</v>
-      </c>
-      <c r="O35" t="n">
-        <v>1.56</v>
-      </c>
-      <c r="P35" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="Q35" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="R35" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="S35" t="n">
-        <v>5.7</v>
-      </c>
-      <c r="T35" t="n">
-        <v>2.36</v>
-      </c>
-      <c r="U35" t="n">
-        <v>1.66</v>
-      </c>
-      <c r="V35" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="W35" t="n">
-        <v>2.18</v>
-      </c>
-      <c r="X35" t="n">
-        <v>8.6</v>
-      </c>
-      <c r="Y35" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="Z35" t="n">
-        <v>130</v>
-      </c>
-      <c r="AA35" t="n">
-        <v>280</v>
-      </c>
-      <c r="AB35" t="n">
-        <v>5.9</v>
-      </c>
-      <c r="AC35" t="n">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="AD35" t="n">
-        <v>46</v>
-      </c>
-      <c r="AE35" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF35" t="n">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="AG35" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AH35" t="n">
-        <v>26</v>
-      </c>
-      <c r="AI35" t="n">
-        <v>180</v>
-      </c>
-      <c r="AJ35" t="n">
-        <v>22</v>
-      </c>
-      <c r="AK35" t="n">
-        <v>34</v>
-      </c>
-      <c r="AL35" t="n">
-        <v>170</v>
-      </c>
-      <c r="AM35" t="n">
-        <v>300</v>
-      </c>
-      <c r="AN35" t="n">
-        <v>20</v>
-      </c>
-      <c r="AO35" t="n">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>Argentinian Primera Division</t>
-        </is>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>2025-11-16</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>20:15:00</t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>Newells</t>
-        </is>
-      </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>Racing Club</t>
-        </is>
-      </c>
-      <c r="F36" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="G36" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="H36" t="n">
-        <v>2.28</v>
-      </c>
-      <c r="I36" t="n">
-        <v>2.34</v>
-      </c>
-      <c r="J36" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="K36" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="L36" t="n">
-        <v>1.52</v>
-      </c>
-      <c r="M36" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="N36" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="O36" t="n">
-        <v>1.46</v>
-      </c>
-      <c r="P36" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="Q36" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="R36" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="S36" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="T36" t="n">
-        <v>1.99</v>
-      </c>
-      <c r="U36" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="V36" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="W36" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="X36" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="Y36" t="n">
-        <v>8.4</v>
-      </c>
-      <c r="Z36" t="n">
-        <v>13</v>
-      </c>
-      <c r="AA36" t="n">
-        <v>80</v>
-      </c>
-      <c r="AB36" t="n">
-        <v>12</v>
-      </c>
-      <c r="AC36" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="AD36" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AE36" t="n">
-        <v>65</v>
-      </c>
-      <c r="AF36" t="n">
-        <v>27</v>
-      </c>
-      <c r="AG36" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AH36" t="n">
-        <v>23</v>
-      </c>
-      <c r="AI36" t="n">
-        <v>55</v>
-      </c>
-      <c r="AJ36" t="n">
-        <v>90</v>
-      </c>
-      <c r="AK36" t="n">
-        <v>150</v>
-      </c>
-      <c r="AL36" t="n">
-        <v>75</v>
-      </c>
-      <c r="AM36" t="n">
-        <v>170</v>
-      </c>
-      <c r="AN36" t="n">
-        <v>75</v>
-      </c>
-      <c r="AO36" t="n">
-        <v>980</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>Colombian Primera B</t>
-        </is>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>2025-11-16</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>21:30:00</t>
-        </is>
-      </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>Real Soacha Cundinamarca FC</t>
-        </is>
-      </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>Real Cartagena</t>
-        </is>
-      </c>
-      <c r="F37" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="G37" t="n">
-        <v>2.36</v>
-      </c>
-      <c r="H37" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="I37" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="J37" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="K37" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="L37" t="n">
-        <v>1.49</v>
-      </c>
-      <c r="M37" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="N37" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="O37" t="n">
-        <v>1.41</v>
-      </c>
-      <c r="P37" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="Q37" t="n">
-        <v>2.24</v>
-      </c>
-      <c r="R37" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="S37" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="T37" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="U37" t="n">
-        <v>1.92</v>
-      </c>
-      <c r="V37" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="W37" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="X37" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="Y37" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="Z37" t="n">
-        <v>980</v>
-      </c>
-      <c r="AA37" t="n">
-        <v>80</v>
-      </c>
-      <c r="AB37" t="n">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="AC37" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="AD37" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AE37" t="n">
-        <v>55</v>
-      </c>
-      <c r="AF37" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AG37" t="n">
-        <v>12</v>
-      </c>
-      <c r="AH37" t="n">
-        <v>21</v>
-      </c>
-      <c r="AI37" t="n">
-        <v>70</v>
-      </c>
-      <c r="AJ37" t="n">
-        <v>980</v>
-      </c>
-      <c r="AK37" t="n">
-        <v>980</v>
-      </c>
-      <c r="AL37" t="n">
-        <v>980</v>
-      </c>
-      <c r="AM37" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN37" t="n">
-        <v>27</v>
-      </c>
-      <c r="AO37" t="n">
         <v>1000</v>
       </c>
     </row>
